--- a/LeetCode Techniques.xlsx
+++ b/LeetCode Techniques.xlsx
@@ -1,19 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/blackjack625/Desktop/LeetCode/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jack.yao\Desktop\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B69EDF-2CC6-DE48-8505-D32125DD7949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45949CCF-5102-4F88-BAB8-A0B350565402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Binary Search" sheetId="1" r:id="rId1"/>
+    <sheet name="Sliding Window" sheetId="2" r:id="rId2"/>
+    <sheet name="Set Maneuver" sheetId="3" r:id="rId3"/>
+    <sheet name="Recursion" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="63">
   <si>
     <t>Name</t>
   </si>
@@ -155,60 +158,113 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Insertion into subsequence 
+    <t>Reverse Pairs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/reverse-pairs/submissions/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Finding MK Average</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/finding-mk-average/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data Stream</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/search-a-2d-matrix/submissions/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Search a 2D Matrix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data Stream As Disjoint Intervals</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/data-stream-as-disjoint-intervals/submissions/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>My Calendar I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/my-calendar-i/submissions/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contains Duplicates III</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/contains-duplicate-iii/submissions/</t>
+  </si>
+  <si>
+    <t>O(n)</t>
+  </si>
+  <si>
+    <t>O(1)</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/longest-substring-without-repeating-characters/description/</t>
+  </si>
+  <si>
+    <t>Longest Substring Without Repeating Characters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Maximum Erasure Value</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximum-erasure-value/description/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-the-duplicate-number/description/</t>
+  </si>
+  <si>
+    <t>Find the Duplicate Number</t>
+  </si>
+  <si>
+    <t>Set Mismatch</t>
+  </si>
+  <si>
+    <t>Easy</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/set-mismatch/description/</t>
+  </si>
+  <si>
+    <t>Insertion (replacement) in subsequence 
 won't brush away longest record.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reverse Pairs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/reverse-pairs/submissions/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Finding MK Average</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/finding-mk-average/description/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Data Stream</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/search-a-2d-matrix/submissions/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Search a 2D Matrix</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Data Stream As Disjoint Intervals</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/data-stream-as-disjoint-intervals/submissions/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>My Calendar I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/my-calendar-i/submissions/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Contains Duplicates III</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/contains-duplicate-iii/submissions/</t>
+  </si>
+  <si>
+    <t>First Missing Positive</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/first-missing-positive/submissions/</t>
+  </si>
+  <si>
+    <t>Hard</t>
+  </si>
+  <si>
+    <t>Hash Table</t>
+  </si>
+  <si>
+    <t>Decode String</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/decode-string/</t>
   </si>
 </sst>
 </file>
@@ -216,19 +272,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -252,7 +308,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -260,9 +316,14 @@
       <u/>
       <sz val="10"/>
       <color theme="10"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
     </font>
   </fonts>
   <fills count="2">
@@ -301,19 +362,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -322,12 +383,136 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="超連結" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="18">
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFFFF00"/>
@@ -692,10 +877,10 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="41" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" customWidth="1"/>
     <col min="3" max="3" width="71" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
@@ -704,7 +889,7 @@
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20" customHeight="1">
+    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -739,15 +924,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="20" customHeight="1">
+    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="4">
         <v>74</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>10</v>
@@ -766,15 +951,15 @@
       <c r="J2" s="3"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="20" customHeight="1">
+    <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="4">
         <v>220</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>16</v>
@@ -793,7 +978,7 @@
       <c r="J3" s="3"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" ht="40" customHeight="1">
+    <row r="4" spans="1:11" ht="39.950000000000003" customHeight="1">
       <c r="A4" s="4">
         <v>300</v>
       </c>
@@ -807,7 +992,7 @@
         <v>16</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
@@ -822,7 +1007,7 @@
       <c r="J4" s="5"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:11" ht="20" customHeight="1">
+    <row r="5" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="4">
         <v>315</v>
       </c>
@@ -849,22 +1034,22 @@
       <c r="J5" s="5"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" ht="20" customHeight="1">
+    <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="4">
         <v>352</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>40</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>14</v>
@@ -878,7 +1063,7 @@
       <c r="J6" s="5"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11" ht="20" customHeight="1">
+    <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="4">
         <v>480</v>
       </c>
@@ -905,15 +1090,15 @@
       <c r="J7" s="5"/>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="1:11" ht="20" customHeight="1">
+    <row r="8" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="4">
         <v>493</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>16</v>
@@ -932,7 +1117,7 @@
       <c r="J8" s="5"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:11" ht="20" customHeight="1">
+    <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="4">
         <v>611</v>
       </c>
@@ -961,15 +1146,15 @@
       <c r="J9" s="5"/>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="1:11" ht="20" customHeight="1">
+    <row r="10" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="4">
         <v>729</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>10</v>
@@ -988,22 +1173,22 @@
       <c r="J10" s="5"/>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="1:11" ht="20" customHeight="1">
+    <row r="11" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="4">
         <v>1825</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>14</v>
@@ -1017,7 +1202,7 @@
       <c r="J11" s="5"/>
       <c r="K11" s="4"/>
     </row>
-    <row r="12" spans="1:11" ht="20" customHeight="1">
+    <row r="12" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="4">
         <v>2034</v>
       </c>
@@ -1032,7 +1217,7 @@
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>14</v>
@@ -1046,7 +1231,7 @@
       <c r="J12" s="5"/>
       <c r="K12" s="4"/>
     </row>
-    <row r="13" spans="1:11" ht="20" customHeight="1">
+    <row r="13" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="4">
         <v>2102</v>
       </c>
@@ -1061,7 +1246,7 @@
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>14</v>
@@ -1081,24 +1266,24 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D4:E13">
-    <cfRule type="expression" dxfId="5" priority="4">
+    <cfRule type="expression" dxfId="17" priority="4">
       <formula>D4="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="16" priority="5">
       <formula>D4="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="6">
+    <cfRule type="expression" dxfId="15" priority="6">
       <formula>D4="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D3">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="14" priority="1">
       <formula>D2="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="13" priority="2">
       <formula>D2="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="3">
+    <cfRule type="expression" dxfId="12" priority="3">
       <formula>D2="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1116,5 +1301,421 @@
     <hyperlink ref="C10" r:id="rId11" xr:uid="{87D58C84-2A2E-5243-AD6C-F126296F2572}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 General</oddFooter>
+  </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96F16DFC-20ED-4148-9FB8-AA8D12910A09}">
+  <dimension ref="A1:K3"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="45.7109375" customWidth="1"/>
+    <col min="3" max="3" width="71" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="36" customWidth="1"/>
+    <col min="6" max="8" width="21" customWidth="1"/>
+    <col min="9" max="10" width="16" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="A2" s="4">
+        <v>3</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="5">
+        <v>45378</v>
+      </c>
+      <c r="J2" s="5"/>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="A3" s="4">
+        <v>1695</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" s="5">
+        <v>45378</v>
+      </c>
+      <c r="J3" s="5"/>
+      <c r="K3" s="4"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D2:E3">
+    <cfRule type="expression" dxfId="11" priority="4">
+      <formula>D2="Easy"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="5">
+      <formula>D2="Medium"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="6">
+      <formula>D2="Hard"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{E1F44EBE-2031-4493-8DA0-C05554DE0E1C}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{186DAC56-ACE0-47B6-95EE-B3826BFE8C3E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 General</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F94156D-DED3-4FD7-B619-DDD9FD49102F}">
+  <dimension ref="A1:K4"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="3" width="65.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="36" customWidth="1"/>
+    <col min="6" max="8" width="21" customWidth="1"/>
+    <col min="9" max="10" width="16" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A2" s="4">
+        <v>41</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="5">
+        <v>45095</v>
+      </c>
+      <c r="J2" s="5">
+        <v>45481</v>
+      </c>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="A3" s="4">
+        <v>287</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" s="5">
+        <v>45375</v>
+      </c>
+      <c r="J3" s="5"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="4">
+        <v>645</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" s="5">
+        <v>45375</v>
+      </c>
+      <c r="J4" s="5"/>
+      <c r="K4" s="4"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D3:E4">
+    <cfRule type="expression" dxfId="8" priority="4">
+      <formula>D3="Easy"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="5">
+      <formula>D3="Medium"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="6">
+      <formula>D3="Hard"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2">
+    <cfRule type="expression" dxfId="5" priority="1">
+      <formula>D2="Easy"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="2">
+      <formula>D2="Medium"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>D2="Hard"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{985DB098-898F-46BA-9FC5-E7532DC519AA}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{909DDFE3-388E-405F-BDEB-7085F7F7D07F}"/>
+    <hyperlink ref="C2" r:id="rId3" xr:uid="{C2E7693A-9DE3-4A41-94EF-BDA22FC3FBE0}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId4"/>
+  <headerFooter>
+    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 General</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52261E16-6011-467F-965D-8624702367C9}">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="65.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="36" customWidth="1"/>
+    <col min="6" max="8" width="21" customWidth="1"/>
+    <col min="9" max="10" width="16" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A2" s="4">
+        <v>394</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="5">
+        <v>45384</v>
+      </c>
+      <c r="J2" s="5"/>
+      <c r="K2" s="4"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D2">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>D2="Easy"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>D2="Medium"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="3">
+      <formula>D2="Hard"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{AB100432-12B8-4215-BBA6-E5C40654EC6A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
+  <headerFooter>
+    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 General</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{04d09258-035b-4e4f-ae3e-d79ff3d418d8}" enabled="1" method="Standard" siteId="{f4a12867-922d-4b9d-bb85-9ee7898512a0}" contentBits="2" removed="0"/>
+</clbl:labelList>
 </file>
--- a/LeetCode Techniques.xlsx
+++ b/LeetCode Techniques.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jack.yao\Desktop\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45949CCF-5102-4F88-BAB8-A0B350565402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49F06EA2-BD74-4252-B02C-F04CA4EB665D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="68">
   <si>
     <t>Name</t>
   </si>
@@ -265,6 +265,22 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/decode-string/</t>
+  </si>
+  <si>
+    <t>Find in Mountain Array</t>
+  </si>
+  <si>
+    <t>Create Sorted Array through Instructions</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-in-mountain-array/description/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/create-sorted-array-through-instructions/description/</t>
+  </si>
+  <si>
+    <t>Use hash table to speed up
+calculation of bigger count.</t>
   </si>
 </sst>
 </file>
@@ -873,14 +889,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="35.7109375" customWidth="1"/>
+    <col min="2" max="2" width="38.28515625" customWidth="1"/>
     <col min="3" max="3" width="71" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
@@ -978,7 +994,7 @@
       <c r="J3" s="3"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" ht="39.950000000000003" customHeight="1">
+    <row r="4" spans="1:11" ht="30" customHeight="1">
       <c r="A4" s="4">
         <v>300</v>
       </c>
@@ -1175,71 +1191,71 @@
     </row>
     <row r="11" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="4">
-        <v>1825</v>
+        <v>1095</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="E11" s="4"/>
-      <c r="F11" s="4" t="s">
-        <v>35</v>
-      </c>
+      <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="I11" s="5">
-        <v>45400</v>
+        <v>45482</v>
       </c>
       <c r="J11" s="5"/>
       <c r="K11" s="4"/>
     </row>
-    <row r="12" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="1:11" ht="30" customHeight="1">
       <c r="A12" s="4">
-        <v>2034</v>
+        <v>1649</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="4"/>
+        <v>59</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>67</v>
+      </c>
       <c r="F12" s="4" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I12" s="5">
-        <v>45400</v>
+        <v>45482</v>
       </c>
       <c r="J12" s="5"/>
       <c r="K12" s="4"/>
     </row>
     <row r="13" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="4">
-        <v>2102</v>
+        <v>1825</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>16</v>
@@ -1255,17 +1271,75 @@
         <v>11</v>
       </c>
       <c r="I13" s="5">
-        <v>45420</v>
+        <v>45400</v>
       </c>
       <c r="J13" s="5"/>
       <c r="K13" s="4"/>
     </row>
+    <row r="14" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="A14" s="4">
+        <v>2034</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" s="5">
+        <v>45400</v>
+      </c>
+      <c r="J14" s="5"/>
+      <c r="K14" s="4"/>
+    </row>
+    <row r="15" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="A15" s="4">
+        <v>2102</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" s="5">
+        <v>45420</v>
+      </c>
+      <c r="J15" s="5"/>
+      <c r="K15" s="4"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K13">
-    <sortCondition ref="A2:A13"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K15">
+    <sortCondition ref="A2:A15"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D4:E13">
+  <conditionalFormatting sqref="D4:E15">
     <cfRule type="expression" dxfId="17" priority="4">
       <formula>D4="Easy"</formula>
     </cfRule>
@@ -1291,16 +1365,19 @@
     <hyperlink ref="C7" r:id="rId1" xr:uid="{98DA09B4-ED1E-9841-BFC0-AD6132AF476B}"/>
     <hyperlink ref="C9" r:id="rId2" xr:uid="{355AB06F-F372-E64C-BB34-3D68811E6B00}"/>
     <hyperlink ref="C5" r:id="rId3" xr:uid="{A97C1B49-93D0-D74A-BF3C-F925EFE9FD83}"/>
-    <hyperlink ref="C13" r:id="rId4" xr:uid="{4C375694-D494-514B-B747-D72CA94420E6}"/>
-    <hyperlink ref="C12" r:id="rId5" xr:uid="{5E8F7E04-6349-4D42-B16F-92BF0082A8EC}"/>
+    <hyperlink ref="C15" r:id="rId4" xr:uid="{4C375694-D494-514B-B747-D72CA94420E6}"/>
+    <hyperlink ref="C14" r:id="rId5" xr:uid="{5E8F7E04-6349-4D42-B16F-92BF0082A8EC}"/>
     <hyperlink ref="C4" r:id="rId6" xr:uid="{C06E2E2A-F9EA-2C41-A2A2-0110BB4FE089}"/>
     <hyperlink ref="C8" r:id="rId7" xr:uid="{88F29B63-471E-1745-ABA5-15B0EE490696}"/>
-    <hyperlink ref="C11" r:id="rId8" xr:uid="{77B0B942-637D-9846-B52B-162446D656B7}"/>
+    <hyperlink ref="C13" r:id="rId8" xr:uid="{77B0B942-637D-9846-B52B-162446D656B7}"/>
     <hyperlink ref="C2" r:id="rId9" xr:uid="{FC6DC5BC-3B79-3A47-AD69-9FD63EE06424}"/>
     <hyperlink ref="C6" r:id="rId10" xr:uid="{82F4789C-38A4-1A4D-BA41-951136E51502}"/>
     <hyperlink ref="C10" r:id="rId11" xr:uid="{87D58C84-2A2E-5243-AD6C-F126296F2572}"/>
+    <hyperlink ref="C11" r:id="rId12" xr:uid="{E17A87F3-1678-4780-AF58-F4783F4A7A65}"/>
+    <hyperlink ref="C12" r:id="rId13" xr:uid="{AB427796-2FCF-4F37-AC47-998ADDB37E09}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId14"/>
   <headerFooter>
     <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 General</oddFooter>
   </headerFooter>

--- a/LeetCode Techniques.xlsx
+++ b/LeetCode Techniques.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jack.yao\Desktop\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49F06EA2-BD74-4252-B02C-F04CA4EB665D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{676A8219-EDB4-4BDF-9ECF-9DF0DF4596CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,8 @@
     <sheet name="Binary Search" sheetId="1" r:id="rId1"/>
     <sheet name="Sliding Window" sheetId="2" r:id="rId2"/>
     <sheet name="Set Maneuver" sheetId="3" r:id="rId3"/>
-    <sheet name="Recursion" sheetId="4" r:id="rId4"/>
+    <sheet name="Recursion" sheetId="5" r:id="rId4"/>
+    <sheet name="Trie" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="74">
   <si>
     <t>Name</t>
   </si>
@@ -281,6 +282,24 @@
   <si>
     <t>Use hash table to speed up
 calculation of bigger count.</t>
+  </si>
+  <si>
+    <t>Implement Trie (Prefix Tree)</t>
+  </si>
+  <si>
+    <t>Design Add and Search Words Data Structure</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/implement-trie-prefix-tree/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/design-add-and-search-words-data-structure/description/</t>
+  </si>
+  <si>
+    <t>Apply recursive call for fuzzy search.</t>
+  </si>
+  <si>
+    <t>O(n*m)</t>
   </si>
 </sst>
 </file>
@@ -408,7 +427,37 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="21">
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFFFF00"/>
@@ -1340,24 +1389,24 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D4:E15">
-    <cfRule type="expression" dxfId="17" priority="4">
+    <cfRule type="expression" dxfId="20" priority="4">
       <formula>D4="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="5">
+    <cfRule type="expression" dxfId="19" priority="5">
       <formula>D4="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="6">
+    <cfRule type="expression" dxfId="18" priority="6">
       <formula>D4="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D3">
-    <cfRule type="expression" dxfId="14" priority="1">
+    <cfRule type="expression" dxfId="17" priority="1">
       <formula>D2="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="2">
+    <cfRule type="expression" dxfId="16" priority="2">
       <formula>D2="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="3">
+    <cfRule type="expression" dxfId="15" priority="3">
       <formula>D2="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1493,13 +1542,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:E3">
-    <cfRule type="expression" dxfId="11" priority="4">
+    <cfRule type="expression" dxfId="14" priority="4">
       <formula>D2="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="5">
+    <cfRule type="expression" dxfId="13" priority="5">
       <formula>D2="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="6">
+    <cfRule type="expression" dxfId="12" priority="6">
       <formula>D2="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1654,24 +1703,24 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D3:E4">
-    <cfRule type="expression" dxfId="8" priority="4">
+    <cfRule type="expression" dxfId="11" priority="4">
       <formula>D3="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="5">
+    <cfRule type="expression" dxfId="10" priority="5">
       <formula>D3="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="6">
+    <cfRule type="expression" dxfId="9" priority="6">
       <formula>D3="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="8" priority="1">
       <formula>D2="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="7" priority="2">
       <formula>D2="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="6" priority="3">
       <formula>D2="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1689,7 +1738,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52261E16-6011-467F-965D-8624702367C9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69159F7B-7780-4FD1-9225-126219315A4A}">
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
@@ -1698,6 +1747,109 @@
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="35.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="36" customWidth="1"/>
+    <col min="6" max="8" width="21" customWidth="1"/>
+    <col min="9" max="10" width="16" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A2" s="4">
+        <v>394</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="5">
+        <v>45384</v>
+      </c>
+      <c r="J2" s="5"/>
+      <c r="K2" s="4"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D2">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>D2="Easy"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>D2="Medium"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="3">
+      <formula>D2="Hard"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{E2CF697A-AC7A-4622-85D9-DB09691263B3}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
+  <headerFooter>
+    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 General</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52261E16-6011-467F-965D-8624702367C9}">
+  <dimension ref="A1:K3"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="43.28515625" customWidth="1"/>
     <col min="3" max="3" width="65.7109375" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
@@ -1743,13 +1895,13 @@
     </row>
     <row r="2" spans="1:11" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="4">
-        <v>394</v>
+        <v>208</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>49</v>
@@ -1760,31 +1912,61 @@
         <v>44</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="I2" s="5">
-        <v>45384</v>
+        <v>45483</v>
       </c>
       <c r="J2" s="5"/>
       <c r="K2" s="4"/>
     </row>
+    <row r="3" spans="1:11" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A3" s="4">
+        <v>211</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="I3" s="5">
+        <v>45483</v>
+      </c>
+      <c r="J3" s="5"/>
+      <c r="K3" s="4"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D2">
-    <cfRule type="expression" dxfId="2" priority="1">
+  <conditionalFormatting sqref="D2:D3">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>D2="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="4" priority="2">
       <formula>D2="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="3">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>D2="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{AB100432-12B8-4215-BBA6-E5C40654EC6A}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{42D40DB9-825F-441E-8849-B38723C0AA00}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId3"/>
   <headerFooter>
     <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 General</oddFooter>
   </headerFooter>

--- a/LeetCode Techniques.xlsx
+++ b/LeetCode Techniques.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jack.yao\Desktop\LeetCode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/blackjack625/Desktop/LeetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{676A8219-EDB4-4BDF-9ECF-9DF0DF4596CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A96C8C3E-6C34-5E48-816C-40342B8CE225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="20640" windowHeight="11040" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Binary Search" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="92">
   <si>
     <t>Name</t>
   </si>
@@ -244,62 +244,138 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/set-mismatch/description/</t>
+  </si>
+  <si>
+    <t>First Missing Positive</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/first-missing-positive/submissions/</t>
+  </si>
+  <si>
+    <t>Hard</t>
+  </si>
+  <si>
+    <t>Hash Table</t>
+  </si>
+  <si>
+    <t>Decode String</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/decode-string/</t>
+  </si>
+  <si>
+    <t>Find in Mountain Array</t>
+  </si>
+  <si>
+    <t>Create Sorted Array through Instructions</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-in-mountain-array/description/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/create-sorted-array-through-instructions/description/</t>
+  </si>
+  <si>
+    <t>Implement Trie (Prefix Tree)</t>
+  </si>
+  <si>
+    <t>Design Add and Search Words Data Structure</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/implement-trie-prefix-tree/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/design-add-and-search-words-data-structure/description/</t>
+  </si>
+  <si>
+    <t>Apply recursive call for fuzzy search.</t>
+  </si>
+  <si>
+    <t>O(n*m)</t>
+  </si>
+  <si>
+    <t>DFS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lexicographical Numbers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/lexicographical-numbers/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O(n*m)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Replace Words</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/replace-words/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map Sum Pairs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/map-sum-pairs/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Longest Word in Dictionary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/longest-word-in-dictionary/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/stream-of-characters/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stream of Characters</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Insertion (replacement) in subsequence 
 won't brush away longest record.</t>
-  </si>
-  <si>
-    <t>First Missing Positive</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/first-missing-positive/submissions/</t>
-  </si>
-  <si>
-    <t>Hard</t>
-  </si>
-  <si>
-    <t>Hash Table</t>
-  </si>
-  <si>
-    <t>Decode String</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/decode-string/</t>
-  </si>
-  <si>
-    <t>Find in Mountain Array</t>
-  </si>
-  <si>
-    <t>Create Sorted Array through Instructions</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/find-in-mountain-array/description/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/create-sorted-array-through-instructions/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Use hash table to speed up
 calculation of bigger count.</t>
-  </si>
-  <si>
-    <t>Implement Trie (Prefix Tree)</t>
-  </si>
-  <si>
-    <t>Design Add and Search Words Data Structure</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/implement-trie-prefix-tree/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/design-add-and-search-words-data-structure/description/</t>
-  </si>
-  <si>
-    <t>Apply recursive call for fuzzy search.</t>
-  </si>
-  <si>
-    <t>O(n*m)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Suffix is reverse prefix.
+Trie operations are also reverse.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Search Suggestions System</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/search-suggestions-system/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sum of Prefix Scores of Strings</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/sum-of-prefix-scores-of-strings/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>During trie storage,
+use a mark to count prefixes.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -307,19 +383,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -343,7 +419,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -351,7 +427,7 @@
       <u/>
       <sz val="10"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -359,6 +435,16 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -399,17 +485,17 @@
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -421,11 +507,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="21">
     <dxf>
@@ -940,12 +1028,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="38.28515625" customWidth="1"/>
+    <col min="2" max="2" width="38.19921875" customWidth="1"/>
     <col min="3" max="3" width="71" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
@@ -954,7 +1042,7 @@
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:11" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -989,7 +1077,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:11" ht="20" customHeight="1">
       <c r="A2" s="4">
         <v>74</v>
       </c>
@@ -1016,7 +1104,7 @@
       <c r="J2" s="3"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:11" ht="20" customHeight="1">
       <c r="A3" s="4">
         <v>220</v>
       </c>
@@ -1057,7 +1145,7 @@
         <v>16</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
@@ -1072,7 +1160,7 @@
       <c r="J4" s="5"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="1:11" ht="20" customHeight="1">
       <c r="A5" s="4">
         <v>315</v>
       </c>
@@ -1099,7 +1187,7 @@
       <c r="J5" s="5"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="1:11" ht="20" customHeight="1">
       <c r="A6" s="4">
         <v>352</v>
       </c>
@@ -1128,7 +1216,7 @@
       <c r="J6" s="5"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="1:11" ht="20" customHeight="1">
       <c r="A7" s="4">
         <v>480</v>
       </c>
@@ -1155,7 +1243,7 @@
       <c r="J7" s="5"/>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="1:11" ht="20" customHeight="1">
       <c r="A8" s="4">
         <v>493</v>
       </c>
@@ -1182,7 +1270,7 @@
       <c r="J8" s="5"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:11" ht="20" customHeight="1">
       <c r="A9" s="4">
         <v>611</v>
       </c>
@@ -1211,7 +1299,7 @@
       <c r="J9" s="5"/>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="1:11" ht="20" customHeight="1">
       <c r="A10" s="4">
         <v>729</v>
       </c>
@@ -1238,18 +1326,18 @@
       <c r="J10" s="5"/>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="1:11" ht="20" customHeight="1">
       <c r="A11" s="4">
         <v>1095</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -1270,19 +1358,19 @@
         <v>1649</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D12" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>60</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>12</v>
@@ -1296,7 +1384,7 @@
       <c r="J12" s="5"/>
       <c r="K12" s="4"/>
     </row>
-    <row r="13" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="1:11" ht="20" customHeight="1">
       <c r="A13" s="4">
         <v>1825</v>
       </c>
@@ -1325,7 +1413,7 @@
       <c r="J13" s="5"/>
       <c r="K13" s="4"/>
     </row>
-    <row r="14" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="1:11" ht="20" customHeight="1">
       <c r="A14" s="4">
         <v>2034</v>
       </c>
@@ -1354,7 +1442,7 @@
       <c r="J14" s="5"/>
       <c r="K14" s="4"/>
     </row>
-    <row r="15" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="1:11" ht="20" customHeight="1">
       <c r="A15" s="4">
         <v>2102</v>
       </c>
@@ -1388,26 +1476,26 @@
     <sortCondition ref="A2:A15"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="D2:D3">
+    <cfRule type="expression" dxfId="20" priority="1">
+      <formula>D2="Easy"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="19" priority="2">
+      <formula>D2="Medium"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="3">
+      <formula>D2="Hard"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D4:E15">
-    <cfRule type="expression" dxfId="20" priority="4">
+    <cfRule type="expression" dxfId="17" priority="4">
       <formula>D4="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="5">
+    <cfRule type="expression" dxfId="16" priority="5">
       <formula>D4="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="6">
+    <cfRule type="expression" dxfId="15" priority="6">
       <formula>D4="Hard"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D3">
-    <cfRule type="expression" dxfId="17" priority="1">
-      <formula>D2="Easy"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="2">
-      <formula>D2="Medium"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="15" priority="3">
-      <formula>D2="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -1439,10 +1527,10 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="45.7109375" customWidth="1"/>
+    <col min="2" max="2" width="45.796875" customWidth="1"/>
     <col min="3" max="3" width="71" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
@@ -1451,7 +1539,7 @@
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:11" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -1486,7 +1574,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:11" ht="20" customHeight="1">
       <c r="A2" s="4">
         <v>3</v>
       </c>
@@ -1513,7 +1601,7 @@
       <c r="J2" s="5"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:11" ht="20" customHeight="1">
       <c r="A3" s="4">
         <v>1695</v>
       </c>
@@ -1541,6 +1629,7 @@
       <c r="K3" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2:E3">
     <cfRule type="expression" dxfId="14" priority="4">
       <formula>D2="Easy"</formula>
@@ -1569,11 +1658,11 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" customWidth="1"/>
-    <col min="3" max="3" width="65.7109375" customWidth="1"/>
+    <col min="2" max="2" width="25.796875" customWidth="1"/>
+    <col min="3" max="3" width="65.796875" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
     <col min="6" max="8" width="21" customWidth="1"/>
@@ -1581,7 +1670,7 @@
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:11" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -1616,22 +1705,22 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:11" ht="20" customHeight="1">
       <c r="A2" s="4">
         <v>41</v>
       </c>
       <c r="B2" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>59</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>44</v>
@@ -1647,7 +1736,7 @@
       </c>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:11" ht="20" customHeight="1">
       <c r="A3" s="4">
         <v>287</v>
       </c>
@@ -1674,7 +1763,7 @@
       <c r="J3" s="5"/>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="1:11" ht="20" customHeight="1">
       <c r="A4" s="4">
         <v>645</v>
       </c>
@@ -1702,26 +1791,27 @@
       <c r="K4" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="D2">
+    <cfRule type="expression" dxfId="11" priority="1">
+      <formula>D2="Easy"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="2">
+      <formula>D2="Medium"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="3">
+      <formula>D2="Hard"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D3:E4">
-    <cfRule type="expression" dxfId="11" priority="4">
+    <cfRule type="expression" dxfId="8" priority="4">
       <formula>D3="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="5">
+    <cfRule type="expression" dxfId="7" priority="5">
       <formula>D3="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="6">
+    <cfRule type="expression" dxfId="6" priority="6">
       <formula>D3="Hard"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2">
-    <cfRule type="expression" dxfId="8" priority="1">
-      <formula>D2="Easy"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="7" priority="2">
-      <formula>D2="Medium"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="3">
-      <formula>D2="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -1743,11 +1833,11 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="35.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.796875" customWidth="1"/>
+    <col min="3" max="3" width="35.796875" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
     <col min="6" max="8" width="21" customWidth="1"/>
@@ -1755,7 +1845,7 @@
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:11" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -1790,15 +1880,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:11" ht="20" customHeight="1">
       <c r="A2" s="4">
         <v>394</v>
       </c>
       <c r="B2" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>49</v>
@@ -1818,14 +1908,15 @@
       <c r="K2" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>D2="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="4" priority="2">
       <formula>D2="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="3">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>D2="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1842,15 +1933,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52261E16-6011-467F-965D-8624702367C9}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="43.28515625" customWidth="1"/>
-    <col min="3" max="3" width="65.7109375" customWidth="1"/>
+    <col min="2" max="2" width="46" customWidth="1"/>
+    <col min="3" max="3" width="65.796875" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
     <col min="6" max="8" width="21" customWidth="1"/>
@@ -1858,7 +1949,7 @@
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:11" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -1893,15 +1984,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:11" ht="20" customHeight="1">
       <c r="A2" s="4">
         <v>208</v>
       </c>
       <c r="B2" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>49</v>
@@ -1912,7 +2003,7 @@
         <v>44</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I2" s="5">
         <v>45483</v>
@@ -1920,28 +2011,28 @@
       <c r="J2" s="5"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:11" ht="20" customHeight="1">
       <c r="A3" s="4">
         <v>211</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>69</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>49</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4" t="s">
         <v>44</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I3" s="5">
         <v>45483</v>
@@ -1949,24 +2040,233 @@
       <c r="J3" s="5"/>
       <c r="K3" s="4"/>
     </row>
+    <row r="4" spans="1:11" ht="20" customHeight="1">
+      <c r="A4" s="4">
+        <v>386</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I4" s="5">
+        <v>45483</v>
+      </c>
+      <c r="J4" s="5"/>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:11" ht="20" customHeight="1">
+      <c r="A5" s="4">
+        <v>648</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I5" s="5">
+        <v>45485</v>
+      </c>
+      <c r="J5" s="5"/>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:11" ht="20" customHeight="1">
+      <c r="A6" s="4">
+        <v>677</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I6" s="5">
+        <v>45484</v>
+      </c>
+      <c r="J6" s="5"/>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="1:11" ht="20" customHeight="1">
+      <c r="A7" s="4">
+        <v>720</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I7" s="5">
+        <v>45485</v>
+      </c>
+      <c r="J7" s="5"/>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="1:11" ht="30" customHeight="1">
+      <c r="A8" s="4">
+        <v>1032</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I8" s="5">
+        <v>45484</v>
+      </c>
+      <c r="J8" s="5"/>
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" spans="1:11" ht="20" customHeight="1">
+      <c r="A9" s="4">
+        <v>1268</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I9" s="5">
+        <v>45484</v>
+      </c>
+      <c r="J9" s="5"/>
+      <c r="K9" s="4"/>
+    </row>
+    <row r="10" spans="1:11" ht="30" customHeight="1">
+      <c r="A10" s="4">
+        <v>2416</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I10" s="5">
+        <v>45485</v>
+      </c>
+      <c r="J10" s="5"/>
+      <c r="K10" s="4"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:D3">
-    <cfRule type="expression" dxfId="5" priority="1">
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="D2:D10">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>D2="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>D2="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="0" priority="3">
       <formula>D2="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{AB100432-12B8-4215-BBA6-E5C40654EC6A}"/>
     <hyperlink ref="C3" r:id="rId2" xr:uid="{42D40DB9-825F-441E-8849-B38723C0AA00}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{B8B8C24A-337E-6342-9322-B5873966C1CD}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{3E8C3E19-6B46-0F4D-A126-DE087C1973B3}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{1F44F1F1-D0A2-9949-A314-B6331F5F184A}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{D8BF5A6D-580B-124C-8BD5-5C2E12D6EE9D}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{3CE12B0A-7911-1C4A-B980-D72B57CEF826}"/>
+    <hyperlink ref="C9" r:id="rId8" xr:uid="{918C731F-F6A4-DA41-8882-65843D2BB552}"/>
+    <hyperlink ref="C10" r:id="rId9" xr:uid="{234F4264-C395-A34E-9422-8A9145823330}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId10"/>
   <headerFooter>
     <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 General</oddFooter>
   </headerFooter>

--- a/LeetCode Techniques.xlsx
+++ b/LeetCode Techniques.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/blackjack625/Desktop/LeetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A96C8C3E-6C34-5E48-816C-40342B8CE225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49444300-7889-7C45-BBE5-FAE34250899B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="20640" windowHeight="11040" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="20640" windowHeight="11040" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Binary Search" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Set Maneuver" sheetId="3" r:id="rId3"/>
     <sheet name="Recursion" sheetId="5" r:id="rId4"/>
     <sheet name="Trie" sheetId="4" r:id="rId5"/>
+    <sheet name="Depth First Search" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="97">
   <si>
     <t>Name</t>
   </si>
@@ -375,6 +376,26 @@
   <si>
     <t>During trie storage,
 use a mark to count prefixes.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Path Sum II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flatten Binary Tree to Linked List</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/path-sum-ii/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/flatten-binary-tree-to-linked-list/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Linked List</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -424,14 +445,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="10"/>
-      <name val="新細明體"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Microsoft YaHei"/>
@@ -441,10 +454,16 @@
       <u/>
       <sz val="10"/>
       <color theme="10"/>
-      <name val="新細明體"/>
-      <family val="1"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -501,21 +520,49 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="24">
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFFFF00"/>
@@ -1030,11 +1077,11 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="38.19921875" customWidth="1"/>
-    <col min="3" max="3" width="71" customWidth="1"/>
+    <col min="3" max="3" width="71" style="9" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
     <col min="6" max="8" width="21" customWidth="1"/>
@@ -1084,7 +1131,7 @@
       <c r="B2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -1111,7 +1158,7 @@
       <c r="B3" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="8" t="s">
         <v>43</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -1138,7 +1185,7 @@
       <c r="B4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="8" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -1167,7 +1214,7 @@
       <c r="B5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="8" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="4" t="s">
@@ -1194,7 +1241,7 @@
       <c r="B6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="8" t="s">
         <v>39</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -1223,7 +1270,7 @@
       <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D7" s="4" t="s">
@@ -1250,7 +1297,7 @@
       <c r="B8" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="8" t="s">
         <v>32</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -1277,7 +1324,7 @@
       <c r="B9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="4" t="s">
@@ -1306,7 +1353,7 @@
       <c r="B10" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="8" t="s">
         <v>41</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -1333,7 +1380,7 @@
       <c r="B11" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="8" t="s">
         <v>64</v>
       </c>
       <c r="D11" s="4" t="s">
@@ -1360,7 +1407,7 @@
       <c r="B12" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="8" t="s">
         <v>65</v>
       </c>
       <c r="D12" s="4" t="s">
@@ -1391,7 +1438,7 @@
       <c r="B13" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="8" t="s">
         <v>34</v>
       </c>
       <c r="D13" s="4" t="s">
@@ -1420,7 +1467,7 @@
       <c r="B14" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D14" s="4" t="s">
@@ -1449,7 +1496,7 @@
       <c r="B15" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="8" t="s">
         <v>24</v>
       </c>
       <c r="D15" s="4" t="s">
@@ -1477,24 +1524,24 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2:D3">
-    <cfRule type="expression" dxfId="20" priority="1">
+    <cfRule type="expression" dxfId="23" priority="1">
       <formula>D2="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="2">
+    <cfRule type="expression" dxfId="22" priority="2">
       <formula>D2="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="3">
+    <cfRule type="expression" dxfId="21" priority="3">
       <formula>D2="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:E15">
-    <cfRule type="expression" dxfId="17" priority="4">
+    <cfRule type="expression" dxfId="20" priority="4">
       <formula>D4="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="5">
+    <cfRule type="expression" dxfId="19" priority="5">
       <formula>D4="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="6">
+    <cfRule type="expression" dxfId="18" priority="6">
       <formula>D4="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1527,11 +1574,11 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="45.796875" customWidth="1"/>
-    <col min="3" max="3" width="71" customWidth="1"/>
+    <col min="3" max="3" width="71" style="9" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
     <col min="6" max="8" width="21" customWidth="1"/>
@@ -1581,7 +1628,7 @@
       <c r="B2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>46</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -1608,7 +1655,7 @@
       <c r="B3" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="8" t="s">
         <v>50</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -1631,13 +1678,13 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2:E3">
-    <cfRule type="expression" dxfId="14" priority="4">
+    <cfRule type="expression" dxfId="17" priority="4">
       <formula>D2="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="5">
+    <cfRule type="expression" dxfId="16" priority="5">
       <formula>D2="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="6">
+    <cfRule type="expression" dxfId="15" priority="6">
       <formula>D2="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1658,11 +1705,11 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="25.796875" customWidth="1"/>
-    <col min="3" max="3" width="65.796875" customWidth="1"/>
+    <col min="3" max="3" width="65.796875" style="9" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
     <col min="6" max="8" width="21" customWidth="1"/>
@@ -1709,10 +1756,10 @@
       <c r="A2" s="4">
         <v>41</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>57</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -1743,7 +1790,7 @@
       <c r="B3" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="8" t="s">
         <v>51</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -1770,7 +1817,7 @@
       <c r="B4" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="8" t="s">
         <v>55</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -1793,24 +1840,24 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2">
-    <cfRule type="expression" dxfId="11" priority="1">
+    <cfRule type="expression" dxfId="14" priority="1">
       <formula>D2="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="2">
+    <cfRule type="expression" dxfId="13" priority="2">
       <formula>D2="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="3">
+    <cfRule type="expression" dxfId="12" priority="3">
       <formula>D2="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:E4">
-    <cfRule type="expression" dxfId="8" priority="4">
+    <cfRule type="expression" dxfId="11" priority="4">
       <formula>D3="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="5">
+    <cfRule type="expression" dxfId="10" priority="5">
       <formula>D3="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="6">
+    <cfRule type="expression" dxfId="9" priority="6">
       <formula>D3="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1833,11 +1880,11 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="15.796875" customWidth="1"/>
-    <col min="3" max="3" width="35.796875" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="35.796875" style="9" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
     <col min="6" max="8" width="21" customWidth="1"/>
@@ -1884,10 +1931,10 @@
       <c r="A2" s="4">
         <v>394</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>61</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -1910,13 +1957,13 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="8" priority="1">
       <formula>D2="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="7" priority="2">
       <formula>D2="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="6" priority="3">
       <formula>D2="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1935,13 +1982,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52261E16-6011-467F-965D-8624702367C9}">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="46" customWidth="1"/>
-    <col min="3" max="3" width="65.796875" customWidth="1"/>
+    <col min="3" max="3" width="65.796875" style="9" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
     <col min="6" max="8" width="21" customWidth="1"/>
@@ -1988,10 +2035,10 @@
       <c r="A2" s="4">
         <v>208</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>68</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -2015,10 +2062,10 @@
       <c r="A3" s="4">
         <v>211</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>69</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -2047,7 +2094,7 @@
       <c r="B4" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>74</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -2076,7 +2123,7 @@
       <c r="B5" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>77</v>
       </c>
       <c r="D5" s="4" t="s">
@@ -2103,7 +2150,7 @@
       <c r="B6" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>79</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -2132,7 +2179,7 @@
       <c r="B7" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>81</v>
       </c>
       <c r="D7" s="4" t="s">
@@ -2161,7 +2208,7 @@
       <c r="B8" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>82</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -2190,7 +2237,7 @@
       <c r="B9" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>88</v>
       </c>
       <c r="D9" s="4" t="s">
@@ -2219,7 +2266,7 @@
       <c r="B10" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>90</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -2244,13 +2291,13 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2:D10">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>D2="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="4" priority="2">
       <formula>D2="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="3">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>D2="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2273,6 +2320,142 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C287181F-E765-1C4E-B964-9C9FDBE62A17}">
+  <dimension ref="A1:K3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="36" customWidth="1"/>
+    <col min="3" max="3" width="35.796875" style="9" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="36" customWidth="1"/>
+    <col min="6" max="8" width="21" customWidth="1"/>
+    <col min="9" max="10" width="16" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="20" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="20" customHeight="1">
+      <c r="A2" s="4">
+        <v>113</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="5">
+        <v>45486</v>
+      </c>
+      <c r="J2" s="5"/>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="1:11" ht="20" customHeight="1">
+      <c r="A3" s="4">
+        <v>114</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" s="5">
+        <v>45486</v>
+      </c>
+      <c r="J3" s="5"/>
+      <c r="K3" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="D2:D3">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>D2="Easy"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>D2="Medium"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="3">
+      <formula>D2="Hard"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{6D7B591D-348C-3F48-8F5D-0CC1D7D323A3}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{75408504-4022-5F46-87C2-C45DD0C84D7E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId3"/>
+  <headerFooter>
+    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 General</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{04d09258-035b-4e4f-ae3e-d79ff3d418d8}" enabled="1" method="Standard" siteId="{f4a12867-922d-4b9d-bb85-9ee7898512a0}" contentBits="2" removed="0"/>

--- a/LeetCode Techniques.xlsx
+++ b/LeetCode Techniques.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/blackjack625/Desktop/LeetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49444300-7889-7C45-BBE5-FAE34250899B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D077E055-E5FC-7042-AD27-E3A5ED77F8EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="20640" windowHeight="11040" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,6 +19,7 @@
     <sheet name="Recursion" sheetId="5" r:id="rId4"/>
     <sheet name="Trie" sheetId="4" r:id="rId5"/>
     <sheet name="Depth First Search" sheetId="6" r:id="rId6"/>
+    <sheet name="Breadth First Search" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="109">
   <si>
     <t>Name</t>
   </si>
@@ -396,6 +397,54 @@
   </si>
   <si>
     <t>Linked List</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/populating-next-right-pointers-in-each-node/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Populating Next Right Pointers in Each Node</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sum Root to Leaf Numbers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/sum-root-to-leaf-numbers/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flatten Nested List Iterator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/flatten-nested-list-iterator/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nested List</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Find Bottom Left Tree Value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-bottom-left-tree-value/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Binary Tree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Path Sum III</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/path-sum-iii/description/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -532,7 +581,37 @@
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="27">
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFFFF00"/>
@@ -1524,24 +1603,24 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2:D3">
-    <cfRule type="expression" dxfId="23" priority="1">
+    <cfRule type="expression" dxfId="26" priority="1">
       <formula>D2="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="2">
+    <cfRule type="expression" dxfId="25" priority="2">
       <formula>D2="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="3">
+    <cfRule type="expression" dxfId="24" priority="3">
       <formula>D2="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:E15">
-    <cfRule type="expression" dxfId="20" priority="4">
+    <cfRule type="expression" dxfId="23" priority="4">
       <formula>D4="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="5">
+    <cfRule type="expression" dxfId="22" priority="5">
       <formula>D4="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="6">
+    <cfRule type="expression" dxfId="21" priority="6">
       <formula>D4="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1678,13 +1757,13 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2:E3">
-    <cfRule type="expression" dxfId="17" priority="4">
+    <cfRule type="expression" dxfId="20" priority="4">
       <formula>D2="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="5">
+    <cfRule type="expression" dxfId="19" priority="5">
       <formula>D2="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="6">
+    <cfRule type="expression" dxfId="18" priority="6">
       <formula>D2="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1840,24 +1919,24 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2">
-    <cfRule type="expression" dxfId="14" priority="1">
+    <cfRule type="expression" dxfId="17" priority="1">
       <formula>D2="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="2">
+    <cfRule type="expression" dxfId="16" priority="2">
       <formula>D2="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="3">
+    <cfRule type="expression" dxfId="15" priority="3">
       <formula>D2="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:E4">
-    <cfRule type="expression" dxfId="11" priority="4">
+    <cfRule type="expression" dxfId="14" priority="4">
       <formula>D3="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="5">
+    <cfRule type="expression" dxfId="13" priority="5">
       <formula>D3="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="6">
+    <cfRule type="expression" dxfId="12" priority="6">
       <formula>D3="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1957,13 +2036,13 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2">
-    <cfRule type="expression" dxfId="8" priority="1">
+    <cfRule type="expression" dxfId="11" priority="1">
       <formula>D2="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="2">
+    <cfRule type="expression" dxfId="10" priority="2">
       <formula>D2="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="3">
+    <cfRule type="expression" dxfId="9" priority="3">
       <formula>D2="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2291,13 +2370,13 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2:D10">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="8" priority="1">
       <formula>D2="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="7" priority="2">
       <formula>D2="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="6" priority="3">
       <formula>D2="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2322,7 +2401,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C287181F-E765-1C4E-B964-9C9FDBE62A17}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -2431,9 +2510,234 @@
       <c r="J3" s="5"/>
       <c r="K3" s="4"/>
     </row>
+    <row r="4" spans="1:11" ht="20" customHeight="1">
+      <c r="A4" s="4">
+        <v>129</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="5">
+        <v>45487</v>
+      </c>
+      <c r="J4" s="5"/>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:11" ht="20" customHeight="1">
+      <c r="A5" s="4">
+        <v>341</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" s="5">
+        <v>45487</v>
+      </c>
+      <c r="J5" s="5"/>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:11" ht="20" customHeight="1">
+      <c r="A6" s="4">
+        <v>437</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" s="5">
+        <v>45487</v>
+      </c>
+      <c r="J6" s="5"/>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="1:11" ht="20" customHeight="1">
+      <c r="A7" s="4">
+        <v>513</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="5">
+        <v>45487</v>
+      </c>
+      <c r="J7" s="5"/>
+      <c r="K7" s="4"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D2:D3">
+  <conditionalFormatting sqref="D2:D7">
+    <cfRule type="expression" dxfId="5" priority="1">
+      <formula>D2="Easy"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="2">
+      <formula>D2="Medium"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>D2="Hard"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{6D7B591D-348C-3F48-8F5D-0CC1D7D323A3}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{75408504-4022-5F46-87C2-C45DD0C84D7E}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{58EBA3C8-38C3-AD4D-86B6-2BD56DBBCDCD}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{63AC3368-EC03-1949-9ACD-8B642757EADB}"/>
+    <hyperlink ref="C7" r:id="rId5" xr:uid="{2E17F9D2-5401-784D-B0AE-3D6983893C12}"/>
+    <hyperlink ref="C6" r:id="rId6" xr:uid="{5CC483BA-CBD2-634B-808B-DA60BB15872A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId7"/>
+  <headerFooter>
+    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 General</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75AC292A-7720-E145-9563-F6FD48AA33E3}">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="36" customWidth="1"/>
+    <col min="3" max="3" width="35.796875" style="9" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="36" customWidth="1"/>
+    <col min="6" max="8" width="21" customWidth="1"/>
+    <col min="9" max="10" width="16" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="20" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="20" customHeight="1">
+      <c r="A2" s="4">
+        <v>116</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="5">
+        <v>45487</v>
+      </c>
+      <c r="J2" s="5"/>
+      <c r="K2" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="D2">
     <cfRule type="expression" dxfId="2" priority="1">
       <formula>D2="Easy"</formula>
     </cfRule>
@@ -2445,11 +2749,10 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{6D7B591D-348C-3F48-8F5D-0CC1D7D323A3}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{75408504-4022-5F46-87C2-C45DD0C84D7E}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{13210F83-F6EB-B544-ABBA-8F955E2F9194}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
   <headerFooter>
     <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 General</oddFooter>
   </headerFooter>

--- a/LeetCode Techniques.xlsx
+++ b/LeetCode Techniques.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/blackjack625/Desktop/LeetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D077E055-E5FC-7042-AD27-E3A5ED77F8EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B1F16C6-CA04-5F43-A0A1-8BC8A7819605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="20640" windowHeight="11040" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="111">
   <si>
     <t>Name</t>
   </si>
@@ -445,6 +445,14 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/path-sum-iii/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Most Frequent Subtree Sum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/most-frequent-subtree-sum/description/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2401,7 +2409,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C287181F-E765-1C4E-B964-9C9FDBE62A17}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -2599,13 +2607,13 @@
     </row>
     <row r="7" spans="1:11" ht="20" customHeight="1">
       <c r="A7" s="4">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>49</v>
@@ -2618,7 +2626,7 @@
         <v>44</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="I7" s="5">
         <v>45487</v>
@@ -2626,9 +2634,38 @@
       <c r="J7" s="5"/>
       <c r="K7" s="4"/>
     </row>
+    <row r="8" spans="1:11" ht="20" customHeight="1">
+      <c r="A8" s="4">
+        <v>513</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="5">
+        <v>45487</v>
+      </c>
+      <c r="J8" s="5"/>
+      <c r="K8" s="4"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D2:D7">
+  <conditionalFormatting sqref="D2:D8">
     <cfRule type="expression" dxfId="5" priority="1">
       <formula>D2="Easy"</formula>
     </cfRule>
@@ -2644,11 +2681,12 @@
     <hyperlink ref="C3" r:id="rId2" xr:uid="{75408504-4022-5F46-87C2-C45DD0C84D7E}"/>
     <hyperlink ref="C4" r:id="rId3" xr:uid="{58EBA3C8-38C3-AD4D-86B6-2BD56DBBCDCD}"/>
     <hyperlink ref="C5" r:id="rId4" xr:uid="{63AC3368-EC03-1949-9ACD-8B642757EADB}"/>
-    <hyperlink ref="C7" r:id="rId5" xr:uid="{2E17F9D2-5401-784D-B0AE-3D6983893C12}"/>
+    <hyperlink ref="C8" r:id="rId5" xr:uid="{2E17F9D2-5401-784D-B0AE-3D6983893C12}"/>
     <hyperlink ref="C6" r:id="rId6" xr:uid="{5CC483BA-CBD2-634B-808B-DA60BB15872A}"/>
+    <hyperlink ref="C7" r:id="rId7" xr:uid="{3C24C6AF-34E6-D142-95AA-D541F8679AD8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId8"/>
   <headerFooter>
     <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 General</oddFooter>
   </headerFooter>

--- a/LeetCode Techniques.xlsx
+++ b/LeetCode Techniques.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/blackjack625/Desktop/LeetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B1F16C6-CA04-5F43-A0A1-8BC8A7819605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05703622-093F-5D45-8EA5-7796245C69F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="20640" windowHeight="11040" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="121">
   <si>
     <t>Name</t>
   </si>
@@ -453,6 +453,48 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/most-frequent-subtree-sum/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Find Largest Value in Each Tree Row</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-largest-value-in-each-tree-row/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add One Row to Tree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/add-one-row-to-tree/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Find Duplicate Subtrees</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-duplicate-subtrees/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>When marking null child nodes,
+use a slash to help denote left or right.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Longest Univalue Path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/longest-univalue-path/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Beware of "semi-cycles" in longest 
+univalue paths.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2409,7 +2451,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C287181F-E765-1C4E-B964-9C9FDBE62A17}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -2663,9 +2705,129 @@
       <c r="J8" s="5"/>
       <c r="K8" s="4"/>
     </row>
+    <row r="9" spans="1:11" ht="20" customHeight="1">
+      <c r="A9" s="4">
+        <v>515</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="5">
+        <v>45488</v>
+      </c>
+      <c r="J9" s="5"/>
+      <c r="K9" s="4"/>
+    </row>
+    <row r="10" spans="1:11" ht="20" customHeight="1">
+      <c r="A10" s="4">
+        <v>623</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="5">
+        <v>45488</v>
+      </c>
+      <c r="J10" s="5"/>
+      <c r="K10" s="4"/>
+    </row>
+    <row r="11" spans="1:11" ht="30" customHeight="1">
+      <c r="A11" s="4">
+        <v>652</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I11" s="5">
+        <v>45488</v>
+      </c>
+      <c r="J11" s="5"/>
+      <c r="K11" s="4"/>
+    </row>
+    <row r="12" spans="1:11" ht="30" customHeight="1">
+      <c r="A12" s="4">
+        <v>687</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="5">
+        <v>45488</v>
+      </c>
+      <c r="J12" s="5"/>
+      <c r="K12" s="4"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D2:D8">
+  <conditionalFormatting sqref="D2:D12">
     <cfRule type="expression" dxfId="5" priority="1">
       <formula>D2="Easy"</formula>
     </cfRule>
@@ -2684,9 +2846,13 @@
     <hyperlink ref="C8" r:id="rId5" xr:uid="{2E17F9D2-5401-784D-B0AE-3D6983893C12}"/>
     <hyperlink ref="C6" r:id="rId6" xr:uid="{5CC483BA-CBD2-634B-808B-DA60BB15872A}"/>
     <hyperlink ref="C7" r:id="rId7" xr:uid="{3C24C6AF-34E6-D142-95AA-D541F8679AD8}"/>
+    <hyperlink ref="C9" r:id="rId8" xr:uid="{8EE9509C-DFBF-7B45-85D3-B7096029C524}"/>
+    <hyperlink ref="C10" r:id="rId9" xr:uid="{DC0AB236-A846-624D-8598-9984C67224C0}"/>
+    <hyperlink ref="C11" r:id="rId10" xr:uid="{92D47051-6BA8-D549-944F-00B0154554E6}"/>
+    <hyperlink ref="C12" r:id="rId11" xr:uid="{CBAD603C-7336-874C-B3F7-58227D327CE0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId12"/>
   <headerFooter>
     <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 General</oddFooter>
   </headerFooter>

--- a/LeetCode Techniques.xlsx
+++ b/LeetCode Techniques.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/blackjack625/Desktop/LeetCode/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jack.yao\Desktop\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05703622-093F-5D45-8EA5-7796245C69F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C91C00D4-085B-47A4-ACD1-F82078E79D8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="20640" windowHeight="11040" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Binary Search" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="125">
   <si>
     <t>Name</t>
   </si>
@@ -496,6 +496,19 @@
     <t>Beware of "semi-cycles" in longest 
 univalue paths.</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Populating Next Right Pointers in Each Node II</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/populating-next-right-pointers-in-each-node-ii/description/</t>
+  </si>
+  <si>
+    <t>Binary Tree</t>
+  </si>
+  <si>
+    <t>Use a deck to ensure queue
+always has nodes of same level.</t>
   </si>
 </sst>
 </file>
@@ -503,19 +516,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -539,7 +552,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -601,19 +614,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -626,10 +639,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="超連結" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="27">
     <dxf>
@@ -1206,10 +1222,10 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="38.19921875" customWidth="1"/>
+    <col min="2" max="2" width="38.140625" customWidth="1"/>
     <col min="3" max="3" width="71" style="9" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
@@ -1218,7 +1234,7 @@
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20" customHeight="1">
+    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -1253,7 +1269,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="20" customHeight="1">
+    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="4">
         <v>74</v>
       </c>
@@ -1280,7 +1296,7 @@
       <c r="J2" s="3"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="20" customHeight="1">
+    <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="4">
         <v>220</v>
       </c>
@@ -1336,7 +1352,7 @@
       <c r="J4" s="5"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:11" ht="20" customHeight="1">
+    <row r="5" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="4">
         <v>315</v>
       </c>
@@ -1363,7 +1379,7 @@
       <c r="J5" s="5"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" ht="20" customHeight="1">
+    <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="4">
         <v>352</v>
       </c>
@@ -1392,7 +1408,7 @@
       <c r="J6" s="5"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11" ht="20" customHeight="1">
+    <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="4">
         <v>480</v>
       </c>
@@ -1419,7 +1435,7 @@
       <c r="J7" s="5"/>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="1:11" ht="20" customHeight="1">
+    <row r="8" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="4">
         <v>493</v>
       </c>
@@ -1446,7 +1462,7 @@
       <c r="J8" s="5"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:11" ht="20" customHeight="1">
+    <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="4">
         <v>611</v>
       </c>
@@ -1475,7 +1491,7 @@
       <c r="J9" s="5"/>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="1:11" ht="20" customHeight="1">
+    <row r="10" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="4">
         <v>729</v>
       </c>
@@ -1502,7 +1518,7 @@
       <c r="J10" s="5"/>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="1:11" ht="20" customHeight="1">
+    <row r="11" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="4">
         <v>1095</v>
       </c>
@@ -1560,7 +1576,7 @@
       <c r="J12" s="5"/>
       <c r="K12" s="4"/>
     </row>
-    <row r="13" spans="1:11" ht="20" customHeight="1">
+    <row r="13" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="4">
         <v>1825</v>
       </c>
@@ -1589,7 +1605,7 @@
       <c r="J13" s="5"/>
       <c r="K13" s="4"/>
     </row>
-    <row r="14" spans="1:11" ht="20" customHeight="1">
+    <row r="14" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="4">
         <v>2034</v>
       </c>
@@ -1618,7 +1634,7 @@
       <c r="J14" s="5"/>
       <c r="K14" s="4"/>
     </row>
-    <row r="15" spans="1:11" ht="20" customHeight="1">
+    <row r="15" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="4">
         <v>2102</v>
       </c>
@@ -1703,10 +1719,10 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="45.796875" customWidth="1"/>
+    <col min="2" max="2" width="45.85546875" customWidth="1"/>
     <col min="3" max="3" width="71" style="9" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
@@ -1715,7 +1731,7 @@
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20" customHeight="1">
+    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -1750,7 +1766,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="20" customHeight="1">
+    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="4">
         <v>3</v>
       </c>
@@ -1777,7 +1793,7 @@
       <c r="J2" s="5"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" ht="20" customHeight="1">
+    <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="4">
         <v>1695</v>
       </c>
@@ -1834,11 +1850,11 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="25.796875" customWidth="1"/>
-    <col min="3" max="3" width="65.796875" style="9" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" customWidth="1"/>
+    <col min="3" max="3" width="65.85546875" style="9" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
     <col min="6" max="8" width="21" customWidth="1"/>
@@ -1846,7 +1862,7 @@
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20" customHeight="1">
+    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -1881,7 +1897,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="20" customHeight="1">
+    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="4">
         <v>41</v>
       </c>
@@ -1912,7 +1928,7 @@
       </c>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" ht="20" customHeight="1">
+    <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="4">
         <v>287</v>
       </c>
@@ -1939,7 +1955,7 @@
       <c r="J3" s="5"/>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:11" ht="20" customHeight="1">
+    <row r="4" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="4">
         <v>645</v>
       </c>
@@ -2009,11 +2025,11 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="35.796875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="9" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
     <col min="6" max="8" width="21" customWidth="1"/>
@@ -2021,7 +2037,7 @@
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20" customHeight="1">
+    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -2056,7 +2072,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="20" customHeight="1">
+    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="4">
         <v>394</v>
       </c>
@@ -2113,11 +2129,11 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="46" customWidth="1"/>
-    <col min="3" max="3" width="65.796875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="65.85546875" style="9" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
     <col min="6" max="8" width="21" customWidth="1"/>
@@ -2125,7 +2141,7 @@
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20" customHeight="1">
+    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -2160,7 +2176,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="20" customHeight="1">
+    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="4">
         <v>208</v>
       </c>
@@ -2187,7 +2203,7 @@
       <c r="J2" s="5"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" ht="20" customHeight="1">
+    <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="4">
         <v>211</v>
       </c>
@@ -2216,7 +2232,7 @@
       <c r="J3" s="5"/>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:11" ht="20" customHeight="1">
+    <row r="4" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="4">
         <v>386</v>
       </c>
@@ -2245,7 +2261,7 @@
       <c r="J4" s="5"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:11" ht="20" customHeight="1">
+    <row r="5" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="4">
         <v>648</v>
       </c>
@@ -2272,7 +2288,7 @@
       <c r="J5" s="5"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" ht="20" customHeight="1">
+    <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="4">
         <v>677</v>
       </c>
@@ -2301,7 +2317,7 @@
       <c r="J6" s="5"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11" ht="20" customHeight="1">
+    <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="4">
         <v>720</v>
       </c>
@@ -2359,7 +2375,7 @@
       <c r="J8" s="5"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:11" ht="20" customHeight="1">
+    <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="4">
         <v>1268</v>
       </c>
@@ -2453,13 +2469,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C287181F-E765-1C4E-B964-9C9FDBE62A17}">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="36" customWidth="1"/>
-    <col min="3" max="3" width="35.796875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="9" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
     <col min="6" max="8" width="21" customWidth="1"/>
@@ -2467,7 +2483,7 @@
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20" customHeight="1">
+    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -2502,7 +2518,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="20" customHeight="1">
+    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="4">
         <v>113</v>
       </c>
@@ -2531,7 +2547,7 @@
       <c r="J2" s="5"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" ht="20" customHeight="1">
+    <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="4">
         <v>114</v>
       </c>
@@ -2560,7 +2576,7 @@
       <c r="J3" s="5"/>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:11" ht="20" customHeight="1">
+    <row r="4" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="4">
         <v>129</v>
       </c>
@@ -2589,7 +2605,7 @@
       <c r="J4" s="5"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:11" ht="20" customHeight="1">
+    <row r="5" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="4">
         <v>341</v>
       </c>
@@ -2618,7 +2634,7 @@
       <c r="J5" s="5"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" ht="20" customHeight="1">
+    <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="4">
         <v>437</v>
       </c>
@@ -2647,7 +2663,7 @@
       <c r="J6" s="5"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11" ht="20" customHeight="1">
+    <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="4">
         <v>508</v>
       </c>
@@ -2676,7 +2692,7 @@
       <c r="J7" s="5"/>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="1:11" ht="20" customHeight="1">
+    <row r="8" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="4">
         <v>513</v>
       </c>
@@ -2705,7 +2721,7 @@
       <c r="J8" s="5"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:11" ht="20" customHeight="1">
+    <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="4">
         <v>515</v>
       </c>
@@ -2734,7 +2750,7 @@
       <c r="J9" s="5"/>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="1:11" ht="20" customHeight="1">
+    <row r="10" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="4">
         <v>623</v>
       </c>
@@ -2861,15 +2877,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75AC292A-7720-E145-9563-F6FD48AA33E3}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="36" customWidth="1"/>
-    <col min="3" max="3" width="35.796875" style="9" customWidth="1"/>
+    <col min="2" max="2" width="43.28515625" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="9" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
     <col min="6" max="8" width="21" customWidth="1"/>
@@ -2877,7 +2893,7 @@
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20" customHeight="1">
+    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -2912,7 +2928,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="20" customHeight="1">
+    <row r="2" spans="1:11" ht="30" customHeight="1">
       <c r="A2" s="4">
         <v>116</v>
       </c>
@@ -2925,8 +2941,12 @@
       <c r="D2" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+      <c r="E2" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>123</v>
+      </c>
       <c r="G2" s="4" t="s">
         <v>44</v>
       </c>
@@ -2939,9 +2959,40 @@
       <c r="J2" s="5"/>
       <c r="K2" s="4"/>
     </row>
+    <row r="3" spans="1:11" ht="30" customHeight="1">
+      <c r="A3" s="4">
+        <v>117</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" s="5">
+        <v>45489</v>
+      </c>
+      <c r="J3" s="5"/>
+      <c r="K3" s="4"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D2">
+  <conditionalFormatting sqref="D2:D3">
     <cfRule type="expression" dxfId="2" priority="1">
       <formula>D2="Easy"</formula>
     </cfRule>
@@ -2954,9 +3005,10 @@
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{13210F83-F6EB-B544-ABBA-8F955E2F9194}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{8BC7B711-ADEB-4546-905F-7D690999B5BB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId3"/>
   <headerFooter>
     <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 General</oddFooter>
   </headerFooter>

--- a/LeetCode Techniques.xlsx
+++ b/LeetCode Techniques.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jack.yao\Desktop\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C91C00D4-085B-47A4-ACD1-F82078E79D8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35CC21E4-04BF-413C-8152-F663C1057A0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="130">
   <si>
     <t>Name</t>
   </si>
@@ -509,6 +509,22 @@
   <si>
     <t>Use a deck to ensure queue
 always has nodes of same level.</t>
+  </si>
+  <si>
+    <t>If needed, use .copy() to prevent
+storage modification during iteration.</t>
+  </si>
+  <si>
+    <t>Binary Tree Level Order Traversal</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/binary-tree-level-order-traversal/description/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Binary Tree Level Order Traversal II</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/binary-tree-level-order-traversal-ii/description/</t>
   </si>
 </sst>
 </file>
@@ -2877,7 +2893,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75AC292A-7720-E145-9563-F6FD48AA33E3}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -2930,19 +2946,19 @@
     </row>
     <row r="2" spans="1:11" ht="30" customHeight="1">
       <c r="A2" s="4">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>97</v>
+        <v>126</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>127</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>49</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>123</v>
@@ -2954,26 +2970,26 @@
         <v>44</v>
       </c>
       <c r="I2" s="5">
-        <v>45487</v>
+        <v>45489</v>
       </c>
       <c r="J2" s="5"/>
       <c r="K2" s="4"/>
     </row>
     <row r="3" spans="1:11" ht="30" customHeight="1">
       <c r="A3" s="4">
-        <v>117</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>121</v>
+        <v>107</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>128</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>49</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>123</v>
@@ -2990,9 +3006,71 @@
       <c r="J3" s="5"/>
       <c r="K3" s="4"/>
     </row>
+    <row r="4" spans="1:11" ht="30" customHeight="1">
+      <c r="A4" s="4">
+        <v>116</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" s="5">
+        <v>45487</v>
+      </c>
+      <c r="J4" s="5"/>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:11" ht="30" customHeight="1">
+      <c r="A5" s="4">
+        <v>117</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" s="5">
+        <v>45489</v>
+      </c>
+      <c r="J5" s="5"/>
+      <c r="K5" s="4"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D2:D3">
+  <conditionalFormatting sqref="D2:D5">
     <cfRule type="expression" dxfId="2" priority="1">
       <formula>D2="Easy"</formula>
     </cfRule>
@@ -3004,11 +3082,13 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{13210F83-F6EB-B544-ABBA-8F955E2F9194}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{8BC7B711-ADEB-4546-905F-7D690999B5BB}"/>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{13210F83-F6EB-B544-ABBA-8F955E2F9194}"/>
+    <hyperlink ref="C5" r:id="rId2" xr:uid="{8BC7B711-ADEB-4546-905F-7D690999B5BB}"/>
+    <hyperlink ref="C2" r:id="rId3" xr:uid="{C2B4A6B6-B0D8-4F31-9802-387F04CC45FB}"/>
+    <hyperlink ref="C3" r:id="rId4" xr:uid="{5615EAD9-62C1-4780-AE19-6BFAC2939521}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId5"/>
   <headerFooter>
     <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 General</oddFooter>
   </headerFooter>

--- a/LeetCode Techniques.xlsx
+++ b/LeetCode Techniques.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jack.yao\Desktop\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35CC21E4-04BF-413C-8152-F663C1057A0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B44FC48D-9B2B-4385-8134-5E6946714FFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Binary Search" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="137">
   <si>
     <t>Name</t>
   </si>
@@ -525,6 +525,28 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/binary-tree-level-order-traversal-ii/description/</t>
+  </si>
+  <si>
+    <t>Maximum Width of Binary Tree</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximum-width-of-binary-tree/</t>
+  </si>
+  <si>
+    <t>Use parent &amp; children indices
+relationship to efficiently compute width.</t>
+  </si>
+  <si>
+    <t>Evaluate Division</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/evaluate-division/description/</t>
+  </si>
+  <si>
+    <t>Use dict to build graph and trace nodes.</t>
+  </si>
+  <si>
+    <t>Graph</t>
   </si>
 </sst>
 </file>
@@ -534,7 +556,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -593,6 +615,23 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Microsoft YaHei"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -630,7 +669,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -655,9 +694,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2483,15 +2526,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C287181F-E765-1C4E-B964-9C9FDBE62A17}">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="36" customWidth="1"/>
-    <col min="3" max="3" width="35.85546875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="12" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
     <col min="6" max="8" width="21" customWidth="1"/>
@@ -2506,7 +2549,7 @@
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="10" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -2541,7 +2584,7 @@
       <c r="B2" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="11" t="s">
         <v>94</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -2570,7 +2613,7 @@
       <c r="B3" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="11" t="s">
         <v>95</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -2599,7 +2642,7 @@
       <c r="B4" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="11" t="s">
         <v>100</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -2628,7 +2671,7 @@
       <c r="B5" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="11" t="s">
         <v>102</v>
       </c>
       <c r="D5" s="4" t="s">
@@ -2652,20 +2695,22 @@
     </row>
     <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="4">
-        <v>437</v>
+        <v>399</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>108</v>
+        <v>133</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>134</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>135</v>
+      </c>
       <c r="F6" s="4" t="s">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>44</v>
@@ -2674,20 +2719,20 @@
         <v>44</v>
       </c>
       <c r="I6" s="5">
-        <v>45487</v>
+        <v>45490</v>
       </c>
       <c r="J6" s="5"/>
       <c r="K6" s="4"/>
     </row>
     <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="4">
-        <v>508</v>
+        <v>437</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>110</v>
+        <v>107</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>108</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>49</v>
@@ -2710,13 +2755,13 @@
     </row>
     <row r="8" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="4">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>105</v>
+        <v>109</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>110</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>49</v>
@@ -2729,7 +2774,7 @@
         <v>44</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="I8" s="5">
         <v>45487</v>
@@ -2739,13 +2784,13 @@
     </row>
     <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="4">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>112</v>
+        <v>104</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>105</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>49</v>
@@ -2758,23 +2803,23 @@
         <v>44</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="I9" s="5">
-        <v>45488</v>
+        <v>45487</v>
       </c>
       <c r="J9" s="5"/>
       <c r="K9" s="4"/>
     </row>
     <row r="10" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="4">
-        <v>623</v>
+        <v>515</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>114</v>
+        <v>111</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>112</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>49</v>
@@ -2787,7 +2832,7 @@
         <v>44</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="I10" s="5">
         <v>45488</v>
@@ -2795,22 +2840,20 @@
       <c r="J10" s="5"/>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="1:11" ht="30" customHeight="1">
+    <row r="11" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="4">
-        <v>652</v>
+        <v>623</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>116</v>
+        <v>113</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>114</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>117</v>
-      </c>
+      <c r="E11" s="4"/>
       <c r="F11" s="4" t="s">
         <v>106</v>
       </c>
@@ -2818,7 +2861,7 @@
         <v>44</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="I11" s="5">
         <v>45488</v>
@@ -2828,19 +2871,19 @@
     </row>
     <row r="12" spans="1:11" ht="30" customHeight="1">
       <c r="A12" s="4">
-        <v>687</v>
+        <v>652</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>119</v>
+        <v>115</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>116</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>49</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>106</v>
@@ -2849,7 +2892,7 @@
         <v>44</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="I12" s="5">
         <v>45488</v>
@@ -2857,9 +2900,40 @@
       <c r="J12" s="5"/>
       <c r="K12" s="4"/>
     </row>
+    <row r="13" spans="1:11" ht="30" customHeight="1">
+      <c r="A13" s="4">
+        <v>687</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" s="5">
+        <v>45488</v>
+      </c>
+      <c r="J13" s="5"/>
+      <c r="K13" s="4"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D2:D12">
+  <conditionalFormatting sqref="D2:D13">
     <cfRule type="expression" dxfId="5" priority="1">
       <formula>D2="Easy"</formula>
     </cfRule>
@@ -2875,16 +2949,17 @@
     <hyperlink ref="C3" r:id="rId2" xr:uid="{75408504-4022-5F46-87C2-C45DD0C84D7E}"/>
     <hyperlink ref="C4" r:id="rId3" xr:uid="{58EBA3C8-38C3-AD4D-86B6-2BD56DBBCDCD}"/>
     <hyperlink ref="C5" r:id="rId4" xr:uid="{63AC3368-EC03-1949-9ACD-8B642757EADB}"/>
-    <hyperlink ref="C8" r:id="rId5" xr:uid="{2E17F9D2-5401-784D-B0AE-3D6983893C12}"/>
-    <hyperlink ref="C6" r:id="rId6" xr:uid="{5CC483BA-CBD2-634B-808B-DA60BB15872A}"/>
-    <hyperlink ref="C7" r:id="rId7" xr:uid="{3C24C6AF-34E6-D142-95AA-D541F8679AD8}"/>
-    <hyperlink ref="C9" r:id="rId8" xr:uid="{8EE9509C-DFBF-7B45-85D3-B7096029C524}"/>
-    <hyperlink ref="C10" r:id="rId9" xr:uid="{DC0AB236-A846-624D-8598-9984C67224C0}"/>
-    <hyperlink ref="C11" r:id="rId10" xr:uid="{92D47051-6BA8-D549-944F-00B0154554E6}"/>
-    <hyperlink ref="C12" r:id="rId11" xr:uid="{CBAD603C-7336-874C-B3F7-58227D327CE0}"/>
+    <hyperlink ref="C9" r:id="rId5" xr:uid="{2E17F9D2-5401-784D-B0AE-3D6983893C12}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{5CC483BA-CBD2-634B-808B-DA60BB15872A}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{3C24C6AF-34E6-D142-95AA-D541F8679AD8}"/>
+    <hyperlink ref="C10" r:id="rId8" xr:uid="{8EE9509C-DFBF-7B45-85D3-B7096029C524}"/>
+    <hyperlink ref="C11" r:id="rId9" xr:uid="{DC0AB236-A846-624D-8598-9984C67224C0}"/>
+    <hyperlink ref="C12" r:id="rId10" xr:uid="{92D47051-6BA8-D549-944F-00B0154554E6}"/>
+    <hyperlink ref="C13" r:id="rId11" xr:uid="{CBAD603C-7336-874C-B3F7-58227D327CE0}"/>
+    <hyperlink ref="C6" r:id="rId12" xr:uid="{98CD3759-6763-4A59-8FC7-20CD817AC0B4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId12"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId13"/>
   <headerFooter>
     <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 General</oddFooter>
   </headerFooter>
@@ -2893,9 +2968,9 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75AC292A-7720-E145-9563-F6FD48AA33E3}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
@@ -2916,7 +2991,7 @@
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="10" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -2951,7 +3026,7 @@
       <c r="B2" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>127</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -2982,7 +3057,7 @@
       <c r="B3" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="11" t="s">
         <v>129</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -3013,7 +3088,7 @@
       <c r="B4" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="11" t="s">
         <v>97</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -3044,7 +3119,7 @@
       <c r="B5" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="11" t="s">
         <v>122</v>
       </c>
       <c r="D5" s="4" t="s">
@@ -3068,9 +3143,40 @@
       <c r="J5" s="5"/>
       <c r="K5" s="4"/>
     </row>
+    <row r="6" spans="1:11" ht="30" customHeight="1">
+      <c r="A6" s="4">
+        <v>662</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" s="5">
+        <v>45490</v>
+      </c>
+      <c r="J6" s="5"/>
+      <c r="K6" s="4"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D2:D5">
+  <conditionalFormatting sqref="D2:D6">
     <cfRule type="expression" dxfId="2" priority="1">
       <formula>D2="Easy"</formula>
     </cfRule>
@@ -3086,9 +3192,10 @@
     <hyperlink ref="C5" r:id="rId2" xr:uid="{8BC7B711-ADEB-4546-905F-7D690999B5BB}"/>
     <hyperlink ref="C2" r:id="rId3" xr:uid="{C2B4A6B6-B0D8-4F31-9802-387F04CC45FB}"/>
     <hyperlink ref="C3" r:id="rId4" xr:uid="{5615EAD9-62C1-4780-AE19-6BFAC2939521}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{6D55272D-BA36-4797-A7CF-581EE973B392}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId6"/>
   <headerFooter>
     <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 General</oddFooter>
   </headerFooter>

--- a/LeetCode Techniques.xlsx
+++ b/LeetCode Techniques.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jack.yao\Desktop\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B44FC48D-9B2B-4385-8134-5E6946714FFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A18B67DE-D201-4A4D-B4FC-DC6EDA79DF77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Binary Search" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="141">
   <si>
     <t>Name</t>
   </si>
@@ -533,20 +533,32 @@
     <t>https://leetcode.com/problems/maximum-width-of-binary-tree/</t>
   </si>
   <si>
+    <t>Evaluate Division</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/evaluate-division/description/</t>
+  </si>
+  <si>
+    <t>Use dict to build graph and trace nodes.</t>
+  </si>
+  <si>
+    <t>Graph</t>
+  </si>
+  <si>
+    <t>Check Completeness of a Binary Tree</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/check-completeness-of-a-binary-tree/description/</t>
+  </si>
+  <si>
     <t>Use parent &amp; children indices
-relationship to efficiently compute width.</t>
-  </si>
-  <si>
-    <t>Evaluate Division</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/evaluate-division/description/</t>
-  </si>
-  <si>
-    <t>Use dict to build graph and trace nodes.</t>
-  </si>
-  <si>
-    <t>Graph</t>
+relationship to swiftly compute width.</t>
+  </si>
+  <si>
+    <t>Maximum Level Sum of a Binary Tree</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximum-level-sum-of-a-binary-tree/</t>
   </si>
 </sst>
 </file>
@@ -2528,7 +2540,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C287181F-E765-1C4E-B964-9C9FDBE62A17}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
@@ -2698,19 +2710,19 @@
         <v>399</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>133</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>134</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>49</v>
       </c>
       <c r="E6" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>135</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>136</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>44</v>
@@ -2968,15 +2980,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75AC292A-7720-E145-9563-F6FD48AA33E3}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="43.28515625" customWidth="1"/>
-    <col min="3" max="3" width="35.85546875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="12" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
     <col min="6" max="8" width="21" customWidth="1"/>
@@ -3157,7 +3169,7 @@
         <v>49</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>123</v>
@@ -3174,9 +3186,67 @@
       <c r="J6" s="5"/>
       <c r="K6" s="4"/>
     </row>
+    <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="4">
+        <v>958</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7" s="5">
+        <v>45491</v>
+      </c>
+      <c r="J7" s="5"/>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="A8" s="4">
+        <v>1161</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" s="5">
+        <v>45491</v>
+      </c>
+      <c r="J8" s="5"/>
+      <c r="K8" s="4"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D2:D6">
+  <conditionalFormatting sqref="D2:D8">
     <cfRule type="expression" dxfId="2" priority="1">
       <formula>D2="Easy"</formula>
     </cfRule>
@@ -3193,9 +3263,11 @@
     <hyperlink ref="C2" r:id="rId3" xr:uid="{C2B4A6B6-B0D8-4F31-9802-387F04CC45FB}"/>
     <hyperlink ref="C3" r:id="rId4" xr:uid="{5615EAD9-62C1-4780-AE19-6BFAC2939521}"/>
     <hyperlink ref="C6" r:id="rId5" xr:uid="{6D55272D-BA36-4797-A7CF-581EE973B392}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{A382170A-F086-4927-B656-868CCD453ABF}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{25BA1857-5CC6-4D6B-94BB-2E650759A139}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId8"/>
   <headerFooter>
     <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 General</oddFooter>
   </headerFooter>

--- a/LeetCode Techniques.xlsx
+++ b/LeetCode Techniques.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jack.yao\Desktop\LeetCode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/blackjack625/Desktop/LeetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A18B67DE-D201-4A4D-B4FC-DC6EDA79DF77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7944EEAC-C002-FC47-9553-D61AFE66D2F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="20640" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Binary Search" sheetId="1" r:id="rId1"/>
-    <sheet name="Sliding Window" sheetId="2" r:id="rId2"/>
-    <sheet name="Set Maneuver" sheetId="3" r:id="rId3"/>
-    <sheet name="Recursion" sheetId="5" r:id="rId4"/>
-    <sheet name="Trie" sheetId="4" r:id="rId5"/>
-    <sheet name="Depth First Search" sheetId="6" r:id="rId6"/>
-    <sheet name="Breadth First Search" sheetId="7" r:id="rId7"/>
+    <sheet name="Dynamic Programming" sheetId="8" r:id="rId1"/>
+    <sheet name="Binary Search" sheetId="1" r:id="rId2"/>
+    <sheet name="Sliding Window" sheetId="2" r:id="rId3"/>
+    <sheet name="Set Maneuver" sheetId="3" r:id="rId4"/>
+    <sheet name="Recursion" sheetId="5" r:id="rId5"/>
+    <sheet name="Trie" sheetId="4" r:id="rId6"/>
+    <sheet name="Depth First Search" sheetId="6" r:id="rId7"/>
+    <sheet name="Breadth First Search" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="164">
   <si>
     <t>Name</t>
   </si>
@@ -559,6 +560,101 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/maximum-level-sum-of-a-binary-tree/</t>
+  </si>
+  <si>
+    <t>Binary Tree Maximum Path Sum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/binary-tree-maximum-path-sum/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>When returning path to parent,
+can't take both left &amp; right paths.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unique Paths</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unique Paths II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/unique-paths/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/unique-paths-ii/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Minimum Path Sum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/minimum-path-sum/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Obstacles will block entire
+righter row &amp; lower column entries.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>House Robber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>House Robber II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/house-robber/submissions/1250506908/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/house-robber-ii/submissions/1250688145/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Do two iterations in circular cases:
+one excluding 1st item, and the other excluding last item. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Triangle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/triangle/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MWIS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maximum Subarray</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximum-subarray/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maximum Product Subarray</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximum-product-subarray/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prepare positive &amp; negative subarrays in case they switch roles due to incoming negative number.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -566,19 +662,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -602,7 +698,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -632,17 +728,20 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Microsoft YaHei"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color theme="10"/>
       <name val="Microsoft YaHei"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Microsoft YaHei"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -681,19 +780,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -713,12 +812,73 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="27">
+  <dxfs count="33">
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFFFF00"/>
@@ -1288,15 +1448,357 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23E6E9DF-BEE0-B544-8910-7DDC3380F4B7}">
+  <dimension ref="A1:K10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="46" customWidth="1"/>
+    <col min="3" max="3" width="65.796875" style="13" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="36" customWidth="1"/>
+    <col min="6" max="8" width="21" customWidth="1"/>
+    <col min="9" max="10" width="16" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="20" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="20" customHeight="1">
+      <c r="A2" s="4">
+        <v>53</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="5">
+        <v>45404</v>
+      </c>
+      <c r="J2" s="5"/>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="1:11" ht="20" customHeight="1">
+      <c r="A3" s="4">
+        <v>62</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I3" s="5">
+        <v>45493</v>
+      </c>
+      <c r="J3" s="5"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:11" ht="30" customHeight="1">
+      <c r="A4" s="4">
+        <v>63</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I4" s="5">
+        <v>45493</v>
+      </c>
+      <c r="J4" s="5"/>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:11" ht="20" customHeight="1">
+      <c r="A5" s="4">
+        <v>64</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I5" s="5">
+        <v>45493</v>
+      </c>
+      <c r="J5" s="5"/>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:11" ht="20" customHeight="1">
+      <c r="A6" s="4">
+        <v>120</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="5">
+        <v>45494</v>
+      </c>
+      <c r="J6" s="5"/>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="1:11" ht="30" customHeight="1">
+      <c r="A7" s="4">
+        <v>124</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="5">
+        <v>45493</v>
+      </c>
+      <c r="J7" s="5"/>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="1:11" ht="45" customHeight="1">
+      <c r="A8" s="4">
+        <v>152</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="5">
+        <v>45405</v>
+      </c>
+      <c r="J8" s="5"/>
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" spans="1:11" ht="20" customHeight="1">
+      <c r="A9" s="4">
+        <v>198</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="5">
+        <v>45418</v>
+      </c>
+      <c r="J9" s="5"/>
+      <c r="K9" s="4"/>
+    </row>
+    <row r="10" spans="1:11" ht="45" customHeight="1">
+      <c r="A10" s="4">
+        <v>213</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="5">
+        <v>45418</v>
+      </c>
+      <c r="J10" s="5"/>
+      <c r="K10" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="D2:D10">
+    <cfRule type="expression" dxfId="32" priority="1">
+      <formula>D2="Easy"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="31" priority="2">
+      <formula>D2="Medium"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="3">
+      <formula>D2="Hard"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{7E21394E-57A4-E54A-9299-637EDCA54312}"/>
+    <hyperlink ref="C10" r:id="rId2" xr:uid="{296D78C9-0683-A64E-B81F-7705D07A2653}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{43DDB127-5D11-D54D-BBEF-BA3EAAF66580}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{437899AB-6D74-0947-B37F-B30C732DC535}"/>
+    <hyperlink ref="C9" r:id="rId5" xr:uid="{2C34938E-0988-9A47-85E4-F3B76883B44D}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{C4D656BA-A6C7-544D-8F38-EB79AFC85969}"/>
+    <hyperlink ref="C6" r:id="rId7" xr:uid="{2022A0AD-F338-4B4A-8571-BB4A95D7EE00}"/>
+    <hyperlink ref="C2" r:id="rId8" xr:uid="{11FB62CE-95A4-8149-A0D0-EC80907AD300}"/>
+    <hyperlink ref="C8" r:id="rId9" xr:uid="{D0C86F76-90D0-4847-AD9B-8F8B4200A39D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId10"/>
+  <headerFooter>
+    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 General</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="38.140625" customWidth="1"/>
+    <col min="2" max="2" width="38.19921875" customWidth="1"/>
     <col min="3" max="3" width="71" style="9" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
@@ -1305,7 +1807,7 @@
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:11" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -1340,7 +1842,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:11" ht="20" customHeight="1">
       <c r="A2" s="4">
         <v>74</v>
       </c>
@@ -1367,7 +1869,7 @@
       <c r="J2" s="3"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:11" ht="20" customHeight="1">
       <c r="A3" s="4">
         <v>220</v>
       </c>
@@ -1423,7 +1925,7 @@
       <c r="J4" s="5"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="1:11" ht="20" customHeight="1">
       <c r="A5" s="4">
         <v>315</v>
       </c>
@@ -1450,7 +1952,7 @@
       <c r="J5" s="5"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="1:11" ht="20" customHeight="1">
       <c r="A6" s="4">
         <v>352</v>
       </c>
@@ -1479,7 +1981,7 @@
       <c r="J6" s="5"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="1:11" ht="20" customHeight="1">
       <c r="A7" s="4">
         <v>480</v>
       </c>
@@ -1506,7 +2008,7 @@
       <c r="J7" s="5"/>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="1:11" ht="20" customHeight="1">
       <c r="A8" s="4">
         <v>493</v>
       </c>
@@ -1533,7 +2035,7 @@
       <c r="J8" s="5"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:11" ht="20" customHeight="1">
       <c r="A9" s="4">
         <v>611</v>
       </c>
@@ -1562,7 +2064,7 @@
       <c r="J9" s="5"/>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="1:11" ht="20" customHeight="1">
       <c r="A10" s="4">
         <v>729</v>
       </c>
@@ -1589,7 +2091,7 @@
       <c r="J10" s="5"/>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="1:11" ht="20" customHeight="1">
       <c r="A11" s="4">
         <v>1095</v>
       </c>
@@ -1647,7 +2149,7 @@
       <c r="J12" s="5"/>
       <c r="K12" s="4"/>
     </row>
-    <row r="13" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="1:11" ht="20" customHeight="1">
       <c r="A13" s="4">
         <v>1825</v>
       </c>
@@ -1676,7 +2178,7 @@
       <c r="J13" s="5"/>
       <c r="K13" s="4"/>
     </row>
-    <row r="14" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="1:11" ht="20" customHeight="1">
       <c r="A14" s="4">
         <v>2034</v>
       </c>
@@ -1705,7 +2207,7 @@
       <c r="J14" s="5"/>
       <c r="K14" s="4"/>
     </row>
-    <row r="15" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="1:11" ht="20" customHeight="1">
       <c r="A15" s="4">
         <v>2102</v>
       </c>
@@ -1740,24 +2242,24 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2:D3">
-    <cfRule type="expression" dxfId="26" priority="1">
+    <cfRule type="expression" dxfId="29" priority="1">
       <formula>D2="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="2">
+    <cfRule type="expression" dxfId="28" priority="2">
       <formula>D2="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="3">
+    <cfRule type="expression" dxfId="27" priority="3">
       <formula>D2="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:E15">
-    <cfRule type="expression" dxfId="23" priority="4">
+    <cfRule type="expression" dxfId="26" priority="4">
       <formula>D4="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="5">
+    <cfRule type="expression" dxfId="25" priority="5">
       <formula>D4="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="6">
+    <cfRule type="expression" dxfId="24" priority="6">
       <formula>D4="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1784,16 +2286,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96F16DFC-20ED-4148-9FB8-AA8D12910A09}">
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="45.85546875" customWidth="1"/>
+    <col min="2" max="2" width="45.796875" customWidth="1"/>
     <col min="3" max="3" width="71" style="9" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
@@ -1802,7 +2304,7 @@
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:11" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -1837,7 +2339,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:11" ht="20" customHeight="1">
       <c r="A2" s="4">
         <v>3</v>
       </c>
@@ -1864,7 +2366,7 @@
       <c r="J2" s="5"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:11" ht="20" customHeight="1">
       <c r="A3" s="4">
         <v>1695</v>
       </c>
@@ -1894,13 +2396,13 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2:E3">
-    <cfRule type="expression" dxfId="20" priority="4">
+    <cfRule type="expression" dxfId="23" priority="4">
       <formula>D2="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="5">
+    <cfRule type="expression" dxfId="22" priority="5">
       <formula>D2="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="6">
+    <cfRule type="expression" dxfId="21" priority="6">
       <formula>D2="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1915,17 +2417,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F94156D-DED3-4FD7-B619-DDD9FD49102F}">
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="25.85546875" customWidth="1"/>
-    <col min="3" max="3" width="65.85546875" style="9" customWidth="1"/>
+    <col min="2" max="2" width="25.796875" customWidth="1"/>
+    <col min="3" max="3" width="65.796875" style="9" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
     <col min="6" max="8" width="21" customWidth="1"/>
@@ -1933,7 +2435,7 @@
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:11" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -1968,7 +2470,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:11" ht="20" customHeight="1">
       <c r="A2" s="4">
         <v>41</v>
       </c>
@@ -1999,7 +2501,7 @@
       </c>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:11" ht="20" customHeight="1">
       <c r="A3" s="4">
         <v>287</v>
       </c>
@@ -2026,7 +2528,7 @@
       <c r="J3" s="5"/>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="1:11" ht="20" customHeight="1">
       <c r="A4" s="4">
         <v>645</v>
       </c>
@@ -2056,24 +2558,24 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2">
-    <cfRule type="expression" dxfId="17" priority="1">
+    <cfRule type="expression" dxfId="20" priority="1">
       <formula>D2="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="2">
+    <cfRule type="expression" dxfId="19" priority="2">
       <formula>D2="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="3">
+    <cfRule type="expression" dxfId="18" priority="3">
       <formula>D2="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:E4">
-    <cfRule type="expression" dxfId="14" priority="4">
+    <cfRule type="expression" dxfId="17" priority="4">
       <formula>D3="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="5">
+    <cfRule type="expression" dxfId="16" priority="5">
       <formula>D3="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="6">
+    <cfRule type="expression" dxfId="15" priority="6">
       <formula>D3="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2090,17 +2592,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69159F7B-7780-4FD1-9225-126219315A4A}">
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="35.85546875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="35.796875" style="9" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
     <col min="6" max="8" width="21" customWidth="1"/>
@@ -2108,7 +2610,7 @@
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:11" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -2143,7 +2645,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:11" ht="20" customHeight="1">
       <c r="A2" s="4">
         <v>394</v>
       </c>
@@ -2173,13 +2675,13 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2">
-    <cfRule type="expression" dxfId="11" priority="1">
+    <cfRule type="expression" dxfId="14" priority="1">
       <formula>D2="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="2">
+    <cfRule type="expression" dxfId="13" priority="2">
       <formula>D2="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="3">
+    <cfRule type="expression" dxfId="12" priority="3">
       <formula>D2="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2194,17 +2696,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52261E16-6011-467F-965D-8624702367C9}">
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="46" customWidth="1"/>
-    <col min="3" max="3" width="65.85546875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="65.796875" style="9" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
     <col min="6" max="8" width="21" customWidth="1"/>
@@ -2212,7 +2714,7 @@
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:11" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -2247,7 +2749,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:11" ht="20" customHeight="1">
       <c r="A2" s="4">
         <v>208</v>
       </c>
@@ -2274,7 +2776,7 @@
       <c r="J2" s="5"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:11" ht="20" customHeight="1">
       <c r="A3" s="4">
         <v>211</v>
       </c>
@@ -2303,7 +2805,7 @@
       <c r="J3" s="5"/>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="1:11" ht="20" customHeight="1">
       <c r="A4" s="4">
         <v>386</v>
       </c>
@@ -2332,7 +2834,7 @@
       <c r="J4" s="5"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="1:11" ht="20" customHeight="1">
       <c r="A5" s="4">
         <v>648</v>
       </c>
@@ -2359,7 +2861,7 @@
       <c r="J5" s="5"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="1:11" ht="20" customHeight="1">
       <c r="A6" s="4">
         <v>677</v>
       </c>
@@ -2388,7 +2890,7 @@
       <c r="J6" s="5"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="1:11" ht="20" customHeight="1">
       <c r="A7" s="4">
         <v>720</v>
       </c>
@@ -2446,7 +2948,7 @@
       <c r="J8" s="5"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:11" ht="20" customHeight="1">
       <c r="A9" s="4">
         <v>1268</v>
       </c>
@@ -2507,13 +3009,13 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2:D10">
-    <cfRule type="expression" dxfId="8" priority="1">
+    <cfRule type="expression" dxfId="11" priority="1">
       <formula>D2="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="2">
+    <cfRule type="expression" dxfId="10" priority="2">
       <formula>D2="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="3">
+    <cfRule type="expression" dxfId="9" priority="3">
       <formula>D2="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2536,17 +3038,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C287181F-E765-1C4E-B964-9C9FDBE62A17}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="36" customWidth="1"/>
-    <col min="3" max="3" width="35.85546875" style="12" customWidth="1"/>
+    <col min="3" max="3" width="35.796875" style="12" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
     <col min="6" max="8" width="21" customWidth="1"/>
@@ -2554,7 +3056,7 @@
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:11" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -2589,7 +3091,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:11" ht="20" customHeight="1">
       <c r="A2" s="4">
         <v>113</v>
       </c>
@@ -2618,7 +3120,7 @@
       <c r="J2" s="5"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:11" ht="20" customHeight="1">
       <c r="A3" s="4">
         <v>114</v>
       </c>
@@ -2647,7 +3149,7 @@
       <c r="J3" s="5"/>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="1:11" ht="20" customHeight="1">
       <c r="A4" s="4">
         <v>129</v>
       </c>
@@ -2676,7 +3178,7 @@
       <c r="J4" s="5"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="1:11" ht="20" customHeight="1">
       <c r="A5" s="4">
         <v>341</v>
       </c>
@@ -2705,7 +3207,7 @@
       <c r="J5" s="5"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="1:11" ht="20" customHeight="1">
       <c r="A6" s="4">
         <v>399</v>
       </c>
@@ -2736,7 +3238,7 @@
       <c r="J6" s="5"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="1:11" ht="20" customHeight="1">
       <c r="A7" s="4">
         <v>437</v>
       </c>
@@ -2765,7 +3267,7 @@
       <c r="J7" s="5"/>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="1:11" ht="20" customHeight="1">
       <c r="A8" s="4">
         <v>508</v>
       </c>
@@ -2794,15 +3296,15 @@
       <c r="J8" s="5"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:11" ht="20" customHeight="1">
       <c r="A9" s="4">
-        <v>513</v>
+        <v>623</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>49</v>
@@ -2818,25 +3320,27 @@
         <v>29</v>
       </c>
       <c r="I9" s="5">
-        <v>45487</v>
+        <v>45488</v>
       </c>
       <c r="J9" s="5"/>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="1:11" ht="30" customHeight="1">
       <c r="A10" s="4">
-        <v>515</v>
+        <v>652</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="4"/>
+      <c r="E10" s="6" t="s">
+        <v>117</v>
+      </c>
       <c r="F10" s="4" t="s">
         <v>106</v>
       </c>
@@ -2844,7 +3348,7 @@
         <v>44</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="I10" s="5">
         <v>45488</v>
@@ -2852,20 +3356,22 @@
       <c r="J10" s="5"/>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="1:11" ht="30" customHeight="1">
       <c r="A11" s="4">
-        <v>623</v>
+        <v>687</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="4"/>
+      <c r="E11" s="6" t="s">
+        <v>120</v>
+      </c>
       <c r="F11" s="4" t="s">
         <v>106</v>
       </c>
@@ -2881,78 +3387,16 @@
       <c r="J11" s="5"/>
       <c r="K11" s="4"/>
     </row>
-    <row r="12" spans="1:11" ht="30" customHeight="1">
-      <c r="A12" s="4">
-        <v>652</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I12" s="5">
-        <v>45488</v>
-      </c>
-      <c r="J12" s="5"/>
-      <c r="K12" s="4"/>
-    </row>
-    <row r="13" spans="1:11" ht="30" customHeight="1">
-      <c r="A13" s="4">
-        <v>687</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I13" s="5">
-        <v>45488</v>
-      </c>
-      <c r="J13" s="5"/>
-      <c r="K13" s="4"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D2:D13">
-    <cfRule type="expression" dxfId="5" priority="1">
+  <conditionalFormatting sqref="D2:D11">
+    <cfRule type="expression" dxfId="8" priority="1">
       <formula>D2="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="7" priority="2">
       <formula>D2="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="6" priority="3">
       <formula>D2="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2961,34 +3405,32 @@
     <hyperlink ref="C3" r:id="rId2" xr:uid="{75408504-4022-5F46-87C2-C45DD0C84D7E}"/>
     <hyperlink ref="C4" r:id="rId3" xr:uid="{58EBA3C8-38C3-AD4D-86B6-2BD56DBBCDCD}"/>
     <hyperlink ref="C5" r:id="rId4" xr:uid="{63AC3368-EC03-1949-9ACD-8B642757EADB}"/>
-    <hyperlink ref="C9" r:id="rId5" xr:uid="{2E17F9D2-5401-784D-B0AE-3D6983893C12}"/>
-    <hyperlink ref="C7" r:id="rId6" xr:uid="{5CC483BA-CBD2-634B-808B-DA60BB15872A}"/>
-    <hyperlink ref="C8" r:id="rId7" xr:uid="{3C24C6AF-34E6-D142-95AA-D541F8679AD8}"/>
-    <hyperlink ref="C10" r:id="rId8" xr:uid="{8EE9509C-DFBF-7B45-85D3-B7096029C524}"/>
-    <hyperlink ref="C11" r:id="rId9" xr:uid="{DC0AB236-A846-624D-8598-9984C67224C0}"/>
-    <hyperlink ref="C12" r:id="rId10" xr:uid="{92D47051-6BA8-D549-944F-00B0154554E6}"/>
-    <hyperlink ref="C13" r:id="rId11" xr:uid="{CBAD603C-7336-874C-B3F7-58227D327CE0}"/>
-    <hyperlink ref="C6" r:id="rId12" xr:uid="{98CD3759-6763-4A59-8FC7-20CD817AC0B4}"/>
+    <hyperlink ref="C7" r:id="rId5" xr:uid="{5CC483BA-CBD2-634B-808B-DA60BB15872A}"/>
+    <hyperlink ref="C8" r:id="rId6" xr:uid="{3C24C6AF-34E6-D142-95AA-D541F8679AD8}"/>
+    <hyperlink ref="C9" r:id="rId7" xr:uid="{DC0AB236-A846-624D-8598-9984C67224C0}"/>
+    <hyperlink ref="C10" r:id="rId8" xr:uid="{92D47051-6BA8-D549-944F-00B0154554E6}"/>
+    <hyperlink ref="C11" r:id="rId9" xr:uid="{CBAD603C-7336-874C-B3F7-58227D327CE0}"/>
+    <hyperlink ref="C6" r:id="rId10" xr:uid="{98CD3759-6763-4A59-8FC7-20CD817AC0B4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId13"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId11"/>
   <headerFooter>
     <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 General</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75AC292A-7720-E145-9563-F6FD48AA33E3}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="43.28515625" customWidth="1"/>
-    <col min="3" max="3" width="35.85546875" style="12" customWidth="1"/>
+    <col min="2" max="2" width="43.19921875" customWidth="1"/>
+    <col min="3" max="3" width="35.796875" style="12" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
     <col min="6" max="8" width="21" customWidth="1"/>
@@ -2996,7 +3438,7 @@
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:11" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -3155,80 +3597,80 @@
       <c r="J5" s="5"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" ht="30" customHeight="1">
+    <row r="6" spans="1:11" ht="20" customHeight="1">
       <c r="A6" s="4">
-        <v>662</v>
+        <v>513</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>138</v>
-      </c>
+      <c r="E6" s="4"/>
       <c r="F6" s="4" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>44</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="I6" s="5">
-        <v>45490</v>
+        <v>45487</v>
       </c>
       <c r="J6" s="5"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="1:11" ht="20" customHeight="1">
       <c r="A7" s="4">
-        <v>958</v>
+        <v>515</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="6"/>
+      <c r="E7" s="4"/>
       <c r="F7" s="4" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>44</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="I7" s="5">
-        <v>45491</v>
+        <v>45488</v>
       </c>
       <c r="J7" s="5"/>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="1:11" ht="30" customHeight="1">
       <c r="A8" s="4">
-        <v>1161</v>
+        <v>662</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="6"/>
+      <c r="E8" s="6" t="s">
+        <v>138</v>
+      </c>
       <c r="F8" s="4" t="s">
         <v>123</v>
       </c>
@@ -3239,22 +3681,91 @@
         <v>44</v>
       </c>
       <c r="I8" s="5">
-        <v>45491</v>
+        <v>45490</v>
       </c>
       <c r="J8" s="5"/>
       <c r="K8" s="4"/>
     </row>
+    <row r="9" spans="1:11" ht="20" customHeight="1">
+      <c r="A9" s="4">
+        <v>958</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I9" s="5">
+        <v>45491</v>
+      </c>
+      <c r="J9" s="5"/>
+      <c r="K9" s="4"/>
+    </row>
+    <row r="10" spans="1:11" ht="20" customHeight="1">
+      <c r="A10" s="4">
+        <v>1161</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I10" s="5">
+        <v>45491</v>
+      </c>
+      <c r="J10" s="5"/>
+      <c r="K10" s="4"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D2:D8">
-    <cfRule type="expression" dxfId="2" priority="1">
+  <conditionalFormatting sqref="D2:D5 D8:D10">
+    <cfRule type="expression" dxfId="5" priority="4">
       <formula>D2="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>D2="Medium"</formula>
     </cfRule>
+    <cfRule type="expression" dxfId="3" priority="6">
+      <formula>D2="Hard"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6:D7">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>D6="Easy"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>D6="Medium"</formula>
+    </cfRule>
     <cfRule type="expression" dxfId="0" priority="3">
-      <formula>D2="Hard"</formula>
+      <formula>D6="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -3262,12 +3773,14 @@
     <hyperlink ref="C5" r:id="rId2" xr:uid="{8BC7B711-ADEB-4546-905F-7D690999B5BB}"/>
     <hyperlink ref="C2" r:id="rId3" xr:uid="{C2B4A6B6-B0D8-4F31-9802-387F04CC45FB}"/>
     <hyperlink ref="C3" r:id="rId4" xr:uid="{5615EAD9-62C1-4780-AE19-6BFAC2939521}"/>
-    <hyperlink ref="C6" r:id="rId5" xr:uid="{6D55272D-BA36-4797-A7CF-581EE973B392}"/>
-    <hyperlink ref="C7" r:id="rId6" xr:uid="{A382170A-F086-4927-B656-868CCD453ABF}"/>
-    <hyperlink ref="C8" r:id="rId7" xr:uid="{25BA1857-5CC6-4D6B-94BB-2E650759A139}"/>
+    <hyperlink ref="C8" r:id="rId5" xr:uid="{6D55272D-BA36-4797-A7CF-581EE973B392}"/>
+    <hyperlink ref="C9" r:id="rId6" xr:uid="{A382170A-F086-4927-B656-868CCD453ABF}"/>
+    <hyperlink ref="C10" r:id="rId7" xr:uid="{25BA1857-5CC6-4D6B-94BB-2E650759A139}"/>
+    <hyperlink ref="C6" r:id="rId8" xr:uid="{2E17F9D2-5401-784D-B0AE-3D6983893C12}"/>
+    <hyperlink ref="C7" r:id="rId9" xr:uid="{8EE9509C-DFBF-7B45-85D3-B7096029C524}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId10"/>
   <headerFooter>
     <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 General</oddFooter>
   </headerFooter>

--- a/LeetCode Techniques.xlsx
+++ b/LeetCode Techniques.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/blackjack625/Desktop/LeetCode/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jack.yao\Desktop\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7944EEAC-C002-FC47-9553-D61AFE66D2F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E801619-D644-4E44-9499-95A56B49C0F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="20640" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dynamic Programming" sheetId="8" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="175">
   <si>
     <t>Name</t>
   </si>
@@ -570,91 +570,145 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Unique Paths</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unique Paths II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/unique-paths/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/unique-paths-ii/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Minimum Path Sum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/minimum-path-sum/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Obstacles will block entire
+righter row &amp; lower column entries.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>House Robber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>House Robber II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/house-robber/submissions/1250506908/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/house-robber-ii/submissions/1250688145/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Triangle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/triangle/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MWIS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maximum Subarray</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximum-subarray/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maximum Product Subarray</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximum-product-subarray/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/minimum-falling-path-sum/description/</t>
+  </si>
+  <si>
+    <t>Minimum Falling Path Sum</t>
+  </si>
+  <si>
+    <t>Minimum Falling Path Sum II</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/minimum-falling-path-sum-ii/</t>
+  </si>
+  <si>
+    <t>Use binary sort to speed up finding
+each row's min cumulated path sum.</t>
+  </si>
+  <si>
+    <t>Binary Search</t>
+  </si>
+  <si>
+    <r>
+      <t>O(n^</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>House Robber III</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/house-robber-iii/description/</t>
+  </si>
+  <si>
     <t>When returning path to parent,
 can't take both left &amp; right paths.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unique Paths</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unique Paths II</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/unique-paths/description/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/unique-paths-ii/description/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Minimum Path Sum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/minimum-path-sum/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Obstacles will block entire
-righter row &amp; lower column entries.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>House Robber</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>House Robber II</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/house-robber/submissions/1250506908/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/house-robber-ii/submissions/1250688145/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MWIS, DFS</t>
+  </si>
+  <si>
+    <t>What to return to parent:
+two before MWIS &amp; last MWIS.</t>
   </si>
   <si>
     <t xml:space="preserve">Do two iterations in circular cases:
-one excluding 1st item, and the other excluding last item. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Triangle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/triangle/description/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MWIS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Maximum Subarray</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/maximum-subarray/description/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Maximum Product Subarray</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/maximum-product-subarray/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prepare positive &amp; negative subarrays in case they switch roles due to incoming negative number.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+one excluding 1st item,
+and the other excluding last item. </t>
+  </si>
+  <si>
+    <t>Prepare positive &amp; negative subarrays
+in case they switch roles due to incoming negative number.</t>
   </si>
 </sst>
 </file>
@@ -662,19 +716,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -698,7 +752,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -743,6 +797,23 @@
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Microsoft YaHei"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -780,19 +851,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -812,11 +883,17 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="超連結" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="33">
     <dxf>
@@ -1449,15 +1526,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23E6E9DF-BEE0-B544-8910-7DDC3380F4B7}">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="46" customWidth="1"/>
-    <col min="3" max="3" width="65.796875" style="13" customWidth="1"/>
+    <col min="3" max="3" width="65.85546875" style="15" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
     <col min="6" max="8" width="21" customWidth="1"/>
@@ -1465,14 +1542,14 @@
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20" customHeight="1">
+    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="13" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -1500,15 +1577,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="20" customHeight="1">
+    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="4">
         <v>53</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>160</v>
+        <v>157</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>158</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>49</v>
@@ -1527,15 +1604,15 @@
       <c r="J2" s="5"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" ht="20" customHeight="1">
+    <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="4">
         <v>62</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>146</v>
+        <v>143</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>145</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>49</v>
@@ -1559,16 +1636,16 @@
         <v>63</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>147</v>
+        <v>144</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>146</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>49</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
@@ -1583,15 +1660,15 @@
       <c r="J4" s="5"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:11" ht="20" customHeight="1">
+    <row r="5" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="4">
         <v>64</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C5" s="14" t="s">
         <v>148</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>149</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>49</v>
@@ -1610,15 +1687,15 @@
       <c r="J5" s="5"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" ht="20" customHeight="1">
+    <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="4">
         <v>120</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>157</v>
+        <v>154</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>155</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>10</v>
@@ -1644,14 +1721,14 @@
       <c r="B7" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="14" t="s">
         <v>142</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>143</v>
+        <v>170</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>72</v>
@@ -1673,16 +1750,16 @@
         <v>152</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>162</v>
+        <v>159</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>160</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>49</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
@@ -1697,22 +1774,22 @@
       <c r="J8" s="5"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:11" ht="20" customHeight="1">
+    <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="4">
         <v>198</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>153</v>
+        <v>150</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>152</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>49</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>11</v>
@@ -1731,19 +1808,19 @@
         <v>213</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>154</v>
+        <v>151</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>153</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>49</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>44</v>
@@ -1757,9 +1834,98 @@
       <c r="J10" s="5"/>
       <c r="K10" s="4"/>
     </row>
+    <row r="11" spans="1:11" ht="45" customHeight="1">
+      <c r="A11" s="4">
+        <v>337</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" s="5">
+        <v>45495</v>
+      </c>
+      <c r="J11" s="5"/>
+      <c r="K11" s="4"/>
+    </row>
+    <row r="12" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="A12" s="4">
+        <v>931</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" s="5">
+        <v>45496</v>
+      </c>
+      <c r="J12" s="5"/>
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" spans="1:11" ht="30" customHeight="1">
+      <c r="A13" s="4">
+        <v>1289</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" s="5">
+        <v>45496</v>
+      </c>
+      <c r="J13" s="5"/>
+      <c r="K13" s="4"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D2:D10">
+  <conditionalFormatting sqref="D2:D13">
     <cfRule type="expression" dxfId="32" priority="1">
       <formula>D2="Easy"</formula>
     </cfRule>
@@ -1780,9 +1946,12 @@
     <hyperlink ref="C6" r:id="rId7" xr:uid="{2022A0AD-F338-4B4A-8571-BB4A95D7EE00}"/>
     <hyperlink ref="C2" r:id="rId8" xr:uid="{11FB62CE-95A4-8149-A0D0-EC80907AD300}"/>
     <hyperlink ref="C8" r:id="rId9" xr:uid="{D0C86F76-90D0-4847-AD9B-8F8B4200A39D}"/>
+    <hyperlink ref="C11" r:id="rId10" xr:uid="{9CABBCEF-20B6-4261-A1F0-3D8011645ACB}"/>
+    <hyperlink ref="C13" r:id="rId11" xr:uid="{89251C52-1FFE-4F42-9EB3-8442B0C4B630}"/>
+    <hyperlink ref="C12" r:id="rId12" xr:uid="{32767AED-4FD4-4A42-A276-7043683514E1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId10"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId13"/>
   <headerFooter>
     <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 General</oddFooter>
   </headerFooter>
@@ -1795,10 +1964,10 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="38.19921875" customWidth="1"/>
+    <col min="2" max="2" width="38.140625" customWidth="1"/>
     <col min="3" max="3" width="71" style="9" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
@@ -1807,7 +1976,7 @@
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20" customHeight="1">
+    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -1842,7 +2011,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="20" customHeight="1">
+    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="4">
         <v>74</v>
       </c>
@@ -1869,7 +2038,7 @@
       <c r="J2" s="3"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="20" customHeight="1">
+    <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="4">
         <v>220</v>
       </c>
@@ -1925,7 +2094,7 @@
       <c r="J4" s="5"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:11" ht="20" customHeight="1">
+    <row r="5" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="4">
         <v>315</v>
       </c>
@@ -1952,7 +2121,7 @@
       <c r="J5" s="5"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" ht="20" customHeight="1">
+    <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="4">
         <v>352</v>
       </c>
@@ -1981,7 +2150,7 @@
       <c r="J6" s="5"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11" ht="20" customHeight="1">
+    <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="4">
         <v>480</v>
       </c>
@@ -2008,7 +2177,7 @@
       <c r="J7" s="5"/>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="1:11" ht="20" customHeight="1">
+    <row r="8" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="4">
         <v>493</v>
       </c>
@@ -2035,7 +2204,7 @@
       <c r="J8" s="5"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:11" ht="20" customHeight="1">
+    <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="4">
         <v>611</v>
       </c>
@@ -2064,7 +2233,7 @@
       <c r="J9" s="5"/>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="1:11" ht="20" customHeight="1">
+    <row r="10" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="4">
         <v>729</v>
       </c>
@@ -2091,7 +2260,7 @@
       <c r="J10" s="5"/>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="1:11" ht="20" customHeight="1">
+    <row r="11" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="4">
         <v>1095</v>
       </c>
@@ -2149,7 +2318,7 @@
       <c r="J12" s="5"/>
       <c r="K12" s="4"/>
     </row>
-    <row r="13" spans="1:11" ht="20" customHeight="1">
+    <row r="13" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="4">
         <v>1825</v>
       </c>
@@ -2178,7 +2347,7 @@
       <c r="J13" s="5"/>
       <c r="K13" s="4"/>
     </row>
-    <row r="14" spans="1:11" ht="20" customHeight="1">
+    <row r="14" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="4">
         <v>2034</v>
       </c>
@@ -2207,7 +2376,7 @@
       <c r="J14" s="5"/>
       <c r="K14" s="4"/>
     </row>
-    <row r="15" spans="1:11" ht="20" customHeight="1">
+    <row r="15" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="4">
         <v>2102</v>
       </c>
@@ -2292,10 +2461,10 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="45.796875" customWidth="1"/>
+    <col min="2" max="2" width="45.85546875" customWidth="1"/>
     <col min="3" max="3" width="71" style="9" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
@@ -2304,7 +2473,7 @@
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20" customHeight="1">
+    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -2339,7 +2508,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="20" customHeight="1">
+    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="4">
         <v>3</v>
       </c>
@@ -2366,7 +2535,7 @@
       <c r="J2" s="5"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" ht="20" customHeight="1">
+    <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="4">
         <v>1695</v>
       </c>
@@ -2423,11 +2592,11 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="25.796875" customWidth="1"/>
-    <col min="3" max="3" width="65.796875" style="9" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" customWidth="1"/>
+    <col min="3" max="3" width="65.85546875" style="9" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
     <col min="6" max="8" width="21" customWidth="1"/>
@@ -2435,7 +2604,7 @@
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20" customHeight="1">
+    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -2470,7 +2639,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="20" customHeight="1">
+    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="4">
         <v>41</v>
       </c>
@@ -2501,7 +2670,7 @@
       </c>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" ht="20" customHeight="1">
+    <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="4">
         <v>287</v>
       </c>
@@ -2528,7 +2697,7 @@
       <c r="J3" s="5"/>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:11" ht="20" customHeight="1">
+    <row r="4" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="4">
         <v>645</v>
       </c>
@@ -2598,11 +2767,11 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="35.796875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="9" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
     <col min="6" max="8" width="21" customWidth="1"/>
@@ -2610,7 +2779,7 @@
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20" customHeight="1">
+    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -2645,7 +2814,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="20" customHeight="1">
+    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="4">
         <v>394</v>
       </c>
@@ -2702,11 +2871,11 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="46" customWidth="1"/>
-    <col min="3" max="3" width="65.796875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="65.85546875" style="9" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
     <col min="6" max="8" width="21" customWidth="1"/>
@@ -2714,7 +2883,7 @@
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20" customHeight="1">
+    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -2749,7 +2918,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="20" customHeight="1">
+    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="4">
         <v>208</v>
       </c>
@@ -2776,7 +2945,7 @@
       <c r="J2" s="5"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" ht="20" customHeight="1">
+    <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="4">
         <v>211</v>
       </c>
@@ -2805,7 +2974,7 @@
       <c r="J3" s="5"/>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:11" ht="20" customHeight="1">
+    <row r="4" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="4">
         <v>386</v>
       </c>
@@ -2834,7 +3003,7 @@
       <c r="J4" s="5"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:11" ht="20" customHeight="1">
+    <row r="5" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="4">
         <v>648</v>
       </c>
@@ -2861,7 +3030,7 @@
       <c r="J5" s="5"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" ht="20" customHeight="1">
+    <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="4">
         <v>677</v>
       </c>
@@ -2890,7 +3059,7 @@
       <c r="J6" s="5"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11" ht="20" customHeight="1">
+    <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="4">
         <v>720</v>
       </c>
@@ -2948,7 +3117,7 @@
       <c r="J8" s="5"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:11" ht="20" customHeight="1">
+    <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="4">
         <v>1268</v>
       </c>
@@ -3044,11 +3213,11 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="36" customWidth="1"/>
-    <col min="3" max="3" width="35.796875" style="12" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="12" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
     <col min="6" max="8" width="21" customWidth="1"/>
@@ -3056,7 +3225,7 @@
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20" customHeight="1">
+    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -3091,7 +3260,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="20" customHeight="1">
+    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="4">
         <v>113</v>
       </c>
@@ -3120,7 +3289,7 @@
       <c r="J2" s="5"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" ht="20" customHeight="1">
+    <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="4">
         <v>114</v>
       </c>
@@ -3149,7 +3318,7 @@
       <c r="J3" s="5"/>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:11" ht="20" customHeight="1">
+    <row r="4" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="4">
         <v>129</v>
       </c>
@@ -3178,7 +3347,7 @@
       <c r="J4" s="5"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:11" ht="20" customHeight="1">
+    <row r="5" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="4">
         <v>341</v>
       </c>
@@ -3207,7 +3376,7 @@
       <c r="J5" s="5"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" ht="20" customHeight="1">
+    <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="4">
         <v>399</v>
       </c>
@@ -3238,7 +3407,7 @@
       <c r="J6" s="5"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11" ht="20" customHeight="1">
+    <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="4">
         <v>437</v>
       </c>
@@ -3267,7 +3436,7 @@
       <c r="J7" s="5"/>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="1:11" ht="20" customHeight="1">
+    <row r="8" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="4">
         <v>508</v>
       </c>
@@ -3296,7 +3465,7 @@
       <c r="J8" s="5"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:11" ht="20" customHeight="1">
+    <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="4">
         <v>623</v>
       </c>
@@ -3426,11 +3595,11 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="43.19921875" customWidth="1"/>
-    <col min="3" max="3" width="35.796875" style="12" customWidth="1"/>
+    <col min="2" max="2" width="43.140625" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="12" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
     <col min="6" max="8" width="21" customWidth="1"/>
@@ -3438,7 +3607,7 @@
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20" customHeight="1">
+    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -3597,7 +3766,7 @@
       <c r="J5" s="5"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" ht="20" customHeight="1">
+    <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="4">
         <v>513</v>
       </c>
@@ -3626,7 +3795,7 @@
       <c r="J6" s="5"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11" ht="20" customHeight="1">
+    <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="4">
         <v>515</v>
       </c>
@@ -3686,7 +3855,7 @@
       <c r="J8" s="5"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:11" ht="20" customHeight="1">
+    <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="4">
         <v>958</v>
       </c>
@@ -3715,7 +3884,7 @@
       <c r="J9" s="5"/>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="1:11" ht="20" customHeight="1">
+    <row r="10" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="4">
         <v>1161</v>
       </c>

--- a/LeetCode Techniques.xlsx
+++ b/LeetCode Techniques.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jack.yao\Desktop\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E801619-D644-4E44-9499-95A56B49C0F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D82DA80-7DD6-455C-899F-64FB20D4CE3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="197">
   <si>
     <t>Name</t>
   </si>
@@ -590,10 +590,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://leetcode.com/problems/minimum-path-sum/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Obstacles will block entire
 righter row &amp; lower column entries.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -604,14 +600,6 @@
   </si>
   <si>
     <t>House Robber II</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/house-robber/submissions/1250506908/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/house-robber-ii/submissions/1250688145/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -707,8 +695,126 @@
 and the other excluding last item. </t>
   </si>
   <si>
-    <t>Prepare positive &amp; negative subarrays
-in case they switch roles due to incoming negative number.</t>
+    <t>Coin Change</t>
+  </si>
+  <si>
+    <t>O(amount*coins)</t>
+  </si>
+  <si>
+    <t>O(amount)</t>
+  </si>
+  <si>
+    <t>When finding min denomination:
+outer loop w.r.t. iterated amount,
+inner loop w.r.t. iterated coin.</t>
+  </si>
+  <si>
+    <t>Coin Change II</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/coin-change-ii/description/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/coin-change/description/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/house-robber/description/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/house-robber-ii/description/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/minimum-path-sum/description/</t>
+  </si>
+  <si>
+    <t>When finding all combinations:
+outer loop w.r.t. iterated coin,
+inner loop w.r.t. iterated amount.</t>
+  </si>
+  <si>
+    <t>Perfect Squares</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/perfect-squares/description/</t>
+  </si>
+  <si>
+    <t>O(area)</t>
+  </si>
+  <si>
+    <t>O(area^1.5)</t>
+  </si>
+  <si>
+    <t>Integer Break</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/integer-break/description/</t>
+  </si>
+  <si>
+    <t>Apply memoization.</t>
+  </si>
+  <si>
+    <t>O(n^2)</t>
+  </si>
+  <si>
+    <t>Combination Sum IV</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/combination-sum-iv/description/</t>
+  </si>
+  <si>
+    <t>O(target*nums)</t>
+  </si>
+  <si>
+    <t>O(target)</t>
+  </si>
+  <si>
+    <t>Exactly the same logic as coin change.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Much alike coin change, except when </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+      </rPr>
+      <t>querying target - num permutation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+      </rPr>
+      <t>just sum up to record permutations</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Prepare positive &amp; negative subarrays in case they switch roles due to incoming negative number.</t>
   </si>
 </sst>
 </file>
@@ -851,7 +957,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -890,6 +996,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1526,15 +1635,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23E6E9DF-BEE0-B544-8910-7DDC3380F4B7}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="46" customWidth="1"/>
-    <col min="3" max="3" width="65.85546875" style="15" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" style="15" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
     <col min="6" max="8" width="21" customWidth="1"/>
@@ -1582,10 +1691,10 @@
         <v>53</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>49</v>
@@ -1645,7 +1754,7 @@
         <v>49</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
@@ -1668,7 +1777,7 @@
         <v>147</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>148</v>
+        <v>180</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>49</v>
@@ -1692,10 +1801,10 @@
         <v>120</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>10</v>
@@ -1727,8 +1836,8 @@
       <c r="D7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>170</v>
+      <c r="E7" s="16" t="s">
+        <v>167</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>72</v>
@@ -1750,16 +1859,16 @@
         <v>152</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>174</v>
+      <c r="E8" s="16" t="s">
+        <v>196</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
@@ -1779,17 +1888,17 @@
         <v>198</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>152</v>
+        <v>178</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>49</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>11</v>
@@ -1808,19 +1917,19 @@
         <v>213</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>153</v>
+        <v>179</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>173</v>
+      <c r="E10" s="16" t="s">
+        <v>170</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>44</v>
@@ -1834,30 +1943,28 @@
       <c r="J10" s="5"/>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="1:11" ht="45" customHeight="1">
+    <row r="11" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="4">
-        <v>337</v>
+        <v>279</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>49</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>171</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
-        <v>44</v>
+        <v>185</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>11</v>
+        <v>184</v>
       </c>
       <c r="I11" s="5">
         <v>45495</v>
@@ -1865,67 +1972,214 @@
       <c r="J11" s="5"/>
       <c r="K11" s="4"/>
     </row>
-    <row r="12" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="1:11" ht="45" customHeight="1">
       <c r="A12" s="4">
-        <v>931</v>
+        <v>322</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="4"/>
+        <v>49</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>174</v>
+      </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>11</v>
+        <v>173</v>
       </c>
       <c r="I12" s="5">
-        <v>45496</v>
+        <v>45495</v>
       </c>
       <c r="J12" s="5"/>
       <c r="K12" s="4"/>
     </row>
     <row r="13" spans="1:11" ht="30" customHeight="1">
       <c r="A13" s="4">
-        <v>1289</v>
+        <v>337</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>165</v>
+        <v>49</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>169</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>167</v>
+        <v>44</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="I13" s="5">
-        <v>45496</v>
+        <v>45495</v>
       </c>
       <c r="J13" s="5"/>
       <c r="K13" s="4"/>
     </row>
+    <row r="14" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="A14" s="4">
+        <v>343</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I14" s="5">
+        <v>45495</v>
+      </c>
+      <c r="J14" s="5"/>
+      <c r="K14" s="4"/>
+    </row>
+    <row r="15" spans="1:11" ht="45" customHeight="1">
+      <c r="A15" s="4">
+        <v>377</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="I15" s="5">
+        <v>45495</v>
+      </c>
+      <c r="J15" s="5"/>
+      <c r="K15" s="4"/>
+    </row>
+    <row r="16" spans="1:11" ht="45" customHeight="1">
+      <c r="A16" s="4">
+        <v>518</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="I16" s="5">
+        <v>45495</v>
+      </c>
+      <c r="J16" s="5"/>
+      <c r="K16" s="4"/>
+    </row>
+    <row r="17" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="A17" s="4">
+        <v>931</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I17" s="5">
+        <v>45496</v>
+      </c>
+      <c r="J17" s="5"/>
+      <c r="K17" s="4"/>
+    </row>
+    <row r="18" spans="1:11" ht="30" customHeight="1">
+      <c r="A18" s="4">
+        <v>1289</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I18" s="5">
+        <v>45496</v>
+      </c>
+      <c r="J18" s="5"/>
+      <c r="K18" s="4"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D2:D13">
+  <conditionalFormatting sqref="D2:D18">
     <cfRule type="expression" dxfId="32" priority="1">
       <formula>D2="Easy"</formula>
     </cfRule>
@@ -1946,12 +2200,17 @@
     <hyperlink ref="C6" r:id="rId7" xr:uid="{2022A0AD-F338-4B4A-8571-BB4A95D7EE00}"/>
     <hyperlink ref="C2" r:id="rId8" xr:uid="{11FB62CE-95A4-8149-A0D0-EC80907AD300}"/>
     <hyperlink ref="C8" r:id="rId9" xr:uid="{D0C86F76-90D0-4847-AD9B-8F8B4200A39D}"/>
-    <hyperlink ref="C11" r:id="rId10" xr:uid="{9CABBCEF-20B6-4261-A1F0-3D8011645ACB}"/>
-    <hyperlink ref="C13" r:id="rId11" xr:uid="{89251C52-1FFE-4F42-9EB3-8442B0C4B630}"/>
-    <hyperlink ref="C12" r:id="rId12" xr:uid="{32767AED-4FD4-4A42-A276-7043683514E1}"/>
+    <hyperlink ref="C13" r:id="rId10" xr:uid="{9CABBCEF-20B6-4261-A1F0-3D8011645ACB}"/>
+    <hyperlink ref="C18" r:id="rId11" xr:uid="{89251C52-1FFE-4F42-9EB3-8442B0C4B630}"/>
+    <hyperlink ref="C17" r:id="rId12" xr:uid="{32767AED-4FD4-4A42-A276-7043683514E1}"/>
+    <hyperlink ref="C12" r:id="rId13" xr:uid="{05186EE2-9933-4BE1-8003-0B7A411907D0}"/>
+    <hyperlink ref="C16" r:id="rId14" xr:uid="{BF5BA59B-B251-4DEC-9C8D-5AF88F2281BB}"/>
+    <hyperlink ref="C11" r:id="rId15" xr:uid="{813FAFD5-6D74-491D-9824-1E659C9D2411}"/>
+    <hyperlink ref="C14" r:id="rId16" xr:uid="{0906CA71-0A65-43B6-A42E-14BED96A9744}"/>
+    <hyperlink ref="C15" r:id="rId17" xr:uid="{8BAD1FAB-01D5-4562-993F-1DD3EF213075}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId13"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId18"/>
   <headerFooter>
     <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 General</oddFooter>
   </headerFooter>

--- a/LeetCode Techniques.xlsx
+++ b/LeetCode Techniques.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jack.yao\Desktop\LeetCode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/blackjack625/Desktop/LeetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D82DA80-7DD6-455C-899F-64FB20D4CE3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2E7134D-1C74-634B-B161-D5D0EEF4D56F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dynamic Programming" sheetId="8" r:id="rId1"/>
@@ -658,6 +658,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
       </rPr>
       <t>2</t>
     </r>
@@ -780,6 +781,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
       </rPr>
       <t>querying target - num permutation</t>
     </r>
@@ -799,6 +801,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
       </rPr>
       <t>just sum up to record permutations</t>
     </r>
@@ -822,19 +825,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -858,7 +861,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -907,18 +910,21 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Microsoft YaHei"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Microsoft YaHei"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color theme="10"/>
       <name val="Microsoft YaHei"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -959,17 +965,17 @@
   </cellStyleXfs>
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1001,40 +1007,10 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="33">
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="30">
     <dxf>
       <font>
         <color rgb="FFFFFF00"/>
@@ -1639,11 +1615,11 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" customWidth="1"/>
-    <col min="3" max="3" width="40.7109375" style="15" customWidth="1"/>
+    <col min="2" max="2" width="36" customWidth="1"/>
+    <col min="3" max="3" width="40.796875" style="15" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
     <col min="6" max="8" width="21" customWidth="1"/>
@@ -1651,7 +1627,7 @@
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:11" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -1686,7 +1662,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:11" ht="20" customHeight="1">
       <c r="A2" s="4">
         <v>53</v>
       </c>
@@ -1713,7 +1689,7 @@
       <c r="J2" s="5"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:11" ht="20" customHeight="1">
       <c r="A3" s="4">
         <v>62</v>
       </c>
@@ -1769,7 +1745,7 @@
       <c r="J4" s="5"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="1:11" ht="20" customHeight="1">
       <c r="A5" s="4">
         <v>64</v>
       </c>
@@ -1796,7 +1772,7 @@
       <c r="J5" s="5"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="1:11" ht="20" customHeight="1">
       <c r="A6" s="4">
         <v>120</v>
       </c>
@@ -1883,7 +1859,7 @@
       <c r="J8" s="5"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:11" ht="20" customHeight="1">
       <c r="A9" s="4">
         <v>198</v>
       </c>
@@ -1943,7 +1919,7 @@
       <c r="J10" s="5"/>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="1:11" ht="20" customHeight="1">
       <c r="A11" s="4">
         <v>279</v>
       </c>
@@ -2032,7 +2008,7 @@
       <c r="J13" s="5"/>
       <c r="K13" s="4"/>
     </row>
-    <row r="14" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="1:11" ht="20" customHeight="1">
       <c r="A14" s="4">
         <v>343</v>
       </c>
@@ -2119,7 +2095,7 @@
       <c r="J16" s="5"/>
       <c r="K16" s="4"/>
     </row>
-    <row r="17" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="17" spans="1:11" ht="20" customHeight="1">
       <c r="A17" s="4">
         <v>931</v>
       </c>
@@ -2180,13 +2156,13 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2:D18">
-    <cfRule type="expression" dxfId="32" priority="1">
+    <cfRule type="expression" dxfId="29" priority="1">
       <formula>D2="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="2">
+    <cfRule type="expression" dxfId="28" priority="2">
       <formula>D2="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="3">
+    <cfRule type="expression" dxfId="27" priority="3">
       <formula>D2="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2223,10 +2199,10 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="38.140625" customWidth="1"/>
+    <col min="2" max="2" width="38.19921875" customWidth="1"/>
     <col min="3" max="3" width="71" style="9" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
@@ -2235,7 +2211,7 @@
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:11" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -2270,7 +2246,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:11" ht="20" customHeight="1">
       <c r="A2" s="4">
         <v>74</v>
       </c>
@@ -2297,7 +2273,7 @@
       <c r="J2" s="3"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:11" ht="20" customHeight="1">
       <c r="A3" s="4">
         <v>220</v>
       </c>
@@ -2353,7 +2329,7 @@
       <c r="J4" s="5"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="1:11" ht="20" customHeight="1">
       <c r="A5" s="4">
         <v>315</v>
       </c>
@@ -2380,7 +2356,7 @@
       <c r="J5" s="5"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="1:11" ht="20" customHeight="1">
       <c r="A6" s="4">
         <v>352</v>
       </c>
@@ -2409,7 +2385,7 @@
       <c r="J6" s="5"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="1:11" ht="20" customHeight="1">
       <c r="A7" s="4">
         <v>480</v>
       </c>
@@ -2436,7 +2412,7 @@
       <c r="J7" s="5"/>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="1:11" ht="20" customHeight="1">
       <c r="A8" s="4">
         <v>493</v>
       </c>
@@ -2463,7 +2439,7 @@
       <c r="J8" s="5"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:11" ht="20" customHeight="1">
       <c r="A9" s="4">
         <v>611</v>
       </c>
@@ -2492,7 +2468,7 @@
       <c r="J9" s="5"/>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="1:11" ht="20" customHeight="1">
       <c r="A10" s="4">
         <v>729</v>
       </c>
@@ -2519,7 +2495,7 @@
       <c r="J10" s="5"/>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="1:11" ht="20" customHeight="1">
       <c r="A11" s="4">
         <v>1095</v>
       </c>
@@ -2577,7 +2553,7 @@
       <c r="J12" s="5"/>
       <c r="K12" s="4"/>
     </row>
-    <row r="13" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="1:11" ht="20" customHeight="1">
       <c r="A13" s="4">
         <v>1825</v>
       </c>
@@ -2606,7 +2582,7 @@
       <c r="J13" s="5"/>
       <c r="K13" s="4"/>
     </row>
-    <row r="14" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="1:11" ht="20" customHeight="1">
       <c r="A14" s="4">
         <v>2034</v>
       </c>
@@ -2635,7 +2611,7 @@
       <c r="J14" s="5"/>
       <c r="K14" s="4"/>
     </row>
-    <row r="15" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="1:11" ht="20" customHeight="1">
       <c r="A15" s="4">
         <v>2102</v>
       </c>
@@ -2670,24 +2646,24 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2:D3">
-    <cfRule type="expression" dxfId="29" priority="1">
+    <cfRule type="expression" dxfId="26" priority="1">
       <formula>D2="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="2">
+    <cfRule type="expression" dxfId="25" priority="2">
       <formula>D2="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="3">
+    <cfRule type="expression" dxfId="24" priority="3">
       <formula>D2="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:E15">
-    <cfRule type="expression" dxfId="26" priority="4">
+    <cfRule type="expression" dxfId="23" priority="4">
       <formula>D4="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="5">
+    <cfRule type="expression" dxfId="22" priority="5">
       <formula>D4="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="6">
+    <cfRule type="expression" dxfId="21" priority="6">
       <formula>D4="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2720,10 +2696,10 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="45.85546875" customWidth="1"/>
+    <col min="2" max="2" width="45.796875" customWidth="1"/>
     <col min="3" max="3" width="71" style="9" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
@@ -2732,7 +2708,7 @@
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:11" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -2767,7 +2743,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:11" ht="20" customHeight="1">
       <c r="A2" s="4">
         <v>3</v>
       </c>
@@ -2794,7 +2770,7 @@
       <c r="J2" s="5"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:11" ht="20" customHeight="1">
       <c r="A3" s="4">
         <v>1695</v>
       </c>
@@ -2824,13 +2800,13 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2:E3">
-    <cfRule type="expression" dxfId="23" priority="4">
+    <cfRule type="expression" dxfId="20" priority="4">
       <formula>D2="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="5">
+    <cfRule type="expression" dxfId="19" priority="5">
       <formula>D2="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="6">
+    <cfRule type="expression" dxfId="18" priority="6">
       <formula>D2="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2851,11 +2827,11 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="25.85546875" customWidth="1"/>
-    <col min="3" max="3" width="65.85546875" style="9" customWidth="1"/>
+    <col min="2" max="2" width="25.796875" customWidth="1"/>
+    <col min="3" max="3" width="65.796875" style="9" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
     <col min="6" max="8" width="21" customWidth="1"/>
@@ -2863,7 +2839,7 @@
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:11" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -2898,7 +2874,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:11" ht="20" customHeight="1">
       <c r="A2" s="4">
         <v>41</v>
       </c>
@@ -2929,7 +2905,7 @@
       </c>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:11" ht="20" customHeight="1">
       <c r="A3" s="4">
         <v>287</v>
       </c>
@@ -2956,7 +2932,7 @@
       <c r="J3" s="5"/>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="1:11" ht="20" customHeight="1">
       <c r="A4" s="4">
         <v>645</v>
       </c>
@@ -2986,24 +2962,24 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2">
-    <cfRule type="expression" dxfId="20" priority="1">
+    <cfRule type="expression" dxfId="17" priority="1">
       <formula>D2="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="2">
+    <cfRule type="expression" dxfId="16" priority="2">
       <formula>D2="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="3">
+    <cfRule type="expression" dxfId="15" priority="3">
       <formula>D2="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:E4">
-    <cfRule type="expression" dxfId="17" priority="4">
+    <cfRule type="expression" dxfId="14" priority="4">
       <formula>D3="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="5">
+    <cfRule type="expression" dxfId="13" priority="5">
       <formula>D3="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="6">
+    <cfRule type="expression" dxfId="12" priority="6">
       <formula>D3="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3026,11 +3002,11 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="35.85546875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="35.796875" style="9" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
     <col min="6" max="8" width="21" customWidth="1"/>
@@ -3038,7 +3014,7 @@
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:11" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -3073,7 +3049,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:11" ht="20" customHeight="1">
       <c r="A2" s="4">
         <v>394</v>
       </c>
@@ -3103,13 +3079,13 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2">
-    <cfRule type="expression" dxfId="14" priority="1">
+    <cfRule type="expression" dxfId="11" priority="1">
       <formula>D2="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="2">
+    <cfRule type="expression" dxfId="10" priority="2">
       <formula>D2="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="3">
+    <cfRule type="expression" dxfId="9" priority="3">
       <formula>D2="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3130,11 +3106,11 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="46" customWidth="1"/>
-    <col min="3" max="3" width="65.85546875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="65.796875" style="9" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
     <col min="6" max="8" width="21" customWidth="1"/>
@@ -3142,7 +3118,7 @@
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:11" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -3177,7 +3153,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:11" ht="20" customHeight="1">
       <c r="A2" s="4">
         <v>208</v>
       </c>
@@ -3204,7 +3180,7 @@
       <c r="J2" s="5"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:11" ht="20" customHeight="1">
       <c r="A3" s="4">
         <v>211</v>
       </c>
@@ -3233,7 +3209,7 @@
       <c r="J3" s="5"/>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="1:11" ht="20" customHeight="1">
       <c r="A4" s="4">
         <v>386</v>
       </c>
@@ -3262,7 +3238,7 @@
       <c r="J4" s="5"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="1:11" ht="20" customHeight="1">
       <c r="A5" s="4">
         <v>648</v>
       </c>
@@ -3289,7 +3265,7 @@
       <c r="J5" s="5"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="1:11" ht="20" customHeight="1">
       <c r="A6" s="4">
         <v>677</v>
       </c>
@@ -3318,7 +3294,7 @@
       <c r="J6" s="5"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="1:11" ht="20" customHeight="1">
       <c r="A7" s="4">
         <v>720</v>
       </c>
@@ -3376,7 +3352,7 @@
       <c r="J8" s="5"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:11" ht="20" customHeight="1">
       <c r="A9" s="4">
         <v>1268</v>
       </c>
@@ -3437,13 +3413,13 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2:D10">
-    <cfRule type="expression" dxfId="11" priority="1">
+    <cfRule type="expression" dxfId="8" priority="1">
       <formula>D2="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="2">
+    <cfRule type="expression" dxfId="7" priority="2">
       <formula>D2="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="3">
+    <cfRule type="expression" dxfId="6" priority="3">
       <formula>D2="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3472,11 +3448,11 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="36" customWidth="1"/>
-    <col min="3" max="3" width="35.85546875" style="12" customWidth="1"/>
+    <col min="3" max="3" width="35.796875" style="12" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
     <col min="6" max="8" width="21" customWidth="1"/>
@@ -3484,7 +3460,7 @@
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:11" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -3519,7 +3495,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:11" ht="20" customHeight="1">
       <c r="A2" s="4">
         <v>113</v>
       </c>
@@ -3548,7 +3524,7 @@
       <c r="J2" s="5"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:11" ht="20" customHeight="1">
       <c r="A3" s="4">
         <v>114</v>
       </c>
@@ -3577,7 +3553,7 @@
       <c r="J3" s="5"/>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="1:11" ht="20" customHeight="1">
       <c r="A4" s="4">
         <v>129</v>
       </c>
@@ -3606,7 +3582,7 @@
       <c r="J4" s="5"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="1:11" ht="20" customHeight="1">
       <c r="A5" s="4">
         <v>341</v>
       </c>
@@ -3635,7 +3611,7 @@
       <c r="J5" s="5"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="1:11" ht="20" customHeight="1">
       <c r="A6" s="4">
         <v>399</v>
       </c>
@@ -3666,7 +3642,7 @@
       <c r="J6" s="5"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="1:11" ht="20" customHeight="1">
       <c r="A7" s="4">
         <v>437</v>
       </c>
@@ -3695,7 +3671,7 @@
       <c r="J7" s="5"/>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="1:11" ht="20" customHeight="1">
       <c r="A8" s="4">
         <v>508</v>
       </c>
@@ -3724,7 +3700,7 @@
       <c r="J8" s="5"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:11" ht="20" customHeight="1">
       <c r="A9" s="4">
         <v>623</v>
       </c>
@@ -3818,13 +3794,13 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2:D11">
-    <cfRule type="expression" dxfId="8" priority="1">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>D2="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="2">
+    <cfRule type="expression" dxfId="4" priority="2">
       <formula>D2="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="3">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>D2="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3854,11 +3830,11 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="43.140625" customWidth="1"/>
-    <col min="3" max="3" width="35.85546875" style="12" customWidth="1"/>
+    <col min="2" max="2" width="43.19921875" customWidth="1"/>
+    <col min="3" max="3" width="35.796875" style="12" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
     <col min="6" max="8" width="21" customWidth="1"/>
@@ -3866,7 +3842,7 @@
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:11" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -4025,7 +4001,7 @@
       <c r="J5" s="5"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="1:11" ht="20" customHeight="1">
       <c r="A6" s="4">
         <v>513</v>
       </c>
@@ -4054,7 +4030,7 @@
       <c r="J6" s="5"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="1:11" ht="20" customHeight="1">
       <c r="A7" s="4">
         <v>515</v>
       </c>
@@ -4114,7 +4090,7 @@
       <c r="J8" s="5"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:11" ht="20" customHeight="1">
       <c r="A9" s="4">
         <v>958</v>
       </c>
@@ -4143,7 +4119,7 @@
       <c r="J9" s="5"/>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="1:11" ht="20" customHeight="1">
       <c r="A10" s="4">
         <v>1161</v>
       </c>
@@ -4174,26 +4150,15 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D2:D5 D8:D10">
-    <cfRule type="expression" dxfId="5" priority="4">
+  <conditionalFormatting sqref="D2:D10">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>D2="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>D2="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="6">
+    <cfRule type="expression" dxfId="0" priority="3">
       <formula>D2="Hard"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6:D7">
-    <cfRule type="expression" dxfId="2" priority="1">
-      <formula>D6="Easy"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>D6="Medium"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="3">
-      <formula>D6="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>

--- a/LeetCode Techniques.xlsx
+++ b/LeetCode Techniques.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/blackjack625/Desktop/LeetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2E7134D-1C74-634B-B161-D5D0EEF4D56F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51CAF8F7-F541-1842-A852-4388AFDE251B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dynamic Programming" sheetId="8" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="206">
   <si>
     <t>Name</t>
   </si>
@@ -818,6 +818,44 @@
   </si>
   <si>
     <t>Prepare positive &amp; negative subarrays in case they switch roles due to incoming negative number.</t>
+  </si>
+  <si>
+    <t>Sum of Subarray Minimums</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/sum-of-subarray-minimums/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monotonic Stack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iterate backward to apply
+dynamic programming.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vertical Order Traversal of a Binary Tree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/vertical-order-traversal-of-a-binary-tree/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Serialize and Deserialize Binary Tree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/serialize-and-deserialize-binary-tree/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use digits to track level of
+parent nodes in serialization.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -963,7 +1001,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1005,6 +1043,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1611,7 +1650,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23E6E9DF-BEE0-B544-8910-7DDC3380F4B7}">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -2095,52 +2134,52 @@
       <c r="J16" s="5"/>
       <c r="K16" s="4"/>
     </row>
-    <row r="17" spans="1:11" ht="20" customHeight="1">
+    <row r="17" spans="1:11" ht="30" customHeight="1">
       <c r="A17" s="4">
-        <v>931</v>
+        <v>907</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>158</v>
+        <v>197</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>198</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
+      <c r="E17" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>199</v>
+      </c>
       <c r="G17" s="4" t="s">
-        <v>164</v>
+        <v>11</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I17" s="5">
-        <v>45496</v>
+        <v>45508</v>
       </c>
       <c r="J17" s="5"/>
       <c r="K17" s="4"/>
     </row>
-    <row r="18" spans="1:11" ht="30" customHeight="1">
+    <row r="18" spans="1:11" ht="20" customHeight="1">
       <c r="A18" s="4">
-        <v>1289</v>
+        <v>931</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>163</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
       <c r="G18" s="4" t="s">
         <v>164</v>
       </c>
@@ -2153,9 +2192,40 @@
       <c r="J18" s="5"/>
       <c r="K18" s="4"/>
     </row>
+    <row r="19" spans="1:11" ht="30" customHeight="1">
+      <c r="A19" s="4">
+        <v>1289</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I19" s="5">
+        <v>45496</v>
+      </c>
+      <c r="J19" s="5"/>
+      <c r="K19" s="4"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D2:D18">
+  <conditionalFormatting sqref="D2:D19">
     <cfRule type="expression" dxfId="29" priority="1">
       <formula>D2="Easy"</formula>
     </cfRule>
@@ -2177,16 +2247,17 @@
     <hyperlink ref="C2" r:id="rId8" xr:uid="{11FB62CE-95A4-8149-A0D0-EC80907AD300}"/>
     <hyperlink ref="C8" r:id="rId9" xr:uid="{D0C86F76-90D0-4847-AD9B-8F8B4200A39D}"/>
     <hyperlink ref="C13" r:id="rId10" xr:uid="{9CABBCEF-20B6-4261-A1F0-3D8011645ACB}"/>
-    <hyperlink ref="C18" r:id="rId11" xr:uid="{89251C52-1FFE-4F42-9EB3-8442B0C4B630}"/>
-    <hyperlink ref="C17" r:id="rId12" xr:uid="{32767AED-4FD4-4A42-A276-7043683514E1}"/>
+    <hyperlink ref="C19" r:id="rId11" xr:uid="{89251C52-1FFE-4F42-9EB3-8442B0C4B630}"/>
+    <hyperlink ref="C18" r:id="rId12" xr:uid="{32767AED-4FD4-4A42-A276-7043683514E1}"/>
     <hyperlink ref="C12" r:id="rId13" xr:uid="{05186EE2-9933-4BE1-8003-0B7A411907D0}"/>
     <hyperlink ref="C16" r:id="rId14" xr:uid="{BF5BA59B-B251-4DEC-9C8D-5AF88F2281BB}"/>
     <hyperlink ref="C11" r:id="rId15" xr:uid="{813FAFD5-6D74-491D-9824-1E659C9D2411}"/>
     <hyperlink ref="C14" r:id="rId16" xr:uid="{0906CA71-0A65-43B6-A42E-14BED96A9744}"/>
     <hyperlink ref="C15" r:id="rId17" xr:uid="{8BAD1FAB-01D5-4562-993F-1DD3EF213075}"/>
+    <hyperlink ref="C17" r:id="rId18" xr:uid="{7B8F3DB0-2F77-A645-96D2-D8D7373AA08F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId18"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId19"/>
   <headerFooter>
     <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 General</oddFooter>
   </headerFooter>
@@ -3444,7 +3515,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C287181F-E765-1C4E-B964-9C9FDBE62A17}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -3582,22 +3653,24 @@
       <c r="J4" s="5"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:11" ht="20" customHeight="1">
+    <row r="5" spans="1:11" ht="30" customHeight="1">
       <c r="A5" s="4">
-        <v>341</v>
+        <v>297</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>102</v>
+        <v>203</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>204</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" s="4"/>
+        <v>16</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>205</v>
+      </c>
       <c r="F5" s="4" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>44</v>
@@ -3606,29 +3679,27 @@
         <v>44</v>
       </c>
       <c r="I5" s="5">
-        <v>45487</v>
+        <v>45497</v>
       </c>
       <c r="J5" s="5"/>
       <c r="K5" s="4"/>
     </row>
     <row r="6" spans="1:11" ht="20" customHeight="1">
       <c r="A6" s="4">
-        <v>399</v>
+        <v>341</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>134</v>
-      </c>
+      <c r="E6" s="4"/>
       <c r="F6" s="4" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>44</v>
@@ -3637,27 +3708,29 @@
         <v>44</v>
       </c>
       <c r="I6" s="5">
-        <v>45490</v>
+        <v>45487</v>
       </c>
       <c r="J6" s="5"/>
       <c r="K6" s="4"/>
     </row>
     <row r="7" spans="1:11" ht="20" customHeight="1">
       <c r="A7" s="4">
-        <v>437</v>
+        <v>399</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="4"/>
+      <c r="E7" s="4" t="s">
+        <v>134</v>
+      </c>
       <c r="F7" s="4" t="s">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>44</v>
@@ -3666,20 +3739,20 @@
         <v>44</v>
       </c>
       <c r="I7" s="5">
-        <v>45487</v>
+        <v>45490</v>
       </c>
       <c r="J7" s="5"/>
       <c r="K7" s="4"/>
     </row>
     <row r="8" spans="1:11" ht="20" customHeight="1">
       <c r="A8" s="4">
-        <v>508</v>
+        <v>437</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>49</v>
@@ -3702,13 +3775,13 @@
     </row>
     <row r="9" spans="1:11" ht="20" customHeight="1">
       <c r="A9" s="4">
-        <v>623</v>
+        <v>508</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>49</v>
@@ -3721,30 +3794,28 @@
         <v>44</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="I9" s="5">
-        <v>45488</v>
+        <v>45487</v>
       </c>
       <c r="J9" s="5"/>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="1:11" ht="30" customHeight="1">
+    <row r="10" spans="1:11" ht="20" customHeight="1">
       <c r="A10" s="4">
-        <v>652</v>
+        <v>623</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>117</v>
-      </c>
+      <c r="E10" s="4"/>
       <c r="F10" s="4" t="s">
         <v>106</v>
       </c>
@@ -3752,7 +3823,7 @@
         <v>44</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="I10" s="5">
         <v>45488</v>
@@ -3762,19 +3833,19 @@
     </row>
     <row r="11" spans="1:11" ht="30" customHeight="1">
       <c r="A11" s="4">
-        <v>687</v>
+        <v>652</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>49</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>106</v>
@@ -3783,7 +3854,7 @@
         <v>44</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="I11" s="5">
         <v>45488</v>
@@ -3791,9 +3862,40 @@
       <c r="J11" s="5"/>
       <c r="K11" s="4"/>
     </row>
+    <row r="12" spans="1:11" ht="30" customHeight="1">
+      <c r="A12" s="4">
+        <v>687</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="5">
+        <v>45488</v>
+      </c>
+      <c r="J12" s="5"/>
+      <c r="K12" s="4"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D2:D11">
+  <conditionalFormatting sqref="D2:D12">
     <cfRule type="expression" dxfId="5" priority="1">
       <formula>D2="Easy"</formula>
     </cfRule>
@@ -3808,16 +3910,17 @@
     <hyperlink ref="C2" r:id="rId1" xr:uid="{6D7B591D-348C-3F48-8F5D-0CC1D7D323A3}"/>
     <hyperlink ref="C3" r:id="rId2" xr:uid="{75408504-4022-5F46-87C2-C45DD0C84D7E}"/>
     <hyperlink ref="C4" r:id="rId3" xr:uid="{58EBA3C8-38C3-AD4D-86B6-2BD56DBBCDCD}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{63AC3368-EC03-1949-9ACD-8B642757EADB}"/>
-    <hyperlink ref="C7" r:id="rId5" xr:uid="{5CC483BA-CBD2-634B-808B-DA60BB15872A}"/>
-    <hyperlink ref="C8" r:id="rId6" xr:uid="{3C24C6AF-34E6-D142-95AA-D541F8679AD8}"/>
-    <hyperlink ref="C9" r:id="rId7" xr:uid="{DC0AB236-A846-624D-8598-9984C67224C0}"/>
-    <hyperlink ref="C10" r:id="rId8" xr:uid="{92D47051-6BA8-D549-944F-00B0154554E6}"/>
-    <hyperlink ref="C11" r:id="rId9" xr:uid="{CBAD603C-7336-874C-B3F7-58227D327CE0}"/>
-    <hyperlink ref="C6" r:id="rId10" xr:uid="{98CD3759-6763-4A59-8FC7-20CD817AC0B4}"/>
+    <hyperlink ref="C6" r:id="rId4" xr:uid="{63AC3368-EC03-1949-9ACD-8B642757EADB}"/>
+    <hyperlink ref="C8" r:id="rId5" xr:uid="{5CC483BA-CBD2-634B-808B-DA60BB15872A}"/>
+    <hyperlink ref="C9" r:id="rId6" xr:uid="{3C24C6AF-34E6-D142-95AA-D541F8679AD8}"/>
+    <hyperlink ref="C10" r:id="rId7" xr:uid="{DC0AB236-A846-624D-8598-9984C67224C0}"/>
+    <hyperlink ref="C11" r:id="rId8" xr:uid="{92D47051-6BA8-D549-944F-00B0154554E6}"/>
+    <hyperlink ref="C12" r:id="rId9" xr:uid="{CBAD603C-7336-874C-B3F7-58227D327CE0}"/>
+    <hyperlink ref="C7" r:id="rId10" xr:uid="{98CD3759-6763-4A59-8FC7-20CD817AC0B4}"/>
+    <hyperlink ref="C5" r:id="rId11" xr:uid="{771DB7BE-9583-0E44-8EF3-4714468AC75F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId11"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId12"/>
   <headerFooter>
     <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 General</oddFooter>
   </headerFooter>
@@ -3826,7 +3929,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75AC292A-7720-E145-9563-F6FD48AA33E3}">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -3834,7 +3937,7 @@
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="43.19921875" customWidth="1"/>
-    <col min="3" max="3" width="35.796875" style="12" customWidth="1"/>
+    <col min="3" max="3" width="35.796875" style="17" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
     <col min="6" max="8" width="21" customWidth="1"/>
@@ -3849,7 +3952,7 @@
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -3884,7 +3987,7 @@
       <c r="B2" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="8" t="s">
         <v>127</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -3915,7 +4018,7 @@
       <c r="B3" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="8" t="s">
         <v>129</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -3946,7 +4049,7 @@
       <c r="B4" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="8" t="s">
         <v>97</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -3977,7 +4080,7 @@
       <c r="B5" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="8" t="s">
         <v>122</v>
       </c>
       <c r="D5" s="4" t="s">
@@ -4008,7 +4111,7 @@
       <c r="B6" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="8" t="s">
         <v>105</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -4037,7 +4140,7 @@
       <c r="B7" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="8" t="s">
         <v>112</v>
       </c>
       <c r="D7" s="4" t="s">
@@ -4066,7 +4169,7 @@
       <c r="B8" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="8" t="s">
         <v>131</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -4097,7 +4200,7 @@
       <c r="B9" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="8" t="s">
         <v>137</v>
       </c>
       <c r="D9" s="4" t="s">
@@ -4121,16 +4224,16 @@
     </row>
     <row r="10" spans="1:11" ht="20" customHeight="1">
       <c r="A10" s="4">
-        <v>1161</v>
+        <v>987</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>140</v>
+        <v>201</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>202</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="4" t="s">
@@ -4143,14 +4246,43 @@
         <v>44</v>
       </c>
       <c r="I10" s="5">
-        <v>45491</v>
+        <v>45497</v>
       </c>
       <c r="J10" s="5"/>
       <c r="K10" s="4"/>
     </row>
+    <row r="11" spans="1:11" ht="20" customHeight="1">
+      <c r="A11" s="4">
+        <v>1161</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I11" s="5">
+        <v>45491</v>
+      </c>
+      <c r="J11" s="5"/>
+      <c r="K11" s="4"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D2:D10">
+  <conditionalFormatting sqref="D2:D11">
     <cfRule type="expression" dxfId="2" priority="1">
       <formula>D2="Easy"</formula>
     </cfRule>
@@ -4168,12 +4300,13 @@
     <hyperlink ref="C3" r:id="rId4" xr:uid="{5615EAD9-62C1-4780-AE19-6BFAC2939521}"/>
     <hyperlink ref="C8" r:id="rId5" xr:uid="{6D55272D-BA36-4797-A7CF-581EE973B392}"/>
     <hyperlink ref="C9" r:id="rId6" xr:uid="{A382170A-F086-4927-B656-868CCD453ABF}"/>
-    <hyperlink ref="C10" r:id="rId7" xr:uid="{25BA1857-5CC6-4D6B-94BB-2E650759A139}"/>
+    <hyperlink ref="C11" r:id="rId7" xr:uid="{25BA1857-5CC6-4D6B-94BB-2E650759A139}"/>
     <hyperlink ref="C6" r:id="rId8" xr:uid="{2E17F9D2-5401-784D-B0AE-3D6983893C12}"/>
     <hyperlink ref="C7" r:id="rId9" xr:uid="{8EE9509C-DFBF-7B45-85D3-B7096029C524}"/>
+    <hyperlink ref="C10" r:id="rId10" xr:uid="{E5A94DC6-8374-FA48-ACD8-D23A322C4AED}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId10"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId11"/>
   <headerFooter>
     <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 General</oddFooter>
   </headerFooter>

--- a/LeetCode Techniques.xlsx
+++ b/LeetCode Techniques.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/blackjack625/Desktop/LeetCode/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jack.yao\Desktop\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51CAF8F7-F541-1842-A852-4388AFDE251B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43DF4541-64DE-4A6C-8F55-901B29A4C960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Dynamic Programming" sheetId="8" r:id="rId1"/>
+    <sheet name="DP" sheetId="8" r:id="rId1"/>
     <sheet name="Binary Search" sheetId="1" r:id="rId2"/>
     <sheet name="Sliding Window" sheetId="2" r:id="rId3"/>
     <sheet name="Set Maneuver" sheetId="3" r:id="rId4"/>
     <sheet name="Recursion" sheetId="5" r:id="rId5"/>
     <sheet name="Trie" sheetId="4" r:id="rId6"/>
-    <sheet name="Depth First Search" sheetId="6" r:id="rId7"/>
-    <sheet name="Breadth First Search" sheetId="7" r:id="rId8"/>
+    <sheet name="DFS" sheetId="6" r:id="rId7"/>
+    <sheet name="BFS" sheetId="7" r:id="rId8"/>
+    <sheet name="Stack" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="227">
   <si>
     <t>Name</t>
   </si>
@@ -641,10 +642,6 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/minimum-falling-path-sum-ii/</t>
-  </si>
-  <si>
-    <t>Use binary sort to speed up finding
-each row's min cumulated path sum.</t>
   </si>
   <si>
     <t>Binary Search</t>
@@ -832,11 +829,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Iterate backward to apply
-dynamic programming.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Vertical Order Traversal of a Binary Tree</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -856,6 +848,79 @@
     <t>Use digits to track level of
 parent nodes in serialization.</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Recover a Tree From Preorder Traversal</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/recover-a-tree-from-preorder-traversal/description/</t>
+  </si>
+  <si>
+    <t>Use dashes to recognize which
+level current node should go to.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Next Greater Element IV</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/next-greater-element-iv/description/</t>
+  </si>
+  <si>
+    <t>O(nlogn)</t>
+  </si>
+  <si>
+    <t>Iterate backward to apply DP.</t>
+  </si>
+  <si>
+    <t>Number of Paths with Max Score</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/number-of-paths-with-max-score/description/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Maximum Sum BST in Binary Tree</t>
+  </si>
+  <si>
+    <t>Use 2nd stack for 2nd next greater.
+Binary sort secures 2nd stack order.</t>
+  </si>
+  <si>
+    <t>Only return "existing" min &amp; max
+BST node values to parent node.</t>
+  </si>
+  <si>
+    <t>BST, DFS</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximum-sum-bst-in-binary-tree/description/</t>
+  </si>
+  <si>
+    <t>Form Largest Integer With Digits That Add up to Target</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/form-largest-integer-with-digits-that-add-up-to-target/description/</t>
+  </si>
+  <si>
+    <t>O(cost*target)</t>
+  </si>
+  <si>
+    <t>Coin change problem's variation.</t>
+  </si>
+  <si>
+    <t>Count Vowels Permutation</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/count-vowels-permutation/description/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/count-all-valid-pickup-and-delivery-options/description/</t>
+  </si>
+  <si>
+    <t>Count All Valid Pickup and Delivery Options</t>
+  </si>
+  <si>
+    <t>Binary sort speeds up finding each
+row's min cumulated path sum.</t>
   </si>
 </sst>
 </file>
@@ -863,19 +928,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -899,7 +964,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -932,19 +997,7 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="10"/>
-      <name val="Microsoft YaHei"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Microsoft YaHei"/>
-      <charset val="134"/>
-    </font>
-    <font>
+      <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Microsoft YaHei"/>
@@ -955,13 +1008,24 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Microsoft YaHei"/>
-      <charset val="134"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color theme="10"/>
       <name val="Microsoft YaHei"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Microsoft YaHei Light"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1003,17 +1067,17 @@
   </cellStyleXfs>
   <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1026,30 +1090,62 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="超連結" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="33">
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFFFF00"/>
@@ -1650,15 +1746,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23E6E9DF-BEE0-B544-8910-7DDC3380F4B7}">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="36" customWidth="1"/>
-    <col min="3" max="3" width="40.796875" style="15" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" customWidth="1"/>
+    <col min="3" max="3" width="40.85546875" style="14" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
     <col min="6" max="8" width="21" customWidth="1"/>
@@ -1666,14 +1762,14 @@
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20" customHeight="1">
+    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -1701,14 +1797,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="20" customHeight="1">
+    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="4">
         <v>53</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>155</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -1728,14 +1824,14 @@
       <c r="J2" s="5"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" ht="20" customHeight="1">
+    <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="4">
         <v>62</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>145</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -1762,7 +1858,7 @@
       <c r="B4" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="13" t="s">
         <v>146</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -1784,15 +1880,15 @@
       <c r="J4" s="5"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:11" ht="20" customHeight="1">
+    <row r="5" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="4">
         <v>64</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="C5" s="14" t="s">
-        <v>180</v>
+      <c r="C5" s="13" t="s">
+        <v>179</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>49</v>
@@ -1811,14 +1907,14 @@
       <c r="J5" s="5"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" ht="20" customHeight="1">
+    <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="4">
         <v>120</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="13" t="s">
         <v>152</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -1845,14 +1941,14 @@
       <c r="B7" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="13" t="s">
         <v>142</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="16" t="s">
-        <v>167</v>
+      <c r="E7" s="10" t="s">
+        <v>166</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>72</v>
@@ -1876,14 +1972,14 @@
       <c r="B8" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="13" t="s">
         <v>157</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="16" t="s">
-        <v>196</v>
+      <c r="E8" s="10" t="s">
+        <v>195</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
@@ -1898,15 +1994,15 @@
       <c r="J8" s="5"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:11" ht="20" customHeight="1">
+    <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="4">
         <v>198</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="C9" s="14" t="s">
-        <v>178</v>
+      <c r="C9" s="13" t="s">
+        <v>177</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>49</v>
@@ -1934,14 +2030,14 @@
       <c r="B10" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="C10" s="14" t="s">
-        <v>179</v>
+      <c r="C10" s="13" t="s">
+        <v>178</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="16" t="s">
-        <v>170</v>
+      <c r="E10" s="10" t="s">
+        <v>169</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>153</v>
@@ -1958,28 +2054,28 @@
       <c r="J10" s="5"/>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="1:11" ht="20" customHeight="1">
+    <row r="11" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="4">
         <v>279</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C11" s="13" t="s">
         <v>182</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>183</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>49</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I11" s="5">
         <v>45495</v>
@@ -1992,23 +2088,23 @@
         <v>322</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>177</v>
+        <v>170</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>176</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E12" s="16" t="s">
-        <v>174</v>
+      <c r="E12" s="10" t="s">
+        <v>173</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="H12" s="4" t="s">
         <v>172</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>173</v>
       </c>
       <c r="I12" s="5">
         <v>45495</v>
@@ -2021,19 +2117,19 @@
         <v>337</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C13" s="13" t="s">
         <v>165</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>166</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="16" t="s">
-        <v>169</v>
+      <c r="E13" s="10" t="s">
+        <v>168</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>44</v>
@@ -2047,25 +2143,25 @@
       <c r="J13" s="5"/>
       <c r="K13" s="4"/>
     </row>
-    <row r="14" spans="1:11" ht="20" customHeight="1">
+    <row r="14" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="4">
         <v>343</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C14" s="13" t="s">
         <v>186</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>187</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>49</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>44</v>
@@ -2081,23 +2177,23 @@
         <v>377</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C15" s="13" t="s">
         <v>190</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>191</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>49</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="H15" s="4" t="s">
         <v>192</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>193</v>
       </c>
       <c r="I15" s="5">
         <v>45495</v>
@@ -2110,23 +2206,23 @@
         <v>518</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C16" s="13" t="s">
         <v>175</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>176</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E16" s="16" t="s">
-        <v>181</v>
+      <c r="E16" s="10" t="s">
+        <v>180</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="H16" s="4" t="s">
         <v>172</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>173</v>
       </c>
       <c r="I16" s="5">
         <v>45495</v>
@@ -2134,24 +2230,24 @@
       <c r="J16" s="5"/>
       <c r="K16" s="4"/>
     </row>
-    <row r="17" spans="1:11" ht="30" customHeight="1">
+    <row r="17" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="4">
         <v>907</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C17" s="13" t="s">
         <v>197</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>198</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="6" t="s">
-        <v>200</v>
+      <c r="E17" s="16" t="s">
+        <v>210</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>11</v>
@@ -2165,14 +2261,14 @@
       <c r="J17" s="5"/>
       <c r="K17" s="4"/>
     </row>
-    <row r="18" spans="1:11" ht="20" customHeight="1">
+    <row r="18" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="4">
         <v>931</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="13" t="s">
         <v>158</v>
       </c>
       <c r="D18" s="4" t="s">
@@ -2181,7 +2277,7 @@
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>11</v>
@@ -2192,47 +2288,188 @@
       <c r="J18" s="5"/>
       <c r="K18" s="4"/>
     </row>
-    <row r="19" spans="1:11" ht="30" customHeight="1">
+    <row r="19" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="4">
-        <v>1289</v>
+        <v>1220</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>161</v>
+        <v>222</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>223</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>163</v>
-      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="4"/>
       <c r="G19" s="4" t="s">
-        <v>164</v>
+        <v>44</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="I19" s="5">
-        <v>45496</v>
+        <v>45504</v>
       </c>
       <c r="J19" s="5"/>
       <c r="K19" s="4"/>
     </row>
+    <row r="20" spans="1:11" ht="30" customHeight="1">
+      <c r="A20" s="4">
+        <v>1289</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I20" s="5">
+        <v>45496</v>
+      </c>
+      <c r="J20" s="5"/>
+      <c r="K20" s="4"/>
+    </row>
+    <row r="21" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="A21" s="4">
+        <v>1301</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="6"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="I21" s="5">
+        <v>45497</v>
+      </c>
+      <c r="J21" s="5"/>
+      <c r="K21" s="4"/>
+    </row>
+    <row r="22" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="A22" s="4">
+        <v>1359</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22" s="6"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I22" s="5">
+        <v>45498</v>
+      </c>
+      <c r="J22" s="5"/>
+      <c r="K22" s="4"/>
+    </row>
+    <row r="23" spans="1:11" ht="30" customHeight="1">
+      <c r="A23" s="4">
+        <v>1373</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I23" s="5">
+        <v>45499</v>
+      </c>
+      <c r="J23" s="5"/>
+      <c r="K23" s="4"/>
+    </row>
+    <row r="24" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="A24" s="4">
+        <v>1449</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="I24" s="5">
+        <v>45502</v>
+      </c>
+      <c r="J24" s="5"/>
+      <c r="K24" s="4"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D2:D19">
-    <cfRule type="expression" dxfId="29" priority="1">
+  <conditionalFormatting sqref="D2:D24">
+    <cfRule type="expression" dxfId="32" priority="1">
       <formula>D2="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="2">
+    <cfRule type="expression" dxfId="31" priority="2">
       <formula>D2="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="3">
+    <cfRule type="expression" dxfId="30" priority="3">
       <formula>D2="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2247,7 +2484,7 @@
     <hyperlink ref="C2" r:id="rId8" xr:uid="{11FB62CE-95A4-8149-A0D0-EC80907AD300}"/>
     <hyperlink ref="C8" r:id="rId9" xr:uid="{D0C86F76-90D0-4847-AD9B-8F8B4200A39D}"/>
     <hyperlink ref="C13" r:id="rId10" xr:uid="{9CABBCEF-20B6-4261-A1F0-3D8011645ACB}"/>
-    <hyperlink ref="C19" r:id="rId11" xr:uid="{89251C52-1FFE-4F42-9EB3-8442B0C4B630}"/>
+    <hyperlink ref="C20" r:id="rId11" xr:uid="{89251C52-1FFE-4F42-9EB3-8442B0C4B630}"/>
     <hyperlink ref="C18" r:id="rId12" xr:uid="{32767AED-4FD4-4A42-A276-7043683514E1}"/>
     <hyperlink ref="C12" r:id="rId13" xr:uid="{05186EE2-9933-4BE1-8003-0B7A411907D0}"/>
     <hyperlink ref="C16" r:id="rId14" xr:uid="{BF5BA59B-B251-4DEC-9C8D-5AF88F2281BB}"/>
@@ -2255,9 +2492,13 @@
     <hyperlink ref="C14" r:id="rId16" xr:uid="{0906CA71-0A65-43B6-A42E-14BED96A9744}"/>
     <hyperlink ref="C15" r:id="rId17" xr:uid="{8BAD1FAB-01D5-4562-993F-1DD3EF213075}"/>
     <hyperlink ref="C17" r:id="rId18" xr:uid="{7B8F3DB0-2F77-A645-96D2-D8D7373AA08F}"/>
+    <hyperlink ref="C21" r:id="rId19" xr:uid="{A8721EF3-38EC-45F1-966B-2754E800B084}"/>
+    <hyperlink ref="C23" r:id="rId20" xr:uid="{8538BB7C-5920-4573-ACF3-9E5A3F8356EF}"/>
+    <hyperlink ref="C24" r:id="rId21" xr:uid="{15C88B36-121F-4FD6-99BF-A4A05C219395}"/>
+    <hyperlink ref="C19" r:id="rId22" xr:uid="{C753C826-C084-4CE0-A98B-D6F7D77849C9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId19"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId23"/>
   <headerFooter>
     <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 General</oddFooter>
   </headerFooter>
@@ -2270,10 +2511,10 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="38.19921875" customWidth="1"/>
+    <col min="2" max="2" width="38.140625" customWidth="1"/>
     <col min="3" max="3" width="71" style="9" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
@@ -2282,7 +2523,7 @@
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20" customHeight="1">
+    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -2317,7 +2558,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="20" customHeight="1">
+    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="4">
         <v>74</v>
       </c>
@@ -2344,7 +2585,7 @@
       <c r="J2" s="3"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="20" customHeight="1">
+    <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="4">
         <v>220</v>
       </c>
@@ -2400,7 +2641,7 @@
       <c r="J4" s="5"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:11" ht="20" customHeight="1">
+    <row r="5" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="4">
         <v>315</v>
       </c>
@@ -2427,7 +2668,7 @@
       <c r="J5" s="5"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" ht="20" customHeight="1">
+    <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="4">
         <v>352</v>
       </c>
@@ -2456,7 +2697,7 @@
       <c r="J6" s="5"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11" ht="20" customHeight="1">
+    <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="4">
         <v>480</v>
       </c>
@@ -2483,7 +2724,7 @@
       <c r="J7" s="5"/>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="1:11" ht="20" customHeight="1">
+    <row r="8" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="4">
         <v>493</v>
       </c>
@@ -2510,7 +2751,7 @@
       <c r="J8" s="5"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:11" ht="20" customHeight="1">
+    <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="4">
         <v>611</v>
       </c>
@@ -2539,7 +2780,7 @@
       <c r="J9" s="5"/>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="1:11" ht="20" customHeight="1">
+    <row r="10" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="4">
         <v>729</v>
       </c>
@@ -2566,7 +2807,7 @@
       <c r="J10" s="5"/>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="1:11" ht="20" customHeight="1">
+    <row r="11" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="4">
         <v>1095</v>
       </c>
@@ -2624,7 +2865,7 @@
       <c r="J12" s="5"/>
       <c r="K12" s="4"/>
     </row>
-    <row r="13" spans="1:11" ht="20" customHeight="1">
+    <row r="13" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="4">
         <v>1825</v>
       </c>
@@ -2653,7 +2894,7 @@
       <c r="J13" s="5"/>
       <c r="K13" s="4"/>
     </row>
-    <row r="14" spans="1:11" ht="20" customHeight="1">
+    <row r="14" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="4">
         <v>2034</v>
       </c>
@@ -2682,7 +2923,7 @@
       <c r="J14" s="5"/>
       <c r="K14" s="4"/>
     </row>
-    <row r="15" spans="1:11" ht="20" customHeight="1">
+    <row r="15" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="4">
         <v>2102</v>
       </c>
@@ -2717,24 +2958,24 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2:D3">
-    <cfRule type="expression" dxfId="26" priority="1">
+    <cfRule type="expression" dxfId="29" priority="1">
       <formula>D2="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="2">
+    <cfRule type="expression" dxfId="28" priority="2">
       <formula>D2="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="3">
+    <cfRule type="expression" dxfId="27" priority="3">
       <formula>D2="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:E15">
-    <cfRule type="expression" dxfId="23" priority="4">
+    <cfRule type="expression" dxfId="26" priority="4">
       <formula>D4="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="5">
+    <cfRule type="expression" dxfId="25" priority="5">
       <formula>D4="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="6">
+    <cfRule type="expression" dxfId="24" priority="6">
       <formula>D4="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2767,10 +3008,10 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="45.796875" customWidth="1"/>
+    <col min="2" max="2" width="45.85546875" customWidth="1"/>
     <col min="3" max="3" width="71" style="9" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
@@ -2779,7 +3020,7 @@
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20" customHeight="1">
+    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -2814,7 +3055,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="20" customHeight="1">
+    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="4">
         <v>3</v>
       </c>
@@ -2841,7 +3082,7 @@
       <c r="J2" s="5"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" ht="20" customHeight="1">
+    <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="4">
         <v>1695</v>
       </c>
@@ -2871,13 +3112,13 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2:E3">
-    <cfRule type="expression" dxfId="20" priority="4">
+    <cfRule type="expression" dxfId="23" priority="4">
       <formula>D2="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="5">
+    <cfRule type="expression" dxfId="22" priority="5">
       <formula>D2="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="6">
+    <cfRule type="expression" dxfId="21" priority="6">
       <formula>D2="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2898,11 +3139,11 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="25.796875" customWidth="1"/>
-    <col min="3" max="3" width="65.796875" style="9" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" customWidth="1"/>
+    <col min="3" max="3" width="65.85546875" style="9" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
     <col min="6" max="8" width="21" customWidth="1"/>
@@ -2910,7 +3151,7 @@
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20" customHeight="1">
+    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -2945,7 +3186,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="20" customHeight="1">
+    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="4">
         <v>41</v>
       </c>
@@ -2976,7 +3217,7 @@
       </c>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" ht="20" customHeight="1">
+    <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="4">
         <v>287</v>
       </c>
@@ -3003,7 +3244,7 @@
       <c r="J3" s="5"/>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:11" ht="20" customHeight="1">
+    <row r="4" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="4">
         <v>645</v>
       </c>
@@ -3033,24 +3274,24 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2">
-    <cfRule type="expression" dxfId="17" priority="1">
+    <cfRule type="expression" dxfId="20" priority="1">
       <formula>D2="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="2">
+    <cfRule type="expression" dxfId="19" priority="2">
       <formula>D2="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="3">
+    <cfRule type="expression" dxfId="18" priority="3">
       <formula>D2="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:E4">
-    <cfRule type="expression" dxfId="14" priority="4">
+    <cfRule type="expression" dxfId="17" priority="4">
       <formula>D3="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="5">
+    <cfRule type="expression" dxfId="16" priority="5">
       <formula>D3="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="6">
+    <cfRule type="expression" dxfId="15" priority="6">
       <formula>D3="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3073,11 +3314,11 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="35.796875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="9" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
     <col min="6" max="8" width="21" customWidth="1"/>
@@ -3085,7 +3326,7 @@
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20" customHeight="1">
+    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -3120,7 +3361,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="20" customHeight="1">
+    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="4">
         <v>394</v>
       </c>
@@ -3150,13 +3391,13 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2">
-    <cfRule type="expression" dxfId="11" priority="1">
+    <cfRule type="expression" dxfId="14" priority="1">
       <formula>D2="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="2">
+    <cfRule type="expression" dxfId="13" priority="2">
       <formula>D2="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="3">
+    <cfRule type="expression" dxfId="12" priority="3">
       <formula>D2="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3177,11 +3418,11 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="46" customWidth="1"/>
-    <col min="3" max="3" width="65.796875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="65.85546875" style="9" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
     <col min="6" max="8" width="21" customWidth="1"/>
@@ -3189,7 +3430,7 @@
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20" customHeight="1">
+    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -3224,7 +3465,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="20" customHeight="1">
+    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="4">
         <v>208</v>
       </c>
@@ -3251,7 +3492,7 @@
       <c r="J2" s="5"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" ht="20" customHeight="1">
+    <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="4">
         <v>211</v>
       </c>
@@ -3280,7 +3521,7 @@
       <c r="J3" s="5"/>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:11" ht="20" customHeight="1">
+    <row r="4" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="4">
         <v>386</v>
       </c>
@@ -3309,7 +3550,7 @@
       <c r="J4" s="5"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:11" ht="20" customHeight="1">
+    <row r="5" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="4">
         <v>648</v>
       </c>
@@ -3336,7 +3577,7 @@
       <c r="J5" s="5"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" ht="20" customHeight="1">
+    <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="4">
         <v>677</v>
       </c>
@@ -3365,7 +3606,7 @@
       <c r="J6" s="5"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11" ht="20" customHeight="1">
+    <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="4">
         <v>720</v>
       </c>
@@ -3423,7 +3664,7 @@
       <c r="J8" s="5"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:11" ht="20" customHeight="1">
+    <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="4">
         <v>1268</v>
       </c>
@@ -3484,13 +3725,13 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2:D10">
-    <cfRule type="expression" dxfId="8" priority="1">
+    <cfRule type="expression" dxfId="11" priority="1">
       <formula>D2="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="2">
+    <cfRule type="expression" dxfId="10" priority="2">
       <formula>D2="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="3">
+    <cfRule type="expression" dxfId="9" priority="3">
       <formula>D2="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3515,15 +3756,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C287181F-E765-1C4E-B964-9C9FDBE62A17}">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="36" customWidth="1"/>
-    <col min="3" max="3" width="35.796875" style="12" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="14" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
     <col min="6" max="8" width="21" customWidth="1"/>
@@ -3531,14 +3772,14 @@
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20" customHeight="1">
+    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="12" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -3566,14 +3807,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="20" customHeight="1">
+    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="4">
         <v>113</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="13" t="s">
         <v>94</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -3595,14 +3836,14 @@
       <c r="J2" s="5"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" ht="20" customHeight="1">
+    <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="4">
         <v>114</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="13" t="s">
         <v>95</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -3624,14 +3865,14 @@
       <c r="J3" s="5"/>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:11" ht="20" customHeight="1">
+    <row r="4" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="4">
         <v>129</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="13" t="s">
         <v>100</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -3658,16 +3899,16 @@
         <v>297</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>204</v>
+        <v>201</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>202</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>106</v>
@@ -3684,14 +3925,14 @@
       <c r="J5" s="5"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" ht="20" customHeight="1">
+    <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="4">
         <v>341</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="13" t="s">
         <v>102</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -3713,14 +3954,14 @@
       <c r="J6" s="5"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11" ht="20" customHeight="1">
+    <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="4">
         <v>399</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="13" t="s">
         <v>133</v>
       </c>
       <c r="D7" s="4" t="s">
@@ -3744,14 +3985,14 @@
       <c r="J7" s="5"/>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="1:11" ht="20" customHeight="1">
+    <row r="8" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="4">
         <v>437</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="13" t="s">
         <v>108</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -3773,14 +4014,14 @@
       <c r="J8" s="5"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:11" ht="20" customHeight="1">
+    <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="4">
         <v>508</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="13" t="s">
         <v>110</v>
       </c>
       <c r="D9" s="4" t="s">
@@ -3802,14 +4043,14 @@
       <c r="J9" s="5"/>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="1:11" ht="20" customHeight="1">
+    <row r="10" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="4">
         <v>623</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="13" t="s">
         <v>114</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -3838,7 +4079,7 @@
       <c r="B11" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="13" t="s">
         <v>116</v>
       </c>
       <c r="D11" s="4" t="s">
@@ -3869,7 +4110,7 @@
       <c r="B12" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="13" t="s">
         <v>119</v>
       </c>
       <c r="D12" s="4" t="s">
@@ -3893,16 +4134,47 @@
       <c r="J12" s="5"/>
       <c r="K12" s="4"/>
     </row>
+    <row r="13" spans="1:11" ht="30" customHeight="1">
+      <c r="A13" s="4">
+        <v>1028</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I13" s="5">
+        <v>46227</v>
+      </c>
+      <c r="J13" s="5"/>
+      <c r="K13" s="4"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D2:D12">
-    <cfRule type="expression" dxfId="5" priority="1">
+  <conditionalFormatting sqref="D2:D13">
+    <cfRule type="expression" dxfId="8" priority="1">
       <formula>D2="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="7" priority="2">
       <formula>D2="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="6" priority="3">
       <formula>D2="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3918,9 +4190,10 @@
     <hyperlink ref="C12" r:id="rId9" xr:uid="{CBAD603C-7336-874C-B3F7-58227D327CE0}"/>
     <hyperlink ref="C7" r:id="rId10" xr:uid="{98CD3759-6763-4A59-8FC7-20CD817AC0B4}"/>
     <hyperlink ref="C5" r:id="rId11" xr:uid="{771DB7BE-9583-0E44-8EF3-4714468AC75F}"/>
+    <hyperlink ref="C13" r:id="rId12" xr:uid="{C87FACE2-57DF-42EB-A096-07A06FCC6675}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId12"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId13"/>
   <headerFooter>
     <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 General</oddFooter>
   </headerFooter>
@@ -3933,11 +4206,11 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="43.19921875" customWidth="1"/>
-    <col min="3" max="3" width="35.796875" style="17" customWidth="1"/>
+    <col min="2" max="2" width="43.140625" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="11" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
     <col min="6" max="8" width="21" customWidth="1"/>
@@ -3945,7 +4218,7 @@
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20" customHeight="1">
+    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -4104,7 +4377,7 @@
       <c r="J5" s="5"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" ht="20" customHeight="1">
+    <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="4">
         <v>513</v>
       </c>
@@ -4133,7 +4406,7 @@
       <c r="J6" s="5"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11" ht="20" customHeight="1">
+    <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="4">
         <v>515</v>
       </c>
@@ -4193,7 +4466,7 @@
       <c r="J8" s="5"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:11" ht="20" customHeight="1">
+    <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="4">
         <v>958</v>
       </c>
@@ -4222,15 +4495,15 @@
       <c r="J9" s="5"/>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="1:11" ht="20" customHeight="1">
+    <row r="10" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="4">
         <v>987</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>16</v>
@@ -4251,7 +4524,7 @@
       <c r="J10" s="5"/>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="1:11" ht="20" customHeight="1">
+    <row r="11" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="4">
         <v>1161</v>
       </c>
@@ -4283,13 +4556,13 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2:D11">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>D2="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="4" priority="2">
       <formula>D2="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="3">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>D2="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4313,6 +4586,113 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BC7A267-6069-4E38-AC2F-0C28241496B0}">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="43.140625" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="11" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="36" customWidth="1"/>
+    <col min="6" max="8" width="21" customWidth="1"/>
+    <col min="9" max="10" width="16" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="30" customHeight="1">
+      <c r="A2" s="6">
+        <v>2454</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="5">
+        <v>45505</v>
+      </c>
+      <c r="J2" s="5"/>
+      <c r="K2" s="4"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D2">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>D2="Easy"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>D2="Medium"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="3">
+      <formula>D2="Hard"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{2A05BB37-BC02-459B-AC3A-04B564121776}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
+  <headerFooter>
+    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 General</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{04d09258-035b-4e4f-ae3e-d79ff3d418d8}" enabled="1" method="Standard" siteId="{f4a12867-922d-4b9d-bb85-9ee7898512a0}" contentBits="2" removed="0"/>

--- a/LeetCode Techniques.xlsx
+++ b/LeetCode Techniques.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jack.yao\Desktop\LeetCode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/blackjack625/Desktop/LeetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43DF4541-64DE-4A6C-8F55-901B29A4C960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5904BCD9-FD70-3646-88B3-935021B65ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="20640" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DP" sheetId="8" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="223">
   <si>
     <t>Name</t>
   </si>
@@ -398,10 +398,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Linked List</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/populating-next-right-pointers-in-each-node/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -426,19 +422,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Nested List</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Find Bottom Left Tree Value</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://leetcode.com/problems/find-bottom-left-tree-value/description/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Binary Tree</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -504,9 +492,6 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/populating-next-right-pointers-in-each-node-ii/description/</t>
-  </si>
-  <si>
-    <t>Binary Tree</t>
   </si>
   <si>
     <t>Use a deck to ensure queue
@@ -881,46 +866,48 @@
     <t xml:space="preserve">	Maximum Sum BST in Binary Tree</t>
   </si>
   <si>
+    <t>Only return "existing" min &amp; max
+BST node values to parent node.</t>
+  </si>
+  <si>
+    <t>BST, DFS</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximum-sum-bst-in-binary-tree/description/</t>
+  </si>
+  <si>
+    <t>Form Largest Integer With Digits That Add up to Target</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/form-largest-integer-with-digits-that-add-up-to-target/description/</t>
+  </si>
+  <si>
+    <t>O(cost*target)</t>
+  </si>
+  <si>
+    <t>Coin change problem's variation.</t>
+  </si>
+  <si>
+    <t>Count Vowels Permutation</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/count-vowels-permutation/description/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/count-all-valid-pickup-and-delivery-options/description/</t>
+  </si>
+  <si>
+    <t>Binary sort speeds up finding each
+row's min cumulated path sum.</t>
+  </si>
+  <si>
+    <t>Count All Valid Pickup and Delivery Options</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Use 2nd stack for 2nd next greater.
 Binary sort secures 2nd stack order.</t>
-  </si>
-  <si>
-    <t>Only return "existing" min &amp; max
-BST node values to parent node.</t>
-  </si>
-  <si>
-    <t>BST, DFS</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/maximum-sum-bst-in-binary-tree/description/</t>
-  </si>
-  <si>
-    <t>Form Largest Integer With Digits That Add up to Target</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/form-largest-integer-with-digits-that-add-up-to-target/description/</t>
-  </si>
-  <si>
-    <t>O(cost*target)</t>
-  </si>
-  <si>
-    <t>Coin change problem's variation.</t>
-  </si>
-  <si>
-    <t>Count Vowels Permutation</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/count-vowels-permutation/description/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/count-all-valid-pickup-and-delivery-options/description/</t>
-  </si>
-  <si>
-    <t>Count All Valid Pickup and Delivery Options</t>
-  </si>
-  <si>
-    <t>Binary sort speeds up finding each
-row's min cumulated path sum.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -928,19 +915,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -964,7 +951,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1008,17 +995,20 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Microsoft YaHei"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color theme="10"/>
       <name val="Microsoft YaHei"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Microsoft YaHei"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -1065,19 +1055,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1110,10 +1100,13 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="33">
     <dxf>
@@ -1750,11 +1743,11 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" customWidth="1"/>
-    <col min="3" max="3" width="40.85546875" style="14" customWidth="1"/>
+    <col min="2" max="2" width="46" customWidth="1"/>
+    <col min="3" max="3" width="40.796875" style="14" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
     <col min="6" max="8" width="21" customWidth="1"/>
@@ -1762,7 +1755,7 @@
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:11" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -1797,15 +1790,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:11" ht="20" customHeight="1">
       <c r="A2" s="4">
         <v>53</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>49</v>
@@ -1824,15 +1817,15 @@
       <c r="J2" s="5"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:11" ht="20" customHeight="1">
       <c r="A3" s="4">
         <v>62</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>49</v>
@@ -1856,16 +1849,16 @@
         <v>63</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>49</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
@@ -1880,15 +1873,15 @@
       <c r="J4" s="5"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="1:11" ht="20" customHeight="1">
       <c r="A5" s="4">
         <v>64</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>49</v>
@@ -1907,15 +1900,15 @@
       <c r="J5" s="5"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="1:11" ht="20" customHeight="1">
       <c r="A6" s="4">
         <v>120</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>10</v>
@@ -1939,16 +1932,16 @@
         <v>124</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>72</v>
@@ -1970,16 +1963,16 @@
         <v>152</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>49</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
@@ -1994,22 +1987,22 @@
       <c r="J8" s="5"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:11" ht="20" customHeight="1">
       <c r="A9" s="4">
         <v>198</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>49</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>11</v>
@@ -2028,19 +2021,19 @@
         <v>213</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>49</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>44</v>
@@ -2054,28 +2047,28 @@
       <c r="J10" s="5"/>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="1:11" ht="20" customHeight="1">
       <c r="A11" s="4">
         <v>279</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>49</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="I11" s="5">
         <v>45495</v>
@@ -2088,23 +2081,23 @@
         <v>322</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>49</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="I12" s="5">
         <v>45495</v>
@@ -2117,19 +2110,19 @@
         <v>337</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>49</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>44</v>
@@ -2143,25 +2136,25 @@
       <c r="J13" s="5"/>
       <c r="K13" s="4"/>
     </row>
-    <row r="14" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="1:11" ht="20" customHeight="1">
       <c r="A14" s="4">
         <v>343</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>49</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>44</v>
@@ -2177,23 +2170,23 @@
         <v>377</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>49</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="I15" s="5">
         <v>45495</v>
@@ -2206,23 +2199,23 @@
         <v>518</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>49</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="I16" s="5">
         <v>45495</v>
@@ -2230,24 +2223,24 @@
       <c r="J16" s="5"/>
       <c r="K16" s="4"/>
     </row>
-    <row r="17" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="17" spans="1:11" ht="20" customHeight="1">
       <c r="A17" s="4">
         <v>907</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>11</v>
@@ -2261,15 +2254,15 @@
       <c r="J17" s="5"/>
       <c r="K17" s="4"/>
     </row>
-    <row r="18" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="18" spans="1:11" ht="20" customHeight="1">
       <c r="A18" s="4">
         <v>931</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>10</v>
@@ -2277,7 +2270,7 @@
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>11</v>
@@ -2288,15 +2281,15 @@
       <c r="J18" s="5"/>
       <c r="K18" s="4"/>
     </row>
-    <row r="19" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="19" spans="1:11" ht="20" customHeight="1">
       <c r="A19" s="4">
         <v>1220</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>16</v>
@@ -2320,22 +2313,22 @@
         <v>1289</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>11</v>
@@ -2346,15 +2339,15 @@
       <c r="J20" s="5"/>
       <c r="K20" s="4"/>
     </row>
-    <row r="21" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="21" spans="1:11" ht="20" customHeight="1">
       <c r="A21" s="4">
         <v>1301</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>16</v>
@@ -2362,10 +2355,10 @@
       <c r="E21" s="6"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="I21" s="5">
         <v>45497</v>
@@ -2373,15 +2366,15 @@
       <c r="J21" s="5"/>
       <c r="K21" s="4"/>
     </row>
-    <row r="22" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="22" spans="1:11" ht="20" customHeight="1">
       <c r="A22" s="4">
         <v>1359</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>58</v>
@@ -2405,19 +2398,19 @@
         <v>1373</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>44</v>
@@ -2431,28 +2424,28 @@
       <c r="J23" s="5"/>
       <c r="K23" s="4"/>
     </row>
-    <row r="24" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="24" spans="1:11" ht="20" customHeight="1">
       <c r="A24" s="4">
         <v>1449</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="I24" s="5">
         <v>45502</v>
@@ -2511,10 +2504,10 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="38.140625" customWidth="1"/>
+    <col min="2" max="2" width="38.19921875" customWidth="1"/>
     <col min="3" max="3" width="71" style="9" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
@@ -2523,7 +2516,7 @@
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:11" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -2558,7 +2551,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:11" ht="20" customHeight="1">
       <c r="A2" s="4">
         <v>74</v>
       </c>
@@ -2585,7 +2578,7 @@
       <c r="J2" s="3"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:11" ht="20" customHeight="1">
       <c r="A3" s="4">
         <v>220</v>
       </c>
@@ -2641,7 +2634,7 @@
       <c r="J4" s="5"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="1:11" ht="20" customHeight="1">
       <c r="A5" s="4">
         <v>315</v>
       </c>
@@ -2668,7 +2661,7 @@
       <c r="J5" s="5"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="1:11" ht="20" customHeight="1">
       <c r="A6" s="4">
         <v>352</v>
       </c>
@@ -2697,7 +2690,7 @@
       <c r="J6" s="5"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="1:11" ht="20" customHeight="1">
       <c r="A7" s="4">
         <v>480</v>
       </c>
@@ -2724,7 +2717,7 @@
       <c r="J7" s="5"/>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="1:11" ht="20" customHeight="1">
       <c r="A8" s="4">
         <v>493</v>
       </c>
@@ -2751,7 +2744,7 @@
       <c r="J8" s="5"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:11" ht="20" customHeight="1">
       <c r="A9" s="4">
         <v>611</v>
       </c>
@@ -2780,7 +2773,7 @@
       <c r="J9" s="5"/>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="1:11" ht="20" customHeight="1">
       <c r="A10" s="4">
         <v>729</v>
       </c>
@@ -2807,7 +2800,7 @@
       <c r="J10" s="5"/>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="1:11" ht="20" customHeight="1">
       <c r="A11" s="4">
         <v>1095</v>
       </c>
@@ -2865,7 +2858,7 @@
       <c r="J12" s="5"/>
       <c r="K12" s="4"/>
     </row>
-    <row r="13" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="1:11" ht="20" customHeight="1">
       <c r="A13" s="4">
         <v>1825</v>
       </c>
@@ -2894,7 +2887,7 @@
       <c r="J13" s="5"/>
       <c r="K13" s="4"/>
     </row>
-    <row r="14" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="1:11" ht="20" customHeight="1">
       <c r="A14" s="4">
         <v>2034</v>
       </c>
@@ -2923,7 +2916,7 @@
       <c r="J14" s="5"/>
       <c r="K14" s="4"/>
     </row>
-    <row r="15" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="1:11" ht="20" customHeight="1">
       <c r="A15" s="4">
         <v>2102</v>
       </c>
@@ -3008,10 +3001,10 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="45.85546875" customWidth="1"/>
+    <col min="2" max="2" width="45.796875" customWidth="1"/>
     <col min="3" max="3" width="71" style="9" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
@@ -3020,7 +3013,7 @@
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:11" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -3055,7 +3048,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:11" ht="20" customHeight="1">
       <c r="A2" s="4">
         <v>3</v>
       </c>
@@ -3082,7 +3075,7 @@
       <c r="J2" s="5"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:11" ht="20" customHeight="1">
       <c r="A3" s="4">
         <v>1695</v>
       </c>
@@ -3139,11 +3132,11 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="25.85546875" customWidth="1"/>
-    <col min="3" max="3" width="65.85546875" style="9" customWidth="1"/>
+    <col min="2" max="2" width="28.59765625" customWidth="1"/>
+    <col min="3" max="3" width="65.796875" style="9" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
     <col min="6" max="8" width="21" customWidth="1"/>
@@ -3151,7 +3144,7 @@
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:11" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -3186,7 +3179,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:11" ht="20" customHeight="1">
       <c r="A2" s="4">
         <v>41</v>
       </c>
@@ -3217,7 +3210,7 @@
       </c>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:11" ht="20" customHeight="1">
       <c r="A3" s="4">
         <v>287</v>
       </c>
@@ -3244,7 +3237,7 @@
       <c r="J3" s="5"/>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="1:11" ht="20" customHeight="1">
       <c r="A4" s="4">
         <v>645</v>
       </c>
@@ -3314,11 +3307,11 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="35.85546875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="35.796875" style="9" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
     <col min="6" max="8" width="21" customWidth="1"/>
@@ -3326,7 +3319,7 @@
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:11" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -3361,7 +3354,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:11" ht="20" customHeight="1">
       <c r="A2" s="4">
         <v>394</v>
       </c>
@@ -3418,11 +3411,11 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="46" customWidth="1"/>
-    <col min="3" max="3" width="65.85546875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="65.796875" style="9" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
     <col min="6" max="8" width="21" customWidth="1"/>
@@ -3430,7 +3423,7 @@
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:11" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -3465,7 +3458,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:11" ht="20" customHeight="1">
       <c r="A2" s="4">
         <v>208</v>
       </c>
@@ -3492,7 +3485,7 @@
       <c r="J2" s="5"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:11" ht="20" customHeight="1">
       <c r="A3" s="4">
         <v>211</v>
       </c>
@@ -3521,7 +3514,7 @@
       <c r="J3" s="5"/>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="1:11" ht="20" customHeight="1">
       <c r="A4" s="4">
         <v>386</v>
       </c>
@@ -3550,7 +3543,7 @@
       <c r="J4" s="5"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="1:11" ht="20" customHeight="1">
       <c r="A5" s="4">
         <v>648</v>
       </c>
@@ -3577,7 +3570,7 @@
       <c r="J5" s="5"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="1:11" ht="20" customHeight="1">
       <c r="A6" s="4">
         <v>677</v>
       </c>
@@ -3606,7 +3599,7 @@
       <c r="J6" s="5"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="1:11" ht="20" customHeight="1">
       <c r="A7" s="4">
         <v>720</v>
       </c>
@@ -3664,7 +3657,7 @@
       <c r="J8" s="5"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:11" ht="20" customHeight="1">
       <c r="A9" s="4">
         <v>1268</v>
       </c>
@@ -3760,11 +3753,11 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="36" customWidth="1"/>
-    <col min="3" max="3" width="35.85546875" style="14" customWidth="1"/>
+    <col min="3" max="3" width="35.796875" style="14" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
     <col min="6" max="8" width="21" customWidth="1"/>
@@ -3772,7 +3765,7 @@
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:11" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -3807,7 +3800,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:11" ht="20" customHeight="1">
       <c r="A2" s="4">
         <v>113</v>
       </c>
@@ -3821,9 +3814,7 @@
         <v>49</v>
       </c>
       <c r="E2" s="4"/>
-      <c r="F2" s="4" t="s">
-        <v>96</v>
-      </c>
+      <c r="F2" s="4"/>
       <c r="G2" s="4" t="s">
         <v>44</v>
       </c>
@@ -3836,7 +3827,7 @@
       <c r="J2" s="5"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:11" ht="20" customHeight="1">
       <c r="A3" s="4">
         <v>114</v>
       </c>
@@ -3850,9 +3841,7 @@
         <v>49</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="4" t="s">
-        <v>96</v>
-      </c>
+      <c r="F3" s="4"/>
       <c r="G3" s="4" t="s">
         <v>44</v>
       </c>
@@ -3865,23 +3854,21 @@
       <c r="J3" s="5"/>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="1:11" ht="20" customHeight="1">
       <c r="A4" s="4">
         <v>129</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="13" t="s">
         <v>99</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>100</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>49</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="4" t="s">
-        <v>106</v>
-      </c>
+      <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
         <v>44</v>
       </c>
@@ -3899,20 +3886,18 @@
         <v>297</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>106</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
         <v>44</v>
       </c>
@@ -3925,23 +3910,21 @@
       <c r="J5" s="5"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="1:11" ht="20" customHeight="1">
       <c r="A6" s="4">
         <v>341</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>101</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>102</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>49</v>
       </c>
       <c r="E6" s="4"/>
-      <c r="F6" s="4" t="s">
-        <v>103</v>
-      </c>
+      <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
         <v>44</v>
       </c>
@@ -3954,24 +3937,24 @@
       <c r="J6" s="5"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="1:11" ht="20" customHeight="1">
       <c r="A7" s="4">
         <v>399</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>49</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>44</v>
@@ -3985,23 +3968,21 @@
       <c r="J7" s="5"/>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="1:11" ht="20" customHeight="1">
       <c r="A8" s="4">
         <v>437</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>49</v>
       </c>
       <c r="E8" s="4"/>
-      <c r="F8" s="4" t="s">
-        <v>106</v>
-      </c>
+      <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
         <v>44</v>
       </c>
@@ -4014,23 +3995,21 @@
       <c r="J8" s="5"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:11" ht="20" customHeight="1">
       <c r="A9" s="4">
         <v>508</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>49</v>
       </c>
       <c r="E9" s="4"/>
-      <c r="F9" s="4" t="s">
-        <v>106</v>
-      </c>
+      <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
         <v>44</v>
       </c>
@@ -4043,23 +4022,21 @@
       <c r="J9" s="5"/>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="1:11" ht="20" customHeight="1">
       <c r="A10" s="4">
         <v>623</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>49</v>
       </c>
       <c r="E10" s="4"/>
-      <c r="F10" s="4" t="s">
-        <v>106</v>
-      </c>
+      <c r="F10" s="4"/>
       <c r="G10" s="4" t="s">
         <v>44</v>
       </c>
@@ -4077,20 +4054,18 @@
         <v>652</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>49</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>106</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
         <v>44</v>
       </c>
@@ -4108,20 +4083,18 @@
         <v>687</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>49</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>106</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="F12" s="4"/>
       <c r="G12" s="4" t="s">
         <v>44</v>
       </c>
@@ -4139,20 +4112,18 @@
         <v>1028</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>106</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="F13" s="4"/>
       <c r="G13" s="4" t="s">
         <v>44</v>
       </c>
@@ -4206,11 +4177,11 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="43.140625" customWidth="1"/>
-    <col min="3" max="3" width="35.85546875" style="11" customWidth="1"/>
+    <col min="2" max="2" width="43.19921875" customWidth="1"/>
+    <col min="3" max="3" width="35.796875" style="11" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
     <col min="6" max="8" width="21" customWidth="1"/>
@@ -4218,7 +4189,7 @@
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:11" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -4258,20 +4229,18 @@
         <v>102</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>49</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>123</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="F2" s="4"/>
       <c r="G2" s="4" t="s">
         <v>44</v>
       </c>
@@ -4289,20 +4258,18 @@
         <v>107</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>49</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>123</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="F3" s="4"/>
       <c r="G3" s="4" t="s">
         <v>44</v>
       </c>
@@ -4320,20 +4287,18 @@
         <v>116</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>49</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>123</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
         <v>44</v>
       </c>
@@ -4351,20 +4316,18 @@
         <v>117</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>49</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>123</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
         <v>44</v>
       </c>
@@ -4377,23 +4340,21 @@
       <c r="J5" s="5"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="1:11" ht="20" customHeight="1">
       <c r="A6" s="4">
         <v>513</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>49</v>
       </c>
       <c r="E6" s="4"/>
-      <c r="F6" s="4" t="s">
-        <v>106</v>
-      </c>
+      <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
         <v>44</v>
       </c>
@@ -4406,23 +4367,21 @@
       <c r="J6" s="5"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="1:11" ht="20" customHeight="1">
       <c r="A7" s="4">
         <v>515</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>49</v>
       </c>
       <c r="E7" s="4"/>
-      <c r="F7" s="4" t="s">
-        <v>106</v>
-      </c>
+      <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
         <v>44</v>
       </c>
@@ -4440,20 +4399,18 @@
         <v>662</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>49</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>123</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
         <v>44</v>
       </c>
@@ -4466,23 +4423,21 @@
       <c r="J8" s="5"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:11" ht="20" customHeight="1">
       <c r="A9" s="4">
         <v>958</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>49</v>
       </c>
       <c r="E9" s="6"/>
-      <c r="F9" s="4" t="s">
-        <v>123</v>
-      </c>
+      <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
         <v>44</v>
       </c>
@@ -4495,23 +4450,21 @@
       <c r="J9" s="5"/>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="1:11" ht="20" customHeight="1">
       <c r="A10" s="4">
         <v>987</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E10" s="6"/>
-      <c r="F10" s="4" t="s">
-        <v>123</v>
-      </c>
+      <c r="F10" s="4"/>
       <c r="G10" s="4" t="s">
         <v>44</v>
       </c>
@@ -4524,23 +4477,21 @@
       <c r="J10" s="5"/>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="1:11" ht="20" customHeight="1">
       <c r="A11" s="4">
         <v>1161</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>49</v>
       </c>
       <c r="E11" s="6"/>
-      <c r="F11" s="4" t="s">
-        <v>123</v>
-      </c>
+      <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
         <v>44</v>
       </c>
@@ -4592,19 +4543,19 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="43.140625" customWidth="1"/>
-    <col min="3" max="3" width="35.85546875" style="11" customWidth="1"/>
+    <col min="2" max="2" width="43.19921875" customWidth="1"/>
+    <col min="3" max="3" width="35.796875" style="11" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="36" customWidth="1"/>
+    <col min="5" max="5" width="41" customWidth="1"/>
     <col min="6" max="8" width="21" customWidth="1"/>
     <col min="9" max="10" width="16" style="1" customWidth="1"/>
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:11" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -4644,22 +4595,22 @@
         <v>2454</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="16" t="s">
-        <v>214</v>
+      <c r="E2" s="18" t="s">
+        <v>222</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>44</v>
@@ -4671,6 +4622,7 @@
       <c r="K2" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2">
     <cfRule type="expression" dxfId="2" priority="1">
       <formula>D2="Easy"</formula>

--- a/LeetCode Techniques.xlsx
+++ b/LeetCode Techniques.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/blackjack625/Desktop/LeetCode/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jack.yao\Desktop\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5904BCD9-FD70-3646-88B3-935021B65ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE326002-D930-453C-B5F2-C00C061513E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="20640" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DP" sheetId="8" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="226">
   <si>
     <t>Name</t>
   </si>
@@ -909,25 +909,35 @@
 Binary sort secures 2nd stack order.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Dinner Plate Stacks</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/dinner-plate-stacks/description/</t>
+  </si>
+  <si>
+    <t>Leftmost open stacks only refer
+to stacks not at the last index.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -951,7 +961,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1011,12 +1021,21 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+    </font>
+    <font>
       <u/>
       <sz val="10"/>
       <color theme="10"/>
-      <name val="Microsoft YaHei Light"/>
-      <family val="2"/>
-      <charset val="134"/>
+      <name val="Microsoft YaHei"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1055,19 +1074,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1091,9 +1110,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1103,10 +1119,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="超連結" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="33">
     <dxf>
@@ -1743,11 +1766,11 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="46" customWidth="1"/>
-    <col min="3" max="3" width="40.796875" style="14" customWidth="1"/>
+    <col min="3" max="3" width="40.85546875" style="14" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
     <col min="6" max="8" width="21" customWidth="1"/>
@@ -1755,7 +1778,7 @@
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20" customHeight="1">
+    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -1790,7 +1813,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="20" customHeight="1">
+    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="4">
         <v>53</v>
       </c>
@@ -1817,7 +1840,7 @@
       <c r="J2" s="5"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" ht="20" customHeight="1">
+    <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="4">
         <v>62</v>
       </c>
@@ -1873,7 +1896,7 @@
       <c r="J4" s="5"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:11" ht="20" customHeight="1">
+    <row r="5" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="4">
         <v>64</v>
       </c>
@@ -1900,7 +1923,7 @@
       <c r="J5" s="5"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" ht="20" customHeight="1">
+    <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="4">
         <v>120</v>
       </c>
@@ -1987,7 +2010,7 @@
       <c r="J8" s="5"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:11" ht="20" customHeight="1">
+    <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="4">
         <v>198</v>
       </c>
@@ -2047,7 +2070,7 @@
       <c r="J10" s="5"/>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="1:11" ht="20" customHeight="1">
+    <row r="11" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="4">
         <v>279</v>
       </c>
@@ -2136,7 +2159,7 @@
       <c r="J13" s="5"/>
       <c r="K13" s="4"/>
     </row>
-    <row r="14" spans="1:11" ht="20" customHeight="1">
+    <row r="14" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="4">
         <v>343</v>
       </c>
@@ -2223,7 +2246,7 @@
       <c r="J16" s="5"/>
       <c r="K16" s="4"/>
     </row>
-    <row r="17" spans="1:11" ht="20" customHeight="1">
+    <row r="17" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="4">
         <v>907</v>
       </c>
@@ -2236,7 +2259,7 @@
       <c r="D17" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="15" t="s">
         <v>206</v>
       </c>
       <c r="F17" s="4" t="s">
@@ -2254,7 +2277,7 @@
       <c r="J17" s="5"/>
       <c r="K17" s="4"/>
     </row>
-    <row r="18" spans="1:11" ht="20" customHeight="1">
+    <row r="18" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="4">
         <v>931</v>
       </c>
@@ -2281,7 +2304,7 @@
       <c r="J18" s="5"/>
       <c r="K18" s="4"/>
     </row>
-    <row r="19" spans="1:11" ht="20" customHeight="1">
+    <row r="19" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="4">
         <v>1220</v>
       </c>
@@ -2321,7 +2344,7 @@
       <c r="D20" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="15" t="s">
         <v>220</v>
       </c>
       <c r="F20" s="4" t="s">
@@ -2339,7 +2362,7 @@
       <c r="J20" s="5"/>
       <c r="K20" s="4"/>
     </row>
-    <row r="21" spans="1:11" ht="20" customHeight="1">
+    <row r="21" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="4">
         <v>1301</v>
       </c>
@@ -2366,7 +2389,7 @@
       <c r="J21" s="5"/>
       <c r="K21" s="4"/>
     </row>
-    <row r="22" spans="1:11" ht="20" customHeight="1">
+    <row r="22" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="4">
         <v>1359</v>
       </c>
@@ -2406,7 +2429,7 @@
       <c r="D23" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="15" t="s">
         <v>210</v>
       </c>
       <c r="F23" s="4" t="s">
@@ -2424,7 +2447,7 @@
       <c r="J23" s="5"/>
       <c r="K23" s="4"/>
     </row>
-    <row r="24" spans="1:11" ht="20" customHeight="1">
+    <row r="24" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="4">
         <v>1449</v>
       </c>
@@ -2437,7 +2460,7 @@
       <c r="D24" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E24" s="17" t="s">
+      <c r="E24" s="16" t="s">
         <v>216</v>
       </c>
       <c r="F24" s="4"/>
@@ -2504,10 +2527,10 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="38.19921875" customWidth="1"/>
+    <col min="2" max="2" width="38.140625" customWidth="1"/>
     <col min="3" max="3" width="71" style="9" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
@@ -2516,7 +2539,7 @@
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20" customHeight="1">
+    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -2551,7 +2574,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="20" customHeight="1">
+    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="4">
         <v>74</v>
       </c>
@@ -2578,7 +2601,7 @@
       <c r="J2" s="3"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="20" customHeight="1">
+    <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="4">
         <v>220</v>
       </c>
@@ -2634,7 +2657,7 @@
       <c r="J4" s="5"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:11" ht="20" customHeight="1">
+    <row r="5" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="4">
         <v>315</v>
       </c>
@@ -2661,7 +2684,7 @@
       <c r="J5" s="5"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" ht="20" customHeight="1">
+    <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="4">
         <v>352</v>
       </c>
@@ -2690,7 +2713,7 @@
       <c r="J6" s="5"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11" ht="20" customHeight="1">
+    <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="4">
         <v>480</v>
       </c>
@@ -2717,7 +2740,7 @@
       <c r="J7" s="5"/>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="1:11" ht="20" customHeight="1">
+    <row r="8" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="4">
         <v>493</v>
       </c>
@@ -2744,7 +2767,7 @@
       <c r="J8" s="5"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:11" ht="20" customHeight="1">
+    <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="4">
         <v>611</v>
       </c>
@@ -2773,7 +2796,7 @@
       <c r="J9" s="5"/>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="1:11" ht="20" customHeight="1">
+    <row r="10" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="4">
         <v>729</v>
       </c>
@@ -2800,7 +2823,7 @@
       <c r="J10" s="5"/>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="1:11" ht="20" customHeight="1">
+    <row r="11" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="4">
         <v>1095</v>
       </c>
@@ -2858,7 +2881,7 @@
       <c r="J12" s="5"/>
       <c r="K12" s="4"/>
     </row>
-    <row r="13" spans="1:11" ht="20" customHeight="1">
+    <row r="13" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="4">
         <v>1825</v>
       </c>
@@ -2887,7 +2910,7 @@
       <c r="J13" s="5"/>
       <c r="K13" s="4"/>
     </row>
-    <row r="14" spans="1:11" ht="20" customHeight="1">
+    <row r="14" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="4">
         <v>2034</v>
       </c>
@@ -2916,7 +2939,7 @@
       <c r="J14" s="5"/>
       <c r="K14" s="4"/>
     </row>
-    <row r="15" spans="1:11" ht="20" customHeight="1">
+    <row r="15" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="4">
         <v>2102</v>
       </c>
@@ -3001,10 +3024,10 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="45.796875" customWidth="1"/>
+    <col min="2" max="2" width="45.85546875" customWidth="1"/>
     <col min="3" max="3" width="71" style="9" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
@@ -3013,7 +3036,7 @@
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20" customHeight="1">
+    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -3048,7 +3071,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="20" customHeight="1">
+    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="4">
         <v>3</v>
       </c>
@@ -3075,7 +3098,7 @@
       <c r="J2" s="5"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" ht="20" customHeight="1">
+    <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="4">
         <v>1695</v>
       </c>
@@ -3132,11 +3155,11 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="28.59765625" customWidth="1"/>
-    <col min="3" max="3" width="65.796875" style="9" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" customWidth="1"/>
+    <col min="3" max="3" width="65.85546875" style="9" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
     <col min="6" max="8" width="21" customWidth="1"/>
@@ -3144,7 +3167,7 @@
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20" customHeight="1">
+    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -3179,7 +3202,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="20" customHeight="1">
+    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="4">
         <v>41</v>
       </c>
@@ -3210,7 +3233,7 @@
       </c>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" ht="20" customHeight="1">
+    <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="4">
         <v>287</v>
       </c>
@@ -3237,7 +3260,7 @@
       <c r="J3" s="5"/>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:11" ht="20" customHeight="1">
+    <row r="4" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="4">
         <v>645</v>
       </c>
@@ -3307,11 +3330,11 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="35.796875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="9" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
     <col min="6" max="8" width="21" customWidth="1"/>
@@ -3319,7 +3342,7 @@
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20" customHeight="1">
+    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -3354,7 +3377,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="20" customHeight="1">
+    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="4">
         <v>394</v>
       </c>
@@ -3411,11 +3434,11 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="46" customWidth="1"/>
-    <col min="3" max="3" width="65.796875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="65.85546875" style="9" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
     <col min="6" max="8" width="21" customWidth="1"/>
@@ -3423,7 +3446,7 @@
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20" customHeight="1">
+    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -3458,7 +3481,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="20" customHeight="1">
+    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="4">
         <v>208</v>
       </c>
@@ -3485,7 +3508,7 @@
       <c r="J2" s="5"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" ht="20" customHeight="1">
+    <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="4">
         <v>211</v>
       </c>
@@ -3514,7 +3537,7 @@
       <c r="J3" s="5"/>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:11" ht="20" customHeight="1">
+    <row r="4" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="4">
         <v>386</v>
       </c>
@@ -3543,7 +3566,7 @@
       <c r="J4" s="5"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:11" ht="20" customHeight="1">
+    <row r="5" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="4">
         <v>648</v>
       </c>
@@ -3570,7 +3593,7 @@
       <c r="J5" s="5"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" ht="20" customHeight="1">
+    <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="4">
         <v>677</v>
       </c>
@@ -3599,7 +3622,7 @@
       <c r="J6" s="5"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11" ht="20" customHeight="1">
+    <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="4">
         <v>720</v>
       </c>
@@ -3657,7 +3680,7 @@
       <c r="J8" s="5"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:11" ht="20" customHeight="1">
+    <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="4">
         <v>1268</v>
       </c>
@@ -3753,11 +3776,11 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="36" customWidth="1"/>
-    <col min="3" max="3" width="35.796875" style="14" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="14" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
     <col min="6" max="8" width="21" customWidth="1"/>
@@ -3765,7 +3788,7 @@
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20" customHeight="1">
+    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -3800,7 +3823,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="20" customHeight="1">
+    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="4">
         <v>113</v>
       </c>
@@ -3827,7 +3850,7 @@
       <c r="J2" s="5"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" ht="20" customHeight="1">
+    <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="4">
         <v>114</v>
       </c>
@@ -3854,7 +3877,7 @@
       <c r="J3" s="5"/>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:11" ht="20" customHeight="1">
+    <row r="4" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="4">
         <v>129</v>
       </c>
@@ -3910,7 +3933,7 @@
       <c r="J5" s="5"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" ht="20" customHeight="1">
+    <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="4">
         <v>341</v>
       </c>
@@ -3937,7 +3960,7 @@
       <c r="J6" s="5"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11" ht="20" customHeight="1">
+    <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="4">
         <v>399</v>
       </c>
@@ -3968,7 +3991,7 @@
       <c r="J7" s="5"/>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="1:11" ht="20" customHeight="1">
+    <row r="8" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="4">
         <v>437</v>
       </c>
@@ -3995,7 +4018,7 @@
       <c r="J8" s="5"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:11" ht="20" customHeight="1">
+    <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="4">
         <v>508</v>
       </c>
@@ -4022,7 +4045,7 @@
       <c r="J9" s="5"/>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="1:11" ht="20" customHeight="1">
+    <row r="10" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="4">
         <v>623</v>
       </c>
@@ -4177,11 +4200,11 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="43.19921875" customWidth="1"/>
-    <col min="3" max="3" width="35.796875" style="11" customWidth="1"/>
+    <col min="2" max="2" width="43.140625" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="11" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
     <col min="6" max="8" width="21" customWidth="1"/>
@@ -4189,7 +4212,7 @@
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20" customHeight="1">
+    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -4340,7 +4363,7 @@
       <c r="J5" s="5"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" ht="20" customHeight="1">
+    <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="4">
         <v>513</v>
       </c>
@@ -4367,7 +4390,7 @@
       <c r="J6" s="5"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11" ht="20" customHeight="1">
+    <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="4">
         <v>515</v>
       </c>
@@ -4423,7 +4446,7 @@
       <c r="J8" s="5"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:11" ht="20" customHeight="1">
+    <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="4">
         <v>958</v>
       </c>
@@ -4450,7 +4473,7 @@
       <c r="J9" s="5"/>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="1:11" ht="20" customHeight="1">
+    <row r="10" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="4">
         <v>987</v>
       </c>
@@ -4477,7 +4500,7 @@
       <c r="J10" s="5"/>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="1:11" ht="20" customHeight="1">
+    <row r="11" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="4">
         <v>1161</v>
       </c>
@@ -4539,15 +4562,15 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BC7A267-6069-4E38-AC2F-0C28241496B0}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="43.19921875" customWidth="1"/>
-    <col min="3" max="3" width="35.796875" style="11" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="20" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="41" customWidth="1"/>
     <col min="6" max="8" width="21" customWidth="1"/>
@@ -4555,14 +4578,14 @@
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20" customHeight="1">
+    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -4592,38 +4615,67 @@
     </row>
     <row r="2" spans="1:11" ht="30" customHeight="1">
       <c r="A2" s="6">
-        <v>2454</v>
+        <v>1172</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>204</v>
+        <v>223</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>224</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="18" t="s">
-        <v>222</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>158</v>
-      </c>
+      <c r="E2" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="F2" s="4"/>
       <c r="G2" s="4" t="s">
-        <v>205</v>
+        <v>44</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>44</v>
       </c>
       <c r="I2" s="5">
-        <v>45505</v>
+        <v>45511</v>
       </c>
       <c r="J2" s="5"/>
       <c r="K2" s="4"/>
     </row>
+    <row r="3" spans="1:11" ht="30" customHeight="1">
+      <c r="A3" s="6">
+        <v>2454</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" s="5">
+        <v>45505</v>
+      </c>
+      <c r="J3" s="5"/>
+      <c r="K3" s="4"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D2">
+  <conditionalFormatting sqref="D2:D3">
     <cfRule type="expression" dxfId="2" priority="1">
       <formula>D2="Easy"</formula>
     </cfRule>
@@ -4635,10 +4687,11 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{2A05BB37-BC02-459B-AC3A-04B564121776}"/>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{2A05BB37-BC02-459B-AC3A-04B564121776}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{06DB2703-F6E1-40EC-B489-AF23524010D7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId3"/>
   <headerFooter>
     <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 General</oddFooter>
   </headerFooter>

--- a/LeetCode Techniques.xlsx
+++ b/LeetCode Techniques.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jack.yao\Desktop\LeetCode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/blackjack625/Desktop/LeetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE326002-D930-453C-B5F2-C00C061513E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81BC5399-56B0-9B4D-A15A-F945C85CDAF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DP" sheetId="8" r:id="rId1"/>
     <sheet name="Binary Search" sheetId="1" r:id="rId2"/>
-    <sheet name="Sliding Window" sheetId="2" r:id="rId3"/>
-    <sheet name="Set Maneuver" sheetId="3" r:id="rId4"/>
-    <sheet name="Recursion" sheetId="5" r:id="rId5"/>
-    <sheet name="Trie" sheetId="4" r:id="rId6"/>
-    <sheet name="DFS" sheetId="6" r:id="rId7"/>
-    <sheet name="BFS" sheetId="7" r:id="rId8"/>
-    <sheet name="Stack" sheetId="9" r:id="rId9"/>
+    <sheet name="DFS" sheetId="6" r:id="rId3"/>
+    <sheet name="BFS" sheetId="7" r:id="rId4"/>
+    <sheet name="Hash" sheetId="10" r:id="rId5"/>
+    <sheet name="Stack" sheetId="9" r:id="rId6"/>
+    <sheet name="Trie" sheetId="4" r:id="rId7"/>
+    <sheet name="Sliding Window" sheetId="2" r:id="rId8"/>
+    <sheet name="Set Maneuver" sheetId="3" r:id="rId9"/>
+    <sheet name="Recursion" sheetId="5" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="229">
   <si>
     <t>Name</t>
   </si>
@@ -916,8 +917,22 @@
     <t>https://leetcode.com/problems/dinner-plate-stacks/description/</t>
   </si>
   <si>
-    <t>Leftmost open stacks only refer
-to stacks not at the last index.</t>
+    <t>Leftmost open stacks only exist
+when number of stacks &gt;= 2.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Insert Delete GetRandom O(1) - Duplicates allowed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/insert-delete-getrandom-o1-duplicates-allowed/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use randrange to get an
+index to pick from list.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -925,19 +940,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -961,7 +976,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1025,17 +1040,20 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Microsoft YaHei"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color theme="10"/>
       <name val="Microsoft YaHei"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Microsoft YaHei"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1076,17 +1094,17 @@
   </cellStyleXfs>
   <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1128,10 +1146,40 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="33">
+  <dxfs count="36">
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFFFF00"/>
@@ -1766,11 +1814,11 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="46" customWidth="1"/>
-    <col min="3" max="3" width="40.85546875" style="14" customWidth="1"/>
+    <col min="3" max="3" width="40.796875" style="14" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
     <col min="6" max="8" width="21" customWidth="1"/>
@@ -1778,7 +1826,7 @@
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:11" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -1813,7 +1861,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:11" ht="20" customHeight="1">
       <c r="A2" s="4">
         <v>53</v>
       </c>
@@ -1840,7 +1888,7 @@
       <c r="J2" s="5"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:11" ht="20" customHeight="1">
       <c r="A3" s="4">
         <v>62</v>
       </c>
@@ -1896,7 +1944,7 @@
       <c r="J4" s="5"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="1:11" ht="20" customHeight="1">
       <c r="A5" s="4">
         <v>64</v>
       </c>
@@ -1923,7 +1971,7 @@
       <c r="J5" s="5"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="1:11" ht="20" customHeight="1">
       <c r="A6" s="4">
         <v>120</v>
       </c>
@@ -2010,7 +2058,7 @@
       <c r="J8" s="5"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:11" ht="20" customHeight="1">
       <c r="A9" s="4">
         <v>198</v>
       </c>
@@ -2070,7 +2118,7 @@
       <c r="J10" s="5"/>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="1:11" ht="20" customHeight="1">
       <c r="A11" s="4">
         <v>279</v>
       </c>
@@ -2159,7 +2207,7 @@
       <c r="J13" s="5"/>
       <c r="K13" s="4"/>
     </row>
-    <row r="14" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="1:11" ht="20" customHeight="1">
       <c r="A14" s="4">
         <v>343</v>
       </c>
@@ -2246,7 +2294,7 @@
       <c r="J16" s="5"/>
       <c r="K16" s="4"/>
     </row>
-    <row r="17" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="17" spans="1:11" ht="20" customHeight="1">
       <c r="A17" s="4">
         <v>907</v>
       </c>
@@ -2277,7 +2325,7 @@
       <c r="J17" s="5"/>
       <c r="K17" s="4"/>
     </row>
-    <row r="18" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="18" spans="1:11" ht="20" customHeight="1">
       <c r="A18" s="4">
         <v>931</v>
       </c>
@@ -2304,7 +2352,7 @@
       <c r="J18" s="5"/>
       <c r="K18" s="4"/>
     </row>
-    <row r="19" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="19" spans="1:11" ht="20" customHeight="1">
       <c r="A19" s="4">
         <v>1220</v>
       </c>
@@ -2362,7 +2410,7 @@
       <c r="J20" s="5"/>
       <c r="K20" s="4"/>
     </row>
-    <row r="21" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="21" spans="1:11" ht="20" customHeight="1">
       <c r="A21" s="4">
         <v>1301</v>
       </c>
@@ -2389,7 +2437,7 @@
       <c r="J21" s="5"/>
       <c r="K21" s="4"/>
     </row>
-    <row r="22" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="22" spans="1:11" ht="20" customHeight="1">
       <c r="A22" s="4">
         <v>1359</v>
       </c>
@@ -2447,7 +2495,7 @@
       <c r="J23" s="5"/>
       <c r="K23" s="4"/>
     </row>
-    <row r="24" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="24" spans="1:11" ht="20" customHeight="1">
       <c r="A24" s="4">
         <v>1449</v>
       </c>
@@ -2479,13 +2527,13 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2:D24">
-    <cfRule type="expression" dxfId="32" priority="1">
+    <cfRule type="expression" dxfId="35" priority="1">
       <formula>D2="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="2">
+    <cfRule type="expression" dxfId="34" priority="2">
       <formula>D2="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="3">
+    <cfRule type="expression" dxfId="33" priority="3">
       <formula>D2="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2521,16 +2569,120 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69159F7B-7780-4FD1-9225-126219315A4A}">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="35.796875" style="9" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="36" customWidth="1"/>
+    <col min="6" max="8" width="21" customWidth="1"/>
+    <col min="9" max="10" width="16" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="20" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="20" customHeight="1">
+      <c r="A2" s="4">
+        <v>394</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="5">
+        <v>45384</v>
+      </c>
+      <c r="J2" s="5"/>
+      <c r="K2" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="D2">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>D2="Easy"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>D2="Medium"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="3">
+      <formula>D2="Hard"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{E2CF697A-AC7A-4622-85D9-DB09691263B3}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
+  <headerFooter>
+    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 General</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="38.140625" customWidth="1"/>
+    <col min="2" max="2" width="38.19921875" customWidth="1"/>
     <col min="3" max="3" width="71" style="9" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
@@ -2539,7 +2691,7 @@
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:11" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -2574,7 +2726,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:11" ht="20" customHeight="1">
       <c r="A2" s="4">
         <v>74</v>
       </c>
@@ -2601,7 +2753,7 @@
       <c r="J2" s="3"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:11" ht="20" customHeight="1">
       <c r="A3" s="4">
         <v>220</v>
       </c>
@@ -2657,7 +2809,7 @@
       <c r="J4" s="5"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="1:11" ht="20" customHeight="1">
       <c r="A5" s="4">
         <v>315</v>
       </c>
@@ -2684,7 +2836,7 @@
       <c r="J5" s="5"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="1:11" ht="20" customHeight="1">
       <c r="A6" s="4">
         <v>352</v>
       </c>
@@ -2713,7 +2865,7 @@
       <c r="J6" s="5"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="1:11" ht="20" customHeight="1">
       <c r="A7" s="4">
         <v>480</v>
       </c>
@@ -2740,7 +2892,7 @@
       <c r="J7" s="5"/>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="1:11" ht="20" customHeight="1">
       <c r="A8" s="4">
         <v>493</v>
       </c>
@@ -2767,7 +2919,7 @@
       <c r="J8" s="5"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:11" ht="20" customHeight="1">
       <c r="A9" s="4">
         <v>611</v>
       </c>
@@ -2796,7 +2948,7 @@
       <c r="J9" s="5"/>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="1:11" ht="20" customHeight="1">
       <c r="A10" s="4">
         <v>729</v>
       </c>
@@ -2823,7 +2975,7 @@
       <c r="J10" s="5"/>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="1:11" ht="20" customHeight="1">
       <c r="A11" s="4">
         <v>1095</v>
       </c>
@@ -2881,7 +3033,7 @@
       <c r="J12" s="5"/>
       <c r="K12" s="4"/>
     </row>
-    <row r="13" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="1:11" ht="20" customHeight="1">
       <c r="A13" s="4">
         <v>1825</v>
       </c>
@@ -2910,7 +3062,7 @@
       <c r="J13" s="5"/>
       <c r="K13" s="4"/>
     </row>
-    <row r="14" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="1:11" ht="20" customHeight="1">
       <c r="A14" s="4">
         <v>2034</v>
       </c>
@@ -2939,7 +3091,7 @@
       <c r="J14" s="5"/>
       <c r="K14" s="4"/>
     </row>
-    <row r="15" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="1:11" ht="20" customHeight="1">
       <c r="A15" s="4">
         <v>2102</v>
       </c>
@@ -2974,24 +3126,24 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2:D3">
-    <cfRule type="expression" dxfId="29" priority="1">
+    <cfRule type="expression" dxfId="32" priority="1">
       <formula>D2="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="2">
+    <cfRule type="expression" dxfId="31" priority="2">
       <formula>D2="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="3">
+    <cfRule type="expression" dxfId="30" priority="3">
       <formula>D2="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:E15">
-    <cfRule type="expression" dxfId="26" priority="4">
+    <cfRule type="expression" dxfId="29" priority="4">
       <formula>D4="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="5">
+    <cfRule type="expression" dxfId="28" priority="5">
       <formula>D4="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="6">
+    <cfRule type="expression" dxfId="27" priority="6">
       <formula>D4="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3019,16 +3171,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96F16DFC-20ED-4148-9FB8-AA8D12910A09}">
-  <dimension ref="A1:K3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C287181F-E765-1C4E-B964-9C9FDBE62A17}">
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="45.85546875" customWidth="1"/>
-    <col min="3" max="3" width="71" style="9" customWidth="1"/>
+    <col min="2" max="2" width="36" customWidth="1"/>
+    <col min="3" max="3" width="35.796875" style="14" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
     <col min="6" max="8" width="21" customWidth="1"/>
@@ -3036,14 +3188,14 @@
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:11" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="12" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -3071,15 +3223,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:11" ht="20" customHeight="1">
       <c r="A2" s="4">
-        <v>3</v>
+        <v>113</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>46</v>
+        <v>92</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>94</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>49</v>
@@ -3090,23 +3242,23 @@
         <v>44</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I2" s="5">
-        <v>45378</v>
+        <v>45486</v>
       </c>
       <c r="J2" s="5"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:11" ht="20" customHeight="1">
       <c r="A3" s="4">
-        <v>1695</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>50</v>
+        <v>114</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>95</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>49</v>
@@ -3117,161 +3269,26 @@
         <v>44</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I3" s="5">
-        <v>45378</v>
+        <v>45486</v>
       </c>
       <c r="J3" s="5"/>
       <c r="K3" s="4"/>
     </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D2:E3">
-    <cfRule type="expression" dxfId="23" priority="4">
-      <formula>D2="Easy"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="5">
-      <formula>D2="Medium"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="21" priority="6">
-      <formula>D2="Hard"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{E1F44EBE-2031-4493-8DA0-C05554DE0E1C}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{186DAC56-ACE0-47B6-95EE-B3826BFE8C3E}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter>
-    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 General</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F94156D-DED3-4FD7-B619-DDD9FD49102F}">
-  <dimension ref="A1:K4"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="28.5703125" customWidth="1"/>
-    <col min="3" max="3" width="65.85546875" style="9" customWidth="1"/>
-    <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="36" customWidth="1"/>
-    <col min="6" max="8" width="21" customWidth="1"/>
-    <col min="9" max="10" width="16" style="1" customWidth="1"/>
-    <col min="11" max="11" width="16" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="4">
-        <v>41</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I2" s="5">
-        <v>45095</v>
-      </c>
-      <c r="J2" s="5">
-        <v>45481</v>
-      </c>
-      <c r="K2" s="4"/>
-    </row>
-    <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="4">
-        <v>287</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="4" t="s">
+    <row r="4" spans="1:11" ht="20" customHeight="1">
+      <c r="A4" s="4">
+        <v>129</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I3" s="5">
-        <v>45375</v>
-      </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="4"/>
-    </row>
-    <row r="4" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="4">
-        <v>645</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>54</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -3279,623 +3296,6 @@
         <v>44</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I4" s="5">
-        <v>45375</v>
-      </c>
-      <c r="J4" s="5"/>
-      <c r="K4" s="4"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D2">
-    <cfRule type="expression" dxfId="20" priority="1">
-      <formula>D2="Easy"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="19" priority="2">
-      <formula>D2="Medium"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="3">
-      <formula>D2="Hard"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:E4">
-    <cfRule type="expression" dxfId="17" priority="4">
-      <formula>D3="Easy"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="5">
-      <formula>D3="Medium"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="15" priority="6">
-      <formula>D3="Hard"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{985DB098-898F-46BA-9FC5-E7532DC519AA}"/>
-    <hyperlink ref="C4" r:id="rId2" xr:uid="{909DDFE3-388E-405F-BDEB-7085F7F7D07F}"/>
-    <hyperlink ref="C2" r:id="rId3" xr:uid="{C2E7693A-9DE3-4A41-94EF-BDA22FC3FBE0}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId4"/>
-  <headerFooter>
-    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 General</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69159F7B-7780-4FD1-9225-126219315A4A}">
-  <dimension ref="A1:K2"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="35.85546875" style="9" customWidth="1"/>
-    <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="36" customWidth="1"/>
-    <col min="6" max="8" width="21" customWidth="1"/>
-    <col min="9" max="10" width="16" style="1" customWidth="1"/>
-    <col min="11" max="11" width="16" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="4">
-        <v>394</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I2" s="5">
-        <v>45384</v>
-      </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="4"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D2">
-    <cfRule type="expression" dxfId="14" priority="1">
-      <formula>D2="Easy"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="13" priority="2">
-      <formula>D2="Medium"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="3">
-      <formula>D2="Hard"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{E2CF697A-AC7A-4622-85D9-DB09691263B3}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
-  <headerFooter>
-    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 General</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52261E16-6011-467F-965D-8624702367C9}">
-  <dimension ref="A1:K10"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="46" customWidth="1"/>
-    <col min="3" max="3" width="65.85546875" style="9" customWidth="1"/>
-    <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="36" customWidth="1"/>
-    <col min="6" max="8" width="21" customWidth="1"/>
-    <col min="9" max="10" width="16" style="1" customWidth="1"/>
-    <col min="11" max="11" width="16" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="4">
-        <v>208</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="I2" s="5">
-        <v>45483</v>
-      </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="4"/>
-    </row>
-    <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="4">
-        <v>211</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="I3" s="5">
-        <v>45483</v>
-      </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="4"/>
-    </row>
-    <row r="4" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="4">
-        <v>386</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="I4" s="5">
-        <v>45483</v>
-      </c>
-      <c r="J4" s="5"/>
-      <c r="K4" s="4"/>
-    </row>
-    <row r="5" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="4">
-        <v>648</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="I5" s="5">
-        <v>45485</v>
-      </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="4"/>
-    </row>
-    <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="4">
-        <v>677</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="I6" s="5">
-        <v>45484</v>
-      </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="4"/>
-    </row>
-    <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="4">
-        <v>720</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="I7" s="5">
-        <v>45485</v>
-      </c>
-      <c r="J7" s="5"/>
-      <c r="K7" s="4"/>
-    </row>
-    <row r="8" spans="1:11" ht="30" customHeight="1">
-      <c r="A8" s="4">
-        <v>1032</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="I8" s="5">
-        <v>45484</v>
-      </c>
-      <c r="J8" s="5"/>
-      <c r="K8" s="4"/>
-    </row>
-    <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="4">
-        <v>1268</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="I9" s="5">
-        <v>45484</v>
-      </c>
-      <c r="J9" s="5"/>
-      <c r="K9" s="4"/>
-    </row>
-    <row r="10" spans="1:11" ht="30" customHeight="1">
-      <c r="A10" s="4">
-        <v>2416</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="I10" s="5">
-        <v>45485</v>
-      </c>
-      <c r="J10" s="5"/>
-      <c r="K10" s="4"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D2:D10">
-    <cfRule type="expression" dxfId="11" priority="1">
-      <formula>D2="Easy"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="2">
-      <formula>D2="Medium"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="9" priority="3">
-      <formula>D2="Hard"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{AB100432-12B8-4215-BBA6-E5C40654EC6A}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{42D40DB9-825F-441E-8849-B38723C0AA00}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{B8B8C24A-337E-6342-9322-B5873966C1CD}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{3E8C3E19-6B46-0F4D-A126-DE087C1973B3}"/>
-    <hyperlink ref="C6" r:id="rId5" xr:uid="{1F44F1F1-D0A2-9949-A314-B6331F5F184A}"/>
-    <hyperlink ref="C7" r:id="rId6" xr:uid="{D8BF5A6D-580B-124C-8BD5-5C2E12D6EE9D}"/>
-    <hyperlink ref="C8" r:id="rId7" xr:uid="{3CE12B0A-7911-1C4A-B980-D72B57CEF826}"/>
-    <hyperlink ref="C9" r:id="rId8" xr:uid="{918C731F-F6A4-DA41-8882-65843D2BB552}"/>
-    <hyperlink ref="C10" r:id="rId9" xr:uid="{234F4264-C395-A34E-9422-8A9145823330}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId10"/>
-  <headerFooter>
-    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 General</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C287181F-E765-1C4E-B964-9C9FDBE62A17}">
-  <dimension ref="A1:K13"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="36" customWidth="1"/>
-    <col min="3" max="3" width="35.85546875" style="14" customWidth="1"/>
-    <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="36" customWidth="1"/>
-    <col min="6" max="8" width="21" customWidth="1"/>
-    <col min="9" max="10" width="16" style="1" customWidth="1"/>
-    <col min="11" max="11" width="16" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="4">
-        <v>113</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I2" s="5">
-        <v>45486</v>
-      </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="4"/>
-    </row>
-    <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="4">
-        <v>114</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I3" s="5">
-        <v>45486</v>
-      </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="4"/>
-    </row>
-    <row r="4" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="4">
-        <v>129</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H4" s="4" t="s">
         <v>29</v>
       </c>
       <c r="I4" s="5">
@@ -3933,7 +3333,7 @@
       <c r="J5" s="5"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="1:11" ht="20" customHeight="1">
       <c r="A6" s="4">
         <v>341</v>
       </c>
@@ -3960,7 +3360,7 @@
       <c r="J6" s="5"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="1:11" ht="20" customHeight="1">
       <c r="A7" s="4">
         <v>399</v>
       </c>
@@ -3991,7 +3391,7 @@
       <c r="J7" s="5"/>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="1:11" ht="20" customHeight="1">
       <c r="A8" s="4">
         <v>437</v>
       </c>
@@ -4018,7 +3418,7 @@
       <c r="J8" s="5"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:11" ht="20" customHeight="1">
       <c r="A9" s="4">
         <v>508</v>
       </c>
@@ -4045,7 +3445,7 @@
       <c r="J9" s="5"/>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="1:11" ht="20" customHeight="1">
       <c r="A10" s="4">
         <v>623</v>
       </c>
@@ -4162,13 +3562,13 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2:D13">
-    <cfRule type="expression" dxfId="8" priority="1">
+    <cfRule type="expression" dxfId="26" priority="1">
       <formula>D2="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="2">
+    <cfRule type="expression" dxfId="25" priority="2">
       <formula>D2="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="3">
+    <cfRule type="expression" dxfId="24" priority="3">
       <formula>D2="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4194,17 +3594,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75AC292A-7720-E145-9563-F6FD48AA33E3}">
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="43.140625" customWidth="1"/>
-    <col min="3" max="3" width="35.85546875" style="11" customWidth="1"/>
+    <col min="2" max="2" width="43.19921875" customWidth="1"/>
+    <col min="3" max="3" width="35.796875" style="11" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
     <col min="6" max="8" width="21" customWidth="1"/>
@@ -4212,7 +3612,7 @@
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:11" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -4363,7 +3763,7 @@
       <c r="J5" s="5"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="1:11" ht="20" customHeight="1">
       <c r="A6" s="4">
         <v>513</v>
       </c>
@@ -4390,7 +3790,7 @@
       <c r="J6" s="5"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="1:11" ht="20" customHeight="1">
       <c r="A7" s="4">
         <v>515</v>
       </c>
@@ -4446,7 +3846,7 @@
       <c r="J8" s="5"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:11" ht="20" customHeight="1">
       <c r="A9" s="4">
         <v>958</v>
       </c>
@@ -4473,7 +3873,7 @@
       <c r="J9" s="5"/>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="1:11" ht="20" customHeight="1">
       <c r="A10" s="4">
         <v>987</v>
       </c>
@@ -4500,7 +3900,7 @@
       <c r="J10" s="5"/>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="1:11" ht="20" customHeight="1">
       <c r="A11" s="4">
         <v>1161</v>
       </c>
@@ -4530,13 +3930,13 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2:D11">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="23" priority="1">
       <formula>D2="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="22" priority="2">
       <formula>D2="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="21" priority="3">
       <formula>D2="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4560,17 +3960,123 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD487089-E40B-1D42-B3C9-4A2FB14888DF}">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="43.19921875" customWidth="1"/>
+    <col min="3" max="3" width="35.796875" style="11" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="36" customWidth="1"/>
+    <col min="6" max="8" width="21" customWidth="1"/>
+    <col min="9" max="10" width="16" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="20" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="30" customHeight="1">
+      <c r="A2" s="4">
+        <v>381</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="5">
+        <v>45511</v>
+      </c>
+      <c r="J2" s="5"/>
+      <c r="K2" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="D2">
+    <cfRule type="expression" dxfId="20" priority="1">
+      <formula>D2="Easy"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="19" priority="2">
+      <formula>D2="Medium"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="3">
+      <formula>D2="Hard"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{4E41E20D-D2BC-4440-AE67-25CEA75BC5AF}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
+  <headerFooter>
+    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 General</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BC7A267-6069-4E38-AC2F-0C28241496B0}">
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" customWidth="1"/>
-    <col min="3" max="3" width="35.85546875" style="20" customWidth="1"/>
+    <col min="2" max="2" width="25.796875" customWidth="1"/>
+    <col min="3" max="3" width="35.796875" style="20" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="41" customWidth="1"/>
     <col min="6" max="8" width="21" customWidth="1"/>
@@ -4578,7 +4084,7 @@
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:11" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -4676,13 +4182,13 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2:D3">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="17" priority="1">
       <formula>D2="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="16" priority="2">
       <formula>D2="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="3">
+    <cfRule type="expression" dxfId="15" priority="3">
       <formula>D2="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4698,6 +4204,654 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52261E16-6011-467F-965D-8624702367C9}">
+  <dimension ref="A1:K10"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="46" customWidth="1"/>
+    <col min="3" max="3" width="65.796875" style="9" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="36" customWidth="1"/>
+    <col min="6" max="8" width="21" customWidth="1"/>
+    <col min="9" max="10" width="16" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="20" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="20" customHeight="1">
+      <c r="A2" s="4">
+        <v>208</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2" s="5">
+        <v>45483</v>
+      </c>
+      <c r="J2" s="5"/>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="1:11" ht="20" customHeight="1">
+      <c r="A3" s="4">
+        <v>211</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I3" s="5">
+        <v>45483</v>
+      </c>
+      <c r="J3" s="5"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:11" ht="20" customHeight="1">
+      <c r="A4" s="4">
+        <v>386</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I4" s="5">
+        <v>45483</v>
+      </c>
+      <c r="J4" s="5"/>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:11" ht="20" customHeight="1">
+      <c r="A5" s="4">
+        <v>648</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I5" s="5">
+        <v>45485</v>
+      </c>
+      <c r="J5" s="5"/>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:11" ht="20" customHeight="1">
+      <c r="A6" s="4">
+        <v>677</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I6" s="5">
+        <v>45484</v>
+      </c>
+      <c r="J6" s="5"/>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="1:11" ht="20" customHeight="1">
+      <c r="A7" s="4">
+        <v>720</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I7" s="5">
+        <v>45485</v>
+      </c>
+      <c r="J7" s="5"/>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="1:11" ht="30" customHeight="1">
+      <c r="A8" s="4">
+        <v>1032</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I8" s="5">
+        <v>45484</v>
+      </c>
+      <c r="J8" s="5"/>
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" spans="1:11" ht="20" customHeight="1">
+      <c r="A9" s="4">
+        <v>1268</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I9" s="5">
+        <v>45484</v>
+      </c>
+      <c r="J9" s="5"/>
+      <c r="K9" s="4"/>
+    </row>
+    <row r="10" spans="1:11" ht="30" customHeight="1">
+      <c r="A10" s="4">
+        <v>2416</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I10" s="5">
+        <v>45485</v>
+      </c>
+      <c r="J10" s="5"/>
+      <c r="K10" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="D2:D10">
+    <cfRule type="expression" dxfId="14" priority="1">
+      <formula>D2="Easy"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="2">
+      <formula>D2="Medium"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="3">
+      <formula>D2="Hard"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{AB100432-12B8-4215-BBA6-E5C40654EC6A}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{42D40DB9-825F-441E-8849-B38723C0AA00}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{B8B8C24A-337E-6342-9322-B5873966C1CD}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{3E8C3E19-6B46-0F4D-A126-DE087C1973B3}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{1F44F1F1-D0A2-9949-A314-B6331F5F184A}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{D8BF5A6D-580B-124C-8BD5-5C2E12D6EE9D}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{3CE12B0A-7911-1C4A-B980-D72B57CEF826}"/>
+    <hyperlink ref="C9" r:id="rId8" xr:uid="{918C731F-F6A4-DA41-8882-65843D2BB552}"/>
+    <hyperlink ref="C10" r:id="rId9" xr:uid="{234F4264-C395-A34E-9422-8A9145823330}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId10"/>
+  <headerFooter>
+    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 General</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96F16DFC-20ED-4148-9FB8-AA8D12910A09}">
+  <dimension ref="A1:K3"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="45.796875" customWidth="1"/>
+    <col min="3" max="3" width="71" style="9" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="36" customWidth="1"/>
+    <col min="6" max="8" width="21" customWidth="1"/>
+    <col min="9" max="10" width="16" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="20" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="20" customHeight="1">
+      <c r="A2" s="4">
+        <v>3</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="5">
+        <v>45378</v>
+      </c>
+      <c r="J2" s="5"/>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="1:11" ht="20" customHeight="1">
+      <c r="A3" s="4">
+        <v>1695</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" s="5">
+        <v>45378</v>
+      </c>
+      <c r="J3" s="5"/>
+      <c r="K3" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="D2:E3">
+    <cfRule type="expression" dxfId="11" priority="4">
+      <formula>D2="Easy"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="5">
+      <formula>D2="Medium"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="6">
+      <formula>D2="Hard"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{E1F44EBE-2031-4493-8DA0-C05554DE0E1C}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{186DAC56-ACE0-47B6-95EE-B3826BFE8C3E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 General</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F94156D-DED3-4FD7-B619-DDD9FD49102F}">
+  <dimension ref="A1:K4"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="28.59765625" customWidth="1"/>
+    <col min="3" max="3" width="65.796875" style="9" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="36" customWidth="1"/>
+    <col min="6" max="8" width="21" customWidth="1"/>
+    <col min="9" max="10" width="16" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="20" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="20" customHeight="1">
+      <c r="A2" s="4">
+        <v>41</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="5">
+        <v>45095</v>
+      </c>
+      <c r="J2" s="5">
+        <v>45481</v>
+      </c>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="1:11" ht="20" customHeight="1">
+      <c r="A3" s="4">
+        <v>287</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" s="5">
+        <v>45375</v>
+      </c>
+      <c r="J3" s="5"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:11" ht="20" customHeight="1">
+      <c r="A4" s="4">
+        <v>645</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" s="5">
+        <v>45375</v>
+      </c>
+      <c r="J4" s="5"/>
+      <c r="K4" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="D2">
+    <cfRule type="expression" dxfId="8" priority="1">
+      <formula>D2="Easy"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="2">
+      <formula>D2="Medium"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="3">
+      <formula>D2="Hard"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:E4">
+    <cfRule type="expression" dxfId="5" priority="4">
+      <formula>D3="Easy"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>D3="Medium"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="6">
+      <formula>D3="Hard"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{985DB098-898F-46BA-9FC5-E7532DC519AA}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{909DDFE3-388E-405F-BDEB-7085F7F7D07F}"/>
+    <hyperlink ref="C2" r:id="rId3" xr:uid="{C2E7693A-9DE3-4A41-94EF-BDA22FC3FBE0}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId4"/>
+  <headerFooter>
+    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 General</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{04d09258-035b-4e4f-ae3e-d79ff3d418d8}" enabled="1" method="Standard" siteId="{f4a12867-922d-4b9d-bb85-9ee7898512a0}" contentBits="2" removed="0"/>

--- a/LeetCode Techniques.xlsx
+++ b/LeetCode Techniques.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/blackjack625/Desktop/LeetCode/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jack.yao\Desktop\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81BC5399-56B0-9B4D-A15A-F945C85CDAF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D495B4CE-CF63-49A9-976A-7BF267B2D07C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DP" sheetId="8" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="232">
   <si>
     <t>Name</t>
   </si>
@@ -934,25 +934,34 @@
 index to pick from list.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Maximum Frequency Stack</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximum-frequency-stack/description/</t>
+  </si>
+  <si>
+    <t>Binary Search, Hash</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -976,7 +985,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1040,20 +1049,17 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Microsoft YaHei"/>
-      <charset val="134"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color theme="10"/>
       <name val="Microsoft YaHei"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Microsoft YaHei"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1094,17 +1100,17 @@
   </cellStyleXfs>
   <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1146,8 +1152,8 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="超連結" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="36">
     <dxf>
@@ -1814,11 +1820,11 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="46" customWidth="1"/>
-    <col min="3" max="3" width="40.796875" style="14" customWidth="1"/>
+    <col min="3" max="3" width="40.85546875" style="14" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
     <col min="6" max="8" width="21" customWidth="1"/>
@@ -1826,7 +1832,7 @@
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20" customHeight="1">
+    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -1861,7 +1867,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="20" customHeight="1">
+    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="4">
         <v>53</v>
       </c>
@@ -1888,7 +1894,7 @@
       <c r="J2" s="5"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" ht="20" customHeight="1">
+    <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="4">
         <v>62</v>
       </c>
@@ -1944,7 +1950,7 @@
       <c r="J4" s="5"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:11" ht="20" customHeight="1">
+    <row r="5" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="4">
         <v>64</v>
       </c>
@@ -1971,7 +1977,7 @@
       <c r="J5" s="5"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" ht="20" customHeight="1">
+    <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="4">
         <v>120</v>
       </c>
@@ -2058,7 +2064,7 @@
       <c r="J8" s="5"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:11" ht="20" customHeight="1">
+    <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="4">
         <v>198</v>
       </c>
@@ -2118,7 +2124,7 @@
       <c r="J10" s="5"/>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="1:11" ht="20" customHeight="1">
+    <row r="11" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="4">
         <v>279</v>
       </c>
@@ -2207,7 +2213,7 @@
       <c r="J13" s="5"/>
       <c r="K13" s="4"/>
     </row>
-    <row r="14" spans="1:11" ht="20" customHeight="1">
+    <row r="14" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="4">
         <v>343</v>
       </c>
@@ -2294,7 +2300,7 @@
       <c r="J16" s="5"/>
       <c r="K16" s="4"/>
     </row>
-    <row r="17" spans="1:11" ht="20" customHeight="1">
+    <row r="17" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="4">
         <v>907</v>
       </c>
@@ -2325,7 +2331,7 @@
       <c r="J17" s="5"/>
       <c r="K17" s="4"/>
     </row>
-    <row r="18" spans="1:11" ht="20" customHeight="1">
+    <row r="18" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="4">
         <v>931</v>
       </c>
@@ -2352,7 +2358,7 @@
       <c r="J18" s="5"/>
       <c r="K18" s="4"/>
     </row>
-    <row r="19" spans="1:11" ht="20" customHeight="1">
+    <row r="19" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="4">
         <v>1220</v>
       </c>
@@ -2410,7 +2416,7 @@
       <c r="J20" s="5"/>
       <c r="K20" s="4"/>
     </row>
-    <row r="21" spans="1:11" ht="20" customHeight="1">
+    <row r="21" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="4">
         <v>1301</v>
       </c>
@@ -2437,7 +2443,7 @@
       <c r="J21" s="5"/>
       <c r="K21" s="4"/>
     </row>
-    <row r="22" spans="1:11" ht="20" customHeight="1">
+    <row r="22" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="4">
         <v>1359</v>
       </c>
@@ -2495,7 +2501,7 @@
       <c r="J23" s="5"/>
       <c r="K23" s="4"/>
     </row>
-    <row r="24" spans="1:11" ht="20" customHeight="1">
+    <row r="24" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="4">
         <v>1449</v>
       </c>
@@ -2575,11 +2581,11 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="35.796875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="9" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
     <col min="6" max="8" width="21" customWidth="1"/>
@@ -2587,7 +2593,7 @@
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20" customHeight="1">
+    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -2622,7 +2628,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="20" customHeight="1">
+    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="4">
         <v>394</v>
       </c>
@@ -2679,10 +2685,10 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="38.19921875" customWidth="1"/>
+    <col min="2" max="2" width="38.140625" customWidth="1"/>
     <col min="3" max="3" width="71" style="9" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
@@ -2691,7 +2697,7 @@
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20" customHeight="1">
+    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -2726,7 +2732,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="20" customHeight="1">
+    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="4">
         <v>74</v>
       </c>
@@ -2753,7 +2759,7 @@
       <c r="J2" s="3"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="20" customHeight="1">
+    <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="4">
         <v>220</v>
       </c>
@@ -2809,7 +2815,7 @@
       <c r="J4" s="5"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:11" ht="20" customHeight="1">
+    <row r="5" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="4">
         <v>315</v>
       </c>
@@ -2836,7 +2842,7 @@
       <c r="J5" s="5"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" ht="20" customHeight="1">
+    <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="4">
         <v>352</v>
       </c>
@@ -2865,7 +2871,7 @@
       <c r="J6" s="5"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11" ht="20" customHeight="1">
+    <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="4">
         <v>480</v>
       </c>
@@ -2892,7 +2898,7 @@
       <c r="J7" s="5"/>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="1:11" ht="20" customHeight="1">
+    <row r="8" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="4">
         <v>493</v>
       </c>
@@ -2919,7 +2925,7 @@
       <c r="J8" s="5"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:11" ht="20" customHeight="1">
+    <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="4">
         <v>611</v>
       </c>
@@ -2948,7 +2954,7 @@
       <c r="J9" s="5"/>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="1:11" ht="20" customHeight="1">
+    <row r="10" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="4">
         <v>729</v>
       </c>
@@ -2975,7 +2981,7 @@
       <c r="J10" s="5"/>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="1:11" ht="20" customHeight="1">
+    <row r="11" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="4">
         <v>1095</v>
       </c>
@@ -3033,7 +3039,7 @@
       <c r="J12" s="5"/>
       <c r="K12" s="4"/>
     </row>
-    <row r="13" spans="1:11" ht="20" customHeight="1">
+    <row r="13" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="4">
         <v>1825</v>
       </c>
@@ -3062,7 +3068,7 @@
       <c r="J13" s="5"/>
       <c r="K13" s="4"/>
     </row>
-    <row r="14" spans="1:11" ht="20" customHeight="1">
+    <row r="14" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="4">
         <v>2034</v>
       </c>
@@ -3091,7 +3097,7 @@
       <c r="J14" s="5"/>
       <c r="K14" s="4"/>
     </row>
-    <row r="15" spans="1:11" ht="20" customHeight="1">
+    <row r="15" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="4">
         <v>2102</v>
       </c>
@@ -3176,11 +3182,11 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="36" customWidth="1"/>
-    <col min="3" max="3" width="35.796875" style="14" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="14" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
     <col min="6" max="8" width="21" customWidth="1"/>
@@ -3188,7 +3194,7 @@
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20" customHeight="1">
+    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -3223,7 +3229,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="20" customHeight="1">
+    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="4">
         <v>113</v>
       </c>
@@ -3250,7 +3256,7 @@
       <c r="J2" s="5"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" ht="20" customHeight="1">
+    <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="4">
         <v>114</v>
       </c>
@@ -3277,7 +3283,7 @@
       <c r="J3" s="5"/>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:11" ht="20" customHeight="1">
+    <row r="4" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="4">
         <v>129</v>
       </c>
@@ -3333,7 +3339,7 @@
       <c r="J5" s="5"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" ht="20" customHeight="1">
+    <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="4">
         <v>341</v>
       </c>
@@ -3360,7 +3366,7 @@
       <c r="J6" s="5"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11" ht="20" customHeight="1">
+    <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="4">
         <v>399</v>
       </c>
@@ -3391,7 +3397,7 @@
       <c r="J7" s="5"/>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="1:11" ht="20" customHeight="1">
+    <row r="8" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="4">
         <v>437</v>
       </c>
@@ -3418,7 +3424,7 @@
       <c r="J8" s="5"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:11" ht="20" customHeight="1">
+    <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="4">
         <v>508</v>
       </c>
@@ -3445,7 +3451,7 @@
       <c r="J9" s="5"/>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="1:11" ht="20" customHeight="1">
+    <row r="10" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="4">
         <v>623</v>
       </c>
@@ -3600,11 +3606,11 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="43.19921875" customWidth="1"/>
-    <col min="3" max="3" width="35.796875" style="11" customWidth="1"/>
+    <col min="2" max="2" width="43.140625" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="11" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
     <col min="6" max="8" width="21" customWidth="1"/>
@@ -3612,7 +3618,7 @@
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20" customHeight="1">
+    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -3763,7 +3769,7 @@
       <c r="J5" s="5"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" ht="20" customHeight="1">
+    <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="4">
         <v>513</v>
       </c>
@@ -3790,7 +3796,7 @@
       <c r="J6" s="5"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11" ht="20" customHeight="1">
+    <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="4">
         <v>515</v>
       </c>
@@ -3846,7 +3852,7 @@
       <c r="J8" s="5"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:11" ht="20" customHeight="1">
+    <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="4">
         <v>958</v>
       </c>
@@ -3873,7 +3879,7 @@
       <c r="J9" s="5"/>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="1:11" ht="20" customHeight="1">
+    <row r="10" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="4">
         <v>987</v>
       </c>
@@ -3900,7 +3906,7 @@
       <c r="J10" s="5"/>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="1:11" ht="20" customHeight="1">
+    <row r="11" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="4">
         <v>1161</v>
       </c>
@@ -3966,11 +3972,11 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="43.19921875" customWidth="1"/>
-    <col min="3" max="3" width="35.796875" style="11" customWidth="1"/>
+    <col min="2" max="2" width="43.140625" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="11" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
     <col min="6" max="8" width="21" customWidth="1"/>
@@ -3978,7 +3984,7 @@
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20" customHeight="1">
+    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -4068,15 +4074,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BC7A267-6069-4E38-AC2F-0C28241496B0}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="25.796875" customWidth="1"/>
-    <col min="3" max="3" width="35.796875" style="20" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="20" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="41" customWidth="1"/>
     <col min="6" max="8" width="21" customWidth="1"/>
@@ -4084,7 +4090,7 @@
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20" customHeight="1">
+    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -4119,69 +4125,98 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="30" customHeight="1">
+    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="6">
-        <v>1172</v>
+        <v>895</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="17" t="s">
-        <v>225</v>
-      </c>
-      <c r="F2" s="4"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="4" t="s">
+        <v>231</v>
+      </c>
       <c r="G2" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>44</v>
       </c>
       <c r="I2" s="5">
-        <v>45511</v>
+        <v>45512</v>
       </c>
       <c r="J2" s="5"/>
       <c r="K2" s="4"/>
     </row>
     <row r="3" spans="1:11" ht="30" customHeight="1">
       <c r="A3" s="6">
-        <v>2454</v>
+        <v>1172</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>222</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>158</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="F3" s="4"/>
       <c r="G3" s="4" t="s">
-        <v>205</v>
+        <v>44</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>44</v>
       </c>
       <c r="I3" s="5">
-        <v>45505</v>
+        <v>45511</v>
       </c>
       <c r="J3" s="5"/>
       <c r="K3" s="4"/>
     </row>
+    <row r="4" spans="1:11" ht="30" customHeight="1">
+      <c r="A4" s="6">
+        <v>2454</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" s="5">
+        <v>45505</v>
+      </c>
+      <c r="J4" s="5"/>
+      <c r="K4" s="4"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D2:D3">
+  <conditionalFormatting sqref="D2:D4">
     <cfRule type="expression" dxfId="17" priority="1">
       <formula>D2="Easy"</formula>
     </cfRule>
@@ -4193,11 +4228,12 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{2A05BB37-BC02-459B-AC3A-04B564121776}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{06DB2703-F6E1-40EC-B489-AF23524010D7}"/>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{2A05BB37-BC02-459B-AC3A-04B564121776}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{06DB2703-F6E1-40EC-B489-AF23524010D7}"/>
+    <hyperlink ref="C2" r:id="rId3" xr:uid="{97AD58DC-D294-479E-8558-0A9E71B6BB4E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId4"/>
   <headerFooter>
     <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 General</oddFooter>
   </headerFooter>
@@ -4210,11 +4246,11 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="46" customWidth="1"/>
-    <col min="3" max="3" width="65.796875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="65.85546875" style="9" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
     <col min="6" max="8" width="21" customWidth="1"/>
@@ -4222,7 +4258,7 @@
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20" customHeight="1">
+    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -4257,7 +4293,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="20" customHeight="1">
+    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="4">
         <v>208</v>
       </c>
@@ -4284,7 +4320,7 @@
       <c r="J2" s="5"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" ht="20" customHeight="1">
+    <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="4">
         <v>211</v>
       </c>
@@ -4313,7 +4349,7 @@
       <c r="J3" s="5"/>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:11" ht="20" customHeight="1">
+    <row r="4" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="4">
         <v>386</v>
       </c>
@@ -4342,7 +4378,7 @@
       <c r="J4" s="5"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:11" ht="20" customHeight="1">
+    <row r="5" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="4">
         <v>648</v>
       </c>
@@ -4369,7 +4405,7 @@
       <c r="J5" s="5"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" ht="20" customHeight="1">
+    <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="4">
         <v>677</v>
       </c>
@@ -4398,7 +4434,7 @@
       <c r="J6" s="5"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11" ht="20" customHeight="1">
+    <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="4">
         <v>720</v>
       </c>
@@ -4456,7 +4492,7 @@
       <c r="J8" s="5"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:11" ht="20" customHeight="1">
+    <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="4">
         <v>1268</v>
       </c>
@@ -4552,10 +4588,10 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="45.796875" customWidth="1"/>
+    <col min="2" max="2" width="45.85546875" customWidth="1"/>
     <col min="3" max="3" width="71" style="9" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
@@ -4564,7 +4600,7 @@
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20" customHeight="1">
+    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -4599,7 +4635,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="20" customHeight="1">
+    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="4">
         <v>3</v>
       </c>
@@ -4626,7 +4662,7 @@
       <c r="J2" s="5"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" ht="20" customHeight="1">
+    <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="4">
         <v>1695</v>
       </c>
@@ -4683,11 +4719,11 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="28.59765625" customWidth="1"/>
-    <col min="3" max="3" width="65.796875" style="9" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" customWidth="1"/>
+    <col min="3" max="3" width="65.85546875" style="9" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
     <col min="6" max="8" width="21" customWidth="1"/>
@@ -4695,7 +4731,7 @@
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20" customHeight="1">
+    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -4730,7 +4766,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="20" customHeight="1">
+    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="4">
         <v>41</v>
       </c>
@@ -4761,7 +4797,7 @@
       </c>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" ht="20" customHeight="1">
+    <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="4">
         <v>287</v>
       </c>
@@ -4788,7 +4824,7 @@
       <c r="J3" s="5"/>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:11" ht="20" customHeight="1">
+    <row r="4" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="4">
         <v>645</v>
       </c>

--- a/LeetCode Techniques.xlsx
+++ b/LeetCode Techniques.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jack.yao\Desktop\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D495B4CE-CF63-49A9-976A-7BF267B2D07C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15C12E63-A09F-46ED-9BFF-1D03101CD49D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="234">
   <si>
     <t>Name</t>
   </si>
@@ -942,6 +942,12 @@
   </si>
   <si>
     <t>Binary Search, Hash</t>
+  </si>
+  <si>
+    <t>Design Skiplist</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/design-skiplist/description/</t>
   </si>
 </sst>
 </file>
@@ -3968,7 +3974,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD487089-E40B-1D42-B3C9-4A2FB14888DF}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -3976,9 +3982,9 @@
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="43.140625" customWidth="1"/>
-    <col min="3" max="3" width="35.85546875" style="11" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="20" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="36" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" customWidth="1"/>
     <col min="6" max="8" width="21" customWidth="1"/>
     <col min="9" max="10" width="16" style="1" customWidth="1"/>
     <col min="11" max="11" width="16" customWidth="1"/>
@@ -3991,7 +3997,7 @@
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -4026,7 +4032,7 @@
       <c r="B2" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="19" t="s">
         <v>227</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -4048,9 +4054,36 @@
       <c r="J2" s="5"/>
       <c r="K2" s="4"/>
     </row>
+    <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="A3" s="4">
+        <v>1206</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="17"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" s="5">
+        <v>45512</v>
+      </c>
+      <c r="J3" s="5"/>
+      <c r="K3" s="4"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D2">
+  <conditionalFormatting sqref="D2:D3">
     <cfRule type="expression" dxfId="20" priority="1">
       <formula>D2="Easy"</formula>
     </cfRule>
@@ -4063,9 +4096,10 @@
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{4E41E20D-D2BC-4440-AE67-25CEA75BC5AF}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{9685A890-011F-4816-84AE-49BBB2792474}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId3"/>
   <headerFooter>
     <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 General</oddFooter>
   </headerFooter>

--- a/LeetCode Techniques.xlsx
+++ b/LeetCode Techniques.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jack.yao\Desktop\LeetCode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/blackjack625/Desktop/LeetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15C12E63-A09F-46ED-9BFF-1D03101CD49D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00A54C21-A70B-DC42-8BEA-C161C5A5AB96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="20640" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DP" sheetId="8" r:id="rId1"/>
     <sheet name="Binary Search" sheetId="1" r:id="rId2"/>
-    <sheet name="DFS" sheetId="6" r:id="rId3"/>
+    <sheet name="Hash" sheetId="10" r:id="rId3"/>
     <sheet name="BFS" sheetId="7" r:id="rId4"/>
-    <sheet name="Hash" sheetId="10" r:id="rId5"/>
+    <sheet name="DFS" sheetId="6" r:id="rId5"/>
     <sheet name="Stack" sheetId="9" r:id="rId6"/>
     <sheet name="Trie" sheetId="4" r:id="rId7"/>
     <sheet name="Sliding Window" sheetId="2" r:id="rId8"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="252">
   <si>
     <t>Name</t>
   </si>
@@ -525,9 +525,6 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/evaluate-division/description/</t>
-  </si>
-  <si>
-    <t>Use dict to build graph and trace nodes.</t>
   </si>
   <si>
     <t>Graph</t>
@@ -949,25 +946,101 @@
   <si>
     <t>https://leetcode.com/problems/design-skiplist/description/</t>
   </si>
+  <si>
+    <t>Dict builds graph and traces nodes.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LFU Cache</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/lfu-cache/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>All O`one Data Structure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/all-oone-data-structure/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remove Duplicates from Sorted Array II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/remove-duplicates-from-sorted-array-ii/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reduce Array Size to The Half</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/reduce-array-size-to-the-half/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Top K Frequent Elements</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/top-k-frequent-elements/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apply Operations to Make String Empty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/apply-operations-to-make-string-empty/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Destroy Sequential Targets</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/destroy-sequential-targets/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Top K Frequent Words</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/top-k-frequent-words/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Find Median from Data Stream</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-median-from-data-stream/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -991,7 +1064,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1055,17 +1128,20 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Microsoft YaHei"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color theme="10"/>
       <name val="Microsoft YaHei"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Microsoft YaHei"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1106,17 +1182,17 @@
   </cellStyleXfs>
   <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1158,8 +1234,8 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="36">
     <dxf>
@@ -1826,11 +1902,11 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="46" customWidth="1"/>
-    <col min="3" max="3" width="40.85546875" style="14" customWidth="1"/>
+    <col min="3" max="3" width="40.796875" style="14" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
     <col min="6" max="8" width="21" customWidth="1"/>
@@ -1838,7 +1914,7 @@
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:11" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -1873,15 +1949,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:11" ht="20" customHeight="1">
       <c r="A2" s="4">
         <v>53</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>150</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>151</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>49</v>
@@ -1900,15 +1976,15 @@
       <c r="J2" s="5"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:11" ht="20" customHeight="1">
       <c r="A3" s="4">
         <v>62</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>49</v>
@@ -1932,16 +2008,16 @@
         <v>63</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>49</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
@@ -1956,15 +2032,15 @@
       <c r="J4" s="5"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="1:11" ht="20" customHeight="1">
       <c r="A5" s="4">
         <v>64</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>49</v>
@@ -1983,15 +2059,15 @@
       <c r="J5" s="5"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="1:11" ht="20" customHeight="1">
       <c r="A6" s="4">
         <v>120</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>147</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>148</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>10</v>
@@ -2015,16 +2091,16 @@
         <v>124</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>137</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>138</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>72</v>
@@ -2046,16 +2122,16 @@
         <v>152</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C8" s="13" t="s">
         <v>152</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>153</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>49</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
@@ -2070,22 +2146,22 @@
       <c r="J8" s="5"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:11" ht="20" customHeight="1">
       <c r="A9" s="4">
         <v>198</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>49</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>11</v>
@@ -2104,19 +2180,19 @@
         <v>213</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>49</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>44</v>
@@ -2130,28 +2206,28 @@
       <c r="J10" s="5"/>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="1:11" ht="20" customHeight="1">
       <c r="A11" s="4">
         <v>279</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C11" s="13" t="s">
         <v>177</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>178</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>49</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I11" s="5">
         <v>45495</v>
@@ -2164,23 +2240,23 @@
         <v>322</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>49</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="H12" s="4" t="s">
         <v>167</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>168</v>
       </c>
       <c r="I12" s="5">
         <v>45495</v>
@@ -2193,19 +2269,19 @@
         <v>337</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C13" s="13" t="s">
         <v>160</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>161</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>49</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>44</v>
@@ -2219,25 +2295,25 @@
       <c r="J13" s="5"/>
       <c r="K13" s="4"/>
     </row>
-    <row r="14" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="1:11" ht="20" customHeight="1">
       <c r="A14" s="4">
         <v>343</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C14" s="13" t="s">
         <v>181</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>182</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>49</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>44</v>
@@ -2253,23 +2329,23 @@
         <v>377</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C15" s="13" t="s">
         <v>185</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>186</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>49</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="H15" s="4" t="s">
         <v>187</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>188</v>
       </c>
       <c r="I15" s="5">
         <v>45495</v>
@@ -2282,23 +2358,23 @@
         <v>518</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C16" s="13" t="s">
         <v>170</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>171</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>49</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="H16" s="4" t="s">
         <v>167</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>168</v>
       </c>
       <c r="I16" s="5">
         <v>45495</v>
@@ -2306,24 +2382,24 @@
       <c r="J16" s="5"/>
       <c r="K16" s="4"/>
     </row>
-    <row r="17" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="17" spans="1:11" ht="20" customHeight="1">
       <c r="A17" s="4">
         <v>907</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C17" s="13" t="s">
         <v>192</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>193</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>11</v>
@@ -2337,15 +2413,15 @@
       <c r="J17" s="5"/>
       <c r="K17" s="4"/>
     </row>
-    <row r="18" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="18" spans="1:11" ht="20" customHeight="1">
       <c r="A18" s="4">
         <v>931</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>10</v>
@@ -2353,7 +2429,7 @@
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>11</v>
@@ -2364,15 +2440,15 @@
       <c r="J18" s="5"/>
       <c r="K18" s="4"/>
     </row>
-    <row r="19" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="19" spans="1:11" ht="20" customHeight="1">
       <c r="A19" s="4">
         <v>1220</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C19" s="13" t="s">
         <v>217</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>218</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>16</v>
@@ -2396,22 +2472,22 @@
         <v>1289</v>
       </c>
       <c r="B20" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C20" s="13" t="s">
         <v>156</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>157</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F20" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="G20" s="4" t="s">
         <v>158</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>159</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>11</v>
@@ -2422,15 +2498,15 @@
       <c r="J20" s="5"/>
       <c r="K20" s="4"/>
     </row>
-    <row r="21" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="21" spans="1:11" ht="20" customHeight="1">
       <c r="A21" s="4">
         <v>1301</v>
       </c>
       <c r="B21" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C21" s="13" t="s">
         <v>207</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>208</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>16</v>
@@ -2438,10 +2514,10 @@
       <c r="E21" s="6"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I21" s="5">
         <v>45497</v>
@@ -2449,15 +2525,15 @@
       <c r="J21" s="5"/>
       <c r="K21" s="4"/>
     </row>
-    <row r="22" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="22" spans="1:11" ht="20" customHeight="1">
       <c r="A22" s="4">
         <v>1359</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>58</v>
@@ -2481,19 +2557,19 @@
         <v>1373</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E23" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="F23" s="4" t="s">
         <v>210</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>211</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>44</v>
@@ -2507,28 +2583,28 @@
       <c r="J23" s="5"/>
       <c r="K23" s="4"/>
     </row>
-    <row r="24" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="24" spans="1:11" ht="20" customHeight="1">
       <c r="A24" s="4">
         <v>1449</v>
       </c>
       <c r="B24" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C24" s="13" t="s">
         <v>213</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>214</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I24" s="5">
         <v>45502</v>
@@ -2587,11 +2663,11 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="35.85546875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="35.796875" style="9" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
     <col min="6" max="8" width="21" customWidth="1"/>
@@ -2599,7 +2675,7 @@
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:11" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -2634,7 +2710,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:11" ht="20" customHeight="1">
       <c r="A2" s="4">
         <v>394</v>
       </c>
@@ -2687,15 +2763,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="38.140625" customWidth="1"/>
-    <col min="3" max="3" width="71" style="9" customWidth="1"/>
+    <col min="2" max="2" width="38.19921875" customWidth="1"/>
+    <col min="3" max="3" width="71" style="11" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
     <col min="6" max="8" width="21" customWidth="1"/>
@@ -2703,7 +2779,7 @@
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:11" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -2738,7 +2814,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:11" ht="20" customHeight="1">
       <c r="A2" s="4">
         <v>74</v>
       </c>
@@ -2765,7 +2841,7 @@
       <c r="J2" s="3"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:11" ht="20" customHeight="1">
       <c r="A3" s="4">
         <v>220</v>
       </c>
@@ -2792,127 +2868,127 @@
       <c r="J3" s="3"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" ht="30" customHeight="1">
+    <row r="4" spans="1:11" ht="20" customHeight="1">
       <c r="A4" s="4">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>28</v>
+        <v>250</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>27</v>
+        <v>251</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="F4" s="4"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
       <c r="G4" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="I4" s="5">
-        <v>45418</v>
-      </c>
-      <c r="J4" s="5"/>
-      <c r="K4" s="4"/>
-    </row>
-    <row r="5" spans="1:11" ht="20.100000000000001" customHeight="1">
+        <v>45382</v>
+      </c>
+      <c r="J4" s="3"/>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:11" ht="30" customHeight="1">
       <c r="A5" s="4">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="4"/>
+      <c r="E5" s="6" t="s">
+        <v>84</v>
+      </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="I5" s="5">
-        <v>45394</v>
+        <v>45418</v>
       </c>
       <c r="J5" s="5"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="1:11" ht="20" customHeight="1">
       <c r="A6" s="4">
-        <v>352</v>
+        <v>315</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E6" s="4"/>
-      <c r="F6" s="4" t="s">
-        <v>35</v>
-      </c>
+      <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I6" s="5">
-        <v>45401</v>
+        <v>45394</v>
       </c>
       <c r="J6" s="5"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="1:11" ht="20" customHeight="1">
       <c r="A7" s="4">
-        <v>480</v>
+        <v>352</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
+      <c r="F7" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="G7" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I7" s="5">
-        <v>45400</v>
+        <v>45401</v>
       </c>
       <c r="J7" s="5"/>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="1:11" ht="20" customHeight="1">
       <c r="A8" s="4">
-        <v>493</v>
+        <v>480</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>16</v>
@@ -2923,36 +2999,34 @@
         <v>12</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="I8" s="5">
-        <v>45395</v>
+        <v>45400</v>
       </c>
       <c r="J8" s="5"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:11" ht="20" customHeight="1">
       <c r="A9" s="4">
-        <v>611</v>
+        <v>493</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E9" s="4"/>
-      <c r="F9" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="I9" s="5">
         <v>45395</v>
@@ -2960,45 +3034,47 @@
       <c r="J9" s="5"/>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="1:11" ht="20" customHeight="1">
       <c r="A10" s="4">
-        <v>729</v>
+        <v>611</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
+      <c r="F10" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="G10" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I10" s="5">
-        <v>45420</v>
+        <v>45395</v>
       </c>
       <c r="J10" s="5"/>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="1:11" ht="20" customHeight="1">
       <c r="A11" s="4">
-        <v>1095</v>
+        <v>729</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -3006,38 +3082,34 @@
         <v>14</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="I11" s="5">
-        <v>45482</v>
+        <v>45420</v>
       </c>
       <c r="J11" s="5"/>
       <c r="K11" s="4"/>
     </row>
-    <row r="12" spans="1:11" ht="30" customHeight="1">
+    <row r="12" spans="1:11" ht="20" customHeight="1">
       <c r="A12" s="4">
-        <v>1649</v>
+        <v>1095</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>59</v>
-      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
       <c r="G12" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="I12" s="5">
         <v>45482</v>
@@ -3045,47 +3117,49 @@
       <c r="J12" s="5"/>
       <c r="K12" s="4"/>
     </row>
-    <row r="13" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="1:11" ht="30" customHeight="1">
       <c r="A13" s="4">
-        <v>1825</v>
+        <v>1649</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="4"/>
+        <v>58</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>85</v>
+      </c>
       <c r="F13" s="4" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I13" s="5">
-        <v>45400</v>
+        <v>45482</v>
       </c>
       <c r="J13" s="5"/>
       <c r="K13" s="4"/>
     </row>
-    <row r="14" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="1:11" ht="20" customHeight="1">
       <c r="A14" s="4">
-        <v>2034</v>
+        <v>1825</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4" t="s">
@@ -3103,18 +3177,18 @@
       <c r="J14" s="5"/>
       <c r="K14" s="4"/>
     </row>
-    <row r="15" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="1:11" ht="20" customHeight="1">
       <c r="A15" s="4">
-        <v>2102</v>
+        <v>2034</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4" t="s">
@@ -3127,17 +3201,46 @@
         <v>11</v>
       </c>
       <c r="I15" s="5">
-        <v>45420</v>
+        <v>45400</v>
       </c>
       <c r="J15" s="5"/>
       <c r="K15" s="4"/>
     </row>
+    <row r="16" spans="1:11" ht="20" customHeight="1">
+      <c r="A16" s="4">
+        <v>2102</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I16" s="5">
+        <v>45420</v>
+      </c>
+      <c r="J16" s="5"/>
+      <c r="K16" s="4"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K15">
-    <sortCondition ref="A2:A15"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K16">
+    <sortCondition ref="A2:A16"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D2:D3">
+  <conditionalFormatting sqref="D2:D4">
     <cfRule type="expression" dxfId="32" priority="1">
       <formula>D2="Easy"</formula>
     </cfRule>
@@ -3148,34 +3251,35 @@
       <formula>D2="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4:E15">
+  <conditionalFormatting sqref="D5:E16">
     <cfRule type="expression" dxfId="29" priority="4">
-      <formula>D4="Easy"</formula>
+      <formula>D5="Easy"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="28" priority="5">
-      <formula>D4="Medium"</formula>
+      <formula>D5="Medium"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="27" priority="6">
-      <formula>D4="Hard"</formula>
+      <formula>D5="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="C7" r:id="rId1" xr:uid="{98DA09B4-ED1E-9841-BFC0-AD6132AF476B}"/>
-    <hyperlink ref="C9" r:id="rId2" xr:uid="{355AB06F-F372-E64C-BB34-3D68811E6B00}"/>
-    <hyperlink ref="C5" r:id="rId3" xr:uid="{A97C1B49-93D0-D74A-BF3C-F925EFE9FD83}"/>
-    <hyperlink ref="C15" r:id="rId4" xr:uid="{4C375694-D494-514B-B747-D72CA94420E6}"/>
-    <hyperlink ref="C14" r:id="rId5" xr:uid="{5E8F7E04-6349-4D42-B16F-92BF0082A8EC}"/>
-    <hyperlink ref="C4" r:id="rId6" xr:uid="{C06E2E2A-F9EA-2C41-A2A2-0110BB4FE089}"/>
-    <hyperlink ref="C8" r:id="rId7" xr:uid="{88F29B63-471E-1745-ABA5-15B0EE490696}"/>
-    <hyperlink ref="C13" r:id="rId8" xr:uid="{77B0B942-637D-9846-B52B-162446D656B7}"/>
+    <hyperlink ref="C8" r:id="rId1" xr:uid="{98DA09B4-ED1E-9841-BFC0-AD6132AF476B}"/>
+    <hyperlink ref="C10" r:id="rId2" xr:uid="{355AB06F-F372-E64C-BB34-3D68811E6B00}"/>
+    <hyperlink ref="C6" r:id="rId3" xr:uid="{A97C1B49-93D0-D74A-BF3C-F925EFE9FD83}"/>
+    <hyperlink ref="C16" r:id="rId4" xr:uid="{4C375694-D494-514B-B747-D72CA94420E6}"/>
+    <hyperlink ref="C15" r:id="rId5" xr:uid="{5E8F7E04-6349-4D42-B16F-92BF0082A8EC}"/>
+    <hyperlink ref="C5" r:id="rId6" xr:uid="{C06E2E2A-F9EA-2C41-A2A2-0110BB4FE089}"/>
+    <hyperlink ref="C9" r:id="rId7" xr:uid="{88F29B63-471E-1745-ABA5-15B0EE490696}"/>
+    <hyperlink ref="C14" r:id="rId8" xr:uid="{77B0B942-637D-9846-B52B-162446D656B7}"/>
     <hyperlink ref="C2" r:id="rId9" xr:uid="{FC6DC5BC-3B79-3A47-AD69-9FD63EE06424}"/>
-    <hyperlink ref="C6" r:id="rId10" xr:uid="{82F4789C-38A4-1A4D-BA41-951136E51502}"/>
-    <hyperlink ref="C10" r:id="rId11" xr:uid="{87D58C84-2A2E-5243-AD6C-F126296F2572}"/>
-    <hyperlink ref="C11" r:id="rId12" xr:uid="{E17A87F3-1678-4780-AF58-F4783F4A7A65}"/>
-    <hyperlink ref="C12" r:id="rId13" xr:uid="{AB427796-2FCF-4F37-AC47-998ADDB37E09}"/>
+    <hyperlink ref="C7" r:id="rId10" xr:uid="{82F4789C-38A4-1A4D-BA41-951136E51502}"/>
+    <hyperlink ref="C11" r:id="rId11" xr:uid="{87D58C84-2A2E-5243-AD6C-F126296F2572}"/>
+    <hyperlink ref="C12" r:id="rId12" xr:uid="{E17A87F3-1678-4780-AF58-F4783F4A7A65}"/>
+    <hyperlink ref="C13" r:id="rId13" xr:uid="{AB427796-2FCF-4F37-AC47-998ADDB37E09}"/>
+    <hyperlink ref="C4" r:id="rId14" xr:uid="{322F67A3-4E60-134A-9BA1-AF1822132017}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId14"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId15"/>
   <headerFooter>
     <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 General</oddFooter>
   </headerFooter>
@@ -3183,31 +3287,31 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C287181F-E765-1C4E-B964-9C9FDBE62A17}">
-  <dimension ref="A1:K13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD487089-E40B-1D42-B3C9-4A2FB14888DF}">
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="36" customWidth="1"/>
-    <col min="3" max="3" width="35.85546875" style="14" customWidth="1"/>
+    <col min="2" max="2" width="43.19921875" customWidth="1"/>
+    <col min="3" max="3" width="35.796875" style="11" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="36" customWidth="1"/>
+    <col min="5" max="5" width="25.796875" customWidth="1"/>
     <col min="6" max="8" width="21" customWidth="1"/>
     <col min="9" max="10" width="16" style="1" customWidth="1"/>
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:11" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -3235,345 +3339,281 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:11" ht="20" customHeight="1">
       <c r="A2" s="4">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>94</v>
+        <v>238</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>239</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="E2" s="17"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>44</v>
       </c>
       <c r="I2" s="5">
-        <v>45486</v>
+        <v>45390</v>
       </c>
       <c r="J2" s="5"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:11" ht="20" customHeight="1">
       <c r="A3" s="4">
-        <v>114</v>
+        <v>347</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>95</v>
+        <v>242</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>243</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E3" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="E3" s="17"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>44</v>
       </c>
       <c r="I3" s="5">
-        <v>45486</v>
+        <v>45377</v>
       </c>
       <c r="J3" s="5"/>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="1:11" ht="30" customHeight="1">
       <c r="A4" s="4">
-        <v>129</v>
+        <v>381</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>99</v>
+        <v>225</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>226</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" s="4"/>
+        <v>16</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>227</v>
+      </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="I4" s="5">
-        <v>45487</v>
+        <v>45511</v>
       </c>
       <c r="J4" s="5"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:11" ht="30" customHeight="1">
+    <row r="5" spans="1:11" ht="20" customHeight="1">
       <c r="A5" s="4">
-        <v>297</v>
+        <v>432</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>198</v>
+        <v>236</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>237</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>199</v>
-      </c>
+      <c r="E5" s="17"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>44</v>
       </c>
       <c r="I5" s="5">
-        <v>45497</v>
+        <v>45512</v>
       </c>
       <c r="J5" s="5"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="1:11" ht="20" customHeight="1">
       <c r="A6" s="4">
-        <v>341</v>
+        <v>460</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>101</v>
+        <v>234</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>235</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" s="4"/>
+        <v>16</v>
+      </c>
+      <c r="E6" s="17"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>44</v>
       </c>
       <c r="I6" s="5">
-        <v>45487</v>
+        <v>45514</v>
       </c>
       <c r="J6" s="5"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="1:11" ht="20" customHeight="1">
       <c r="A7" s="4">
-        <v>399</v>
+        <v>692</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>129</v>
+        <v>248</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>249</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>131</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="E7" s="17"/>
+      <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>44</v>
       </c>
       <c r="I7" s="5">
-        <v>45490</v>
+        <v>45400</v>
       </c>
       <c r="J7" s="5"/>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="1:11" ht="20" customHeight="1">
       <c r="A8" s="4">
-        <v>437</v>
+        <v>1206</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>105</v>
+        <v>231</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>232</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" s="4"/>
+        <v>16</v>
+      </c>
+      <c r="E8" s="17"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>44</v>
       </c>
       <c r="I8" s="5">
-        <v>45487</v>
+        <v>45512</v>
       </c>
       <c r="J8" s="5"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:11" ht="20" customHeight="1">
       <c r="A9" s="4">
-        <v>508</v>
+        <v>1338</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>107</v>
+        <v>240</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>241</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="E9" s="17"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>44</v>
       </c>
       <c r="I9" s="5">
-        <v>45487</v>
+        <v>45383</v>
       </c>
       <c r="J9" s="5"/>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="1:11" ht="20" customHeight="1">
       <c r="A10" s="4">
-        <v>623</v>
+        <v>2453</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>111</v>
+        <v>246</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>247</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="E10" s="17"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="I10" s="5">
-        <v>45488</v>
+        <v>45389</v>
       </c>
       <c r="J10" s="5"/>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="1:11" ht="30" customHeight="1">
+    <row r="11" spans="1:11" ht="20" customHeight="1">
       <c r="A11" s="4">
-        <v>652</v>
+        <v>3039</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>113</v>
+        <v>244</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>245</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>114</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="E11" s="17"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>44</v>
       </c>
       <c r="I11" s="5">
-        <v>45488</v>
+        <v>45389</v>
       </c>
       <c r="J11" s="5"/>
       <c r="K11" s="4"/>
     </row>
-    <row r="12" spans="1:11" ht="30" customHeight="1">
-      <c r="A12" s="4">
-        <v>687</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I12" s="5">
-        <v>45488</v>
-      </c>
-      <c r="J12" s="5"/>
-      <c r="K12" s="4"/>
-    </row>
-    <row r="13" spans="1:11" ht="30" customHeight="1">
-      <c r="A13" s="4">
-        <v>1028</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I13" s="5">
-        <v>46227</v>
-      </c>
-      <c r="J13" s="5"/>
-      <c r="K13" s="4"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D2:D13">
+  <conditionalFormatting sqref="D2:D11">
     <cfRule type="expression" dxfId="26" priority="1">
       <formula>D2="Easy"</formula>
     </cfRule>
@@ -3585,21 +3625,19 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{6D7B591D-348C-3F48-8F5D-0CC1D7D323A3}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{75408504-4022-5F46-87C2-C45DD0C84D7E}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{58EBA3C8-38C3-AD4D-86B6-2BD56DBBCDCD}"/>
-    <hyperlink ref="C6" r:id="rId4" xr:uid="{63AC3368-EC03-1949-9ACD-8B642757EADB}"/>
-    <hyperlink ref="C8" r:id="rId5" xr:uid="{5CC483BA-CBD2-634B-808B-DA60BB15872A}"/>
-    <hyperlink ref="C9" r:id="rId6" xr:uid="{3C24C6AF-34E6-D142-95AA-D541F8679AD8}"/>
-    <hyperlink ref="C10" r:id="rId7" xr:uid="{DC0AB236-A846-624D-8598-9984C67224C0}"/>
-    <hyperlink ref="C11" r:id="rId8" xr:uid="{92D47051-6BA8-D549-944F-00B0154554E6}"/>
-    <hyperlink ref="C12" r:id="rId9" xr:uid="{CBAD603C-7336-874C-B3F7-58227D327CE0}"/>
-    <hyperlink ref="C7" r:id="rId10" xr:uid="{98CD3759-6763-4A59-8FC7-20CD817AC0B4}"/>
-    <hyperlink ref="C5" r:id="rId11" xr:uid="{771DB7BE-9583-0E44-8EF3-4714468AC75F}"/>
-    <hyperlink ref="C13" r:id="rId12" xr:uid="{C87FACE2-57DF-42EB-A096-07A06FCC6675}"/>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{4E41E20D-D2BC-4440-AE67-25CEA75BC5AF}"/>
+    <hyperlink ref="C8" r:id="rId2" xr:uid="{9685A890-011F-4816-84AE-49BBB2792474}"/>
+    <hyperlink ref="C6" r:id="rId3" xr:uid="{6F1A2238-1287-2F40-8EE2-6EAA6D32A33C}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{4E34D783-1C2D-4C4D-BF5F-B5AC83578067}"/>
+    <hyperlink ref="C2" r:id="rId5" xr:uid="{7FE8783F-F8EF-344A-A755-835CBA16F73C}"/>
+    <hyperlink ref="C9" r:id="rId6" xr:uid="{DC085F9D-442E-D045-90AC-3FAED2B8D1E2}"/>
+    <hyperlink ref="C3" r:id="rId7" xr:uid="{3E16B408-94FF-CC48-BA57-9E6F992C39F1}"/>
+    <hyperlink ref="C11" r:id="rId8" xr:uid="{A0B949A5-8B58-414A-B5CF-3DBFA646D04D}"/>
+    <hyperlink ref="C10" r:id="rId9" xr:uid="{E0F91AFC-4678-5C41-9B9D-2159274B2DAD}"/>
+    <hyperlink ref="C7" r:id="rId10" xr:uid="{64705B96-1F5D-FB4F-847B-9D3471287B5F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId13"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId11"/>
   <headerFooter>
     <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 General</oddFooter>
   </headerFooter>
@@ -3612,11 +3650,11 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="43.140625" customWidth="1"/>
-    <col min="3" max="3" width="35.85546875" style="11" customWidth="1"/>
+    <col min="2" max="2" width="43.19921875" customWidth="1"/>
+    <col min="3" max="3" width="35.796875" style="11" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
     <col min="6" max="8" width="21" customWidth="1"/>
@@ -3624,7 +3662,7 @@
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:11" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -3775,7 +3813,7 @@
       <c r="J5" s="5"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="1:11" ht="20" customHeight="1">
       <c r="A6" s="4">
         <v>513</v>
       </c>
@@ -3802,7 +3840,7 @@
       <c r="J6" s="5"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="1:11" ht="20" customHeight="1">
       <c r="A7" s="4">
         <v>515</v>
       </c>
@@ -3843,7 +3881,7 @@
         <v>49</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
@@ -3858,15 +3896,15 @@
       <c r="J8" s="5"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:11" ht="20" customHeight="1">
       <c r="A9" s="4">
         <v>958</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>132</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>133</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>49</v>
@@ -3885,15 +3923,15 @@
       <c r="J9" s="5"/>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="1:11" ht="20" customHeight="1">
       <c r="A10" s="4">
         <v>987</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>195</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>196</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>16</v>
@@ -3912,15 +3950,15 @@
       <c r="J10" s="5"/>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="1:11" ht="20" customHeight="1">
       <c r="A11" s="4">
         <v>1161</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>135</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>136</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>49</v>
@@ -3973,31 +4011,31 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD487089-E40B-1D42-B3C9-4A2FB14888DF}">
-  <dimension ref="A1:K3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C287181F-E765-1C4E-B964-9C9FDBE62A17}">
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="43.140625" customWidth="1"/>
-    <col min="3" max="3" width="35.85546875" style="20" customWidth="1"/>
+    <col min="2" max="2" width="36" customWidth="1"/>
+    <col min="3" max="3" width="35.796875" style="14" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="25.7109375" customWidth="1"/>
+    <col min="5" max="5" width="36" customWidth="1"/>
     <col min="6" max="8" width="21" customWidth="1"/>
     <col min="9" max="10" width="16" style="1" customWidth="1"/>
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:11" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="12" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -4025,65 +4063,345 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="30" customHeight="1">
+    <row r="2" spans="1:11" ht="20" customHeight="1">
       <c r="A2" s="4">
-        <v>381</v>
+        <v>113</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>227</v>
+        <v>92</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>94</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>228</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>44</v>
       </c>
       <c r="I2" s="5">
-        <v>45511</v>
+        <v>45486</v>
       </c>
       <c r="J2" s="5"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:11" ht="20" customHeight="1">
       <c r="A3" s="4">
-        <v>1206</v>
+        <v>114</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>233</v>
+        <v>93</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>95</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="17"/>
+        <v>49</v>
+      </c>
+      <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>44</v>
       </c>
       <c r="I3" s="5">
-        <v>45512</v>
+        <v>45486</v>
       </c>
       <c r="J3" s="5"/>
       <c r="K3" s="4"/>
     </row>
+    <row r="4" spans="1:11" ht="20" customHeight="1">
+      <c r="A4" s="4">
+        <v>129</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="5">
+        <v>45487</v>
+      </c>
+      <c r="J4" s="5"/>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:11" ht="30" customHeight="1">
+      <c r="A5" s="4">
+        <v>297</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" s="5">
+        <v>45497</v>
+      </c>
+      <c r="J5" s="5"/>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:11" ht="20" customHeight="1">
+      <c r="A6" s="4">
+        <v>341</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" s="5">
+        <v>45487</v>
+      </c>
+      <c r="J6" s="5"/>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="1:11" ht="20" customHeight="1">
+      <c r="A7" s="4">
+        <v>399</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7" s="5">
+        <v>45490</v>
+      </c>
+      <c r="J7" s="5"/>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="1:11" ht="20" customHeight="1">
+      <c r="A8" s="4">
+        <v>437</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" s="5">
+        <v>45487</v>
+      </c>
+      <c r="J8" s="5"/>
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" spans="1:11" ht="20" customHeight="1">
+      <c r="A9" s="4">
+        <v>508</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I9" s="5">
+        <v>45487</v>
+      </c>
+      <c r="J9" s="5"/>
+      <c r="K9" s="4"/>
+    </row>
+    <row r="10" spans="1:11" ht="20" customHeight="1">
+      <c r="A10" s="4">
+        <v>623</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="5">
+        <v>45488</v>
+      </c>
+      <c r="J10" s="5"/>
+      <c r="K10" s="4"/>
+    </row>
+    <row r="11" spans="1:11" ht="30" customHeight="1">
+      <c r="A11" s="4">
+        <v>652</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I11" s="5">
+        <v>45488</v>
+      </c>
+      <c r="J11" s="5"/>
+      <c r="K11" s="4"/>
+    </row>
+    <row r="12" spans="1:11" ht="30" customHeight="1">
+      <c r="A12" s="4">
+        <v>687</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="5">
+        <v>45488</v>
+      </c>
+      <c r="J12" s="5"/>
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" spans="1:11" ht="30" customHeight="1">
+      <c r="A13" s="4">
+        <v>1028</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I13" s="5">
+        <v>46227</v>
+      </c>
+      <c r="J13" s="5"/>
+      <c r="K13" s="4"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D2:D3">
+  <conditionalFormatting sqref="D2:D13">
     <cfRule type="expression" dxfId="20" priority="1">
       <formula>D2="Easy"</formula>
     </cfRule>
@@ -4095,11 +4413,21 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{4E41E20D-D2BC-4440-AE67-25CEA75BC5AF}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{9685A890-011F-4816-84AE-49BBB2792474}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{6D7B591D-348C-3F48-8F5D-0CC1D7D323A3}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{75408504-4022-5F46-87C2-C45DD0C84D7E}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{58EBA3C8-38C3-AD4D-86B6-2BD56DBBCDCD}"/>
+    <hyperlink ref="C6" r:id="rId4" xr:uid="{63AC3368-EC03-1949-9ACD-8B642757EADB}"/>
+    <hyperlink ref="C8" r:id="rId5" xr:uid="{5CC483BA-CBD2-634B-808B-DA60BB15872A}"/>
+    <hyperlink ref="C9" r:id="rId6" xr:uid="{3C24C6AF-34E6-D142-95AA-D541F8679AD8}"/>
+    <hyperlink ref="C10" r:id="rId7" xr:uid="{DC0AB236-A846-624D-8598-9984C67224C0}"/>
+    <hyperlink ref="C11" r:id="rId8" xr:uid="{92D47051-6BA8-D549-944F-00B0154554E6}"/>
+    <hyperlink ref="C12" r:id="rId9" xr:uid="{CBAD603C-7336-874C-B3F7-58227D327CE0}"/>
+    <hyperlink ref="C7" r:id="rId10" xr:uid="{98CD3759-6763-4A59-8FC7-20CD817AC0B4}"/>
+    <hyperlink ref="C5" r:id="rId11" xr:uid="{771DB7BE-9583-0E44-8EF3-4714468AC75F}"/>
+    <hyperlink ref="C13" r:id="rId12" xr:uid="{C87FACE2-57DF-42EB-A096-07A06FCC6675}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId13"/>
   <headerFooter>
     <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 General</oddFooter>
   </headerFooter>
@@ -4112,11 +4440,11 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="25.85546875" customWidth="1"/>
-    <col min="3" max="3" width="35.85546875" style="20" customWidth="1"/>
+    <col min="2" max="2" width="31" customWidth="1"/>
+    <col min="3" max="3" width="35.796875" style="20" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="41" customWidth="1"/>
     <col min="6" max="8" width="21" customWidth="1"/>
@@ -4124,7 +4452,7 @@
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:11" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -4159,22 +4487,22 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:11" ht="20" customHeight="1">
       <c r="A2" s="6">
         <v>895</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="C2" s="19" t="s">
         <v>229</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>230</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="17"/>
       <c r="F2" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>45</v>
@@ -4193,16 +4521,16 @@
         <v>1172</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C3" s="19" t="s">
         <v>223</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>224</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4" t="s">
@@ -4222,22 +4550,22 @@
         <v>2454</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C4" s="19" t="s">
         <v>203</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>204</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>44</v>
@@ -4280,11 +4608,11 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="46" customWidth="1"/>
-    <col min="3" max="3" width="65.85546875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="65.796875" style="9" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
     <col min="6" max="8" width="21" customWidth="1"/>
@@ -4292,7 +4620,7 @@
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:11" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -4327,7 +4655,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:11" ht="20" customHeight="1">
       <c r="A2" s="4">
         <v>208</v>
       </c>
@@ -4354,7 +4682,7 @@
       <c r="J2" s="5"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:11" ht="20" customHeight="1">
       <c r="A3" s="4">
         <v>211</v>
       </c>
@@ -4383,7 +4711,7 @@
       <c r="J3" s="5"/>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="1:11" ht="20" customHeight="1">
       <c r="A4" s="4">
         <v>386</v>
       </c>
@@ -4412,7 +4740,7 @@
       <c r="J4" s="5"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="1:11" ht="20" customHeight="1">
       <c r="A5" s="4">
         <v>648</v>
       </c>
@@ -4439,7 +4767,7 @@
       <c r="J5" s="5"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="1:11" ht="20" customHeight="1">
       <c r="A6" s="4">
         <v>677</v>
       </c>
@@ -4468,7 +4796,7 @@
       <c r="J6" s="5"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="1:11" ht="20" customHeight="1">
       <c r="A7" s="4">
         <v>720</v>
       </c>
@@ -4526,7 +4854,7 @@
       <c r="J8" s="5"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:11" ht="20" customHeight="1">
       <c r="A9" s="4">
         <v>1268</v>
       </c>
@@ -4622,10 +4950,10 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="45.85546875" customWidth="1"/>
+    <col min="2" max="2" width="45.796875" customWidth="1"/>
     <col min="3" max="3" width="71" style="9" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
@@ -4634,7 +4962,7 @@
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:11" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -4669,7 +4997,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:11" ht="20" customHeight="1">
       <c r="A2" s="4">
         <v>3</v>
       </c>
@@ -4696,7 +5024,7 @@
       <c r="J2" s="5"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:11" ht="20" customHeight="1">
       <c r="A3" s="4">
         <v>1695</v>
       </c>
@@ -4753,11 +5081,11 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="28.5703125" customWidth="1"/>
-    <col min="3" max="3" width="65.85546875" style="9" customWidth="1"/>
+    <col min="2" max="2" width="28.59765625" customWidth="1"/>
+    <col min="3" max="3" width="65.796875" style="9" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
     <col min="6" max="8" width="21" customWidth="1"/>
@@ -4765,7 +5093,7 @@
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:11" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -4800,7 +5128,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:11" ht="20" customHeight="1">
       <c r="A2" s="4">
         <v>41</v>
       </c>
@@ -4831,7 +5159,7 @@
       </c>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:11" ht="20" customHeight="1">
       <c r="A3" s="4">
         <v>287</v>
       </c>
@@ -4858,7 +5186,7 @@
       <c r="J3" s="5"/>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="1:11" ht="20" customHeight="1">
       <c r="A4" s="4">
         <v>645</v>
       </c>

--- a/LeetCode Techniques.xlsx
+++ b/LeetCode Techniques.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/blackjack625/Desktop/LeetCode/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jack.yao\Desktop\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00A54C21-A70B-DC42-8BEA-C161C5A5AB96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A8E6C66-3F70-4563-8DBA-2355C1FA9374}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="20640" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DP" sheetId="8" r:id="rId1"/>
     <sheet name="Binary Search" sheetId="1" r:id="rId2"/>
     <sheet name="Hash" sheetId="10" r:id="rId3"/>
-    <sheet name="BFS" sheetId="7" r:id="rId4"/>
-    <sheet name="DFS" sheetId="6" r:id="rId5"/>
-    <sheet name="Stack" sheetId="9" r:id="rId6"/>
-    <sheet name="Trie" sheetId="4" r:id="rId7"/>
-    <sheet name="Sliding Window" sheetId="2" r:id="rId8"/>
-    <sheet name="Set Maneuver" sheetId="3" r:id="rId9"/>
-    <sheet name="Recursion" sheetId="5" r:id="rId10"/>
+    <sheet name="Two Pointers" sheetId="11" r:id="rId4"/>
+    <sheet name="BFS" sheetId="7" r:id="rId5"/>
+    <sheet name="DFS" sheetId="6" r:id="rId6"/>
+    <sheet name="Stack" sheetId="9" r:id="rId7"/>
+    <sheet name="Trie" sheetId="4" r:id="rId8"/>
+    <sheet name="Sliding Window" sheetId="2" r:id="rId9"/>
+    <sheet name="Set Maneuver" sheetId="3" r:id="rId10"/>
+    <sheet name="Recursion" sheetId="5" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="257">
   <si>
     <t>Name</t>
   </si>
@@ -1022,25 +1023,41 @@
     <t>https://leetcode.com/problems/find-median-from-data-stream/description/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Maximum Score of a Good Subarray</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximum-score-of-a-good-subarray/description/</t>
+  </si>
+  <si>
+    <t>Extend to two sides
+from kth idx.</t>
+  </si>
+  <si>
+    <t>Maximum Equal Frequency</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximum-equal-frequency/description/</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -1064,7 +1081,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1143,6 +1160,23 @@
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Microsoft YaHei"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1180,19 +1214,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1232,12 +1266,49 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="超連結" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="36">
+  <dxfs count="39">
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFFFF00"/>
@@ -1900,13 +1971,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23E6E9DF-BEE0-B544-8910-7DDC3380F4B7}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="46" customWidth="1"/>
-    <col min="3" max="3" width="40.796875" style="14" customWidth="1"/>
+    <col min="3" max="3" width="40.85546875" style="14" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
     <col min="6" max="8" width="21" customWidth="1"/>
@@ -1914,7 +1985,7 @@
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20" customHeight="1">
+    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -1949,7 +2020,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="20" customHeight="1">
+    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="4">
         <v>53</v>
       </c>
@@ -1976,7 +2047,7 @@
       <c r="J2" s="5"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" ht="20" customHeight="1">
+    <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="4">
         <v>62</v>
       </c>
@@ -2032,7 +2103,7 @@
       <c r="J4" s="5"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:11" ht="20" customHeight="1">
+    <row r="5" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="4">
         <v>64</v>
       </c>
@@ -2059,7 +2130,7 @@
       <c r="J5" s="5"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" ht="20" customHeight="1">
+    <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="4">
         <v>120</v>
       </c>
@@ -2146,7 +2217,7 @@
       <c r="J8" s="5"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:11" ht="20" customHeight="1">
+    <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="4">
         <v>198</v>
       </c>
@@ -2206,7 +2277,7 @@
       <c r="J10" s="5"/>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="1:11" ht="20" customHeight="1">
+    <row r="11" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="4">
         <v>279</v>
       </c>
@@ -2295,7 +2366,7 @@
       <c r="J13" s="5"/>
       <c r="K13" s="4"/>
     </row>
-    <row r="14" spans="1:11" ht="20" customHeight="1">
+    <row r="14" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="4">
         <v>343</v>
       </c>
@@ -2382,7 +2453,7 @@
       <c r="J16" s="5"/>
       <c r="K16" s="4"/>
     </row>
-    <row r="17" spans="1:11" ht="20" customHeight="1">
+    <row r="17" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="4">
         <v>907</v>
       </c>
@@ -2413,7 +2484,7 @@
       <c r="J17" s="5"/>
       <c r="K17" s="4"/>
     </row>
-    <row r="18" spans="1:11" ht="20" customHeight="1">
+    <row r="18" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="4">
         <v>931</v>
       </c>
@@ -2440,7 +2511,7 @@
       <c r="J18" s="5"/>
       <c r="K18" s="4"/>
     </row>
-    <row r="19" spans="1:11" ht="20" customHeight="1">
+    <row r="19" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="4">
         <v>1220</v>
       </c>
@@ -2498,7 +2569,7 @@
       <c r="J20" s="5"/>
       <c r="K20" s="4"/>
     </row>
-    <row r="21" spans="1:11" ht="20" customHeight="1">
+    <row r="21" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="4">
         <v>1301</v>
       </c>
@@ -2525,7 +2596,7 @@
       <c r="J21" s="5"/>
       <c r="K21" s="4"/>
     </row>
-    <row r="22" spans="1:11" ht="20" customHeight="1">
+    <row r="22" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="4">
         <v>1359</v>
       </c>
@@ -2583,7 +2654,7 @@
       <c r="J23" s="5"/>
       <c r="K23" s="4"/>
     </row>
-    <row r="24" spans="1:11" ht="20" customHeight="1">
+    <row r="24" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="4">
         <v>1449</v>
       </c>
@@ -2615,13 +2686,13 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2:D24">
-    <cfRule type="expression" dxfId="35" priority="1">
+    <cfRule type="expression" dxfId="38" priority="1">
       <formula>D2="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="2">
+    <cfRule type="expression" dxfId="37" priority="2">
       <formula>D2="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="3">
+    <cfRule type="expression" dxfId="36" priority="3">
       <formula>D2="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2658,16 +2729,16 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69159F7B-7780-4FD1-9225-126219315A4A}">
-  <dimension ref="A1:K2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F94156D-DED3-4FD7-B619-DDD9FD49102F}">
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="35.796875" style="9" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" customWidth="1"/>
+    <col min="3" max="3" width="65.85546875" style="9" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
     <col min="6" max="8" width="21" customWidth="1"/>
@@ -2675,7 +2746,7 @@
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20" customHeight="1">
+    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -2710,1395 +2781,46 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="20" customHeight="1">
+    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="4">
-        <v>394</v>
+        <v>41</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+      <c r="F2" s="4" t="s">
+        <v>59</v>
+      </c>
       <c r="G2" s="4" t="s">
         <v>44</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I2" s="5">
-        <v>45384</v>
-      </c>
-      <c r="J2" s="5"/>
+        <v>45095</v>
+      </c>
+      <c r="J2" s="5">
+        <v>45481</v>
+      </c>
       <c r="K2" s="4"/>
     </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D2">
-    <cfRule type="expression" dxfId="2" priority="1">
-      <formula>D2="Easy"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>D2="Medium"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="3">
-      <formula>D2="Hard"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{E2CF697A-AC7A-4622-85D9-DB09691263B3}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
-  <headerFooter>
-    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 General</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K16"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
-  <cols>
-    <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="38.19921875" customWidth="1"/>
-    <col min="3" max="3" width="71" style="11" customWidth="1"/>
-    <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="36" customWidth="1"/>
-    <col min="6" max="8" width="21" customWidth="1"/>
-    <col min="9" max="10" width="16" style="1" customWidth="1"/>
-    <col min="11" max="11" width="16" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="20" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="20" customHeight="1">
-      <c r="A2" s="4">
-        <v>74</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" s="5">
-        <v>45418</v>
-      </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="2"/>
-    </row>
-    <row r="3" spans="1:11" ht="20" customHeight="1">
+    <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="4">
-        <v>220</v>
+        <v>287</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="5">
-        <v>45397</v>
-      </c>
-      <c r="J3" s="3"/>
-      <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="1:11" ht="20" customHeight="1">
-      <c r="A4" s="4">
-        <v>295</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="5">
-        <v>45382</v>
-      </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="2"/>
-    </row>
-    <row r="5" spans="1:11" ht="30" customHeight="1">
-      <c r="A5" s="4">
-        <v>300</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" s="5">
-        <v>45418</v>
-      </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="4"/>
-    </row>
-    <row r="6" spans="1:11" ht="20" customHeight="1">
-      <c r="A6" s="4">
-        <v>315</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="5">
-        <v>45394</v>
-      </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="4"/>
-    </row>
-    <row r="7" spans="1:11" ht="20" customHeight="1">
-      <c r="A7" s="4">
-        <v>352</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" s="5">
-        <v>45401</v>
-      </c>
-      <c r="J7" s="5"/>
-      <c r="K7" s="4"/>
-    </row>
-    <row r="8" spans="1:11" ht="20" customHeight="1">
-      <c r="A8" s="4">
-        <v>480</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8" s="5">
-        <v>45400</v>
-      </c>
-      <c r="J8" s="5"/>
-      <c r="K8" s="4"/>
-    </row>
-    <row r="9" spans="1:11" ht="20" customHeight="1">
-      <c r="A9" s="4">
-        <v>493</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I9" s="5">
-        <v>45395</v>
-      </c>
-      <c r="J9" s="5"/>
-      <c r="K9" s="4"/>
-    </row>
-    <row r="10" spans="1:11" ht="20" customHeight="1">
-      <c r="A10" s="4">
-        <v>611</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I10" s="5">
-        <v>45395</v>
-      </c>
-      <c r="J10" s="5"/>
-      <c r="K10" s="4"/>
-    </row>
-    <row r="11" spans="1:11" ht="20" customHeight="1">
-      <c r="A11" s="4">
-        <v>729</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I11" s="5">
-        <v>45420</v>
-      </c>
-      <c r="J11" s="5"/>
-      <c r="K11" s="4"/>
-    </row>
-    <row r="12" spans="1:11" ht="20" customHeight="1">
-      <c r="A12" s="4">
-        <v>1095</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I12" s="5">
-        <v>45482</v>
-      </c>
-      <c r="J12" s="5"/>
-      <c r="K12" s="4"/>
-    </row>
-    <row r="13" spans="1:11" ht="30" customHeight="1">
-      <c r="A13" s="4">
-        <v>1649</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I13" s="5">
-        <v>45482</v>
-      </c>
-      <c r="J13" s="5"/>
-      <c r="K13" s="4"/>
-    </row>
-    <row r="14" spans="1:11" ht="20" customHeight="1">
-      <c r="A14" s="4">
-        <v>1825</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I14" s="5">
-        <v>45400</v>
-      </c>
-      <c r="J14" s="5"/>
-      <c r="K14" s="4"/>
-    </row>
-    <row r="15" spans="1:11" ht="20" customHeight="1">
-      <c r="A15" s="4">
-        <v>2034</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I15" s="5">
-        <v>45400</v>
-      </c>
-      <c r="J15" s="5"/>
-      <c r="K15" s="4"/>
-    </row>
-    <row r="16" spans="1:11" ht="20" customHeight="1">
-      <c r="A16" s="4">
-        <v>2102</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I16" s="5">
-        <v>45420</v>
-      </c>
-      <c r="J16" s="5"/>
-      <c r="K16" s="4"/>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K16">
-    <sortCondition ref="A2:A16"/>
-  </sortState>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D2:D4">
-    <cfRule type="expression" dxfId="32" priority="1">
-      <formula>D2="Easy"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="31" priority="2">
-      <formula>D2="Medium"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="30" priority="3">
-      <formula>D2="Hard"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5:E16">
-    <cfRule type="expression" dxfId="29" priority="4">
-      <formula>D5="Easy"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="28" priority="5">
-      <formula>D5="Medium"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="27" priority="6">
-      <formula>D5="Hard"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink ref="C8" r:id="rId1" xr:uid="{98DA09B4-ED1E-9841-BFC0-AD6132AF476B}"/>
-    <hyperlink ref="C10" r:id="rId2" xr:uid="{355AB06F-F372-E64C-BB34-3D68811E6B00}"/>
-    <hyperlink ref="C6" r:id="rId3" xr:uid="{A97C1B49-93D0-D74A-BF3C-F925EFE9FD83}"/>
-    <hyperlink ref="C16" r:id="rId4" xr:uid="{4C375694-D494-514B-B747-D72CA94420E6}"/>
-    <hyperlink ref="C15" r:id="rId5" xr:uid="{5E8F7E04-6349-4D42-B16F-92BF0082A8EC}"/>
-    <hyperlink ref="C5" r:id="rId6" xr:uid="{C06E2E2A-F9EA-2C41-A2A2-0110BB4FE089}"/>
-    <hyperlink ref="C9" r:id="rId7" xr:uid="{88F29B63-471E-1745-ABA5-15B0EE490696}"/>
-    <hyperlink ref="C14" r:id="rId8" xr:uid="{77B0B942-637D-9846-B52B-162446D656B7}"/>
-    <hyperlink ref="C2" r:id="rId9" xr:uid="{FC6DC5BC-3B79-3A47-AD69-9FD63EE06424}"/>
-    <hyperlink ref="C7" r:id="rId10" xr:uid="{82F4789C-38A4-1A4D-BA41-951136E51502}"/>
-    <hyperlink ref="C11" r:id="rId11" xr:uid="{87D58C84-2A2E-5243-AD6C-F126296F2572}"/>
-    <hyperlink ref="C12" r:id="rId12" xr:uid="{E17A87F3-1678-4780-AF58-F4783F4A7A65}"/>
-    <hyperlink ref="C13" r:id="rId13" xr:uid="{AB427796-2FCF-4F37-AC47-998ADDB37E09}"/>
-    <hyperlink ref="C4" r:id="rId14" xr:uid="{322F67A3-4E60-134A-9BA1-AF1822132017}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId15"/>
-  <headerFooter>
-    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 General</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD487089-E40B-1D42-B3C9-4A2FB14888DF}">
-  <dimension ref="A1:K11"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
-  <cols>
-    <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="43.19921875" customWidth="1"/>
-    <col min="3" max="3" width="35.796875" style="11" customWidth="1"/>
-    <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="25.796875" customWidth="1"/>
-    <col min="6" max="8" width="21" customWidth="1"/>
-    <col min="9" max="10" width="16" style="1" customWidth="1"/>
-    <col min="11" max="11" width="16" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="20" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="20" customHeight="1">
-      <c r="A2" s="4">
-        <v>80</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I2" s="5">
-        <v>45390</v>
-      </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="4"/>
-    </row>
-    <row r="3" spans="1:11" ht="20" customHeight="1">
-      <c r="A3" s="4">
-        <v>347</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="17"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I3" s="5">
-        <v>45377</v>
-      </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="4"/>
-    </row>
-    <row r="4" spans="1:11" ht="30" customHeight="1">
-      <c r="A4" s="4">
-        <v>381</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>227</v>
-      </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I4" s="5">
-        <v>45511</v>
-      </c>
-      <c r="J4" s="5"/>
-      <c r="K4" s="4"/>
-    </row>
-    <row r="5" spans="1:11" ht="20" customHeight="1">
-      <c r="A5" s="4">
-        <v>432</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I5" s="5">
-        <v>45512</v>
-      </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="4"/>
-    </row>
-    <row r="6" spans="1:11" ht="20" customHeight="1">
-      <c r="A6" s="4">
-        <v>460</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I6" s="5">
-        <v>45514</v>
-      </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="4"/>
-    </row>
-    <row r="7" spans="1:11" ht="20" customHeight="1">
-      <c r="A7" s="4">
-        <v>692</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I7" s="5">
-        <v>45400</v>
-      </c>
-      <c r="J7" s="5"/>
-      <c r="K7" s="4"/>
-    </row>
-    <row r="8" spans="1:11" ht="20" customHeight="1">
-      <c r="A8" s="4">
-        <v>1206</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I8" s="5">
-        <v>45512</v>
-      </c>
-      <c r="J8" s="5"/>
-      <c r="K8" s="4"/>
-    </row>
-    <row r="9" spans="1:11" ht="20" customHeight="1">
-      <c r="A9" s="4">
-        <v>1338</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I9" s="5">
-        <v>45383</v>
-      </c>
-      <c r="J9" s="5"/>
-      <c r="K9" s="4"/>
-    </row>
-    <row r="10" spans="1:11" ht="20" customHeight="1">
-      <c r="A10" s="4">
-        <v>2453</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="17"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I10" s="5">
-        <v>45389</v>
-      </c>
-      <c r="J10" s="5"/>
-      <c r="K10" s="4"/>
-    </row>
-    <row r="11" spans="1:11" ht="20" customHeight="1">
-      <c r="A11" s="4">
-        <v>3039</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="17"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I11" s="5">
-        <v>45389</v>
-      </c>
-      <c r="J11" s="5"/>
-      <c r="K11" s="4"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D2:D11">
-    <cfRule type="expression" dxfId="26" priority="1">
-      <formula>D2="Easy"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="25" priority="2">
-      <formula>D2="Medium"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="3">
-      <formula>D2="Hard"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1" xr:uid="{4E41E20D-D2BC-4440-AE67-25CEA75BC5AF}"/>
-    <hyperlink ref="C8" r:id="rId2" xr:uid="{9685A890-011F-4816-84AE-49BBB2792474}"/>
-    <hyperlink ref="C6" r:id="rId3" xr:uid="{6F1A2238-1287-2F40-8EE2-6EAA6D32A33C}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{4E34D783-1C2D-4C4D-BF5F-B5AC83578067}"/>
-    <hyperlink ref="C2" r:id="rId5" xr:uid="{7FE8783F-F8EF-344A-A755-835CBA16F73C}"/>
-    <hyperlink ref="C9" r:id="rId6" xr:uid="{DC085F9D-442E-D045-90AC-3FAED2B8D1E2}"/>
-    <hyperlink ref="C3" r:id="rId7" xr:uid="{3E16B408-94FF-CC48-BA57-9E6F992C39F1}"/>
-    <hyperlink ref="C11" r:id="rId8" xr:uid="{A0B949A5-8B58-414A-B5CF-3DBFA646D04D}"/>
-    <hyperlink ref="C10" r:id="rId9" xr:uid="{E0F91AFC-4678-5C41-9B9D-2159274B2DAD}"/>
-    <hyperlink ref="C7" r:id="rId10" xr:uid="{64705B96-1F5D-FB4F-847B-9D3471287B5F}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId11"/>
-  <headerFooter>
-    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 General</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75AC292A-7720-E145-9563-F6FD48AA33E3}">
-  <dimension ref="A1:K11"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
-  <cols>
-    <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="43.19921875" customWidth="1"/>
-    <col min="3" max="3" width="35.796875" style="11" customWidth="1"/>
-    <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="36" customWidth="1"/>
-    <col min="6" max="8" width="21" customWidth="1"/>
-    <col min="9" max="10" width="16" style="1" customWidth="1"/>
-    <col min="11" max="11" width="16" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="20" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="30" customHeight="1">
-      <c r="A2" s="4">
-        <v>102</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I2" s="5">
-        <v>45489</v>
-      </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="4"/>
-    </row>
-    <row r="3" spans="1:11" ht="30" customHeight="1">
-      <c r="A3" s="4">
-        <v>107</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I3" s="5">
-        <v>45489</v>
-      </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="4"/>
-    </row>
-    <row r="4" spans="1:11" ht="30" customHeight="1">
-      <c r="A4" s="4">
-        <v>116</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I4" s="5">
-        <v>45487</v>
-      </c>
-      <c r="J4" s="5"/>
-      <c r="K4" s="4"/>
-    </row>
-    <row r="5" spans="1:11" ht="30" customHeight="1">
-      <c r="A5" s="4">
-        <v>117</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I5" s="5">
-        <v>45489</v>
-      </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="4"/>
-    </row>
-    <row r="6" spans="1:11" ht="20" customHeight="1">
-      <c r="A6" s="4">
-        <v>513</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" s="5">
-        <v>45487</v>
-      </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="4"/>
-    </row>
-    <row r="7" spans="1:11" ht="20" customHeight="1">
-      <c r="A7" s="4">
-        <v>515</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" s="5">
-        <v>45488</v>
-      </c>
-      <c r="J7" s="5"/>
-      <c r="K7" s="4"/>
-    </row>
-    <row r="8" spans="1:11" ht="30" customHeight="1">
-      <c r="A8" s="4">
-        <v>662</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I8" s="5">
-        <v>45490</v>
-      </c>
-      <c r="J8" s="5"/>
-      <c r="K8" s="4"/>
-    </row>
-    <row r="9" spans="1:11" ht="20" customHeight="1">
-      <c r="A9" s="4">
-        <v>958</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I9" s="5">
-        <v>45491</v>
-      </c>
-      <c r="J9" s="5"/>
-      <c r="K9" s="4"/>
-    </row>
-    <row r="10" spans="1:11" ht="20" customHeight="1">
-      <c r="A10" s="4">
-        <v>987</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I10" s="5">
-        <v>45497</v>
-      </c>
-      <c r="J10" s="5"/>
-      <c r="K10" s="4"/>
-    </row>
-    <row r="11" spans="1:11" ht="20" customHeight="1">
-      <c r="A11" s="4">
-        <v>1161</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I11" s="5">
-        <v>45491</v>
-      </c>
-      <c r="J11" s="5"/>
-      <c r="K11" s="4"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D2:D11">
-    <cfRule type="expression" dxfId="23" priority="1">
-      <formula>D2="Easy"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="2">
-      <formula>D2="Medium"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="21" priority="3">
-      <formula>D2="Hard"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1" xr:uid="{13210F83-F6EB-B544-ABBA-8F955E2F9194}"/>
-    <hyperlink ref="C5" r:id="rId2" xr:uid="{8BC7B711-ADEB-4546-905F-7D690999B5BB}"/>
-    <hyperlink ref="C2" r:id="rId3" xr:uid="{C2B4A6B6-B0D8-4F31-9802-387F04CC45FB}"/>
-    <hyperlink ref="C3" r:id="rId4" xr:uid="{5615EAD9-62C1-4780-AE19-6BFAC2939521}"/>
-    <hyperlink ref="C8" r:id="rId5" xr:uid="{6D55272D-BA36-4797-A7CF-581EE973B392}"/>
-    <hyperlink ref="C9" r:id="rId6" xr:uid="{A382170A-F086-4927-B656-868CCD453ABF}"/>
-    <hyperlink ref="C11" r:id="rId7" xr:uid="{25BA1857-5CC6-4D6B-94BB-2E650759A139}"/>
-    <hyperlink ref="C6" r:id="rId8" xr:uid="{2E17F9D2-5401-784D-B0AE-3D6983893C12}"/>
-    <hyperlink ref="C7" r:id="rId9" xr:uid="{8EE9509C-DFBF-7B45-85D3-B7096029C524}"/>
-    <hyperlink ref="C10" r:id="rId10" xr:uid="{E5A94DC6-8374-FA48-ACD8-D23A322C4AED}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId11"/>
-  <headerFooter>
-    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 General</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C287181F-E765-1C4E-B964-9C9FDBE62A17}">
-  <dimension ref="A1:K13"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
-  <cols>
-    <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="36" customWidth="1"/>
-    <col min="3" max="3" width="35.796875" style="14" customWidth="1"/>
-    <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="36" customWidth="1"/>
-    <col min="6" max="8" width="21" customWidth="1"/>
-    <col min="9" max="10" width="16" style="1" customWidth="1"/>
-    <col min="11" max="11" width="16" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="20" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="20" customHeight="1">
-      <c r="A2" s="4">
-        <v>113</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I2" s="5">
-        <v>45486</v>
-      </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="4"/>
-    </row>
-    <row r="3" spans="1:11" ht="20" customHeight="1">
-      <c r="A3" s="4">
-        <v>114</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>49</v>
@@ -4112,1081 +2834,12 @@
         <v>44</v>
       </c>
       <c r="I3" s="5">
-        <v>45486</v>
+        <v>45375</v>
       </c>
       <c r="J3" s="5"/>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:11" ht="20" customHeight="1">
-      <c r="A4" s="4">
-        <v>129</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" s="5">
-        <v>45487</v>
-      </c>
-      <c r="J4" s="5"/>
-      <c r="K4" s="4"/>
-    </row>
-    <row r="5" spans="1:11" ht="30" customHeight="1">
-      <c r="A5" s="4">
-        <v>297</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I5" s="5">
-        <v>45497</v>
-      </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="4"/>
-    </row>
-    <row r="6" spans="1:11" ht="20" customHeight="1">
-      <c r="A6" s="4">
-        <v>341</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I6" s="5">
-        <v>45487</v>
-      </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="4"/>
-    </row>
-    <row r="7" spans="1:11" ht="20" customHeight="1">
-      <c r="A7" s="4">
-        <v>399</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I7" s="5">
-        <v>45490</v>
-      </c>
-      <c r="J7" s="5"/>
-      <c r="K7" s="4"/>
-    </row>
-    <row r="8" spans="1:11" ht="20" customHeight="1">
-      <c r="A8" s="4">
-        <v>437</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I8" s="5">
-        <v>45487</v>
-      </c>
-      <c r="J8" s="5"/>
-      <c r="K8" s="4"/>
-    </row>
-    <row r="9" spans="1:11" ht="20" customHeight="1">
-      <c r="A9" s="4">
-        <v>508</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I9" s="5">
-        <v>45487</v>
-      </c>
-      <c r="J9" s="5"/>
-      <c r="K9" s="4"/>
-    </row>
-    <row r="10" spans="1:11" ht="20" customHeight="1">
-      <c r="A10" s="4">
-        <v>623</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I10" s="5">
-        <v>45488</v>
-      </c>
-      <c r="J10" s="5"/>
-      <c r="K10" s="4"/>
-    </row>
-    <row r="11" spans="1:11" ht="30" customHeight="1">
-      <c r="A11" s="4">
-        <v>652</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I11" s="5">
-        <v>45488</v>
-      </c>
-      <c r="J11" s="5"/>
-      <c r="K11" s="4"/>
-    </row>
-    <row r="12" spans="1:11" ht="30" customHeight="1">
-      <c r="A12" s="4">
-        <v>687</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I12" s="5">
-        <v>45488</v>
-      </c>
-      <c r="J12" s="5"/>
-      <c r="K12" s="4"/>
-    </row>
-    <row r="13" spans="1:11" ht="30" customHeight="1">
-      <c r="A13" s="4">
-        <v>1028</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I13" s="5">
-        <v>46227</v>
-      </c>
-      <c r="J13" s="5"/>
-      <c r="K13" s="4"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D2:D13">
-    <cfRule type="expression" dxfId="20" priority="1">
-      <formula>D2="Easy"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="19" priority="2">
-      <formula>D2="Medium"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="3">
-      <formula>D2="Hard"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{6D7B591D-348C-3F48-8F5D-0CC1D7D323A3}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{75408504-4022-5F46-87C2-C45DD0C84D7E}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{58EBA3C8-38C3-AD4D-86B6-2BD56DBBCDCD}"/>
-    <hyperlink ref="C6" r:id="rId4" xr:uid="{63AC3368-EC03-1949-9ACD-8B642757EADB}"/>
-    <hyperlink ref="C8" r:id="rId5" xr:uid="{5CC483BA-CBD2-634B-808B-DA60BB15872A}"/>
-    <hyperlink ref="C9" r:id="rId6" xr:uid="{3C24C6AF-34E6-D142-95AA-D541F8679AD8}"/>
-    <hyperlink ref="C10" r:id="rId7" xr:uid="{DC0AB236-A846-624D-8598-9984C67224C0}"/>
-    <hyperlink ref="C11" r:id="rId8" xr:uid="{92D47051-6BA8-D549-944F-00B0154554E6}"/>
-    <hyperlink ref="C12" r:id="rId9" xr:uid="{CBAD603C-7336-874C-B3F7-58227D327CE0}"/>
-    <hyperlink ref="C7" r:id="rId10" xr:uid="{98CD3759-6763-4A59-8FC7-20CD817AC0B4}"/>
-    <hyperlink ref="C5" r:id="rId11" xr:uid="{771DB7BE-9583-0E44-8EF3-4714468AC75F}"/>
-    <hyperlink ref="C13" r:id="rId12" xr:uid="{C87FACE2-57DF-42EB-A096-07A06FCC6675}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId13"/>
-  <headerFooter>
-    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 General</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BC7A267-6069-4E38-AC2F-0C28241496B0}">
-  <dimension ref="A1:K4"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
-  <cols>
-    <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="31" customWidth="1"/>
-    <col min="3" max="3" width="35.796875" style="20" customWidth="1"/>
-    <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="41" customWidth="1"/>
-    <col min="6" max="8" width="21" customWidth="1"/>
-    <col min="9" max="10" width="16" style="1" customWidth="1"/>
-    <col min="11" max="11" width="16" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="20" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="20" customHeight="1">
-      <c r="A2" s="6">
-        <v>895</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>229</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I2" s="5">
-        <v>45512</v>
-      </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="4"/>
-    </row>
-    <row r="3" spans="1:11" ht="30" customHeight="1">
-      <c r="A3" s="6">
-        <v>1172</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>223</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>224</v>
-      </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I3" s="5">
-        <v>45511</v>
-      </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="4"/>
-    </row>
-    <row r="4" spans="1:11" ht="30" customHeight="1">
-      <c r="A4" s="6">
-        <v>2454</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>203</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>221</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I4" s="5">
-        <v>45505</v>
-      </c>
-      <c r="J4" s="5"/>
-      <c r="K4" s="4"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D2:D4">
-    <cfRule type="expression" dxfId="17" priority="1">
-      <formula>D2="Easy"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="2">
-      <formula>D2="Medium"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="15" priority="3">
-      <formula>D2="Hard"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1" xr:uid="{2A05BB37-BC02-459B-AC3A-04B564121776}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{06DB2703-F6E1-40EC-B489-AF23524010D7}"/>
-    <hyperlink ref="C2" r:id="rId3" xr:uid="{97AD58DC-D294-479E-8558-0A9E71B6BB4E}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId4"/>
-  <headerFooter>
-    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 General</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52261E16-6011-467F-965D-8624702367C9}">
-  <dimension ref="A1:K10"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
-  <cols>
-    <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="46" customWidth="1"/>
-    <col min="3" max="3" width="65.796875" style="9" customWidth="1"/>
-    <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="36" customWidth="1"/>
-    <col min="6" max="8" width="21" customWidth="1"/>
-    <col min="9" max="10" width="16" style="1" customWidth="1"/>
-    <col min="11" max="11" width="16" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="20" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="20" customHeight="1">
-      <c r="A2" s="4">
-        <v>208</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="I2" s="5">
-        <v>45483</v>
-      </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="4"/>
-    </row>
-    <row r="3" spans="1:11" ht="20" customHeight="1">
-      <c r="A3" s="4">
-        <v>211</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="I3" s="5">
-        <v>45483</v>
-      </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="4"/>
-    </row>
-    <row r="4" spans="1:11" ht="20" customHeight="1">
-      <c r="A4" s="4">
-        <v>386</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="I4" s="5">
-        <v>45483</v>
-      </c>
-      <c r="J4" s="5"/>
-      <c r="K4" s="4"/>
-    </row>
-    <row r="5" spans="1:11" ht="20" customHeight="1">
-      <c r="A5" s="4">
-        <v>648</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="I5" s="5">
-        <v>45485</v>
-      </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="4"/>
-    </row>
-    <row r="6" spans="1:11" ht="20" customHeight="1">
-      <c r="A6" s="4">
-        <v>677</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="I6" s="5">
-        <v>45484</v>
-      </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="4"/>
-    </row>
-    <row r="7" spans="1:11" ht="20" customHeight="1">
-      <c r="A7" s="4">
-        <v>720</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="I7" s="5">
-        <v>45485</v>
-      </c>
-      <c r="J7" s="5"/>
-      <c r="K7" s="4"/>
-    </row>
-    <row r="8" spans="1:11" ht="30" customHeight="1">
-      <c r="A8" s="4">
-        <v>1032</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="I8" s="5">
-        <v>45484</v>
-      </c>
-      <c r="J8" s="5"/>
-      <c r="K8" s="4"/>
-    </row>
-    <row r="9" spans="1:11" ht="20" customHeight="1">
-      <c r="A9" s="4">
-        <v>1268</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="I9" s="5">
-        <v>45484</v>
-      </c>
-      <c r="J9" s="5"/>
-      <c r="K9" s="4"/>
-    </row>
-    <row r="10" spans="1:11" ht="30" customHeight="1">
-      <c r="A10" s="4">
-        <v>2416</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="I10" s="5">
-        <v>45485</v>
-      </c>
-      <c r="J10" s="5"/>
-      <c r="K10" s="4"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D2:D10">
-    <cfRule type="expression" dxfId="14" priority="1">
-      <formula>D2="Easy"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="13" priority="2">
-      <formula>D2="Medium"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="3">
-      <formula>D2="Hard"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{AB100432-12B8-4215-BBA6-E5C40654EC6A}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{42D40DB9-825F-441E-8849-B38723C0AA00}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{B8B8C24A-337E-6342-9322-B5873966C1CD}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{3E8C3E19-6B46-0F4D-A126-DE087C1973B3}"/>
-    <hyperlink ref="C6" r:id="rId5" xr:uid="{1F44F1F1-D0A2-9949-A314-B6331F5F184A}"/>
-    <hyperlink ref="C7" r:id="rId6" xr:uid="{D8BF5A6D-580B-124C-8BD5-5C2E12D6EE9D}"/>
-    <hyperlink ref="C8" r:id="rId7" xr:uid="{3CE12B0A-7911-1C4A-B980-D72B57CEF826}"/>
-    <hyperlink ref="C9" r:id="rId8" xr:uid="{918C731F-F6A4-DA41-8882-65843D2BB552}"/>
-    <hyperlink ref="C10" r:id="rId9" xr:uid="{234F4264-C395-A34E-9422-8A9145823330}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId10"/>
-  <headerFooter>
-    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 General</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96F16DFC-20ED-4148-9FB8-AA8D12910A09}">
-  <dimension ref="A1:K3"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
-  <cols>
-    <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="45.796875" customWidth="1"/>
-    <col min="3" max="3" width="71" style="9" customWidth="1"/>
-    <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="36" customWidth="1"/>
-    <col min="6" max="8" width="21" customWidth="1"/>
-    <col min="9" max="10" width="16" style="1" customWidth="1"/>
-    <col min="11" max="11" width="16" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="20" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="20" customHeight="1">
-      <c r="A2" s="4">
-        <v>3</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I2" s="5">
-        <v>45378</v>
-      </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="4"/>
-    </row>
-    <row r="3" spans="1:11" ht="20" customHeight="1">
-      <c r="A3" s="4">
-        <v>1695</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I3" s="5">
-        <v>45378</v>
-      </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="4"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D2:E3">
-    <cfRule type="expression" dxfId="11" priority="4">
-      <formula>D2="Easy"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="5">
-      <formula>D2="Medium"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="9" priority="6">
-      <formula>D2="Hard"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{E1F44EBE-2031-4493-8DA0-C05554DE0E1C}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{186DAC56-ACE0-47B6-95EE-B3826BFE8C3E}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter>
-    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 General</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F94156D-DED3-4FD7-B619-DDD9FD49102F}">
-  <dimension ref="A1:K4"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
-  <cols>
-    <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="28.59765625" customWidth="1"/>
-    <col min="3" max="3" width="65.796875" style="9" customWidth="1"/>
-    <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="36" customWidth="1"/>
-    <col min="6" max="8" width="21" customWidth="1"/>
-    <col min="9" max="10" width="16" style="1" customWidth="1"/>
-    <col min="11" max="11" width="16" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="20" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="20" customHeight="1">
-      <c r="A2" s="4">
-        <v>41</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I2" s="5">
-        <v>45095</v>
-      </c>
-      <c r="J2" s="5">
-        <v>45481</v>
-      </c>
-      <c r="K2" s="4"/>
-    </row>
-    <row r="3" spans="1:11" ht="20" customHeight="1">
-      <c r="A3" s="4">
-        <v>287</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I3" s="5">
-        <v>45375</v>
-      </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="4"/>
-    </row>
-    <row r="4" spans="1:11" ht="20" customHeight="1">
+    <row r="4" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="4">
         <v>645</v>
       </c>
@@ -5250,6 +2903,2557 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69159F7B-7780-4FD1-9225-126219315A4A}">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="9" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="36" customWidth="1"/>
+    <col min="6" max="8" width="21" customWidth="1"/>
+    <col min="9" max="10" width="16" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="A2" s="4">
+        <v>394</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="5">
+        <v>45384</v>
+      </c>
+      <c r="J2" s="5"/>
+      <c r="K2" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="D2">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>D2="Easy"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>D2="Medium"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="3">
+      <formula>D2="Hard"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{E2CF697A-AC7A-4622-85D9-DB09691263B3}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
+  <headerFooter>
+    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 General</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="38.140625" customWidth="1"/>
+    <col min="3" max="3" width="71" style="11" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="36" customWidth="1"/>
+    <col min="6" max="8" width="21" customWidth="1"/>
+    <col min="9" max="10" width="16" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="A2" s="4">
+        <v>74</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="5">
+        <v>45418</v>
+      </c>
+      <c r="J2" s="3"/>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="A3" s="4">
+        <v>220</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="5">
+        <v>45397</v>
+      </c>
+      <c r="J3" s="3"/>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="4">
+        <v>295</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="5">
+        <v>45382</v>
+      </c>
+      <c r="J4" s="3"/>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:11" ht="30" customHeight="1">
+      <c r="A5" s="4">
+        <v>300</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="5">
+        <v>45418</v>
+      </c>
+      <c r="J5" s="5"/>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="4">
+        <v>315</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="5">
+        <v>45394</v>
+      </c>
+      <c r="J6" s="5"/>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="4">
+        <v>352</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="5">
+        <v>45401</v>
+      </c>
+      <c r="J7" s="5"/>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="A8" s="4">
+        <v>480</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="5">
+        <v>45400</v>
+      </c>
+      <c r="J8" s="5"/>
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="A9" s="4">
+        <v>493</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="5">
+        <v>45395</v>
+      </c>
+      <c r="J9" s="5"/>
+      <c r="K9" s="4"/>
+    </row>
+    <row r="10" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="A10" s="4">
+        <v>611</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" s="5">
+        <v>45395</v>
+      </c>
+      <c r="J10" s="5"/>
+      <c r="K10" s="4"/>
+    </row>
+    <row r="11" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="A11" s="4">
+        <v>729</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" s="5">
+        <v>45420</v>
+      </c>
+      <c r="J11" s="5"/>
+      <c r="K11" s="4"/>
+    </row>
+    <row r="12" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="A12" s="4">
+        <v>1095</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="5">
+        <v>45482</v>
+      </c>
+      <c r="J12" s="5"/>
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" spans="1:11" ht="30" customHeight="1">
+      <c r="A13" s="4">
+        <v>1649</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" s="5">
+        <v>45482</v>
+      </c>
+      <c r="J13" s="5"/>
+      <c r="K13" s="4"/>
+    </row>
+    <row r="14" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="A14" s="4">
+        <v>1825</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" s="5">
+        <v>45400</v>
+      </c>
+      <c r="J14" s="5"/>
+      <c r="K14" s="4"/>
+    </row>
+    <row r="15" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="A15" s="4">
+        <v>2034</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" s="5">
+        <v>45400</v>
+      </c>
+      <c r="J15" s="5"/>
+      <c r="K15" s="4"/>
+    </row>
+    <row r="16" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="A16" s="4">
+        <v>2102</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I16" s="5">
+        <v>45420</v>
+      </c>
+      <c r="J16" s="5"/>
+      <c r="K16" s="4"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K16">
+    <sortCondition ref="A2:A16"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="D2:D4">
+    <cfRule type="expression" dxfId="35" priority="1">
+      <formula>D2="Easy"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="2">
+      <formula>D2="Medium"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="3">
+      <formula>D2="Hard"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5:E16">
+    <cfRule type="expression" dxfId="32" priority="4">
+      <formula>D5="Easy"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="31" priority="5">
+      <formula>D5="Medium"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="6">
+      <formula>D5="Hard"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="C8" r:id="rId1" xr:uid="{98DA09B4-ED1E-9841-BFC0-AD6132AF476B}"/>
+    <hyperlink ref="C10" r:id="rId2" xr:uid="{355AB06F-F372-E64C-BB34-3D68811E6B00}"/>
+    <hyperlink ref="C6" r:id="rId3" xr:uid="{A97C1B49-93D0-D74A-BF3C-F925EFE9FD83}"/>
+    <hyperlink ref="C16" r:id="rId4" xr:uid="{4C375694-D494-514B-B747-D72CA94420E6}"/>
+    <hyperlink ref="C15" r:id="rId5" xr:uid="{5E8F7E04-6349-4D42-B16F-92BF0082A8EC}"/>
+    <hyperlink ref="C5" r:id="rId6" xr:uid="{C06E2E2A-F9EA-2C41-A2A2-0110BB4FE089}"/>
+    <hyperlink ref="C9" r:id="rId7" xr:uid="{88F29B63-471E-1745-ABA5-15B0EE490696}"/>
+    <hyperlink ref="C14" r:id="rId8" xr:uid="{77B0B942-637D-9846-B52B-162446D656B7}"/>
+    <hyperlink ref="C2" r:id="rId9" xr:uid="{FC6DC5BC-3B79-3A47-AD69-9FD63EE06424}"/>
+    <hyperlink ref="C7" r:id="rId10" xr:uid="{82F4789C-38A4-1A4D-BA41-951136E51502}"/>
+    <hyperlink ref="C11" r:id="rId11" xr:uid="{87D58C84-2A2E-5243-AD6C-F126296F2572}"/>
+    <hyperlink ref="C12" r:id="rId12" xr:uid="{E17A87F3-1678-4780-AF58-F4783F4A7A65}"/>
+    <hyperlink ref="C13" r:id="rId13" xr:uid="{AB427796-2FCF-4F37-AC47-998ADDB37E09}"/>
+    <hyperlink ref="C4" r:id="rId14" xr:uid="{322F67A3-4E60-134A-9BA1-AF1822132017}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId15"/>
+  <headerFooter>
+    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 General</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD487089-E40B-1D42-B3C9-4A2FB14888DF}">
+  <dimension ref="A1:K12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="43.140625" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="22" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="25.85546875" customWidth="1"/>
+    <col min="6" max="8" width="21" customWidth="1"/>
+    <col min="9" max="10" width="16" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="A2" s="4">
+        <v>80</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>239</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="17"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="5">
+        <v>45390</v>
+      </c>
+      <c r="J2" s="5"/>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="A3" s="4">
+        <v>347</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>243</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="17"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" s="5">
+        <v>45377</v>
+      </c>
+      <c r="J3" s="5"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:11" ht="30" customHeight="1">
+      <c r="A4" s="4">
+        <v>381</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" s="5">
+        <v>45511</v>
+      </c>
+      <c r="J4" s="5"/>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="A5" s="4">
+        <v>432</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="17"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" s="5">
+        <v>45512</v>
+      </c>
+      <c r="J5" s="5"/>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="4">
+        <v>460</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="17"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" s="5">
+        <v>45514</v>
+      </c>
+      <c r="J6" s="5"/>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="4">
+        <v>692</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>249</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="17"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7" s="5">
+        <v>45400</v>
+      </c>
+      <c r="J7" s="5"/>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="A8" s="4">
+        <v>1206</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="17"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" s="5">
+        <v>45512</v>
+      </c>
+      <c r="J8" s="5"/>
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="A9" s="4">
+        <v>1224</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="17"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I9" s="5">
+        <v>45516</v>
+      </c>
+      <c r="J9" s="5"/>
+      <c r="K9" s="4"/>
+    </row>
+    <row r="10" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="A10" s="4">
+        <v>1338</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>241</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="17"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I10" s="5">
+        <v>45383</v>
+      </c>
+      <c r="J10" s="5"/>
+      <c r="K10" s="4"/>
+    </row>
+    <row r="11" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="A11" s="4">
+        <v>2453</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>247</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="17"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I11" s="5">
+        <v>45389</v>
+      </c>
+      <c r="J11" s="5"/>
+      <c r="K11" s="4"/>
+    </row>
+    <row r="12" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="A12" s="4">
+        <v>3039</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>245</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="17"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I12" s="5">
+        <v>45389</v>
+      </c>
+      <c r="J12" s="5"/>
+      <c r="K12" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="D2:D12">
+    <cfRule type="expression" dxfId="29" priority="1">
+      <formula>D2="Easy"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="2">
+      <formula>D2="Medium"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="27" priority="3">
+      <formula>D2="Hard"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{4E41E20D-D2BC-4440-AE67-25CEA75BC5AF}"/>
+    <hyperlink ref="C8" r:id="rId2" xr:uid="{9685A890-011F-4816-84AE-49BBB2792474}"/>
+    <hyperlink ref="C6" r:id="rId3" xr:uid="{6F1A2238-1287-2F40-8EE2-6EAA6D32A33C}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{4E34D783-1C2D-4C4D-BF5F-B5AC83578067}"/>
+    <hyperlink ref="C2" r:id="rId5" xr:uid="{7FE8783F-F8EF-344A-A755-835CBA16F73C}"/>
+    <hyperlink ref="C10" r:id="rId6" xr:uid="{DC085F9D-442E-D045-90AC-3FAED2B8D1E2}"/>
+    <hyperlink ref="C3" r:id="rId7" xr:uid="{3E16B408-94FF-CC48-BA57-9E6F992C39F1}"/>
+    <hyperlink ref="C12" r:id="rId8" xr:uid="{A0B949A5-8B58-414A-B5CF-3DBFA646D04D}"/>
+    <hyperlink ref="C11" r:id="rId9" xr:uid="{E0F91AFC-4678-5C41-9B9D-2159274B2DAD}"/>
+    <hyperlink ref="C7" r:id="rId10" xr:uid="{64705B96-1F5D-FB4F-847B-9D3471287B5F}"/>
+    <hyperlink ref="C9" r:id="rId11" xr:uid="{E63FAF46-516A-410C-8493-9CC78C8D0570}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId12"/>
+  <headerFooter>
+    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 General</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A08C46FD-BCA6-4056-B9A8-855F75FCB25A}">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="43.140625" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="22" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="25.85546875" customWidth="1"/>
+    <col min="6" max="8" width="21" customWidth="1"/>
+    <col min="9" max="10" width="16" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="30" customHeight="1">
+      <c r="A2" s="4">
+        <v>1793</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="5">
+        <v>45516</v>
+      </c>
+      <c r="J2" s="5"/>
+      <c r="K2" s="4"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D2">
+    <cfRule type="expression" dxfId="26" priority="1">
+      <formula>D2="Easy"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="25" priority="2">
+      <formula>D2="Medium"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="3">
+      <formula>D2="Hard"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{4B2FCE29-6D11-4770-B411-6FA0C17E58B9}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
+  <headerFooter>
+    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 General</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75AC292A-7720-E145-9563-F6FD48AA33E3}">
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="43.140625" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="11" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="36" customWidth="1"/>
+    <col min="6" max="8" width="21" customWidth="1"/>
+    <col min="9" max="10" width="16" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="30" customHeight="1">
+      <c r="A2" s="4">
+        <v>102</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="5">
+        <v>45489</v>
+      </c>
+      <c r="J2" s="5"/>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="1:11" ht="30" customHeight="1">
+      <c r="A3" s="4">
+        <v>107</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" s="5">
+        <v>45489</v>
+      </c>
+      <c r="J3" s="5"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:11" ht="30" customHeight="1">
+      <c r="A4" s="4">
+        <v>116</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" s="5">
+        <v>45487</v>
+      </c>
+      <c r="J4" s="5"/>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:11" ht="30" customHeight="1">
+      <c r="A5" s="4">
+        <v>117</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" s="5">
+        <v>45489</v>
+      </c>
+      <c r="J5" s="5"/>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="4">
+        <v>513</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="5">
+        <v>45487</v>
+      </c>
+      <c r="J6" s="5"/>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="4">
+        <v>515</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="5">
+        <v>45488</v>
+      </c>
+      <c r="J7" s="5"/>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="1:11" ht="30" customHeight="1">
+      <c r="A8" s="4">
+        <v>662</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" s="5">
+        <v>45490</v>
+      </c>
+      <c r="J8" s="5"/>
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="A9" s="4">
+        <v>958</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I9" s="5">
+        <v>45491</v>
+      </c>
+      <c r="J9" s="5"/>
+      <c r="K9" s="4"/>
+    </row>
+    <row r="10" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="A10" s="4">
+        <v>987</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I10" s="5">
+        <v>45497</v>
+      </c>
+      <c r="J10" s="5"/>
+      <c r="K10" s="4"/>
+    </row>
+    <row r="11" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="A11" s="4">
+        <v>1161</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I11" s="5">
+        <v>45491</v>
+      </c>
+      <c r="J11" s="5"/>
+      <c r="K11" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="D2:D11">
+    <cfRule type="expression" dxfId="23" priority="1">
+      <formula>D2="Easy"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="2">
+      <formula>D2="Medium"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="3">
+      <formula>D2="Hard"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{13210F83-F6EB-B544-ABBA-8F955E2F9194}"/>
+    <hyperlink ref="C5" r:id="rId2" xr:uid="{8BC7B711-ADEB-4546-905F-7D690999B5BB}"/>
+    <hyperlink ref="C2" r:id="rId3" xr:uid="{C2B4A6B6-B0D8-4F31-9802-387F04CC45FB}"/>
+    <hyperlink ref="C3" r:id="rId4" xr:uid="{5615EAD9-62C1-4780-AE19-6BFAC2939521}"/>
+    <hyperlink ref="C8" r:id="rId5" xr:uid="{6D55272D-BA36-4797-A7CF-581EE973B392}"/>
+    <hyperlink ref="C9" r:id="rId6" xr:uid="{A382170A-F086-4927-B656-868CCD453ABF}"/>
+    <hyperlink ref="C11" r:id="rId7" xr:uid="{25BA1857-5CC6-4D6B-94BB-2E650759A139}"/>
+    <hyperlink ref="C6" r:id="rId8" xr:uid="{2E17F9D2-5401-784D-B0AE-3D6983893C12}"/>
+    <hyperlink ref="C7" r:id="rId9" xr:uid="{8EE9509C-DFBF-7B45-85D3-B7096029C524}"/>
+    <hyperlink ref="C10" r:id="rId10" xr:uid="{E5A94DC6-8374-FA48-ACD8-D23A322C4AED}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId11"/>
+  <headerFooter>
+    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 General</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C287181F-E765-1C4E-B964-9C9FDBE62A17}">
+  <dimension ref="A1:K13"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="36" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="14" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="36" customWidth="1"/>
+    <col min="6" max="8" width="21" customWidth="1"/>
+    <col min="9" max="10" width="16" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="A2" s="4">
+        <v>113</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="5">
+        <v>45486</v>
+      </c>
+      <c r="J2" s="5"/>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="A3" s="4">
+        <v>114</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" s="5">
+        <v>45486</v>
+      </c>
+      <c r="J3" s="5"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="4">
+        <v>129</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="5">
+        <v>45487</v>
+      </c>
+      <c r="J4" s="5"/>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:11" ht="30" customHeight="1">
+      <c r="A5" s="4">
+        <v>297</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" s="5">
+        <v>45497</v>
+      </c>
+      <c r="J5" s="5"/>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="4">
+        <v>341</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" s="5">
+        <v>45487</v>
+      </c>
+      <c r="J6" s="5"/>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="4">
+        <v>399</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7" s="5">
+        <v>45490</v>
+      </c>
+      <c r="J7" s="5"/>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="A8" s="4">
+        <v>437</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" s="5">
+        <v>45487</v>
+      </c>
+      <c r="J8" s="5"/>
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="A9" s="4">
+        <v>508</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I9" s="5">
+        <v>45487</v>
+      </c>
+      <c r="J9" s="5"/>
+      <c r="K9" s="4"/>
+    </row>
+    <row r="10" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="A10" s="4">
+        <v>623</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="5">
+        <v>45488</v>
+      </c>
+      <c r="J10" s="5"/>
+      <c r="K10" s="4"/>
+    </row>
+    <row r="11" spans="1:11" ht="30" customHeight="1">
+      <c r="A11" s="4">
+        <v>652</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I11" s="5">
+        <v>45488</v>
+      </c>
+      <c r="J11" s="5"/>
+      <c r="K11" s="4"/>
+    </row>
+    <row r="12" spans="1:11" ht="30" customHeight="1">
+      <c r="A12" s="4">
+        <v>687</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="5">
+        <v>45488</v>
+      </c>
+      <c r="J12" s="5"/>
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" spans="1:11" ht="30" customHeight="1">
+      <c r="A13" s="4">
+        <v>1028</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I13" s="5">
+        <v>46227</v>
+      </c>
+      <c r="J13" s="5"/>
+      <c r="K13" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="D2:D13">
+    <cfRule type="expression" dxfId="20" priority="1">
+      <formula>D2="Easy"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="19" priority="2">
+      <formula>D2="Medium"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="3">
+      <formula>D2="Hard"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{6D7B591D-348C-3F48-8F5D-0CC1D7D323A3}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{75408504-4022-5F46-87C2-C45DD0C84D7E}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{58EBA3C8-38C3-AD4D-86B6-2BD56DBBCDCD}"/>
+    <hyperlink ref="C6" r:id="rId4" xr:uid="{63AC3368-EC03-1949-9ACD-8B642757EADB}"/>
+    <hyperlink ref="C8" r:id="rId5" xr:uid="{5CC483BA-CBD2-634B-808B-DA60BB15872A}"/>
+    <hyperlink ref="C9" r:id="rId6" xr:uid="{3C24C6AF-34E6-D142-95AA-D541F8679AD8}"/>
+    <hyperlink ref="C10" r:id="rId7" xr:uid="{DC0AB236-A846-624D-8598-9984C67224C0}"/>
+    <hyperlink ref="C11" r:id="rId8" xr:uid="{92D47051-6BA8-D549-944F-00B0154554E6}"/>
+    <hyperlink ref="C12" r:id="rId9" xr:uid="{CBAD603C-7336-874C-B3F7-58227D327CE0}"/>
+    <hyperlink ref="C7" r:id="rId10" xr:uid="{98CD3759-6763-4A59-8FC7-20CD817AC0B4}"/>
+    <hyperlink ref="C5" r:id="rId11" xr:uid="{771DB7BE-9583-0E44-8EF3-4714468AC75F}"/>
+    <hyperlink ref="C13" r:id="rId12" xr:uid="{C87FACE2-57DF-42EB-A096-07A06FCC6675}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId13"/>
+  <headerFooter>
+    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 General</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BC7A267-6069-4E38-AC2F-0C28241496B0}">
+  <dimension ref="A1:K4"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="31" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="20" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="41" customWidth="1"/>
+    <col min="6" max="8" width="21" customWidth="1"/>
+    <col min="9" max="10" width="16" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="A2" s="6">
+        <v>895</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="17"/>
+      <c r="F2" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="5">
+        <v>45512</v>
+      </c>
+      <c r="J2" s="5"/>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="1:11" ht="30" customHeight="1">
+      <c r="A3" s="6">
+        <v>1172</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" s="5">
+        <v>45511</v>
+      </c>
+      <c r="J3" s="5"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:11" ht="30" customHeight="1">
+      <c r="A4" s="6">
+        <v>2454</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" s="5">
+        <v>45505</v>
+      </c>
+      <c r="J4" s="5"/>
+      <c r="K4" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="D2:D4">
+    <cfRule type="expression" dxfId="17" priority="1">
+      <formula>D2="Easy"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="2">
+      <formula>D2="Medium"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="3">
+      <formula>D2="Hard"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{2A05BB37-BC02-459B-AC3A-04B564121776}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{06DB2703-F6E1-40EC-B489-AF23524010D7}"/>
+    <hyperlink ref="C2" r:id="rId3" xr:uid="{97AD58DC-D294-479E-8558-0A9E71B6BB4E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId4"/>
+  <headerFooter>
+    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 General</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52261E16-6011-467F-965D-8624702367C9}">
+  <dimension ref="A1:K10"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="46" customWidth="1"/>
+    <col min="3" max="3" width="65.85546875" style="9" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="36" customWidth="1"/>
+    <col min="6" max="8" width="21" customWidth="1"/>
+    <col min="9" max="10" width="16" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="A2" s="4">
+        <v>208</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2" s="5">
+        <v>45483</v>
+      </c>
+      <c r="J2" s="5"/>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="A3" s="4">
+        <v>211</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I3" s="5">
+        <v>45483</v>
+      </c>
+      <c r="J3" s="5"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="4">
+        <v>386</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I4" s="5">
+        <v>45483</v>
+      </c>
+      <c r="J4" s="5"/>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="A5" s="4">
+        <v>648</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I5" s="5">
+        <v>45485</v>
+      </c>
+      <c r="J5" s="5"/>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="4">
+        <v>677</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I6" s="5">
+        <v>45484</v>
+      </c>
+      <c r="J6" s="5"/>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="4">
+        <v>720</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I7" s="5">
+        <v>45485</v>
+      </c>
+      <c r="J7" s="5"/>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="1:11" ht="30" customHeight="1">
+      <c r="A8" s="4">
+        <v>1032</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I8" s="5">
+        <v>45484</v>
+      </c>
+      <c r="J8" s="5"/>
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="A9" s="4">
+        <v>1268</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I9" s="5">
+        <v>45484</v>
+      </c>
+      <c r="J9" s="5"/>
+      <c r="K9" s="4"/>
+    </row>
+    <row r="10" spans="1:11" ht="30" customHeight="1">
+      <c r="A10" s="4">
+        <v>2416</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I10" s="5">
+        <v>45485</v>
+      </c>
+      <c r="J10" s="5"/>
+      <c r="K10" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="D2:D10">
+    <cfRule type="expression" dxfId="14" priority="1">
+      <formula>D2="Easy"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="2">
+      <formula>D2="Medium"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="3">
+      <formula>D2="Hard"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{AB100432-12B8-4215-BBA6-E5C40654EC6A}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{42D40DB9-825F-441E-8849-B38723C0AA00}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{B8B8C24A-337E-6342-9322-B5873966C1CD}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{3E8C3E19-6B46-0F4D-A126-DE087C1973B3}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{1F44F1F1-D0A2-9949-A314-B6331F5F184A}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{D8BF5A6D-580B-124C-8BD5-5C2E12D6EE9D}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{3CE12B0A-7911-1C4A-B980-D72B57CEF826}"/>
+    <hyperlink ref="C9" r:id="rId8" xr:uid="{918C731F-F6A4-DA41-8882-65843D2BB552}"/>
+    <hyperlink ref="C10" r:id="rId9" xr:uid="{234F4264-C395-A34E-9422-8A9145823330}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId10"/>
+  <headerFooter>
+    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 General</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96F16DFC-20ED-4148-9FB8-AA8D12910A09}">
+  <dimension ref="A1:K3"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="45.85546875" customWidth="1"/>
+    <col min="3" max="3" width="71" style="9" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="36" customWidth="1"/>
+    <col min="6" max="8" width="21" customWidth="1"/>
+    <col min="9" max="10" width="16" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="A2" s="4">
+        <v>3</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="5">
+        <v>45378</v>
+      </c>
+      <c r="J2" s="5"/>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="A3" s="4">
+        <v>1695</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" s="5">
+        <v>45378</v>
+      </c>
+      <c r="J3" s="5"/>
+      <c r="K3" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="D2:E3">
+    <cfRule type="expression" dxfId="11" priority="4">
+      <formula>D2="Easy"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="5">
+      <formula>D2="Medium"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="6">
+      <formula>D2="Hard"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{E1F44EBE-2031-4493-8DA0-C05554DE0E1C}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{186DAC56-ACE0-47B6-95EE-B3826BFE8C3E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 General</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{04d09258-035b-4e4f-ae3e-d79ff3d418d8}" enabled="1" method="Standard" siteId="{f4a12867-922d-4b9d-bb85-9ee7898512a0}" contentBits="2" removed="0"/>

--- a/LeetCode Techniques.xlsx
+++ b/LeetCode Techniques.xlsx
@@ -1,29 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jack.yao\Desktop\LeetCode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/blackjack625/Desktop/LeetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A8E6C66-3F70-4563-8DBA-2355C1FA9374}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3776CBB-1F2D-BB4D-8B6E-74F7ED0A27F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DP" sheetId="8" r:id="rId1"/>
     <sheet name="Binary Search" sheetId="1" r:id="rId2"/>
     <sheet name="Hash" sheetId="10" r:id="rId3"/>
-    <sheet name="Two Pointers" sheetId="11" r:id="rId4"/>
-    <sheet name="BFS" sheetId="7" r:id="rId5"/>
-    <sheet name="DFS" sheetId="6" r:id="rId6"/>
-    <sheet name="Stack" sheetId="9" r:id="rId7"/>
-    <sheet name="Trie" sheetId="4" r:id="rId8"/>
-    <sheet name="Sliding Window" sheetId="2" r:id="rId9"/>
-    <sheet name="Set Maneuver" sheetId="3" r:id="rId10"/>
-    <sheet name="Recursion" sheetId="5" r:id="rId11"/>
+    <sheet name="BFS" sheetId="7" r:id="rId4"/>
+    <sheet name="DFS" sheetId="6" r:id="rId5"/>
+    <sheet name="Stack" sheetId="9" r:id="rId6"/>
+    <sheet name="Queue" sheetId="12" r:id="rId7"/>
+    <sheet name="Two Pointers" sheetId="11" r:id="rId8"/>
+    <sheet name="Trie" sheetId="4" r:id="rId9"/>
+    <sheet name="Sliding Window" sheetId="2" r:id="rId10"/>
+    <sheet name="Set Maneuver" sheetId="3" r:id="rId11"/>
+    <sheet name="Recursion" sheetId="5" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="259">
   <si>
     <t>Name</t>
   </si>
@@ -1039,25 +1040,33 @@
   <si>
     <t>https://leetcode.com/problems/maximum-equal-frequency/description/</t>
   </si>
+  <si>
+    <t>Longest Continuous Subarray With Absolute Diff Less Than or Equal to Limit</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/longest-continuous-subarray-with-absolute-diff-less-than-or-equal-to-limit/description/</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -1081,7 +1090,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1165,17 +1174,27 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Microsoft YaHei"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Microsoft YaHei"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color theme="10"/>
       <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1216,17 +1235,17 @@
   </cellStyleXfs>
   <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1275,10 +1294,70 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="39">
+  <dxfs count="45">
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFFFF00"/>
@@ -1971,13 +2050,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23E6E9DF-BEE0-B544-8910-7DDC3380F4B7}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="46" customWidth="1"/>
-    <col min="3" max="3" width="40.85546875" style="14" customWidth="1"/>
+    <col min="3" max="3" width="40.796875" style="14" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
     <col min="6" max="8" width="21" customWidth="1"/>
@@ -1985,7 +2064,7 @@
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:11" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -2020,7 +2099,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:11" ht="20" customHeight="1">
       <c r="A2" s="4">
         <v>53</v>
       </c>
@@ -2047,7 +2126,7 @@
       <c r="J2" s="5"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:11" ht="20" customHeight="1">
       <c r="A3" s="4">
         <v>62</v>
       </c>
@@ -2103,7 +2182,7 @@
       <c r="J4" s="5"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="1:11" ht="20" customHeight="1">
       <c r="A5" s="4">
         <v>64</v>
       </c>
@@ -2130,7 +2209,7 @@
       <c r="J5" s="5"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="1:11" ht="20" customHeight="1">
       <c r="A6" s="4">
         <v>120</v>
       </c>
@@ -2217,7 +2296,7 @@
       <c r="J8" s="5"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:11" ht="20" customHeight="1">
       <c r="A9" s="4">
         <v>198</v>
       </c>
@@ -2277,7 +2356,7 @@
       <c r="J10" s="5"/>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="1:11" ht="20" customHeight="1">
       <c r="A11" s="4">
         <v>279</v>
       </c>
@@ -2366,7 +2445,7 @@
       <c r="J13" s="5"/>
       <c r="K13" s="4"/>
     </row>
-    <row r="14" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="1:11" ht="20" customHeight="1">
       <c r="A14" s="4">
         <v>343</v>
       </c>
@@ -2453,7 +2532,7 @@
       <c r="J16" s="5"/>
       <c r="K16" s="4"/>
     </row>
-    <row r="17" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="17" spans="1:11" ht="20" customHeight="1">
       <c r="A17" s="4">
         <v>907</v>
       </c>
@@ -2484,7 +2563,7 @@
       <c r="J17" s="5"/>
       <c r="K17" s="4"/>
     </row>
-    <row r="18" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="18" spans="1:11" ht="20" customHeight="1">
       <c r="A18" s="4">
         <v>931</v>
       </c>
@@ -2511,7 +2590,7 @@
       <c r="J18" s="5"/>
       <c r="K18" s="4"/>
     </row>
-    <row r="19" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="19" spans="1:11" ht="20" customHeight="1">
       <c r="A19" s="4">
         <v>1220</v>
       </c>
@@ -2569,7 +2648,7 @@
       <c r="J20" s="5"/>
       <c r="K20" s="4"/>
     </row>
-    <row r="21" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="21" spans="1:11" ht="20" customHeight="1">
       <c r="A21" s="4">
         <v>1301</v>
       </c>
@@ -2596,7 +2675,7 @@
       <c r="J21" s="5"/>
       <c r="K21" s="4"/>
     </row>
-    <row r="22" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="22" spans="1:11" ht="20" customHeight="1">
       <c r="A22" s="4">
         <v>1359</v>
       </c>
@@ -2654,7 +2733,7 @@
       <c r="J23" s="5"/>
       <c r="K23" s="4"/>
     </row>
-    <row r="24" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="24" spans="1:11" ht="20" customHeight="1">
       <c r="A24" s="4">
         <v>1449</v>
       </c>
@@ -2686,13 +2765,13 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2:D24">
-    <cfRule type="expression" dxfId="38" priority="1">
+    <cfRule type="expression" dxfId="44" priority="1">
       <formula>D2="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="2">
+    <cfRule type="expression" dxfId="43" priority="2">
       <formula>D2="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="3">
+    <cfRule type="expression" dxfId="42" priority="3">
       <formula>D2="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2729,16 +2808,16 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F94156D-DED3-4FD7-B619-DDD9FD49102F}">
-  <dimension ref="A1:K4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96F16DFC-20ED-4148-9FB8-AA8D12910A09}">
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="28.5703125" customWidth="1"/>
-    <col min="3" max="3" width="65.85546875" style="9" customWidth="1"/>
+    <col min="2" max="2" width="45.796875" customWidth="1"/>
+    <col min="3" max="3" width="71" style="9" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
     <col min="6" max="8" width="21" customWidth="1"/>
@@ -2746,7 +2825,7 @@
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:11" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -2781,7 +2860,110 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:11" ht="20" customHeight="1">
+      <c r="A2" s="4">
+        <v>3</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="5">
+        <v>45378</v>
+      </c>
+      <c r="J2" s="5"/>
+      <c r="K2" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="D2:E2">
+    <cfRule type="expression" dxfId="11" priority="4">
+      <formula>D2="Easy"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="5">
+      <formula>D2="Medium"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="6">
+      <formula>D2="Hard"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{E1F44EBE-2031-4493-8DA0-C05554DE0E1C}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 General</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F94156D-DED3-4FD7-B619-DDD9FD49102F}">
+  <dimension ref="A1:K4"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="28.59765625" customWidth="1"/>
+    <col min="3" max="3" width="65.796875" style="9" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="36" customWidth="1"/>
+    <col min="6" max="8" width="21" customWidth="1"/>
+    <col min="9" max="10" width="16" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="20" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="20" customHeight="1">
       <c r="A2" s="4">
         <v>41</v>
       </c>
@@ -2812,7 +2994,7 @@
       </c>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:11" ht="20" customHeight="1">
       <c r="A3" s="4">
         <v>287</v>
       </c>
@@ -2839,7 +3021,7 @@
       <c r="J3" s="5"/>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="1:11" ht="20" customHeight="1">
       <c r="A4" s="4">
         <v>645</v>
       </c>
@@ -2903,17 +3085,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69159F7B-7780-4FD1-9225-126219315A4A}">
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="35.85546875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="35.796875" style="9" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
     <col min="6" max="8" width="21" customWidth="1"/>
@@ -2921,7 +3103,7 @@
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:11" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -2956,7 +3138,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:11" ht="20" customHeight="1">
       <c r="A2" s="4">
         <v>394</v>
       </c>
@@ -3013,10 +3195,10 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="38.140625" customWidth="1"/>
+    <col min="2" max="2" width="38.19921875" customWidth="1"/>
     <col min="3" max="3" width="71" style="11" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
@@ -3025,7 +3207,7 @@
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:11" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -3060,7 +3242,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:11" ht="20" customHeight="1">
       <c r="A2" s="4">
         <v>74</v>
       </c>
@@ -3087,7 +3269,7 @@
       <c r="J2" s="3"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:11" ht="20" customHeight="1">
       <c r="A3" s="4">
         <v>220</v>
       </c>
@@ -3114,7 +3296,7 @@
       <c r="J3" s="3"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="1:11" ht="20" customHeight="1">
       <c r="A4" s="4">
         <v>295</v>
       </c>
@@ -3170,7 +3352,7 @@
       <c r="J5" s="5"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="1:11" ht="20" customHeight="1">
       <c r="A6" s="4">
         <v>315</v>
       </c>
@@ -3197,7 +3379,7 @@
       <c r="J6" s="5"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="1:11" ht="20" customHeight="1">
       <c r="A7" s="4">
         <v>352</v>
       </c>
@@ -3226,7 +3408,7 @@
       <c r="J7" s="5"/>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="1:11" ht="20" customHeight="1">
       <c r="A8" s="4">
         <v>480</v>
       </c>
@@ -3253,7 +3435,7 @@
       <c r="J8" s="5"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:11" ht="20" customHeight="1">
       <c r="A9" s="4">
         <v>493</v>
       </c>
@@ -3280,7 +3462,7 @@
       <c r="J9" s="5"/>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="1:11" ht="20" customHeight="1">
       <c r="A10" s="4">
         <v>611</v>
       </c>
@@ -3309,7 +3491,7 @@
       <c r="J10" s="5"/>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="1:11" ht="20" customHeight="1">
       <c r="A11" s="4">
         <v>729</v>
       </c>
@@ -3336,7 +3518,7 @@
       <c r="J11" s="5"/>
       <c r="K11" s="4"/>
     </row>
-    <row r="12" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="1:11" ht="20" customHeight="1">
       <c r="A12" s="4">
         <v>1095</v>
       </c>
@@ -3394,7 +3576,7 @@
       <c r="J13" s="5"/>
       <c r="K13" s="4"/>
     </row>
-    <row r="14" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="1:11" ht="20" customHeight="1">
       <c r="A14" s="4">
         <v>1825</v>
       </c>
@@ -3423,7 +3605,7 @@
       <c r="J14" s="5"/>
       <c r="K14" s="4"/>
     </row>
-    <row r="15" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="1:11" ht="20" customHeight="1">
       <c r="A15" s="4">
         <v>2034</v>
       </c>
@@ -3452,7 +3634,7 @@
       <c r="J15" s="5"/>
       <c r="K15" s="4"/>
     </row>
-    <row r="16" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="16" spans="1:11" ht="20" customHeight="1">
       <c r="A16" s="4">
         <v>2102</v>
       </c>
@@ -3487,24 +3669,24 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2:D4">
-    <cfRule type="expression" dxfId="35" priority="1">
+    <cfRule type="expression" dxfId="41" priority="1">
       <formula>D2="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="2">
+    <cfRule type="expression" dxfId="40" priority="2">
       <formula>D2="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="3">
+    <cfRule type="expression" dxfId="39" priority="3">
       <formula>D2="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:E16">
-    <cfRule type="expression" dxfId="32" priority="4">
+    <cfRule type="expression" dxfId="38" priority="4">
       <formula>D5="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="5">
+    <cfRule type="expression" dxfId="37" priority="5">
       <formula>D5="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="6">
+    <cfRule type="expression" dxfId="36" priority="6">
       <formula>D5="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3534,23 +3716,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD487089-E40B-1D42-B3C9-4A2FB14888DF}">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="43.140625" customWidth="1"/>
-    <col min="3" max="3" width="35.85546875" style="22" customWidth="1"/>
+    <col min="2" max="2" width="43.19921875" customWidth="1"/>
+    <col min="3" max="3" width="35.796875" style="22" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="25.85546875" customWidth="1"/>
+    <col min="5" max="5" width="25.796875" customWidth="1"/>
     <col min="6" max="8" width="21" customWidth="1"/>
     <col min="9" max="10" width="16" style="1" customWidth="1"/>
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:11" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -3585,7 +3767,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:11" ht="20" customHeight="1">
       <c r="A2" s="4">
         <v>80</v>
       </c>
@@ -3612,7 +3794,7 @@
       <c r="J2" s="5"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:11" ht="20" customHeight="1">
       <c r="A3" s="4">
         <v>347</v>
       </c>
@@ -3668,7 +3850,7 @@
       <c r="J4" s="5"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="1:11" ht="20" customHeight="1">
       <c r="A5" s="4">
         <v>432</v>
       </c>
@@ -3695,7 +3877,7 @@
       <c r="J5" s="5"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="1:11" ht="20" customHeight="1">
       <c r="A6" s="4">
         <v>460</v>
       </c>
@@ -3722,7 +3904,7 @@
       <c r="J6" s="5"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="1:11" ht="20" customHeight="1">
       <c r="A7" s="4">
         <v>692</v>
       </c>
@@ -3749,7 +3931,7 @@
       <c r="J7" s="5"/>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="1:11" ht="20" customHeight="1">
       <c r="A8" s="4">
         <v>1206</v>
       </c>
@@ -3776,7 +3958,7 @@
       <c r="J8" s="5"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:11" ht="20" customHeight="1">
       <c r="A9" s="4">
         <v>1224</v>
       </c>
@@ -3803,7 +3985,7 @@
       <c r="J9" s="5"/>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="1:11" ht="20" customHeight="1">
       <c r="A10" s="4">
         <v>1338</v>
       </c>
@@ -3830,42 +4012,44 @@
       <c r="J10" s="5"/>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="1:11" ht="20" customHeight="1">
       <c r="A11" s="4">
-        <v>2453</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>247</v>
+        <v>1695</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="17"/>
+        <v>49</v>
+      </c>
+      <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="I11" s="5">
-        <v>45389</v>
-      </c>
-      <c r="J11" s="5"/>
+        <v>45378</v>
+      </c>
+      <c r="J11" s="5">
+        <v>45517</v>
+      </c>
       <c r="K11" s="4"/>
     </row>
-    <row r="12" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="1:11" ht="20" customHeight="1">
       <c r="A12" s="4">
-        <v>3039</v>
+        <v>2453</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>10</v>
@@ -3884,17 +4068,55 @@
       <c r="J12" s="5"/>
       <c r="K12" s="4"/>
     </row>
+    <row r="13" spans="1:11" ht="20" customHeight="1">
+      <c r="A13" s="4">
+        <v>3039</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>245</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="17"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I13" s="5">
+        <v>45389</v>
+      </c>
+      <c r="J13" s="5"/>
+      <c r="K13" s="4"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D2:D12">
-    <cfRule type="expression" dxfId="29" priority="1">
+  <conditionalFormatting sqref="D2:D10 D12:D13">
+    <cfRule type="expression" dxfId="35" priority="4">
       <formula>D2="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="2">
+    <cfRule type="expression" dxfId="34" priority="5">
       <formula>D2="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="3">
+    <cfRule type="expression" dxfId="33" priority="6">
       <formula>D2="Hard"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11:E11">
+    <cfRule type="expression" dxfId="32" priority="1">
+      <formula>D11="Easy"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="31" priority="2">
+      <formula>D11="Medium"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="3">
+      <formula>D11="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -3905,13 +4127,14 @@
     <hyperlink ref="C2" r:id="rId5" xr:uid="{7FE8783F-F8EF-344A-A755-835CBA16F73C}"/>
     <hyperlink ref="C10" r:id="rId6" xr:uid="{DC085F9D-442E-D045-90AC-3FAED2B8D1E2}"/>
     <hyperlink ref="C3" r:id="rId7" xr:uid="{3E16B408-94FF-CC48-BA57-9E6F992C39F1}"/>
-    <hyperlink ref="C12" r:id="rId8" xr:uid="{A0B949A5-8B58-414A-B5CF-3DBFA646D04D}"/>
-    <hyperlink ref="C11" r:id="rId9" xr:uid="{E0F91AFC-4678-5C41-9B9D-2159274B2DAD}"/>
+    <hyperlink ref="C13" r:id="rId8" xr:uid="{A0B949A5-8B58-414A-B5CF-3DBFA646D04D}"/>
+    <hyperlink ref="C12" r:id="rId9" xr:uid="{E0F91AFC-4678-5C41-9B9D-2159274B2DAD}"/>
     <hyperlink ref="C7" r:id="rId10" xr:uid="{64705B96-1F5D-FB4F-847B-9D3471287B5F}"/>
     <hyperlink ref="C9" r:id="rId11" xr:uid="{E63FAF46-516A-410C-8493-9CC78C8D0570}"/>
+    <hyperlink ref="C11" r:id="rId12" xr:uid="{186DAC56-ACE0-47B6-95EE-B3826BFE8C3E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId12"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId13"/>
   <headerFooter>
     <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 General</oddFooter>
   </headerFooter>
@@ -3919,121 +4142,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A08C46FD-BCA6-4056-B9A8-855F75FCB25A}">
-  <dimension ref="A1:K2"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="43.140625" customWidth="1"/>
-    <col min="3" max="3" width="35.85546875" style="22" customWidth="1"/>
-    <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="25.85546875" customWidth="1"/>
-    <col min="6" max="8" width="21" customWidth="1"/>
-    <col min="9" max="10" width="16" style="1" customWidth="1"/>
-    <col min="11" max="11" width="16" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="30" customHeight="1">
-      <c r="A2" s="4">
-        <v>1793</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>253</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>254</v>
-      </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I2" s="5">
-        <v>45516</v>
-      </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="4"/>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="D2">
-    <cfRule type="expression" dxfId="26" priority="1">
-      <formula>D2="Easy"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="25" priority="2">
-      <formula>D2="Medium"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="3">
-      <formula>D2="Hard"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{4B2FCE29-6D11-4770-B411-6FA0C17E58B9}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
-  <headerFooter>
-    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 General</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75AC292A-7720-E145-9563-F6FD48AA33E3}">
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="43.140625" customWidth="1"/>
-    <col min="3" max="3" width="35.85546875" style="11" customWidth="1"/>
+    <col min="2" max="2" width="43.19921875" customWidth="1"/>
+    <col min="3" max="3" width="35.796875" style="11" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
     <col min="6" max="8" width="21" customWidth="1"/>
@@ -4041,7 +4159,7 @@
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:11" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -4192,7 +4310,7 @@
       <c r="J5" s="5"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="1:11" ht="20" customHeight="1">
       <c r="A6" s="4">
         <v>513</v>
       </c>
@@ -4219,7 +4337,7 @@
       <c r="J6" s="5"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="1:11" ht="20" customHeight="1">
       <c r="A7" s="4">
         <v>515</v>
       </c>
@@ -4275,7 +4393,7 @@
       <c r="J8" s="5"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:11" ht="20" customHeight="1">
       <c r="A9" s="4">
         <v>958</v>
       </c>
@@ -4302,7 +4420,7 @@
       <c r="J9" s="5"/>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="1:11" ht="20" customHeight="1">
       <c r="A10" s="4">
         <v>987</v>
       </c>
@@ -4329,7 +4447,7 @@
       <c r="J10" s="5"/>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="1:11" ht="20" customHeight="1">
       <c r="A11" s="4">
         <v>1161</v>
       </c>
@@ -4359,13 +4477,13 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2:D11">
-    <cfRule type="expression" dxfId="23" priority="1">
+    <cfRule type="expression" dxfId="29" priority="1">
       <formula>D2="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="2">
+    <cfRule type="expression" dxfId="28" priority="2">
       <formula>D2="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="3">
+    <cfRule type="expression" dxfId="27" priority="3">
       <formula>D2="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4389,17 +4507,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C287181F-E765-1C4E-B964-9C9FDBE62A17}">
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="36" customWidth="1"/>
-    <col min="3" max="3" width="35.85546875" style="14" customWidth="1"/>
+    <col min="3" max="3" width="35.796875" style="14" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
     <col min="6" max="8" width="21" customWidth="1"/>
@@ -4407,7 +4525,7 @@
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:11" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -4442,7 +4560,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:11" ht="20" customHeight="1">
       <c r="A2" s="4">
         <v>113</v>
       </c>
@@ -4469,7 +4587,7 @@
       <c r="J2" s="5"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:11" ht="20" customHeight="1">
       <c r="A3" s="4">
         <v>114</v>
       </c>
@@ -4496,7 +4614,7 @@
       <c r="J3" s="5"/>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="1:11" ht="20" customHeight="1">
       <c r="A4" s="4">
         <v>129</v>
       </c>
@@ -4552,7 +4670,7 @@
       <c r="J5" s="5"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="1:11" ht="20" customHeight="1">
       <c r="A6" s="4">
         <v>341</v>
       </c>
@@ -4579,7 +4697,7 @@
       <c r="J6" s="5"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="1:11" ht="20" customHeight="1">
       <c r="A7" s="4">
         <v>399</v>
       </c>
@@ -4610,7 +4728,7 @@
       <c r="J7" s="5"/>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="1:11" ht="20" customHeight="1">
       <c r="A8" s="4">
         <v>437</v>
       </c>
@@ -4637,7 +4755,7 @@
       <c r="J8" s="5"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:11" ht="20" customHeight="1">
       <c r="A9" s="4">
         <v>508</v>
       </c>
@@ -4664,7 +4782,7 @@
       <c r="J9" s="5"/>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="1:11" ht="20" customHeight="1">
       <c r="A10" s="4">
         <v>623</v>
       </c>
@@ -4781,13 +4899,13 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2:D13">
-    <cfRule type="expression" dxfId="20" priority="1">
+    <cfRule type="expression" dxfId="26" priority="1">
       <formula>D2="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="2">
+    <cfRule type="expression" dxfId="25" priority="2">
       <formula>D2="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="3">
+    <cfRule type="expression" dxfId="24" priority="3">
       <formula>D2="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4813,17 +4931,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BC7A267-6069-4E38-AC2F-0C28241496B0}">
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="31" customWidth="1"/>
-    <col min="3" max="3" width="35.85546875" style="20" customWidth="1"/>
+    <col min="3" max="3" width="35.796875" style="20" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="41" customWidth="1"/>
     <col min="6" max="8" width="21" customWidth="1"/>
@@ -4831,7 +4949,7 @@
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:11" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -4866,7 +4984,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:11" ht="20" customHeight="1">
       <c r="A2" s="6">
         <v>895</v>
       </c>
@@ -4958,13 +5076,13 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2:D4">
-    <cfRule type="expression" dxfId="17" priority="1">
+    <cfRule type="expression" dxfId="23" priority="1">
       <formula>D2="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="2">
+    <cfRule type="expression" dxfId="22" priority="2">
       <formula>D2="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="3">
+    <cfRule type="expression" dxfId="21" priority="3">
       <formula>D2="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4981,17 +5099,229 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52284BEE-A51B-EF49-951D-F5B5F860F6DD}">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="41" customWidth="1"/>
+    <col min="3" max="3" width="35.796875" style="11" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="41" customWidth="1"/>
+    <col min="6" max="8" width="21" customWidth="1"/>
+    <col min="9" max="10" width="16" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="20" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="30" customHeight="1">
+      <c r="A2" s="6">
+        <v>1438</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="17"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="5">
+        <v>45398</v>
+      </c>
+      <c r="J2" s="5">
+        <v>45517</v>
+      </c>
+      <c r="K2" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <conditionalFormatting sqref="D2">
+    <cfRule type="expression" dxfId="20" priority="1">
+      <formula>D2="Easy"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="19" priority="2">
+      <formula>D2="Medium"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="3">
+      <formula>D2="Hard"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{20853B54-323D-064E-B92D-2704D4AFD73E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
+  <headerFooter>
+    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 General</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A08C46FD-BCA6-4056-B9A8-855F75FCB25A}">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="43.19921875" customWidth="1"/>
+    <col min="3" max="3" width="35.796875" style="22" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="25.796875" customWidth="1"/>
+    <col min="6" max="8" width="21" customWidth="1"/>
+    <col min="9" max="10" width="16" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="20" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="30" customHeight="1">
+      <c r="A2" s="4">
+        <v>1793</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="5">
+        <v>45516</v>
+      </c>
+      <c r="J2" s="5"/>
+      <c r="K2" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <conditionalFormatting sqref="D2">
+    <cfRule type="expression" dxfId="17" priority="1">
+      <formula>D2="Easy"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="2">
+      <formula>D2="Medium"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="3">
+      <formula>D2="Hard"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{4B2FCE29-6D11-4770-B411-6FA0C17E58B9}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
+  <headerFooter>
+    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 General</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52261E16-6011-467F-965D-8624702367C9}">
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="46" customWidth="1"/>
-    <col min="3" max="3" width="65.85546875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="65.796875" style="9" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
     <col min="6" max="8" width="21" customWidth="1"/>
@@ -4999,7 +5329,7 @@
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:11" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -5034,7 +5364,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:11" ht="20" customHeight="1">
       <c r="A2" s="4">
         <v>208</v>
       </c>
@@ -5061,7 +5391,7 @@
       <c r="J2" s="5"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:11" ht="20" customHeight="1">
       <c r="A3" s="4">
         <v>211</v>
       </c>
@@ -5090,7 +5420,7 @@
       <c r="J3" s="5"/>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="1:11" ht="20" customHeight="1">
       <c r="A4" s="4">
         <v>386</v>
       </c>
@@ -5119,7 +5449,7 @@
       <c r="J4" s="5"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="1:11" ht="20" customHeight="1">
       <c r="A5" s="4">
         <v>648</v>
       </c>
@@ -5146,7 +5476,7 @@
       <c r="J5" s="5"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="1:11" ht="20" customHeight="1">
       <c r="A6" s="4">
         <v>677</v>
       </c>
@@ -5175,7 +5505,7 @@
       <c r="J6" s="5"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="1:11" ht="20" customHeight="1">
       <c r="A7" s="4">
         <v>720</v>
       </c>
@@ -5233,7 +5563,7 @@
       <c r="J8" s="5"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:11" ht="20" customHeight="1">
       <c r="A9" s="4">
         <v>1268</v>
       </c>
@@ -5323,137 +5653,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96F16DFC-20ED-4148-9FB8-AA8D12910A09}">
-  <dimension ref="A1:K3"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="45.85546875" customWidth="1"/>
-    <col min="3" max="3" width="71" style="9" customWidth="1"/>
-    <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="36" customWidth="1"/>
-    <col min="6" max="8" width="21" customWidth="1"/>
-    <col min="9" max="10" width="16" style="1" customWidth="1"/>
-    <col min="11" max="11" width="16" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="4">
-        <v>3</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I2" s="5">
-        <v>45378</v>
-      </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="4"/>
-    </row>
-    <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="4">
-        <v>1695</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I3" s="5">
-        <v>45378</v>
-      </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="4"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D2:E3">
-    <cfRule type="expression" dxfId="11" priority="4">
-      <formula>D2="Easy"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="5">
-      <formula>D2="Medium"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="9" priority="6">
-      <formula>D2="Hard"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{E1F44EBE-2031-4493-8DA0-C05554DE0E1C}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{186DAC56-ACE0-47B6-95EE-B3826BFE8C3E}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter>
-    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 General</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{04d09258-035b-4e4f-ae3e-d79ff3d418d8}" enabled="1" method="Standard" siteId="{f4a12867-922d-4b9d-bb85-9ee7898512a0}" contentBits="2" removed="0"/>

--- a/LeetCode Techniques.xlsx
+++ b/LeetCode Techniques.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/blackjack625/Desktop/LeetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3776CBB-1F2D-BB4D-8B6E-74F7ED0A27F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40D1EA35-C68B-DE4A-8243-37872A76428C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DP" sheetId="8" r:id="rId1"/>
@@ -20,11 +20,12 @@
     <sheet name="DFS" sheetId="6" r:id="rId5"/>
     <sheet name="Stack" sheetId="9" r:id="rId6"/>
     <sheet name="Queue" sheetId="12" r:id="rId7"/>
-    <sheet name="Two Pointers" sheetId="11" r:id="rId8"/>
-    <sheet name="Trie" sheetId="4" r:id="rId9"/>
-    <sheet name="Sliding Window" sheetId="2" r:id="rId10"/>
-    <sheet name="Set Maneuver" sheetId="3" r:id="rId11"/>
-    <sheet name="Recursion" sheetId="5" r:id="rId12"/>
+    <sheet name="Prefix Sum" sheetId="13" r:id="rId8"/>
+    <sheet name="Two Pointers" sheetId="11" r:id="rId9"/>
+    <sheet name="Trie" sheetId="4" r:id="rId10"/>
+    <sheet name="Recursion" sheetId="5" r:id="rId11"/>
+    <sheet name="Sliding Window" sheetId="2" r:id="rId12"/>
+    <sheet name="Set Maneuver" sheetId="3" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="286">
   <si>
     <t>Name</t>
   </si>
@@ -483,11 +484,6 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/longest-univalue-path/description/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Beware of "semi-cycles" in longest 
-univalue paths.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1048,6 +1044,125 @@
     <t>https://leetcode.com/problems/longest-continuous-subarray-with-absolute-diff-less-than-or-equal-to-limit/description/</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
+  <si>
+    <t>Sliding Window Maximum</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/sliding-window-maximum/</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>O(k)</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Constrained Subsequence Sum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/constrained-subsequence-sum/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Queue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dp[i] = nums[i] + max(0, dp[i-k], ..., dp[i - 1])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Permutation Sequence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/permutation-sequence/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Random Pick with Blacklist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/random-pick-with-blacklist/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map blacklist values into
+N - len(blacklist).</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Longest Duplicate Substring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/longest-duplicate-substring/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Binary Search</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Count Subarrays With Fixed Bounds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/count-subarrays-with-fixed-bounds/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Divide  into multiple subarrays
+such that remaining numbers
+are between min K and max K.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Repeated DNA Sequences</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/repeated-dna-sequences/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hash Table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>When clash happens,
+adjust mod's power term.
+Set base &amp; mode as primes.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/sum-of-floored-pairs/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sum of Floored Pairs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O(n + max(nums))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O(max(nums))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Array of len(max(nums)) as hash table.
+Prefix sum over frequencies.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Beware of "semi-cycles"
+in longest univalue paths.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1056,7 +1171,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1196,6 +1311,14 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1233,7 +1356,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1292,42 +1415,15 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="45">
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="42">
     <dxf>
       <font>
         <color rgb="FFFFFF00"/>
@@ -2048,7 +2144,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23E6E9DF-BEE0-B544-8910-7DDC3380F4B7}">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -2056,7 +2152,7 @@
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="46" customWidth="1"/>
-    <col min="3" max="3" width="40.796875" style="14" customWidth="1"/>
+    <col min="3" max="3" width="40.796875" style="11" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
     <col min="6" max="8" width="21" customWidth="1"/>
@@ -2071,7 +2167,7 @@
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -2104,10 +2200,10 @@
         <v>53</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>149</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>150</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>49</v>
@@ -2131,10 +2227,10 @@
         <v>62</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>140</v>
+        <v>137</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>139</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>49</v>
@@ -2158,16 +2254,16 @@
         <v>63</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>141</v>
+        <v>138</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>140</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>49</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
@@ -2187,10 +2283,10 @@
         <v>64</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>174</v>
+        <v>141</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>173</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>49</v>
@@ -2214,10 +2310,10 @@
         <v>120</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>146</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>147</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>10</v>
@@ -2241,16 +2337,16 @@
         <v>124</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>136</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>137</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>72</v>
@@ -2272,16 +2368,16 @@
         <v>152</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>151</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>152</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>49</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
@@ -2301,17 +2397,17 @@
         <v>198</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>172</v>
+        <v>143</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>171</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>49</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>11</v>
@@ -2330,19 +2426,19 @@
         <v>213</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>173</v>
+        <v>144</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>172</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>49</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>44</v>
@@ -2361,23 +2457,23 @@
         <v>279</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>176</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>177</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>49</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I11" s="5">
         <v>45495</v>
@@ -2390,23 +2486,23 @@
         <v>322</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>171</v>
+        <v>164</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>170</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>49</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="H12" s="4" t="s">
         <v>166</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>167</v>
       </c>
       <c r="I12" s="5">
         <v>45495</v>
@@ -2419,19 +2515,19 @@
         <v>337</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>159</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>160</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>49</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>44</v>
@@ -2450,20 +2546,20 @@
         <v>343</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>180</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>181</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>49</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>44</v>
@@ -2479,23 +2575,23 @@
         <v>377</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>184</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>185</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>49</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="H15" s="4" t="s">
         <v>186</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>187</v>
       </c>
       <c r="I15" s="5">
         <v>45495</v>
@@ -2508,23 +2604,23 @@
         <v>518</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>169</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>170</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>49</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="H16" s="4" t="s">
         <v>166</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>167</v>
       </c>
       <c r="I16" s="5">
         <v>45495</v>
@@ -2537,19 +2633,19 @@
         <v>907</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>191</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>192</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>11</v>
@@ -2568,10 +2664,10 @@
         <v>931</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C18" s="13" t="s">
         <v>153</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>152</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>10</v>
@@ -2579,7 +2675,7 @@
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>11</v>
@@ -2595,10 +2691,10 @@
         <v>1220</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>216</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>217</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>16</v>
@@ -2622,22 +2718,22 @@
         <v>1289</v>
       </c>
       <c r="B20" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>155</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>156</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F20" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="G20" s="4" t="s">
         <v>157</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>158</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>11</v>
@@ -2653,10 +2749,10 @@
         <v>1301</v>
       </c>
       <c r="B21" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>206</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>207</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>16</v>
@@ -2664,10 +2760,10 @@
       <c r="E21" s="6"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I21" s="5">
         <v>45497</v>
@@ -2680,10 +2776,10 @@
         <v>1359</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>218</v>
+        <v>219</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>217</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>58</v>
@@ -2707,19 +2803,19 @@
         <v>1373</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>211</v>
+        <v>207</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>210</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E23" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="F23" s="4" t="s">
         <v>209</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>210</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>44</v>
@@ -2733,45 +2829,76 @@
       <c r="J23" s="5"/>
       <c r="K23" s="4"/>
     </row>
-    <row r="24" spans="1:11" ht="20" customHeight="1">
+    <row r="24" spans="1:11" ht="30" customHeight="1">
       <c r="A24" s="4">
-        <v>1449</v>
+        <v>1425</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>213</v>
+        <v>261</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>262</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E24" s="16" t="s">
-        <v>215</v>
-      </c>
-      <c r="F24" s="4"/>
+      <c r="E24" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>263</v>
+      </c>
       <c r="G24" s="4" t="s">
-        <v>214</v>
+        <v>11</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>187</v>
+        <v>11</v>
       </c>
       <c r="I24" s="5">
-        <v>45502</v>
+        <v>45517</v>
       </c>
       <c r="J24" s="5"/>
       <c r="K24" s="4"/>
     </row>
+    <row r="25" spans="1:11" ht="20" customHeight="1">
+      <c r="A25" s="4">
+        <v>1449</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="I25" s="5">
+        <v>45502</v>
+      </c>
+      <c r="J25" s="5"/>
+      <c r="K25" s="4"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D2:D24">
-    <cfRule type="expression" dxfId="44" priority="1">
+  <conditionalFormatting sqref="D2:D25">
+    <cfRule type="expression" dxfId="41" priority="1">
       <formula>D2="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="2">
+    <cfRule type="expression" dxfId="40" priority="2">
       <formula>D2="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="3">
+    <cfRule type="expression" dxfId="39" priority="3">
       <formula>D2="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2796,11 +2923,12 @@
     <hyperlink ref="C17" r:id="rId18" xr:uid="{7B8F3DB0-2F77-A645-96D2-D8D7373AA08F}"/>
     <hyperlink ref="C21" r:id="rId19" xr:uid="{A8721EF3-38EC-45F1-966B-2754E800B084}"/>
     <hyperlink ref="C23" r:id="rId20" xr:uid="{8538BB7C-5920-4573-ACF3-9E5A3F8356EF}"/>
-    <hyperlink ref="C24" r:id="rId21" xr:uid="{15C88B36-121F-4FD6-99BF-A4A05C219395}"/>
+    <hyperlink ref="C25" r:id="rId21" xr:uid="{15C88B36-121F-4FD6-99BF-A4A05C219395}"/>
     <hyperlink ref="C19" r:id="rId22" xr:uid="{C753C826-C084-4CE0-A98B-D6F7D77849C9}"/>
+    <hyperlink ref="C24" r:id="rId23" xr:uid="{D3D42ECA-07B2-554F-9699-3ACBB4D8F39C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId23"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId24"/>
   <headerFooter>
     <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 General</oddFooter>
   </headerFooter>
@@ -2808,16 +2936,16 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96F16DFC-20ED-4148-9FB8-AA8D12910A09}">
-  <dimension ref="A1:K2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52261E16-6011-467F-965D-8624702367C9}">
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="45.796875" customWidth="1"/>
-    <col min="3" max="3" width="71" style="9" customWidth="1"/>
+    <col min="2" max="2" width="46" customWidth="1"/>
+    <col min="3" max="3" width="65.796875" style="9" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
     <col min="6" max="8" width="21" customWidth="1"/>
@@ -2862,13 +2990,13 @@
     </row>
     <row r="2" spans="1:11" ht="20" customHeight="1">
       <c r="A2" s="4">
-        <v>3</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>47</v>
+        <v>208</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>66</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>49</v>
@@ -2879,29 +3007,537 @@
         <v>44</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="I2" s="5">
-        <v>45378</v>
+        <v>45483</v>
       </c>
       <c r="J2" s="5"/>
       <c r="K2" s="4"/>
     </row>
+    <row r="3" spans="1:11" ht="20" customHeight="1">
+      <c r="A3" s="4">
+        <v>211</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I3" s="5">
+        <v>45483</v>
+      </c>
+      <c r="J3" s="5"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:11" ht="20" customHeight="1">
+      <c r="A4" s="4">
+        <v>386</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I4" s="5">
+        <v>45483</v>
+      </c>
+      <c r="J4" s="5"/>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:11" ht="20" customHeight="1">
+      <c r="A5" s="4">
+        <v>648</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I5" s="5">
+        <v>45485</v>
+      </c>
+      <c r="J5" s="5"/>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:11" ht="20" customHeight="1">
+      <c r="A6" s="4">
+        <v>677</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I6" s="5">
+        <v>45484</v>
+      </c>
+      <c r="J6" s="5"/>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="1:11" ht="20" customHeight="1">
+      <c r="A7" s="4">
+        <v>720</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I7" s="5">
+        <v>45485</v>
+      </c>
+      <c r="J7" s="5"/>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="1:11" ht="30" customHeight="1">
+      <c r="A8" s="4">
+        <v>1032</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I8" s="5">
+        <v>45484</v>
+      </c>
+      <c r="J8" s="5"/>
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" spans="1:11" ht="20" customHeight="1">
+      <c r="A9" s="4">
+        <v>1268</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I9" s="5">
+        <v>45484</v>
+      </c>
+      <c r="J9" s="5"/>
+      <c r="K9" s="4"/>
+    </row>
+    <row r="10" spans="1:11" ht="30" customHeight="1">
+      <c r="A10" s="4">
+        <v>2416</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I10" s="5">
+        <v>45485</v>
+      </c>
+      <c r="J10" s="5"/>
+      <c r="K10" s="4"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D2:E2">
-    <cfRule type="expression" dxfId="11" priority="4">
+  <conditionalFormatting sqref="D2:D10">
+    <cfRule type="expression" dxfId="14" priority="1">
       <formula>D2="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="5">
+    <cfRule type="expression" dxfId="13" priority="2">
       <formula>D2="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="6">
+    <cfRule type="expression" dxfId="12" priority="3">
       <formula>D2="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{E1F44EBE-2031-4493-8DA0-C05554DE0E1C}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{AB100432-12B8-4215-BBA6-E5C40654EC6A}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{42D40DB9-825F-441E-8849-B38723C0AA00}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{B8B8C24A-337E-6342-9322-B5873966C1CD}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{3E8C3E19-6B46-0F4D-A126-DE087C1973B3}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{1F44F1F1-D0A2-9949-A314-B6331F5F184A}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{D8BF5A6D-580B-124C-8BD5-5C2E12D6EE9D}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{3CE12B0A-7911-1C4A-B980-D72B57CEF826}"/>
+    <hyperlink ref="C9" r:id="rId8" xr:uid="{918C731F-F6A4-DA41-8882-65843D2BB552}"/>
+    <hyperlink ref="C10" r:id="rId9" xr:uid="{234F4264-C395-A34E-9422-8A9145823330}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId10"/>
+  <headerFooter>
+    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 General</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69159F7B-7780-4FD1-9225-126219315A4A}">
+  <dimension ref="A1:K3"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="26" customWidth="1"/>
+    <col min="3" max="3" width="35.796875" style="11" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="36" customWidth="1"/>
+    <col min="6" max="8" width="21" customWidth="1"/>
+    <col min="9" max="10" width="16" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="20" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="20" customHeight="1">
+      <c r="A2" s="4">
+        <v>60</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="5">
+        <v>45517</v>
+      </c>
+      <c r="J2" s="5"/>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="1:11" ht="20" customHeight="1">
+      <c r="A3" s="4">
+        <v>394</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" s="5">
+        <v>45384</v>
+      </c>
+      <c r="J3" s="5"/>
+      <c r="K3" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="D2:D3">
+    <cfRule type="expression" dxfId="11" priority="1">
+      <formula>D2="Easy"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="2">
+      <formula>D2="Medium"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="3">
+      <formula>D2="Hard"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{E2CF697A-AC7A-4622-85D9-DB09691263B3}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{092764F1-4D1C-7244-8BD2-D814B88B5476}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId3"/>
+  <headerFooter>
+    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 General</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96F16DFC-20ED-4148-9FB8-AA8D12910A09}">
+  <dimension ref="A1:K3"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="36" customWidth="1"/>
+    <col min="3" max="3" width="71" style="11" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="36" customWidth="1"/>
+    <col min="6" max="8" width="21" customWidth="1"/>
+    <col min="9" max="10" width="16" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="20" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="20" customHeight="1">
+      <c r="A2" s="6">
+        <v>187</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="17"/>
+      <c r="F2" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="5">
+        <v>45393</v>
+      </c>
+      <c r="J2" s="5">
+        <v>45520</v>
+      </c>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="1:11" ht="45" customHeight="1">
+      <c r="A3" s="6">
+        <v>2444</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" s="5">
+        <v>45518</v>
+      </c>
+      <c r="J3" s="5"/>
+      <c r="K3" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="D2:D3">
+    <cfRule type="expression" dxfId="8" priority="1">
+      <formula>D2="Easy"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="2">
+      <formula>D2="Medium"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="3">
+      <formula>D2="Hard"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{9AB7CAC7-D3F7-7C42-9B01-9C8E30C2049C}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{51B1E98B-6F9A-B742-A2A2-169EB5D5F3D5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
@@ -2910,7 +3546,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F94156D-DED3-4FD7-B619-DDD9FD49102F}">
   <dimension ref="A1:K4"/>
   <sheetViews>
@@ -3051,24 +3687,24 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2">
-    <cfRule type="expression" dxfId="8" priority="1">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>D2="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="2">
+    <cfRule type="expression" dxfId="4" priority="2">
       <formula>D2="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="3">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>D2="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:E4">
-    <cfRule type="expression" dxfId="5" priority="4">
+    <cfRule type="expression" dxfId="2" priority="4">
       <formula>D3="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="1" priority="5">
       <formula>D3="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="6">
+    <cfRule type="expression" dxfId="0" priority="6">
       <formula>D3="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3079,110 +3715,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId4"/>
-  <headerFooter>
-    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 General</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69159F7B-7780-4FD1-9225-126219315A4A}">
-  <dimension ref="A1:K2"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
-  <cols>
-    <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="35.796875" style="9" customWidth="1"/>
-    <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="36" customWidth="1"/>
-    <col min="6" max="8" width="21" customWidth="1"/>
-    <col min="9" max="10" width="16" style="1" customWidth="1"/>
-    <col min="11" max="11" width="16" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="20" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="20" customHeight="1">
-      <c r="A2" s="4">
-        <v>394</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I2" s="5">
-        <v>45384</v>
-      </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="4"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D2">
-    <cfRule type="expression" dxfId="2" priority="1">
-      <formula>D2="Easy"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>D2="Medium"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="3">
-      <formula>D2="Hard"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{E2CF697A-AC7A-4622-85D9-DB09691263B3}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
   <headerFooter>
     <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 General</oddFooter>
   </headerFooter>
@@ -3301,10 +3833,10 @@
         <v>295</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>250</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>251</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>16</v>
@@ -3668,26 +4200,15 @@
     <sortCondition ref="A2:A16"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D2:D4">
-    <cfRule type="expression" dxfId="41" priority="1">
+  <conditionalFormatting sqref="D2:E16">
+    <cfRule type="expression" dxfId="38" priority="4">
       <formula>D2="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="2">
+    <cfRule type="expression" dxfId="37" priority="5">
       <formula>D2="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="3">
+    <cfRule type="expression" dxfId="36" priority="6">
       <formula>D2="Hard"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5:E16">
-    <cfRule type="expression" dxfId="38" priority="4">
-      <formula>D5="Easy"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="37" priority="5">
-      <formula>D5="Medium"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="36" priority="6">
-      <formula>D5="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -3716,17 +4237,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD487089-E40B-1D42-B3C9-4A2FB14888DF}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="43.19921875" customWidth="1"/>
-    <col min="3" max="3" width="35.796875" style="22" customWidth="1"/>
+    <col min="2" max="2" width="51" customWidth="1"/>
+    <col min="3" max="3" width="35.796875" style="11" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="25.796875" customWidth="1"/>
+    <col min="5" max="5" width="31" customWidth="1"/>
     <col min="6" max="8" width="21" customWidth="1"/>
     <col min="9" max="10" width="16" style="1" customWidth="1"/>
     <col min="11" max="11" width="16" customWidth="1"/>
@@ -3739,7 +4260,7 @@
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -3769,40 +4290,42 @@
     </row>
     <row r="2" spans="1:11" ht="20" customHeight="1">
       <c r="A2" s="4">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>239</v>
+        <v>47</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="17"/>
+        <v>49</v>
+      </c>
+      <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="I2" s="5">
-        <v>45390</v>
-      </c>
-      <c r="J2" s="5"/>
+        <v>45378</v>
+      </c>
+      <c r="J2" s="5">
+        <v>45518</v>
+      </c>
       <c r="K2" s="4"/>
     </row>
     <row r="3" spans="1:11" ht="20" customHeight="1">
       <c r="A3" s="4">
-        <v>347</v>
+        <v>80</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>243</v>
+        <v>237</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>238</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>10</v>
@@ -3816,54 +4339,54 @@
         <v>44</v>
       </c>
       <c r="I3" s="5">
-        <v>45377</v>
+        <v>45390</v>
       </c>
       <c r="J3" s="5"/>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:11" ht="30" customHeight="1">
+    <row r="4" spans="1:11" ht="20" customHeight="1">
       <c r="A4" s="4">
-        <v>381</v>
+        <v>347</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>226</v>
+        <v>241</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>242</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>227</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="E4" s="17"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>44</v>
       </c>
       <c r="I4" s="5">
-        <v>45511</v>
+        <v>45377</v>
       </c>
       <c r="J4" s="5"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:11" ht="20" customHeight="1">
+    <row r="5" spans="1:11" ht="30" customHeight="1">
       <c r="A5" s="4">
-        <v>432</v>
+        <v>381</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>237</v>
+        <v>224</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>225</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="17"/>
+      <c r="E5" s="17" t="s">
+        <v>226</v>
+      </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
         <v>29</v>
@@ -3872,20 +4395,20 @@
         <v>44</v>
       </c>
       <c r="I5" s="5">
-        <v>45512</v>
+        <v>45511</v>
       </c>
       <c r="J5" s="5"/>
       <c r="K5" s="4"/>
     </row>
     <row r="6" spans="1:11" ht="20" customHeight="1">
       <c r="A6" s="4">
-        <v>460</v>
+        <v>432</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="C6" s="23" t="s">
         <v>235</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>236</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>16</v>
@@ -3893,190 +4416,194 @@
       <c r="E6" s="17"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>44</v>
       </c>
       <c r="I6" s="5">
-        <v>45514</v>
+        <v>45512</v>
       </c>
       <c r="J6" s="5"/>
       <c r="K6" s="4"/>
     </row>
     <row r="7" spans="1:11" ht="20" customHeight="1">
       <c r="A7" s="4">
-        <v>692</v>
+        <v>460</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>249</v>
+        <v>233</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>234</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E7" s="17"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>44</v>
       </c>
       <c r="I7" s="5">
-        <v>45400</v>
+        <v>45514</v>
       </c>
       <c r="J7" s="5"/>
       <c r="K7" s="4"/>
     </row>
     <row r="8" spans="1:11" ht="20" customHeight="1">
       <c r="A8" s="4">
-        <v>1206</v>
+        <v>692</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>232</v>
+        <v>247</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>248</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E8" s="17"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>44</v>
       </c>
       <c r="I8" s="5">
-        <v>45512</v>
+        <v>45400</v>
       </c>
       <c r="J8" s="5"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:11" ht="20" customHeight="1">
+    <row r="9" spans="1:11" ht="30" customHeight="1">
       <c r="A9" s="4">
-        <v>1224</v>
+        <v>710</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>256</v>
+        <v>267</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>268</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="17"/>
+      <c r="E9" s="17" t="s">
+        <v>269</v>
+      </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>44</v>
       </c>
       <c r="I9" s="5">
-        <v>45516</v>
+        <v>45519</v>
       </c>
       <c r="J9" s="5"/>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="1:11" ht="20" customHeight="1">
+    <row r="10" spans="1:11" ht="45" customHeight="1">
       <c r="A10" s="4">
-        <v>1338</v>
+        <v>1044</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>241</v>
+        <v>270</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>271</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="17"/>
-      <c r="F10" s="4"/>
+        <v>16</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>279</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>272</v>
+      </c>
       <c r="G10" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>44</v>
       </c>
       <c r="I10" s="5">
-        <v>45383</v>
+        <v>45520</v>
       </c>
       <c r="J10" s="5"/>
       <c r="K10" s="4"/>
     </row>
     <row r="11" spans="1:11" ht="20" customHeight="1">
       <c r="A11" s="4">
-        <v>1695</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>48</v>
+        <v>1206</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>230</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>50</v>
+        <v>231</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" s="4"/>
+        <v>16</v>
+      </c>
+      <c r="E11" s="17"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="I11" s="5">
-        <v>45378</v>
-      </c>
-      <c r="J11" s="5">
-        <v>45517</v>
-      </c>
+        <v>45512</v>
+      </c>
+      <c r="J11" s="5"/>
       <c r="K11" s="4"/>
     </row>
     <row r="12" spans="1:11" ht="20" customHeight="1">
       <c r="A12" s="4">
-        <v>2453</v>
+        <v>1224</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>247</v>
+        <v>254</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>255</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E12" s="17"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>44</v>
       </c>
       <c r="I12" s="5">
-        <v>45389</v>
+        <v>45516</v>
       </c>
       <c r="J12" s="5"/>
       <c r="K12" s="4"/>
     </row>
     <row r="13" spans="1:11" ht="20" customHeight="1">
       <c r="A13" s="4">
-        <v>3039</v>
+        <v>1338</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>245</v>
+        <v>239</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>10</v>
@@ -4090,51 +4617,126 @@
         <v>44</v>
       </c>
       <c r="I13" s="5">
-        <v>45389</v>
+        <v>45383</v>
       </c>
       <c r="J13" s="5"/>
       <c r="K13" s="4"/>
     </row>
+    <row r="14" spans="1:11" ht="20" customHeight="1">
+      <c r="A14" s="4">
+        <v>1695</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" s="5">
+        <v>45378</v>
+      </c>
+      <c r="J14" s="5">
+        <v>45517</v>
+      </c>
+      <c r="K14" s="4"/>
+    </row>
+    <row r="15" spans="1:11" ht="20" customHeight="1">
+      <c r="A15" s="4">
+        <v>2453</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="17"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I15" s="5">
+        <v>45389</v>
+      </c>
+      <c r="J15" s="5"/>
+      <c r="K15" s="4"/>
+    </row>
+    <row r="16" spans="1:11" ht="20" customHeight="1">
+      <c r="A16" s="4">
+        <v>3039</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="17"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I16" s="5">
+        <v>45389</v>
+      </c>
+      <c r="J16" s="5"/>
+      <c r="K16" s="4"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D2:D10 D12:D13">
-    <cfRule type="expression" dxfId="35" priority="4">
+  <conditionalFormatting sqref="D2:D16">
+    <cfRule type="expression" dxfId="35" priority="7">
       <formula>D2="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="5">
+    <cfRule type="expression" dxfId="34" priority="8">
       <formula>D2="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="6">
+    <cfRule type="expression" dxfId="33" priority="9">
       <formula>D2="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D11:E11">
-    <cfRule type="expression" dxfId="32" priority="1">
-      <formula>D11="Easy"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="31" priority="2">
-      <formula>D11="Medium"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="30" priority="3">
-      <formula>D11="Hard"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1" xr:uid="{4E41E20D-D2BC-4440-AE67-25CEA75BC5AF}"/>
-    <hyperlink ref="C8" r:id="rId2" xr:uid="{9685A890-011F-4816-84AE-49BBB2792474}"/>
-    <hyperlink ref="C6" r:id="rId3" xr:uid="{6F1A2238-1287-2F40-8EE2-6EAA6D32A33C}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{4E34D783-1C2D-4C4D-BF5F-B5AC83578067}"/>
-    <hyperlink ref="C2" r:id="rId5" xr:uid="{7FE8783F-F8EF-344A-A755-835CBA16F73C}"/>
-    <hyperlink ref="C10" r:id="rId6" xr:uid="{DC085F9D-442E-D045-90AC-3FAED2B8D1E2}"/>
-    <hyperlink ref="C3" r:id="rId7" xr:uid="{3E16B408-94FF-CC48-BA57-9E6F992C39F1}"/>
-    <hyperlink ref="C13" r:id="rId8" xr:uid="{A0B949A5-8B58-414A-B5CF-3DBFA646D04D}"/>
-    <hyperlink ref="C12" r:id="rId9" xr:uid="{E0F91AFC-4678-5C41-9B9D-2159274B2DAD}"/>
-    <hyperlink ref="C7" r:id="rId10" xr:uid="{64705B96-1F5D-FB4F-847B-9D3471287B5F}"/>
-    <hyperlink ref="C9" r:id="rId11" xr:uid="{E63FAF46-516A-410C-8493-9CC78C8D0570}"/>
-    <hyperlink ref="C11" r:id="rId12" xr:uid="{186DAC56-ACE0-47B6-95EE-B3826BFE8C3E}"/>
+    <hyperlink ref="C5" r:id="rId1" xr:uid="{4E41E20D-D2BC-4440-AE67-25CEA75BC5AF}"/>
+    <hyperlink ref="C11" r:id="rId2" xr:uid="{9685A890-011F-4816-84AE-49BBB2792474}"/>
+    <hyperlink ref="C7" r:id="rId3" xr:uid="{6F1A2238-1287-2F40-8EE2-6EAA6D32A33C}"/>
+    <hyperlink ref="C6" r:id="rId4" xr:uid="{4E34D783-1C2D-4C4D-BF5F-B5AC83578067}"/>
+    <hyperlink ref="C3" r:id="rId5" xr:uid="{7FE8783F-F8EF-344A-A755-835CBA16F73C}"/>
+    <hyperlink ref="C13" r:id="rId6" xr:uid="{DC085F9D-442E-D045-90AC-3FAED2B8D1E2}"/>
+    <hyperlink ref="C4" r:id="rId7" xr:uid="{3E16B408-94FF-CC48-BA57-9E6F992C39F1}"/>
+    <hyperlink ref="C16" r:id="rId8" xr:uid="{A0B949A5-8B58-414A-B5CF-3DBFA646D04D}"/>
+    <hyperlink ref="C15" r:id="rId9" xr:uid="{E0F91AFC-4678-5C41-9B9D-2159274B2DAD}"/>
+    <hyperlink ref="C8" r:id="rId10" xr:uid="{64705B96-1F5D-FB4F-847B-9D3471287B5F}"/>
+    <hyperlink ref="C12" r:id="rId11" xr:uid="{E63FAF46-516A-410C-8493-9CC78C8D0570}"/>
+    <hyperlink ref="C14" r:id="rId12" xr:uid="{186DAC56-ACE0-47B6-95EE-B3826BFE8C3E}"/>
+    <hyperlink ref="C2" r:id="rId13" xr:uid="{E1F44EBE-2031-4493-8DA0-C05554DE0E1C}"/>
+    <hyperlink ref="C9" r:id="rId14" xr:uid="{F450FB77-315A-2840-94F7-D83EA8BE786B}"/>
+    <hyperlink ref="C10" r:id="rId15" xr:uid="{3E6863E7-5E9D-6B42-8A7D-77876491307E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId13"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId16"/>
   <headerFooter>
     <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 General</oddFooter>
   </headerFooter>
@@ -4199,16 +4801,16 @@
         <v>102</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>122</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>123</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>49</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4" t="s">
@@ -4228,16 +4830,16 @@
         <v>107</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>124</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>125</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>49</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4" t="s">
@@ -4266,7 +4868,7 @@
         <v>49</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
@@ -4286,16 +4888,16 @@
         <v>117</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>118</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>119</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>49</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
@@ -4369,16 +4971,16 @@
         <v>662</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>126</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>127</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>49</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
@@ -4398,10 +5000,10 @@
         <v>958</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>131</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>132</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>49</v>
@@ -4425,10 +5027,10 @@
         <v>987</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>194</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>195</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>16</v>
@@ -4452,10 +5054,10 @@
         <v>1161</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>134</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>135</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>49</v>
@@ -4477,13 +5079,13 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2:D11">
-    <cfRule type="expression" dxfId="29" priority="1">
+    <cfRule type="expression" dxfId="32" priority="1">
       <formula>D2="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="2">
+    <cfRule type="expression" dxfId="31" priority="2">
       <formula>D2="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="3">
+    <cfRule type="expression" dxfId="30" priority="3">
       <formula>D2="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4646,16 +5248,16 @@
         <v>297</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C5" s="13" t="s">
         <v>196</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>197</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
@@ -4702,19 +5304,19 @@
         <v>399</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>128</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>129</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>49</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>44</v>
@@ -4852,7 +5454,7 @@
         <v>49</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>117</v>
+        <v>285</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4" t="s">
@@ -4872,16 +5474,16 @@
         <v>1028</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C13" s="13" t="s">
         <v>199</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>200</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4" t="s">
@@ -4899,13 +5501,13 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2:D13">
-    <cfRule type="expression" dxfId="26" priority="1">
+    <cfRule type="expression" dxfId="29" priority="1">
       <formula>D2="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="2">
+    <cfRule type="expression" dxfId="28" priority="2">
       <formula>D2="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="3">
+    <cfRule type="expression" dxfId="27" priority="3">
       <formula>D2="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4989,17 +5591,17 @@
         <v>895</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="C2" s="19" t="s">
         <v>228</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>229</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="17"/>
       <c r="F2" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>45</v>
@@ -5018,16 +5620,16 @@
         <v>1172</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="C3" s="19" t="s">
         <v>222</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>223</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4" t="s">
@@ -5047,22 +5649,22 @@
         <v>2454</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="C4" s="19" t="s">
         <v>202</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>203</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>44</v>
@@ -5076,13 +5678,13 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2:D4">
-    <cfRule type="expression" dxfId="23" priority="1">
+    <cfRule type="expression" dxfId="26" priority="1">
       <formula>D2="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="2">
+    <cfRule type="expression" dxfId="25" priority="2">
       <formula>D2="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="3">
+    <cfRule type="expression" dxfId="24" priority="3">
       <formula>D2="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5101,7 +5703,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52284BEE-A51B-EF49-951D-F5B5F860F6DD}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -5152,18 +5754,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="30" customHeight="1">
+    <row r="2" spans="1:11" ht="20" customHeight="1">
       <c r="A2" s="6">
-        <v>1438</v>
+        <v>239</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E2" s="17"/>
       <c r="F2" s="4"/>
@@ -5171,18 +5773,156 @@
         <v>44</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>44</v>
+        <v>260</v>
       </c>
       <c r="I2" s="5">
-        <v>45398</v>
+        <v>45386</v>
       </c>
       <c r="J2" s="5">
         <v>45517</v>
       </c>
       <c r="K2" s="4"/>
     </row>
+    <row r="3" spans="1:11" ht="30" customHeight="1">
+      <c r="A3" s="6">
+        <v>1438</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="17"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" s="5">
+        <v>45398</v>
+      </c>
+      <c r="J3" s="5">
+        <v>45517</v>
+      </c>
+      <c r="K3" s="4"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
+  <conditionalFormatting sqref="D2:D3">
+    <cfRule type="expression" dxfId="23" priority="1">
+      <formula>D2="Easy"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="2">
+      <formula>D2="Medium"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="3">
+      <formula>D2="Hard"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{20853B54-323D-064E-B92D-2704D4AFD73E}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{F6739047-85AC-2C4D-8F42-8F6C840C7296}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId3"/>
+  <headerFooter>
+    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 General</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8380FC83-7509-9643-8CC5-E365761A27D0}">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="31" customWidth="1"/>
+    <col min="3" max="3" width="35.796875" style="11" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="41" customWidth="1"/>
+    <col min="6" max="8" width="21" customWidth="1"/>
+    <col min="9" max="10" width="16" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="20" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="30" customHeight="1">
+      <c r="A2" s="6">
+        <v>1862</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>280</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="I2" s="5">
+        <v>45521</v>
+      </c>
+      <c r="J2" s="5"/>
+      <c r="K2" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2">
     <cfRule type="expression" dxfId="20" priority="1">
       <formula>D2="Easy"</formula>
@@ -5195,7 +5935,7 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{20853B54-323D-064E-B92D-2704D4AFD73E}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{C9816A24-406A-ED4A-8FB2-059B74B03BB2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
@@ -5205,7 +5945,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A08C46FD-BCA6-4056-B9A8-855F75FCB25A}">
   <dimension ref="A1:K2"/>
   <sheetViews>
@@ -5263,16 +6003,16 @@
         <v>1793</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="C2" s="23" t="s">
         <v>252</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>253</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4" t="s">
@@ -5311,348 +6051,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52261E16-6011-467F-965D-8624702367C9}">
-  <dimension ref="A1:K10"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
-  <cols>
-    <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="46" customWidth="1"/>
-    <col min="3" max="3" width="65.796875" style="9" customWidth="1"/>
-    <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="36" customWidth="1"/>
-    <col min="6" max="8" width="21" customWidth="1"/>
-    <col min="9" max="10" width="16" style="1" customWidth="1"/>
-    <col min="11" max="11" width="16" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="20" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="20" customHeight="1">
-      <c r="A2" s="4">
-        <v>208</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="I2" s="5">
-        <v>45483</v>
-      </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="4"/>
-    </row>
-    <row r="3" spans="1:11" ht="20" customHeight="1">
-      <c r="A3" s="4">
-        <v>211</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="I3" s="5">
-        <v>45483</v>
-      </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="4"/>
-    </row>
-    <row r="4" spans="1:11" ht="20" customHeight="1">
-      <c r="A4" s="4">
-        <v>386</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="I4" s="5">
-        <v>45483</v>
-      </c>
-      <c r="J4" s="5"/>
-      <c r="K4" s="4"/>
-    </row>
-    <row r="5" spans="1:11" ht="20" customHeight="1">
-      <c r="A5" s="4">
-        <v>648</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="I5" s="5">
-        <v>45485</v>
-      </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="4"/>
-    </row>
-    <row r="6" spans="1:11" ht="20" customHeight="1">
-      <c r="A6" s="4">
-        <v>677</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="I6" s="5">
-        <v>45484</v>
-      </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="4"/>
-    </row>
-    <row r="7" spans="1:11" ht="20" customHeight="1">
-      <c r="A7" s="4">
-        <v>720</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="I7" s="5">
-        <v>45485</v>
-      </c>
-      <c r="J7" s="5"/>
-      <c r="K7" s="4"/>
-    </row>
-    <row r="8" spans="1:11" ht="30" customHeight="1">
-      <c r="A8" s="4">
-        <v>1032</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="I8" s="5">
-        <v>45484</v>
-      </c>
-      <c r="J8" s="5"/>
-      <c r="K8" s="4"/>
-    </row>
-    <row r="9" spans="1:11" ht="20" customHeight="1">
-      <c r="A9" s="4">
-        <v>1268</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="I9" s="5">
-        <v>45484</v>
-      </c>
-      <c r="J9" s="5"/>
-      <c r="K9" s="4"/>
-    </row>
-    <row r="10" spans="1:11" ht="30" customHeight="1">
-      <c r="A10" s="4">
-        <v>2416</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="I10" s="5">
-        <v>45485</v>
-      </c>
-      <c r="J10" s="5"/>
-      <c r="K10" s="4"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D2:D10">
-    <cfRule type="expression" dxfId="14" priority="1">
-      <formula>D2="Easy"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="13" priority="2">
-      <formula>D2="Medium"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="3">
-      <formula>D2="Hard"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{AB100432-12B8-4215-BBA6-E5C40654EC6A}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{42D40DB9-825F-441E-8849-B38723C0AA00}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{B8B8C24A-337E-6342-9322-B5873966C1CD}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{3E8C3E19-6B46-0F4D-A126-DE087C1973B3}"/>
-    <hyperlink ref="C6" r:id="rId5" xr:uid="{1F44F1F1-D0A2-9949-A314-B6331F5F184A}"/>
-    <hyperlink ref="C7" r:id="rId6" xr:uid="{D8BF5A6D-580B-124C-8BD5-5C2E12D6EE9D}"/>
-    <hyperlink ref="C8" r:id="rId7" xr:uid="{3CE12B0A-7911-1C4A-B980-D72B57CEF826}"/>
-    <hyperlink ref="C9" r:id="rId8" xr:uid="{918C731F-F6A4-DA41-8882-65843D2BB552}"/>
-    <hyperlink ref="C10" r:id="rId9" xr:uid="{234F4264-C395-A34E-9422-8A9145823330}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId10"/>
-  <headerFooter>
-    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 General</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{04d09258-035b-4e4f-ae3e-d79ff3d418d8}" enabled="1" method="Standard" siteId="{f4a12867-922d-4b9d-bb85-9ee7898512a0}" contentBits="2" removed="0"/>

--- a/LeetCode Techniques.xlsx
+++ b/LeetCode Techniques.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/blackjack625/Desktop/LeetCode/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jack.yao\Desktop\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40D1EA35-C68B-DE4A-8243-37872A76428C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F10793-EEFE-4A98-AC65-B6415013EC2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DP" sheetId="8" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="289">
   <si>
     <t>Name</t>
   </si>
@@ -1163,25 +1163,34 @@
 in longest univalue paths.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Kth Smallest Number in Multiplication Table</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/kth-smallest-number-in-multiplication-table/description/</t>
+  </si>
+  <si>
+    <t>O(log(m*n))</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -1205,7 +1214,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1306,7 +1315,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -1318,6 +1327,23 @@
       <name val="Microsoft YaHei"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Microsoft YaHei"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1356,19 +1382,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1418,10 +1444,17 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="超連結" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="42">
     <dxf>
@@ -2148,11 +2181,11 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="46" customWidth="1"/>
-    <col min="3" max="3" width="40.796875" style="11" customWidth="1"/>
+    <col min="3" max="3" width="40.85546875" style="11" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
     <col min="6" max="8" width="21" customWidth="1"/>
@@ -2160,7 +2193,7 @@
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20" customHeight="1">
+    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -2195,7 +2228,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="20" customHeight="1">
+    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="4">
         <v>53</v>
       </c>
@@ -2222,7 +2255,7 @@
       <c r="J2" s="5"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" ht="20" customHeight="1">
+    <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="4">
         <v>62</v>
       </c>
@@ -2278,7 +2311,7 @@
       <c r="J4" s="5"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:11" ht="20" customHeight="1">
+    <row r="5" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="4">
         <v>64</v>
       </c>
@@ -2305,7 +2338,7 @@
       <c r="J5" s="5"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" ht="20" customHeight="1">
+    <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="4">
         <v>120</v>
       </c>
@@ -2392,7 +2425,7 @@
       <c r="J8" s="5"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:11" ht="20" customHeight="1">
+    <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="4">
         <v>198</v>
       </c>
@@ -2452,7 +2485,7 @@
       <c r="J10" s="5"/>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="1:11" ht="20" customHeight="1">
+    <row r="11" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="4">
         <v>279</v>
       </c>
@@ -2541,7 +2574,7 @@
       <c r="J13" s="5"/>
       <c r="K13" s="4"/>
     </row>
-    <row r="14" spans="1:11" ht="20" customHeight="1">
+    <row r="14" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="4">
         <v>343</v>
       </c>
@@ -2628,7 +2661,7 @@
       <c r="J16" s="5"/>
       <c r="K16" s="4"/>
     </row>
-    <row r="17" spans="1:11" ht="20" customHeight="1">
+    <row r="17" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="4">
         <v>907</v>
       </c>
@@ -2659,7 +2692,7 @@
       <c r="J17" s="5"/>
       <c r="K17" s="4"/>
     </row>
-    <row r="18" spans="1:11" ht="20" customHeight="1">
+    <row r="18" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="4">
         <v>931</v>
       </c>
@@ -2686,7 +2719,7 @@
       <c r="J18" s="5"/>
       <c r="K18" s="4"/>
     </row>
-    <row r="19" spans="1:11" ht="20" customHeight="1">
+    <row r="19" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="4">
         <v>1220</v>
       </c>
@@ -2744,7 +2777,7 @@
       <c r="J20" s="5"/>
       <c r="K20" s="4"/>
     </row>
-    <row r="21" spans="1:11" ht="20" customHeight="1">
+    <row r="21" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="4">
         <v>1301</v>
       </c>
@@ -2771,7 +2804,7 @@
       <c r="J21" s="5"/>
       <c r="K21" s="4"/>
     </row>
-    <row r="22" spans="1:11" ht="20" customHeight="1">
+    <row r="22" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="4">
         <v>1359</v>
       </c>
@@ -2860,7 +2893,7 @@
       <c r="J24" s="5"/>
       <c r="K24" s="4"/>
     </row>
-    <row r="25" spans="1:11" ht="20" customHeight="1">
+    <row r="25" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="4">
         <v>1449</v>
       </c>
@@ -2941,11 +2974,11 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="46" customWidth="1"/>
-    <col min="3" max="3" width="65.796875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="65.85546875" style="9" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
     <col min="6" max="8" width="21" customWidth="1"/>
@@ -2953,7 +2986,7 @@
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20" customHeight="1">
+    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -2988,7 +3021,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="20" customHeight="1">
+    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="4">
         <v>208</v>
       </c>
@@ -3015,7 +3048,7 @@
       <c r="J2" s="5"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" ht="20" customHeight="1">
+    <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="4">
         <v>211</v>
       </c>
@@ -3044,7 +3077,7 @@
       <c r="J3" s="5"/>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:11" ht="20" customHeight="1">
+    <row r="4" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="4">
         <v>386</v>
       </c>
@@ -3073,7 +3106,7 @@
       <c r="J4" s="5"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:11" ht="20" customHeight="1">
+    <row r="5" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="4">
         <v>648</v>
       </c>
@@ -3100,7 +3133,7 @@
       <c r="J5" s="5"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" ht="20" customHeight="1">
+    <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="4">
         <v>677</v>
       </c>
@@ -3129,7 +3162,7 @@
       <c r="J6" s="5"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11" ht="20" customHeight="1">
+    <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="4">
         <v>720</v>
       </c>
@@ -3187,7 +3220,7 @@
       <c r="J8" s="5"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:11" ht="20" customHeight="1">
+    <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="4">
         <v>1268</v>
       </c>
@@ -3283,11 +3316,11 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="3" width="35.796875" style="11" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="11" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
     <col min="6" max="8" width="21" customWidth="1"/>
@@ -3295,7 +3328,7 @@
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20" customHeight="1">
+    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -3330,7 +3363,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="20" customHeight="1">
+    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="4">
         <v>60</v>
       </c>
@@ -3357,7 +3390,7 @@
       <c r="J2" s="5"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" ht="20" customHeight="1">
+    <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="4">
         <v>394</v>
       </c>
@@ -3415,7 +3448,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="36" customWidth="1"/>
@@ -3427,7 +3460,7 @@
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20" customHeight="1">
+    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -3462,7 +3495,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="20" customHeight="1">
+    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="6">
         <v>187</v>
       </c>
@@ -3552,11 +3585,11 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="28.59765625" customWidth="1"/>
-    <col min="3" max="3" width="65.796875" style="9" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" customWidth="1"/>
+    <col min="3" max="3" width="65.85546875" style="9" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
     <col min="6" max="8" width="21" customWidth="1"/>
@@ -3564,7 +3597,7 @@
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20" customHeight="1">
+    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -3599,7 +3632,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="20" customHeight="1">
+    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="4">
         <v>41</v>
       </c>
@@ -3630,7 +3663,7 @@
       </c>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" ht="20" customHeight="1">
+    <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="4">
         <v>287</v>
       </c>
@@ -3657,7 +3690,7 @@
       <c r="J3" s="5"/>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:11" ht="20" customHeight="1">
+    <row r="4" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="4">
         <v>645</v>
       </c>
@@ -3723,15 +3756,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="38.19921875" customWidth="1"/>
-    <col min="3" max="3" width="71" style="11" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" customWidth="1"/>
+    <col min="3" max="3" width="71" style="27" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
     <col min="6" max="8" width="21" customWidth="1"/>
@@ -3739,14 +3772,14 @@
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20" customHeight="1">
+    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="25" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -3774,14 +3807,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="20" customHeight="1">
+    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="4">
         <v>74</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="26" t="s">
         <v>36</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -3801,14 +3834,14 @@
       <c r="J2" s="3"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="20" customHeight="1">
+    <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="4">
         <v>220</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="26" t="s">
         <v>43</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -3828,14 +3861,14 @@
       <c r="J3" s="3"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" ht="20" customHeight="1">
+    <row r="4" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="4">
         <v>295</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="26" t="s">
         <v>250</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -3862,7 +3895,7 @@
       <c r="B5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="26" t="s">
         <v>27</v>
       </c>
       <c r="D5" s="4" t="s">
@@ -3884,14 +3917,14 @@
       <c r="J5" s="5"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" ht="20" customHeight="1">
+    <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="4">
         <v>315</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="26" t="s">
         <v>21</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -3911,14 +3944,14 @@
       <c r="J6" s="5"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11" ht="20" customHeight="1">
+    <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="4">
         <v>352</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="26" t="s">
         <v>39</v>
       </c>
       <c r="D7" s="4" t="s">
@@ -3940,14 +3973,14 @@
       <c r="J7" s="5"/>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="1:11" ht="20" customHeight="1">
+    <row r="8" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="4">
         <v>480</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="26" t="s">
         <v>17</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -3967,14 +4000,14 @@
       <c r="J8" s="5"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:11" ht="20" customHeight="1">
+    <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="4">
         <v>493</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="26" t="s">
         <v>32</v>
       </c>
       <c r="D9" s="4" t="s">
@@ -3994,14 +4027,14 @@
       <c r="J9" s="5"/>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="1:11" ht="20" customHeight="1">
+    <row r="10" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="4">
         <v>611</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="26" t="s">
         <v>18</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -4023,45 +4056,45 @@
       <c r="J10" s="5"/>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="1:11" ht="20" customHeight="1">
+    <row r="11" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="4">
-        <v>729</v>
+        <v>668</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>41</v>
+        <v>286</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>287</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
-        <v>14</v>
+        <v>288</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="I11" s="5">
-        <v>45420</v>
+        <v>45523</v>
       </c>
       <c r="J11" s="5"/>
       <c r="K11" s="4"/>
     </row>
-    <row r="12" spans="1:11" ht="20" customHeight="1">
+    <row r="12" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="4">
-        <v>1095</v>
+        <v>729</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>64</v>
+        <v>40</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>41</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -4069,38 +4102,34 @@
         <v>14</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="I12" s="5">
-        <v>45482</v>
+        <v>45420</v>
       </c>
       <c r="J12" s="5"/>
       <c r="K12" s="4"/>
     </row>
-    <row r="13" spans="1:11" ht="30" customHeight="1">
+    <row r="13" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="4">
-        <v>1649</v>
+        <v>1095</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>64</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>59</v>
-      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
       <c r="G13" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="I13" s="5">
         <v>45482</v>
@@ -4108,47 +4137,49 @@
       <c r="J13" s="5"/>
       <c r="K13" s="4"/>
     </row>
-    <row r="14" spans="1:11" ht="20" customHeight="1">
+    <row r="14" spans="1:11" ht="30" customHeight="1">
       <c r="A14" s="4">
-        <v>1825</v>
+        <v>1649</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>34</v>
+        <v>63</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>65</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="4"/>
+        <v>58</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>85</v>
+      </c>
       <c r="F14" s="4" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I14" s="5">
-        <v>45400</v>
+        <v>45482</v>
       </c>
       <c r="J14" s="5"/>
       <c r="K14" s="4"/>
     </row>
-    <row r="15" spans="1:11" ht="20" customHeight="1">
+    <row r="15" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="4">
-        <v>2034</v>
+        <v>1825</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>26</v>
+        <v>33</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>34</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4" t="s">
@@ -4166,18 +4197,18 @@
       <c r="J15" s="5"/>
       <c r="K15" s="4"/>
     </row>
-    <row r="16" spans="1:11" ht="20" customHeight="1">
+    <row r="16" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="4">
-        <v>2102</v>
+        <v>2034</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>26</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4" t="s">
@@ -4190,17 +4221,46 @@
         <v>11</v>
       </c>
       <c r="I16" s="5">
-        <v>45420</v>
+        <v>45400</v>
       </c>
       <c r="J16" s="5"/>
       <c r="K16" s="4"/>
     </row>
+    <row r="17" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="A17" s="4">
+        <v>2102</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I17" s="5">
+        <v>45420</v>
+      </c>
+      <c r="J17" s="5"/>
+      <c r="K17" s="4"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K16">
-    <sortCondition ref="A2:A16"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K17">
+    <sortCondition ref="A2:A17"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D2:E16">
+  <conditionalFormatting sqref="D2:E17">
     <cfRule type="expression" dxfId="38" priority="4">
       <formula>D2="Easy"</formula>
     </cfRule>
@@ -4215,20 +4275,21 @@
     <hyperlink ref="C8" r:id="rId1" xr:uid="{98DA09B4-ED1E-9841-BFC0-AD6132AF476B}"/>
     <hyperlink ref="C10" r:id="rId2" xr:uid="{355AB06F-F372-E64C-BB34-3D68811E6B00}"/>
     <hyperlink ref="C6" r:id="rId3" xr:uid="{A97C1B49-93D0-D74A-BF3C-F925EFE9FD83}"/>
-    <hyperlink ref="C16" r:id="rId4" xr:uid="{4C375694-D494-514B-B747-D72CA94420E6}"/>
-    <hyperlink ref="C15" r:id="rId5" xr:uid="{5E8F7E04-6349-4D42-B16F-92BF0082A8EC}"/>
+    <hyperlink ref="C17" r:id="rId4" xr:uid="{4C375694-D494-514B-B747-D72CA94420E6}"/>
+    <hyperlink ref="C16" r:id="rId5" xr:uid="{5E8F7E04-6349-4D42-B16F-92BF0082A8EC}"/>
     <hyperlink ref="C5" r:id="rId6" xr:uid="{C06E2E2A-F9EA-2C41-A2A2-0110BB4FE089}"/>
     <hyperlink ref="C9" r:id="rId7" xr:uid="{88F29B63-471E-1745-ABA5-15B0EE490696}"/>
-    <hyperlink ref="C14" r:id="rId8" xr:uid="{77B0B942-637D-9846-B52B-162446D656B7}"/>
+    <hyperlink ref="C15" r:id="rId8" xr:uid="{77B0B942-637D-9846-B52B-162446D656B7}"/>
     <hyperlink ref="C2" r:id="rId9" xr:uid="{FC6DC5BC-3B79-3A47-AD69-9FD63EE06424}"/>
     <hyperlink ref="C7" r:id="rId10" xr:uid="{82F4789C-38A4-1A4D-BA41-951136E51502}"/>
-    <hyperlink ref="C11" r:id="rId11" xr:uid="{87D58C84-2A2E-5243-AD6C-F126296F2572}"/>
-    <hyperlink ref="C12" r:id="rId12" xr:uid="{E17A87F3-1678-4780-AF58-F4783F4A7A65}"/>
-    <hyperlink ref="C13" r:id="rId13" xr:uid="{AB427796-2FCF-4F37-AC47-998ADDB37E09}"/>
+    <hyperlink ref="C12" r:id="rId11" xr:uid="{87D58C84-2A2E-5243-AD6C-F126296F2572}"/>
+    <hyperlink ref="C13" r:id="rId12" xr:uid="{E17A87F3-1678-4780-AF58-F4783F4A7A65}"/>
+    <hyperlink ref="C14" r:id="rId13" xr:uid="{AB427796-2FCF-4F37-AC47-998ADDB37E09}"/>
     <hyperlink ref="C4" r:id="rId14" xr:uid="{322F67A3-4E60-134A-9BA1-AF1822132017}"/>
+    <hyperlink ref="C11" r:id="rId15" xr:uid="{8A96E47C-EAC7-48C6-ADEC-7531EB38C4E9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId15"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId16"/>
   <headerFooter>
     <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 General</oddFooter>
   </headerFooter>
@@ -4241,11 +4302,11 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
-    <col min="3" max="3" width="35.796875" style="11" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="11" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="31" customWidth="1"/>
     <col min="6" max="8" width="21" customWidth="1"/>
@@ -4253,7 +4314,7 @@
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20" customHeight="1">
+    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -4288,7 +4349,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="20" customHeight="1">
+    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="4">
         <v>3</v>
       </c>
@@ -4317,7 +4378,7 @@
       </c>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" ht="20" customHeight="1">
+    <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="4">
         <v>80</v>
       </c>
@@ -4344,7 +4405,7 @@
       <c r="J3" s="5"/>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:11" ht="20" customHeight="1">
+    <row r="4" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="4">
         <v>347</v>
       </c>
@@ -4400,7 +4461,7 @@
       <c r="J5" s="5"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" ht="20" customHeight="1">
+    <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="4">
         <v>432</v>
       </c>
@@ -4427,7 +4488,7 @@
       <c r="J6" s="5"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11" ht="20" customHeight="1">
+    <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="4">
         <v>460</v>
       </c>
@@ -4454,7 +4515,7 @@
       <c r="J7" s="5"/>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="1:11" ht="20" customHeight="1">
+    <row r="8" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="4">
         <v>692</v>
       </c>
@@ -4541,7 +4602,7 @@
       <c r="J10" s="5"/>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="1:11" ht="20" customHeight="1">
+    <row r="11" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="4">
         <v>1206</v>
       </c>
@@ -4568,7 +4629,7 @@
       <c r="J11" s="5"/>
       <c r="K11" s="4"/>
     </row>
-    <row r="12" spans="1:11" ht="20" customHeight="1">
+    <row r="12" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="4">
         <v>1224</v>
       </c>
@@ -4595,7 +4656,7 @@
       <c r="J12" s="5"/>
       <c r="K12" s="4"/>
     </row>
-    <row r="13" spans="1:11" ht="20" customHeight="1">
+    <row r="13" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="4">
         <v>1338</v>
       </c>
@@ -4622,7 +4683,7 @@
       <c r="J13" s="5"/>
       <c r="K13" s="4"/>
     </row>
-    <row r="14" spans="1:11" ht="20" customHeight="1">
+    <row r="14" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="4">
         <v>1695</v>
       </c>
@@ -4651,7 +4712,7 @@
       </c>
       <c r="K14" s="4"/>
     </row>
-    <row r="15" spans="1:11" ht="20" customHeight="1">
+    <row r="15" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="4">
         <v>2453</v>
       </c>
@@ -4678,7 +4739,7 @@
       <c r="J15" s="5"/>
       <c r="K15" s="4"/>
     </row>
-    <row r="16" spans="1:11" ht="20" customHeight="1">
+    <row r="16" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="4">
         <v>3039</v>
       </c>
@@ -4749,11 +4810,11 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="43.19921875" customWidth="1"/>
-    <col min="3" max="3" width="35.796875" style="11" customWidth="1"/>
+    <col min="2" max="2" width="43.140625" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="11" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
     <col min="6" max="8" width="21" customWidth="1"/>
@@ -4761,7 +4822,7 @@
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20" customHeight="1">
+    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -4912,7 +4973,7 @@
       <c r="J5" s="5"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" ht="20" customHeight="1">
+    <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="4">
         <v>513</v>
       </c>
@@ -4939,7 +5000,7 @@
       <c r="J6" s="5"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11" ht="20" customHeight="1">
+    <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="4">
         <v>515</v>
       </c>
@@ -4995,7 +5056,7 @@
       <c r="J8" s="5"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:11" ht="20" customHeight="1">
+    <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="4">
         <v>958</v>
       </c>
@@ -5022,7 +5083,7 @@
       <c r="J9" s="5"/>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="1:11" ht="20" customHeight="1">
+    <row r="10" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="4">
         <v>987</v>
       </c>
@@ -5049,7 +5110,7 @@
       <c r="J10" s="5"/>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="1:11" ht="20" customHeight="1">
+    <row r="11" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="4">
         <v>1161</v>
       </c>
@@ -5115,11 +5176,11 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="36" customWidth="1"/>
-    <col min="3" max="3" width="35.796875" style="14" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="14" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
     <col min="6" max="8" width="21" customWidth="1"/>
@@ -5127,7 +5188,7 @@
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20" customHeight="1">
+    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -5162,7 +5223,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="20" customHeight="1">
+    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="4">
         <v>113</v>
       </c>
@@ -5189,7 +5250,7 @@
       <c r="J2" s="5"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" ht="20" customHeight="1">
+    <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="4">
         <v>114</v>
       </c>
@@ -5216,7 +5277,7 @@
       <c r="J3" s="5"/>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:11" ht="20" customHeight="1">
+    <row r="4" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="4">
         <v>129</v>
       </c>
@@ -5272,7 +5333,7 @@
       <c r="J5" s="5"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" ht="20" customHeight="1">
+    <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="4">
         <v>341</v>
       </c>
@@ -5299,7 +5360,7 @@
       <c r="J6" s="5"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11" ht="20" customHeight="1">
+    <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="4">
         <v>399</v>
       </c>
@@ -5330,7 +5391,7 @@
       <c r="J7" s="5"/>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="1:11" ht="20" customHeight="1">
+    <row r="8" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="4">
         <v>437</v>
       </c>
@@ -5357,7 +5418,7 @@
       <c r="J8" s="5"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:11" ht="20" customHeight="1">
+    <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="4">
         <v>508</v>
       </c>
@@ -5384,7 +5445,7 @@
       <c r="J9" s="5"/>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="1:11" ht="20" customHeight="1">
+    <row r="10" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="4">
         <v>623</v>
       </c>
@@ -5539,11 +5600,11 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="31" customWidth="1"/>
-    <col min="3" max="3" width="35.796875" style="20" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="20" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="41" customWidth="1"/>
     <col min="6" max="8" width="21" customWidth="1"/>
@@ -5551,7 +5612,7 @@
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20" customHeight="1">
+    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -5586,7 +5647,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="20" customHeight="1">
+    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="6">
         <v>895</v>
       </c>
@@ -5707,11 +5768,11 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="41" customWidth="1"/>
-    <col min="3" max="3" width="35.796875" style="11" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="11" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="41" customWidth="1"/>
     <col min="6" max="8" width="21" customWidth="1"/>
@@ -5719,7 +5780,7 @@
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20" customHeight="1">
+    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -5754,7 +5815,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="20" customHeight="1">
+    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="6">
         <v>239</v>
       </c>
@@ -5843,11 +5904,11 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="31" customWidth="1"/>
-    <col min="3" max="3" width="35.796875" style="11" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="11" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="41" customWidth="1"/>
     <col min="6" max="8" width="21" customWidth="1"/>
@@ -5855,7 +5916,7 @@
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20" customHeight="1">
+    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -5951,19 +6012,19 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="43.19921875" customWidth="1"/>
-    <col min="3" max="3" width="35.796875" style="22" customWidth="1"/>
+    <col min="2" max="2" width="43.140625" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="22" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="25.796875" customWidth="1"/>
+    <col min="5" max="5" width="25.85546875" customWidth="1"/>
     <col min="6" max="8" width="21" customWidth="1"/>
     <col min="9" max="10" width="16" style="1" customWidth="1"/>
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20" customHeight="1">
+    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>

--- a/LeetCode Techniques.xlsx
+++ b/LeetCode Techniques.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jack.yao\Desktop\LeetCode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/blackjack625/Desktop/LeetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F10793-EEFE-4A98-AC65-B6415013EC2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A58182F0-F20C-E540-A419-347577BDD05E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DP" sheetId="8" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="320">
   <si>
     <t>Name</t>
   </si>
@@ -1172,25 +1172,152 @@
   <si>
     <t>O(log(m*n))</t>
   </si>
+  <si>
+    <t>Count Subarrays With Score Less Than K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/count-subarrays-with-score-less-than-k/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>If subarray from start idx + 1 to idx
+can't stay under target, so can't a
+bigger idx with this start idx.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shortest Subarray with Sum at Least K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/shortest-subarray-with-sum-at-least-k/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Range Sum Query 2D - Immutable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O(row*column)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/range-sum-query-2d-immutable/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/random-pick-with-weight/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Random Pick with Weight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/shifting-letters/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shifting Letters</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Binary Subarrays With Sum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/binary-subarrays-with-sum/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefix sum increasing monotonic 
+queue ensure O(n) time complexity.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/number-of-sub-arrays-with-odd-sum/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number of Sub-arrays With Odd Sum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Find the Student that Will Replace the Chalk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-the-student-that-will-replace-the-chalk/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Product of Array Except Self</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/product-of-array-except-self/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Range Product Queries of Powers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/range-product-queries-of-powers/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bit Manipulation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Distant Barcodes</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/distant-barcodes/description/</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>O(nlogn)</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Binary Search</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reorganize String</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/reorganize-string/description/</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Always take top 2 most frequent.</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -1214,7 +1341,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1315,35 +1442,30 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Microsoft YaHei"/>
-      <family val="2"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Microsoft YaHei"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color theme="10"/>
       <name val="Microsoft YaHei"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Microsoft YaHei"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1382,19 +1504,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1441,20 +1563,17 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="42">
     <dxf>
@@ -2181,11 +2300,11 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="46" customWidth="1"/>
-    <col min="3" max="3" width="40.85546875" style="11" customWidth="1"/>
+    <col min="3" max="3" width="40.796875" style="11" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
     <col min="6" max="8" width="21" customWidth="1"/>
@@ -2193,7 +2312,7 @@
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:11" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -2228,7 +2347,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:11" ht="20" customHeight="1">
       <c r="A2" s="4">
         <v>53</v>
       </c>
@@ -2255,7 +2374,7 @@
       <c r="J2" s="5"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:11" ht="20" customHeight="1">
       <c r="A3" s="4">
         <v>62</v>
       </c>
@@ -2311,7 +2430,7 @@
       <c r="J4" s="5"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="1:11" ht="20" customHeight="1">
       <c r="A5" s="4">
         <v>64</v>
       </c>
@@ -2338,7 +2457,7 @@
       <c r="J5" s="5"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="1:11" ht="20" customHeight="1">
       <c r="A6" s="4">
         <v>120</v>
       </c>
@@ -2425,7 +2544,7 @@
       <c r="J8" s="5"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:11" ht="20" customHeight="1">
       <c r="A9" s="4">
         <v>198</v>
       </c>
@@ -2485,7 +2604,7 @@
       <c r="J10" s="5"/>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="1:11" ht="20" customHeight="1">
       <c r="A11" s="4">
         <v>279</v>
       </c>
@@ -2574,7 +2693,7 @@
       <c r="J13" s="5"/>
       <c r="K13" s="4"/>
     </row>
-    <row r="14" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="1:11" ht="20" customHeight="1">
       <c r="A14" s="4">
         <v>343</v>
       </c>
@@ -2661,7 +2780,7 @@
       <c r="J16" s="5"/>
       <c r="K16" s="4"/>
     </row>
-    <row r="17" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="17" spans="1:11" ht="20" customHeight="1">
       <c r="A17" s="4">
         <v>907</v>
       </c>
@@ -2692,7 +2811,7 @@
       <c r="J17" s="5"/>
       <c r="K17" s="4"/>
     </row>
-    <row r="18" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="18" spans="1:11" ht="20" customHeight="1">
       <c r="A18" s="4">
         <v>931</v>
       </c>
@@ -2719,7 +2838,7 @@
       <c r="J18" s="5"/>
       <c r="K18" s="4"/>
     </row>
-    <row r="19" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="19" spans="1:11" ht="20" customHeight="1">
       <c r="A19" s="4">
         <v>1220</v>
       </c>
@@ -2777,7 +2896,7 @@
       <c r="J20" s="5"/>
       <c r="K20" s="4"/>
     </row>
-    <row r="21" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="21" spans="1:11" ht="20" customHeight="1">
       <c r="A21" s="4">
         <v>1301</v>
       </c>
@@ -2804,7 +2923,7 @@
       <c r="J21" s="5"/>
       <c r="K21" s="4"/>
     </row>
-    <row r="22" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="22" spans="1:11" ht="20" customHeight="1">
       <c r="A22" s="4">
         <v>1359</v>
       </c>
@@ -2893,7 +3012,7 @@
       <c r="J24" s="5"/>
       <c r="K24" s="4"/>
     </row>
-    <row r="25" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="25" spans="1:11" ht="20" customHeight="1">
       <c r="A25" s="4">
         <v>1449</v>
       </c>
@@ -2974,11 +3093,11 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="46" customWidth="1"/>
-    <col min="3" max="3" width="65.85546875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="65.796875" style="9" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
     <col min="6" max="8" width="21" customWidth="1"/>
@@ -2986,7 +3105,7 @@
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:11" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -3021,7 +3140,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:11" ht="20" customHeight="1">
       <c r="A2" s="4">
         <v>208</v>
       </c>
@@ -3048,7 +3167,7 @@
       <c r="J2" s="5"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:11" ht="20" customHeight="1">
       <c r="A3" s="4">
         <v>211</v>
       </c>
@@ -3077,7 +3196,7 @@
       <c r="J3" s="5"/>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="1:11" ht="20" customHeight="1">
       <c r="A4" s="4">
         <v>386</v>
       </c>
@@ -3106,7 +3225,7 @@
       <c r="J4" s="5"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="1:11" ht="20" customHeight="1">
       <c r="A5" s="4">
         <v>648</v>
       </c>
@@ -3133,7 +3252,7 @@
       <c r="J5" s="5"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="1:11" ht="20" customHeight="1">
       <c r="A6" s="4">
         <v>677</v>
       </c>
@@ -3162,7 +3281,7 @@
       <c r="J6" s="5"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="1:11" ht="20" customHeight="1">
       <c r="A7" s="4">
         <v>720</v>
       </c>
@@ -3220,7 +3339,7 @@
       <c r="J8" s="5"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:11" ht="20" customHeight="1">
       <c r="A9" s="4">
         <v>1268</v>
       </c>
@@ -3316,11 +3435,11 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="3" width="35.85546875" style="11" customWidth="1"/>
+    <col min="3" max="3" width="35.796875" style="11" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
     <col min="6" max="8" width="21" customWidth="1"/>
@@ -3328,7 +3447,7 @@
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:11" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -3363,7 +3482,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:11" ht="20" customHeight="1">
       <c r="A2" s="4">
         <v>60</v>
       </c>
@@ -3390,7 +3509,7 @@
       <c r="J2" s="5"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:11" ht="20" customHeight="1">
       <c r="A3" s="4">
         <v>394</v>
       </c>
@@ -3448,7 +3567,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="36" customWidth="1"/>
@@ -3460,7 +3579,7 @@
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:11" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -3495,7 +3614,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:11" ht="20" customHeight="1">
       <c r="A2" s="6">
         <v>187</v>
       </c>
@@ -3585,11 +3704,11 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="28.5703125" customWidth="1"/>
-    <col min="3" max="3" width="65.85546875" style="9" customWidth="1"/>
+    <col min="2" max="2" width="28.59765625" customWidth="1"/>
+    <col min="3" max="3" width="65.796875" style="9" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
     <col min="6" max="8" width="21" customWidth="1"/>
@@ -3597,7 +3716,7 @@
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:11" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -3632,7 +3751,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:11" ht="20" customHeight="1">
       <c r="A2" s="4">
         <v>41</v>
       </c>
@@ -3663,7 +3782,7 @@
       </c>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:11" ht="20" customHeight="1">
       <c r="A3" s="4">
         <v>287</v>
       </c>
@@ -3690,7 +3809,7 @@
       <c r="J3" s="5"/>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="1:11" ht="20" customHeight="1">
       <c r="A4" s="4">
         <v>645</v>
       </c>
@@ -3760,11 +3879,11 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" customWidth="1"/>
-    <col min="3" max="3" width="71" style="27" customWidth="1"/>
+    <col min="2" max="2" width="40.796875" customWidth="1"/>
+    <col min="3" max="3" width="71" style="26" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
     <col min="6" max="8" width="21" customWidth="1"/>
@@ -3772,14 +3891,14 @@
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:11" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="24" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -3807,14 +3926,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:11" ht="20" customHeight="1">
       <c r="A2" s="4">
         <v>74</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="25" t="s">
         <v>36</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -3834,14 +3953,14 @@
       <c r="J2" s="3"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:11" ht="20" customHeight="1">
       <c r="A3" s="4">
         <v>220</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="25" t="s">
         <v>43</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -3861,14 +3980,14 @@
       <c r="J3" s="3"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="1:11" ht="20" customHeight="1">
       <c r="A4" s="4">
         <v>295</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="25" t="s">
         <v>250</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -3895,7 +4014,7 @@
       <c r="B5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="25" t="s">
         <v>27</v>
       </c>
       <c r="D5" s="4" t="s">
@@ -3917,14 +4036,14 @@
       <c r="J5" s="5"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="1:11" ht="20" customHeight="1">
       <c r="A6" s="4">
         <v>315</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="25" t="s">
         <v>21</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -3944,14 +4063,14 @@
       <c r="J6" s="5"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="1:11" ht="20" customHeight="1">
       <c r="A7" s="4">
         <v>352</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="25" t="s">
         <v>39</v>
       </c>
       <c r="D7" s="4" t="s">
@@ -3973,14 +4092,14 @@
       <c r="J7" s="5"/>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="1:11" ht="20" customHeight="1">
       <c r="A8" s="4">
         <v>480</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="25" t="s">
         <v>17</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -4000,14 +4119,14 @@
       <c r="J8" s="5"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:11" ht="20" customHeight="1">
       <c r="A9" s="4">
         <v>493</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="25" t="s">
         <v>32</v>
       </c>
       <c r="D9" s="4" t="s">
@@ -4027,14 +4146,14 @@
       <c r="J9" s="5"/>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="1:11" ht="20" customHeight="1">
       <c r="A10" s="4">
         <v>611</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="25" t="s">
         <v>18</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -4056,14 +4175,14 @@
       <c r="J10" s="5"/>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="1:11" ht="20" customHeight="1">
       <c r="A11" s="4">
         <v>668</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="25" t="s">
         <v>287</v>
       </c>
       <c r="D11" s="4" t="s">
@@ -4083,14 +4202,14 @@
       <c r="J11" s="5"/>
       <c r="K11" s="4"/>
     </row>
-    <row r="12" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="1:11" ht="20" customHeight="1">
       <c r="A12" s="4">
         <v>729</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="25" t="s">
         <v>41</v>
       </c>
       <c r="D12" s="4" t="s">
@@ -4110,14 +4229,14 @@
       <c r="J12" s="5"/>
       <c r="K12" s="4"/>
     </row>
-    <row r="13" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="1:11" ht="20" customHeight="1">
       <c r="A13" s="4">
         <v>1095</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="25" t="s">
         <v>64</v>
       </c>
       <c r="D13" s="4" t="s">
@@ -4144,7 +4263,7 @@
       <c r="B14" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="25" t="s">
         <v>65</v>
       </c>
       <c r="D14" s="4" t="s">
@@ -4168,14 +4287,14 @@
       <c r="J14" s="5"/>
       <c r="K14" s="4"/>
     </row>
-    <row r="15" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="1:11" ht="20" customHeight="1">
       <c r="A15" s="4">
         <v>1825</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="25" t="s">
         <v>34</v>
       </c>
       <c r="D15" s="4" t="s">
@@ -4197,14 +4316,14 @@
       <c r="J15" s="5"/>
       <c r="K15" s="4"/>
     </row>
-    <row r="16" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="16" spans="1:11" ht="20" customHeight="1">
       <c r="A16" s="4">
         <v>2034</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="25" t="s">
         <v>26</v>
       </c>
       <c r="D16" s="4" t="s">
@@ -4226,14 +4345,14 @@
       <c r="J16" s="5"/>
       <c r="K16" s="4"/>
     </row>
-    <row r="17" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="17" spans="1:11" ht="20" customHeight="1">
       <c r="A17" s="4">
         <v>2102</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="25" t="s">
         <v>24</v>
       </c>
       <c r="D17" s="4" t="s">
@@ -4302,11 +4421,11 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
-    <col min="3" max="3" width="35.85546875" style="11" customWidth="1"/>
+    <col min="3" max="3" width="35.796875" style="11" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="31" customWidth="1"/>
     <col min="6" max="8" width="21" customWidth="1"/>
@@ -4314,7 +4433,7 @@
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:11" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -4349,7 +4468,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:11" ht="20" customHeight="1">
       <c r="A2" s="4">
         <v>3</v>
       </c>
@@ -4378,7 +4497,7 @@
       </c>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:11" ht="20" customHeight="1">
       <c r="A3" s="4">
         <v>80</v>
       </c>
@@ -4405,7 +4524,7 @@
       <c r="J3" s="5"/>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="1:11" ht="20" customHeight="1">
       <c r="A4" s="4">
         <v>347</v>
       </c>
@@ -4461,7 +4580,7 @@
       <c r="J5" s="5"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="1:11" ht="20" customHeight="1">
       <c r="A6" s="4">
         <v>432</v>
       </c>
@@ -4488,7 +4607,7 @@
       <c r="J6" s="5"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="1:11" ht="20" customHeight="1">
       <c r="A7" s="4">
         <v>460</v>
       </c>
@@ -4515,7 +4634,7 @@
       <c r="J7" s="5"/>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="1:11" ht="20" customHeight="1">
       <c r="A8" s="4">
         <v>692</v>
       </c>
@@ -4602,7 +4721,7 @@
       <c r="J10" s="5"/>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="1:11" ht="20" customHeight="1">
       <c r="A11" s="4">
         <v>1206</v>
       </c>
@@ -4629,7 +4748,7 @@
       <c r="J11" s="5"/>
       <c r="K11" s="4"/>
     </row>
-    <row r="12" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="1:11" ht="20" customHeight="1">
       <c r="A12" s="4">
         <v>1224</v>
       </c>
@@ -4656,7 +4775,7 @@
       <c r="J12" s="5"/>
       <c r="K12" s="4"/>
     </row>
-    <row r="13" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="1:11" ht="20" customHeight="1">
       <c r="A13" s="4">
         <v>1338</v>
       </c>
@@ -4672,7 +4791,7 @@
       <c r="E13" s="17"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>44</v>
@@ -4680,10 +4799,12 @@
       <c r="I13" s="5">
         <v>45383</v>
       </c>
-      <c r="J13" s="5"/>
+      <c r="J13" s="5">
+        <v>45515</v>
+      </c>
       <c r="K13" s="4"/>
     </row>
-    <row r="14" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="1:11" ht="20" customHeight="1">
       <c r="A14" s="4">
         <v>1695</v>
       </c>
@@ -4712,7 +4833,7 @@
       </c>
       <c r="K14" s="4"/>
     </row>
-    <row r="15" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="1:11" ht="20" customHeight="1">
       <c r="A15" s="4">
         <v>2453</v>
       </c>
@@ -4739,7 +4860,7 @@
       <c r="J15" s="5"/>
       <c r="K15" s="4"/>
     </row>
-    <row r="16" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="16" spans="1:11" ht="20" customHeight="1">
       <c r="A16" s="4">
         <v>3039</v>
       </c>
@@ -4810,11 +4931,11 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="43.140625" customWidth="1"/>
-    <col min="3" max="3" width="35.85546875" style="11" customWidth="1"/>
+    <col min="2" max="2" width="43.19921875" customWidth="1"/>
+    <col min="3" max="3" width="35.796875" style="11" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
     <col min="6" max="8" width="21" customWidth="1"/>
@@ -4822,7 +4943,7 @@
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:11" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -4973,7 +5094,7 @@
       <c r="J5" s="5"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="1:11" ht="20" customHeight="1">
       <c r="A6" s="4">
         <v>513</v>
       </c>
@@ -5000,7 +5121,7 @@
       <c r="J6" s="5"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="1:11" ht="20" customHeight="1">
       <c r="A7" s="4">
         <v>515</v>
       </c>
@@ -5056,7 +5177,7 @@
       <c r="J8" s="5"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:11" ht="20" customHeight="1">
       <c r="A9" s="4">
         <v>958</v>
       </c>
@@ -5083,7 +5204,7 @@
       <c r="J9" s="5"/>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="1:11" ht="20" customHeight="1">
       <c r="A10" s="4">
         <v>987</v>
       </c>
@@ -5110,7 +5231,7 @@
       <c r="J10" s="5"/>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="1:11" ht="20" customHeight="1">
       <c r="A11" s="4">
         <v>1161</v>
       </c>
@@ -5176,11 +5297,11 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="36" customWidth="1"/>
-    <col min="3" max="3" width="35.85546875" style="14" customWidth="1"/>
+    <col min="3" max="3" width="35.796875" style="14" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
     <col min="6" max="8" width="21" customWidth="1"/>
@@ -5188,7 +5309,7 @@
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:11" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -5223,7 +5344,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:11" ht="20" customHeight="1">
       <c r="A2" s="4">
         <v>113</v>
       </c>
@@ -5250,7 +5371,7 @@
       <c r="J2" s="5"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:11" ht="20" customHeight="1">
       <c r="A3" s="4">
         <v>114</v>
       </c>
@@ -5277,7 +5398,7 @@
       <c r="J3" s="5"/>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="1:11" ht="20" customHeight="1">
       <c r="A4" s="4">
         <v>129</v>
       </c>
@@ -5333,7 +5454,7 @@
       <c r="J5" s="5"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="1:11" ht="20" customHeight="1">
       <c r="A6" s="4">
         <v>341</v>
       </c>
@@ -5360,7 +5481,7 @@
       <c r="J6" s="5"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="1:11" ht="20" customHeight="1">
       <c r="A7" s="4">
         <v>399</v>
       </c>
@@ -5391,7 +5512,7 @@
       <c r="J7" s="5"/>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="1:11" ht="20" customHeight="1">
       <c r="A8" s="4">
         <v>437</v>
       </c>
@@ -5418,7 +5539,7 @@
       <c r="J8" s="5"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:11" ht="20" customHeight="1">
       <c r="A9" s="4">
         <v>508</v>
       </c>
@@ -5445,7 +5566,7 @@
       <c r="J9" s="5"/>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="1:11" ht="20" customHeight="1">
       <c r="A10" s="4">
         <v>623</v>
       </c>
@@ -5600,11 +5721,11 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="31" customWidth="1"/>
-    <col min="3" max="3" width="35.85546875" style="20" customWidth="1"/>
+    <col min="3" max="3" width="35.796875" style="20" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="41" customWidth="1"/>
     <col min="6" max="8" width="21" customWidth="1"/>
@@ -5612,7 +5733,7 @@
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:11" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -5647,7 +5768,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:11" ht="20" customHeight="1">
       <c r="A2" s="6">
         <v>895</v>
       </c>
@@ -5764,15 +5885,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52284BEE-A51B-EF49-951D-F5B5F860F6DD}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="41" customWidth="1"/>
-    <col min="3" max="3" width="35.85546875" style="11" customWidth="1"/>
+    <col min="3" max="3" width="35.796875" style="11" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="41" customWidth="1"/>
     <col min="6" max="8" width="21" customWidth="1"/>
@@ -5780,7 +5901,7 @@
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:11" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -5815,7 +5936,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:11" ht="20" customHeight="1">
       <c r="A2" s="6">
         <v>239</v>
       </c>
@@ -5844,38 +5965,100 @@
       </c>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" ht="30" customHeight="1">
+    <row r="3" spans="1:11" ht="20" customHeight="1">
       <c r="A3" s="6">
-        <v>1438</v>
+        <v>767</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>256</v>
+        <v>317</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>257</v>
+        <v>318</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="17"/>
-      <c r="F3" s="4"/>
+      <c r="E3" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>316</v>
+      </c>
       <c r="G3" s="4" t="s">
-        <v>44</v>
+        <v>315</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>44</v>
       </c>
       <c r="I3" s="5">
+        <v>45527</v>
+      </c>
+      <c r="J3" s="5"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:11" ht="20" customHeight="1">
+      <c r="A4" s="6">
+        <v>1054</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" s="5">
+        <v>45527</v>
+      </c>
+      <c r="J4" s="5"/>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:11" ht="30" customHeight="1">
+      <c r="A5" s="6">
+        <v>1438</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="17"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" s="5">
         <v>45398</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J5" s="5">
         <v>45517</v>
       </c>
-      <c r="K3" s="4"/>
+      <c r="K5" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
-  <conditionalFormatting sqref="D2:D3">
+  <conditionalFormatting sqref="D2:D5">
     <cfRule type="expression" dxfId="23" priority="1">
       <formula>D2="Easy"</formula>
     </cfRule>
@@ -5887,11 +6070,13 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{20853B54-323D-064E-B92D-2704D4AFD73E}"/>
+    <hyperlink ref="C5" r:id="rId1" xr:uid="{20853B54-323D-064E-B92D-2704D4AFD73E}"/>
     <hyperlink ref="C2" r:id="rId2" xr:uid="{F6739047-85AC-2C4D-8F42-8F6C840C7296}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{A61EDB76-3F1B-FA4B-A484-FF203AB7B891}"/>
+    <hyperlink ref="C3" r:id="rId4" xr:uid="{14F26B79-16C3-8A42-AA1C-424413893725}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId5"/>
   <headerFooter>
     <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 General</oddFooter>
   </headerFooter>
@@ -5900,15 +6085,15 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8380FC83-7509-9643-8CC5-E365761A27D0}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="31" customWidth="1"/>
-    <col min="3" max="3" width="35.85546875" style="11" customWidth="1"/>
+    <col min="2" max="2" width="41" customWidth="1"/>
+    <col min="3" max="3" width="35.796875" style="11" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="41" customWidth="1"/>
     <col min="6" max="8" width="21" customWidth="1"/>
@@ -5916,7 +6101,7 @@
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:11" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -5951,40 +6136,326 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="30" customHeight="1">
+    <row r="2" spans="1:11" ht="20" customHeight="1">
       <c r="A2" s="6">
-        <v>1862</v>
+        <v>238</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>280</v>
+        <v>308</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>309</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>284</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>278</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="E2" s="17"/>
+      <c r="F2" s="4"/>
       <c r="G2" s="4" t="s">
-        <v>282</v>
+        <v>11</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>283</v>
+        <v>11</v>
       </c>
       <c r="I2" s="5">
-        <v>45521</v>
+        <v>45526</v>
       </c>
       <c r="J2" s="5"/>
       <c r="K2" s="4"/>
     </row>
+    <row r="3" spans="1:11" ht="20" customHeight="1">
+      <c r="A3" s="6">
+        <v>304</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="17"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="I3" s="5">
+        <v>45526</v>
+      </c>
+      <c r="J3" s="5"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:11" ht="20" customHeight="1">
+      <c r="A4" s="6">
+        <v>528</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="17"/>
+      <c r="F4" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="5">
+        <v>45525</v>
+      </c>
+      <c r="J4" s="5"/>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:11" ht="20" customHeight="1">
+      <c r="A5" s="6">
+        <v>848</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="17"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="5">
+        <v>45525</v>
+      </c>
+      <c r="J5" s="5"/>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:11" ht="20" customHeight="1">
+      <c r="A6" s="6">
+        <v>862</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="17"/>
+      <c r="F6" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="5">
+        <v>45381</v>
+      </c>
+      <c r="J6" s="5">
+        <v>45525</v>
+      </c>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="1:11" ht="30" customHeight="1">
+      <c r="A7" s="6">
+        <v>930</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="5">
+        <v>45524</v>
+      </c>
+      <c r="J7" s="5"/>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="1:11" ht="20" customHeight="1">
+      <c r="A8" s="6">
+        <v>1524</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="17"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="5">
+        <v>45524</v>
+      </c>
+      <c r="J8" s="5"/>
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" spans="1:11" ht="30" customHeight="1">
+      <c r="A9" s="6">
+        <v>1862</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="I9" s="5">
+        <v>45521</v>
+      </c>
+      <c r="J9" s="5"/>
+      <c r="K9" s="4"/>
+    </row>
+    <row r="10" spans="1:11" ht="30" customHeight="1">
+      <c r="A10" s="6">
+        <v>1894</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="17"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="5">
+        <v>45525</v>
+      </c>
+      <c r="J10" s="5"/>
+      <c r="K10" s="4"/>
+    </row>
+    <row r="11" spans="1:11" ht="45" customHeight="1">
+      <c r="A11" s="6">
+        <v>2302</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>291</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" s="5">
+        <v>45501</v>
+      </c>
+      <c r="J11" s="5">
+        <v>45525</v>
+      </c>
+      <c r="K11" s="4"/>
+    </row>
+    <row r="12" spans="1:11" ht="20" customHeight="1">
+      <c r="A12" s="6">
+        <v>2438</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="17"/>
+      <c r="F12" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" s="5">
+        <v>45526</v>
+      </c>
+      <c r="J12" s="5"/>
+      <c r="K12" s="4"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D2">
+  <conditionalFormatting sqref="D2:D12">
     <cfRule type="expression" dxfId="20" priority="1">
       <formula>D2="Easy"</formula>
     </cfRule>
@@ -5996,10 +6467,20 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{C9816A24-406A-ED4A-8FB2-059B74B03BB2}"/>
+    <hyperlink ref="C9" r:id="rId1" xr:uid="{C9816A24-406A-ED4A-8FB2-059B74B03BB2}"/>
+    <hyperlink ref="C11" r:id="rId2" xr:uid="{28FFE997-242B-BD43-92E3-903DCE08758F}"/>
+    <hyperlink ref="C6" r:id="rId3" xr:uid="{713E12F1-D139-8D4B-A787-71F735A42312}"/>
+    <hyperlink ref="C3" r:id="rId4" xr:uid="{4696FB6F-B483-AC44-BEE2-62362C4172F1}"/>
+    <hyperlink ref="C4" r:id="rId5" xr:uid="{9012EA63-8820-A141-81DD-5424D597639B}"/>
+    <hyperlink ref="C5" r:id="rId6" xr:uid="{A1E4E21C-AD81-7A4F-9657-2A59703E46FD}"/>
+    <hyperlink ref="C7" r:id="rId7" xr:uid="{1D2D6E50-9921-6340-B74B-D89FEEF6E1D7}"/>
+    <hyperlink ref="C8" r:id="rId8" xr:uid="{5132C615-5239-494D-BC2B-CBB9213F1F81}"/>
+    <hyperlink ref="C10" r:id="rId9" xr:uid="{37463C6E-3673-6B4E-B37B-EDCC87E8E8F6}"/>
+    <hyperlink ref="C2" r:id="rId10" xr:uid="{F2C0EEF0-CA41-144C-99D0-D977BE50C774}"/>
+    <hyperlink ref="C12" r:id="rId11" xr:uid="{E65C4F39-2706-6341-ABDD-FBB95C5EAB8F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId12"/>
   <headerFooter>
     <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 General</oddFooter>
   </headerFooter>
@@ -6012,19 +6493,19 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="43.140625" customWidth="1"/>
-    <col min="3" max="3" width="35.85546875" style="22" customWidth="1"/>
+    <col min="2" max="2" width="43.19921875" customWidth="1"/>
+    <col min="3" max="3" width="35.796875" style="22" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="25.85546875" customWidth="1"/>
+    <col min="5" max="5" width="25.796875" customWidth="1"/>
     <col min="6" max="8" width="21" customWidth="1"/>
     <col min="9" max="10" width="16" style="1" customWidth="1"/>
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:11" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>

--- a/LeetCode Techniques.xlsx
+++ b/LeetCode Techniques.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/blackjack625/Desktop/LeetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A58182F0-F20C-E540-A419-347577BDD05E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6981CA9B-7718-FD42-A1F9-628C1188F1BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,14 +18,15 @@
     <sheet name="Hash" sheetId="10" r:id="rId3"/>
     <sheet name="BFS" sheetId="7" r:id="rId4"/>
     <sheet name="DFS" sheetId="6" r:id="rId5"/>
-    <sheet name="Stack" sheetId="9" r:id="rId6"/>
-    <sheet name="Queue" sheetId="12" r:id="rId7"/>
-    <sheet name="Prefix Sum" sheetId="13" r:id="rId8"/>
-    <sheet name="Two Pointers" sheetId="11" r:id="rId9"/>
-    <sheet name="Trie" sheetId="4" r:id="rId10"/>
-    <sheet name="Recursion" sheetId="5" r:id="rId11"/>
-    <sheet name="Sliding Window" sheetId="2" r:id="rId12"/>
-    <sheet name="Set Maneuver" sheetId="3" r:id="rId13"/>
+    <sheet name="Prefix Sum" sheetId="13" r:id="rId6"/>
+    <sheet name="Stack" sheetId="9" r:id="rId7"/>
+    <sheet name="Queue" sheetId="12" r:id="rId8"/>
+    <sheet name="Heap" sheetId="14" r:id="rId9"/>
+    <sheet name="Two Pointers" sheetId="11" r:id="rId10"/>
+    <sheet name="Trie" sheetId="4" r:id="rId11"/>
+    <sheet name="Recursion" sheetId="5" r:id="rId12"/>
+    <sheet name="Sliding Window" sheetId="2" r:id="rId13"/>
+    <sheet name="Set Maneuver" sheetId="3" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="327">
   <si>
     <t>Name</t>
   </si>
@@ -1297,6 +1298,34 @@
   </si>
   <si>
     <t>Always take top 2 most frequent.</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Merge k Sorted Lists</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/merge-k-sorted-lists/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O(n*k*logk)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O(k)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Design Twitter</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/design-twitter/description/</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -1575,7 +1604,37 @@
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="42">
+  <dxfs count="45">
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFFFF00"/>
@@ -3044,13 +3103,13 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2:D25">
-    <cfRule type="expression" dxfId="41" priority="1">
+    <cfRule type="expression" dxfId="44" priority="1">
       <formula>D2="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="2">
+    <cfRule type="expression" dxfId="43" priority="2">
       <formula>D2="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="3">
+    <cfRule type="expression" dxfId="42" priority="3">
       <formula>D2="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3088,6 +3147,112 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A08C46FD-BCA6-4056-B9A8-855F75FCB25A}">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="43.19921875" customWidth="1"/>
+    <col min="3" max="3" width="35.796875" style="22" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="25.796875" customWidth="1"/>
+    <col min="6" max="8" width="21" customWidth="1"/>
+    <col min="9" max="10" width="16" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="20" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="30" customHeight="1">
+      <c r="A2" s="4">
+        <v>1793</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="5">
+        <v>45516</v>
+      </c>
+      <c r="J2" s="5"/>
+      <c r="K2" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <conditionalFormatting sqref="D2">
+    <cfRule type="expression" dxfId="17" priority="1">
+      <formula>D2="Easy"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="2">
+      <formula>D2="Medium"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="3">
+      <formula>D2="Hard"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{4B2FCE29-6D11-4770-B411-6FA0C17E58B9}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
+  <headerFooter>
+    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 General</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52261E16-6011-467F-965D-8624702367C9}">
   <dimension ref="A1:K10"/>
   <sheetViews>
@@ -3429,7 +3594,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69159F7B-7780-4FD1-9225-126219315A4A}">
   <dimension ref="A1:K3"/>
   <sheetViews>
@@ -3561,7 +3726,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96F16DFC-20ED-4148-9FB8-AA8D12910A09}">
   <dimension ref="A1:K3"/>
   <sheetViews>
@@ -3698,7 +3863,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F94156D-DED3-4FD7-B619-DDD9FD49102F}">
   <dimension ref="A1:K4"/>
   <sheetViews>
@@ -4380,13 +4545,13 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2:E17">
-    <cfRule type="expression" dxfId="38" priority="4">
+    <cfRule type="expression" dxfId="41" priority="4">
       <formula>D2="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="5">
+    <cfRule type="expression" dxfId="40" priority="5">
       <formula>D2="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="6">
+    <cfRule type="expression" dxfId="39" priority="6">
       <formula>D2="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4890,13 +5055,13 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2:D16">
-    <cfRule type="expression" dxfId="35" priority="7">
+    <cfRule type="expression" dxfId="38" priority="7">
       <formula>D2="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="8">
+    <cfRule type="expression" dxfId="37" priority="8">
       <formula>D2="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="9">
+    <cfRule type="expression" dxfId="36" priority="9">
       <formula>D2="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4927,7 +5092,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75AC292A-7720-E145-9563-F6FD48AA33E3}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -4978,44 +5143,46 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="30" customHeight="1">
+    <row r="2" spans="1:11" ht="20" customHeight="1">
       <c r="A2" s="4">
-        <v>102</v>
+        <v>23</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>121</v>
+        <v>320</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>122</v>
+        <v>321</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="F2" s="4"/>
+        <v>16</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="4" t="s">
+        <v>324</v>
+      </c>
       <c r="G2" s="4" t="s">
-        <v>44</v>
+        <v>322</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>44</v>
+        <v>323</v>
       </c>
       <c r="I2" s="5">
-        <v>45489</v>
-      </c>
-      <c r="J2" s="5"/>
+        <v>45503</v>
+      </c>
+      <c r="J2" s="5">
+        <v>45528</v>
+      </c>
       <c r="K2" s="4"/>
     </row>
     <row r="3" spans="1:11" ht="30" customHeight="1">
       <c r="A3" s="4">
-        <v>107</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>123</v>
+        <v>102</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>121</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>49</v>
@@ -5038,19 +5205,19 @@
     </row>
     <row r="4" spans="1:11" ht="30" customHeight="1">
       <c r="A4" s="4">
-        <v>116</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>97</v>
+        <v>107</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>123</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>49</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
@@ -5060,20 +5227,20 @@
         <v>44</v>
       </c>
       <c r="I4" s="5">
-        <v>45487</v>
+        <v>45489</v>
       </c>
       <c r="J4" s="5"/>
       <c r="K4" s="4"/>
     </row>
     <row r="5" spans="1:11" ht="30" customHeight="1">
       <c r="A5" s="4">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>49</v>
@@ -5089,47 +5256,49 @@
         <v>44</v>
       </c>
       <c r="I5" s="5">
-        <v>45489</v>
+        <v>45487</v>
       </c>
       <c r="J5" s="5"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" ht="20" customHeight="1">
+    <row r="6" spans="1:11" ht="30" customHeight="1">
       <c r="A6" s="4">
-        <v>513</v>
+        <v>117</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="4"/>
+      <c r="E6" s="6" t="s">
+        <v>119</v>
+      </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
         <v>44</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="I6" s="5">
-        <v>45487</v>
+        <v>45489</v>
       </c>
       <c r="J6" s="5"/>
       <c r="K6" s="4"/>
     </row>
     <row r="7" spans="1:11" ht="20" customHeight="1">
       <c r="A7" s="4">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>49</v>
@@ -5140,57 +5309,57 @@
         <v>44</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="I7" s="5">
-        <v>45488</v>
+        <v>45487</v>
       </c>
       <c r="J7" s="5"/>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="1:11" ht="30" customHeight="1">
+    <row r="8" spans="1:11" ht="20" customHeight="1">
       <c r="A8" s="4">
-        <v>662</v>
+        <v>515</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>132</v>
-      </c>
+      <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
         <v>44</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="I8" s="5">
-        <v>45490</v>
+        <v>45488</v>
       </c>
       <c r="J8" s="5"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:11" ht="20" customHeight="1">
+    <row r="9" spans="1:11" ht="30" customHeight="1">
       <c r="A9" s="4">
-        <v>958</v>
+        <v>662</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="6"/>
+      <c r="E9" s="6" t="s">
+        <v>132</v>
+      </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
         <v>44</v>
@@ -5199,23 +5368,23 @@
         <v>44</v>
       </c>
       <c r="I9" s="5">
-        <v>45491</v>
+        <v>45490</v>
       </c>
       <c r="J9" s="5"/>
       <c r="K9" s="4"/>
     </row>
     <row r="10" spans="1:11" ht="20" customHeight="1">
       <c r="A10" s="4">
-        <v>987</v>
+        <v>958</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>193</v>
+        <v>130</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>194</v>
+        <v>131</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="4"/>
@@ -5226,23 +5395,23 @@
         <v>44</v>
       </c>
       <c r="I10" s="5">
-        <v>45497</v>
+        <v>45491</v>
       </c>
       <c r="J10" s="5"/>
       <c r="K10" s="4"/>
     </row>
     <row r="11" spans="1:11" ht="20" customHeight="1">
       <c r="A11" s="4">
-        <v>1161</v>
+        <v>987</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>133</v>
+        <v>193</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>134</v>
+        <v>194</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="4"/>
@@ -5253,38 +5422,66 @@
         <v>44</v>
       </c>
       <c r="I11" s="5">
-        <v>45491</v>
+        <v>45497</v>
       </c>
       <c r="J11" s="5"/>
       <c r="K11" s="4"/>
     </row>
+    <row r="12" spans="1:11" ht="20" customHeight="1">
+      <c r="A12" s="4">
+        <v>1161</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I12" s="5">
+        <v>45491</v>
+      </c>
+      <c r="J12" s="5"/>
+      <c r="K12" s="4"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D2:D11">
-    <cfRule type="expression" dxfId="32" priority="1">
+  <conditionalFormatting sqref="D2:D12">
+    <cfRule type="expression" dxfId="35" priority="1">
       <formula>D2="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="2">
+    <cfRule type="expression" dxfId="34" priority="2">
       <formula>D2="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="3">
+    <cfRule type="expression" dxfId="33" priority="3">
       <formula>D2="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1" xr:uid="{13210F83-F6EB-B544-ABBA-8F955E2F9194}"/>
-    <hyperlink ref="C5" r:id="rId2" xr:uid="{8BC7B711-ADEB-4546-905F-7D690999B5BB}"/>
-    <hyperlink ref="C2" r:id="rId3" xr:uid="{C2B4A6B6-B0D8-4F31-9802-387F04CC45FB}"/>
-    <hyperlink ref="C3" r:id="rId4" xr:uid="{5615EAD9-62C1-4780-AE19-6BFAC2939521}"/>
-    <hyperlink ref="C8" r:id="rId5" xr:uid="{6D55272D-BA36-4797-A7CF-581EE973B392}"/>
-    <hyperlink ref="C9" r:id="rId6" xr:uid="{A382170A-F086-4927-B656-868CCD453ABF}"/>
-    <hyperlink ref="C11" r:id="rId7" xr:uid="{25BA1857-5CC6-4D6B-94BB-2E650759A139}"/>
-    <hyperlink ref="C6" r:id="rId8" xr:uid="{2E17F9D2-5401-784D-B0AE-3D6983893C12}"/>
-    <hyperlink ref="C7" r:id="rId9" xr:uid="{8EE9509C-DFBF-7B45-85D3-B7096029C524}"/>
-    <hyperlink ref="C10" r:id="rId10" xr:uid="{E5A94DC6-8374-FA48-ACD8-D23A322C4AED}"/>
+    <hyperlink ref="C5" r:id="rId1" xr:uid="{13210F83-F6EB-B544-ABBA-8F955E2F9194}"/>
+    <hyperlink ref="C6" r:id="rId2" xr:uid="{8BC7B711-ADEB-4546-905F-7D690999B5BB}"/>
+    <hyperlink ref="C3" r:id="rId3" xr:uid="{C2B4A6B6-B0D8-4F31-9802-387F04CC45FB}"/>
+    <hyperlink ref="C4" r:id="rId4" xr:uid="{5615EAD9-62C1-4780-AE19-6BFAC2939521}"/>
+    <hyperlink ref="C9" r:id="rId5" xr:uid="{6D55272D-BA36-4797-A7CF-581EE973B392}"/>
+    <hyperlink ref="C10" r:id="rId6" xr:uid="{A382170A-F086-4927-B656-868CCD453ABF}"/>
+    <hyperlink ref="C12" r:id="rId7" xr:uid="{25BA1857-5CC6-4D6B-94BB-2E650759A139}"/>
+    <hyperlink ref="C7" r:id="rId8" xr:uid="{2E17F9D2-5401-784D-B0AE-3D6983893C12}"/>
+    <hyperlink ref="C8" r:id="rId9" xr:uid="{8EE9509C-DFBF-7B45-85D3-B7096029C524}"/>
+    <hyperlink ref="C11" r:id="rId10" xr:uid="{E5A94DC6-8374-FA48-ACD8-D23A322C4AED}"/>
+    <hyperlink ref="C2" r:id="rId11" xr:uid="{AFD4ACC6-6788-B545-9C84-9AFC01978CCB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId11"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId12"/>
   <headerFooter>
     <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 General</oddFooter>
   </headerFooter>
@@ -5683,13 +5880,13 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2:D13">
-    <cfRule type="expression" dxfId="29" priority="1">
+    <cfRule type="expression" dxfId="32" priority="1">
       <formula>D2="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="2">
+    <cfRule type="expression" dxfId="31" priority="2">
       <formula>D2="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="3">
+    <cfRule type="expression" dxfId="30" priority="3">
       <formula>D2="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5716,6 +5913,410 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8380FC83-7509-9643-8CC5-E365761A27D0}">
+  <dimension ref="A1:K12"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="41" customWidth="1"/>
+    <col min="3" max="3" width="35.796875" style="11" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="41" customWidth="1"/>
+    <col min="6" max="8" width="21" customWidth="1"/>
+    <col min="9" max="10" width="16" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="20" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="20" customHeight="1">
+      <c r="A2" s="6">
+        <v>238</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="17"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="5">
+        <v>45526</v>
+      </c>
+      <c r="J2" s="5"/>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="1:11" ht="20" customHeight="1">
+      <c r="A3" s="6">
+        <v>304</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="17"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="I3" s="5">
+        <v>45526</v>
+      </c>
+      <c r="J3" s="5"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:11" ht="20" customHeight="1">
+      <c r="A4" s="6">
+        <v>528</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="17"/>
+      <c r="F4" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="5">
+        <v>45525</v>
+      </c>
+      <c r="J4" s="5"/>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:11" ht="20" customHeight="1">
+      <c r="A5" s="6">
+        <v>848</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="17"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="5">
+        <v>45525</v>
+      </c>
+      <c r="J5" s="5"/>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:11" ht="20" customHeight="1">
+      <c r="A6" s="6">
+        <v>862</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="17"/>
+      <c r="F6" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="5">
+        <v>45381</v>
+      </c>
+      <c r="J6" s="5">
+        <v>45525</v>
+      </c>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="1:11" ht="30" customHeight="1">
+      <c r="A7" s="6">
+        <v>930</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="5">
+        <v>45524</v>
+      </c>
+      <c r="J7" s="5"/>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="1:11" ht="20" customHeight="1">
+      <c r="A8" s="6">
+        <v>1524</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="17"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="5">
+        <v>45524</v>
+      </c>
+      <c r="J8" s="5"/>
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" spans="1:11" ht="30" customHeight="1">
+      <c r="A9" s="6">
+        <v>1862</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="I9" s="5">
+        <v>45521</v>
+      </c>
+      <c r="J9" s="5"/>
+      <c r="K9" s="4"/>
+    </row>
+    <row r="10" spans="1:11" ht="30" customHeight="1">
+      <c r="A10" s="6">
+        <v>1894</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="17"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="5">
+        <v>45525</v>
+      </c>
+      <c r="J10" s="5"/>
+      <c r="K10" s="4"/>
+    </row>
+    <row r="11" spans="1:11" ht="45" customHeight="1">
+      <c r="A11" s="6">
+        <v>2302</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>291</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" s="5">
+        <v>45501</v>
+      </c>
+      <c r="J11" s="5">
+        <v>45525</v>
+      </c>
+      <c r="K11" s="4"/>
+    </row>
+    <row r="12" spans="1:11" ht="20" customHeight="1">
+      <c r="A12" s="6">
+        <v>2438</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="17"/>
+      <c r="F12" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" s="5">
+        <v>45526</v>
+      </c>
+      <c r="J12" s="5"/>
+      <c r="K12" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="D2:D12">
+    <cfRule type="expression" dxfId="29" priority="1">
+      <formula>D2="Easy"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="2">
+      <formula>D2="Medium"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="27" priority="3">
+      <formula>D2="Hard"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="C9" r:id="rId1" xr:uid="{C9816A24-406A-ED4A-8FB2-059B74B03BB2}"/>
+    <hyperlink ref="C11" r:id="rId2" xr:uid="{28FFE997-242B-BD43-92E3-903DCE08758F}"/>
+    <hyperlink ref="C6" r:id="rId3" xr:uid="{713E12F1-D139-8D4B-A787-71F735A42312}"/>
+    <hyperlink ref="C3" r:id="rId4" xr:uid="{4696FB6F-B483-AC44-BEE2-62362C4172F1}"/>
+    <hyperlink ref="C4" r:id="rId5" xr:uid="{9012EA63-8820-A141-81DD-5424D597639B}"/>
+    <hyperlink ref="C5" r:id="rId6" xr:uid="{A1E4E21C-AD81-7A4F-9657-2A59703E46FD}"/>
+    <hyperlink ref="C7" r:id="rId7" xr:uid="{1D2D6E50-9921-6340-B74B-D89FEEF6E1D7}"/>
+    <hyperlink ref="C8" r:id="rId8" xr:uid="{5132C615-5239-494D-BC2B-CBB9213F1F81}"/>
+    <hyperlink ref="C10" r:id="rId9" xr:uid="{37463C6E-3673-6B4E-B37B-EDCC87E8E8F6}"/>
+    <hyperlink ref="C2" r:id="rId10" xr:uid="{F2C0EEF0-CA41-144C-99D0-D977BE50C774}"/>
+    <hyperlink ref="C12" r:id="rId11" xr:uid="{E65C4F39-2706-6341-ABDD-FBB95C5EAB8F}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId12"/>
+  <headerFooter>
+    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 General</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BC7A267-6069-4E38-AC2F-0C28241496B0}">
   <dimension ref="A1:K4"/>
   <sheetViews>
@@ -5883,7 +6484,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52284BEE-A51B-EF49-951D-F5B5F860F6DD}">
   <dimension ref="A1:K5"/>
   <sheetViews>
@@ -6071,9 +6672,9 @@
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="C5" r:id="rId1" xr:uid="{20853B54-323D-064E-B92D-2704D4AFD73E}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{F6739047-85AC-2C4D-8F42-8F6C840C7296}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{A61EDB76-3F1B-FA4B-A484-FF203AB7B891}"/>
-    <hyperlink ref="C3" r:id="rId4" xr:uid="{14F26B79-16C3-8A42-AA1C-424413893725}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{A61EDB76-3F1B-FA4B-A484-FF203AB7B891}"/>
+    <hyperlink ref="C3" r:id="rId3" xr:uid="{14F26B79-16C3-8A42-AA1C-424413893725}"/>
+    <hyperlink ref="C2" r:id="rId4" xr:uid="{F6739047-85AC-2C4D-8F42-8F6C840C7296}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId5"/>
@@ -6083,16 +6684,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8380FC83-7509-9643-8CC5-E365761A27D0}">
-  <dimension ref="A1:K12"/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99BCE9F1-E6C6-6346-98A0-65D0C06C0EE4}">
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="41" customWidth="1"/>
+    <col min="2" max="2" width="26" customWidth="1"/>
     <col min="3" max="3" width="35.796875" style="11" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="41" customWidth="1"/>
@@ -6138,324 +6739,34 @@
     </row>
     <row r="2" spans="1:11" ht="20" customHeight="1">
       <c r="A2" s="6">
-        <v>238</v>
+        <v>355</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>308</v>
+        <v>325</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>309</v>
+        <v>326</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="17"/>
+      <c r="E2" s="6"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4" t="s">
-        <v>11</v>
+        <v>322</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>11</v>
+        <v>323</v>
       </c>
       <c r="I2" s="5">
-        <v>45526</v>
+        <v>45528</v>
       </c>
       <c r="J2" s="5"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" ht="20" customHeight="1">
-      <c r="A3" s="6">
-        <v>304</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="17"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="I3" s="5">
-        <v>45526</v>
-      </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="4"/>
-    </row>
-    <row r="4" spans="1:11" ht="20" customHeight="1">
-      <c r="A4" s="6">
-        <v>528</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>297</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="17"/>
-      <c r="F4" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="5">
-        <v>45525</v>
-      </c>
-      <c r="J4" s="5"/>
-      <c r="K4" s="4"/>
-    </row>
-    <row r="5" spans="1:11" ht="20" customHeight="1">
-      <c r="A5" s="6">
-        <v>848</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="5">
-        <v>45525</v>
-      </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="4"/>
-    </row>
-    <row r="6" spans="1:11" ht="20" customHeight="1">
-      <c r="A6" s="6">
-        <v>862</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="5">
-        <v>45381</v>
-      </c>
-      <c r="J6" s="5">
-        <v>45525</v>
-      </c>
-      <c r="K6" s="4"/>
-    </row>
-    <row r="7" spans="1:11" ht="30" customHeight="1">
-      <c r="A7" s="6">
-        <v>930</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>303</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" s="5">
-        <v>45524</v>
-      </c>
-      <c r="J7" s="5"/>
-      <c r="K7" s="4"/>
-    </row>
-    <row r="8" spans="1:11" ht="20" customHeight="1">
-      <c r="A8" s="6">
-        <v>1524</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I8" s="5">
-        <v>45524</v>
-      </c>
-      <c r="J8" s="5"/>
-      <c r="K8" s="4"/>
-    </row>
-    <row r="9" spans="1:11" ht="30" customHeight="1">
-      <c r="A9" s="6">
-        <v>1862</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>284</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="I9" s="5">
-        <v>45521</v>
-      </c>
-      <c r="J9" s="5"/>
-      <c r="K9" s="4"/>
-    </row>
-    <row r="10" spans="1:11" ht="30" customHeight="1">
-      <c r="A10" s="6">
-        <v>1894</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="17"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I10" s="5">
-        <v>45525</v>
-      </c>
-      <c r="J10" s="5"/>
-      <c r="K10" s="4"/>
-    </row>
-    <row r="11" spans="1:11" ht="45" customHeight="1">
-      <c r="A11" s="6">
-        <v>2302</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>291</v>
-      </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I11" s="5">
-        <v>45501</v>
-      </c>
-      <c r="J11" s="5">
-        <v>45525</v>
-      </c>
-      <c r="K11" s="4"/>
-    </row>
-    <row r="12" spans="1:11" ht="20" customHeight="1">
-      <c r="A12" s="6">
-        <v>2438</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>311</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="17"/>
-      <c r="F12" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I12" s="5">
-        <v>45526</v>
-      </c>
-      <c r="J12" s="5"/>
-      <c r="K12" s="4"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D2:D12">
+  <conditionalFormatting sqref="D2">
     <cfRule type="expression" dxfId="20" priority="1">
       <formula>D2="Easy"</formula>
     </cfRule>
@@ -6467,123 +6778,7 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="C9" r:id="rId1" xr:uid="{C9816A24-406A-ED4A-8FB2-059B74B03BB2}"/>
-    <hyperlink ref="C11" r:id="rId2" xr:uid="{28FFE997-242B-BD43-92E3-903DCE08758F}"/>
-    <hyperlink ref="C6" r:id="rId3" xr:uid="{713E12F1-D139-8D4B-A787-71F735A42312}"/>
-    <hyperlink ref="C3" r:id="rId4" xr:uid="{4696FB6F-B483-AC44-BEE2-62362C4172F1}"/>
-    <hyperlink ref="C4" r:id="rId5" xr:uid="{9012EA63-8820-A141-81DD-5424D597639B}"/>
-    <hyperlink ref="C5" r:id="rId6" xr:uid="{A1E4E21C-AD81-7A4F-9657-2A59703E46FD}"/>
-    <hyperlink ref="C7" r:id="rId7" xr:uid="{1D2D6E50-9921-6340-B74B-D89FEEF6E1D7}"/>
-    <hyperlink ref="C8" r:id="rId8" xr:uid="{5132C615-5239-494D-BC2B-CBB9213F1F81}"/>
-    <hyperlink ref="C10" r:id="rId9" xr:uid="{37463C6E-3673-6B4E-B37B-EDCC87E8E8F6}"/>
-    <hyperlink ref="C2" r:id="rId10" xr:uid="{F2C0EEF0-CA41-144C-99D0-D977BE50C774}"/>
-    <hyperlink ref="C12" r:id="rId11" xr:uid="{E65C4F39-2706-6341-ABDD-FBB95C5EAB8F}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId12"/>
-  <headerFooter>
-    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 General</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A08C46FD-BCA6-4056-B9A8-855F75FCB25A}">
-  <dimension ref="A1:K2"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
-  <cols>
-    <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="43.19921875" customWidth="1"/>
-    <col min="3" max="3" width="35.796875" style="22" customWidth="1"/>
-    <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="25.796875" customWidth="1"/>
-    <col min="6" max="8" width="21" customWidth="1"/>
-    <col min="9" max="10" width="16" style="1" customWidth="1"/>
-    <col min="11" max="11" width="16" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="20" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="30" customHeight="1">
-      <c r="A2" s="4">
-        <v>1793</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>252</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>253</v>
-      </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I2" s="5">
-        <v>45516</v>
-      </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="4"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
-  <conditionalFormatting sqref="D2">
-    <cfRule type="expression" dxfId="17" priority="1">
-      <formula>D2="Easy"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="2">
-      <formula>D2="Medium"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="15" priority="3">
-      <formula>D2="Hard"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{4B2FCE29-6D11-4770-B411-6FA0C17E58B9}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{BD755528-4D9F-2E43-8D44-F83835331DEA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>

--- a/LeetCode Techniques.xlsx
+++ b/LeetCode Techniques.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/blackjack625/Desktop/LeetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6981CA9B-7718-FD42-A1F9-628C1188F1BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE32835A-5731-D54F-854A-41237EC648E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,17 +16,18 @@
     <sheet name="DP" sheetId="8" r:id="rId1"/>
     <sheet name="Binary Search" sheetId="1" r:id="rId2"/>
     <sheet name="Hash" sheetId="10" r:id="rId3"/>
-    <sheet name="BFS" sheetId="7" r:id="rId4"/>
-    <sheet name="DFS" sheetId="6" r:id="rId5"/>
-    <sheet name="Prefix Sum" sheetId="13" r:id="rId6"/>
-    <sheet name="Stack" sheetId="9" r:id="rId7"/>
-    <sheet name="Queue" sheetId="12" r:id="rId8"/>
-    <sheet name="Heap" sheetId="14" r:id="rId9"/>
-    <sheet name="Two Pointers" sheetId="11" r:id="rId10"/>
-    <sheet name="Trie" sheetId="4" r:id="rId11"/>
-    <sheet name="Recursion" sheetId="5" r:id="rId12"/>
-    <sheet name="Sliding Window" sheetId="2" r:id="rId13"/>
-    <sheet name="Set Maneuver" sheetId="3" r:id="rId14"/>
+    <sheet name="Bit Manipulation" sheetId="15" r:id="rId4"/>
+    <sheet name="BFS" sheetId="7" r:id="rId5"/>
+    <sheet name="DFS" sheetId="6" r:id="rId6"/>
+    <sheet name="Prefix Sum" sheetId="13" r:id="rId7"/>
+    <sheet name="Stack" sheetId="9" r:id="rId8"/>
+    <sheet name="Queue" sheetId="12" r:id="rId9"/>
+    <sheet name="Heap" sheetId="14" r:id="rId10"/>
+    <sheet name="Two Pointers" sheetId="11" r:id="rId11"/>
+    <sheet name="Trie" sheetId="4" r:id="rId12"/>
+    <sheet name="Recursion" sheetId="5" r:id="rId13"/>
+    <sheet name="Sliding Window" sheetId="2" r:id="rId14"/>
+    <sheet name="Set Maneuver" sheetId="3" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="346">
   <si>
     <t>Name</t>
   </si>
@@ -262,9 +263,6 @@
   </si>
   <si>
     <t>Hard</t>
-  </si>
-  <si>
-    <t>Hash Table</t>
   </si>
   <si>
     <t>Decode String</t>
@@ -1039,23 +1037,23 @@
   </si>
   <si>
     <t>Longest Continuous Subarray With Absolute Diff Less Than or Equal to Limit</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>https://leetcode.com/problems/longest-continuous-subarray-with-absolute-diff-less-than-or-equal-to-limit/description/</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Sliding Window Maximum</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>https://leetcode.com/problems/sliding-window-maximum/</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>O(k)</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Constrained Subsequence Sum</t>
@@ -1129,10 +1127,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Hash Table</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>When clash happens,
 adjust mod's power term.
 Set base &amp; mode as primes.</t>
@@ -1274,31 +1268,31 @@
   </si>
   <si>
     <t>Distant Barcodes</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>https://leetcode.com/problems/distant-barcodes/description/</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>O(nlogn)</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Binary Search</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Reorganize String</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>https://leetcode.com/problems/reorganize-string/description/</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Always take top 2 most frequent.</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Merge k Sorted Lists</t>
@@ -1322,11 +1316,98 @@
   </si>
   <si>
     <t>Design Twitter</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>https://leetcode.com/problems/design-twitter/description/</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Binary search also works. Just more time.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Find K Closest Elements</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>O(logn + k)</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-k-closest-elements/description/</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bitwise AND of Numbers Range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/bitwise-and-of-numbers-range/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Left &amp; right share same log level:
+AND from left to right = common prefix of their binary strings.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Integer Replacement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/integer-replacement/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sum of Two Integers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/sum-of-two-integers/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AND: common digits are doubled.
+XOR: differed digits.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number of Steps to Reduce a Number in Binary Representation to One</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/number-of-steps-to-reduce-a-number-in-binary-representation-to-one/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Longest Subarray With Maximum Bitwise AND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/longest-subarray-with-maximum-bitwise-and/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Find longest max number streak.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Neighboring Bitwise XOR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/neighboring-bitwise-xor/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>When all numbers occur twice,
+their XOR must be 0.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1336,7 +1417,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1450,26 +1531,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Microsoft YaHei"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Microsoft YaHei"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="10"/>
-      <name val="Microsoft YaHei"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="新細明體"/>
       <family val="3"/>
@@ -1494,6 +1555,14 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1533,7 +1602,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1585,26 +1654,82 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="45">
+  <dxfs count="51">
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFFFF00"/>
@@ -2411,10 +2536,10 @@
         <v>53</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>148</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>149</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>49</v>
@@ -2438,10 +2563,10 @@
         <v>62</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>49</v>
@@ -2449,10 +2574,10 @@
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I3" s="5">
         <v>45493</v>
@@ -2465,23 +2590,23 @@
         <v>63</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>49</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I4" s="5">
         <v>45493</v>
@@ -2494,10 +2619,10 @@
         <v>64</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>49</v>
@@ -2505,10 +2630,10 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I5" s="5">
         <v>45493</v>
@@ -2521,10 +2646,10 @@
         <v>120</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>145</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>146</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>10</v>
@@ -2548,19 +2673,19 @@
         <v>124</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>135</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>136</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>11</v>
@@ -2579,16 +2704,16 @@
         <v>152</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>150</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>151</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>49</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
@@ -2608,17 +2733,17 @@
         <v>198</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>49</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>11</v>
@@ -2637,19 +2762,19 @@
         <v>213</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>49</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>44</v>
@@ -2668,23 +2793,23 @@
         <v>279</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>175</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>176</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>49</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I11" s="5">
         <v>45495</v>
@@ -2697,23 +2822,23 @@
         <v>322</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>49</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="H12" s="4" t="s">
         <v>165</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>166</v>
       </c>
       <c r="I12" s="5">
         <v>45495</v>
@@ -2726,19 +2851,19 @@
         <v>337</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>158</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>159</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>49</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>44</v>
@@ -2757,20 +2882,20 @@
         <v>343</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>179</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>180</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>49</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>44</v>
@@ -2786,23 +2911,23 @@
         <v>377</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>183</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>184</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>49</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="H15" s="4" t="s">
         <v>185</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>186</v>
       </c>
       <c r="I15" s="5">
         <v>45495</v>
@@ -2815,23 +2940,23 @@
         <v>518</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>168</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>169</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>49</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="H16" s="4" t="s">
         <v>165</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>166</v>
       </c>
       <c r="I16" s="5">
         <v>45495</v>
@@ -2844,19 +2969,19 @@
         <v>907</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>190</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>191</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>11</v>
@@ -2875,10 +3000,10 @@
         <v>931</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>10</v>
@@ -2886,7 +3011,7 @@
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>11</v>
@@ -2902,10 +3027,10 @@
         <v>1220</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>215</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>216</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>16</v>
@@ -2929,22 +3054,22 @@
         <v>1289</v>
       </c>
       <c r="B20" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>154</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>155</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F20" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="G20" s="4" t="s">
         <v>156</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>157</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>11</v>
@@ -2960,10 +3085,10 @@
         <v>1301</v>
       </c>
       <c r="B21" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>205</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>206</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>16</v>
@@ -2971,10 +3096,10 @@
       <c r="E21" s="6"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I21" s="5">
         <v>45497</v>
@@ -2987,10 +3112,10 @@
         <v>1359</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>58</v>
@@ -3014,19 +3139,19 @@
         <v>1373</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E23" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="F23" s="4" t="s">
         <v>208</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>209</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>44</v>
@@ -3045,19 +3170,19 @@
         <v>1425</v>
       </c>
       <c r="B24" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="C24" s="8" t="s">
         <v>261</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>262</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>11</v>
@@ -3076,23 +3201,23 @@
         <v>1449</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C25" s="8" t="s">
         <v>211</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>212</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I25" s="5">
         <v>45502</v>
@@ -3103,13 +3228,13 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2:D25">
-    <cfRule type="expression" dxfId="44" priority="1">
+    <cfRule type="expression" dxfId="50" priority="1">
       <formula>D2="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="2">
+    <cfRule type="expression" dxfId="49" priority="2">
       <formula>D2="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="3">
+    <cfRule type="expression" dxfId="48" priority="3">
       <formula>D2="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3147,8 +3272,144 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99BCE9F1-E6C6-6346-98A0-65D0C06C0EE4}">
+  <dimension ref="A1:K3"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="31" customWidth="1"/>
+    <col min="3" max="3" width="35.796875" style="11" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="41" customWidth="1"/>
+    <col min="6" max="8" width="21" customWidth="1"/>
+    <col min="9" max="10" width="16" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="20" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="20" customHeight="1">
+      <c r="A2" s="4">
+        <v>295</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>249</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="5">
+        <v>45382</v>
+      </c>
+      <c r="J2" s="5">
+        <v>45528</v>
+      </c>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" ht="20" customHeight="1">
+      <c r="A3" s="6">
+        <v>355</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="I3" s="5">
+        <v>45528</v>
+      </c>
+      <c r="J3" s="5"/>
+      <c r="K3" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="D2:E3">
+    <cfRule type="expression" dxfId="23" priority="1">
+      <formula>D2="Easy"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="2">
+      <formula>D2="Medium"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="3">
+      <formula>D2="Hard"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{BD755528-4D9F-2E43-8D44-F83835331DEA}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{322F67A3-4E60-134A-9BA1-AF1822132017}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId3"/>
+  <headerFooter>
+    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 General</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A08C46FD-BCA6-4056-B9A8-855F75FCB25A}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -3156,7 +3417,7 @@
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="43.19921875" customWidth="1"/>
-    <col min="3" max="3" width="35.796875" style="22" customWidth="1"/>
+    <col min="3" max="3" width="35.796875" style="11" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="25.796875" customWidth="1"/>
     <col min="6" max="8" width="21" customWidth="1"/>
@@ -3171,7 +3432,7 @@
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -3199,60 +3460,90 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="30" customHeight="1">
+    <row r="2" spans="1:11" ht="20" customHeight="1">
       <c r="A2" s="4">
-        <v>1793</v>
+        <v>658</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>252</v>
+        <v>326</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>328</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>253</v>
-      </c>
-      <c r="F2" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="E2" s="17"/>
+      <c r="F2" s="4" t="s">
+        <v>314</v>
+      </c>
       <c r="G2" s="4" t="s">
-        <v>44</v>
+        <v>327</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>45</v>
       </c>
       <c r="I2" s="5">
-        <v>45516</v>
+        <v>45529</v>
       </c>
       <c r="J2" s="5"/>
       <c r="K2" s="4"/>
     </row>
+    <row r="3" spans="1:11" ht="30" customHeight="1">
+      <c r="A3" s="4">
+        <v>1793</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" s="5">
+        <v>45516</v>
+      </c>
+      <c r="J3" s="5"/>
+      <c r="K3" s="4"/>
+    </row>
   </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
-  <conditionalFormatting sqref="D2">
-    <cfRule type="expression" dxfId="17" priority="1">
+  <phoneticPr fontId="16" type="noConversion"/>
+  <conditionalFormatting sqref="D2:D3">
+    <cfRule type="expression" dxfId="20" priority="1">
       <formula>D2="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="2">
+    <cfRule type="expression" dxfId="19" priority="2">
       <formula>D2="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="3">
+    <cfRule type="expression" dxfId="18" priority="3">
       <formula>D2="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{4B2FCE29-6D11-4770-B411-6FA0C17E58B9}"/>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{4B2FCE29-6D11-4770-B411-6FA0C17E58B9}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{14F7A118-8582-6D47-9613-4FA8663D6975}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId3"/>
   <headerFooter>
     <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 General</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52261E16-6011-467F-965D-8624702367C9}">
   <dimension ref="A1:K10"/>
   <sheetViews>
@@ -3310,10 +3601,10 @@
         <v>208</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>49</v>
@@ -3324,7 +3615,7 @@
         <v>44</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I2" s="5">
         <v>45483</v>
@@ -3337,23 +3628,23 @@
         <v>211</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>49</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4" t="s">
         <v>44</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I3" s="5">
         <v>45483</v>
@@ -3366,23 +3657,23 @@
         <v>386</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>73</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>74</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>49</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I4" s="5">
         <v>45483</v>
@@ -3395,10 +3686,10 @@
         <v>648</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>76</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>77</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>49</v>
@@ -3406,10 +3697,10 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I5" s="5">
         <v>45485</v>
@@ -3422,23 +3713,23 @@
         <v>677</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>78</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>79</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>49</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I6" s="5">
         <v>45484</v>
@@ -3451,23 +3742,23 @@
         <v>720</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>80</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>81</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>49</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I7" s="5">
         <v>45485</v>
@@ -3480,23 +3771,23 @@
         <v>1032</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
         <v>44</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I8" s="5">
         <v>45484</v>
@@ -3509,23 +3800,23 @@
         <v>1268</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>87</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>88</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>49</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I9" s="5">
         <v>45484</v>
@@ -3538,23 +3829,23 @@
         <v>2416</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>89</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>90</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I10" s="5">
         <v>45485</v>
@@ -3565,13 +3856,13 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2:D10">
-    <cfRule type="expression" dxfId="14" priority="1">
+    <cfRule type="expression" dxfId="17" priority="1">
       <formula>D2="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="2">
+    <cfRule type="expression" dxfId="16" priority="2">
       <formula>D2="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="3">
+    <cfRule type="expression" dxfId="15" priority="3">
       <formula>D2="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3594,7 +3885,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69159F7B-7780-4FD1-9225-126219315A4A}">
   <dimension ref="A1:K3"/>
   <sheetViews>
@@ -3652,10 +3943,10 @@
         <v>60</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>265</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>266</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>16</v>
@@ -3679,10 +3970,10 @@
         <v>394</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>60</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>61</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>49</v>
@@ -3704,13 +3995,13 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2:D3">
-    <cfRule type="expression" dxfId="11" priority="1">
+    <cfRule type="expression" dxfId="14" priority="1">
       <formula>D2="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="2">
+    <cfRule type="expression" dxfId="13" priority="2">
       <formula>D2="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="3">
+    <cfRule type="expression" dxfId="12" priority="3">
       <formula>D2="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3726,7 +4017,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96F16DFC-20ED-4148-9FB8-AA8D12910A09}">
   <dimension ref="A1:K3"/>
   <sheetViews>
@@ -3784,17 +4075,17 @@
         <v>187</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>276</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>277</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="17"/>
       <c r="F2" s="4" t="s">
-        <v>278</v>
+        <v>329</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>11</v>
@@ -3815,16 +4106,16 @@
         <v>2444</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>273</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>274</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4" t="s">
@@ -3842,13 +4133,13 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2:D3">
-    <cfRule type="expression" dxfId="8" priority="1">
+    <cfRule type="expression" dxfId="11" priority="1">
       <formula>D2="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="2">
+    <cfRule type="expression" dxfId="10" priority="2">
       <formula>D2="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="3">
+    <cfRule type="expression" dxfId="9" priority="3">
       <formula>D2="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3863,7 +4154,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F94156D-DED3-4FD7-B619-DDD9FD49102F}">
   <dimension ref="A1:K4"/>
   <sheetViews>
@@ -3931,7 +4222,7 @@
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4" t="s">
-        <v>59</v>
+        <v>329</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>44</v>
@@ -4004,24 +4295,24 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="8" priority="1">
       <formula>D2="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="7" priority="2">
       <formula>D2="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="6" priority="3">
       <formula>D2="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:E4">
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="5" priority="4">
       <formula>D3="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="5">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>D3="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="6">
+    <cfRule type="expression" dxfId="3" priority="6">
       <formula>D3="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4040,7 +4331,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -4048,7 +4339,7 @@
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="40.796875" customWidth="1"/>
-    <col min="3" max="3" width="71" style="26" customWidth="1"/>
+    <col min="3" max="3" width="71" style="23" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
     <col min="6" max="8" width="21" customWidth="1"/>
@@ -4063,7 +4354,7 @@
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="21" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -4098,7 +4389,7 @@
       <c r="B2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="22" t="s">
         <v>36</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -4125,7 +4416,7 @@
       <c r="B3" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="22" t="s">
         <v>43</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -4145,127 +4436,129 @@
       <c r="J3" s="3"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" ht="20" customHeight="1">
+    <row r="4" spans="1:11" ht="30" customHeight="1">
       <c r="A4" s="4">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>250</v>
+        <v>28</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>27</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="E4" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="I4" s="5">
-        <v>45382</v>
-      </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="2"/>
-    </row>
-    <row r="5" spans="1:11" ht="30" customHeight="1">
+        <v>45418</v>
+      </c>
+      <c r="J4" s="5"/>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:11" ht="20" customHeight="1">
       <c r="A5" s="4">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>27</v>
+        <v>20</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>21</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>84</v>
-      </c>
+      <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="I5" s="5">
-        <v>45418</v>
-      </c>
-      <c r="J5" s="5"/>
+        <v>45394</v>
+      </c>
+      <c r="J5" s="5">
+        <v>45532</v>
+      </c>
       <c r="K5" s="4"/>
     </row>
     <row r="6" spans="1:11" ht="20" customHeight="1">
       <c r="A6" s="4">
-        <v>315</v>
+        <v>352</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>21</v>
+        <v>38</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>39</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
+      <c r="F6" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="G6" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I6" s="5">
-        <v>45394</v>
+        <v>45401</v>
       </c>
       <c r="J6" s="5"/>
       <c r="K6" s="4"/>
     </row>
     <row r="7" spans="1:11" ht="20" customHeight="1">
       <c r="A7" s="4">
-        <v>352</v>
+        <v>480</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>39</v>
+        <v>9</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>17</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="4"/>
-      <c r="F7" s="4" t="s">
-        <v>35</v>
-      </c>
+      <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I7" s="5">
-        <v>45401</v>
+        <v>45400</v>
       </c>
       <c r="J7" s="5"/>
       <c r="K7" s="4"/>
     </row>
     <row r="8" spans="1:11" ht="20" customHeight="1">
       <c r="A8" s="4">
-        <v>480</v>
+        <v>493</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>17</v>
+        <v>31</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>32</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>16</v>
@@ -4279,31 +4572,35 @@
         <v>11</v>
       </c>
       <c r="I8" s="5">
-        <v>45400</v>
-      </c>
-      <c r="J8" s="5"/>
+        <v>45395</v>
+      </c>
+      <c r="J8" s="5">
+        <v>45532</v>
+      </c>
       <c r="K8" s="4"/>
     </row>
     <row r="9" spans="1:11" ht="20" customHeight="1">
       <c r="A9" s="4">
-        <v>493</v>
+        <v>611</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>32</v>
+        <v>19</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>18</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
+      <c r="F9" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="G9" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="I9" s="5">
         <v>45395</v>
@@ -4313,72 +4610,70 @@
     </row>
     <row r="10" spans="1:11" ht="20" customHeight="1">
       <c r="A10" s="4">
-        <v>611</v>
+        <v>668</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>18</v>
+        <v>284</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>285</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="E10" s="4"/>
-      <c r="F10" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="F10" s="4"/>
       <c r="G10" s="4" t="s">
-        <v>13</v>
+        <v>286</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="I10" s="5">
-        <v>45395</v>
+        <v>45523</v>
       </c>
       <c r="J10" s="5"/>
       <c r="K10" s="4"/>
     </row>
     <row r="11" spans="1:11" ht="20" customHeight="1">
       <c r="A11" s="4">
-        <v>668</v>
+        <v>729</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>287</v>
+        <v>40</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>41</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
-        <v>288</v>
+        <v>14</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="I11" s="5">
-        <v>45523</v>
+        <v>45420</v>
       </c>
       <c r="J11" s="5"/>
       <c r="K11" s="4"/>
     </row>
     <row r="12" spans="1:11" ht="20" customHeight="1">
       <c r="A12" s="4">
-        <v>729</v>
+        <v>1095</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>41</v>
+        <v>61</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>63</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -4386,84 +4681,88 @@
         <v>14</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="I12" s="5">
-        <v>45420</v>
+        <v>45482</v>
       </c>
       <c r="J12" s="5"/>
       <c r="K12" s="4"/>
     </row>
-    <row r="13" spans="1:11" ht="20" customHeight="1">
+    <row r="13" spans="1:11" ht="30" customHeight="1">
       <c r="A13" s="4">
-        <v>1095</v>
+        <v>1649</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="22" t="s">
         <v>64</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
+      <c r="E13" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>329</v>
+      </c>
       <c r="G13" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="I13" s="5">
         <v>45482</v>
       </c>
-      <c r="J13" s="5"/>
+      <c r="J13" s="5">
+        <v>45533</v>
+      </c>
       <c r="K13" s="4"/>
     </row>
-    <row r="14" spans="1:11" ht="30" customHeight="1">
+    <row r="14" spans="1:11" ht="20" customHeight="1">
       <c r="A14" s="4">
-        <v>1649</v>
+        <v>1825</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>65</v>
+        <v>33</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>34</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>85</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="E14" s="4"/>
       <c r="F14" s="4" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I14" s="5">
-        <v>45482</v>
+        <v>45400</v>
       </c>
       <c r="J14" s="5"/>
       <c r="K14" s="4"/>
     </row>
     <row r="15" spans="1:11" ht="20" customHeight="1">
       <c r="A15" s="4">
-        <v>1825</v>
+        <v>2034</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="25" t="s">
-        <v>34</v>
+        <v>25</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>26</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4" t="s">
@@ -4483,16 +4782,16 @@
     </row>
     <row r="16" spans="1:11" ht="20" customHeight="1">
       <c r="A16" s="4">
-        <v>2034</v>
+        <v>2102</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="25" t="s">
-        <v>26</v>
+        <v>23</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>24</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4" t="s">
@@ -4505,75 +4804,45 @@
         <v>11</v>
       </c>
       <c r="I16" s="5">
-        <v>45400</v>
+        <v>45420</v>
       </c>
       <c r="J16" s="5"/>
       <c r="K16" s="4"/>
     </row>
-    <row r="17" spans="1:11" ht="20" customHeight="1">
-      <c r="A17" s="4">
-        <v>2102</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I17" s="5">
-        <v>45420</v>
-      </c>
-      <c r="J17" s="5"/>
-      <c r="K17" s="4"/>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K17">
-    <sortCondition ref="A2:A17"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K16">
+    <sortCondition ref="A2:A16"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D2:E17">
-    <cfRule type="expression" dxfId="41" priority="4">
+  <conditionalFormatting sqref="D2:E16">
+    <cfRule type="expression" dxfId="47" priority="4">
       <formula>D2="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="5">
+    <cfRule type="expression" dxfId="46" priority="5">
       <formula>D2="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="6">
+    <cfRule type="expression" dxfId="45" priority="6">
       <formula>D2="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="C8" r:id="rId1" xr:uid="{98DA09B4-ED1E-9841-BFC0-AD6132AF476B}"/>
-    <hyperlink ref="C10" r:id="rId2" xr:uid="{355AB06F-F372-E64C-BB34-3D68811E6B00}"/>
-    <hyperlink ref="C6" r:id="rId3" xr:uid="{A97C1B49-93D0-D74A-BF3C-F925EFE9FD83}"/>
-    <hyperlink ref="C17" r:id="rId4" xr:uid="{4C375694-D494-514B-B747-D72CA94420E6}"/>
-    <hyperlink ref="C16" r:id="rId5" xr:uid="{5E8F7E04-6349-4D42-B16F-92BF0082A8EC}"/>
-    <hyperlink ref="C5" r:id="rId6" xr:uid="{C06E2E2A-F9EA-2C41-A2A2-0110BB4FE089}"/>
-    <hyperlink ref="C9" r:id="rId7" xr:uid="{88F29B63-471E-1745-ABA5-15B0EE490696}"/>
-    <hyperlink ref="C15" r:id="rId8" xr:uid="{77B0B942-637D-9846-B52B-162446D656B7}"/>
+    <hyperlink ref="C7" r:id="rId1" xr:uid="{98DA09B4-ED1E-9841-BFC0-AD6132AF476B}"/>
+    <hyperlink ref="C9" r:id="rId2" xr:uid="{355AB06F-F372-E64C-BB34-3D68811E6B00}"/>
+    <hyperlink ref="C5" r:id="rId3" xr:uid="{A97C1B49-93D0-D74A-BF3C-F925EFE9FD83}"/>
+    <hyperlink ref="C16" r:id="rId4" xr:uid="{4C375694-D494-514B-B747-D72CA94420E6}"/>
+    <hyperlink ref="C15" r:id="rId5" xr:uid="{5E8F7E04-6349-4D42-B16F-92BF0082A8EC}"/>
+    <hyperlink ref="C4" r:id="rId6" xr:uid="{C06E2E2A-F9EA-2C41-A2A2-0110BB4FE089}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{88F29B63-471E-1745-ABA5-15B0EE490696}"/>
+    <hyperlink ref="C14" r:id="rId8" xr:uid="{77B0B942-637D-9846-B52B-162446D656B7}"/>
     <hyperlink ref="C2" r:id="rId9" xr:uid="{FC6DC5BC-3B79-3A47-AD69-9FD63EE06424}"/>
-    <hyperlink ref="C7" r:id="rId10" xr:uid="{82F4789C-38A4-1A4D-BA41-951136E51502}"/>
-    <hyperlink ref="C12" r:id="rId11" xr:uid="{87D58C84-2A2E-5243-AD6C-F126296F2572}"/>
-    <hyperlink ref="C13" r:id="rId12" xr:uid="{E17A87F3-1678-4780-AF58-F4783F4A7A65}"/>
-    <hyperlink ref="C14" r:id="rId13" xr:uid="{AB427796-2FCF-4F37-AC47-998ADDB37E09}"/>
-    <hyperlink ref="C4" r:id="rId14" xr:uid="{322F67A3-4E60-134A-9BA1-AF1822132017}"/>
-    <hyperlink ref="C11" r:id="rId15" xr:uid="{8A96E47C-EAC7-48C6-ADEC-7531EB38C4E9}"/>
+    <hyperlink ref="C6" r:id="rId10" xr:uid="{82F4789C-38A4-1A4D-BA41-951136E51502}"/>
+    <hyperlink ref="C11" r:id="rId11" xr:uid="{87D58C84-2A2E-5243-AD6C-F126296F2572}"/>
+    <hyperlink ref="C12" r:id="rId12" xr:uid="{E17A87F3-1678-4780-AF58-F4783F4A7A65}"/>
+    <hyperlink ref="C13" r:id="rId13" xr:uid="{AB427796-2FCF-4F37-AC47-998ADDB37E09}"/>
+    <hyperlink ref="C10" r:id="rId14" xr:uid="{8A96E47C-EAC7-48C6-ADEC-7531EB38C4E9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId16"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId15"/>
   <headerFooter>
     <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 General</oddFooter>
   </headerFooter>
@@ -4667,10 +4936,10 @@
         <v>80</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>237</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>238</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>10</v>
@@ -4694,10 +4963,10 @@
         <v>347</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>241</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>242</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>10</v>
@@ -4721,16 +4990,16 @@
         <v>381</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>224</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>225</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
@@ -4750,10 +5019,10 @@
         <v>432</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>235</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>236</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>16</v>
@@ -4777,10 +5046,10 @@
         <v>460</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>233</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>234</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>16</v>
@@ -4804,10 +5073,10 @@
         <v>692</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>248</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>10</v>
@@ -4831,16 +5100,16 @@
         <v>710</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>267</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>268</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
@@ -4860,19 +5129,19 @@
         <v>1044</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>270</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>271</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>12</v>
@@ -4891,10 +5160,10 @@
         <v>1206</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>230</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>231</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>16</v>
@@ -4918,10 +5187,10 @@
         <v>1224</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>254</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>255</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>16</v>
@@ -4945,10 +5214,10 @@
         <v>1338</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>239</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>240</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>10</v>
@@ -5003,10 +5272,10 @@
         <v>2453</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>245</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>246</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>10</v>
@@ -5030,10 +5299,10 @@
         <v>3039</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>243</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>244</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>10</v>
@@ -5055,13 +5324,13 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2:D16">
-    <cfRule type="expression" dxfId="38" priority="7">
+    <cfRule type="expression" dxfId="44" priority="7">
       <formula>D2="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="8">
+    <cfRule type="expression" dxfId="43" priority="8">
       <formula>D2="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="9">
+    <cfRule type="expression" dxfId="42" priority="9">
       <formula>D2="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5091,6 +5360,273 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED305095-EC1E-B844-B25D-94A4272C0C0B}">
+  <dimension ref="A1:K7"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="40.796875" customWidth="1"/>
+    <col min="3" max="3" width="71" style="11" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="36" customWidth="1"/>
+    <col min="6" max="8" width="21" customWidth="1"/>
+    <col min="9" max="10" width="16" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="20" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="45" customHeight="1">
+      <c r="A2" s="4">
+        <v>201</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>332</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="5">
+        <v>45530</v>
+      </c>
+      <c r="J2" s="3"/>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" ht="30" customHeight="1">
+      <c r="A3" s="4">
+        <v>371</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>337</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="5">
+        <v>45392</v>
+      </c>
+      <c r="J3" s="5">
+        <v>45530</v>
+      </c>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:11" ht="20" customHeight="1">
+      <c r="A4" s="4">
+        <v>397</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="5">
+        <v>45405</v>
+      </c>
+      <c r="J4" s="5">
+        <v>45530</v>
+      </c>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:11" ht="20" customHeight="1">
+      <c r="A5" s="4">
+        <v>1404</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="5">
+        <v>45530</v>
+      </c>
+      <c r="J5" s="5"/>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:11" ht="20" customHeight="1">
+      <c r="A6" s="4">
+        <v>2419</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="5">
+        <v>45532</v>
+      </c>
+      <c r="J6" s="5"/>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="1:11" ht="30" customHeight="1">
+      <c r="A7" s="4">
+        <v>2683</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>344</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>345</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="5">
+        <v>45531</v>
+      </c>
+      <c r="J7" s="5"/>
+      <c r="K7" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="D2:E6">
+    <cfRule type="expression" dxfId="41" priority="4">
+      <formula>D2="Easy"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="5">
+      <formula>D2="Medium"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="39" priority="6">
+      <formula>D2="Hard"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7:E7">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>D7="Easy"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>D7="Medium"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="3">
+      <formula>D7="Hard"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{D7808045-3E67-A54B-8201-14894543CCE4}"/>
+    <hyperlink ref="C6" r:id="rId2" xr:uid="{5ECE8D18-5181-FD46-8C9D-50ED550AA75C}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{50A1D3BB-B4B8-DC48-9859-AACEB431EB4E}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{FD2CEB29-9404-C44D-88A8-058F4D3B5D80}"/>
+    <hyperlink ref="C2" r:id="rId5" xr:uid="{7A0D1304-0F5F-DC40-97F4-D3ABCF35D91D}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{570A7153-F75C-3F48-8B49-3AB15620C9F7}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId7"/>
+  <headerFooter>
+    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 General</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75AC292A-7720-E145-9563-F6FD48AA33E3}">
   <dimension ref="A1:K12"/>
   <sheetViews>
@@ -5148,23 +5684,23 @@
         <v>23</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="4" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="I2" s="5">
         <v>45503</v>
@@ -5179,16 +5715,16 @@
         <v>102</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>121</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>122</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>49</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4" t="s">
@@ -5208,16 +5744,16 @@
         <v>107</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>123</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>124</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>49</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
@@ -5237,16 +5773,16 @@
         <v>116</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>49</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
@@ -5266,16 +5802,16 @@
         <v>117</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>117</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>118</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>49</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
@@ -5295,10 +5831,10 @@
         <v>513</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>102</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>103</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>49</v>
@@ -5322,10 +5858,10 @@
         <v>515</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>108</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>109</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>49</v>
@@ -5349,16 +5885,16 @@
         <v>662</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>125</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>126</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>49</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
@@ -5378,10 +5914,10 @@
         <v>958</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>130</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>131</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>49</v>
@@ -5405,10 +5941,10 @@
         <v>987</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>193</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>194</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>16</v>
@@ -5432,10 +5968,10 @@
         <v>1161</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>133</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>134</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>49</v>
@@ -5457,13 +5993,13 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2:D12">
-    <cfRule type="expression" dxfId="35" priority="1">
+    <cfRule type="expression" dxfId="38" priority="1">
       <formula>D2="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="2">
+    <cfRule type="expression" dxfId="37" priority="2">
       <formula>D2="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="3">
+    <cfRule type="expression" dxfId="36" priority="3">
       <formula>D2="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5488,7 +6024,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C287181F-E765-1C4E-B964-9C9FDBE62A17}">
   <dimension ref="A1:K13"/>
   <sheetViews>
@@ -5546,10 +6082,10 @@
         <v>113</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>49</v>
@@ -5573,10 +6109,10 @@
         <v>114</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>49</v>
@@ -5600,10 +6136,10 @@
         <v>129</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="13" t="s">
         <v>98</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>99</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>49</v>
@@ -5627,16 +6163,16 @@
         <v>297</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C5" s="13" t="s">
         <v>195</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>196</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
@@ -5656,10 +6192,10 @@
         <v>341</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>100</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>101</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>49</v>
@@ -5683,19 +6219,19 @@
         <v>399</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>127</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>128</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>49</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>44</v>
@@ -5714,10 +6250,10 @@
         <v>437</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" s="13" t="s">
         <v>104</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>105</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>49</v>
@@ -5741,10 +6277,10 @@
         <v>508</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" s="13" t="s">
         <v>106</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>107</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>49</v>
@@ -5768,10 +6304,10 @@
         <v>623</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" s="13" t="s">
         <v>110</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>111</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>49</v>
@@ -5795,16 +6331,16 @@
         <v>652</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" s="13" t="s">
         <v>112</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>113</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>49</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
@@ -5824,16 +6360,16 @@
         <v>687</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C12" s="13" t="s">
         <v>115</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>116</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>49</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4" t="s">
@@ -5853,16 +6389,16 @@
         <v>1028</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C13" s="13" t="s">
         <v>198</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>199</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4" t="s">
@@ -5880,13 +6416,13 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2:D13">
-    <cfRule type="expression" dxfId="32" priority="1">
+    <cfRule type="expression" dxfId="35" priority="1">
       <formula>D2="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="2">
+    <cfRule type="expression" dxfId="34" priority="2">
       <formula>D2="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="3">
+    <cfRule type="expression" dxfId="33" priority="3">
       <formula>D2="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5912,7 +6448,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8380FC83-7509-9643-8CC5-E365761A27D0}">
   <dimension ref="A1:K12"/>
   <sheetViews>
@@ -5970,10 +6506,10 @@
         <v>238</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>10</v>
@@ -5997,10 +6533,10 @@
         <v>304</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>294</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>296</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>10</v>
@@ -6011,7 +6547,7 @@
         <v>29</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="I3" s="5">
         <v>45526</v>
@@ -6024,17 +6560,17 @@
         <v>528</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="17"/>
       <c r="F4" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>14</v>
@@ -6053,10 +6589,10 @@
         <v>848</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>10</v>
@@ -6080,17 +6616,17 @@
         <v>862</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E6" s="17"/>
       <c r="F6" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>11</v>
@@ -6111,19 +6647,19 @@
         <v>930</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>11</v>
@@ -6142,10 +6678,10 @@
         <v>1524</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>10</v>
@@ -6169,25 +6705,25 @@
         <v>1862</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>278</v>
+        <v>329</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I9" s="5">
         <v>45521</v>
@@ -6200,10 +6736,10 @@
         <v>1894</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>10</v>
@@ -6227,16 +6763,16 @@
         <v>2302</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
@@ -6258,17 +6794,17 @@
         <v>2438</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E12" s="17"/>
       <c r="F12" s="4" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>11</v>
@@ -6285,13 +6821,13 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2:D12">
-    <cfRule type="expression" dxfId="29" priority="1">
+    <cfRule type="expression" dxfId="32" priority="1">
       <formula>D2="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="2">
+    <cfRule type="expression" dxfId="31" priority="2">
       <formula>D2="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="3">
+    <cfRule type="expression" dxfId="30" priority="3">
       <formula>D2="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6316,7 +6852,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BC7A267-6069-4E38-AC2F-0C28241496B0}">
   <dimension ref="A1:K4"/>
   <sheetViews>
@@ -6374,17 +6910,17 @@
         <v>895</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="C2" s="19" t="s">
         <v>227</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>228</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="17"/>
       <c r="F2" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>45</v>
@@ -6403,16 +6939,16 @@
         <v>1172</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="C3" s="19" t="s">
         <v>221</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>222</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4" t="s">
@@ -6432,22 +6968,22 @@
         <v>2454</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C4" s="19" t="s">
         <v>201</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>202</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>44</v>
@@ -6461,13 +6997,13 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2:D4">
-    <cfRule type="expression" dxfId="26" priority="1">
+    <cfRule type="expression" dxfId="29" priority="1">
       <formula>D2="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="2">
+    <cfRule type="expression" dxfId="28" priority="2">
       <formula>D2="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="3">
+    <cfRule type="expression" dxfId="27" priority="3">
       <formula>D2="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6484,7 +7020,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52284BEE-A51B-EF49-951D-F5B5F860F6DD}">
   <dimension ref="A1:K5"/>
   <sheetViews>
@@ -6542,10 +7078,10 @@
         <v>239</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>258</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>259</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>16</v>
@@ -6556,7 +7092,7 @@
         <v>44</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I2" s="5">
         <v>45386</v>
@@ -6571,22 +7107,22 @@
         <v>767</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>44</v>
@@ -6602,22 +7138,22 @@
         <v>1054</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>44</v>
@@ -6633,10 +7169,10 @@
         <v>1438</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>256</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>257</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>10</v>
@@ -6658,15 +7194,15 @@
       <c r="K5" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <conditionalFormatting sqref="D2:D5">
-    <cfRule type="expression" dxfId="23" priority="1">
+    <cfRule type="expression" dxfId="26" priority="1">
       <formula>D2="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="2">
+    <cfRule type="expression" dxfId="25" priority="2">
       <formula>D2="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="3">
+    <cfRule type="expression" dxfId="24" priority="3">
       <formula>D2="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6684,110 +7220,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99BCE9F1-E6C6-6346-98A0-65D0C06C0EE4}">
-  <dimension ref="A1:K2"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
-  <cols>
-    <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="3" width="35.796875" style="11" customWidth="1"/>
-    <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="41" customWidth="1"/>
-    <col min="6" max="8" width="21" customWidth="1"/>
-    <col min="9" max="10" width="16" style="1" customWidth="1"/>
-    <col min="11" max="11" width="16" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="20" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="20" customHeight="1">
-      <c r="A2" s="6">
-        <v>355</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="I2" s="5">
-        <v>45528</v>
-      </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="4"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D2">
-    <cfRule type="expression" dxfId="20" priority="1">
-      <formula>D2="Easy"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="19" priority="2">
-      <formula>D2="Medium"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="3">
-      <formula>D2="Hard"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{BD755528-4D9F-2E43-8D44-F83835331DEA}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
-  <headerFooter>
-    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 General</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{04d09258-035b-4e4f-ae3e-d79ff3d418d8}" enabled="1" method="Standard" siteId="{f4a12867-922d-4b9d-bb85-9ee7898512a0}" contentBits="2" removed="0"/>

--- a/LeetCode Techniques.xlsx
+++ b/LeetCode Techniques.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/blackjack625/Desktop/LeetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE32835A-5731-D54F-854A-41237EC648E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53CD510E-DA33-8D47-A4CB-53820E0E4313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="351">
   <si>
     <t>Name</t>
   </si>
@@ -1407,6 +1407,28 @@
   <si>
     <t>When all numbers occur twice,
 their XOR must be 0.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Last Substring in Lexicographical Order</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/last-substring-in-lexicographical-order/description/</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Answer is always a
+suffix of given string.</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>K-th Symbol in Grammar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Express result of (n, k) by
+result of (n - 1, some k).</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1669,37 +1691,7 @@
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="51">
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="48">
     <dxf>
       <font>
         <color rgb="FFFFFF00"/>
@@ -3228,13 +3220,13 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2:D25">
-    <cfRule type="expression" dxfId="50" priority="1">
+    <cfRule type="expression" dxfId="47" priority="1">
       <formula>D2="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="2">
+    <cfRule type="expression" dxfId="46" priority="2">
       <formula>D2="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="3">
+    <cfRule type="expression" dxfId="45" priority="3">
       <formula>D2="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3385,13 +3377,13 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2:E3">
-    <cfRule type="expression" dxfId="23" priority="1">
+    <cfRule type="expression" dxfId="20" priority="1">
       <formula>D2="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="2">
+    <cfRule type="expression" dxfId="19" priority="2">
       <formula>D2="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="3">
+    <cfRule type="expression" dxfId="18" priority="3">
       <formula>D2="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3409,7 +3401,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A08C46FD-BCA6-4056-B9A8-855F75FCB25A}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -3491,19 +3483,19 @@
     </row>
     <row r="3" spans="1:11" ht="30" customHeight="1">
       <c r="A3" s="4">
-        <v>1793</v>
+        <v>1163</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>250</v>
+        <v>346</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>251</v>
+        <v>347</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>252</v>
+        <v>348</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4" t="s">
@@ -3513,30 +3505,60 @@
         <v>45</v>
       </c>
       <c r="I3" s="5">
-        <v>45516</v>
+        <v>45533</v>
       </c>
       <c r="J3" s="5"/>
       <c r="K3" s="4"/>
     </row>
+    <row r="4" spans="1:11" ht="30" customHeight="1">
+      <c r="A4" s="4">
+        <v>1793</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" s="5">
+        <v>45516</v>
+      </c>
+      <c r="J4" s="5"/>
+      <c r="K4" s="4"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="16" type="noConversion"/>
-  <conditionalFormatting sqref="D2:D3">
-    <cfRule type="expression" dxfId="20" priority="1">
+  <conditionalFormatting sqref="D2:D4">
+    <cfRule type="expression" dxfId="17" priority="1">
       <formula>D2="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="2">
+    <cfRule type="expression" dxfId="16" priority="2">
       <formula>D2="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="3">
+    <cfRule type="expression" dxfId="15" priority="3">
       <formula>D2="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{4B2FCE29-6D11-4770-B411-6FA0C17E58B9}"/>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{4B2FCE29-6D11-4770-B411-6FA0C17E58B9}"/>
     <hyperlink ref="C2" r:id="rId2" xr:uid="{14F7A118-8582-6D47-9613-4FA8663D6975}"/>
+    <hyperlink ref="C3" r:id="rId3" xr:uid="{B62B7D6A-8658-044D-866F-48C10B3BDAFD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId4"/>
   <headerFooter>
     <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 General</oddFooter>
   </headerFooter>
@@ -3856,13 +3878,13 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2:D10">
-    <cfRule type="expression" dxfId="17" priority="1">
+    <cfRule type="expression" dxfId="14" priority="1">
       <formula>D2="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="2">
+    <cfRule type="expression" dxfId="13" priority="2">
       <formula>D2="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="3">
+    <cfRule type="expression" dxfId="12" priority="3">
       <formula>D2="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3887,7 +3909,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69159F7B-7780-4FD1-9225-126219315A4A}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -3984,7 +4006,7 @@
         <v>44</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="I3" s="5">
         <v>45384</v>
@@ -3992,25 +4014,55 @@
       <c r="J3" s="5"/>
       <c r="K3" s="4"/>
     </row>
+    <row r="4" spans="1:11" ht="30" customHeight="1">
+      <c r="A4" s="4">
+        <v>779</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>350</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="5">
+        <v>45533</v>
+      </c>
+      <c r="J4" s="5"/>
+      <c r="K4" s="4"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D2:D3">
-    <cfRule type="expression" dxfId="14" priority="1">
+  <conditionalFormatting sqref="D2:D4">
+    <cfRule type="expression" dxfId="11" priority="1">
       <formula>D2="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="2">
+    <cfRule type="expression" dxfId="10" priority="2">
       <formula>D2="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="3">
+    <cfRule type="expression" dxfId="9" priority="3">
       <formula>D2="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" xr:uid="{E2CF697A-AC7A-4622-85D9-DB09691263B3}"/>
     <hyperlink ref="C2" r:id="rId2" xr:uid="{092764F1-4D1C-7244-8BD2-D814B88B5476}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{B924F4D4-3818-3549-87BD-7584F73236DF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId4"/>
   <headerFooter>
     <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 General</oddFooter>
   </headerFooter>
@@ -4133,13 +4185,13 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2:D3">
-    <cfRule type="expression" dxfId="11" priority="1">
+    <cfRule type="expression" dxfId="8" priority="1">
       <formula>D2="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="2">
+    <cfRule type="expression" dxfId="7" priority="2">
       <formula>D2="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="3">
+    <cfRule type="expression" dxfId="6" priority="3">
       <formula>D2="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4295,24 +4347,24 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2">
-    <cfRule type="expression" dxfId="8" priority="1">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>D2="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="2">
+    <cfRule type="expression" dxfId="4" priority="2">
       <formula>D2="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="3">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>D2="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:E4">
-    <cfRule type="expression" dxfId="5" priority="4">
+    <cfRule type="expression" dxfId="2" priority="4">
       <formula>D3="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="1" priority="5">
       <formula>D3="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="6">
+    <cfRule type="expression" dxfId="0" priority="6">
       <formula>D3="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4815,13 +4867,13 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2:E16">
-    <cfRule type="expression" dxfId="47" priority="4">
+    <cfRule type="expression" dxfId="44" priority="4">
       <formula>D2="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="5">
+    <cfRule type="expression" dxfId="43" priority="5">
       <formula>D2="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="6">
+    <cfRule type="expression" dxfId="42" priority="6">
       <formula>D2="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5324,13 +5376,13 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2:D16">
-    <cfRule type="expression" dxfId="44" priority="7">
+    <cfRule type="expression" dxfId="41" priority="7">
       <formula>D2="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="8">
+    <cfRule type="expression" dxfId="40" priority="8">
       <formula>D2="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="9">
+    <cfRule type="expression" dxfId="39" priority="9">
       <formula>D2="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5588,26 +5640,15 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D2:E6">
-    <cfRule type="expression" dxfId="41" priority="4">
+  <conditionalFormatting sqref="D2:E7">
+    <cfRule type="expression" dxfId="38" priority="1">
       <formula>D2="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="5">
+    <cfRule type="expression" dxfId="37" priority="2">
       <formula>D2="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="6">
+    <cfRule type="expression" dxfId="36" priority="3">
       <formula>D2="Hard"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7:E7">
-    <cfRule type="expression" dxfId="2" priority="1">
-      <formula>D7="Easy"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>D7="Medium"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="3">
-      <formula>D7="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -5993,13 +6034,13 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2:D12">
-    <cfRule type="expression" dxfId="38" priority="1">
+    <cfRule type="expression" dxfId="35" priority="1">
       <formula>D2="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="2">
+    <cfRule type="expression" dxfId="34" priority="2">
       <formula>D2="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="3">
+    <cfRule type="expression" dxfId="33" priority="3">
       <formula>D2="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6416,13 +6457,13 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2:D13">
-    <cfRule type="expression" dxfId="35" priority="1">
+    <cfRule type="expression" dxfId="32" priority="1">
       <formula>D2="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="2">
+    <cfRule type="expression" dxfId="31" priority="2">
       <formula>D2="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="3">
+    <cfRule type="expression" dxfId="30" priority="3">
       <formula>D2="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6821,13 +6862,13 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2:D12">
-    <cfRule type="expression" dxfId="32" priority="1">
+    <cfRule type="expression" dxfId="29" priority="1">
       <formula>D2="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="2">
+    <cfRule type="expression" dxfId="28" priority="2">
       <formula>D2="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="3">
+    <cfRule type="expression" dxfId="27" priority="3">
       <formula>D2="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6997,13 +7038,13 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2:D4">
-    <cfRule type="expression" dxfId="29" priority="1">
+    <cfRule type="expression" dxfId="26" priority="1">
       <formula>D2="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="2">
+    <cfRule type="expression" dxfId="25" priority="2">
       <formula>D2="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="3">
+    <cfRule type="expression" dxfId="24" priority="3">
       <formula>D2="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7196,13 +7237,13 @@
   </sheetData>
   <phoneticPr fontId="16" type="noConversion"/>
   <conditionalFormatting sqref="D2:D5">
-    <cfRule type="expression" dxfId="26" priority="1">
+    <cfRule type="expression" dxfId="23" priority="1">
       <formula>D2="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="2">
+    <cfRule type="expression" dxfId="22" priority="2">
       <formula>D2="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="3">
+    <cfRule type="expression" dxfId="21" priority="3">
       <formula>D2="Hard"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/LeetCode Techniques.xlsx
+++ b/LeetCode Techniques.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/blackjack625/Desktop/LeetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53CD510E-DA33-8D47-A4CB-53820E0E4313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43C54368-9F9B-E141-ADEF-EACC1F0A6204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="360">
   <si>
     <t>Name</t>
   </si>
@@ -1037,23 +1037,23 @@
   </si>
   <si>
     <t>Longest Continuous Subarray With Absolute Diff Less Than or Equal to Limit</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>https://leetcode.com/problems/longest-continuous-subarray-with-absolute-diff-less-than-or-equal-to-limit/description/</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>Sliding Window Maximum</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>https://leetcode.com/problems/sliding-window-maximum/</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>O(k)</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>Constrained Subsequence Sum</t>
@@ -1268,31 +1268,31 @@
   </si>
   <si>
     <t>Distant Barcodes</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>https://leetcode.com/problems/distant-barcodes/description/</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>O(nlogn)</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>Binary Search</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>Reorganize String</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>https://leetcode.com/problems/reorganize-string/description/</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>Always take top 2 most frequent.</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>Merge k Sorted Lists</t>
@@ -1316,11 +1316,11 @@
   </si>
   <si>
     <t>Design Twitter</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>https://leetcode.com/problems/design-twitter/description/</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>Binary search also works. Just more time.</t>
@@ -1328,15 +1328,15 @@
   </si>
   <si>
     <t>Find K Closest Elements</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>O(logn + k)</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>https://leetcode.com/problems/find-k-closest-elements/description/</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>Hash</t>
@@ -1411,16 +1411,16 @@
   </si>
   <si>
     <t>Last Substring in Lexicographical Order</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>https://leetcode.com/problems/last-substring-in-lexicographical-order/description/</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>Answer is always a
 suffix of given string.</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>K-th Symbol in Grammar</t>
@@ -1429,6 +1429,44 @@
   <si>
     <t>Express result of (n, k) by
 result of (n - 1, some k).</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bitwise XOR of All Pairings</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/bitwise-xor-of-all-pairings/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Only care about odd length arrays.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total Hamming Distance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/total-hamming-distance/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Outer for loop: all bit positions.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Binary Tree Cameras</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/binary-tree-cameras/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Three conditions: 0 = uncovered,
+1 = covered with self camera,
+2 = covered without self camera.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1439,7 +1477,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1520,13 +1558,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="10"/>
-      <name val="Microsoft YaHei"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Microsoft YaHei"/>
@@ -1579,14 +1610,6 @@
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Microsoft YaHei"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1624,7 +1647,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1654,38 +1677,28 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -2969,7 +2982,7 @@
       <c r="D17" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="E17" s="12" t="s">
         <v>203</v>
       </c>
       <c r="F17" s="4" t="s">
@@ -3054,7 +3067,7 @@
       <c r="D20" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="15" t="s">
+      <c r="E20" s="12" t="s">
         <v>217</v>
       </c>
       <c r="F20" s="4" t="s">
@@ -3139,7 +3152,7 @@
       <c r="D23" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="15" t="s">
+      <c r="E23" s="12" t="s">
         <v>207</v>
       </c>
       <c r="F23" s="4" t="s">
@@ -3170,7 +3183,7 @@
       <c r="D24" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E24" s="17" t="s">
+      <c r="E24" s="14" t="s">
         <v>263</v>
       </c>
       <c r="F24" s="4" t="s">
@@ -3201,7 +3214,7 @@
       <c r="D25" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="13" t="s">
         <v>213</v>
       </c>
       <c r="F25" s="4"/>
@@ -3323,7 +3336,7 @@
       <c r="B2" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="19" t="s">
         <v>249</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -3465,7 +3478,7 @@
       <c r="D2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="17"/>
+      <c r="E2" s="14"/>
       <c r="F2" s="4" t="s">
         <v>314</v>
       </c>
@@ -3494,7 +3507,7 @@
       <c r="D3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="14" t="s">
         <v>348</v>
       </c>
       <c r="F3" s="4"/>
@@ -3523,7 +3536,7 @@
       <c r="D4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="14" t="s">
         <v>252</v>
       </c>
       <c r="F4" s="4"/>
@@ -3540,7 +3553,7 @@
       <c r="K4" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="16" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="D2:D4">
     <cfRule type="expression" dxfId="17" priority="1">
       <formula>D2="Easy"</formula>
@@ -4027,7 +4040,7 @@
       <c r="D4" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="14" t="s">
         <v>350</v>
       </c>
       <c r="F4" s="4"/>
@@ -4135,7 +4148,7 @@
       <c r="D2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="17"/>
+      <c r="E2" s="14"/>
       <c r="F2" s="4" t="s">
         <v>329</v>
       </c>
@@ -4166,7 +4179,7 @@
       <c r="D3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="14" t="s">
         <v>274</v>
       </c>
       <c r="F3" s="4"/>
@@ -4391,7 +4404,7 @@
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="40.796875" customWidth="1"/>
-    <col min="3" max="3" width="71" style="23" customWidth="1"/>
+    <col min="3" max="3" width="71" style="20" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
     <col min="6" max="8" width="21" customWidth="1"/>
@@ -4406,7 +4419,7 @@
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -4441,7 +4454,7 @@
       <c r="B2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="19" t="s">
         <v>36</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -4468,7 +4481,7 @@
       <c r="B3" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="19" t="s">
         <v>43</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -4495,7 +4508,7 @@
       <c r="B4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="19" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -4524,7 +4537,7 @@
       <c r="B5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="19" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="4" t="s">
@@ -4553,7 +4566,7 @@
       <c r="B6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="19" t="s">
         <v>39</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -4582,7 +4595,7 @@
       <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="19" t="s">
         <v>17</v>
       </c>
       <c r="D7" s="4" t="s">
@@ -4609,7 +4622,7 @@
       <c r="B8" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="19" t="s">
         <v>32</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -4638,7 +4651,7 @@
       <c r="B9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="19" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="4" t="s">
@@ -4667,7 +4680,7 @@
       <c r="B10" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="19" t="s">
         <v>285</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -4694,7 +4707,7 @@
       <c r="B11" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="19" t="s">
         <v>41</v>
       </c>
       <c r="D11" s="4" t="s">
@@ -4721,7 +4734,7 @@
       <c r="B12" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="19" t="s">
         <v>63</v>
       </c>
       <c r="D12" s="4" t="s">
@@ -4748,7 +4761,7 @@
       <c r="B13" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="19" t="s">
         <v>64</v>
       </c>
       <c r="D13" s="4" t="s">
@@ -4781,7 +4794,7 @@
       <c r="B14" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="19" t="s">
         <v>34</v>
       </c>
       <c r="D14" s="4" t="s">
@@ -4810,7 +4823,7 @@
       <c r="B15" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="19" t="s">
         <v>26</v>
       </c>
       <c r="D15" s="4" t="s">
@@ -4839,7 +4852,7 @@
       <c r="B16" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="19" t="s">
         <v>24</v>
       </c>
       <c r="D16" s="4" t="s">
@@ -4996,7 +5009,7 @@
       <c r="D3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="17"/>
+      <c r="E3" s="14"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4" t="s">
         <v>11</v>
@@ -5023,7 +5036,7 @@
       <c r="D4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="17"/>
+      <c r="E4" s="14"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
         <v>11</v>
@@ -5050,7 +5063,7 @@
       <c r="D5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="14" t="s">
         <v>225</v>
       </c>
       <c r="F5" s="4"/>
@@ -5079,7 +5092,7 @@
       <c r="D6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="17"/>
+      <c r="E6" s="14"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
         <v>29</v>
@@ -5106,7 +5119,7 @@
       <c r="D7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="17"/>
+      <c r="E7" s="14"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
         <v>14</v>
@@ -5133,7 +5146,7 @@
       <c r="D8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="17"/>
+      <c r="E8" s="14"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
         <v>11</v>
@@ -5160,7 +5173,7 @@
       <c r="D9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="14" t="s">
         <v>268</v>
       </c>
       <c r="F9" s="4"/>
@@ -5189,7 +5202,7 @@
       <c r="D10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="14" t="s">
         <v>277</v>
       </c>
       <c r="F10" s="4" t="s">
@@ -5220,7 +5233,7 @@
       <c r="D11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="17"/>
+      <c r="E11" s="14"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
         <v>29</v>
@@ -5247,7 +5260,7 @@
       <c r="D12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="17"/>
+      <c r="E12" s="14"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4" t="s">
         <v>44</v>
@@ -5274,7 +5287,7 @@
       <c r="D13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="17"/>
+      <c r="E13" s="14"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4" t="s">
         <v>12</v>
@@ -5332,7 +5345,7 @@
       <c r="D15" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="17"/>
+      <c r="E15" s="14"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4" t="s">
         <v>11</v>
@@ -5359,7 +5372,7 @@
       <c r="D16" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="17"/>
+      <c r="E16" s="14"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4" t="s">
         <v>11</v>
@@ -5413,7 +5426,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED305095-EC1E-B844-B25D-94A4272C0C0B}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -5477,7 +5490,7 @@
       <c r="D2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="14" t="s">
         <v>332</v>
       </c>
       <c r="F2" s="2"/>
@@ -5506,7 +5519,7 @@
       <c r="D3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="14" t="s">
         <v>337</v>
       </c>
       <c r="F3" s="4"/>
@@ -5555,75 +5568,75 @@
     </row>
     <row r="5" spans="1:11" ht="20" customHeight="1">
       <c r="A5" s="4">
-        <v>1404</v>
+        <v>477</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>338</v>
+        <v>354</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>339</v>
+        <v>355</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="4"/>
+      <c r="E5" s="6" t="s">
+        <v>356</v>
+      </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>29</v>
       </c>
       <c r="I5" s="5">
-        <v>45530</v>
+        <v>45532</v>
       </c>
       <c r="J5" s="5"/>
       <c r="K5" s="4"/>
     </row>
     <row r="6" spans="1:11" ht="20" customHeight="1">
       <c r="A6" s="4">
-        <v>2419</v>
+        <v>1404</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>342</v>
-      </c>
+      <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>29</v>
       </c>
       <c r="I6" s="5">
-        <v>45532</v>
+        <v>45530</v>
       </c>
       <c r="J6" s="5"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11" ht="30" customHeight="1">
+    <row r="7" spans="1:11" ht="20" customHeight="1">
       <c r="A7" s="4">
-        <v>2683</v>
+        <v>2419</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>344</v>
+        <v>340</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>341</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="17" t="s">
-        <v>345</v>
+      <c r="E7" s="4" t="s">
+        <v>342</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
@@ -5633,14 +5646,72 @@
         <v>29</v>
       </c>
       <c r="I7" s="5">
-        <v>45531</v>
+        <v>45532</v>
       </c>
       <c r="J7" s="5"/>
       <c r="K7" s="4"/>
     </row>
+    <row r="8" spans="1:11" ht="20" customHeight="1">
+      <c r="A8" s="4">
+        <v>2425</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="5">
+        <v>45534</v>
+      </c>
+      <c r="J8" s="5"/>
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" spans="1:11" ht="30" customHeight="1">
+      <c r="A9" s="4">
+        <v>2683</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="5">
+        <v>45531</v>
+      </c>
+      <c r="J9" s="5"/>
+      <c r="K9" s="4"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D2:E7">
+  <conditionalFormatting sqref="D2:E9">
     <cfRule type="expression" dxfId="38" priority="1">
       <formula>D2="Easy"</formula>
     </cfRule>
@@ -5653,14 +5724,16 @@
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" xr:uid="{D7808045-3E67-A54B-8201-14894543CCE4}"/>
-    <hyperlink ref="C6" r:id="rId2" xr:uid="{5ECE8D18-5181-FD46-8C9D-50ED550AA75C}"/>
+    <hyperlink ref="C7" r:id="rId2" xr:uid="{5ECE8D18-5181-FD46-8C9D-50ED550AA75C}"/>
     <hyperlink ref="C4" r:id="rId3" xr:uid="{50A1D3BB-B4B8-DC48-9859-AACEB431EB4E}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{FD2CEB29-9404-C44D-88A8-058F4D3B5D80}"/>
+    <hyperlink ref="C6" r:id="rId4" xr:uid="{FD2CEB29-9404-C44D-88A8-058F4D3B5D80}"/>
     <hyperlink ref="C2" r:id="rId5" xr:uid="{7A0D1304-0F5F-DC40-97F4-D3ABCF35D91D}"/>
-    <hyperlink ref="C7" r:id="rId6" xr:uid="{570A7153-F75C-3F48-8B49-3AB15620C9F7}"/>
+    <hyperlink ref="C9" r:id="rId6" xr:uid="{570A7153-F75C-3F48-8B49-3AB15620C9F7}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{1A44A87B-FAE7-8642-ADDE-A1F16C927D40}"/>
+    <hyperlink ref="C5" r:id="rId8" xr:uid="{DB9981B5-EB06-A545-856F-B7F59827AEE8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId9"/>
   <headerFooter>
     <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 General</oddFooter>
   </headerFooter>
@@ -6067,7 +6140,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C287181F-E765-1C4E-B964-9C9FDBE62A17}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -6075,7 +6148,7 @@
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="36" customWidth="1"/>
-    <col min="3" max="3" width="35.796875" style="14" customWidth="1"/>
+    <col min="3" max="3" width="35.796875" style="11" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
     <col min="6" max="8" width="21" customWidth="1"/>
@@ -6090,7 +6163,7 @@
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -6125,7 +6198,7 @@
       <c r="B2" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="8" t="s">
         <v>93</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -6152,7 +6225,7 @@
       <c r="B3" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="8" t="s">
         <v>94</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -6179,7 +6252,7 @@
       <c r="B4" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="8" t="s">
         <v>98</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -6206,7 +6279,7 @@
       <c r="B5" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="8" t="s">
         <v>195</v>
       </c>
       <c r="D5" s="4" t="s">
@@ -6235,7 +6308,7 @@
       <c r="B6" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="8" t="s">
         <v>100</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -6262,7 +6335,7 @@
       <c r="B7" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="8" t="s">
         <v>127</v>
       </c>
       <c r="D7" s="4" t="s">
@@ -6293,7 +6366,7 @@
       <c r="B8" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="8" t="s">
         <v>104</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -6320,7 +6393,7 @@
       <c r="B9" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="8" t="s">
         <v>106</v>
       </c>
       <c r="D9" s="4" t="s">
@@ -6347,7 +6420,7 @@
       <c r="B10" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="8" t="s">
         <v>110</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -6374,7 +6447,7 @@
       <c r="B11" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="8" t="s">
         <v>112</v>
       </c>
       <c r="D11" s="4" t="s">
@@ -6403,7 +6476,7 @@
       <c r="B12" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="8" t="s">
         <v>115</v>
       </c>
       <c r="D12" s="4" t="s">
@@ -6425,38 +6498,67 @@
       <c r="J12" s="5"/>
       <c r="K12" s="4"/>
     </row>
-    <row r="13" spans="1:11" ht="30" customHeight="1">
+    <row r="13" spans="1:11" ht="45" customHeight="1">
       <c r="A13" s="4">
-        <v>1028</v>
+        <v>968</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>198</v>
+        <v>357</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>358</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>199</v>
+        <v>49</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>359</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4" t="s">
         <v>44</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="I13" s="5">
-        <v>46227</v>
+        <v>45534</v>
       </c>
       <c r="J13" s="5"/>
       <c r="K13" s="4"/>
     </row>
+    <row r="14" spans="1:11" ht="30" customHeight="1">
+      <c r="A14" s="4">
+        <v>1028</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I14" s="5">
+        <v>46227</v>
+      </c>
+      <c r="J14" s="5"/>
+      <c r="K14" s="4"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D2:D13">
+  <conditionalFormatting sqref="D2:D14">
     <cfRule type="expression" dxfId="32" priority="1">
       <formula>D2="Easy"</formula>
     </cfRule>
@@ -6479,10 +6581,11 @@
     <hyperlink ref="C12" r:id="rId9" xr:uid="{CBAD603C-7336-874C-B3F7-58227D327CE0}"/>
     <hyperlink ref="C7" r:id="rId10" xr:uid="{98CD3759-6763-4A59-8FC7-20CD817AC0B4}"/>
     <hyperlink ref="C5" r:id="rId11" xr:uid="{771DB7BE-9583-0E44-8EF3-4714468AC75F}"/>
-    <hyperlink ref="C13" r:id="rId12" xr:uid="{C87FACE2-57DF-42EB-A096-07A06FCC6675}"/>
+    <hyperlink ref="C14" r:id="rId12" xr:uid="{C87FACE2-57DF-42EB-A096-07A06FCC6675}"/>
+    <hyperlink ref="C13" r:id="rId13" xr:uid="{9ABD183C-6E70-4C42-9162-20E9124EE15E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId13"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId14"/>
   <headerFooter>
     <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 General</oddFooter>
   </headerFooter>
@@ -6555,7 +6658,7 @@
       <c r="D2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="17"/>
+      <c r="E2" s="14"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4" t="s">
         <v>11</v>
@@ -6582,7 +6685,7 @@
       <c r="D3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="17"/>
+      <c r="E3" s="14"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4" t="s">
         <v>29</v>
@@ -6609,7 +6712,7 @@
       <c r="D4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="17"/>
+      <c r="E4" s="14"/>
       <c r="F4" s="4" t="s">
         <v>271</v>
       </c>
@@ -6638,7 +6741,7 @@
       <c r="D5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="17"/>
+      <c r="E5" s="14"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
         <v>11</v>
@@ -6665,7 +6768,7 @@
       <c r="D6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="17"/>
+      <c r="E6" s="14"/>
       <c r="F6" s="4" t="s">
         <v>262</v>
       </c>
@@ -6696,7 +6799,7 @@
       <c r="D7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="14" t="s">
         <v>301</v>
       </c>
       <c r="F7" s="4" t="s">
@@ -6727,7 +6830,7 @@
       <c r="D8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="17"/>
+      <c r="E8" s="14"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
         <v>11</v>
@@ -6754,7 +6857,7 @@
       <c r="D9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="14" t="s">
         <v>282</v>
       </c>
       <c r="F9" s="4" t="s">
@@ -6785,7 +6888,7 @@
       <c r="D10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="17"/>
+      <c r="E10" s="14"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4" t="s">
         <v>11</v>
@@ -6812,7 +6915,7 @@
       <c r="D11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="14" t="s">
         <v>289</v>
       </c>
       <c r="F11" s="4"/>
@@ -6843,7 +6946,7 @@
       <c r="D12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="17"/>
+      <c r="E12" s="14"/>
       <c r="F12" s="4" t="s">
         <v>310</v>
       </c>
@@ -6903,7 +7006,7 @@
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="31" customWidth="1"/>
-    <col min="3" max="3" width="35.796875" style="20" customWidth="1"/>
+    <col min="3" max="3" width="35.796875" style="17" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="41" customWidth="1"/>
     <col min="6" max="8" width="21" customWidth="1"/>
@@ -6918,7 +7021,7 @@
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="15" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -6953,13 +7056,13 @@
       <c r="B2" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="16" t="s">
         <v>227</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="17"/>
+      <c r="E2" s="14"/>
       <c r="F2" s="4" t="s">
         <v>228</v>
       </c>
@@ -6982,13 +7085,13 @@
       <c r="B3" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="16" t="s">
         <v>221</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="14" t="s">
         <v>222</v>
       </c>
       <c r="F3" s="4"/>
@@ -7011,13 +7114,13 @@
       <c r="B4" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="16" t="s">
         <v>201</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="14" t="s">
         <v>219</v>
       </c>
       <c r="F4" s="4" t="s">
@@ -7127,7 +7230,7 @@
       <c r="D2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="17"/>
+      <c r="E2" s="14"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4" t="s">
         <v>44</v>
@@ -7218,7 +7321,7 @@
       <c r="D5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="17"/>
+      <c r="E5" s="14"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
         <v>44</v>
@@ -7235,7 +7338,7 @@
       <c r="K5" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="16" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="D2:D5">
     <cfRule type="expression" dxfId="23" priority="1">
       <formula>D2="Easy"</formula>

--- a/LeetCode Techniques.xlsx
+++ b/LeetCode Techniques.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/blackjack625/Desktop/LeetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43C54368-9F9B-E141-ADEF-EACC1F0A6204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C61E7FAF-58F3-1242-A7C8-3EF5C8D537B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16480" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DP" sheetId="8" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="371">
   <si>
     <t>Name</t>
   </si>
@@ -97,10 +97,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>O(n^2logn)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>O(logn)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -346,11 +342,6 @@
   </si>
   <si>
     <t>Stream of Characters</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Insertion (replacement) in subsequence 
-won't brush away longest record.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1469,6 +1460,59 @@
 2 = covered without self camera.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Replacement in subsequence
+won't brush away longest record.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O(n^2*logn)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Search in Rotated Sorted Array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/search-in-rotated-sorted-array/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Find First and Last Position of Element in Sorted Array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-first-and-last-position-of-element-in-sorted-array/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Same logic as Q.81.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Search in Rotated Sorted Array II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/search-in-rotated-sorted-array-ii/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Recursion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nth Digit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/nth-digit/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apply hash table as memoization.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1477,7 +1521,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1591,22 +1635,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Microsoft YaHei"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <u/>
       <sz val="10"/>
       <color theme="10"/>
-      <name val="Microsoft YaHei"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
@@ -1647,7 +1678,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1692,13 +1723,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -2487,7 +2514,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23E6E9DF-BEE0-B544-8910-7DDC3380F4B7}">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
@@ -2515,10 +2542,10 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>5</v>
@@ -2541,13 +2568,13 @@
         <v>53</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -2555,7 +2582,7 @@
         <v>11</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I2" s="5">
         <v>45404</v>
@@ -2568,21 +2595,21 @@
         <v>62</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>138</v>
-      </c>
       <c r="D3" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I3" s="5">
         <v>45493</v>
@@ -2595,23 +2622,23 @@
         <v>63</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="D4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>139</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>141</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I4" s="5">
         <v>45493</v>
@@ -2624,21 +2651,21 @@
         <v>64</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I5" s="5">
         <v>45493</v>
@@ -2651,10 +2678,10 @@
         <v>120</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>10</v>
@@ -2678,19 +2705,19 @@
         <v>124</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>11</v>
@@ -2709,23 +2736,23 @@
         <v>152</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I8" s="5">
         <v>45405</v>
@@ -2738,23 +2765,23 @@
         <v>198</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I9" s="5">
         <v>45418</v>
@@ -2767,25 +2794,25 @@
         <v>213</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I10" s="5">
         <v>45418</v>
@@ -2798,23 +2825,23 @@
         <v>279</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I11" s="5">
         <v>45495</v>
@@ -2827,23 +2854,23 @@
         <v>322</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I12" s="5">
         <v>45495</v>
@@ -2856,25 +2883,25 @@
         <v>337</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C13" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>160</v>
-      </c>
       <c r="G13" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I13" s="5">
         <v>45495</v>
@@ -2887,23 +2914,23 @@
         <v>343</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>178</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>180</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I14" s="5">
         <v>45495</v>
@@ -2916,23 +2943,23 @@
         <v>377</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I15" s="5">
         <v>45495</v>
@@ -2945,23 +2972,23 @@
         <v>518</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I16" s="5">
         <v>45495</v>
@@ -2974,19 +3001,19 @@
         <v>907</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>11</v>
@@ -3005,10 +3032,10 @@
         <v>931</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>10</v>
@@ -3016,7 +3043,7 @@
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>11</v>
@@ -3032,21 +3059,21 @@
         <v>1220</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I19" s="5">
         <v>45504</v>
@@ -3059,22 +3086,22 @@
         <v>1289</v>
       </c>
       <c r="B20" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="F20" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="G20" s="4" t="s">
         <v>154</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>156</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>11</v>
@@ -3090,21 +3117,21 @@
         <v>1301</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I21" s="5">
         <v>45497</v>
@@ -3117,21 +3144,21 @@
         <v>1359</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I22" s="5">
         <v>45498</v>
@@ -3144,25 +3171,25 @@
         <v>1373</v>
       </c>
       <c r="B23" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="F23" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="C23" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>208</v>
-      </c>
       <c r="G23" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I23" s="5">
         <v>45499</v>
@@ -3175,19 +3202,19 @@
         <v>1425</v>
       </c>
       <c r="B24" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="F24" s="4" t="s">
         <v>260</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E24" s="14" t="s">
-        <v>263</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>262</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>11</v>
@@ -3206,23 +3233,23 @@
         <v>1449</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C25" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="13" t="s">
         <v>211</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>213</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I25" s="5">
         <v>45502</v>
@@ -3308,10 +3335,10 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>5</v>
@@ -3334,20 +3361,20 @@
         <v>295</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>249</v>
+        <v>246</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>247</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>11</v>
@@ -3365,10 +3392,10 @@
         <v>355</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>10</v>
@@ -3376,10 +3403,10 @@
       <c r="E3" s="6"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I3" s="5">
         <v>45528</v>
@@ -3444,10 +3471,10 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>5</v>
@@ -3470,23 +3497,23 @@
         <v>658</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>326</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>328</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="14"/>
       <c r="F2" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I2" s="5">
         <v>45529</v>
@@ -3499,23 +3526,23 @@
         <v>1163</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="14" t="s">
         <v>346</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>347</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>348</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>45</v>
       </c>
       <c r="I3" s="5">
         <v>45533</v>
@@ -3528,23 +3555,23 @@
         <v>1793</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="14" t="s">
         <v>250</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>252</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>45</v>
       </c>
       <c r="I4" s="5">
         <v>45516</v>
@@ -3610,10 +3637,10 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>5</v>
@@ -3636,21 +3663,21 @@
         <v>208</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I2" s="5">
         <v>45483</v>
@@ -3663,23 +3690,23 @@
         <v>211</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C3" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>69</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I3" s="5">
         <v>45483</v>
@@ -3692,23 +3719,23 @@
         <v>386</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>73</v>
-      </c>
       <c r="D4" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I4" s="5">
         <v>45483</v>
@@ -3721,21 +3748,21 @@
         <v>648</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>76</v>
-      </c>
       <c r="D5" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I5" s="5">
         <v>45485</v>
@@ -3748,23 +3775,23 @@
         <v>677</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>78</v>
-      </c>
       <c r="D6" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I6" s="5">
         <v>45484</v>
@@ -3777,23 +3804,23 @@
         <v>720</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>80</v>
-      </c>
       <c r="D7" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I7" s="5">
         <v>45485</v>
@@ -3806,23 +3833,23 @@
         <v>1032</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I8" s="5">
         <v>45484</v>
@@ -3835,23 +3862,23 @@
         <v>1268</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I9" s="5">
         <v>45484</v>
@@ -3864,23 +3891,23 @@
         <v>2416</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>88</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>90</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I10" s="5">
         <v>45485</v>
@@ -3952,10 +3979,10 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>5</v>
@@ -3978,21 +4005,21 @@
         <v>60</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I2" s="5">
         <v>45517</v>
@@ -4005,18 +4032,18 @@
         <v>394</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>60</v>
-      </c>
       <c r="D3" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>11</v>
@@ -4032,23 +4059,23 @@
         <v>779</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I4" s="5">
         <v>45533</v>
@@ -4114,10 +4141,10 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>5</v>
@@ -4140,23 +4167,23 @@
         <v>187</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="14"/>
       <c r="F2" s="4" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I2" s="5">
         <v>45393</v>
@@ -4171,23 +4198,23 @@
         <v>2444</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="14" t="s">
         <v>272</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>274</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I3" s="5">
         <v>45518</v>
@@ -4251,10 +4278,10 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>5</v>
@@ -4277,23 +4304,23 @@
         <v>41</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>58</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="G2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>45</v>
       </c>
       <c r="I2" s="5">
         <v>45095</v>
@@ -4308,21 +4335,21 @@
         <v>287</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I3" s="5">
         <v>45375</v>
@@ -4335,21 +4362,21 @@
         <v>645</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>54</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I4" s="5">
         <v>45375</v>
@@ -4396,15 +4423,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="40.796875" customWidth="1"/>
-    <col min="3" max="3" width="71" style="20" customWidth="1"/>
+    <col min="3" max="3" width="71" style="11" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
     <col min="6" max="8" width="21" customWidth="1"/>
@@ -4419,17 +4446,17 @@
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>5</v>
@@ -4449,159 +4476,167 @@
     </row>
     <row r="2" spans="1:11" ht="20" customHeight="1">
       <c r="A2" s="4">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>36</v>
+        <v>360</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>361</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="E2" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>367</v>
+      </c>
       <c r="G2" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I2" s="5">
-        <v>45418</v>
-      </c>
-      <c r="J2" s="3"/>
+        <v>45472</v>
+      </c>
+      <c r="J2" s="5">
+        <v>45537</v>
+      </c>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11" ht="20" customHeight="1">
       <c r="A3" s="4">
-        <v>220</v>
+        <v>34</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>43</v>
+        <v>362</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>363</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="I3" s="5">
-        <v>45397</v>
-      </c>
-      <c r="J3" s="3"/>
+        <v>45466</v>
+      </c>
+      <c r="J3" s="5">
+        <v>45537</v>
+      </c>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" ht="30" customHeight="1">
+    <row r="4" spans="1:11" ht="20" customHeight="1">
       <c r="A4" s="4">
-        <v>300</v>
+        <v>74</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>29</v>
       </c>
       <c r="I4" s="5">
         <v>45418</v>
       </c>
-      <c r="J4" s="5"/>
-      <c r="K4" s="4"/>
+      <c r="J4" s="5">
+        <v>45537</v>
+      </c>
+      <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11" ht="20" customHeight="1">
       <c r="A5" s="4">
-        <v>315</v>
+        <v>81</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>21</v>
+        <v>365</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>366</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
+      <c r="F5" s="4" t="s">
+        <v>367</v>
+      </c>
       <c r="G5" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="I5" s="5">
-        <v>45394</v>
-      </c>
-      <c r="J5" s="5">
-        <v>45532</v>
-      </c>
-      <c r="K5" s="4"/>
+        <v>45537</v>
+      </c>
+      <c r="J5" s="5"/>
+      <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" ht="20" customHeight="1">
       <c r="A6" s="4">
-        <v>352</v>
+        <v>220</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>39</v>
+        <v>41</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4" t="s">
-        <v>35</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
       <c r="G6" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I6" s="5">
-        <v>45401</v>
-      </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="4"/>
-    </row>
-    <row r="7" spans="1:11" ht="20" customHeight="1">
+        <v>45397</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="1:11" ht="30" customHeight="1">
       <c r="A7" s="4">
-        <v>480</v>
+        <v>300</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>17</v>
+        <v>27</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>358</v>
+      </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
         <v>12</v>
@@ -4610,23 +4645,25 @@
         <v>11</v>
       </c>
       <c r="I7" s="5">
-        <v>45400</v>
-      </c>
-      <c r="J7" s="5"/>
+        <v>45418</v>
+      </c>
+      <c r="J7" s="5">
+        <v>45537</v>
+      </c>
       <c r="K7" s="4"/>
     </row>
     <row r="8" spans="1:11" ht="20" customHeight="1">
       <c r="A8" s="4">
-        <v>493</v>
+        <v>315</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>32</v>
+        <v>19</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -4637,7 +4674,7 @@
         <v>11</v>
       </c>
       <c r="I8" s="5">
-        <v>45395</v>
+        <v>45394</v>
       </c>
       <c r="J8" s="5">
         <v>45532</v>
@@ -4646,20 +4683,20 @@
     </row>
     <row r="9" spans="1:11" ht="20" customHeight="1">
       <c r="A9" s="4">
-        <v>611</v>
+        <v>352</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>18</v>
+        <v>37</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>38</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>13</v>
@@ -4668,246 +4705,366 @@
         <v>11</v>
       </c>
       <c r="I9" s="5">
-        <v>45395</v>
+        <v>45401</v>
       </c>
       <c r="J9" s="5"/>
       <c r="K9" s="4"/>
     </row>
     <row r="10" spans="1:11" ht="20" customHeight="1">
       <c r="A10" s="4">
-        <v>668</v>
+        <v>400</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>285</v>
+        <v>368</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>369</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>327</v>
+      </c>
       <c r="G10" s="4" t="s">
-        <v>286</v>
+        <v>13</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="I10" s="5">
-        <v>45523</v>
+        <v>45537</v>
       </c>
       <c r="J10" s="5"/>
-      <c r="K10" s="4"/>
+      <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:11" ht="20" customHeight="1">
       <c r="A11" s="4">
-        <v>729</v>
+        <v>480</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>41</v>
+        <v>9</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I11" s="5">
-        <v>45420</v>
+        <v>45400</v>
       </c>
       <c r="J11" s="5"/>
       <c r="K11" s="4"/>
     </row>
     <row r="12" spans="1:11" ht="20" customHeight="1">
       <c r="A12" s="4">
-        <v>1095</v>
+        <v>493</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>63</v>
+        <v>30</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>31</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" s="5">
+        <v>45395</v>
+      </c>
+      <c r="J12" s="5">
+        <v>45532</v>
+      </c>
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" spans="1:11" ht="20" customHeight="1">
+      <c r="A13" s="4">
+        <v>611</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I12" s="5">
-        <v>45482</v>
-      </c>
-      <c r="J12" s="5"/>
-      <c r="K12" s="4"/>
-    </row>
-    <row r="13" spans="1:11" ht="30" customHeight="1">
-      <c r="A13" s="4">
-        <v>1649</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>329</v>
-      </c>
       <c r="G13" s="4" t="s">
-        <v>12</v>
+        <v>359</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I13" s="5">
-        <v>45482</v>
-      </c>
-      <c r="J13" s="5">
-        <v>45533</v>
-      </c>
+        <v>45395</v>
+      </c>
+      <c r="J13" s="5"/>
       <c r="K13" s="4"/>
     </row>
     <row r="14" spans="1:11" ht="20" customHeight="1">
       <c r="A14" s="4">
-        <v>1825</v>
+        <v>668</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>34</v>
+        <v>282</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>283</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="E14" s="4"/>
-      <c r="F14" s="4" t="s">
-        <v>35</v>
-      </c>
+      <c r="F14" s="4"/>
       <c r="G14" s="4" t="s">
-        <v>14</v>
+        <v>284</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="I14" s="5">
-        <v>45400</v>
+        <v>45523</v>
       </c>
       <c r="J14" s="5"/>
       <c r="K14" s="4"/>
     </row>
     <row r="15" spans="1:11" ht="20" customHeight="1">
       <c r="A15" s="4">
-        <v>2034</v>
+        <v>729</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>26</v>
+        <v>39</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E15" s="4"/>
-      <c r="F15" s="4" t="s">
-        <v>35</v>
-      </c>
+      <c r="F15" s="4"/>
       <c r="G15" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I15" s="5">
-        <v>45400</v>
+        <v>45420</v>
       </c>
       <c r="J15" s="5"/>
       <c r="K15" s="4"/>
     </row>
     <row r="16" spans="1:11" ht="20" customHeight="1">
       <c r="A16" s="4">
-        <v>2102</v>
+        <v>1095</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>24</v>
+        <v>60</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>62</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="E16" s="4"/>
-      <c r="F16" s="4" t="s">
-        <v>35</v>
-      </c>
+      <c r="F16" s="4"/>
       <c r="G16" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="I16" s="5">
-        <v>45420</v>
+        <v>45482</v>
       </c>
       <c r="J16" s="5"/>
       <c r="K16" s="4"/>
     </row>
+    <row r="17" spans="1:11" ht="30" customHeight="1">
+      <c r="A17" s="4">
+        <v>1649</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I17" s="5">
+        <v>45482</v>
+      </c>
+      <c r="J17" s="5">
+        <v>45533</v>
+      </c>
+      <c r="K17" s="4"/>
+    </row>
+    <row r="18" spans="1:11" ht="20" customHeight="1">
+      <c r="A18" s="4">
+        <v>1825</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I18" s="5">
+        <v>45400</v>
+      </c>
+      <c r="J18" s="5"/>
+      <c r="K18" s="4"/>
+    </row>
+    <row r="19" spans="1:11" ht="20" customHeight="1">
+      <c r="A19" s="4">
+        <v>2034</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I19" s="5">
+        <v>45400</v>
+      </c>
+      <c r="J19" s="5"/>
+      <c r="K19" s="4"/>
+    </row>
+    <row r="20" spans="1:11" ht="20" customHeight="1">
+      <c r="A20" s="4">
+        <v>2102</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I20" s="5">
+        <v>45420</v>
+      </c>
+      <c r="J20" s="5"/>
+      <c r="K20" s="4"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K16">
-    <sortCondition ref="A2:A16"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:K20">
+    <sortCondition ref="A4:A20"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D2:E16">
-    <cfRule type="expression" dxfId="44" priority="4">
+  <conditionalFormatting sqref="D2:E20">
+    <cfRule type="expression" dxfId="44" priority="1">
       <formula>D2="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="5">
+    <cfRule type="expression" dxfId="43" priority="2">
       <formula>D2="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="6">
+    <cfRule type="expression" dxfId="42" priority="3">
       <formula>D2="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="C7" r:id="rId1" xr:uid="{98DA09B4-ED1E-9841-BFC0-AD6132AF476B}"/>
-    <hyperlink ref="C9" r:id="rId2" xr:uid="{355AB06F-F372-E64C-BB34-3D68811E6B00}"/>
-    <hyperlink ref="C5" r:id="rId3" xr:uid="{A97C1B49-93D0-D74A-BF3C-F925EFE9FD83}"/>
-    <hyperlink ref="C16" r:id="rId4" xr:uid="{4C375694-D494-514B-B747-D72CA94420E6}"/>
-    <hyperlink ref="C15" r:id="rId5" xr:uid="{5E8F7E04-6349-4D42-B16F-92BF0082A8EC}"/>
-    <hyperlink ref="C4" r:id="rId6" xr:uid="{C06E2E2A-F9EA-2C41-A2A2-0110BB4FE089}"/>
-    <hyperlink ref="C8" r:id="rId7" xr:uid="{88F29B63-471E-1745-ABA5-15B0EE490696}"/>
-    <hyperlink ref="C14" r:id="rId8" xr:uid="{77B0B942-637D-9846-B52B-162446D656B7}"/>
-    <hyperlink ref="C2" r:id="rId9" xr:uid="{FC6DC5BC-3B79-3A47-AD69-9FD63EE06424}"/>
-    <hyperlink ref="C6" r:id="rId10" xr:uid="{82F4789C-38A4-1A4D-BA41-951136E51502}"/>
-    <hyperlink ref="C11" r:id="rId11" xr:uid="{87D58C84-2A2E-5243-AD6C-F126296F2572}"/>
-    <hyperlink ref="C12" r:id="rId12" xr:uid="{E17A87F3-1678-4780-AF58-F4783F4A7A65}"/>
-    <hyperlink ref="C13" r:id="rId13" xr:uid="{AB427796-2FCF-4F37-AC47-998ADDB37E09}"/>
-    <hyperlink ref="C10" r:id="rId14" xr:uid="{8A96E47C-EAC7-48C6-ADEC-7531EB38C4E9}"/>
+    <hyperlink ref="C11" r:id="rId1" xr:uid="{98DA09B4-ED1E-9841-BFC0-AD6132AF476B}"/>
+    <hyperlink ref="C13" r:id="rId2" xr:uid="{355AB06F-F372-E64C-BB34-3D68811E6B00}"/>
+    <hyperlink ref="C8" r:id="rId3" xr:uid="{A97C1B49-93D0-D74A-BF3C-F925EFE9FD83}"/>
+    <hyperlink ref="C20" r:id="rId4" xr:uid="{4C375694-D494-514B-B747-D72CA94420E6}"/>
+    <hyperlink ref="C19" r:id="rId5" xr:uid="{5E8F7E04-6349-4D42-B16F-92BF0082A8EC}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{C06E2E2A-F9EA-2C41-A2A2-0110BB4FE089}"/>
+    <hyperlink ref="C12" r:id="rId7" xr:uid="{88F29B63-471E-1745-ABA5-15B0EE490696}"/>
+    <hyperlink ref="C18" r:id="rId8" xr:uid="{77B0B942-637D-9846-B52B-162446D656B7}"/>
+    <hyperlink ref="C4" r:id="rId9" xr:uid="{FC6DC5BC-3B79-3A47-AD69-9FD63EE06424}"/>
+    <hyperlink ref="C9" r:id="rId10" xr:uid="{82F4789C-38A4-1A4D-BA41-951136E51502}"/>
+    <hyperlink ref="C15" r:id="rId11" xr:uid="{87D58C84-2A2E-5243-AD6C-F126296F2572}"/>
+    <hyperlink ref="C16" r:id="rId12" xr:uid="{E17A87F3-1678-4780-AF58-F4783F4A7A65}"/>
+    <hyperlink ref="C17" r:id="rId13" xr:uid="{AB427796-2FCF-4F37-AC47-998ADDB37E09}"/>
+    <hyperlink ref="C14" r:id="rId14" xr:uid="{8A96E47C-EAC7-48C6-ADEC-7531EB38C4E9}"/>
+    <hyperlink ref="C3" r:id="rId15" xr:uid="{77A5E6D8-5264-F04F-BC78-21DDA6037DF6}"/>
+    <hyperlink ref="C2" r:id="rId16" xr:uid="{340E4233-FEB9-9F48-9387-7CB2346C6575}"/>
+    <hyperlink ref="C5" r:id="rId17" xr:uid="{3B2F49D0-E28E-A143-839B-1971A2BC7451}"/>
+    <hyperlink ref="C10" r:id="rId18" xr:uid="{45F4022B-0E15-094E-B925-98BE2F089865}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId15"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId19"/>
   <headerFooter>
     <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 General</oddFooter>
   </headerFooter>
@@ -4946,10 +5103,10 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>5</v>
@@ -4972,18 +5129,18 @@
         <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>11</v>
@@ -5001,10 +5158,10 @@
         <v>80</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>10</v>
@@ -5015,7 +5172,7 @@
         <v>11</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I3" s="5">
         <v>45390</v>
@@ -5028,10 +5185,10 @@
         <v>347</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>10</v>
@@ -5042,7 +5199,7 @@
         <v>11</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I4" s="5">
         <v>45377</v>
@@ -5055,23 +5212,23 @@
         <v>381</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="14" t="s">
         <v>223</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>225</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I5" s="5">
         <v>45511</v>
@@ -5084,21 +5241,21 @@
         <v>432</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I6" s="5">
         <v>45512</v>
@@ -5111,21 +5268,21 @@
         <v>460</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E7" s="14"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I7" s="5">
         <v>45514</v>
@@ -5138,10 +5295,10 @@
         <v>692</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>10</v>
@@ -5152,7 +5309,7 @@
         <v>11</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I8" s="5">
         <v>45400</v>
@@ -5165,23 +5322,23 @@
         <v>710</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="14" t="s">
         <v>266</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>268</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I9" s="5">
         <v>45519</v>
@@ -5194,25 +5351,25 @@
         <v>1044</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>269</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>277</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>271</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I10" s="5">
         <v>45520</v>
@@ -5225,21 +5382,21 @@
         <v>1206</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E11" s="14"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I11" s="5">
         <v>45512</v>
@@ -5252,21 +5409,21 @@
         <v>1224</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I12" s="5">
         <v>45516</v>
@@ -5279,10 +5436,10 @@
         <v>1338</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>10</v>
@@ -5293,7 +5450,7 @@
         <v>12</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I13" s="5">
         <v>45383</v>
@@ -5308,18 +5465,18 @@
         <v>1695</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>49</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>11</v>
@@ -5337,10 +5494,10 @@
         <v>2453</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>10</v>
@@ -5351,7 +5508,7 @@
         <v>11</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I15" s="5">
         <v>45389</v>
@@ -5364,10 +5521,10 @@
         <v>3039</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>10</v>
@@ -5378,7 +5535,7 @@
         <v>11</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I16" s="5">
         <v>45389</v>
@@ -5456,10 +5613,10 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>5</v>
@@ -5482,23 +5639,23 @@
         <v>201</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I2" s="5">
         <v>45530</v>
@@ -5511,23 +5668,23 @@
         <v>371</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I3" s="5">
         <v>45392</v>
@@ -5542,10 +5699,10 @@
         <v>397</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>10</v>
@@ -5553,10 +5710,10 @@
       <c r="E4" s="6"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I4" s="5">
         <v>45405</v>
@@ -5571,23 +5728,23 @@
         <v>477</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I5" s="5">
         <v>45532</v>
@@ -5600,10 +5757,10 @@
         <v>1404</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>10</v>
@@ -5611,10 +5768,10 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I6" s="5">
         <v>45530</v>
@@ -5627,23 +5784,23 @@
         <v>2419</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I7" s="5">
         <v>45532</v>
@@ -5656,23 +5813,23 @@
         <v>2425</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I8" s="5">
         <v>45534</v>
@@ -5685,23 +5842,23 @@
         <v>2683</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I9" s="5">
         <v>45531</v>
@@ -5772,10 +5929,10 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>5</v>
@@ -5798,23 +5955,23 @@
         <v>23</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="4" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I2" s="5">
         <v>45503</v>
@@ -5829,23 +5986,23 @@
         <v>102</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I3" s="5">
         <v>45489</v>
@@ -5858,23 +6015,23 @@
         <v>107</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I4" s="5">
         <v>45489</v>
@@ -5887,23 +6044,23 @@
         <v>116</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I5" s="5">
         <v>45487</v>
@@ -5916,23 +6073,23 @@
         <v>117</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>116</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>118</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I6" s="5">
         <v>45489</v>
@@ -5945,21 +6102,21 @@
         <v>513</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I7" s="5">
         <v>45487</v>
@@ -5972,18 +6129,18 @@
         <v>515</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>11</v>
@@ -5999,23 +6156,23 @@
         <v>662</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I9" s="5">
         <v>45490</v>
@@ -6028,21 +6185,21 @@
         <v>958</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I10" s="5">
         <v>45491</v>
@@ -6055,21 +6212,21 @@
         <v>987</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I11" s="5">
         <v>45497</v>
@@ -6082,21 +6239,21 @@
         <v>1161</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I12" s="5">
         <v>45491</v>
@@ -6170,10 +6327,10 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>5</v>
@@ -6196,21 +6353,21 @@
         <v>113</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>93</v>
-      </c>
       <c r="D2" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I2" s="5">
         <v>45486</v>
@@ -6223,21 +6380,21 @@
         <v>114</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>94</v>
-      </c>
       <c r="D3" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I3" s="5">
         <v>45486</v>
@@ -6250,21 +6407,21 @@
         <v>129</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I4" s="5">
         <v>45487</v>
@@ -6277,23 +6434,23 @@
         <v>297</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>194</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>196</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I5" s="5">
         <v>45497</v>
@@ -6306,21 +6463,21 @@
         <v>341</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I6" s="5">
         <v>45487</v>
@@ -6333,25 +6490,25 @@
         <v>399</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>128</v>
-      </c>
       <c r="G7" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I7" s="5">
         <v>45490</v>
@@ -6364,21 +6521,21 @@
         <v>437</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I8" s="5">
         <v>45487</v>
@@ -6391,21 +6548,21 @@
         <v>508</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I9" s="5">
         <v>45487</v>
@@ -6418,21 +6575,21 @@
         <v>623</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I10" s="5">
         <v>45488</v>
@@ -6445,23 +6602,23 @@
         <v>652</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>111</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>113</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I11" s="5">
         <v>45488</v>
@@ -6474,23 +6631,23 @@
         <v>687</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I12" s="5">
         <v>45488</v>
@@ -6503,23 +6660,23 @@
         <v>968</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="14" t="s">
         <v>357</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>358</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>359</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I13" s="5">
         <v>45534</v>
@@ -6532,23 +6689,23 @@
         <v>1028</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>197</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>199</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I14" s="5">
         <v>46227</v>
@@ -6624,10 +6781,10 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>5</v>
@@ -6650,10 +6807,10 @@
         <v>238</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>10</v>
@@ -6677,10 +6834,10 @@
         <v>304</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>292</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>294</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>10</v>
@@ -6688,10 +6845,10 @@
       <c r="E3" s="14"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="I3" s="5">
         <v>45526</v>
@@ -6704,20 +6861,20 @@
         <v>528</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>11</v>
@@ -6733,10 +6890,10 @@
         <v>848</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>10</v>
@@ -6760,17 +6917,17 @@
         <v>862</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="4" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>11</v>
@@ -6791,19 +6948,19 @@
         <v>930</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>11</v>
@@ -6822,10 +6979,10 @@
         <v>1524</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>10</v>
@@ -6836,7 +6993,7 @@
         <v>11</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I8" s="5">
         <v>45524</v>
@@ -6849,25 +7006,25 @@
         <v>1862</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>279</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>282</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>281</v>
       </c>
       <c r="I9" s="5">
         <v>45521</v>
@@ -6880,10 +7037,10 @@
         <v>1894</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>10</v>
@@ -6894,7 +7051,7 @@
         <v>11</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I10" s="5">
         <v>45525</v>
@@ -6907,16 +7064,16 @@
         <v>2302</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="14" t="s">
         <v>287</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>289</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
@@ -6938,17 +7095,17 @@
         <v>2438</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="4" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>11</v>
@@ -7028,10 +7185,10 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>5</v>
@@ -7054,23 +7211,23 @@
         <v>895</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2" s="14"/>
       <c r="F2" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I2" s="5">
         <v>45512</v>
@@ -7083,23 +7240,23 @@
         <v>1172</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="14" t="s">
         <v>220</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>221</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>222</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I3" s="5">
         <v>45511</v>
@@ -7112,25 +7269,25 @@
         <v>2454</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="C4" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>219</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>202</v>
-      </c>
       <c r="H4" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I4" s="5">
         <v>45505</v>
@@ -7196,10 +7353,10 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>5</v>
@@ -7222,21 +7379,21 @@
         <v>239</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2" s="14"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="I2" s="5">
         <v>45386</v>
@@ -7251,25 +7408,25 @@
         <v>767</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I3" s="5">
         <v>45527</v>
@@ -7282,25 +7439,25 @@
         <v>1054</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I4" s="5">
         <v>45527</v>
@@ -7313,10 +7470,10 @@
         <v>1438</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>10</v>
@@ -7324,10 +7481,10 @@
       <c r="E5" s="14"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I5" s="5">
         <v>45398</v>

--- a/LeetCode Techniques.xlsx
+++ b/LeetCode Techniques.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/blackjack625/Desktop/LeetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C61E7FAF-58F3-1242-A7C8-3EF5C8D537B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8628537D-7FF2-1D41-9D4B-666B3B882B26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16480" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DP" sheetId="8" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="379">
   <si>
     <t>Name</t>
   </si>
@@ -483,10 +483,6 @@
     <t>https://leetcode.com/problems/populating-next-right-pointers-in-each-node-ii/description/</t>
   </si>
   <si>
-    <t>Use a deck to ensure queue
-always has nodes of same level.</t>
-  </si>
-  <si>
     <t>If needed, use .copy() to prevent
 storage modification during iteration.</t>
   </si>
@@ -522,10 +518,6 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/check-completeness-of-a-binary-tree/description/</t>
-  </si>
-  <si>
-    <t>Use parent &amp; children indices
-relationship to swiftly compute width.</t>
   </si>
   <si>
     <t>Maximum Level Sum of a Binary Tree</t>
@@ -1511,6 +1503,48 @@
   </si>
   <si>
     <t>Apply hash table as memoization.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximum-length-of-repeated-subarray/description/?envType=problem-list-v2&amp;envId=rolling-hash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maximum Length of Repeated Subarray</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Next Permutation</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/next-permutation/description/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>O(n)</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Locate longest
+non-increasing suffix.</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Longest Well-Performing Interval</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/longest-well-performing-interval/description/?envType=problem-list-v2&amp;envId=prefix-sum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hash of each prefix sum's earliest idx.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use parent &amp; children indices
+relationship to compute width.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2514,7 +2548,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23E6E9DF-BEE0-B544-8910-7DDC3380F4B7}">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
@@ -2568,10 +2602,10 @@
         <v>53</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>48</v>
@@ -2595,10 +2629,10 @@
         <v>62</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>134</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>136</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>48</v>
@@ -2622,16 +2656,16 @@
         <v>63</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>135</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>137</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>48</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
@@ -2651,10 +2685,10 @@
         <v>64</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>48</v>
@@ -2678,10 +2712,10 @@
         <v>120</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>10</v>
@@ -2705,16 +2739,16 @@
         <v>124</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>70</v>
@@ -2736,16 +2770,16 @@
         <v>152</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>48</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
@@ -2765,17 +2799,17 @@
         <v>198</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>48</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>11</v>
@@ -2794,19 +2828,19 @@
         <v>213</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>48</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>43</v>
@@ -2825,23 +2859,23 @@
         <v>279</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>48</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I11" s="5">
         <v>45495</v>
@@ -2854,23 +2888,23 @@
         <v>322</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>48</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I12" s="5">
         <v>45495</v>
@@ -2883,19 +2917,19 @@
         <v>337</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>48</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>43</v>
@@ -2914,20 +2948,20 @@
         <v>343</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>48</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>43</v>
@@ -2943,23 +2977,23 @@
         <v>377</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>48</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I15" s="5">
         <v>45495</v>
@@ -2972,23 +3006,23 @@
         <v>518</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>48</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I16" s="5">
         <v>45495</v>
@@ -3001,19 +3035,19 @@
         <v>907</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>11</v>
@@ -3032,10 +3066,10 @@
         <v>931</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>10</v>
@@ -3043,7 +3077,7 @@
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>11</v>
@@ -3059,10 +3093,10 @@
         <v>1220</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>15</v>
@@ -3086,22 +3120,22 @@
         <v>1289</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>11</v>
@@ -3117,10 +3151,10 @@
         <v>1301</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>15</v>
@@ -3128,10 +3162,10 @@
       <c r="E21" s="6"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I21" s="5">
         <v>45497</v>
@@ -3144,10 +3178,10 @@
         <v>1359</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>57</v>
@@ -3171,19 +3205,19 @@
         <v>1373</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>43</v>
@@ -3202,19 +3236,19 @@
         <v>1425</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>11</v>
@@ -3233,23 +3267,23 @@
         <v>1449</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I25" s="5">
         <v>45502</v>
@@ -3361,16 +3395,16 @@
         <v>295</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="4" t="s">
@@ -3392,10 +3426,10 @@
         <v>355</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>10</v>
@@ -3403,10 +3437,10 @@
       <c r="E3" s="6"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I3" s="5">
         <v>45528</v>
@@ -3441,7 +3475,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A08C46FD-BCA6-4056-B9A8-855F75FCB25A}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -3492,79 +3526,79 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="20" customHeight="1">
+    <row r="2" spans="1:11" ht="30" customHeight="1">
       <c r="A2" s="4">
-        <v>658</v>
+        <v>31</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>324</v>
+        <v>371</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>326</v>
+        <v>372</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="4" t="s">
-        <v>312</v>
-      </c>
+      <c r="E2" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="F2" s="4"/>
       <c r="G2" s="4" t="s">
-        <v>325</v>
+        <v>373</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>44</v>
       </c>
       <c r="I2" s="5">
-        <v>45529</v>
+        <v>45539</v>
       </c>
       <c r="J2" s="5"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" ht="30" customHeight="1">
+    <row r="3" spans="1:11" ht="20" customHeight="1">
       <c r="A3" s="4">
-        <v>1163</v>
+        <v>658</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>346</v>
-      </c>
-      <c r="F3" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="E3" s="14"/>
+      <c r="F3" s="4" t="s">
+        <v>310</v>
+      </c>
       <c r="G3" s="4" t="s">
-        <v>43</v>
+        <v>323</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>44</v>
       </c>
       <c r="I3" s="5">
-        <v>45533</v>
+        <v>45529</v>
       </c>
       <c r="J3" s="5"/>
       <c r="K3" s="4"/>
     </row>
     <row r="4" spans="1:11" ht="30" customHeight="1">
       <c r="A4" s="4">
-        <v>1793</v>
+        <v>1163</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>248</v>
+        <v>342</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>249</v>
+        <v>343</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>250</v>
+        <v>344</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
@@ -3574,14 +3608,43 @@
         <v>44</v>
       </c>
       <c r="I4" s="5">
-        <v>45516</v>
+        <v>45533</v>
       </c>
       <c r="J4" s="5"/>
       <c r="K4" s="4"/>
     </row>
+    <row r="5" spans="1:11" ht="30" customHeight="1">
+      <c r="A5" s="4">
+        <v>1793</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" s="5">
+        <v>45516</v>
+      </c>
+      <c r="J5" s="5"/>
+      <c r="K5" s="4"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>
-  <conditionalFormatting sqref="D2:D4">
+  <conditionalFormatting sqref="D2:D5">
     <cfRule type="expression" dxfId="17" priority="1">
       <formula>D2="Easy"</formula>
     </cfRule>
@@ -3593,12 +3656,13 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1" xr:uid="{4B2FCE29-6D11-4770-B411-6FA0C17E58B9}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{14F7A118-8582-6D47-9613-4FA8663D6975}"/>
-    <hyperlink ref="C3" r:id="rId3" xr:uid="{B62B7D6A-8658-044D-866F-48C10B3BDAFD}"/>
+    <hyperlink ref="C5" r:id="rId1" xr:uid="{4B2FCE29-6D11-4770-B411-6FA0C17E58B9}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{14F7A118-8582-6D47-9613-4FA8663D6975}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{B62B7D6A-8658-044D-866F-48C10B3BDAFD}"/>
+    <hyperlink ref="C2" r:id="rId4" xr:uid="{61FEBC31-5C89-8942-B0F7-AE46809746C1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId5"/>
   <headerFooter>
     <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 General</oddFooter>
   </headerFooter>
@@ -4005,10 +4069,10 @@
         <v>60</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>15</v>
@@ -4059,7 +4123,7 @@
         <v>779</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>59</v>
@@ -4068,7 +4132,7 @@
         <v>48</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
@@ -4167,17 +4231,17 @@
         <v>187</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="14"/>
       <c r="F2" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>11</v>
@@ -4198,16 +4262,16 @@
         <v>2444</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4" t="s">
@@ -4314,7 +4378,7 @@
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>43</v>
@@ -4425,7 +4489,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
@@ -4479,19 +4543,19 @@
         <v>33</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>13</v>
@@ -4512,10 +4576,10 @@
         <v>34</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>10</v>
@@ -4570,17 +4634,17 @@
         <v>81</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>13</v>
@@ -4635,7 +4699,7 @@
         <v>10</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
@@ -4715,19 +4779,19 @@
         <v>400</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>13</v>
@@ -4815,7 +4879,7 @@
         <v>14</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>11</v>
@@ -4831,10 +4895,10 @@
         <v>668</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>57</v>
@@ -4842,7 +4906,7 @@
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>28</v>
@@ -4924,7 +4988,7 @@
         <v>82</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>12</v>
@@ -5073,7 +5137,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD487089-E40B-1D42-B3C9-4A2FB14888DF}">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -5158,10 +5222,10 @@
         <v>80</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>10</v>
@@ -5185,10 +5249,10 @@
         <v>347</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>10</v>
@@ -5212,16 +5276,16 @@
         <v>381</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
@@ -5241,10 +5305,10 @@
         <v>432</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>15</v>
@@ -5268,10 +5332,10 @@
         <v>460</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>15</v>
@@ -5295,10 +5359,10 @@
         <v>692</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>10</v>
@@ -5322,16 +5386,16 @@
         <v>710</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
@@ -5346,24 +5410,22 @@
       <c r="J9" s="5"/>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="1:11" ht="45" customHeight="1">
+    <row r="10" spans="1:11" ht="20" customHeight="1">
       <c r="A10" s="4">
-        <v>1044</v>
+        <v>718</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="14"/>
+      <c r="F10" s="4" t="s">
         <v>267</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>275</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>269</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>12</v>
@@ -5372,47 +5434,51 @@
         <v>43</v>
       </c>
       <c r="I10" s="5">
-        <v>45520</v>
+        <v>45538</v>
       </c>
       <c r="J10" s="5"/>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="1:11" ht="20" customHeight="1">
+    <row r="11" spans="1:11" ht="45" customHeight="1">
       <c r="A11" s="4">
-        <v>1206</v>
+        <v>1044</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>227</v>
+        <v>265</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>228</v>
+        <v>266</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="4"/>
+      <c r="E11" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>267</v>
+      </c>
       <c r="G11" s="4" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>43</v>
       </c>
       <c r="I11" s="5">
-        <v>45512</v>
+        <v>45520</v>
       </c>
       <c r="J11" s="5"/>
       <c r="K11" s="4"/>
     </row>
     <row r="12" spans="1:11" ht="20" customHeight="1">
       <c r="A12" s="4">
-        <v>1224</v>
+        <v>1206</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>251</v>
+        <v>225</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>252</v>
+        <v>226</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>15</v>
@@ -5420,105 +5486,105 @@
       <c r="E12" s="14"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>43</v>
       </c>
       <c r="I12" s="5">
-        <v>45516</v>
+        <v>45512</v>
       </c>
       <c r="J12" s="5"/>
       <c r="K12" s="4"/>
     </row>
     <row r="13" spans="1:11" ht="20" customHeight="1">
       <c r="A13" s="4">
-        <v>1338</v>
+        <v>1224</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E13" s="14"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>43</v>
       </c>
       <c r="I13" s="5">
-        <v>45383</v>
-      </c>
-      <c r="J13" s="5">
-        <v>45515</v>
-      </c>
+        <v>45516</v>
+      </c>
+      <c r="J13" s="5"/>
       <c r="K13" s="4"/>
     </row>
     <row r="14" spans="1:11" ht="20" customHeight="1">
       <c r="A14" s="4">
-        <v>1695</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>47</v>
+        <v>1338</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>234</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>49</v>
+        <v>235</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="E14" s="14"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="I14" s="5">
-        <v>45378</v>
+        <v>45383</v>
       </c>
       <c r="J14" s="5">
-        <v>45517</v>
+        <v>45515</v>
       </c>
       <c r="K14" s="4"/>
     </row>
     <row r="15" spans="1:11" ht="20" customHeight="1">
       <c r="A15" s="4">
-        <v>2453</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>242</v>
+        <v>1695</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>47</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>243</v>
+        <v>49</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="14"/>
+        <v>48</v>
+      </c>
+      <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H15" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="4" t="s">
-        <v>43</v>
-      </c>
       <c r="I15" s="5">
-        <v>45389</v>
-      </c>
-      <c r="J15" s="5"/>
+        <v>45378</v>
+      </c>
+      <c r="J15" s="5">
+        <v>45517</v>
+      </c>
       <c r="K15" s="4"/>
     </row>
     <row r="16" spans="1:11" ht="20" customHeight="1">
       <c r="A16" s="4">
-        <v>3039</v>
+        <v>2453</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>240</v>
@@ -5543,9 +5609,36 @@
       <c r="J16" s="5"/>
       <c r="K16" s="4"/>
     </row>
+    <row r="17" spans="1:11" ht="20" customHeight="1">
+      <c r="A17" s="4">
+        <v>3039</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="14"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I17" s="5">
+        <v>45389</v>
+      </c>
+      <c r="J17" s="5"/>
+      <c r="K17" s="4"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D2:D16">
+  <conditionalFormatting sqref="D2:D17">
     <cfRule type="expression" dxfId="41" priority="7">
       <formula>D2="Easy"</formula>
     </cfRule>
@@ -5558,23 +5651,24 @@
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="C5" r:id="rId1" xr:uid="{4E41E20D-D2BC-4440-AE67-25CEA75BC5AF}"/>
-    <hyperlink ref="C11" r:id="rId2" xr:uid="{9685A890-011F-4816-84AE-49BBB2792474}"/>
+    <hyperlink ref="C12" r:id="rId2" xr:uid="{9685A890-011F-4816-84AE-49BBB2792474}"/>
     <hyperlink ref="C7" r:id="rId3" xr:uid="{6F1A2238-1287-2F40-8EE2-6EAA6D32A33C}"/>
     <hyperlink ref="C6" r:id="rId4" xr:uid="{4E34D783-1C2D-4C4D-BF5F-B5AC83578067}"/>
     <hyperlink ref="C3" r:id="rId5" xr:uid="{7FE8783F-F8EF-344A-A755-835CBA16F73C}"/>
-    <hyperlink ref="C13" r:id="rId6" xr:uid="{DC085F9D-442E-D045-90AC-3FAED2B8D1E2}"/>
+    <hyperlink ref="C14" r:id="rId6" xr:uid="{DC085F9D-442E-D045-90AC-3FAED2B8D1E2}"/>
     <hyperlink ref="C4" r:id="rId7" xr:uid="{3E16B408-94FF-CC48-BA57-9E6F992C39F1}"/>
-    <hyperlink ref="C16" r:id="rId8" xr:uid="{A0B949A5-8B58-414A-B5CF-3DBFA646D04D}"/>
-    <hyperlink ref="C15" r:id="rId9" xr:uid="{E0F91AFC-4678-5C41-9B9D-2159274B2DAD}"/>
+    <hyperlink ref="C17" r:id="rId8" xr:uid="{A0B949A5-8B58-414A-B5CF-3DBFA646D04D}"/>
+    <hyperlink ref="C16" r:id="rId9" xr:uid="{E0F91AFC-4678-5C41-9B9D-2159274B2DAD}"/>
     <hyperlink ref="C8" r:id="rId10" xr:uid="{64705B96-1F5D-FB4F-847B-9D3471287B5F}"/>
-    <hyperlink ref="C12" r:id="rId11" xr:uid="{E63FAF46-516A-410C-8493-9CC78C8D0570}"/>
-    <hyperlink ref="C14" r:id="rId12" xr:uid="{186DAC56-ACE0-47B6-95EE-B3826BFE8C3E}"/>
+    <hyperlink ref="C13" r:id="rId11" xr:uid="{E63FAF46-516A-410C-8493-9CC78C8D0570}"/>
+    <hyperlink ref="C15" r:id="rId12" xr:uid="{186DAC56-ACE0-47B6-95EE-B3826BFE8C3E}"/>
     <hyperlink ref="C2" r:id="rId13" xr:uid="{E1F44EBE-2031-4493-8DA0-C05554DE0E1C}"/>
     <hyperlink ref="C9" r:id="rId14" xr:uid="{F450FB77-315A-2840-94F7-D83EA8BE786B}"/>
-    <hyperlink ref="C10" r:id="rId15" xr:uid="{3E6863E7-5E9D-6B42-8A7D-77876491307E}"/>
+    <hyperlink ref="C11" r:id="rId15" xr:uid="{3E6863E7-5E9D-6B42-8A7D-77876491307E}"/>
+    <hyperlink ref="C10" r:id="rId16" xr:uid="{23474D8E-219F-EA4A-A06C-29BD85F51835}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId16"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId17"/>
   <headerFooter>
     <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 General</oddFooter>
   </headerFooter>
@@ -5639,16 +5733,16 @@
         <v>201</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="4" t="s">
@@ -5668,16 +5762,16 @@
         <v>371</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4" t="s">
@@ -5699,10 +5793,10 @@
         <v>397</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>10</v>
@@ -5728,16 +5822,16 @@
         <v>477</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
@@ -5757,10 +5851,10 @@
         <v>1404</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>10</v>
@@ -5784,16 +5878,16 @@
         <v>2419</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
@@ -5813,16 +5907,16 @@
         <v>2425</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
@@ -5842,16 +5936,16 @@
         <v>2683</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
@@ -5955,23 +6049,23 @@
         <v>23</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="4" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I2" s="5">
         <v>45503</v>
@@ -5986,16 +6080,16 @@
         <v>102</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>118</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>119</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>48</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4" t="s">
@@ -6007,7 +6101,9 @@
       <c r="I3" s="5">
         <v>45489</v>
       </c>
-      <c r="J3" s="5"/>
+      <c r="J3" s="5">
+        <v>45540</v>
+      </c>
       <c r="K3" s="4"/>
     </row>
     <row r="4" spans="1:11" ht="30" customHeight="1">
@@ -6015,16 +6111,16 @@
         <v>107</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>120</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>121</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>48</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
@@ -6036,7 +6132,9 @@
       <c r="I4" s="5">
         <v>45489</v>
       </c>
-      <c r="J4" s="5"/>
+      <c r="J4" s="5">
+        <v>45540</v>
+      </c>
       <c r="K4" s="4"/>
     </row>
     <row r="5" spans="1:11" ht="30" customHeight="1">
@@ -6052,9 +6150,7 @@
       <c r="D5" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>116</v>
-      </c>
+      <c r="E5" s="6"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
         <v>43</v>
@@ -6065,7 +6161,9 @@
       <c r="I5" s="5">
         <v>45487</v>
       </c>
-      <c r="J5" s="5"/>
+      <c r="J5" s="5">
+        <v>45540</v>
+      </c>
       <c r="K5" s="4"/>
     </row>
     <row r="6" spans="1:11" ht="30" customHeight="1">
@@ -6081,9 +6179,7 @@
       <c r="D6" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>116</v>
-      </c>
+      <c r="E6" s="6"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
         <v>43</v>
@@ -6094,7 +6190,9 @@
       <c r="I6" s="5">
         <v>45489</v>
       </c>
-      <c r="J6" s="5"/>
+      <c r="J6" s="5">
+        <v>45540</v>
+      </c>
       <c r="K6" s="4"/>
     </row>
     <row r="7" spans="1:11" ht="20" customHeight="1">
@@ -6116,12 +6214,14 @@
         <v>43</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="I7" s="5">
         <v>45487</v>
       </c>
-      <c r="J7" s="5"/>
+      <c r="J7" s="5">
+        <v>45540</v>
+      </c>
       <c r="K7" s="4"/>
     </row>
     <row r="8" spans="1:11" ht="20" customHeight="1">
@@ -6148,7 +6248,9 @@
       <c r="I8" s="5">
         <v>45488</v>
       </c>
-      <c r="J8" s="5"/>
+      <c r="J8" s="5">
+        <v>45540</v>
+      </c>
       <c r="K8" s="4"/>
     </row>
     <row r="9" spans="1:11" ht="30" customHeight="1">
@@ -6156,16 +6258,16 @@
         <v>662</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>122</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>123</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>48</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>129</v>
+        <v>378</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
@@ -6177,7 +6279,9 @@
       <c r="I9" s="5">
         <v>45490</v>
       </c>
-      <c r="J9" s="5"/>
+      <c r="J9" s="5">
+        <v>45540</v>
+      </c>
       <c r="K9" s="4"/>
     </row>
     <row r="10" spans="1:11" ht="20" customHeight="1">
@@ -6185,10 +6289,10 @@
         <v>958</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>127</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>128</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>48</v>
@@ -6204,7 +6308,9 @@
       <c r="I10" s="5">
         <v>45491</v>
       </c>
-      <c r="J10" s="5"/>
+      <c r="J10" s="5">
+        <v>45540</v>
+      </c>
       <c r="K10" s="4"/>
     </row>
     <row r="11" spans="1:11" ht="20" customHeight="1">
@@ -6212,10 +6318,10 @@
         <v>987</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>15</v>
@@ -6239,10 +6345,10 @@
         <v>1161</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>48</v>
@@ -6258,7 +6364,9 @@
       <c r="I12" s="5">
         <v>45491</v>
       </c>
-      <c r="J12" s="5"/>
+      <c r="J12" s="5">
+        <v>45540</v>
+      </c>
       <c r="K12" s="4"/>
     </row>
   </sheetData>
@@ -6434,16 +6542,16 @@
         <v>297</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
@@ -6490,19 +6598,19 @@
         <v>399</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>124</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>125</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>48</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>43</v>
@@ -6640,7 +6748,7 @@
         <v>48</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4" t="s">
@@ -6660,16 +6768,16 @@
         <v>968</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>48</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4" t="s">
@@ -6689,16 +6797,16 @@
         <v>1028</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4" t="s">
@@ -6751,7 +6859,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8380FC83-7509-9643-8CC5-E365761A27D0}">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -6807,10 +6915,10 @@
         <v>238</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>10</v>
@@ -6834,10 +6942,10 @@
         <v>304</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>290</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>292</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>10</v>
@@ -6848,7 +6956,7 @@
         <v>28</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="I3" s="5">
         <v>45526</v>
@@ -6861,17 +6969,17 @@
         <v>528</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>13</v>
@@ -6890,10 +6998,10 @@
         <v>848</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>10</v>
@@ -6917,17 +7025,17 @@
         <v>862</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="4" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>11</v>
@@ -6948,19 +7056,19 @@
         <v>930</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>11</v>
@@ -6976,137 +7084,137 @@
     </row>
     <row r="8" spans="1:11" ht="20" customHeight="1">
       <c r="A8" s="6">
-        <v>1524</v>
+        <v>1124</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>301</v>
+        <v>375</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>300</v>
+        <v>376</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="4"/>
+      <c r="E8" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>325</v>
+      </c>
       <c r="G8" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="I8" s="5">
-        <v>45524</v>
+        <v>45539</v>
       </c>
       <c r="J8" s="5"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:11" ht="30" customHeight="1">
+    <row r="9" spans="1:11" ht="20" customHeight="1">
       <c r="A9" s="6">
-        <v>1862</v>
+        <v>1524</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>277</v>
+        <v>299</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>276</v>
+        <v>298</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>280</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>327</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="E9" s="14"/>
+      <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
-        <v>278</v>
+        <v>11</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>279</v>
+        <v>28</v>
       </c>
       <c r="I9" s="5">
-        <v>45521</v>
+        <v>45524</v>
       </c>
       <c r="J9" s="5"/>
       <c r="K9" s="4"/>
     </row>
     <row r="10" spans="1:11" ht="30" customHeight="1">
       <c r="A10" s="6">
-        <v>1894</v>
+        <v>1862</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>302</v>
+        <v>275</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>303</v>
+        <v>274</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="4"/>
+        <v>15</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>325</v>
+      </c>
       <c r="G10" s="4" t="s">
-        <v>11</v>
+        <v>276</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>28</v>
+        <v>277</v>
       </c>
       <c r="I10" s="5">
-        <v>45525</v>
+        <v>45521</v>
       </c>
       <c r="J10" s="5"/>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="1:11" ht="45" customHeight="1">
+    <row r="11" spans="1:11" ht="30" customHeight="1">
       <c r="A11" s="6">
-        <v>2302</v>
+        <v>1894</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>286</v>
+        <v>301</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>287</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="E11" s="14"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="I11" s="5">
-        <v>45501</v>
-      </c>
-      <c r="J11" s="5">
         <v>45525</v>
       </c>
+      <c r="J11" s="5"/>
       <c r="K11" s="4"/>
     </row>
-    <row r="12" spans="1:11" ht="20" customHeight="1">
+    <row r="12" spans="1:11" ht="45" customHeight="1">
       <c r="A12" s="6">
-        <v>2438</v>
+        <v>2302</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>306</v>
+        <v>283</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>307</v>
+        <v>284</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="4" t="s">
-        <v>308</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="F12" s="4"/>
       <c r="G12" s="4" t="s">
         <v>11</v>
       </c>
@@ -7114,14 +7222,45 @@
         <v>11</v>
       </c>
       <c r="I12" s="5">
+        <v>45501</v>
+      </c>
+      <c r="J12" s="5">
+        <v>45525</v>
+      </c>
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" spans="1:11" ht="20" customHeight="1">
+      <c r="A13" s="6">
+        <v>2438</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="14"/>
+      <c r="F13" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" s="5">
         <v>45526</v>
       </c>
-      <c r="J12" s="5"/>
-      <c r="K12" s="4"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D2:D12">
+  <conditionalFormatting sqref="D2:D13">
     <cfRule type="expression" dxfId="29" priority="1">
       <formula>D2="Easy"</formula>
     </cfRule>
@@ -7133,20 +7272,21 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="C9" r:id="rId1" xr:uid="{C9816A24-406A-ED4A-8FB2-059B74B03BB2}"/>
-    <hyperlink ref="C11" r:id="rId2" xr:uid="{28FFE997-242B-BD43-92E3-903DCE08758F}"/>
+    <hyperlink ref="C10" r:id="rId1" xr:uid="{C9816A24-406A-ED4A-8FB2-059B74B03BB2}"/>
+    <hyperlink ref="C12" r:id="rId2" xr:uid="{28FFE997-242B-BD43-92E3-903DCE08758F}"/>
     <hyperlink ref="C6" r:id="rId3" xr:uid="{713E12F1-D139-8D4B-A787-71F735A42312}"/>
     <hyperlink ref="C3" r:id="rId4" xr:uid="{4696FB6F-B483-AC44-BEE2-62362C4172F1}"/>
     <hyperlink ref="C4" r:id="rId5" xr:uid="{9012EA63-8820-A141-81DD-5424D597639B}"/>
     <hyperlink ref="C5" r:id="rId6" xr:uid="{A1E4E21C-AD81-7A4F-9657-2A59703E46FD}"/>
     <hyperlink ref="C7" r:id="rId7" xr:uid="{1D2D6E50-9921-6340-B74B-D89FEEF6E1D7}"/>
-    <hyperlink ref="C8" r:id="rId8" xr:uid="{5132C615-5239-494D-BC2B-CBB9213F1F81}"/>
-    <hyperlink ref="C10" r:id="rId9" xr:uid="{37463C6E-3673-6B4E-B37B-EDCC87E8E8F6}"/>
+    <hyperlink ref="C9" r:id="rId8" xr:uid="{5132C615-5239-494D-BC2B-CBB9213F1F81}"/>
+    <hyperlink ref="C11" r:id="rId9" xr:uid="{37463C6E-3673-6B4E-B37B-EDCC87E8E8F6}"/>
     <hyperlink ref="C2" r:id="rId10" xr:uid="{F2C0EEF0-CA41-144C-99D0-D977BE50C774}"/>
-    <hyperlink ref="C12" r:id="rId11" xr:uid="{E65C4F39-2706-6341-ABDD-FBB95C5EAB8F}"/>
+    <hyperlink ref="C13" r:id="rId11" xr:uid="{E65C4F39-2706-6341-ABDD-FBB95C5EAB8F}"/>
+    <hyperlink ref="C8" r:id="rId12" xr:uid="{05FE1C59-7DCD-914E-B21B-0AC59222C12C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId12"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId13"/>
   <headerFooter>
     <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 General</oddFooter>
   </headerFooter>
@@ -7211,17 +7351,17 @@
         <v>895</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="14"/>
       <c r="F2" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>44</v>
@@ -7240,16 +7380,16 @@
         <v>1172</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4" t="s">
@@ -7269,22 +7409,22 @@
         <v>2454</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>43</v>
@@ -7379,10 +7519,10 @@
         <v>239</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>15</v>
@@ -7393,7 +7533,7 @@
         <v>43</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="I2" s="5">
         <v>45386</v>
@@ -7408,22 +7548,22 @@
         <v>767</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>43</v>
@@ -7439,22 +7579,22 @@
         <v>1054</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>43</v>
@@ -7470,10 +7610,10 @@
         <v>1438</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>10</v>

--- a/LeetCode Techniques.xlsx
+++ b/LeetCode Techniques.xlsx
@@ -1,33 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10908"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/blackjack625/Desktop/LeetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8628537D-7FF2-1D41-9D4B-666B3B882B26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C802762-7A3E-8F40-96CE-6C9DA76DB9F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16480" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DP" sheetId="8" r:id="rId1"/>
     <sheet name="Binary Search" sheetId="1" r:id="rId2"/>
     <sheet name="Hash" sheetId="10" r:id="rId3"/>
-    <sheet name="Bit Manipulation" sheetId="15" r:id="rId4"/>
-    <sheet name="BFS" sheetId="7" r:id="rId5"/>
-    <sheet name="DFS" sheetId="6" r:id="rId6"/>
-    <sheet name="Prefix Sum" sheetId="13" r:id="rId7"/>
-    <sheet name="Stack" sheetId="9" r:id="rId8"/>
-    <sheet name="Queue" sheetId="12" r:id="rId9"/>
-    <sheet name="Heap" sheetId="14" r:id="rId10"/>
-    <sheet name="Two Pointers" sheetId="11" r:id="rId11"/>
-    <sheet name="Trie" sheetId="4" r:id="rId12"/>
-    <sheet name="Recursion" sheetId="5" r:id="rId13"/>
-    <sheet name="Sliding Window" sheetId="2" r:id="rId14"/>
-    <sheet name="Set Maneuver" sheetId="3" r:id="rId15"/>
+    <sheet name="Sorting" sheetId="16" r:id="rId4"/>
+    <sheet name="Bit Manipulation" sheetId="15" r:id="rId5"/>
+    <sheet name="BFS" sheetId="7" r:id="rId6"/>
+    <sheet name="DFS" sheetId="6" r:id="rId7"/>
+    <sheet name="Prefix Sum" sheetId="13" r:id="rId8"/>
+    <sheet name="Stack" sheetId="9" r:id="rId9"/>
+    <sheet name="Queue" sheetId="12" r:id="rId10"/>
+    <sheet name="Heap" sheetId="14" r:id="rId11"/>
+    <sheet name="Two Pointers" sheetId="11" r:id="rId12"/>
+    <sheet name="Trie" sheetId="4" r:id="rId13"/>
+    <sheet name="Recursion" sheetId="5" r:id="rId14"/>
+    <sheet name="Sliding Window" sheetId="2" r:id="rId15"/>
+    <sheet name="Set Maneuver" sheetId="3" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="396">
   <si>
     <t>Name</t>
   </si>
@@ -1546,6 +1547,74 @@
     <t>Use parent &amp; children indices
 relationship to compute width.</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Decode XORed Permutation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/decode-xored-permutation/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1st permutation is key to the rest.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XOR Queries of a Subarray</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/xor-queries-of-a-subarray/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefix Sum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exploit the fact: x ^ x ^ y = y.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Minimize XOR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/minimize-xor/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Compare two numbers' 1 counts.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maximum XOR for Each Query</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximum-xor-for-each-query/description/?envType=problem-list-v2&amp;envId=bit-manipulation&amp;difficulty=MEDIUM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Candy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/candy/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dota2 Senate</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/dota2-senate/description/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hash</t>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1765,7 +1834,37 @@
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="48">
+  <dxfs count="51">
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFFFF00"/>
@@ -2548,7 +2647,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23E6E9DF-BEE0-B544-8910-7DDC3380F4B7}">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
@@ -3294,13 +3393,13 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2:D25">
-    <cfRule type="expression" dxfId="47" priority="1">
+    <cfRule type="expression" dxfId="50" priority="1">
       <formula>D2="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="2">
+    <cfRule type="expression" dxfId="49" priority="2">
       <formula>D2="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="3">
+    <cfRule type="expression" dxfId="48" priority="3">
       <formula>D2="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3338,6 +3437,236 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52284BEE-A51B-EF49-951D-F5B5F860F6DD}">
+  <dimension ref="A1:K6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="41" customWidth="1"/>
+    <col min="3" max="3" width="35.796875" style="11" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="41" customWidth="1"/>
+    <col min="6" max="8" width="21" customWidth="1"/>
+    <col min="9" max="10" width="16" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="20" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="20" customHeight="1">
+      <c r="A2" s="6">
+        <v>239</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="14"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="I2" s="5">
+        <v>45386</v>
+      </c>
+      <c r="J2" s="5">
+        <v>45517</v>
+      </c>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="1:11" ht="20" customHeight="1">
+      <c r="A3" s="6">
+        <v>649</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" s="5">
+        <v>45546</v>
+      </c>
+      <c r="J3" s="5"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:11" ht="20" customHeight="1">
+      <c r="A4" s="6">
+        <v>767</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" s="5">
+        <v>45527</v>
+      </c>
+      <c r="J4" s="5"/>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:11" ht="20" customHeight="1">
+      <c r="A5" s="6">
+        <v>1054</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" s="5">
+        <v>45527</v>
+      </c>
+      <c r="J5" s="5"/>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:11" ht="30" customHeight="1">
+      <c r="A6" s="6">
+        <v>1438</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="14"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" s="5">
+        <v>45398</v>
+      </c>
+      <c r="J6" s="5">
+        <v>45517</v>
+      </c>
+      <c r="K6" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="15" type="noConversion"/>
+  <conditionalFormatting sqref="D2:D6">
+    <cfRule type="expression" dxfId="23" priority="1">
+      <formula>D2="Easy"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="2">
+      <formula>D2="Medium"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="3">
+      <formula>D2="Hard"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="C6" r:id="rId1" xr:uid="{20853B54-323D-064E-B92D-2704D4AFD73E}"/>
+    <hyperlink ref="C5" r:id="rId2" xr:uid="{A61EDB76-3F1B-FA4B-A484-FF203AB7B891}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{14F26B79-16C3-8A42-AA1C-424413893725}"/>
+    <hyperlink ref="C2" r:id="rId4" xr:uid="{F6739047-85AC-2C4D-8F42-8F6C840C7296}"/>
+    <hyperlink ref="C3" r:id="rId5" xr:uid="{36C30514-0199-314C-B206-B46F26E6E895}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId6"/>
+  <headerFooter>
+    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 General</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99BCE9F1-E6C6-6346-98A0-65D0C06C0EE4}">
   <dimension ref="A1:K3"/>
   <sheetViews>
@@ -3473,7 +3802,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A08C46FD-BCA6-4056-B9A8-855F75FCB25A}">
   <dimension ref="A1:K5"/>
   <sheetViews>
@@ -3669,7 +3998,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52261E16-6011-467F-965D-8624702367C9}">
   <dimension ref="A1:K10"/>
   <sheetViews>
@@ -4011,7 +4340,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69159F7B-7780-4FD1-9225-126219315A4A}">
   <dimension ref="A1:K4"/>
   <sheetViews>
@@ -4173,7 +4502,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96F16DFC-20ED-4148-9FB8-AA8D12910A09}">
   <dimension ref="A1:K3"/>
   <sheetViews>
@@ -4310,7 +4639,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F94156D-DED3-4FD7-B619-DDD9FD49102F}">
   <dimension ref="A1:K4"/>
   <sheetViews>
@@ -5097,13 +5426,13 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2:E20">
-    <cfRule type="expression" dxfId="44" priority="1">
+    <cfRule type="expression" dxfId="47" priority="1">
       <formula>D2="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="2">
+    <cfRule type="expression" dxfId="46" priority="2">
       <formula>D2="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="3">
+    <cfRule type="expression" dxfId="45" priority="3">
       <formula>D2="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5639,13 +5968,13 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2:D17">
-    <cfRule type="expression" dxfId="41" priority="7">
+    <cfRule type="expression" dxfId="44" priority="7">
       <formula>D2="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="8">
+    <cfRule type="expression" dxfId="43" priority="8">
       <formula>D2="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="9">
+    <cfRule type="expression" dxfId="42" priority="9">
       <formula>D2="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5676,8 +6005,114 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B15C51FE-E345-E84D-98FD-767C3C081D66}">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="31" customWidth="1"/>
+    <col min="3" max="3" width="35.796875" style="11" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="41" customWidth="1"/>
+    <col min="6" max="8" width="21" customWidth="1"/>
+    <col min="9" max="10" width="16" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="20" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="20" customHeight="1">
+      <c r="A2" s="4">
+        <v>135</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="5">
+        <v>45546</v>
+      </c>
+      <c r="J2" s="5"/>
+      <c r="K2" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="D2:E2">
+    <cfRule type="expression" dxfId="41" priority="1">
+      <formula>D2="Easy"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="2">
+      <formula>D2="Medium"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="39" priority="3">
+      <formula>D2="Hard"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{5CD9AE50-AA9E-4A4B-861F-3841A5AD013F}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
+  <headerFooter>
+    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 General</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED305095-EC1E-B844-B25D-94A4272C0C0B}">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -5848,121 +6283,239 @@
     </row>
     <row r="6" spans="1:11" ht="20" customHeight="1">
       <c r="A6" s="4">
-        <v>1404</v>
+        <v>1310</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>334</v>
+        <v>382</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>335</v>
+        <v>383</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>384</v>
+      </c>
       <c r="G6" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="I6" s="5">
-        <v>45530</v>
+        <v>45545</v>
       </c>
       <c r="J6" s="5"/>
       <c r="K6" s="4"/>
     </row>
     <row r="7" spans="1:11" ht="20" customHeight="1">
       <c r="A7" s="4">
-        <v>2419</v>
+        <v>1404</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>338</v>
-      </c>
+      <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>28</v>
       </c>
       <c r="I7" s="5">
-        <v>45532</v>
+        <v>45530</v>
       </c>
       <c r="J7" s="5"/>
       <c r="K7" s="4"/>
     </row>
     <row r="8" spans="1:11" ht="20" customHeight="1">
       <c r="A8" s="4">
-        <v>2425</v>
+        <v>1734</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>347</v>
+        <v>379</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>348</v>
+        <v>380</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>349</v>
+        <v>381</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="I8" s="5">
-        <v>45534</v>
+        <v>45545</v>
       </c>
       <c r="J8" s="5"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:11" ht="30" customHeight="1">
+    <row r="9" spans="1:11" ht="20" customHeight="1">
       <c r="A9" s="4">
-        <v>2683</v>
+        <v>1829</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>339</v>
+        <v>389</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>340</v>
+        <v>390</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>341</v>
-      </c>
-      <c r="F9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4" t="s">
+        <v>384</v>
+      </c>
       <c r="G9" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="I9" s="5">
-        <v>45531</v>
+        <v>45546</v>
       </c>
       <c r="J9" s="5"/>
       <c r="K9" s="4"/>
     </row>
+    <row r="10" spans="1:11" ht="20" customHeight="1">
+      <c r="A10" s="4">
+        <v>2419</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="5">
+        <v>45532</v>
+      </c>
+      <c r="J10" s="5"/>
+      <c r="K10" s="4"/>
+    </row>
+    <row r="11" spans="1:11" ht="20" customHeight="1">
+      <c r="A11" s="4">
+        <v>2425</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="5">
+        <v>45534</v>
+      </c>
+      <c r="J11" s="5"/>
+      <c r="K11" s="4"/>
+    </row>
+    <row r="12" spans="1:11" ht="20" customHeight="1">
+      <c r="A12" s="4">
+        <v>2429</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" s="5">
+        <v>45545</v>
+      </c>
+      <c r="J12" s="5"/>
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" spans="1:11" ht="30" customHeight="1">
+      <c r="A13" s="4">
+        <v>2683</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="5">
+        <v>45531</v>
+      </c>
+      <c r="J13" s="5"/>
+      <c r="K13" s="4"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D2:E9">
+  <conditionalFormatting sqref="D2:E13">
     <cfRule type="expression" dxfId="38" priority="1">
       <formula>D2="Easy"</formula>
     </cfRule>
@@ -5975,23 +6528,27 @@
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" xr:uid="{D7808045-3E67-A54B-8201-14894543CCE4}"/>
-    <hyperlink ref="C7" r:id="rId2" xr:uid="{5ECE8D18-5181-FD46-8C9D-50ED550AA75C}"/>
+    <hyperlink ref="C10" r:id="rId2" xr:uid="{5ECE8D18-5181-FD46-8C9D-50ED550AA75C}"/>
     <hyperlink ref="C4" r:id="rId3" xr:uid="{50A1D3BB-B4B8-DC48-9859-AACEB431EB4E}"/>
-    <hyperlink ref="C6" r:id="rId4" xr:uid="{FD2CEB29-9404-C44D-88A8-058F4D3B5D80}"/>
+    <hyperlink ref="C7" r:id="rId4" xr:uid="{FD2CEB29-9404-C44D-88A8-058F4D3B5D80}"/>
     <hyperlink ref="C2" r:id="rId5" xr:uid="{7A0D1304-0F5F-DC40-97F4-D3ABCF35D91D}"/>
-    <hyperlink ref="C9" r:id="rId6" xr:uid="{570A7153-F75C-3F48-8B49-3AB15620C9F7}"/>
-    <hyperlink ref="C8" r:id="rId7" xr:uid="{1A44A87B-FAE7-8642-ADDE-A1F16C927D40}"/>
+    <hyperlink ref="C13" r:id="rId6" xr:uid="{570A7153-F75C-3F48-8B49-3AB15620C9F7}"/>
+    <hyperlink ref="C12" r:id="rId7" xr:uid="{1A44A87B-FAE7-8642-ADDE-A1F16C927D40}"/>
     <hyperlink ref="C5" r:id="rId8" xr:uid="{DB9981B5-EB06-A545-856F-B7F59827AEE8}"/>
+    <hyperlink ref="C8" r:id="rId9" xr:uid="{5809D4DD-61D7-4243-BC6B-E75AF11748FC}"/>
+    <hyperlink ref="C6" r:id="rId10" xr:uid="{FEE0CCE3-DEF5-AA40-AA18-C8D555E640B0}"/>
+    <hyperlink ref="C11" r:id="rId11" xr:uid="{2950CC37-D242-BE4B-BF30-FA0BF859CBE3}"/>
+    <hyperlink ref="C9" r:id="rId12" xr:uid="{C1A63929-110A-1C44-902F-1AC9D79E9521}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId13"/>
   <headerFooter>
     <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 General</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75AC292A-7720-E145-9563-F6FD48AA33E3}">
   <dimension ref="A1:K12"/>
   <sheetViews>
@@ -6403,7 +6960,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C287181F-E765-1C4E-B964-9C9FDBE62A17}">
   <dimension ref="A1:K14"/>
   <sheetViews>
@@ -6857,7 +7414,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8380FC83-7509-9643-8CC5-E365761A27D0}">
   <dimension ref="A1:K13"/>
   <sheetViews>
@@ -7293,7 +7850,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BC7A267-6069-4E38-AC2F-0C28241496B0}">
   <dimension ref="A1:K4"/>
   <sheetViews>
@@ -7461,206 +8018,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52284BEE-A51B-EF49-951D-F5B5F860F6DD}">
-  <dimension ref="A1:K5"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
-  <cols>
-    <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="41" customWidth="1"/>
-    <col min="3" max="3" width="35.796875" style="11" customWidth="1"/>
-    <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="41" customWidth="1"/>
-    <col min="6" max="8" width="21" customWidth="1"/>
-    <col min="9" max="10" width="16" style="1" customWidth="1"/>
-    <col min="11" max="11" width="16" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="20" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="20" customHeight="1">
-      <c r="A2" s="6">
-        <v>239</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="I2" s="5">
-        <v>45386</v>
-      </c>
-      <c r="J2" s="5">
-        <v>45517</v>
-      </c>
-      <c r="K2" s="4"/>
-    </row>
-    <row r="3" spans="1:11" ht="20" customHeight="1">
-      <c r="A3" s="6">
-        <v>767</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>312</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="I3" s="5">
-        <v>45527</v>
-      </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="4"/>
-    </row>
-    <row r="4" spans="1:11" ht="20" customHeight="1">
-      <c r="A4" s="6">
-        <v>1054</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="I4" s="5">
-        <v>45527</v>
-      </c>
-      <c r="J4" s="5"/>
-      <c r="K4" s="4"/>
-    </row>
-    <row r="5" spans="1:11" ht="30" customHeight="1">
-      <c r="A5" s="6">
-        <v>1438</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="I5" s="5">
-        <v>45398</v>
-      </c>
-      <c r="J5" s="5">
-        <v>45517</v>
-      </c>
-      <c r="K5" s="4"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="15" type="noConversion"/>
-  <conditionalFormatting sqref="D2:D5">
-    <cfRule type="expression" dxfId="23" priority="1">
-      <formula>D2="Easy"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="2">
-      <formula>D2="Medium"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="21" priority="3">
-      <formula>D2="Hard"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1" xr:uid="{20853B54-323D-064E-B92D-2704D4AFD73E}"/>
-    <hyperlink ref="C4" r:id="rId2" xr:uid="{A61EDB76-3F1B-FA4B-A484-FF203AB7B891}"/>
-    <hyperlink ref="C3" r:id="rId3" xr:uid="{14F26B79-16C3-8A42-AA1C-424413893725}"/>
-    <hyperlink ref="C2" r:id="rId4" xr:uid="{F6739047-85AC-2C4D-8F42-8F6C840C7296}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId5"/>
-  <headerFooter>
-    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 General</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{04d09258-035b-4e4f-ae3e-d79ff3d418d8}" enabled="1" method="Standard" siteId="{f4a12867-922d-4b9d-bb85-9ee7898512a0}" contentBits="2" removed="0"/>

--- a/LeetCode Techniques.xlsx
+++ b/LeetCode Techniques.xlsx
@@ -1,34 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/blackjack625/Desktop/LeetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C802762-7A3E-8F40-96CE-6C9DA76DB9F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{553C199B-039E-614C-B642-0C56247B3297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16480" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16480" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DP" sheetId="8" r:id="rId1"/>
     <sheet name="Binary Search" sheetId="1" r:id="rId2"/>
     <sheet name="Hash" sheetId="10" r:id="rId3"/>
     <sheet name="Sorting" sheetId="16" r:id="rId4"/>
-    <sheet name="Bit Manipulation" sheetId="15" r:id="rId5"/>
-    <sheet name="BFS" sheetId="7" r:id="rId6"/>
-    <sheet name="DFS" sheetId="6" r:id="rId7"/>
-    <sheet name="Prefix Sum" sheetId="13" r:id="rId8"/>
-    <sheet name="Stack" sheetId="9" r:id="rId9"/>
-    <sheet name="Queue" sheetId="12" r:id="rId10"/>
-    <sheet name="Heap" sheetId="14" r:id="rId11"/>
-    <sheet name="Two Pointers" sheetId="11" r:id="rId12"/>
-    <sheet name="Trie" sheetId="4" r:id="rId13"/>
-    <sheet name="Recursion" sheetId="5" r:id="rId14"/>
-    <sheet name="Sliding Window" sheetId="2" r:id="rId15"/>
-    <sheet name="Set Maneuver" sheetId="3" r:id="rId16"/>
+    <sheet name="Greedy" sheetId="17" r:id="rId5"/>
+    <sheet name="Bit Manipulation" sheetId="15" r:id="rId6"/>
+    <sheet name="BFS" sheetId="7" r:id="rId7"/>
+    <sheet name="DFS" sheetId="6" r:id="rId8"/>
+    <sheet name="Prefix Sum" sheetId="13" r:id="rId9"/>
+    <sheet name="Stack" sheetId="9" r:id="rId10"/>
+    <sheet name="Queue" sheetId="12" r:id="rId11"/>
+    <sheet name="Heaps" sheetId="14" r:id="rId12"/>
+    <sheet name="Two Pointers" sheetId="11" r:id="rId13"/>
+    <sheet name="Trie" sheetId="4" r:id="rId14"/>
+    <sheet name="Recursion" sheetId="5" r:id="rId15"/>
+    <sheet name="Sliding Window" sheetId="2" r:id="rId16"/>
+    <sheet name="Set Maneuver" sheetId="3" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1121" uniqueCount="462">
   <si>
     <t>Name</t>
   </si>
@@ -1275,10 +1276,6 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>Always take top 2 most frequent.</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>Merge k Sorted Lists</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1613,7 +1610,277 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>Hash</t>
+    <t>Find Consecutive Integers from a Data Stream</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-consecutive-integers-from-a-data-stream/description/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>O(1)</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Product of the Last K Numbers</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/product-of-the-last-k-numbers/description/?envType=problem-list-v2&amp;envId=data-stream</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Subarray Sum Equals K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/subarray-sum-equals-k/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hash, Queue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Beware of repeated counts.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Minimum Operations to Halve Array Sum</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/minimum-operations-to-halve-array-sum/description/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>O(logn)</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Always take top 2 most frequent.</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Always reduce the maximum.</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Max Sum of a Pair With Equal Sum of Digits</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/max-sum-of-a-pair-with-equal-sum-of-digits/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sorting, Hash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heaps, Queue</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Queue, Hash</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heaps</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Minimum Increment to Make Array Unique</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/minimum-increment-to-make-array-unique/description/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sorting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deal with lower ratings first.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Largest Number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/largest-number/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quick sort. Compare leading digits.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Merge Intervals</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/merge-intervals/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Merge sort.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Recursion.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cinema Seat Allocation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/cinema-seat-allocation/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Least Number of Unique Integers after K Removals</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/least-number-of-unique-integers-after-k-removals/description/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sorting, Hash</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wiggle Sort II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/wiggle-sort-ii/description/?envType=problem-list-v2&amp;envId=greedy&amp;difficulty=MEDIUM%2CHARD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maximum Distance in Arrays</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximum-distance-in-arrays/description/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Decrease Elements To Make Array Zigzag</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/decrease-elements-to-make-array-zigzag/description/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Increasing Triplet Subsequence</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/increasing-triplet-subsequence/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Just like Q.300.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maximum Length of Pair Chain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximum-length-of-pair-chain/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maximum Swap</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximum-swap/description/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Max Chunks To Make Sorted</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/max-chunks-to-make-sorted/description/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Find the shortest prefix array such that
+prefix array max &lt;= suffix array min.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Max Chunks To Make Sorted II</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/max-chunks-to-make-sorted-ii/description</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefix Sum, Recursion</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Most Profit Assigning Work</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/most-profit-assigning-work/description/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>String Without AAA or BBB</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/string-without-aaa-or-bbb/description/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>O(a+b)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>When a != b, go by 2 + 1.
+When a == b, go by 2 + 2 or 1 + 1.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O(max(a, b))</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Largest Multiple of Three</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/largest-multiple-of-three/description/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Array of Doubled Pairs</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/array-of-doubled-pairs/description/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Minimum Operations to Make a Subsequence</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/minimum-operations-to-make-a-subsequence/description/</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -1624,7 +1891,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1737,13 +2004,6 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="10"/>
-      <name val="Microsoft YaHei"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1781,7 +2041,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1826,15 +2086,42 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="51">
+  <dxfs count="54">
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFFFF00"/>
@@ -3393,13 +3680,13 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2:D25">
-    <cfRule type="expression" dxfId="50" priority="1">
+    <cfRule type="expression" dxfId="53" priority="1">
       <formula>D2="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="2">
+    <cfRule type="expression" dxfId="52" priority="2">
       <formula>D2="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="3">
+    <cfRule type="expression" dxfId="51" priority="3">
       <formula>D2="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3437,10 +3724,371 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BC7A267-6069-4E38-AC2F-0C28241496B0}">
+  <dimension ref="A1:K4"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="31" customWidth="1"/>
+    <col min="3" max="3" width="35.796875" style="17" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="41" customWidth="1"/>
+    <col min="6" max="8" width="21" customWidth="1"/>
+    <col min="9" max="10" width="16" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="20" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="20" customHeight="1">
+      <c r="A2" s="6">
+        <v>895</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="14"/>
+      <c r="F2" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="5">
+        <v>45512</v>
+      </c>
+      <c r="J2" s="5"/>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="1:11" ht="30" customHeight="1">
+      <c r="A3" s="6">
+        <v>1172</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" s="5">
+        <v>45511</v>
+      </c>
+      <c r="J3" s="5"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:11" ht="30" customHeight="1">
+      <c r="A4" s="6">
+        <v>2454</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" s="5">
+        <v>45505</v>
+      </c>
+      <c r="J4" s="5"/>
+      <c r="K4" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="D2:D4">
+    <cfRule type="expression" dxfId="26" priority="1">
+      <formula>D2="Easy"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="25" priority="2">
+      <formula>D2="Medium"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="3">
+      <formula>D2="Hard"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{2A05BB37-BC02-459B-AC3A-04B564121776}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{06DB2703-F6E1-40EC-B489-AF23524010D7}"/>
+    <hyperlink ref="C2" r:id="rId3" xr:uid="{97AD58DC-D294-479E-8558-0A9E71B6BB4E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId4"/>
+  <headerFooter>
+    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 General</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52284BEE-A51B-EF49-951D-F5B5F860F6DD}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="46" customWidth="1"/>
+    <col min="3" max="3" width="35.796875" style="11" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="8" width="21" customWidth="1"/>
+    <col min="9" max="10" width="16" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="20" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="20" customHeight="1">
+      <c r="A2" s="6">
+        <v>239</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="14"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="I2" s="5">
+        <v>45386</v>
+      </c>
+      <c r="J2" s="5">
+        <v>45517</v>
+      </c>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="1:11" ht="20" customHeight="1">
+      <c r="A3" s="6">
+        <v>1352</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="14"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" s="5">
+        <v>45387</v>
+      </c>
+      <c r="J3" s="5"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:11" ht="30" customHeight="1">
+      <c r="A4" s="6">
+        <v>1438</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="14"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" s="5">
+        <v>45398</v>
+      </c>
+      <c r="J4" s="5">
+        <v>45517</v>
+      </c>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:11" ht="20" customHeight="1">
+      <c r="A5" s="6">
+        <v>2526</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="14"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="I5" s="5">
+        <v>45387</v>
+      </c>
+      <c r="J5" s="5"/>
+      <c r="K5" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="15" type="noConversion"/>
+  <conditionalFormatting sqref="D2:D5">
+    <cfRule type="expression" dxfId="23" priority="1">
+      <formula>D2="Easy"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="2">
+      <formula>D2="Medium"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="3">
+      <formula>D2="Hard"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{20853B54-323D-064E-B92D-2704D4AFD73E}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{F6739047-85AC-2C4D-8F42-8F6C840C7296}"/>
+    <hyperlink ref="C5" r:id="rId3" xr:uid="{BC513B2F-25F1-3441-A26B-69C608885B37}"/>
+    <hyperlink ref="C3" r:id="rId4" xr:uid="{42275E97-2B43-7842-AD37-A28974EAB405}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId5"/>
+  <headerFooter>
+    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 General</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99BCE9F1-E6C6-6346-98A0-65D0C06C0EE4}">
+  <dimension ref="A1:K3"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
@@ -3490,250 +4138,20 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="20" customHeight="1">
-      <c r="A2" s="6">
-        <v>239</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>253</v>
+      <c r="A2" s="4">
+        <v>295</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>244</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="I2" s="5">
-        <v>45386</v>
-      </c>
-      <c r="J2" s="5">
-        <v>45517</v>
-      </c>
-      <c r="K2" s="4"/>
-    </row>
-    <row r="3" spans="1:11" ht="20" customHeight="1">
-      <c r="A3" s="6">
-        <v>649</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>394</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="4" t="s">
-        <v>395</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="I3" s="5">
-        <v>45546</v>
-      </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="4"/>
-    </row>
-    <row r="4" spans="1:11" ht="20" customHeight="1">
-      <c r="A4" s="6">
-        <v>767</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>312</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="I4" s="5">
-        <v>45527</v>
-      </c>
-      <c r="J4" s="5"/>
-      <c r="K4" s="4"/>
-    </row>
-    <row r="5" spans="1:11" ht="20" customHeight="1">
-      <c r="A5" s="6">
-        <v>1054</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="I5" s="5">
-        <v>45527</v>
-      </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="4"/>
-    </row>
-    <row r="6" spans="1:11" ht="30" customHeight="1">
-      <c r="A6" s="6">
-        <v>1438</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="I6" s="5">
-        <v>45398</v>
-      </c>
-      <c r="J6" s="5">
-        <v>45517</v>
-      </c>
-      <c r="K6" s="4"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="15" type="noConversion"/>
-  <conditionalFormatting sqref="D2:D6">
-    <cfRule type="expression" dxfId="23" priority="1">
-      <formula>D2="Easy"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="2">
-      <formula>D2="Medium"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="21" priority="3">
-      <formula>D2="Hard"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink ref="C6" r:id="rId1" xr:uid="{20853B54-323D-064E-B92D-2704D4AFD73E}"/>
-    <hyperlink ref="C5" r:id="rId2" xr:uid="{A61EDB76-3F1B-FA4B-A484-FF203AB7B891}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{14F26B79-16C3-8A42-AA1C-424413893725}"/>
-    <hyperlink ref="C2" r:id="rId4" xr:uid="{F6739047-85AC-2C4D-8F42-8F6C840C7296}"/>
-    <hyperlink ref="C3" r:id="rId5" xr:uid="{36C30514-0199-314C-B206-B46F26E6E895}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId6"/>
-  <headerFooter>
-    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 General</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99BCE9F1-E6C6-6346-98A0-65D0C06C0EE4}">
-  <dimension ref="A1:K3"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
-  <cols>
-    <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="31" customWidth="1"/>
-    <col min="3" max="3" width="35.796875" style="11" customWidth="1"/>
-    <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="41" customWidth="1"/>
-    <col min="6" max="8" width="21" customWidth="1"/>
-    <col min="9" max="10" width="16" style="1" customWidth="1"/>
-    <col min="11" max="11" width="16" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="20" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="20" customHeight="1">
-      <c r="A2" s="4">
-        <v>295</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>245</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="E2" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="4" t="s">
@@ -3755,10 +4173,10 @@
         <v>355</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>319</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>320</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>10</v>
@@ -3766,10 +4184,10 @@
       <c r="E3" s="6"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>316</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>317</v>
       </c>
       <c r="I3" s="5">
         <v>45528</v>
@@ -3802,7 +4220,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A08C46FD-BCA6-4056-B9A8-855F75FCB25A}">
   <dimension ref="A1:K5"/>
   <sheetViews>
@@ -3860,20 +4278,20 @@
         <v>31</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>371</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>372</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>44</v>
@@ -3889,10 +4307,10 @@
         <v>658</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>10</v>
@@ -3902,7 +4320,7 @@
         <v>310</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>44</v>
@@ -3918,16 +4336,16 @@
         <v>1163</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>342</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>343</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
@@ -3998,7 +4416,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52261E16-6011-467F-965D-8624702367C9}">
   <dimension ref="A1:K10"/>
   <sheetViews>
@@ -4340,7 +4758,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69159F7B-7780-4FD1-9225-126219315A4A}">
   <dimension ref="A1:K4"/>
   <sheetViews>
@@ -4452,7 +4870,7 @@
         <v>779</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>59</v>
@@ -4461,7 +4879,7 @@
         <v>48</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
@@ -4502,7 +4920,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96F16DFC-20ED-4148-9FB8-AA8D12910A09}">
   <dimension ref="A1:K3"/>
   <sheetViews>
@@ -4570,7 +4988,7 @@
       </c>
       <c r="E2" s="14"/>
       <c r="F2" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>11</v>
@@ -4639,7 +5057,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F94156D-DED3-4FD7-B619-DDD9FD49102F}">
   <dimension ref="A1:K4"/>
   <sheetViews>
@@ -4707,7 +5125,7 @@
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>43</v>
@@ -4816,7 +5234,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -4872,19 +5290,19 @@
         <v>33</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>358</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>359</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>13</v>
@@ -4905,10 +5323,10 @@
         <v>34</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>360</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>361</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>10</v>
@@ -4963,17 +5381,17 @@
         <v>81</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>363</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>364</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>13</v>
@@ -5028,7 +5446,7 @@
         <v>10</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
@@ -5108,19 +5526,19 @@
         <v>400</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>366</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>367</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>13</v>
@@ -5208,7 +5626,7 @@
         <v>14</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>11</v>
@@ -5221,70 +5639,72 @@
     </row>
     <row r="14" spans="1:11" ht="20" customHeight="1">
       <c r="A14" s="4">
-        <v>668</v>
+        <v>646</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>280</v>
+        <v>439</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>281</v>
+        <v>440</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E14" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>438</v>
+      </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4" t="s">
-        <v>282</v>
+        <v>12</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="I14" s="5">
-        <v>45523</v>
+        <v>45561</v>
       </c>
       <c r="J14" s="5"/>
       <c r="K14" s="4"/>
     </row>
     <row r="15" spans="1:11" ht="20" customHeight="1">
       <c r="A15" s="4">
-        <v>729</v>
+        <v>668</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>39</v>
+        <v>280</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>40</v>
+        <v>281</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4" t="s">
-        <v>13</v>
+        <v>282</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="I15" s="5">
-        <v>45420</v>
+        <v>45523</v>
       </c>
       <c r="J15" s="5"/>
       <c r="K15" s="4"/>
     </row>
     <row r="16" spans="1:11" ht="20" customHeight="1">
       <c r="A16" s="4">
-        <v>1095</v>
+        <v>729</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
@@ -5292,88 +5712,86 @@
         <v>13</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="I16" s="5">
-        <v>45482</v>
+        <v>45420</v>
       </c>
       <c r="J16" s="5"/>
       <c r="K16" s="4"/>
     </row>
-    <row r="17" spans="1:11" ht="30" customHeight="1">
+    <row r="17" spans="1:11" ht="20" customHeight="1">
       <c r="A17" s="4">
-        <v>1649</v>
+        <v>1095</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E17" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>325</v>
-      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
       <c r="G17" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="I17" s="5">
         <v>45482</v>
       </c>
-      <c r="J17" s="5">
-        <v>45533</v>
-      </c>
+      <c r="J17" s="5"/>
       <c r="K17" s="4"/>
     </row>
-    <row r="18" spans="1:11" ht="20" customHeight="1">
+    <row r="18" spans="1:11" ht="30" customHeight="1">
       <c r="A18" s="4">
-        <v>1825</v>
+        <v>1649</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="4"/>
+        <v>57</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="F18" s="4" t="s">
-        <v>34</v>
+        <v>324</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I18" s="5">
-        <v>45400</v>
-      </c>
-      <c r="J18" s="5"/>
+        <v>45482</v>
+      </c>
+      <c r="J18" s="5">
+        <v>45533</v>
+      </c>
       <c r="K18" s="4"/>
     </row>
     <row r="19" spans="1:11" ht="20" customHeight="1">
       <c r="A19" s="4">
-        <v>2034</v>
+        <v>1825</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4" t="s">
@@ -5393,16 +5811,16 @@
     </row>
     <row r="20" spans="1:11" ht="20" customHeight="1">
       <c r="A20" s="4">
-        <v>2102</v>
+        <v>2034</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4" t="s">
@@ -5415,24 +5833,55 @@
         <v>11</v>
       </c>
       <c r="I20" s="5">
-        <v>45420</v>
+        <v>45400</v>
       </c>
       <c r="J20" s="5"/>
       <c r="K20" s="4"/>
     </row>
+    <row r="21" spans="1:11" ht="20" customHeight="1">
+      <c r="A21" s="4">
+        <v>2102</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I21" s="5">
+        <v>45420</v>
+      </c>
+      <c r="J21" s="5">
+        <v>45549</v>
+      </c>
+      <c r="K21" s="4"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:K20">
-    <sortCondition ref="A4:A20"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:K21">
+    <sortCondition ref="A4:A21"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D2:E20">
-    <cfRule type="expression" dxfId="47" priority="1">
+  <conditionalFormatting sqref="D2:E21">
+    <cfRule type="expression" dxfId="50" priority="1">
       <formula>D2="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="2">
+    <cfRule type="expression" dxfId="49" priority="2">
       <formula>D2="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="3">
+    <cfRule type="expression" dxfId="48" priority="3">
       <formula>D2="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5440,24 +5889,25 @@
     <hyperlink ref="C11" r:id="rId1" xr:uid="{98DA09B4-ED1E-9841-BFC0-AD6132AF476B}"/>
     <hyperlink ref="C13" r:id="rId2" xr:uid="{355AB06F-F372-E64C-BB34-3D68811E6B00}"/>
     <hyperlink ref="C8" r:id="rId3" xr:uid="{A97C1B49-93D0-D74A-BF3C-F925EFE9FD83}"/>
-    <hyperlink ref="C20" r:id="rId4" xr:uid="{4C375694-D494-514B-B747-D72CA94420E6}"/>
-    <hyperlink ref="C19" r:id="rId5" xr:uid="{5E8F7E04-6349-4D42-B16F-92BF0082A8EC}"/>
+    <hyperlink ref="C21" r:id="rId4" xr:uid="{4C375694-D494-514B-B747-D72CA94420E6}"/>
+    <hyperlink ref="C20" r:id="rId5" xr:uid="{5E8F7E04-6349-4D42-B16F-92BF0082A8EC}"/>
     <hyperlink ref="C7" r:id="rId6" xr:uid="{C06E2E2A-F9EA-2C41-A2A2-0110BB4FE089}"/>
     <hyperlink ref="C12" r:id="rId7" xr:uid="{88F29B63-471E-1745-ABA5-15B0EE490696}"/>
-    <hyperlink ref="C18" r:id="rId8" xr:uid="{77B0B942-637D-9846-B52B-162446D656B7}"/>
+    <hyperlink ref="C19" r:id="rId8" xr:uid="{77B0B942-637D-9846-B52B-162446D656B7}"/>
     <hyperlink ref="C4" r:id="rId9" xr:uid="{FC6DC5BC-3B79-3A47-AD69-9FD63EE06424}"/>
     <hyperlink ref="C9" r:id="rId10" xr:uid="{82F4789C-38A4-1A4D-BA41-951136E51502}"/>
-    <hyperlink ref="C15" r:id="rId11" xr:uid="{87D58C84-2A2E-5243-AD6C-F126296F2572}"/>
-    <hyperlink ref="C16" r:id="rId12" xr:uid="{E17A87F3-1678-4780-AF58-F4783F4A7A65}"/>
-    <hyperlink ref="C17" r:id="rId13" xr:uid="{AB427796-2FCF-4F37-AC47-998ADDB37E09}"/>
-    <hyperlink ref="C14" r:id="rId14" xr:uid="{8A96E47C-EAC7-48C6-ADEC-7531EB38C4E9}"/>
+    <hyperlink ref="C16" r:id="rId11" xr:uid="{87D58C84-2A2E-5243-AD6C-F126296F2572}"/>
+    <hyperlink ref="C17" r:id="rId12" xr:uid="{E17A87F3-1678-4780-AF58-F4783F4A7A65}"/>
+    <hyperlink ref="C18" r:id="rId13" xr:uid="{AB427796-2FCF-4F37-AC47-998ADDB37E09}"/>
+    <hyperlink ref="C15" r:id="rId14" xr:uid="{8A96E47C-EAC7-48C6-ADEC-7531EB38C4E9}"/>
     <hyperlink ref="C3" r:id="rId15" xr:uid="{77A5E6D8-5264-F04F-BC78-21DDA6037DF6}"/>
     <hyperlink ref="C2" r:id="rId16" xr:uid="{340E4233-FEB9-9F48-9387-7CB2346C6575}"/>
     <hyperlink ref="C5" r:id="rId17" xr:uid="{3B2F49D0-E28E-A143-839B-1971A2BC7451}"/>
     <hyperlink ref="C10" r:id="rId18" xr:uid="{45F4022B-0E15-094E-B925-98BE2F089865}"/>
+    <hyperlink ref="C14" r:id="rId19" xr:uid="{C72F48BD-300B-8848-BF83-A1A70BB482EA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId19"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId20"/>
   <headerFooter>
     <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 General</oddFooter>
   </headerFooter>
@@ -5466,7 +5916,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD487089-E40B-1D42-B3C9-4A2FB14888DF}">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -5744,10 +6194,10 @@
         <v>718</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>10</v>
@@ -5913,13 +6363,13 @@
     </row>
     <row r="16" spans="1:11" ht="20" customHeight="1">
       <c r="A16" s="4">
-        <v>2453</v>
+        <v>2342</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>240</v>
+        <v>408</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>241</v>
+        <v>409</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>10</v>
@@ -5933,20 +6383,20 @@
         <v>43</v>
       </c>
       <c r="I16" s="5">
-        <v>45389</v>
+        <v>45548</v>
       </c>
       <c r="J16" s="5"/>
       <c r="K16" s="4"/>
     </row>
     <row r="17" spans="1:11" ht="20" customHeight="1">
       <c r="A17" s="4">
-        <v>3039</v>
+        <v>2453</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>10</v>
@@ -5965,16 +6415,43 @@
       <c r="J17" s="5"/>
       <c r="K17" s="4"/>
     </row>
+    <row r="18" spans="1:11" ht="20" customHeight="1">
+      <c r="A18" s="4">
+        <v>3039</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="14"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I18" s="5">
+        <v>45389</v>
+      </c>
+      <c r="J18" s="5"/>
+      <c r="K18" s="4"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D2:D17">
-    <cfRule type="expression" dxfId="44" priority="7">
+  <conditionalFormatting sqref="D2:D18">
+    <cfRule type="expression" dxfId="47" priority="7">
       <formula>D2="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="8">
+    <cfRule type="expression" dxfId="46" priority="8">
       <formula>D2="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="9">
+    <cfRule type="expression" dxfId="45" priority="9">
       <formula>D2="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5986,8 +6463,8 @@
     <hyperlink ref="C3" r:id="rId5" xr:uid="{7FE8783F-F8EF-344A-A755-835CBA16F73C}"/>
     <hyperlink ref="C14" r:id="rId6" xr:uid="{DC085F9D-442E-D045-90AC-3FAED2B8D1E2}"/>
     <hyperlink ref="C4" r:id="rId7" xr:uid="{3E16B408-94FF-CC48-BA57-9E6F992C39F1}"/>
-    <hyperlink ref="C17" r:id="rId8" xr:uid="{A0B949A5-8B58-414A-B5CF-3DBFA646D04D}"/>
-    <hyperlink ref="C16" r:id="rId9" xr:uid="{E0F91AFC-4678-5C41-9B9D-2159274B2DAD}"/>
+    <hyperlink ref="C18" r:id="rId8" xr:uid="{A0B949A5-8B58-414A-B5CF-3DBFA646D04D}"/>
+    <hyperlink ref="C17" r:id="rId9" xr:uid="{E0F91AFC-4678-5C41-9B9D-2159274B2DAD}"/>
     <hyperlink ref="C8" r:id="rId10" xr:uid="{64705B96-1F5D-FB4F-847B-9D3471287B5F}"/>
     <hyperlink ref="C13" r:id="rId11" xr:uid="{E63FAF46-516A-410C-8493-9CC78C8D0570}"/>
     <hyperlink ref="C15" r:id="rId12" xr:uid="{186DAC56-ACE0-47B6-95EE-B3826BFE8C3E}"/>
@@ -5995,9 +6472,10 @@
     <hyperlink ref="C9" r:id="rId14" xr:uid="{F450FB77-315A-2840-94F7-D83EA8BE786B}"/>
     <hyperlink ref="C11" r:id="rId15" xr:uid="{3E6863E7-5E9D-6B42-8A7D-77876491307E}"/>
     <hyperlink ref="C10" r:id="rId16" xr:uid="{23474D8E-219F-EA4A-A06C-29BD85F51835}"/>
+    <hyperlink ref="C16" r:id="rId17" xr:uid="{DBB412D4-FEBA-DD49-8B40-0515DC96E4D6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId17"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId18"/>
   <headerFooter>
     <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 General</oddFooter>
   </headerFooter>
@@ -6006,7 +6484,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B15C51FE-E345-E84D-98FD-767C3C081D66}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -6059,51 +6537,141 @@
     </row>
     <row r="2" spans="1:11" ht="20" customHeight="1">
       <c r="A2" s="4">
-        <v>135</v>
+        <v>56</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>391</v>
+        <v>421</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>392</v>
+        <v>422</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>423</v>
+      </c>
       <c r="F2" s="4" t="s">
-        <v>325</v>
+        <v>424</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="5">
-        <v>45546</v>
+        <v>45384</v>
       </c>
       <c r="J2" s="5"/>
       <c r="K2" s="2"/>
     </row>
+    <row r="3" spans="1:11" ht="20" customHeight="1">
+      <c r="A3" s="4">
+        <v>179</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>419</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="5">
+        <v>45388</v>
+      </c>
+      <c r="J3" s="5"/>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:11" ht="20" customHeight="1">
+      <c r="A4" s="4">
+        <v>324</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="5">
+        <v>45553</v>
+      </c>
+      <c r="J4" s="5"/>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:11" ht="20" customHeight="1">
+      <c r="A5" s="4">
+        <v>1386</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="5">
+        <v>45533</v>
+      </c>
+      <c r="J5" s="5"/>
+      <c r="K5" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D2:E2">
-    <cfRule type="expression" dxfId="41" priority="1">
+  <conditionalFormatting sqref="D2:E5">
+    <cfRule type="expression" dxfId="44" priority="1">
       <formula>D2="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="2">
+    <cfRule type="expression" dxfId="43" priority="2">
       <formula>D2="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="3">
+    <cfRule type="expression" dxfId="42" priority="3">
       <formula>D2="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{5CD9AE50-AA9E-4A4B-861F-3841A5AD013F}"/>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{5CD9AE50-AA9E-4A4B-861F-3841A5AD013F}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{BF96CE91-DED9-584B-BD53-695EAACF8656}"/>
+    <hyperlink ref="C5" r:id="rId3" xr:uid="{4791A1EA-B34F-6140-A8AF-3403CBC4BB3B}"/>
+    <hyperlink ref="C4" r:id="rId4" xr:uid="{D09CA923-D79F-7147-A238-200BD0D14D79}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId5"/>
   <headerFooter>
     <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 General</oddFooter>
   </headerFooter>
@@ -6111,6 +6679,638 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89924C3E-917D-0945-8F52-65F70A8CFC07}">
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="51" customWidth="1"/>
+    <col min="3" max="3" width="35.796875" style="11" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="41" customWidth="1"/>
+    <col min="6" max="8" width="21" customWidth="1"/>
+    <col min="9" max="10" width="16" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="20" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="20" customHeight="1">
+      <c r="A2" s="4">
+        <v>135</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="5">
+        <v>45546</v>
+      </c>
+      <c r="J2" s="5"/>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" ht="20" customHeight="1">
+      <c r="A3" s="6">
+        <v>334</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>438</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="5">
+        <v>45561</v>
+      </c>
+      <c r="J3" s="5"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:11" ht="20" customHeight="1">
+      <c r="A4" s="6">
+        <v>624</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="5">
+        <v>45553</v>
+      </c>
+      <c r="J4" s="5"/>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:11" ht="20" customHeight="1">
+      <c r="A5" s="6">
+        <v>649</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" s="5">
+        <v>45546</v>
+      </c>
+      <c r="J5" s="5"/>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:11" ht="20" customHeight="1">
+      <c r="A6" s="6">
+        <v>670</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" s="5">
+        <v>45561</v>
+      </c>
+      <c r="J6" s="5"/>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="1:11" ht="20" customHeight="1">
+      <c r="A7" s="6">
+        <v>767</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>406</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" s="5">
+        <v>45527</v>
+      </c>
+      <c r="J7" s="5">
+        <v>45547</v>
+      </c>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="1:11" ht="30" customHeight="1">
+      <c r="A8" s="6">
+        <v>768</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>445</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8" s="5">
+        <v>45562</v>
+      </c>
+      <c r="J8" s="5"/>
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" spans="1:11" ht="30" customHeight="1">
+      <c r="A9" s="6">
+        <v>769</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>445</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" s="5">
+        <v>45562</v>
+      </c>
+      <c r="J9" s="5"/>
+      <c r="K9" s="4"/>
+    </row>
+    <row r="10" spans="1:11" ht="20" customHeight="1">
+      <c r="A10" s="6">
+        <v>826</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="14"/>
+      <c r="F10" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I10" s="5">
+        <v>45562</v>
+      </c>
+      <c r="J10" s="5"/>
+      <c r="K10" s="4"/>
+    </row>
+    <row r="11" spans="1:11" ht="20" customHeight="1">
+      <c r="A11" s="6">
+        <v>945</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="14"/>
+      <c r="F11" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" s="5">
+        <v>45549</v>
+      </c>
+      <c r="J11" s="5"/>
+      <c r="K11" s="4"/>
+    </row>
+    <row r="12" spans="1:11" ht="20" customHeight="1">
+      <c r="A12" s="6">
+        <v>954</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="14"/>
+      <c r="F12" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" s="5">
+        <v>45563</v>
+      </c>
+      <c r="J12" s="5"/>
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" spans="1:11" ht="30" customHeight="1">
+      <c r="A13" s="6">
+        <v>984</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>454</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="I13" s="5">
+        <v>45562</v>
+      </c>
+      <c r="J13" s="5"/>
+      <c r="K13" s="4"/>
+    </row>
+    <row r="14" spans="1:11" ht="20" customHeight="1">
+      <c r="A14" s="6">
+        <v>1054</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>406</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I14" s="5">
+        <v>45527</v>
+      </c>
+      <c r="J14" s="5">
+        <v>45547</v>
+      </c>
+      <c r="K14" s="4"/>
+    </row>
+    <row r="15" spans="1:11" ht="20" customHeight="1">
+      <c r="A15" s="6">
+        <v>1144</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="14"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I15" s="5">
+        <v>45554</v>
+      </c>
+      <c r="J15" s="5"/>
+      <c r="K15" s="4"/>
+    </row>
+    <row r="16" spans="1:11" ht="20" customHeight="1">
+      <c r="A16" s="6">
+        <v>1363</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>457</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="14"/>
+      <c r="F16" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I16" s="5">
+        <v>45563</v>
+      </c>
+      <c r="J16" s="5"/>
+      <c r="K16" s="4"/>
+    </row>
+    <row r="17" spans="1:11" ht="20" customHeight="1">
+      <c r="A17" s="6">
+        <v>1481</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="14"/>
+      <c r="F17" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I17" s="5">
+        <v>45550</v>
+      </c>
+      <c r="J17" s="5"/>
+      <c r="K17" s="4"/>
+    </row>
+    <row r="18" spans="1:11" ht="20" customHeight="1">
+      <c r="A18" s="6">
+        <v>1713</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>461</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>438</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I18" s="5">
+        <v>45563</v>
+      </c>
+      <c r="J18" s="5"/>
+      <c r="K18" s="4"/>
+    </row>
+    <row r="19" spans="1:11" ht="30" customHeight="1">
+      <c r="A19" s="6">
+        <v>2208</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>407</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I19" s="5">
+        <v>45548</v>
+      </c>
+      <c r="J19" s="5"/>
+      <c r="K19" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="D2:E19">
+    <cfRule type="expression" dxfId="41" priority="10">
+      <formula>D2="Easy"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="11">
+      <formula>D2="Medium"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="39" priority="12">
+      <formula>D2="Hard"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{004AD8D0-6240-7843-A49E-26386D6F4B8B}"/>
+    <hyperlink ref="C5" r:id="rId2" xr:uid="{36C30514-0199-314C-B206-B46F26E6E895}"/>
+    <hyperlink ref="C14" r:id="rId3" xr:uid="{A61EDB76-3F1B-FA4B-A484-FF203AB7B891}"/>
+    <hyperlink ref="C7" r:id="rId4" xr:uid="{14F26B79-16C3-8A42-AA1C-424413893725}"/>
+    <hyperlink ref="C19" r:id="rId5" xr:uid="{532B70B2-4EA8-D54B-9765-F0F8FB4A7228}"/>
+    <hyperlink ref="C11" r:id="rId6" xr:uid="{E0EF768C-A209-C344-A308-201CBA67EFDA}"/>
+    <hyperlink ref="C17" r:id="rId7" xr:uid="{98E20983-FDF7-AC45-A77E-381E42FA3D7E}"/>
+    <hyperlink ref="C4" r:id="rId8" xr:uid="{93109F7A-39AF-394A-8F0E-7C9872B616F2}"/>
+    <hyperlink ref="C15" r:id="rId9" xr:uid="{C5BC2EF5-2492-454F-9C71-DDEE7A2E3E98}"/>
+    <hyperlink ref="C3" r:id="rId10" xr:uid="{74E3D31C-3C7B-114C-841C-89AAD24C4905}"/>
+    <hyperlink ref="C6" r:id="rId11" xr:uid="{D875700A-1982-114A-850F-70F5E48D0F4B}"/>
+    <hyperlink ref="C8" r:id="rId12" xr:uid="{9392A3C9-D54A-AE4D-96F7-7AF2F273D177}"/>
+    <hyperlink ref="C9" r:id="rId13" xr:uid="{D1A42B51-B36E-E640-B035-BA6DA18FBA31}"/>
+    <hyperlink ref="C10" r:id="rId14" xr:uid="{200A1572-C064-7B45-8135-A89DFAE16BF8}"/>
+    <hyperlink ref="C13" r:id="rId15" xr:uid="{1C03B438-9BDB-D34F-BD78-ED5E5562BF65}"/>
+    <hyperlink ref="C16" r:id="rId16" xr:uid="{C01F0CDD-3830-7E4F-BA4D-F73C5F99952F}"/>
+    <hyperlink ref="C12" r:id="rId17" xr:uid="{AD3FCB87-A1B2-2A49-8380-673BAAF1CB03}"/>
+    <hyperlink ref="C18" r:id="rId18" xr:uid="{78660B06-7405-C049-A32B-24A1D90AF311}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId19"/>
+  <headerFooter>
+    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 General</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED305095-EC1E-B844-B25D-94A4272C0C0B}">
   <dimension ref="A1:K13"/>
   <sheetViews>
@@ -6168,16 +7368,16 @@
         <v>201</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>326</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>327</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="4" t="s">
@@ -6197,16 +7397,16 @@
         <v>371</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>331</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>332</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4" t="s">
@@ -6228,10 +7428,10 @@
         <v>397</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>329</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>330</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>10</v>
@@ -6257,16 +7457,16 @@
         <v>477</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>350</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>351</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
@@ -6286,19 +7486,19 @@
         <v>1310</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>382</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>383</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>11</v>
@@ -6317,10 +7517,10 @@
         <v>1404</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>334</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>335</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>10</v>
@@ -6344,16 +7544,16 @@
         <v>1734</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>379</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>380</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
@@ -6373,17 +7573,17 @@
         <v>1829</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>389</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>390</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>11</v>
@@ -6402,16 +7602,16 @@
         <v>2419</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>336</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>337</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4" t="s">
@@ -6431,16 +7631,16 @@
         <v>2425</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>347</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>348</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
@@ -6460,16 +7660,16 @@
         <v>2429</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>386</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>387</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4" t="s">
@@ -6489,16 +7689,16 @@
         <v>2683</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>339</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>340</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4" t="s">
@@ -6548,7 +7748,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75AC292A-7720-E145-9563-F6FD48AA33E3}">
   <dimension ref="A1:K12"/>
   <sheetViews>
@@ -6606,23 +7806,23 @@
         <v>23</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>314</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>315</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G2" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>316</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>317</v>
       </c>
       <c r="I2" s="5">
         <v>45503</v>
@@ -6824,7 +8024,7 @@
         <v>48</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
@@ -6960,7 +8160,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C287181F-E765-1C4E-B964-9C9FDBE62A17}">
   <dimension ref="A1:K14"/>
   <sheetViews>
@@ -7325,16 +8525,16 @@
         <v>968</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>353</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>354</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>48</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4" t="s">
@@ -7414,9 +8614,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8380FC83-7509-9643-8CC5-E365761A27D0}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -7552,19 +8752,23 @@
     </row>
     <row r="5" spans="1:11" ht="20" customHeight="1">
       <c r="A5" s="6">
-        <v>848</v>
+        <v>560</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>294</v>
+        <v>399</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>293</v>
+        <v>400</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="4"/>
+      <c r="E5" s="14" t="s">
+        <v>402</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>401</v>
+      </c>
       <c r="G5" s="4" t="s">
         <v>11</v>
       </c>
@@ -7572,28 +8776,26 @@
         <v>11</v>
       </c>
       <c r="I5" s="5">
-        <v>45525</v>
+        <v>45547</v>
       </c>
       <c r="J5" s="5"/>
       <c r="K5" s="4"/>
     </row>
     <row r="6" spans="1:11" ht="20" customHeight="1">
       <c r="A6" s="6">
-        <v>862</v>
+        <v>848</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E6" s="14"/>
-      <c r="F6" s="4" t="s">
-        <v>258</v>
-      </c>
+      <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
         <v>11</v>
       </c>
@@ -7601,29 +8803,25 @@
         <v>11</v>
       </c>
       <c r="I6" s="5">
-        <v>45381</v>
-      </c>
-      <c r="J6" s="5">
         <v>45525</v>
       </c>
+      <c r="J6" s="5"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11" ht="30" customHeight="1">
+    <row r="7" spans="1:11" ht="20" customHeight="1">
       <c r="A7" s="6">
-        <v>930</v>
+        <v>862</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>297</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E7" s="14"/>
       <c r="F7" s="4" t="s">
         <v>258</v>
       </c>
@@ -7634,29 +8832,31 @@
         <v>11</v>
       </c>
       <c r="I7" s="5">
-        <v>45524</v>
-      </c>
-      <c r="J7" s="5"/>
+        <v>45381</v>
+      </c>
+      <c r="J7" s="5">
+        <v>45525</v>
+      </c>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="1:11" ht="20" customHeight="1">
+    <row r="8" spans="1:11" ht="30" customHeight="1">
       <c r="A8" s="6">
-        <v>1124</v>
+        <v>930</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>375</v>
+        <v>295</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>376</v>
+        <v>296</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>377</v>
+        <v>297</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>325</v>
+        <v>258</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>11</v>
@@ -7665,144 +8865,144 @@
         <v>11</v>
       </c>
       <c r="I8" s="5">
-        <v>45539</v>
+        <v>45524</v>
       </c>
       <c r="J8" s="5"/>
       <c r="K8" s="4"/>
     </row>
     <row r="9" spans="1:11" ht="20" customHeight="1">
       <c r="A9" s="6">
-        <v>1524</v>
+        <v>1124</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>299</v>
+        <v>374</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>298</v>
+        <v>375</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="4"/>
+      <c r="E9" s="14" t="s">
+        <v>376</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>324</v>
+      </c>
       <c r="G9" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="I9" s="5">
-        <v>45524</v>
+        <v>45539</v>
       </c>
       <c r="J9" s="5"/>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="1:11" ht="30" customHeight="1">
+    <row r="10" spans="1:11" ht="20" customHeight="1">
       <c r="A10" s="6">
-        <v>1862</v>
+        <v>1524</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>275</v>
+        <v>299</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>274</v>
+        <v>298</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>325</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="E10" s="14"/>
+      <c r="F10" s="4"/>
       <c r="G10" s="4" t="s">
-        <v>276</v>
+        <v>11</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>277</v>
+        <v>28</v>
       </c>
       <c r="I10" s="5">
-        <v>45521</v>
+        <v>45524</v>
       </c>
       <c r="J10" s="5"/>
       <c r="K10" s="4"/>
     </row>
     <row r="11" spans="1:11" ht="30" customHeight="1">
       <c r="A11" s="6">
-        <v>1894</v>
+        <v>1862</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>300</v>
+        <v>275</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>301</v>
+        <v>274</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="4"/>
+        <v>15</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>324</v>
+      </c>
       <c r="G11" s="4" t="s">
-        <v>11</v>
+        <v>276</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>28</v>
+        <v>277</v>
       </c>
       <c r="I11" s="5">
-        <v>45525</v>
+        <v>45521</v>
       </c>
       <c r="J11" s="5"/>
       <c r="K11" s="4"/>
     </row>
-    <row r="12" spans="1:11" ht="45" customHeight="1">
+    <row r="12" spans="1:11" ht="30" customHeight="1">
       <c r="A12" s="6">
-        <v>2302</v>
+        <v>1894</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>283</v>
+        <v>300</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>284</v>
+        <v>301</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>285</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="E12" s="14"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="I12" s="5">
-        <v>45501</v>
-      </c>
-      <c r="J12" s="5">
         <v>45525</v>
       </c>
+      <c r="J12" s="5"/>
       <c r="K12" s="4"/>
     </row>
-    <row r="13" spans="1:11" ht="20" customHeight="1">
+    <row r="13" spans="1:11" ht="45" customHeight="1">
       <c r="A13" s="6">
-        <v>2438</v>
+        <v>2302</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>304</v>
+        <v>283</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>305</v>
+        <v>284</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="4" t="s">
-        <v>306</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="F13" s="4"/>
       <c r="G13" s="4" t="s">
         <v>11</v>
       </c>
@@ -7810,14 +9010,45 @@
         <v>11</v>
       </c>
       <c r="I13" s="5">
+        <v>45501</v>
+      </c>
+      <c r="J13" s="5">
+        <v>45525</v>
+      </c>
+      <c r="K13" s="4"/>
+    </row>
+    <row r="14" spans="1:11" ht="20" customHeight="1">
+      <c r="A14" s="6">
+        <v>2438</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="14"/>
+      <c r="F14" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" s="5">
         <v>45526</v>
       </c>
-      <c r="J13" s="5"/>
-      <c r="K13" s="4"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D2:D13">
+  <conditionalFormatting sqref="D2:D14">
     <cfRule type="expression" dxfId="29" priority="1">
       <formula>D2="Easy"</formula>
     </cfRule>
@@ -7829,189 +9060,22 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="C10" r:id="rId1" xr:uid="{C9816A24-406A-ED4A-8FB2-059B74B03BB2}"/>
-    <hyperlink ref="C12" r:id="rId2" xr:uid="{28FFE997-242B-BD43-92E3-903DCE08758F}"/>
-    <hyperlink ref="C6" r:id="rId3" xr:uid="{713E12F1-D139-8D4B-A787-71F735A42312}"/>
+    <hyperlink ref="C11" r:id="rId1" xr:uid="{C9816A24-406A-ED4A-8FB2-059B74B03BB2}"/>
+    <hyperlink ref="C13" r:id="rId2" xr:uid="{28FFE997-242B-BD43-92E3-903DCE08758F}"/>
+    <hyperlink ref="C7" r:id="rId3" xr:uid="{713E12F1-D139-8D4B-A787-71F735A42312}"/>
     <hyperlink ref="C3" r:id="rId4" xr:uid="{4696FB6F-B483-AC44-BEE2-62362C4172F1}"/>
     <hyperlink ref="C4" r:id="rId5" xr:uid="{9012EA63-8820-A141-81DD-5424D597639B}"/>
-    <hyperlink ref="C5" r:id="rId6" xr:uid="{A1E4E21C-AD81-7A4F-9657-2A59703E46FD}"/>
-    <hyperlink ref="C7" r:id="rId7" xr:uid="{1D2D6E50-9921-6340-B74B-D89FEEF6E1D7}"/>
-    <hyperlink ref="C9" r:id="rId8" xr:uid="{5132C615-5239-494D-BC2B-CBB9213F1F81}"/>
-    <hyperlink ref="C11" r:id="rId9" xr:uid="{37463C6E-3673-6B4E-B37B-EDCC87E8E8F6}"/>
+    <hyperlink ref="C6" r:id="rId6" xr:uid="{A1E4E21C-AD81-7A4F-9657-2A59703E46FD}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{1D2D6E50-9921-6340-B74B-D89FEEF6E1D7}"/>
+    <hyperlink ref="C10" r:id="rId8" xr:uid="{5132C615-5239-494D-BC2B-CBB9213F1F81}"/>
+    <hyperlink ref="C12" r:id="rId9" xr:uid="{37463C6E-3673-6B4E-B37B-EDCC87E8E8F6}"/>
     <hyperlink ref="C2" r:id="rId10" xr:uid="{F2C0EEF0-CA41-144C-99D0-D977BE50C774}"/>
-    <hyperlink ref="C13" r:id="rId11" xr:uid="{E65C4F39-2706-6341-ABDD-FBB95C5EAB8F}"/>
-    <hyperlink ref="C8" r:id="rId12" xr:uid="{05FE1C59-7DCD-914E-B21B-0AC59222C12C}"/>
+    <hyperlink ref="C14" r:id="rId11" xr:uid="{E65C4F39-2706-6341-ABDD-FBB95C5EAB8F}"/>
+    <hyperlink ref="C9" r:id="rId12" xr:uid="{05FE1C59-7DCD-914E-B21B-0AC59222C12C}"/>
+    <hyperlink ref="C5" r:id="rId13" xr:uid="{080E83A5-4B4C-6F49-8912-BD3CB12E2CCF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId13"/>
-  <headerFooter>
-    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 General</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BC7A267-6069-4E38-AC2F-0C28241496B0}">
-  <dimension ref="A1:K4"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
-  <cols>
-    <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="31" customWidth="1"/>
-    <col min="3" max="3" width="35.796875" style="17" customWidth="1"/>
-    <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="41" customWidth="1"/>
-    <col min="6" max="8" width="21" customWidth="1"/>
-    <col min="9" max="10" width="16" style="1" customWidth="1"/>
-    <col min="11" max="11" width="16" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="20" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="20" customHeight="1">
-      <c r="A2" s="6">
-        <v>895</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>223</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="I2" s="5">
-        <v>45512</v>
-      </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="4"/>
-    </row>
-    <row r="3" spans="1:11" ht="30" customHeight="1">
-      <c r="A3" s="6">
-        <v>1172</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>217</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>218</v>
-      </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="I3" s="5">
-        <v>45511</v>
-      </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="4"/>
-    </row>
-    <row r="4" spans="1:11" ht="30" customHeight="1">
-      <c r="A4" s="6">
-        <v>2454</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>197</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>215</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="I4" s="5">
-        <v>45505</v>
-      </c>
-      <c r="J4" s="5"/>
-      <c r="K4" s="4"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D2:D4">
-    <cfRule type="expression" dxfId="26" priority="1">
-      <formula>D2="Easy"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="25" priority="2">
-      <formula>D2="Medium"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="3">
-      <formula>D2="Hard"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1" xr:uid="{2A05BB37-BC02-459B-AC3A-04B564121776}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{06DB2703-F6E1-40EC-B489-AF23524010D7}"/>
-    <hyperlink ref="C2" r:id="rId3" xr:uid="{97AD58DC-D294-479E-8558-0A9E71B6BB4E}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId14"/>
   <headerFooter>
     <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 General</oddFooter>
   </headerFooter>

--- a/LeetCode Techniques.xlsx
+++ b/LeetCode Techniques.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/blackjack625/Desktop/LeetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{553C199B-039E-614C-B642-0C56247B3297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2CD0202-C13E-8E45-B85F-5F54908FE712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16480" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16480" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DP" sheetId="8" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1121" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="475">
   <si>
     <t>Name</t>
   </si>
@@ -1814,11 +1814,6 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>Find the shortest prefix array such that
-prefix array max &lt;= suffix array min.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Max Chunks To Make Sorted II</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
@@ -1827,10 +1822,6 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>Prefix Sum, Recursion</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>Most Profit Assigning Work</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
@@ -1882,6 +1873,70 @@
   <si>
     <t>https://leetcode.com/problems/minimum-operations-to-make-a-subsequence/description/</t>
     <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefix Sum</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Separation happens whenever
+prefix array max &lt;= suffix array min.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maximize the Topmost Element After K Moves</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximize-the-topmost-element-after-k-moves/description/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Compare max of front k - 1 numbers
+to the number at kth idx (if exists).</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rabbits in Forest</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/rabbits-in-forest/description/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hash</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Construct Target Array With Multiple Sums</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/construct-target-array-with-multiple-sums/description/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Subtract the largest num with sum
+from other nums. Put the new num 
+into array. Repeat until all nums are 1.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seat Reservation Manager</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/seat-reservation-manager/description/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maximum Points You Can Obtain from Cards</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximum-points-you-can-obtain-from-cards/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4084,16 +4139,14 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99BCE9F1-E6C6-6346-98A0-65D0C06C0EE4}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="41" customWidth="1"/>
+    <col min="2" max="2" width="46" customWidth="1"/>
     <col min="3" max="3" width="35.796875" style="11" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="41" customWidth="1"/>
@@ -4195,9 +4248,65 @@
       <c r="J3" s="5"/>
       <c r="K3" s="4"/>
     </row>
+    <row r="4" spans="1:11" ht="45" customHeight="1">
+      <c r="A4" s="6">
+        <v>1354</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>469</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>470</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="5">
+        <v>45568</v>
+      </c>
+      <c r="J4" s="5"/>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:11" ht="20" customHeight="1">
+      <c r="A5" s="6">
+        <v>1845</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>472</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="14"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="5">
+        <v>45568</v>
+      </c>
+      <c r="J5" s="5"/>
+      <c r="K5" s="4"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D2:E3">
+  <conditionalFormatting sqref="D2:E5">
     <cfRule type="expression" dxfId="20" priority="1">
       <formula>D2="Easy"</formula>
     </cfRule>
@@ -4211,9 +4320,11 @@
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" xr:uid="{BD755528-4D9F-2E43-8D44-F83835331DEA}"/>
     <hyperlink ref="C2" r:id="rId2" xr:uid="{322F67A3-4E60-134A-9BA1-AF1822132017}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{8B0936F4-A412-3541-AF80-6424433632D0}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{CA92A266-1266-FE4A-88E7-BEE47D7CBF4E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId5"/>
   <headerFooter>
     <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 General</oddFooter>
   </headerFooter>
@@ -5421,7 +5532,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>11</v>
@@ -5429,7 +5540,9 @@
       <c r="I6" s="5">
         <v>45397</v>
       </c>
-      <c r="J6" s="3"/>
+      <c r="J6" s="5">
+        <v>45569</v>
+      </c>
       <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:11" ht="30" customHeight="1">
@@ -6680,9 +6793,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89924C3E-917D-0945-8F52-65F70A8CFC07}">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
@@ -6916,19 +7029,19 @@
         <v>768</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>446</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>447</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>445</v>
+        <v>461</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>372</v>
@@ -6939,7 +7052,9 @@
       <c r="I8" s="5">
         <v>45562</v>
       </c>
-      <c r="J8" s="5"/>
+      <c r="J8" s="5">
+        <v>45566</v>
+      </c>
       <c r="K8" s="4"/>
     </row>
     <row r="9" spans="1:11" ht="30" customHeight="1">
@@ -6956,10 +7071,10 @@
         <v>10</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>445</v>
+        <v>461</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>372</v>
@@ -6970,54 +7085,56 @@
       <c r="I9" s="5">
         <v>45562</v>
       </c>
-      <c r="J9" s="5"/>
+      <c r="J9" s="5">
+        <v>45566</v>
+      </c>
       <c r="K9" s="4"/>
     </row>
     <row r="10" spans="1:11" ht="20" customHeight="1">
       <c r="A10" s="6">
-        <v>826</v>
+        <v>781</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>449</v>
+        <v>465</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>450</v>
+        <v>466</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E10" s="14"/>
       <c r="F10" s="4" t="s">
-        <v>267</v>
+        <v>467</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>309</v>
+        <v>372</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>43</v>
       </c>
       <c r="I10" s="5">
-        <v>45562</v>
+        <v>45568</v>
       </c>
       <c r="J10" s="5"/>
       <c r="K10" s="4"/>
     </row>
     <row r="11" spans="1:11" ht="20" customHeight="1">
       <c r="A11" s="6">
-        <v>945</v>
+        <v>826</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>414</v>
+        <v>447</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>415</v>
+        <v>448</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E11" s="14"/>
       <c r="F11" s="4" t="s">
-        <v>416</v>
+        <v>267</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>309</v>
@@ -7026,170 +7143,170 @@
         <v>43</v>
       </c>
       <c r="I11" s="5">
-        <v>45549</v>
+        <v>45562</v>
       </c>
       <c r="J11" s="5"/>
       <c r="K11" s="4"/>
     </row>
     <row r="12" spans="1:11" ht="20" customHeight="1">
       <c r="A12" s="6">
-        <v>954</v>
+        <v>945</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>458</v>
+        <v>414</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>459</v>
+        <v>415</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="4" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>372</v>
+        <v>309</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>43</v>
       </c>
       <c r="I12" s="5">
-        <v>45563</v>
+        <v>45549</v>
       </c>
       <c r="J12" s="5"/>
       <c r="K12" s="4"/>
     </row>
-    <row r="13" spans="1:11" ht="30" customHeight="1">
+    <row r="13" spans="1:11" ht="20" customHeight="1">
       <c r="A13" s="6">
-        <v>984</v>
+        <v>954</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="14" t="s">
-        <v>454</v>
-      </c>
-      <c r="F13" s="4"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="4" t="s">
+        <v>410</v>
+      </c>
       <c r="G13" s="4" t="s">
-        <v>455</v>
+        <v>372</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>453</v>
+        <v>43</v>
       </c>
       <c r="I13" s="5">
-        <v>45562</v>
+        <v>45563</v>
       </c>
       <c r="J13" s="5"/>
       <c r="K13" s="4"/>
     </row>
-    <row r="14" spans="1:11" ht="20" customHeight="1">
+    <row r="14" spans="1:11" ht="30" customHeight="1">
       <c r="A14" s="6">
-        <v>1054</v>
+        <v>984</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>307</v>
+        <v>449</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>308</v>
+        <v>450</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>406</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>411</v>
-      </c>
+        <v>452</v>
+      </c>
+      <c r="F14" s="4"/>
       <c r="G14" s="4" t="s">
-        <v>309</v>
+        <v>453</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>43</v>
+        <v>451</v>
       </c>
       <c r="I14" s="5">
-        <v>45527</v>
-      </c>
-      <c r="J14" s="5">
-        <v>45547</v>
-      </c>
+        <v>45562</v>
+      </c>
+      <c r="J14" s="5"/>
       <c r="K14" s="4"/>
     </row>
     <row r="15" spans="1:11" ht="20" customHeight="1">
       <c r="A15" s="6">
-        <v>1144</v>
+        <v>1054</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>434</v>
+        <v>307</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>435</v>
+        <v>308</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="14"/>
-      <c r="F15" s="4"/>
+      <c r="E15" s="14" t="s">
+        <v>406</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>411</v>
+      </c>
       <c r="G15" s="4" t="s">
-        <v>372</v>
+        <v>309</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>43</v>
       </c>
       <c r="I15" s="5">
-        <v>45554</v>
-      </c>
-      <c r="J15" s="5"/>
+        <v>45527</v>
+      </c>
+      <c r="J15" s="5">
+        <v>45547</v>
+      </c>
       <c r="K15" s="4"/>
     </row>
     <row r="16" spans="1:11" ht="20" customHeight="1">
       <c r="A16" s="6">
-        <v>1363</v>
+        <v>1144</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>456</v>
+        <v>434</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>457</v>
+        <v>435</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E16" s="14"/>
-      <c r="F16" s="4" t="s">
-        <v>429</v>
-      </c>
+      <c r="F16" s="4"/>
       <c r="G16" s="4" t="s">
-        <v>309</v>
+        <v>372</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>43</v>
       </c>
       <c r="I16" s="5">
-        <v>45563</v>
+        <v>45554</v>
       </c>
       <c r="J16" s="5"/>
       <c r="K16" s="4"/>
     </row>
     <row r="17" spans="1:11" ht="20" customHeight="1">
       <c r="A17" s="6">
-        <v>1481</v>
+        <v>1363</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>427</v>
+        <v>454</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>428</v>
+        <v>455</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E17" s="14"/>
       <c r="F17" s="4" t="s">
@@ -7202,76 +7319,136 @@
         <v>43</v>
       </c>
       <c r="I17" s="5">
-        <v>45550</v>
-      </c>
-      <c r="J17" s="5"/>
+        <v>45563</v>
+      </c>
+      <c r="J17" s="5">
+        <v>45567</v>
+      </c>
       <c r="K17" s="4"/>
     </row>
     <row r="18" spans="1:11" ht="20" customHeight="1">
       <c r="A18" s="6">
-        <v>1713</v>
+        <v>1481</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>460</v>
+        <v>427</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>461</v>
+        <v>428</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>438</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="E18" s="14"/>
       <c r="F18" s="4" t="s">
-        <v>267</v>
+        <v>429</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>309</v>
+        <v>372</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>43</v>
       </c>
       <c r="I18" s="5">
-        <v>45563</v>
+        <v>45550</v>
       </c>
       <c r="J18" s="5"/>
       <c r="K18" s="4"/>
     </row>
-    <row r="19" spans="1:11" ht="30" customHeight="1">
+    <row r="19" spans="1:11" ht="20" customHeight="1">
       <c r="A19" s="6">
-        <v>2208</v>
+        <v>1713</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>403</v>
+        <v>458</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>404</v>
+        <v>459</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>407</v>
+        <v>438</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>413</v>
+        <v>267</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>405</v>
+        <v>309</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>43</v>
       </c>
       <c r="I19" s="5">
-        <v>45548</v>
+        <v>45563</v>
       </c>
       <c r="J19" s="5"/>
       <c r="K19" s="4"/>
     </row>
+    <row r="20" spans="1:11" ht="30" customHeight="1">
+      <c r="A20" s="6">
+        <v>2202</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>464</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" s="5">
+        <v>45568</v>
+      </c>
+      <c r="J20" s="5"/>
+      <c r="K20" s="4"/>
+    </row>
+    <row r="21" spans="1:11" ht="30" customHeight="1">
+      <c r="A21" s="6">
+        <v>2208</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>407</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I21" s="5">
+        <v>45548</v>
+      </c>
+      <c r="J21" s="5"/>
+      <c r="K21" s="4"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D2:E19">
+  <conditionalFormatting sqref="D2:E21">
     <cfRule type="expression" dxfId="41" priority="10">
       <formula>D2="Easy"</formula>
     </cfRule>
@@ -7285,25 +7462,27 @@
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{004AD8D0-6240-7843-A49E-26386D6F4B8B}"/>
     <hyperlink ref="C5" r:id="rId2" xr:uid="{36C30514-0199-314C-B206-B46F26E6E895}"/>
-    <hyperlink ref="C14" r:id="rId3" xr:uid="{A61EDB76-3F1B-FA4B-A484-FF203AB7B891}"/>
+    <hyperlink ref="C15" r:id="rId3" xr:uid="{A61EDB76-3F1B-FA4B-A484-FF203AB7B891}"/>
     <hyperlink ref="C7" r:id="rId4" xr:uid="{14F26B79-16C3-8A42-AA1C-424413893725}"/>
-    <hyperlink ref="C19" r:id="rId5" xr:uid="{532B70B2-4EA8-D54B-9765-F0F8FB4A7228}"/>
-    <hyperlink ref="C11" r:id="rId6" xr:uid="{E0EF768C-A209-C344-A308-201CBA67EFDA}"/>
-    <hyperlink ref="C17" r:id="rId7" xr:uid="{98E20983-FDF7-AC45-A77E-381E42FA3D7E}"/>
+    <hyperlink ref="C21" r:id="rId5" xr:uid="{532B70B2-4EA8-D54B-9765-F0F8FB4A7228}"/>
+    <hyperlink ref="C12" r:id="rId6" xr:uid="{E0EF768C-A209-C344-A308-201CBA67EFDA}"/>
+    <hyperlink ref="C18" r:id="rId7" xr:uid="{98E20983-FDF7-AC45-A77E-381E42FA3D7E}"/>
     <hyperlink ref="C4" r:id="rId8" xr:uid="{93109F7A-39AF-394A-8F0E-7C9872B616F2}"/>
-    <hyperlink ref="C15" r:id="rId9" xr:uid="{C5BC2EF5-2492-454F-9C71-DDEE7A2E3E98}"/>
+    <hyperlink ref="C16" r:id="rId9" xr:uid="{C5BC2EF5-2492-454F-9C71-DDEE7A2E3E98}"/>
     <hyperlink ref="C3" r:id="rId10" xr:uid="{74E3D31C-3C7B-114C-841C-89AAD24C4905}"/>
     <hyperlink ref="C6" r:id="rId11" xr:uid="{D875700A-1982-114A-850F-70F5E48D0F4B}"/>
     <hyperlink ref="C8" r:id="rId12" xr:uid="{9392A3C9-D54A-AE4D-96F7-7AF2F273D177}"/>
     <hyperlink ref="C9" r:id="rId13" xr:uid="{D1A42B51-B36E-E640-B035-BA6DA18FBA31}"/>
-    <hyperlink ref="C10" r:id="rId14" xr:uid="{200A1572-C064-7B45-8135-A89DFAE16BF8}"/>
-    <hyperlink ref="C13" r:id="rId15" xr:uid="{1C03B438-9BDB-D34F-BD78-ED5E5562BF65}"/>
-    <hyperlink ref="C16" r:id="rId16" xr:uid="{C01F0CDD-3830-7E4F-BA4D-F73C5F99952F}"/>
-    <hyperlink ref="C12" r:id="rId17" xr:uid="{AD3FCB87-A1B2-2A49-8380-673BAAF1CB03}"/>
-    <hyperlink ref="C18" r:id="rId18" xr:uid="{78660B06-7405-C049-A32B-24A1D90AF311}"/>
+    <hyperlink ref="C11" r:id="rId14" xr:uid="{200A1572-C064-7B45-8135-A89DFAE16BF8}"/>
+    <hyperlink ref="C14" r:id="rId15" xr:uid="{1C03B438-9BDB-D34F-BD78-ED5E5562BF65}"/>
+    <hyperlink ref="C17" r:id="rId16" xr:uid="{C01F0CDD-3830-7E4F-BA4D-F73C5F99952F}"/>
+    <hyperlink ref="C13" r:id="rId17" xr:uid="{AD3FCB87-A1B2-2A49-8380-673BAAF1CB03}"/>
+    <hyperlink ref="C19" r:id="rId18" xr:uid="{78660B06-7405-C049-A32B-24A1D90AF311}"/>
+    <hyperlink ref="C20" r:id="rId19" xr:uid="{A4D38E4E-BEF9-7E4B-91E4-A344DBE2326F}"/>
+    <hyperlink ref="C10" r:id="rId20" xr:uid="{3085500C-981B-3640-9778-9E0E68921A9C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId19"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId21"/>
   <headerFooter>
     <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 General</oddFooter>
   </headerFooter>
@@ -8616,14 +8795,14 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8380FC83-7509-9643-8CC5-E365761A27D0}">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="41" customWidth="1"/>
+    <col min="2" max="2" width="46" customWidth="1"/>
     <col min="3" max="3" width="35.796875" style="11" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="41" customWidth="1"/>
@@ -8903,13 +9082,13 @@
     </row>
     <row r="10" spans="1:11" ht="20" customHeight="1">
       <c r="A10" s="6">
-        <v>1524</v>
+        <v>1423</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>299</v>
+        <v>473</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>298</v>
+        <v>474</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>10</v>
@@ -8920,120 +9099,116 @@
         <v>11</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="I10" s="5">
-        <v>45524</v>
+        <v>45569</v>
       </c>
       <c r="J10" s="5"/>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="1:11" ht="30" customHeight="1">
+    <row r="11" spans="1:11" ht="20" customHeight="1">
       <c r="A11" s="6">
-        <v>1862</v>
+        <v>1524</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>275</v>
+        <v>299</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>274</v>
+        <v>298</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>324</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="E11" s="14"/>
+      <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
-        <v>276</v>
+        <v>11</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>277</v>
+        <v>28</v>
       </c>
       <c r="I11" s="5">
-        <v>45521</v>
+        <v>45524</v>
       </c>
       <c r="J11" s="5"/>
       <c r="K11" s="4"/>
     </row>
     <row r="12" spans="1:11" ht="30" customHeight="1">
       <c r="A12" s="6">
-        <v>1894</v>
+        <v>1862</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>300</v>
+        <v>275</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>301</v>
+        <v>274</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="4"/>
+        <v>15</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>324</v>
+      </c>
       <c r="G12" s="4" t="s">
-        <v>11</v>
+        <v>276</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>28</v>
+        <v>277</v>
       </c>
       <c r="I12" s="5">
-        <v>45525</v>
+        <v>45521</v>
       </c>
       <c r="J12" s="5"/>
       <c r="K12" s="4"/>
     </row>
-    <row r="13" spans="1:11" ht="45" customHeight="1">
+    <row r="13" spans="1:11" ht="30" customHeight="1">
       <c r="A13" s="6">
-        <v>2302</v>
+        <v>1894</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>283</v>
+        <v>300</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>284</v>
+        <v>301</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>285</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="E13" s="14"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="I13" s="5">
-        <v>45501</v>
-      </c>
-      <c r="J13" s="5">
         <v>45525</v>
       </c>
+      <c r="J13" s="5"/>
       <c r="K13" s="4"/>
     </row>
-    <row r="14" spans="1:11" ht="20" customHeight="1">
+    <row r="14" spans="1:11" ht="45" customHeight="1">
       <c r="A14" s="6">
-        <v>2438</v>
+        <v>2302</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>304</v>
+        <v>283</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>305</v>
+        <v>284</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="4" t="s">
-        <v>306</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="F14" s="4"/>
       <c r="G14" s="4" t="s">
         <v>11</v>
       </c>
@@ -9041,14 +9216,45 @@
         <v>11</v>
       </c>
       <c r="I14" s="5">
+        <v>45501</v>
+      </c>
+      <c r="J14" s="5">
+        <v>45525</v>
+      </c>
+      <c r="K14" s="4"/>
+    </row>
+    <row r="15" spans="1:11" ht="20" customHeight="1">
+      <c r="A15" s="6">
+        <v>2438</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="14"/>
+      <c r="F15" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" s="5">
         <v>45526</v>
       </c>
-      <c r="J14" s="5"/>
-      <c r="K14" s="4"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D2:D14">
+  <conditionalFormatting sqref="D2:D15">
     <cfRule type="expression" dxfId="29" priority="1">
       <formula>D2="Easy"</formula>
     </cfRule>
@@ -9060,22 +9266,23 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="C11" r:id="rId1" xr:uid="{C9816A24-406A-ED4A-8FB2-059B74B03BB2}"/>
-    <hyperlink ref="C13" r:id="rId2" xr:uid="{28FFE997-242B-BD43-92E3-903DCE08758F}"/>
+    <hyperlink ref="C12" r:id="rId1" xr:uid="{C9816A24-406A-ED4A-8FB2-059B74B03BB2}"/>
+    <hyperlink ref="C14" r:id="rId2" xr:uid="{28FFE997-242B-BD43-92E3-903DCE08758F}"/>
     <hyperlink ref="C7" r:id="rId3" xr:uid="{713E12F1-D139-8D4B-A787-71F735A42312}"/>
     <hyperlink ref="C3" r:id="rId4" xr:uid="{4696FB6F-B483-AC44-BEE2-62362C4172F1}"/>
     <hyperlink ref="C4" r:id="rId5" xr:uid="{9012EA63-8820-A141-81DD-5424D597639B}"/>
     <hyperlink ref="C6" r:id="rId6" xr:uid="{A1E4E21C-AD81-7A4F-9657-2A59703E46FD}"/>
     <hyperlink ref="C8" r:id="rId7" xr:uid="{1D2D6E50-9921-6340-B74B-D89FEEF6E1D7}"/>
-    <hyperlink ref="C10" r:id="rId8" xr:uid="{5132C615-5239-494D-BC2B-CBB9213F1F81}"/>
-    <hyperlink ref="C12" r:id="rId9" xr:uid="{37463C6E-3673-6B4E-B37B-EDCC87E8E8F6}"/>
+    <hyperlink ref="C11" r:id="rId8" xr:uid="{5132C615-5239-494D-BC2B-CBB9213F1F81}"/>
+    <hyperlink ref="C13" r:id="rId9" xr:uid="{37463C6E-3673-6B4E-B37B-EDCC87E8E8F6}"/>
     <hyperlink ref="C2" r:id="rId10" xr:uid="{F2C0EEF0-CA41-144C-99D0-D977BE50C774}"/>
-    <hyperlink ref="C14" r:id="rId11" xr:uid="{E65C4F39-2706-6341-ABDD-FBB95C5EAB8F}"/>
+    <hyperlink ref="C15" r:id="rId11" xr:uid="{E65C4F39-2706-6341-ABDD-FBB95C5EAB8F}"/>
     <hyperlink ref="C9" r:id="rId12" xr:uid="{05FE1C59-7DCD-914E-B21B-0AC59222C12C}"/>
     <hyperlink ref="C5" r:id="rId13" xr:uid="{080E83A5-4B4C-6F49-8912-BD3CB12E2CCF}"/>
+    <hyperlink ref="C10" r:id="rId14" xr:uid="{78A63C4F-C7A2-D848-989D-EC49CCD8FF5E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId14"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId15"/>
   <headerFooter>
     <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 General</oddFooter>
   </headerFooter>

--- a/LeetCode Techniques.xlsx
+++ b/LeetCode Techniques.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/blackjack625/Desktop/LeetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2CD0202-C13E-8E45-B85F-5F54908FE712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72C15E52-D151-644D-81F6-7417FDF820A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16480" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16480" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DP" sheetId="8" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="492">
   <si>
     <t>Name</t>
   </si>
@@ -1730,10 +1730,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Recursion.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Cinema Seat Allocation</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1936,6 +1932,79 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/maximum-points-you-can-obtain-from-cards/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contiguous Array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/contiguous-array/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Subarray Product Less Than K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/subarray-product-less-than-k/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Make Array Empty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/make-array-empty/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Greedy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reverse Subarray To Maximize Array Value</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/reverse-subarray-to-maximize-array-value/description/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Find Servers That Handled Most Number of Requests</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-servers-that-handled-most-number-of-requests/description/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Binary Search, Greedy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/meeting-rooms-iii/description/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Meeting Rooms III</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heaps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Set Intersection Size At Least Two</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/set-intersection-size-at-least-two/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deal with more "interior-located"
+and smaller intervals first.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4139,18 +4208,19 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99BCE9F1-E6C6-6346-98A0-65D0C06C0EE4}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="46" customWidth="1"/>
+    <col min="2" max="2" width="56" customWidth="1"/>
     <col min="3" max="3" width="35.796875" style="11" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="41" customWidth="1"/>
-    <col min="6" max="8" width="21" customWidth="1"/>
+    <col min="6" max="6" width="23.59765625" customWidth="1"/>
+    <col min="7" max="8" width="21" customWidth="1"/>
     <col min="9" max="10" width="16" style="1" customWidth="1"/>
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
@@ -4253,16 +4323,16 @@
         <v>1354</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>468</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>469</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
@@ -4279,41 +4349,70 @@
     </row>
     <row r="5" spans="1:11" ht="20" customHeight="1">
       <c r="A5" s="6">
-        <v>1845</v>
+        <v>1606</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E5" s="14"/>
-      <c r="F5" s="4"/>
+      <c r="F5" s="4" t="s">
+        <v>485</v>
+      </c>
       <c r="G5" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I5" s="5">
-        <v>45568</v>
+        <v>45574</v>
       </c>
       <c r="J5" s="5"/>
       <c r="K5" s="4"/>
     </row>
+    <row r="6" spans="1:11" ht="20" customHeight="1">
+      <c r="A6" s="6">
+        <v>1845</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="14"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="5">
+        <v>45568</v>
+      </c>
+      <c r="J6" s="5"/>
+      <c r="K6" s="4"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D2:E5">
-    <cfRule type="expression" dxfId="20" priority="1">
+  <conditionalFormatting sqref="D2:E6">
+    <cfRule type="expression" dxfId="20" priority="4">
       <formula>D2="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="2">
+    <cfRule type="expression" dxfId="19" priority="5">
       <formula>D2="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="3">
+    <cfRule type="expression" dxfId="18" priority="6">
       <formula>D2="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4321,10 +4420,11 @@
     <hyperlink ref="C3" r:id="rId1" xr:uid="{BD755528-4D9F-2E43-8D44-F83835331DEA}"/>
     <hyperlink ref="C2" r:id="rId2" xr:uid="{322F67A3-4E60-134A-9BA1-AF1822132017}"/>
     <hyperlink ref="C4" r:id="rId3" xr:uid="{8B0936F4-A412-3541-AF80-6424433632D0}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{CA92A266-1266-FE4A-88E7-BEE47D7CBF4E}"/>
+    <hyperlink ref="C6" r:id="rId4" xr:uid="{CA92A266-1266-FE4A-88E7-BEE47D7CBF4E}"/>
+    <hyperlink ref="C5" r:id="rId5" xr:uid="{3D46B33F-B75E-E14C-85F8-97D14E32302E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId6"/>
   <headerFooter>
     <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 General</oddFooter>
   </headerFooter>
@@ -5755,16 +5855,16 @@
         <v>646</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>439</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>440</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4" t="s">
@@ -6597,19 +6697,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B15C51FE-E345-E84D-98FD-767C3C081D66}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="31" customWidth="1"/>
+    <col min="2" max="2" width="36" customWidth="1"/>
     <col min="3" max="3" width="35.796875" style="11" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="41" customWidth="1"/>
-    <col min="6" max="8" width="21" customWidth="1"/>
-    <col min="9" max="10" width="16" style="1" customWidth="1"/>
+    <col min="5" max="5" width="36" customWidth="1"/>
+    <col min="6" max="6" width="23.59765625" customWidth="1"/>
+    <col min="7" max="8" width="21" customWidth="1"/>
+    <col min="9" max="9" width="18.59765625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16" style="1" customWidth="1"/>
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6665,7 +6767,7 @@
         <v>423</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>424</v>
+        <v>364</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>12</v>
@@ -6696,7 +6798,7 @@
         <v>420</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>424</v>
+        <v>364</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>12</v>
@@ -6715,10 +6817,10 @@
         <v>324</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>430</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>431</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>10</v>
@@ -6737,54 +6839,146 @@
       <c r="J4" s="5"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="20" customHeight="1">
+    <row r="5" spans="1:11" ht="30" customHeight="1">
       <c r="A5" s="4">
-        <v>1386</v>
+        <v>757</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>425</v>
+        <v>489</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>426</v>
+        <v>490</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
+        <v>15</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>491</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>485</v>
+      </c>
       <c r="G5" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="I5" s="5">
-        <v>45533</v>
+        <v>45575</v>
       </c>
       <c r="J5" s="5"/>
       <c r="K5" s="2"/>
     </row>
+    <row r="6" spans="1:11" ht="20" customHeight="1">
+      <c r="A6" s="4">
+        <v>1386</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="5">
+        <v>45533</v>
+      </c>
+      <c r="J6" s="5"/>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="1:11" ht="20" customHeight="1">
+      <c r="A7" s="6">
+        <v>2402</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>486</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="14"/>
+      <c r="F7" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="5">
+        <v>45574</v>
+      </c>
+      <c r="J7" s="5"/>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="1:11" ht="20" customHeight="1">
+      <c r="A8" s="4">
+        <v>2659</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="5">
+        <v>45403</v>
+      </c>
+      <c r="J8" s="5"/>
+      <c r="K8" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D2:E5">
-    <cfRule type="expression" dxfId="44" priority="1">
+  <conditionalFormatting sqref="D2:E8">
+    <cfRule type="expression" dxfId="44" priority="4">
       <formula>D2="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="2">
+    <cfRule type="expression" dxfId="43" priority="5">
       <formula>D2="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="3">
+    <cfRule type="expression" dxfId="42" priority="6">
       <formula>D2="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" xr:uid="{5CD9AE50-AA9E-4A4B-861F-3841A5AD013F}"/>
     <hyperlink ref="C2" r:id="rId2" xr:uid="{BF96CE91-DED9-584B-BD53-695EAACF8656}"/>
-    <hyperlink ref="C5" r:id="rId3" xr:uid="{4791A1EA-B34F-6140-A8AF-3403CBC4BB3B}"/>
+    <hyperlink ref="C6" r:id="rId3" xr:uid="{4791A1EA-B34F-6140-A8AF-3403CBC4BB3B}"/>
     <hyperlink ref="C4" r:id="rId4" xr:uid="{D09CA923-D79F-7147-A238-200BD0D14D79}"/>
+    <hyperlink ref="C8" r:id="rId5" xr:uid="{15AF7E95-A712-CF46-80E2-8E66AEE8EF6A}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{B471486E-8451-864F-9806-678B49CACA46}"/>
+    <hyperlink ref="C5" r:id="rId7" xr:uid="{9131687D-A6D4-444C-9270-AA4EFDFB268A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId8"/>
   <headerFooter>
     <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 General</oddFooter>
   </headerFooter>
@@ -6793,7 +6987,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89924C3E-917D-0945-8F52-65F70A8CFC07}">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -6880,16 +7074,16 @@
         <v>334</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>436</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>437</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>267</v>
@@ -6911,10 +7105,10 @@
         <v>624</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>432</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>433</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>10</v>
@@ -6967,17 +7161,17 @@
         <v>670</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>441</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>442</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>372</v>
@@ -7029,19 +7223,19 @@
         <v>768</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>445</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>446</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>372</v>
@@ -7062,19 +7256,19 @@
         <v>769</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>443</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>444</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>372</v>
@@ -7095,17 +7289,17 @@
         <v>781</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>465</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>466</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E10" s="14"/>
       <c r="F10" s="4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>372</v>
@@ -7124,10 +7318,10 @@
         <v>826</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>447</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>448</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>10</v>
@@ -7182,10 +7376,10 @@
         <v>954</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>456</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>457</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>10</v>
@@ -7211,23 +7405,23 @@
         <v>984</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>449</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>450</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="I14" s="5">
         <v>45562</v>
@@ -7273,10 +7467,10 @@
         <v>1144</v>
       </c>
       <c r="B16" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>434</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>435</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>10</v>
@@ -7297,51 +7491,47 @@
     </row>
     <row r="17" spans="1:11" ht="20" customHeight="1">
       <c r="A17" s="6">
-        <v>1363</v>
+        <v>1330</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>454</v>
+        <v>481</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>455</v>
+        <v>482</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E17" s="14"/>
-      <c r="F17" s="4" t="s">
-        <v>429</v>
-      </c>
+      <c r="F17" s="4"/>
       <c r="G17" s="4" t="s">
         <v>372</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="I17" s="5">
-        <v>45563</v>
-      </c>
-      <c r="J17" s="5">
-        <v>45567</v>
-      </c>
+        <v>45573</v>
+      </c>
+      <c r="J17" s="5"/>
       <c r="K17" s="4"/>
     </row>
     <row r="18" spans="1:11" ht="20" customHeight="1">
       <c r="A18" s="6">
-        <v>1481</v>
+        <v>1363</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>427</v>
+        <v>453</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>428</v>
+        <v>454</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E18" s="14"/>
       <c r="F18" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>372</v>
@@ -7350,105 +7540,136 @@
         <v>43</v>
       </c>
       <c r="I18" s="5">
-        <v>45550</v>
-      </c>
-      <c r="J18" s="5"/>
+        <v>45563</v>
+      </c>
+      <c r="J18" s="5">
+        <v>45567</v>
+      </c>
       <c r="K18" s="4"/>
     </row>
     <row r="19" spans="1:11" ht="20" customHeight="1">
       <c r="A19" s="6">
-        <v>1713</v>
+        <v>1481</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>458</v>
+        <v>426</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>459</v>
+        <v>427</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>438</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="E19" s="14"/>
       <c r="F19" s="4" t="s">
-        <v>267</v>
+        <v>428</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>309</v>
+        <v>372</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>43</v>
       </c>
       <c r="I19" s="5">
-        <v>45563</v>
+        <v>45550</v>
       </c>
       <c r="J19" s="5"/>
       <c r="K19" s="4"/>
     </row>
-    <row r="20" spans="1:11" ht="30" customHeight="1">
+    <row r="20" spans="1:11" ht="20" customHeight="1">
       <c r="A20" s="6">
-        <v>2202</v>
+        <v>1713</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>464</v>
-      </c>
-      <c r="F20" s="4"/>
+        <v>437</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>267</v>
+      </c>
       <c r="G20" s="4" t="s">
-        <v>255</v>
+        <v>309</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="I20" s="5">
-        <v>45568</v>
+        <v>45563</v>
       </c>
       <c r="J20" s="5"/>
       <c r="K20" s="4"/>
     </row>
     <row r="21" spans="1:11" ht="30" customHeight="1">
       <c r="A21" s="6">
-        <v>2208</v>
+        <v>2202</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>403</v>
+        <v>461</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>404</v>
+        <v>462</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>407</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>413</v>
-      </c>
+        <v>463</v>
+      </c>
+      <c r="F21" s="4"/>
       <c r="G21" s="4" t="s">
-        <v>405</v>
+        <v>255</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="I21" s="5">
-        <v>45548</v>
+        <v>45568</v>
       </c>
       <c r="J21" s="5"/>
       <c r="K21" s="4"/>
     </row>
+    <row r="22" spans="1:11" ht="30" customHeight="1">
+      <c r="A22" s="6">
+        <v>2208</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>407</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I22" s="5">
+        <v>45548</v>
+      </c>
+      <c r="J22" s="5"/>
+      <c r="K22" s="4"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D2:E21">
+  <conditionalFormatting sqref="D2:E22">
     <cfRule type="expression" dxfId="41" priority="10">
       <formula>D2="Easy"</formula>
     </cfRule>
@@ -7464,9 +7685,9 @@
     <hyperlink ref="C5" r:id="rId2" xr:uid="{36C30514-0199-314C-B206-B46F26E6E895}"/>
     <hyperlink ref="C15" r:id="rId3" xr:uid="{A61EDB76-3F1B-FA4B-A484-FF203AB7B891}"/>
     <hyperlink ref="C7" r:id="rId4" xr:uid="{14F26B79-16C3-8A42-AA1C-424413893725}"/>
-    <hyperlink ref="C21" r:id="rId5" xr:uid="{532B70B2-4EA8-D54B-9765-F0F8FB4A7228}"/>
+    <hyperlink ref="C22" r:id="rId5" xr:uid="{532B70B2-4EA8-D54B-9765-F0F8FB4A7228}"/>
     <hyperlink ref="C12" r:id="rId6" xr:uid="{E0EF768C-A209-C344-A308-201CBA67EFDA}"/>
-    <hyperlink ref="C18" r:id="rId7" xr:uid="{98E20983-FDF7-AC45-A77E-381E42FA3D7E}"/>
+    <hyperlink ref="C19" r:id="rId7" xr:uid="{98E20983-FDF7-AC45-A77E-381E42FA3D7E}"/>
     <hyperlink ref="C4" r:id="rId8" xr:uid="{93109F7A-39AF-394A-8F0E-7C9872B616F2}"/>
     <hyperlink ref="C16" r:id="rId9" xr:uid="{C5BC2EF5-2492-454F-9C71-DDEE7A2E3E98}"/>
     <hyperlink ref="C3" r:id="rId10" xr:uid="{74E3D31C-3C7B-114C-841C-89AAD24C4905}"/>
@@ -7475,14 +7696,15 @@
     <hyperlink ref="C9" r:id="rId13" xr:uid="{D1A42B51-B36E-E640-B035-BA6DA18FBA31}"/>
     <hyperlink ref="C11" r:id="rId14" xr:uid="{200A1572-C064-7B45-8135-A89DFAE16BF8}"/>
     <hyperlink ref="C14" r:id="rId15" xr:uid="{1C03B438-9BDB-D34F-BD78-ED5E5562BF65}"/>
-    <hyperlink ref="C17" r:id="rId16" xr:uid="{C01F0CDD-3830-7E4F-BA4D-F73C5F99952F}"/>
+    <hyperlink ref="C18" r:id="rId16" xr:uid="{C01F0CDD-3830-7E4F-BA4D-F73C5F99952F}"/>
     <hyperlink ref="C13" r:id="rId17" xr:uid="{AD3FCB87-A1B2-2A49-8380-673BAAF1CB03}"/>
-    <hyperlink ref="C19" r:id="rId18" xr:uid="{78660B06-7405-C049-A32B-24A1D90AF311}"/>
-    <hyperlink ref="C20" r:id="rId19" xr:uid="{A4D38E4E-BEF9-7E4B-91E4-A344DBE2326F}"/>
+    <hyperlink ref="C20" r:id="rId18" xr:uid="{78660B06-7405-C049-A32B-24A1D90AF311}"/>
+    <hyperlink ref="C21" r:id="rId19" xr:uid="{A4D38E4E-BEF9-7E4B-91E4-A344DBE2326F}"/>
     <hyperlink ref="C10" r:id="rId20" xr:uid="{3085500C-981B-3640-9778-9E0E68921A9C}"/>
+    <hyperlink ref="C17" r:id="rId21" xr:uid="{DE2E7DCF-21D8-D143-8908-D8983E22C6CE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId21"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId22"/>
   <headerFooter>
     <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 General</oddFooter>
   </headerFooter>
@@ -7502,7 +7724,8 @@
     <col min="3" max="3" width="71" style="11" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
-    <col min="6" max="8" width="21" customWidth="1"/>
+    <col min="6" max="6" width="18.59765625" customWidth="1"/>
+    <col min="7" max="8" width="21" customWidth="1"/>
     <col min="9" max="10" width="16" style="1" customWidth="1"/>
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
@@ -8795,9 +9018,9 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8380FC83-7509-9643-8CC5-E365761A27D0}">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
@@ -8902,79 +9125,79 @@
     </row>
     <row r="4" spans="1:11" ht="20" customHeight="1">
       <c r="A4" s="6">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>292</v>
+        <v>474</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>291</v>
+        <v>475</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="14"/>
-      <c r="F4" s="4" t="s">
-        <v>267</v>
-      </c>
+      <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I4" s="5">
-        <v>45525</v>
+        <v>45570</v>
       </c>
       <c r="J4" s="5"/>
       <c r="K4" s="4"/>
     </row>
     <row r="5" spans="1:11" ht="20" customHeight="1">
       <c r="A5" s="6">
-        <v>560</v>
+        <v>528</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>399</v>
+        <v>292</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>400</v>
+        <v>291</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="14" t="s">
-        <v>402</v>
-      </c>
+      <c r="E5" s="14"/>
       <c r="F5" s="4" t="s">
-        <v>401</v>
+        <v>267</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I5" s="5">
-        <v>45547</v>
+        <v>45525</v>
       </c>
       <c r="J5" s="5"/>
       <c r="K5" s="4"/>
     </row>
     <row r="6" spans="1:11" ht="20" customHeight="1">
       <c r="A6" s="6">
-        <v>848</v>
+        <v>560</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>294</v>
+        <v>399</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>293</v>
+        <v>400</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="4"/>
+      <c r="E6" s="14" t="s">
+        <v>402</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>401</v>
+      </c>
       <c r="G6" s="4" t="s">
         <v>11</v>
       </c>
@@ -8982,23 +9205,23 @@
         <v>11</v>
       </c>
       <c r="I6" s="5">
-        <v>45525</v>
+        <v>45547</v>
       </c>
       <c r="J6" s="5"/>
       <c r="K6" s="4"/>
     </row>
     <row r="7" spans="1:11" ht="20" customHeight="1">
       <c r="A7" s="6">
-        <v>862</v>
+        <v>713</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>286</v>
+        <v>476</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>287</v>
+        <v>477</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E7" s="14"/>
       <c r="F7" s="4" t="s">
@@ -9011,32 +9234,26 @@
         <v>11</v>
       </c>
       <c r="I7" s="5">
-        <v>45381</v>
-      </c>
-      <c r="J7" s="5">
-        <v>45525</v>
-      </c>
+        <v>45570</v>
+      </c>
+      <c r="J7" s="5"/>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="1:11" ht="30" customHeight="1">
+    <row r="8" spans="1:11" ht="20" customHeight="1">
       <c r="A8" s="6">
-        <v>930</v>
+        <v>848</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="14" t="s">
-        <v>297</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>258</v>
-      </c>
+      <c r="E8" s="14"/>
+      <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
         <v>11</v>
       </c>
@@ -9044,29 +9261,27 @@
         <v>11</v>
       </c>
       <c r="I8" s="5">
-        <v>45524</v>
+        <v>45525</v>
       </c>
       <c r="J8" s="5"/>
       <c r="K8" s="4"/>
     </row>
     <row r="9" spans="1:11" ht="20" customHeight="1">
       <c r="A9" s="6">
-        <v>1124</v>
+        <v>862</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>374</v>
+        <v>286</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>375</v>
+        <v>287</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>376</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E9" s="14"/>
       <c r="F9" s="4" t="s">
-        <v>324</v>
+        <v>258</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>11</v>
@@ -9075,26 +9290,32 @@
         <v>11</v>
       </c>
       <c r="I9" s="5">
-        <v>45539</v>
-      </c>
-      <c r="J9" s="5"/>
+        <v>45381</v>
+      </c>
+      <c r="J9" s="5">
+        <v>45525</v>
+      </c>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="1:11" ht="20" customHeight="1">
+    <row r="10" spans="1:11" ht="30" customHeight="1">
       <c r="A10" s="6">
-        <v>1423</v>
+        <v>930</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>473</v>
+        <v>295</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>474</v>
+        <v>296</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="4"/>
+      <c r="E10" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>258</v>
+      </c>
       <c r="G10" s="4" t="s">
         <v>11</v>
       </c>
@@ -9102,78 +9323,78 @@
         <v>11</v>
       </c>
       <c r="I10" s="5">
-        <v>45569</v>
+        <v>45524</v>
       </c>
       <c r="J10" s="5"/>
       <c r="K10" s="4"/>
     </row>
     <row r="11" spans="1:11" ht="20" customHeight="1">
       <c r="A11" s="6">
-        <v>1524</v>
+        <v>1124</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>299</v>
+        <v>374</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>298</v>
+        <v>375</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="4"/>
+      <c r="E11" s="14" t="s">
+        <v>376</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>324</v>
+      </c>
       <c r="G11" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="I11" s="5">
-        <v>45524</v>
+        <v>45539</v>
       </c>
       <c r="J11" s="5"/>
       <c r="K11" s="4"/>
     </row>
-    <row r="12" spans="1:11" ht="30" customHeight="1">
+    <row r="12" spans="1:11" ht="20" customHeight="1">
       <c r="A12" s="6">
-        <v>1862</v>
+        <v>1423</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>275</v>
+        <v>472</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>274</v>
+        <v>473</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>324</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="E12" s="14"/>
+      <c r="F12" s="4"/>
       <c r="G12" s="4" t="s">
-        <v>276</v>
+        <v>11</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>277</v>
+        <v>11</v>
       </c>
       <c r="I12" s="5">
-        <v>45521</v>
+        <v>45569</v>
       </c>
       <c r="J12" s="5"/>
       <c r="K12" s="4"/>
     </row>
-    <row r="13" spans="1:11" ht="30" customHeight="1">
+    <row r="13" spans="1:11" ht="20" customHeight="1">
       <c r="A13" s="6">
-        <v>1894</v>
+        <v>1524</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>10</v>
@@ -9187,74 +9408,132 @@
         <v>28</v>
       </c>
       <c r="I13" s="5">
-        <v>45525</v>
+        <v>45524</v>
       </c>
       <c r="J13" s="5"/>
       <c r="K13" s="4"/>
     </row>
-    <row r="14" spans="1:11" ht="45" customHeight="1">
+    <row r="14" spans="1:11" ht="30" customHeight="1">
       <c r="A14" s="6">
-        <v>2302</v>
+        <v>1862</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>285</v>
-      </c>
-      <c r="F14" s="4"/>
+        <v>278</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>324</v>
+      </c>
       <c r="G14" s="4" t="s">
-        <v>11</v>
+        <v>276</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>11</v>
+        <v>277</v>
       </c>
       <c r="I14" s="5">
-        <v>45501</v>
-      </c>
-      <c r="J14" s="5">
-        <v>45525</v>
-      </c>
+        <v>45521</v>
+      </c>
+      <c r="J14" s="5"/>
       <c r="K14" s="4"/>
     </row>
-    <row r="15" spans="1:11" ht="20" customHeight="1">
+    <row r="15" spans="1:11" ht="30" customHeight="1">
       <c r="A15" s="6">
-        <v>2438</v>
+        <v>1894</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E15" s="14"/>
-      <c r="F15" s="4" t="s">
-        <v>306</v>
-      </c>
+      <c r="F15" s="4"/>
       <c r="G15" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="I15" s="5">
-        <v>45526</v>
+        <v>45525</v>
       </c>
       <c r="J15" s="5"/>
       <c r="K15" s="4"/>
     </row>
+    <row r="16" spans="1:11" ht="45" customHeight="1">
+      <c r="A16" s="6">
+        <v>2302</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I16" s="5">
+        <v>45501</v>
+      </c>
+      <c r="J16" s="5">
+        <v>45525</v>
+      </c>
+      <c r="K16" s="4"/>
+    </row>
+    <row r="17" spans="1:11" ht="20" customHeight="1">
+      <c r="A17" s="6">
+        <v>2438</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="14"/>
+      <c r="F17" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I17" s="5">
+        <v>45526</v>
+      </c>
+      <c r="J17" s="5"/>
+      <c r="K17" s="4"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D2:D15">
+  <conditionalFormatting sqref="D2:D17">
     <cfRule type="expression" dxfId="29" priority="1">
       <formula>D2="Easy"</formula>
     </cfRule>
@@ -9266,23 +9545,25 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="C12" r:id="rId1" xr:uid="{C9816A24-406A-ED4A-8FB2-059B74B03BB2}"/>
-    <hyperlink ref="C14" r:id="rId2" xr:uid="{28FFE997-242B-BD43-92E3-903DCE08758F}"/>
-    <hyperlink ref="C7" r:id="rId3" xr:uid="{713E12F1-D139-8D4B-A787-71F735A42312}"/>
+    <hyperlink ref="C14" r:id="rId1" xr:uid="{C9816A24-406A-ED4A-8FB2-059B74B03BB2}"/>
+    <hyperlink ref="C16" r:id="rId2" xr:uid="{28FFE997-242B-BD43-92E3-903DCE08758F}"/>
+    <hyperlink ref="C9" r:id="rId3" xr:uid="{713E12F1-D139-8D4B-A787-71F735A42312}"/>
     <hyperlink ref="C3" r:id="rId4" xr:uid="{4696FB6F-B483-AC44-BEE2-62362C4172F1}"/>
-    <hyperlink ref="C4" r:id="rId5" xr:uid="{9012EA63-8820-A141-81DD-5424D597639B}"/>
-    <hyperlink ref="C6" r:id="rId6" xr:uid="{A1E4E21C-AD81-7A4F-9657-2A59703E46FD}"/>
-    <hyperlink ref="C8" r:id="rId7" xr:uid="{1D2D6E50-9921-6340-B74B-D89FEEF6E1D7}"/>
-    <hyperlink ref="C11" r:id="rId8" xr:uid="{5132C615-5239-494D-BC2B-CBB9213F1F81}"/>
-    <hyperlink ref="C13" r:id="rId9" xr:uid="{37463C6E-3673-6B4E-B37B-EDCC87E8E8F6}"/>
+    <hyperlink ref="C5" r:id="rId5" xr:uid="{9012EA63-8820-A141-81DD-5424D597639B}"/>
+    <hyperlink ref="C8" r:id="rId6" xr:uid="{A1E4E21C-AD81-7A4F-9657-2A59703E46FD}"/>
+    <hyperlink ref="C10" r:id="rId7" xr:uid="{1D2D6E50-9921-6340-B74B-D89FEEF6E1D7}"/>
+    <hyperlink ref="C13" r:id="rId8" xr:uid="{5132C615-5239-494D-BC2B-CBB9213F1F81}"/>
+    <hyperlink ref="C15" r:id="rId9" xr:uid="{37463C6E-3673-6B4E-B37B-EDCC87E8E8F6}"/>
     <hyperlink ref="C2" r:id="rId10" xr:uid="{F2C0EEF0-CA41-144C-99D0-D977BE50C774}"/>
-    <hyperlink ref="C15" r:id="rId11" xr:uid="{E65C4F39-2706-6341-ABDD-FBB95C5EAB8F}"/>
-    <hyperlink ref="C9" r:id="rId12" xr:uid="{05FE1C59-7DCD-914E-B21B-0AC59222C12C}"/>
-    <hyperlink ref="C5" r:id="rId13" xr:uid="{080E83A5-4B4C-6F49-8912-BD3CB12E2CCF}"/>
-    <hyperlink ref="C10" r:id="rId14" xr:uid="{78A63C4F-C7A2-D848-989D-EC49CCD8FF5E}"/>
+    <hyperlink ref="C17" r:id="rId11" xr:uid="{E65C4F39-2706-6341-ABDD-FBB95C5EAB8F}"/>
+    <hyperlink ref="C11" r:id="rId12" xr:uid="{05FE1C59-7DCD-914E-B21B-0AC59222C12C}"/>
+    <hyperlink ref="C6" r:id="rId13" xr:uid="{080E83A5-4B4C-6F49-8912-BD3CB12E2CCF}"/>
+    <hyperlink ref="C12" r:id="rId14" xr:uid="{78A63C4F-C7A2-D848-989D-EC49CCD8FF5E}"/>
+    <hyperlink ref="C4" r:id="rId15" xr:uid="{A749378D-FA25-D04B-B30B-F8CA027A3CB9}"/>
+    <hyperlink ref="C7" r:id="rId16" xr:uid="{7954D8C8-FB4B-E344-A66B-452D4F05C5E9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId15"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId17"/>
   <headerFooter>
     <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 General</oddFooter>
   </headerFooter>

--- a/LeetCode Techniques.xlsx
+++ b/LeetCode Techniques.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/blackjack625/Desktop/LeetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72C15E52-D151-644D-81F6-7417FDF820A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3E5A69B-2B2E-2649-810D-8F26A51B3A40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16480" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16460" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DP" sheetId="8" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="507">
   <si>
     <t>Name</t>
   </si>
@@ -729,9 +729,6 @@
   </si>
   <si>
     <t>O(target)</t>
-  </si>
-  <si>
-    <t>Exactly the same logic as coin change.</t>
   </si>
   <si>
     <r>
@@ -2005,6 +2002,72 @@
   <si>
     <t>Deal with more "interior-located"
 and smaller intervals first.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Power of Heroes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/power-of-heroes/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sum of Subsequence Widths</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/sum-of-subsequence-widths/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Just like Q.891.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Minimum Money Required Before Transactions</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/minimum-money-required-before-transactions/description/</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Find the deepest cumulated loss.
+Locate the trasaction with max cost.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ugly Number II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/ugly-number-ii/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exactly like coin change.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Super Ugly Number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/super-ugly-number/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Just like Q.313.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Next ugly number is a prime
+times an existing ugly number.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O(n * primes)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3056,7 +3119,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23E6E9DF-BEE0-B544-8910-7DDC3380F4B7}">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -3068,7 +3131,8 @@
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
     <col min="6" max="8" width="21" customWidth="1"/>
-    <col min="9" max="10" width="16" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.59765625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16" style="1" customWidth="1"/>
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3289,7 +3353,7 @@
         <v>48</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
@@ -3366,55 +3430,55 @@
     </row>
     <row r="11" spans="1:11" ht="20" customHeight="1">
       <c r="A11" s="4">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>170</v>
+        <v>499</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>171</v>
+        <v>500</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>48</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>182</v>
+        <v>504</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
-        <v>173</v>
+        <v>11</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>172</v>
+        <v>11</v>
       </c>
       <c r="I11" s="5">
-        <v>45495</v>
+        <v>45578</v>
       </c>
       <c r="J11" s="5"/>
       <c r="K11" s="4"/>
     </row>
-    <row r="12" spans="1:11" ht="45" customHeight="1">
+    <row r="12" spans="1:11" ht="20" customHeight="1">
       <c r="A12" s="4">
-        <v>322</v>
+        <v>279</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E12" s="10" t="s">
-        <v>162</v>
+      <c r="E12" s="14" t="s">
+        <v>501</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="I12" s="5">
         <v>45495</v>
@@ -3424,57 +3488,55 @@
     </row>
     <row r="13" spans="1:11" ht="30" customHeight="1">
       <c r="A13" s="4">
-        <v>337</v>
+        <v>313</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>153</v>
+        <v>502</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>154</v>
+        <v>503</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>156</v>
-      </c>
+      <c r="E13" s="14" t="s">
+        <v>505</v>
+      </c>
+      <c r="F13" s="4"/>
       <c r="G13" s="4" t="s">
-        <v>43</v>
+        <v>506</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="I13" s="5">
-        <v>45495</v>
+        <v>45578</v>
       </c>
       <c r="J13" s="5"/>
       <c r="K13" s="4"/>
     </row>
-    <row r="14" spans="1:11" ht="20" customHeight="1">
+    <row r="14" spans="1:11" ht="45" customHeight="1">
       <c r="A14" s="4">
-        <v>343</v>
+        <v>322</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>176</v>
+      <c r="E14" s="10" t="s">
+        <v>162</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>43</v>
+        <v>161</v>
       </c>
       <c r="I14" s="5">
         <v>45495</v>
@@ -3482,28 +3544,30 @@
       <c r="J14" s="5"/>
       <c r="K14" s="4"/>
     </row>
-    <row r="15" spans="1:11" ht="45" customHeight="1">
+    <row r="15" spans="1:11" ht="30" customHeight="1">
       <c r="A15" s="4">
-        <v>377</v>
+        <v>337</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>178</v>
+        <v>153</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="F15" s="4"/>
+      <c r="E15" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>156</v>
+      </c>
       <c r="G15" s="4" t="s">
-        <v>180</v>
+        <v>43</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>181</v>
+        <v>43</v>
       </c>
       <c r="I15" s="5">
         <v>45495</v>
@@ -3511,28 +3575,28 @@
       <c r="J15" s="5"/>
       <c r="K15" s="4"/>
     </row>
-    <row r="16" spans="1:11" ht="45" customHeight="1">
+    <row r="16" spans="1:11" ht="20" customHeight="1">
       <c r="A16" s="4">
-        <v>518</v>
+        <v>343</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="10" t="s">
-        <v>169</v>
+      <c r="E16" s="6" t="s">
+        <v>176</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>161</v>
+        <v>43</v>
       </c>
       <c r="I16" s="5">
         <v>45495</v>
@@ -3540,110 +3604,110 @@
       <c r="J16" s="5"/>
       <c r="K16" s="4"/>
     </row>
-    <row r="17" spans="1:11" ht="20" customHeight="1">
+    <row r="17" spans="1:11" ht="45" customHeight="1">
       <c r="A17" s="4">
-        <v>907</v>
+        <v>377</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>187</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="F17" s="4"/>
       <c r="G17" s="4" t="s">
-        <v>11</v>
+        <v>180</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>11</v>
+        <v>181</v>
       </c>
       <c r="I17" s="5">
-        <v>45508</v>
+        <v>45495</v>
       </c>
       <c r="J17" s="5"/>
       <c r="K17" s="4"/>
     </row>
-    <row r="18" spans="1:11" ht="20" customHeight="1">
+    <row r="18" spans="1:11" ht="45" customHeight="1">
       <c r="A18" s="4">
-        <v>931</v>
+        <v>518</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="4"/>
+        <v>48</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>169</v>
+      </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>11</v>
+        <v>161</v>
       </c>
       <c r="I18" s="5">
-        <v>45496</v>
+        <v>45495</v>
       </c>
       <c r="J18" s="5"/>
       <c r="K18" s="4"/>
     </row>
     <row r="19" spans="1:11" ht="20" customHeight="1">
       <c r="A19" s="4">
-        <v>1220</v>
+        <v>907</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>210</v>
+        <v>184</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>211</v>
+        <v>185</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="6"/>
-      <c r="F19" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="G19" s="4" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="I19" s="5">
-        <v>45504</v>
+        <v>45508</v>
       </c>
       <c r="J19" s="5"/>
       <c r="K19" s="4"/>
     </row>
-    <row r="20" spans="1:11" ht="30" customHeight="1">
+    <row r="20" spans="1:11" ht="20" customHeight="1">
       <c r="A20" s="4">
-        <v>1289</v>
+        <v>931</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>151</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
       <c r="G20" s="4" t="s">
         <v>152</v>
       </c>
@@ -3658,13 +3722,13 @@
     </row>
     <row r="21" spans="1:11" ht="20" customHeight="1">
       <c r="A21" s="4">
-        <v>1301</v>
+        <v>1220</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>15</v>
@@ -3672,138 +3736,196 @@
       <c r="E21" s="6"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4" t="s">
-        <v>152</v>
+        <v>43</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>177</v>
+        <v>43</v>
       </c>
       <c r="I21" s="5">
-        <v>45497</v>
+        <v>45504</v>
       </c>
       <c r="J21" s="5"/>
       <c r="K21" s="4"/>
     </row>
-    <row r="22" spans="1:11" ht="20" customHeight="1">
+    <row r="22" spans="1:11" ht="30" customHeight="1">
       <c r="A22" s="4">
-        <v>1359</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>214</v>
+        <v>1289</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>149</v>
       </c>
       <c r="C22" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E22" s="6"/>
-      <c r="F22" s="4"/>
+      <c r="F22" s="4" t="s">
+        <v>151</v>
+      </c>
       <c r="G22" s="4" t="s">
-        <v>43</v>
+        <v>152</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="I22" s="5">
-        <v>45498</v>
+        <v>45496</v>
       </c>
       <c r="J22" s="5"/>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="1:11" ht="30" customHeight="1">
+    <row r="23" spans="1:11" ht="20" customHeight="1">
       <c r="A23" s="4">
-        <v>1373</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>202</v>
+        <v>1301</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>199</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E23" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>204</v>
-      </c>
+      <c r="E23" s="6"/>
+      <c r="F23" s="4"/>
       <c r="G23" s="4" t="s">
-        <v>43</v>
+        <v>152</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>43</v>
+        <v>177</v>
       </c>
       <c r="I23" s="5">
-        <v>45499</v>
+        <v>45497</v>
       </c>
       <c r="J23" s="5"/>
       <c r="K23" s="4"/>
     </row>
-    <row r="24" spans="1:11" ht="30" customHeight="1">
+    <row r="24" spans="1:11" ht="20" customHeight="1">
       <c r="A24" s="4">
-        <v>1425</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>256</v>
+        <v>1359</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>213</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>257</v>
+        <v>211</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E24" s="14" t="s">
-        <v>259</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>258</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="E24" s="6"/>
+      <c r="F24" s="4"/>
       <c r="G24" s="4" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="I24" s="5">
-        <v>45517</v>
+        <v>45498</v>
       </c>
       <c r="J24" s="5"/>
       <c r="K24" s="4"/>
     </row>
-    <row r="25" spans="1:11" ht="20" customHeight="1">
+    <row r="25" spans="1:11" ht="30" customHeight="1">
       <c r="A25" s="4">
-        <v>1449</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>206</v>
+        <v>1373</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>201</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E25" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="F25" s="4"/>
+      <c r="E25" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>203</v>
+      </c>
       <c r="G25" s="4" t="s">
-        <v>208</v>
+        <v>43</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>181</v>
+        <v>43</v>
       </c>
       <c r="I25" s="5">
-        <v>45502</v>
+        <v>45499</v>
       </c>
       <c r="J25" s="5"/>
       <c r="K25" s="4"/>
     </row>
+    <row r="26" spans="1:11" ht="30" customHeight="1">
+      <c r="A26" s="4">
+        <v>1425</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I26" s="5">
+        <v>45517</v>
+      </c>
+      <c r="J26" s="5"/>
+      <c r="K26" s="4"/>
+    </row>
+    <row r="27" spans="1:11" ht="20" customHeight="1">
+      <c r="A27" s="4">
+        <v>1449</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="I27" s="5">
+        <v>45502</v>
+      </c>
+      <c r="J27" s="5"/>
+      <c r="K27" s="4"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D2:D25">
+  <conditionalFormatting sqref="D2:D27">
     <cfRule type="expression" dxfId="53" priority="1">
       <formula>D2="Easy"</formula>
     </cfRule>
@@ -3824,23 +3946,25 @@
     <hyperlink ref="C6" r:id="rId7" xr:uid="{2022A0AD-F338-4B4A-8571-BB4A95D7EE00}"/>
     <hyperlink ref="C2" r:id="rId8" xr:uid="{11FB62CE-95A4-8149-A0D0-EC80907AD300}"/>
     <hyperlink ref="C8" r:id="rId9" xr:uid="{D0C86F76-90D0-4847-AD9B-8F8B4200A39D}"/>
-    <hyperlink ref="C13" r:id="rId10" xr:uid="{9CABBCEF-20B6-4261-A1F0-3D8011645ACB}"/>
-    <hyperlink ref="C20" r:id="rId11" xr:uid="{89251C52-1FFE-4F42-9EB3-8442B0C4B630}"/>
-    <hyperlink ref="C18" r:id="rId12" xr:uid="{32767AED-4FD4-4A42-A276-7043683514E1}"/>
-    <hyperlink ref="C12" r:id="rId13" xr:uid="{05186EE2-9933-4BE1-8003-0B7A411907D0}"/>
-    <hyperlink ref="C16" r:id="rId14" xr:uid="{BF5BA59B-B251-4DEC-9C8D-5AF88F2281BB}"/>
-    <hyperlink ref="C11" r:id="rId15" xr:uid="{813FAFD5-6D74-491D-9824-1E659C9D2411}"/>
-    <hyperlink ref="C14" r:id="rId16" xr:uid="{0906CA71-0A65-43B6-A42E-14BED96A9744}"/>
-    <hyperlink ref="C15" r:id="rId17" xr:uid="{8BAD1FAB-01D5-4562-993F-1DD3EF213075}"/>
-    <hyperlink ref="C17" r:id="rId18" xr:uid="{7B8F3DB0-2F77-A645-96D2-D8D7373AA08F}"/>
-    <hyperlink ref="C21" r:id="rId19" xr:uid="{A8721EF3-38EC-45F1-966B-2754E800B084}"/>
-    <hyperlink ref="C23" r:id="rId20" xr:uid="{8538BB7C-5920-4573-ACF3-9E5A3F8356EF}"/>
-    <hyperlink ref="C25" r:id="rId21" xr:uid="{15C88B36-121F-4FD6-99BF-A4A05C219395}"/>
-    <hyperlink ref="C19" r:id="rId22" xr:uid="{C753C826-C084-4CE0-A98B-D6F7D77849C9}"/>
-    <hyperlink ref="C24" r:id="rId23" xr:uid="{D3D42ECA-07B2-554F-9699-3ACBB4D8F39C}"/>
+    <hyperlink ref="C15" r:id="rId10" xr:uid="{9CABBCEF-20B6-4261-A1F0-3D8011645ACB}"/>
+    <hyperlink ref="C22" r:id="rId11" xr:uid="{89251C52-1FFE-4F42-9EB3-8442B0C4B630}"/>
+    <hyperlink ref="C20" r:id="rId12" xr:uid="{32767AED-4FD4-4A42-A276-7043683514E1}"/>
+    <hyperlink ref="C14" r:id="rId13" xr:uid="{05186EE2-9933-4BE1-8003-0B7A411907D0}"/>
+    <hyperlink ref="C18" r:id="rId14" xr:uid="{BF5BA59B-B251-4DEC-9C8D-5AF88F2281BB}"/>
+    <hyperlink ref="C12" r:id="rId15" xr:uid="{813FAFD5-6D74-491D-9824-1E659C9D2411}"/>
+    <hyperlink ref="C16" r:id="rId16" xr:uid="{0906CA71-0A65-43B6-A42E-14BED96A9744}"/>
+    <hyperlink ref="C17" r:id="rId17" xr:uid="{8BAD1FAB-01D5-4562-993F-1DD3EF213075}"/>
+    <hyperlink ref="C19" r:id="rId18" xr:uid="{7B8F3DB0-2F77-A645-96D2-D8D7373AA08F}"/>
+    <hyperlink ref="C23" r:id="rId19" xr:uid="{A8721EF3-38EC-45F1-966B-2754E800B084}"/>
+    <hyperlink ref="C25" r:id="rId20" xr:uid="{8538BB7C-5920-4573-ACF3-9E5A3F8356EF}"/>
+    <hyperlink ref="C27" r:id="rId21" xr:uid="{15C88B36-121F-4FD6-99BF-A4A05C219395}"/>
+    <hyperlink ref="C21" r:id="rId22" xr:uid="{C753C826-C084-4CE0-A98B-D6F7D77849C9}"/>
+    <hyperlink ref="C26" r:id="rId23" xr:uid="{D3D42ECA-07B2-554F-9699-3ACBB4D8F39C}"/>
+    <hyperlink ref="C11" r:id="rId24" xr:uid="{9521D88F-4126-2E4E-AA6D-DF18E5D00371}"/>
+    <hyperlink ref="C13" r:id="rId25" xr:uid="{1A6DD940-5CEB-DD44-B437-2B0BAFD42AB3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId24"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId26"/>
   <headerFooter>
     <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 General</oddFooter>
   </headerFooter>
@@ -3905,17 +4029,17 @@
         <v>895</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>222</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>223</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="14"/>
       <c r="F2" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>44</v>
@@ -3934,16 +4058,16 @@
         <v>1172</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="C3" s="16" t="s">
         <v>216</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>217</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4" t="s">
@@ -3963,22 +4087,22 @@
         <v>2454</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="C4" s="16" t="s">
         <v>196</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>197</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>151</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>43</v>
@@ -4028,7 +4152,8 @@
     <col min="3" max="3" width="35.796875" style="11" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="8" width="21" customWidth="1"/>
-    <col min="9" max="10" width="16" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18.59765625" style="1" customWidth="1"/>
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4072,10 +4197,10 @@
         <v>239</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>253</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>254</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>15</v>
@@ -4086,7 +4211,7 @@
         <v>43</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I2" s="5">
         <v>45386</v>
@@ -4101,26 +4226,30 @@
         <v>1352</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>397</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>398</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="14"/>
-      <c r="F3" s="4"/>
+      <c r="F3" s="4" t="s">
+        <v>458</v>
+      </c>
       <c r="G3" s="4" t="s">
-        <v>43</v>
+        <v>395</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>43</v>
+        <v>371</v>
       </c>
       <c r="I3" s="5">
         <v>45387</v>
       </c>
-      <c r="J3" s="5"/>
+      <c r="J3" s="5">
+        <v>45579</v>
+      </c>
       <c r="K3" s="4"/>
     </row>
     <row r="4" spans="1:11" ht="30" customHeight="1">
@@ -4128,10 +4257,10 @@
         <v>1438</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>251</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>252</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>10</v>
@@ -4157,10 +4286,10 @@
         <v>2526</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>394</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>395</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>10</v>
@@ -4168,10 +4297,10 @@
       <c r="E5" s="14"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I5" s="5">
         <v>45387</v>
@@ -4265,16 +4394,16 @@
         <v>295</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>244</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>245</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="4" t="s">
@@ -4296,10 +4425,10 @@
         <v>355</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>318</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>319</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>10</v>
@@ -4307,10 +4436,10 @@
       <c r="E3" s="6"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>315</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>316</v>
       </c>
       <c r="I3" s="5">
         <v>45528</v>
@@ -4323,16 +4452,16 @@
         <v>1354</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>467</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>468</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
@@ -4352,17 +4481,17 @@
         <v>1606</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>483</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>484</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="14"/>
       <c r="F5" s="4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>12</v>
@@ -4381,10 +4510,10 @@
         <v>1845</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>470</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>471</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>10</v>
@@ -4489,20 +4618,20 @@
         <v>31</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>370</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>371</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>44</v>
@@ -4518,20 +4647,20 @@
         <v>658</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="14"/>
       <c r="F3" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>44</v>
@@ -4547,16 +4676,16 @@
         <v>1163</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>341</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>342</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
@@ -4576,16 +4705,16 @@
         <v>1793</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>246</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>247</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
@@ -5027,10 +5156,10 @@
         <v>60</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>260</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>261</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>15</v>
@@ -5081,7 +5210,7 @@
         <v>779</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>59</v>
@@ -5090,7 +5219,7 @@
         <v>48</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
@@ -5189,17 +5318,17 @@
         <v>187</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>271</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>272</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="14"/>
       <c r="F2" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>11</v>
@@ -5220,16 +5349,16 @@
         <v>2444</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>268</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>269</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4" t="s">
@@ -5336,7 +5465,7 @@
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>43</v>
@@ -5501,19 +5630,19 @@
         <v>33</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>357</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>358</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>13</v>
@@ -5534,10 +5663,10 @@
         <v>34</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>359</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>360</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>10</v>
@@ -5592,17 +5721,17 @@
         <v>81</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>362</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>363</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>13</v>
@@ -5659,7 +5788,7 @@
         <v>10</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
@@ -5739,19 +5868,19 @@
         <v>400</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>365</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>366</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>13</v>
@@ -5839,7 +5968,7 @@
         <v>14</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>11</v>
@@ -5855,16 +5984,16 @@
         <v>646</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>438</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>439</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4" t="s">
@@ -5884,10 +6013,10 @@
         <v>668</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>280</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>281</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>57</v>
@@ -5895,7 +6024,7 @@
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>28</v>
@@ -5977,7 +6106,7 @@
         <v>82</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>12</v>
@@ -6214,10 +6343,10 @@
         <v>80</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>232</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>233</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>10</v>
@@ -6241,10 +6370,10 @@
         <v>347</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>236</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>237</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>10</v>
@@ -6268,16 +6397,16 @@
         <v>381</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>219</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>220</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
@@ -6297,10 +6426,10 @@
         <v>432</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>230</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>231</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>15</v>
@@ -6324,10 +6453,10 @@
         <v>460</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>228</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>229</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>15</v>
@@ -6351,10 +6480,10 @@
         <v>692</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>242</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>243</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>10</v>
@@ -6378,16 +6507,16 @@
         <v>710</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>262</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>263</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
@@ -6407,17 +6536,17 @@
         <v>718</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E10" s="14"/>
       <c r="F10" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>12</v>
@@ -6436,19 +6565,19 @@
         <v>1044</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>265</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>266</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>12</v>
@@ -6467,10 +6596,10 @@
         <v>1206</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>225</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>226</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>15</v>
@@ -6494,10 +6623,10 @@
         <v>1224</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>249</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>250</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>15</v>
@@ -6521,10 +6650,10 @@
         <v>1338</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>234</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>235</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>10</v>
@@ -6579,10 +6708,10 @@
         <v>2342</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>408</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>409</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>10</v>
@@ -6606,10 +6735,10 @@
         <v>2453</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>240</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>241</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>10</v>
@@ -6633,10 +6762,10 @@
         <v>3039</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>238</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>239</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>10</v>
@@ -6697,9 +6826,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B15C51FE-E345-E84D-98FD-767C3C081D66}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
@@ -6755,19 +6884,19 @@
         <v>56</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>421</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>422</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>12</v>
@@ -6786,19 +6915,19 @@
         <v>179</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>418</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>419</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>12</v>
@@ -6817,10 +6946,10 @@
         <v>324</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>429</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>430</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>10</v>
@@ -6844,19 +6973,19 @@
         <v>757</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>489</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>490</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>12</v>
@@ -6872,18 +7001,18 @@
     </row>
     <row r="6" spans="1:11" ht="20" customHeight="1">
       <c r="A6" s="4">
-        <v>1386</v>
+        <v>891</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>424</v>
+        <v>493</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>425</v>
+        <v>494</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="4"/>
+        <v>15</v>
+      </c>
+      <c r="E6" s="6"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
         <v>12</v>
@@ -6892,56 +7021,54 @@
         <v>28</v>
       </c>
       <c r="I6" s="5">
-        <v>45533</v>
+        <v>45550</v>
       </c>
       <c r="J6" s="5"/>
       <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:11" ht="20" customHeight="1">
-      <c r="A7" s="6">
-        <v>2402</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>487</v>
+      <c r="A7" s="4">
+        <v>1386</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>423</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>486</v>
+        <v>424</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="4" t="s">
-        <v>488</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="I7" s="5">
-        <v>45574</v>
+        <v>45533</v>
       </c>
       <c r="J7" s="5"/>
-      <c r="K7" s="4"/>
+      <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:11" ht="20" customHeight="1">
-      <c r="A8" s="4">
-        <v>2659</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>478</v>
+      <c r="A8" s="6">
+        <v>2402</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>486</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="6"/>
+      <c r="E8" s="14"/>
       <c r="F8" s="4" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>12</v>
@@ -6950,35 +7077,95 @@
         <v>11</v>
       </c>
       <c r="I8" s="5">
+        <v>45574</v>
+      </c>
+      <c r="J8" s="5"/>
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" spans="1:11" ht="20" customHeight="1">
+      <c r="A9" s="4">
+        <v>2659</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>478</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="5">
         <v>45403</v>
       </c>
-      <c r="J8" s="5"/>
-      <c r="K8" s="2"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" ht="20" customHeight="1">
+      <c r="A10" s="4">
+        <v>2681</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>492</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>495</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="5">
+        <v>45579</v>
+      </c>
+      <c r="J10" s="5"/>
+      <c r="K10" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D2:E8">
-    <cfRule type="expression" dxfId="44" priority="4">
+  <conditionalFormatting sqref="D2:E10">
+    <cfRule type="expression" dxfId="44" priority="7">
       <formula>D2="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="5">
+    <cfRule type="expression" dxfId="43" priority="8">
       <formula>D2="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="6">
+    <cfRule type="expression" dxfId="42" priority="9">
       <formula>D2="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" xr:uid="{5CD9AE50-AA9E-4A4B-861F-3841A5AD013F}"/>
     <hyperlink ref="C2" r:id="rId2" xr:uid="{BF96CE91-DED9-584B-BD53-695EAACF8656}"/>
-    <hyperlink ref="C6" r:id="rId3" xr:uid="{4791A1EA-B34F-6140-A8AF-3403CBC4BB3B}"/>
+    <hyperlink ref="C7" r:id="rId3" xr:uid="{4791A1EA-B34F-6140-A8AF-3403CBC4BB3B}"/>
     <hyperlink ref="C4" r:id="rId4" xr:uid="{D09CA923-D79F-7147-A238-200BD0D14D79}"/>
-    <hyperlink ref="C8" r:id="rId5" xr:uid="{15AF7E95-A712-CF46-80E2-8E66AEE8EF6A}"/>
-    <hyperlink ref="C7" r:id="rId6" xr:uid="{B471486E-8451-864F-9806-678B49CACA46}"/>
+    <hyperlink ref="C9" r:id="rId5" xr:uid="{15AF7E95-A712-CF46-80E2-8E66AEE8EF6A}"/>
+    <hyperlink ref="C8" r:id="rId6" xr:uid="{B471486E-8451-864F-9806-678B49CACA46}"/>
     <hyperlink ref="C5" r:id="rId7" xr:uid="{9131687D-A6D4-444C-9270-AA4EFDFB268A}"/>
+    <hyperlink ref="C10" r:id="rId8" xr:uid="{022C8C11-1B43-C94B-AC75-C79042D08A14}"/>
+    <hyperlink ref="C6" r:id="rId9" xr:uid="{7A3E984D-6B83-2D4C-A952-BC299A2F8B0A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId10"/>
   <headerFooter>
     <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 General</oddFooter>
   </headerFooter>
@@ -6987,9 +7174,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89924C3E-917D-0945-8F52-65F70A8CFC07}">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
@@ -6999,7 +7186,8 @@
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="41" customWidth="1"/>
     <col min="6" max="8" width="21" customWidth="1"/>
-    <col min="9" max="10" width="16" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.59765625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16" style="1" customWidth="1"/>
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7043,19 +7231,19 @@
         <v>135</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>390</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>391</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>11</v>
@@ -7074,22 +7262,22 @@
         <v>334</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>435</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>436</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>28</v>
@@ -7105,10 +7293,10 @@
         <v>624</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>431</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>432</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>10</v>
@@ -7116,7 +7304,7 @@
       <c r="E4" s="6"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>28</v>
@@ -7132,20 +7320,20 @@
         <v>649</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>392</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>393</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>43</v>
@@ -7161,20 +7349,20 @@
         <v>670</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>440</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>441</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>43</v>
@@ -7190,22 +7378,22 @@
         <v>767</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>311</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>312</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>43</v>
@@ -7223,22 +7411,22 @@
         <v>768</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>444</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>445</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>43</v>
@@ -7256,22 +7444,22 @@
         <v>769</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>442</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>443</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>43</v>
@@ -7289,20 +7477,20 @@
         <v>781</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>464</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>465</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E10" s="14"/>
       <c r="F10" s="4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>43</v>
@@ -7318,20 +7506,20 @@
         <v>826</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>446</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>447</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E11" s="14"/>
       <c r="F11" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>43</v>
@@ -7347,20 +7535,20 @@
         <v>945</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>414</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>415</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>43</v>
@@ -7376,20 +7564,20 @@
         <v>954</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>455</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>456</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="14"/>
       <c r="F13" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>43</v>
@@ -7405,23 +7593,23 @@
         <v>984</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>448</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>449</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="I14" s="5">
         <v>45562</v>
@@ -7434,22 +7622,22 @@
         <v>1054</v>
       </c>
       <c r="B15" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>307</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>308</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>43</v>
@@ -7467,10 +7655,10 @@
         <v>1144</v>
       </c>
       <c r="B16" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>433</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>434</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>10</v>
@@ -7478,7 +7666,7 @@
       <c r="E16" s="14"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>43</v>
@@ -7494,10 +7682,10 @@
         <v>1330</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>481</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>482</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>15</v>
@@ -7505,7 +7693,7 @@
       <c r="E17" s="14"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>28</v>
@@ -7521,20 +7709,20 @@
         <v>1363</v>
       </c>
       <c r="B18" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>453</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>454</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E18" s="14"/>
       <c r="F18" s="4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>43</v>
@@ -7552,20 +7740,20 @@
         <v>1481</v>
       </c>
       <c r="B19" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>426</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>427</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E19" s="14"/>
       <c r="F19" s="4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>43</v>
@@ -7581,22 +7769,22 @@
         <v>1713</v>
       </c>
       <c r="B20" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>457</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>458</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>43</v>
@@ -7612,20 +7800,20 @@
         <v>2202</v>
       </c>
       <c r="B21" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>461</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>462</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>28</v>
@@ -7641,22 +7829,22 @@
         <v>2208</v>
       </c>
       <c r="B22" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>403</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>404</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H22" s="4" t="s">
         <v>43</v>
@@ -7667,9 +7855,38 @@
       <c r="J22" s="5"/>
       <c r="K22" s="4"/>
     </row>
+    <row r="23" spans="1:11" ht="30" customHeight="1">
+      <c r="A23" s="6">
+        <v>2412</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>497</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>498</v>
+      </c>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I23" s="5">
+        <v>45579</v>
+      </c>
+      <c r="J23" s="5"/>
+      <c r="K23" s="4"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D2:E22">
+  <conditionalFormatting sqref="D2:E23">
     <cfRule type="expression" dxfId="41" priority="10">
       <formula>D2="Easy"</formula>
     </cfRule>
@@ -7702,9 +7919,10 @@
     <hyperlink ref="C21" r:id="rId19" xr:uid="{A4D38E4E-BEF9-7E4B-91E4-A344DBE2326F}"/>
     <hyperlink ref="C10" r:id="rId20" xr:uid="{3085500C-981B-3640-9778-9E0E68921A9C}"/>
     <hyperlink ref="C17" r:id="rId21" xr:uid="{DE2E7DCF-21D8-D143-8908-D8983E22C6CE}"/>
+    <hyperlink ref="C23" r:id="rId22" xr:uid="{9AC74D56-847A-8E49-8395-F3EDA6951CF6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId22"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId23"/>
   <headerFooter>
     <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 General</oddFooter>
   </headerFooter>
@@ -7770,16 +7988,16 @@
         <v>201</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>325</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>326</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="4" t="s">
@@ -7799,16 +8017,16 @@
         <v>371</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>330</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>331</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4" t="s">
@@ -7830,10 +8048,10 @@
         <v>397</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>328</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>329</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>10</v>
@@ -7859,16 +8077,16 @@
         <v>477</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>349</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>350</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
@@ -7888,19 +8106,19 @@
         <v>1310</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>381</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>382</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>11</v>
@@ -7919,10 +8137,10 @@
         <v>1404</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>333</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>334</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>10</v>
@@ -7946,16 +8164,16 @@
         <v>1734</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>378</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>379</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
@@ -7975,17 +8193,17 @@
         <v>1829</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>388</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>389</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>11</v>
@@ -8004,16 +8222,16 @@
         <v>2419</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>335</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>336</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4" t="s">
@@ -8033,16 +8251,16 @@
         <v>2425</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>346</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>347</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
@@ -8062,16 +8280,16 @@
         <v>2429</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>385</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>386</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4" t="s">
@@ -8091,16 +8309,16 @@
         <v>2683</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>338</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>339</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4" t="s">
@@ -8208,23 +8426,23 @@
         <v>23</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>313</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>314</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G2" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>315</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>316</v>
       </c>
       <c r="I2" s="5">
         <v>45503</v>
@@ -8426,7 +8644,7 @@
         <v>48</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
@@ -8477,10 +8695,10 @@
         <v>987</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>188</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>189</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>15</v>
@@ -8701,16 +8919,16 @@
         <v>297</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>190</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>191</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
@@ -8766,7 +8984,7 @@
         <v>48</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>125</v>
@@ -8907,7 +9125,7 @@
         <v>48</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4" t="s">
@@ -8927,16 +9145,16 @@
         <v>968</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>352</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>353</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>48</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4" t="s">
@@ -8956,16 +9174,16 @@
         <v>1028</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>193</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>194</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4" t="s">
@@ -9074,10 +9292,10 @@
         <v>238</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>302</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>303</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>10</v>
@@ -9101,10 +9319,10 @@
         <v>304</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>10</v>
@@ -9115,7 +9333,7 @@
         <v>28</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I3" s="5">
         <v>45526</v>
@@ -9128,10 +9346,10 @@
         <v>525</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>474</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>475</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>10</v>
@@ -9155,17 +9373,17 @@
         <v>528</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="14"/>
       <c r="F5" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>13</v>
@@ -9184,19 +9402,19 @@
         <v>560</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>399</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>400</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>11</v>
@@ -9215,17 +9433,17 @@
         <v>713</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>476</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>477</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="14"/>
       <c r="F7" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>11</v>
@@ -9244,10 +9462,10 @@
         <v>848</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>10</v>
@@ -9271,17 +9489,17 @@
         <v>862</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>286</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>287</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="14"/>
       <c r="F9" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>11</v>
@@ -9302,19 +9520,19 @@
         <v>930</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>295</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>296</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>11</v>
@@ -9333,19 +9551,19 @@
         <v>1124</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>374</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>375</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>11</v>
@@ -9364,10 +9582,10 @@
         <v>1423</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>472</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>473</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>10</v>
@@ -9391,10 +9609,10 @@
         <v>1524</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>10</v>
@@ -9418,25 +9636,25 @@
         <v>1862</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G14" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="H14" s="4" t="s">
         <v>276</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>277</v>
       </c>
       <c r="I14" s="5">
         <v>45521</v>
@@ -9449,10 +9667,10 @@
         <v>1894</v>
       </c>
       <c r="B15" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>300</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>301</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>10</v>
@@ -9476,16 +9694,16 @@
         <v>2302</v>
       </c>
       <c r="B16" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>283</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>284</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4" t="s">
@@ -9507,17 +9725,17 @@
         <v>2438</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>304</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>305</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E17" s="14"/>
       <c r="F17" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>11</v>

--- a/LeetCode Techniques.xlsx
+++ b/LeetCode Techniques.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/blackjack625/Desktop/LeetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3E5A69B-2B2E-2649-810D-8F26A51B3A40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C77313CE-3B5C-384E-8DB1-E832EB5FB6FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16460" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16460" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DP" sheetId="8" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="521">
   <si>
     <t>Name</t>
   </si>
@@ -1019,23 +1019,23 @@
   </si>
   <si>
     <t>Longest Continuous Subarray With Absolute Diff Less Than or Equal to Limit</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>https://leetcode.com/problems/longest-continuous-subarray-with-absolute-diff-less-than-or-equal-to-limit/description/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Sliding Window Maximum</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>https://leetcode.com/problems/sliding-window-maximum/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>O(k)</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Constrained Subsequence Sum</t>
@@ -1250,27 +1250,27 @@
   </si>
   <si>
     <t>Distant Barcodes</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>https://leetcode.com/problems/distant-barcodes/description/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>O(nlogn)</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Binary Search</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Reorganize String</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>https://leetcode.com/problems/reorganize-string/description/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Merge k Sorted Lists</t>
@@ -1294,11 +1294,11 @@
   </si>
   <si>
     <t>Design Twitter</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>https://leetcode.com/problems/design-twitter/description/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Binary search also works. Just more time.</t>
@@ -1306,15 +1306,15 @@
   </si>
   <si>
     <t>Find K Closest Elements</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>O(logn + k)</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>https://leetcode.com/problems/find-k-closest-elements/description/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Hash</t>
@@ -1389,16 +1389,16 @@
   </si>
   <si>
     <t>Last Substring in Lexicographical Order</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>https://leetcode.com/problems/last-substring-in-lexicographical-order/description/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Answer is always a
 suffix of given string.</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>K-th Symbol in Grammar</t>
@@ -1510,20 +1510,20 @@
   </si>
   <si>
     <t>Next Permutation</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>https://leetcode.com/problems/next-permutation/description/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>O(n)</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Locate longest
 non-increasing suffix.</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Longest Well-Performing Interval</t>
@@ -1600,31 +1600,31 @@
   </si>
   <si>
     <t>Dota2 Senate</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>https://leetcode.com/problems/dota2-senate/description/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Find Consecutive Integers from a Data Stream</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>https://leetcode.com/problems/find-consecutive-integers-from-a-data-stream/description/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>O(1)</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Product of the Last K Numbers</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>https://leetcode.com/problems/product-of-the-last-k-numbers/description/?envType=problem-list-v2&amp;envId=data-stream</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Subarray Sum Equals K</t>
@@ -1644,23 +1644,23 @@
   </si>
   <si>
     <t>Minimum Operations to Halve Array Sum</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>https://leetcode.com/problems/minimum-operations-to-halve-array-sum/description/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>O(logn)</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Always take top 2 most frequent.</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Always reduce the maximum.</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Max Sum of a Pair With Equal Sum of Digits</t>
@@ -1676,23 +1676,23 @@
   </si>
   <si>
     <t>Heaps, Queue</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Queue, Hash</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Heaps</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Minimum Increment to Make Array Unique</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>https://leetcode.com/problems/minimum-increment-to-make-array-unique/description/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Sorting</t>
@@ -1736,15 +1736,15 @@
   </si>
   <si>
     <t>Least Number of Unique Integers after K Removals</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>https://leetcode.com/problems/least-number-of-unique-integers-after-k-removals/description/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Sorting, Hash</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Wiggle Sort II</t>
@@ -1756,27 +1756,27 @@
   </si>
   <si>
     <t>Maximum Distance in Arrays</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>https://leetcode.com/problems/maximum-distance-in-arrays/description/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Decrease Elements To Make Array Zigzag</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>https://leetcode.com/problems/decrease-elements-to-make-array-zigzag/description/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Increasing Triplet Subsequence</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>https://leetcode.com/problems/increasing-triplet-subsequence/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Just like Q.300.</t>
@@ -1792,43 +1792,43 @@
   </si>
   <si>
     <t>Maximum Swap</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>https://leetcode.com/problems/maximum-swap/description/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Max Chunks To Make Sorted</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>https://leetcode.com/problems/max-chunks-to-make-sorted/description/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Max Chunks To Make Sorted II</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>https://leetcode.com/problems/max-chunks-to-make-sorted-ii/description</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Most Profit Assigning Work</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>https://leetcode.com/problems/most-profit-assigning-work/description/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>String Without AAA or BBB</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>https://leetcode.com/problems/string-without-aaa-or-bbb/description/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>O(a+b)</t>
@@ -1841,35 +1841,35 @@
   </si>
   <si>
     <t>O(max(a, b))</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Largest Multiple of Three</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>https://leetcode.com/problems/largest-multiple-of-three/description/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Array of Doubled Pairs</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>https://leetcode.com/problems/array-of-doubled-pairs/description/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Minimum Operations to Make a Subsequence</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>https://leetcode.com/problems/minimum-operations-to-make-a-subsequence/description/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Prefix Sum</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Separation happens whenever
@@ -1878,36 +1878,36 @@
   </si>
   <si>
     <t>Maximize the Topmost Element After K Moves</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>https://leetcode.com/problems/maximize-the-topmost-element-after-k-moves/description/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Compare max of front k - 1 numbers
 to the number at kth idx (if exists).</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Rabbits in Forest</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>https://leetcode.com/problems/rabbits-in-forest/description/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Hash</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Construct Target Array With Multiple Sums</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>https://leetcode.com/problems/construct-target-array-with-multiple-sums/description/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Subtract the largest num with sum
@@ -1917,11 +1917,11 @@
   </si>
   <si>
     <t>Seat Reservation Manager</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>https://leetcode.com/problems/seat-reservation-manager/description/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Maximum Points You Can Obtain from Cards</t>
@@ -1961,19 +1961,19 @@
   </si>
   <si>
     <t>Reverse Subarray To Maximize Array Value</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>https://leetcode.com/problems/reverse-subarray-to-maximize-array-value/description/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Find Servers That Handled Most Number of Requests</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>https://leetcode.com/problems/find-servers-that-handled-most-number-of-requests/description/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Binary Search, Greedy</t>
@@ -1981,7 +1981,7 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/meeting-rooms-iii/description/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Meeting Rooms III</t>
@@ -2026,11 +2026,11 @@
   </si>
   <si>
     <t>Minimum Money Required Before Transactions</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>https://leetcode.com/problems/minimum-money-required-before-transactions/description/</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Find the deepest cumulated loss.
@@ -2068,6 +2068,65 @@
   </si>
   <si>
     <t>O(n * primes)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jump Game II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/jump-game-ii/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jump Game</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/jump-game/description/?envType=problem-list-v2&amp;envId=array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Same logic as Q.45.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Find the leftmost number that
+can reach current destination.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Split Array into Consecutive Subsequences</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/split-array-into-consecutive-subsequences/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maximum Sum Circular Subarray</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximum-sum-circular-subarray/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Find min subarray sum which
+excludes nums at 0th &amp; last idx.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Always pick shortest suitable subseq.
+Early stop for incompletable subseq.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maximum Subarray Min-Product</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximum-subarray-min-product/description/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2078,7 +2137,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2165,26 +2224,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Microsoft YaHei"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="10"/>
-      <name val="Microsoft YaHei"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Microsoft YaHei"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="新細明體"/>
       <family val="3"/>
@@ -2228,7 +2267,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2266,13 +2305,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -3119,7 +3151,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23E6E9DF-BEE0-B544-8910-7DDC3380F4B7}">
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -3693,164 +3725,162 @@
       <c r="J19" s="5"/>
       <c r="K19" s="4"/>
     </row>
-    <row r="20" spans="1:11" ht="20" customHeight="1">
+    <row r="20" spans="1:11" ht="30" customHeight="1">
       <c r="A20" s="4">
-        <v>931</v>
+        <v>918</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>148</v>
+        <v>515</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>147</v>
+        <v>516</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="4"/>
+      <c r="E20" s="14" t="s">
+        <v>517</v>
+      </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4" t="s">
-        <v>152</v>
+        <v>11</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="I20" s="5">
-        <v>45496</v>
+        <v>45581</v>
       </c>
       <c r="J20" s="5"/>
       <c r="K20" s="4"/>
     </row>
     <row r="21" spans="1:11" ht="20" customHeight="1">
       <c r="A21" s="4">
-        <v>1220</v>
+        <v>931</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>209</v>
+        <v>148</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>210</v>
+        <v>147</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" s="6"/>
+        <v>10</v>
+      </c>
+      <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4" t="s">
-        <v>43</v>
+        <v>152</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="I21" s="5">
-        <v>45504</v>
+        <v>45496</v>
       </c>
       <c r="J21" s="5"/>
       <c r="K21" s="4"/>
     </row>
-    <row r="22" spans="1:11" ht="30" customHeight="1">
+    <row r="22" spans="1:11" ht="20" customHeight="1">
       <c r="A22" s="4">
-        <v>1289</v>
+        <v>1220</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>149</v>
+        <v>209</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>151</v>
-      </c>
+      <c r="E22" s="6"/>
+      <c r="F22" s="4"/>
       <c r="G22" s="4" t="s">
-        <v>152</v>
+        <v>43</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="I22" s="5">
-        <v>45496</v>
+        <v>45504</v>
       </c>
       <c r="J22" s="5"/>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="1:11" ht="20" customHeight="1">
+    <row r="23" spans="1:11" ht="30" customHeight="1">
       <c r="A23" s="4">
-        <v>1301</v>
+        <v>1289</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>199</v>
+        <v>149</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E23" s="6"/>
-      <c r="F23" s="4"/>
+      <c r="E23" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>151</v>
+      </c>
       <c r="G23" s="4" t="s">
         <v>152</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>177</v>
+        <v>11</v>
       </c>
       <c r="I23" s="5">
-        <v>45497</v>
+        <v>45496</v>
       </c>
       <c r="J23" s="5"/>
       <c r="K23" s="4"/>
     </row>
     <row r="24" spans="1:11" ht="20" customHeight="1">
       <c r="A24" s="4">
-        <v>1359</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>213</v>
+        <v>1301</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>199</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4" t="s">
-        <v>43</v>
+        <v>152</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>43</v>
+        <v>177</v>
       </c>
       <c r="I24" s="5">
-        <v>45498</v>
+        <v>45497</v>
       </c>
       <c r="J24" s="5"/>
       <c r="K24" s="4"/>
     </row>
-    <row r="25" spans="1:11" ht="30" customHeight="1">
+    <row r="25" spans="1:11" ht="20" customHeight="1">
       <c r="A25" s="4">
-        <v>1373</v>
+        <v>1359</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>203</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="E25" s="6"/>
+      <c r="F25" s="4"/>
       <c r="G25" s="4" t="s">
         <v>43</v>
       </c>
@@ -3858,74 +3888,105 @@
         <v>43</v>
       </c>
       <c r="I25" s="5">
-        <v>45499</v>
+        <v>45498</v>
       </c>
       <c r="J25" s="5"/>
       <c r="K25" s="4"/>
     </row>
     <row r="26" spans="1:11" ht="30" customHeight="1">
       <c r="A26" s="4">
-        <v>1425</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>255</v>
+        <v>1373</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>201</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>256</v>
+        <v>204</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="14" t="s">
-        <v>258</v>
+      <c r="E26" s="12" t="s">
+        <v>202</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>257</v>
+        <v>203</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="I26" s="5">
-        <v>45517</v>
+        <v>45499</v>
       </c>
       <c r="J26" s="5"/>
       <c r="K26" s="4"/>
     </row>
-    <row r="27" spans="1:11" ht="20" customHeight="1">
+    <row r="27" spans="1:11" ht="30" customHeight="1">
       <c r="A27" s="4">
-        <v>1449</v>
+        <v>1425</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>205</v>
+        <v>255</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>206</v>
+        <v>256</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="F27" s="4"/>
+      <c r="E27" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>257</v>
+      </c>
       <c r="G27" s="4" t="s">
-        <v>207</v>
+        <v>11</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>181</v>
+        <v>11</v>
       </c>
       <c r="I27" s="5">
-        <v>45502</v>
+        <v>45517</v>
       </c>
       <c r="J27" s="5"/>
       <c r="K27" s="4"/>
     </row>
+    <row r="28" spans="1:11" ht="20" customHeight="1">
+      <c r="A28" s="4">
+        <v>1449</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="I28" s="5">
+        <v>45502</v>
+      </c>
+      <c r="J28" s="5"/>
+      <c r="K28" s="4"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D2:D27">
+  <conditionalFormatting sqref="D2:D28">
     <cfRule type="expression" dxfId="53" priority="1">
       <formula>D2="Easy"</formula>
     </cfRule>
@@ -3947,24 +4008,25 @@
     <hyperlink ref="C2" r:id="rId8" xr:uid="{11FB62CE-95A4-8149-A0D0-EC80907AD300}"/>
     <hyperlink ref="C8" r:id="rId9" xr:uid="{D0C86F76-90D0-4847-AD9B-8F8B4200A39D}"/>
     <hyperlink ref="C15" r:id="rId10" xr:uid="{9CABBCEF-20B6-4261-A1F0-3D8011645ACB}"/>
-    <hyperlink ref="C22" r:id="rId11" xr:uid="{89251C52-1FFE-4F42-9EB3-8442B0C4B630}"/>
-    <hyperlink ref="C20" r:id="rId12" xr:uid="{32767AED-4FD4-4A42-A276-7043683514E1}"/>
+    <hyperlink ref="C23" r:id="rId11" xr:uid="{89251C52-1FFE-4F42-9EB3-8442B0C4B630}"/>
+    <hyperlink ref="C21" r:id="rId12" xr:uid="{32767AED-4FD4-4A42-A276-7043683514E1}"/>
     <hyperlink ref="C14" r:id="rId13" xr:uid="{05186EE2-9933-4BE1-8003-0B7A411907D0}"/>
     <hyperlink ref="C18" r:id="rId14" xr:uid="{BF5BA59B-B251-4DEC-9C8D-5AF88F2281BB}"/>
     <hyperlink ref="C12" r:id="rId15" xr:uid="{813FAFD5-6D74-491D-9824-1E659C9D2411}"/>
     <hyperlink ref="C16" r:id="rId16" xr:uid="{0906CA71-0A65-43B6-A42E-14BED96A9744}"/>
     <hyperlink ref="C17" r:id="rId17" xr:uid="{8BAD1FAB-01D5-4562-993F-1DD3EF213075}"/>
     <hyperlink ref="C19" r:id="rId18" xr:uid="{7B8F3DB0-2F77-A645-96D2-D8D7373AA08F}"/>
-    <hyperlink ref="C23" r:id="rId19" xr:uid="{A8721EF3-38EC-45F1-966B-2754E800B084}"/>
-    <hyperlink ref="C25" r:id="rId20" xr:uid="{8538BB7C-5920-4573-ACF3-9E5A3F8356EF}"/>
-    <hyperlink ref="C27" r:id="rId21" xr:uid="{15C88B36-121F-4FD6-99BF-A4A05C219395}"/>
-    <hyperlink ref="C21" r:id="rId22" xr:uid="{C753C826-C084-4CE0-A98B-D6F7D77849C9}"/>
-    <hyperlink ref="C26" r:id="rId23" xr:uid="{D3D42ECA-07B2-554F-9699-3ACBB4D8F39C}"/>
+    <hyperlink ref="C24" r:id="rId19" xr:uid="{A8721EF3-38EC-45F1-966B-2754E800B084}"/>
+    <hyperlink ref="C26" r:id="rId20" xr:uid="{8538BB7C-5920-4573-ACF3-9E5A3F8356EF}"/>
+    <hyperlink ref="C28" r:id="rId21" xr:uid="{15C88B36-121F-4FD6-99BF-A4A05C219395}"/>
+    <hyperlink ref="C22" r:id="rId22" xr:uid="{C753C826-C084-4CE0-A98B-D6F7D77849C9}"/>
+    <hyperlink ref="C27" r:id="rId23" xr:uid="{D3D42ECA-07B2-554F-9699-3ACBB4D8F39C}"/>
     <hyperlink ref="C11" r:id="rId24" xr:uid="{9521D88F-4126-2E4E-AA6D-DF18E5D00371}"/>
     <hyperlink ref="C13" r:id="rId25" xr:uid="{1A6DD940-5CEB-DD44-B437-2B0BAFD42AB3}"/>
+    <hyperlink ref="C20" r:id="rId26" xr:uid="{8F9A7D8B-CAEC-994F-B6F1-019059EBFCF5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId26"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId27"/>
   <headerFooter>
     <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 General</oddFooter>
   </headerFooter>
@@ -3973,19 +4035,20 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BC7A267-6069-4E38-AC2F-0C28241496B0}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="31" customWidth="1"/>
-    <col min="3" max="3" width="35.796875" style="17" customWidth="1"/>
+    <col min="2" max="2" width="36" customWidth="1"/>
+    <col min="3" max="3" width="35.796875" style="11" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="41" customWidth="1"/>
     <col min="6" max="8" width="21" customWidth="1"/>
-    <col min="9" max="10" width="16" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.59765625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16" style="1" customWidth="1"/>
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3996,7 +4059,7 @@
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -4031,7 +4094,7 @@
       <c r="B2" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="8" t="s">
         <v>222</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -4060,7 +4123,7 @@
       <c r="B3" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="8" t="s">
         <v>216</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -4082,40 +4145,69 @@
       <c r="J3" s="5"/>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:11" ht="30" customHeight="1">
+    <row r="4" spans="1:11" ht="20" customHeight="1">
       <c r="A4" s="6">
-        <v>2454</v>
+        <v>1856</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>196</v>
+        <v>519</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>520</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>214</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="E4" s="14"/>
       <c r="F4" s="4" t="s">
-        <v>151</v>
+        <v>382</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>197</v>
+        <v>11</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>43</v>
       </c>
       <c r="I4" s="5">
-        <v>45505</v>
+        <v>45581</v>
       </c>
       <c r="J4" s="5"/>
       <c r="K4" s="4"/>
     </row>
+    <row r="5" spans="1:11" ht="30" customHeight="1">
+      <c r="A5" s="6">
+        <v>2454</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" s="5">
+        <v>45505</v>
+      </c>
+      <c r="J5" s="5"/>
+      <c r="K5" s="4"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D2:D4">
+  <conditionalFormatting sqref="D2:D5">
     <cfRule type="expression" dxfId="26" priority="1">
       <formula>D2="Easy"</formula>
     </cfRule>
@@ -4127,12 +4219,13 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1" xr:uid="{2A05BB37-BC02-459B-AC3A-04B564121776}"/>
+    <hyperlink ref="C5" r:id="rId1" xr:uid="{2A05BB37-BC02-459B-AC3A-04B564121776}"/>
     <hyperlink ref="C3" r:id="rId2" xr:uid="{06DB2703-F6E1-40EC-B489-AF23524010D7}"/>
     <hyperlink ref="C2" r:id="rId3" xr:uid="{97AD58DC-D294-479E-8558-0A9E71B6BB4E}"/>
+    <hyperlink ref="C4" r:id="rId4" xr:uid="{AFCD87A0-8BF8-A349-B733-92E0A2103375}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId5"/>
   <headerFooter>
     <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 General</oddFooter>
   </headerFooter>
@@ -4309,7 +4402,7 @@
       <c r="K5" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="15" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <conditionalFormatting sqref="D2:D5">
     <cfRule type="expression" dxfId="23" priority="1">
       <formula>D2="Easy"</formula>
@@ -4730,7 +4823,7 @@
       <c r="K5" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="15" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <conditionalFormatting sqref="D2:D5">
     <cfRule type="expression" dxfId="17" priority="1">
       <formula>D2="Easy"</formula>
@@ -6258,7 +6351,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD487089-E40B-1D42-B3C9-4A2FB14888DF}">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -6268,9 +6361,10 @@
     <col min="2" max="2" width="51" customWidth="1"/>
     <col min="3" max="3" width="35.796875" style="11" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="31" customWidth="1"/>
+    <col min="5" max="5" width="41" customWidth="1"/>
     <col min="6" max="8" width="21" customWidth="1"/>
-    <col min="9" max="10" width="16" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.59765625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16" style="1" customWidth="1"/>
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6475,107 +6569,107 @@
       <c r="J7" s="5"/>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="1:11" ht="20" customHeight="1">
+    <row r="8" spans="1:11" ht="30" customHeight="1">
       <c r="A8" s="4">
-        <v>692</v>
+        <v>659</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>241</v>
+        <v>513</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>242</v>
+        <v>514</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="4"/>
+      <c r="E8" s="14" t="s">
+        <v>518</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>479</v>
+      </c>
       <c r="G8" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="I8" s="5">
-        <v>45400</v>
+        <v>45580</v>
       </c>
       <c r="J8" s="5"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:11" ht="30" customHeight="1">
+    <row r="9" spans="1:11" ht="20" customHeight="1">
       <c r="A9" s="4">
-        <v>710</v>
+        <v>692</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>261</v>
+        <v>241</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>262</v>
+        <v>242</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>263</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="E9" s="14"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>43</v>
       </c>
       <c r="I9" s="5">
-        <v>45519</v>
+        <v>45400</v>
       </c>
       <c r="J9" s="5"/>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="1:11" ht="20" customHeight="1">
+    <row r="10" spans="1:11" ht="30" customHeight="1">
       <c r="A10" s="4">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>368</v>
+        <v>261</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>367</v>
+        <v>262</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="4" t="s">
-        <v>266</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="F10" s="4"/>
       <c r="G10" s="4" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>43</v>
       </c>
       <c r="I10" s="5">
-        <v>45538</v>
+        <v>45519</v>
       </c>
       <c r="J10" s="5"/>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="1:11" ht="45" customHeight="1">
+    <row r="11" spans="1:11" ht="20" customHeight="1">
       <c r="A11" s="4">
-        <v>1044</v>
+        <v>718</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>264</v>
+        <v>368</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>265</v>
+        <v>367</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>272</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="E11" s="14"/>
       <c r="F11" s="4" t="s">
         <v>266</v>
       </c>
@@ -6586,47 +6680,51 @@
         <v>43</v>
       </c>
       <c r="I11" s="5">
-        <v>45520</v>
+        <v>45538</v>
       </c>
       <c r="J11" s="5"/>
       <c r="K11" s="4"/>
     </row>
-    <row r="12" spans="1:11" ht="20" customHeight="1">
+    <row r="12" spans="1:11" ht="45" customHeight="1">
       <c r="A12" s="4">
-        <v>1206</v>
+        <v>1044</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>224</v>
+        <v>264</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>225</v>
+        <v>265</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="4"/>
+      <c r="E12" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>266</v>
+      </c>
       <c r="G12" s="4" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>43</v>
       </c>
       <c r="I12" s="5">
-        <v>45512</v>
+        <v>45520</v>
       </c>
       <c r="J12" s="5"/>
       <c r="K12" s="4"/>
     </row>
     <row r="13" spans="1:11" ht="20" customHeight="1">
       <c r="A13" s="4">
-        <v>1224</v>
+        <v>1206</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>248</v>
+        <v>224</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>249</v>
+        <v>225</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>15</v>
@@ -6634,111 +6732,111 @@
       <c r="E13" s="14"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>43</v>
       </c>
       <c r="I13" s="5">
-        <v>45516</v>
+        <v>45512</v>
       </c>
       <c r="J13" s="5"/>
       <c r="K13" s="4"/>
     </row>
     <row r="14" spans="1:11" ht="20" customHeight="1">
       <c r="A14" s="4">
-        <v>1338</v>
+        <v>1224</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E14" s="14"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>43</v>
       </c>
       <c r="I14" s="5">
-        <v>45383</v>
-      </c>
-      <c r="J14" s="5">
-        <v>45515</v>
-      </c>
+        <v>45516</v>
+      </c>
+      <c r="J14" s="5"/>
       <c r="K14" s="4"/>
     </row>
     <row r="15" spans="1:11" ht="20" customHeight="1">
       <c r="A15" s="4">
-        <v>1695</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>47</v>
+        <v>1338</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>233</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>49</v>
+        <v>234</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="E15" s="14"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="I15" s="5">
-        <v>45378</v>
+        <v>45383</v>
       </c>
       <c r="J15" s="5">
-        <v>45517</v>
+        <v>45515</v>
       </c>
       <c r="K15" s="4"/>
     </row>
     <row r="16" spans="1:11" ht="20" customHeight="1">
       <c r="A16" s="4">
-        <v>2342</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>407</v>
+        <v>1695</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>47</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>408</v>
+        <v>49</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="14"/>
+        <v>48</v>
+      </c>
+      <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H16" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H16" s="4" t="s">
-        <v>43</v>
-      </c>
       <c r="I16" s="5">
-        <v>45548</v>
-      </c>
-      <c r="J16" s="5"/>
+        <v>45378</v>
+      </c>
+      <c r="J16" s="5">
+        <v>45517</v>
+      </c>
       <c r="K16" s="4"/>
     </row>
     <row r="17" spans="1:11" ht="20" customHeight="1">
       <c r="A17" s="4">
-        <v>2453</v>
+        <v>2342</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>239</v>
+        <v>407</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>240</v>
+        <v>408</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>10</v>
@@ -6752,20 +6850,20 @@
         <v>43</v>
       </c>
       <c r="I17" s="5">
-        <v>45389</v>
+        <v>45548</v>
       </c>
       <c r="J17" s="5"/>
       <c r="K17" s="4"/>
     </row>
     <row r="18" spans="1:11" ht="20" customHeight="1">
       <c r="A18" s="4">
-        <v>3039</v>
+        <v>2453</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>10</v>
@@ -6784,40 +6882,68 @@
       <c r="J18" s="5"/>
       <c r="K18" s="4"/>
     </row>
+    <row r="19" spans="1:11" ht="20" customHeight="1">
+      <c r="A19" s="4">
+        <v>3039</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="14"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I19" s="5">
+        <v>45389</v>
+      </c>
+      <c r="J19" s="5"/>
+      <c r="K19" s="4"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D2:D18">
-    <cfRule type="expression" dxfId="47" priority="7">
+  <conditionalFormatting sqref="D2:D19">
+    <cfRule type="expression" dxfId="47" priority="10">
       <formula>D2="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="8">
+    <cfRule type="expression" dxfId="46" priority="11">
       <formula>D2="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="9">
+    <cfRule type="expression" dxfId="45" priority="12">
       <formula>D2="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="C5" r:id="rId1" xr:uid="{4E41E20D-D2BC-4440-AE67-25CEA75BC5AF}"/>
-    <hyperlink ref="C12" r:id="rId2" xr:uid="{9685A890-011F-4816-84AE-49BBB2792474}"/>
+    <hyperlink ref="C13" r:id="rId2" xr:uid="{9685A890-011F-4816-84AE-49BBB2792474}"/>
     <hyperlink ref="C7" r:id="rId3" xr:uid="{6F1A2238-1287-2F40-8EE2-6EAA6D32A33C}"/>
     <hyperlink ref="C6" r:id="rId4" xr:uid="{4E34D783-1C2D-4C4D-BF5F-B5AC83578067}"/>
     <hyperlink ref="C3" r:id="rId5" xr:uid="{7FE8783F-F8EF-344A-A755-835CBA16F73C}"/>
-    <hyperlink ref="C14" r:id="rId6" xr:uid="{DC085F9D-442E-D045-90AC-3FAED2B8D1E2}"/>
+    <hyperlink ref="C15" r:id="rId6" xr:uid="{DC085F9D-442E-D045-90AC-3FAED2B8D1E2}"/>
     <hyperlink ref="C4" r:id="rId7" xr:uid="{3E16B408-94FF-CC48-BA57-9E6F992C39F1}"/>
-    <hyperlink ref="C18" r:id="rId8" xr:uid="{A0B949A5-8B58-414A-B5CF-3DBFA646D04D}"/>
-    <hyperlink ref="C17" r:id="rId9" xr:uid="{E0F91AFC-4678-5C41-9B9D-2159274B2DAD}"/>
-    <hyperlink ref="C8" r:id="rId10" xr:uid="{64705B96-1F5D-FB4F-847B-9D3471287B5F}"/>
-    <hyperlink ref="C13" r:id="rId11" xr:uid="{E63FAF46-516A-410C-8493-9CC78C8D0570}"/>
-    <hyperlink ref="C15" r:id="rId12" xr:uid="{186DAC56-ACE0-47B6-95EE-B3826BFE8C3E}"/>
+    <hyperlink ref="C19" r:id="rId8" xr:uid="{A0B949A5-8B58-414A-B5CF-3DBFA646D04D}"/>
+    <hyperlink ref="C18" r:id="rId9" xr:uid="{E0F91AFC-4678-5C41-9B9D-2159274B2DAD}"/>
+    <hyperlink ref="C9" r:id="rId10" xr:uid="{64705B96-1F5D-FB4F-847B-9D3471287B5F}"/>
+    <hyperlink ref="C14" r:id="rId11" xr:uid="{E63FAF46-516A-410C-8493-9CC78C8D0570}"/>
+    <hyperlink ref="C16" r:id="rId12" xr:uid="{186DAC56-ACE0-47B6-95EE-B3826BFE8C3E}"/>
     <hyperlink ref="C2" r:id="rId13" xr:uid="{E1F44EBE-2031-4493-8DA0-C05554DE0E1C}"/>
-    <hyperlink ref="C9" r:id="rId14" xr:uid="{F450FB77-315A-2840-94F7-D83EA8BE786B}"/>
-    <hyperlink ref="C11" r:id="rId15" xr:uid="{3E6863E7-5E9D-6B42-8A7D-77876491307E}"/>
-    <hyperlink ref="C10" r:id="rId16" xr:uid="{23474D8E-219F-EA4A-A06C-29BD85F51835}"/>
-    <hyperlink ref="C16" r:id="rId17" xr:uid="{DBB412D4-FEBA-DD49-8B40-0515DC96E4D6}"/>
+    <hyperlink ref="C10" r:id="rId14" xr:uid="{F450FB77-315A-2840-94F7-D83EA8BE786B}"/>
+    <hyperlink ref="C12" r:id="rId15" xr:uid="{3E6863E7-5E9D-6B42-8A7D-77876491307E}"/>
+    <hyperlink ref="C11" r:id="rId16" xr:uid="{23474D8E-219F-EA4A-A06C-29BD85F51835}"/>
+    <hyperlink ref="C17" r:id="rId17" xr:uid="{DBB412D4-FEBA-DD49-8B40-0515DC96E4D6}"/>
+    <hyperlink ref="C8" r:id="rId18" xr:uid="{250BF39B-1E0B-EB44-BDC8-A82695FED156}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId18"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId19"/>
   <headerFooter>
     <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 General</oddFooter>
   </headerFooter>
@@ -7174,9 +7300,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89924C3E-917D-0945-8F52-65F70A8CFC07}">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
@@ -7226,204 +7352,198 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="20" customHeight="1">
+    <row r="2" spans="1:11" ht="30" customHeight="1">
       <c r="A2" s="4">
-        <v>135</v>
+        <v>45</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>389</v>
+        <v>507</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>390</v>
+        <v>508</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>409</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>512</v>
+      </c>
+      <c r="F2" s="4"/>
       <c r="G2" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="I2" s="5">
-        <v>45546</v>
+        <v>45580</v>
       </c>
       <c r="J2" s="5"/>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11" ht="20" customHeight="1">
-      <c r="A3" s="6">
-        <v>334</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>434</v>
+      <c r="A3" s="4">
+        <v>55</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>509</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>435</v>
+        <v>510</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="14" t="s">
-        <v>436</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>266</v>
-      </c>
+      <c r="E3" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="F3" s="4"/>
       <c r="G3" s="4" t="s">
-        <v>308</v>
+        <v>11</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>28</v>
       </c>
       <c r="I3" s="5">
-        <v>45561</v>
+        <v>45580</v>
       </c>
       <c r="J3" s="5"/>
-      <c r="K3" s="4"/>
+      <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11" ht="20" customHeight="1">
-      <c r="A4" s="6">
-        <v>624</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>430</v>
+      <c r="A4" s="4">
+        <v>135</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>389</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>431</v>
+        <v>390</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="4"/>
+        <v>15</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>409</v>
+      </c>
       <c r="G4" s="4" t="s">
-        <v>371</v>
+        <v>11</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="I4" s="5">
-        <v>45553</v>
+        <v>45546</v>
       </c>
       <c r="J4" s="5"/>
-      <c r="K4" s="4"/>
+      <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11" ht="20" customHeight="1">
       <c r="A5" s="6">
-        <v>649</v>
+        <v>334</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>391</v>
+        <v>434</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>392</v>
+        <v>435</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="6"/>
+      <c r="E5" s="14" t="s">
+        <v>436</v>
+      </c>
       <c r="F5" s="4" t="s">
-        <v>411</v>
+        <v>266</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>371</v>
+        <v>308</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="I5" s="5">
-        <v>45546</v>
+        <v>45561</v>
       </c>
       <c r="J5" s="5"/>
       <c r="K5" s="4"/>
     </row>
     <row r="6" spans="1:11" ht="20" customHeight="1">
       <c r="A6" s="6">
-        <v>670</v>
+        <v>624</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="6"/>
-      <c r="F6" s="4" t="s">
-        <v>427</v>
-      </c>
+      <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
         <v>371</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="I6" s="5">
-        <v>45561</v>
+        <v>45553</v>
       </c>
       <c r="J6" s="5"/>
       <c r="K6" s="4"/>
     </row>
     <row r="7" spans="1:11" ht="20" customHeight="1">
       <c r="A7" s="6">
-        <v>767</v>
+        <v>649</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>310</v>
+        <v>391</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>311</v>
+        <v>392</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="14" t="s">
-        <v>405</v>
-      </c>
+      <c r="E7" s="6"/>
       <c r="F7" s="4" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>308</v>
+        <v>371</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>43</v>
       </c>
       <c r="I7" s="5">
-        <v>45527</v>
-      </c>
-      <c r="J7" s="5">
-        <v>45547</v>
-      </c>
+        <v>45546</v>
+      </c>
+      <c r="J7" s="5"/>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="1:11" ht="30" customHeight="1">
+    <row r="8" spans="1:11" ht="20" customHeight="1">
       <c r="A8" s="6">
-        <v>768</v>
+        <v>670</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>459</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="E8" s="6"/>
       <c r="F8" s="4" t="s">
-        <v>458</v>
+        <v>427</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>371</v>
@@ -7432,62 +7552,62 @@
         <v>43</v>
       </c>
       <c r="I8" s="5">
-        <v>45562</v>
-      </c>
-      <c r="J8" s="5">
-        <v>45566</v>
-      </c>
+        <v>45561</v>
+      </c>
+      <c r="J8" s="5"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:11" ht="30" customHeight="1">
+    <row r="9" spans="1:11" ht="20" customHeight="1">
       <c r="A9" s="6">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>441</v>
+        <v>310</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>442</v>
+        <v>311</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="14" t="s">
+        <v>405</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" s="5">
+        <v>45527</v>
+      </c>
+      <c r="J9" s="5">
+        <v>45547</v>
+      </c>
+      <c r="K9" s="4"/>
+    </row>
+    <row r="10" spans="1:11" ht="30" customHeight="1">
+      <c r="A10" s="6">
+        <v>768</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="14" t="s">
         <v>459</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F10" s="4" t="s">
         <v>458</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="I9" s="5">
-        <v>45562</v>
-      </c>
-      <c r="J9" s="5">
-        <v>45566</v>
-      </c>
-      <c r="K9" s="4"/>
-    </row>
-    <row r="10" spans="1:11" ht="20" customHeight="1">
-      <c r="A10" s="6">
-        <v>781</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>463</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>464</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="4" t="s">
-        <v>465</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>371</v>
@@ -7496,30 +7616,34 @@
         <v>43</v>
       </c>
       <c r="I10" s="5">
-        <v>45568</v>
-      </c>
-      <c r="J10" s="5"/>
+        <v>45562</v>
+      </c>
+      <c r="J10" s="5">
+        <v>45566</v>
+      </c>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="1:11" ht="20" customHeight="1">
+    <row r="11" spans="1:11" ht="30" customHeight="1">
       <c r="A11" s="6">
-        <v>826</v>
+        <v>769</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="14"/>
+      <c r="E11" s="14" t="s">
+        <v>459</v>
+      </c>
       <c r="F11" s="4" t="s">
-        <v>266</v>
+        <v>458</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>308</v>
+        <v>371</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>43</v>
@@ -7527,200 +7651,204 @@
       <c r="I11" s="5">
         <v>45562</v>
       </c>
-      <c r="J11" s="5"/>
+      <c r="J11" s="5">
+        <v>45566</v>
+      </c>
       <c r="K11" s="4"/>
     </row>
     <row r="12" spans="1:11" ht="20" customHeight="1">
       <c r="A12" s="6">
-        <v>945</v>
+        <v>781</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>413</v>
+        <v>463</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>414</v>
+        <v>464</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="4" t="s">
-        <v>415</v>
+        <v>465</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>308</v>
+        <v>371</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>43</v>
       </c>
       <c r="I12" s="5">
-        <v>45549</v>
+        <v>45568</v>
       </c>
       <c r="J12" s="5"/>
       <c r="K12" s="4"/>
     </row>
     <row r="13" spans="1:11" ht="20" customHeight="1">
       <c r="A13" s="6">
-        <v>954</v>
+        <v>826</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="14"/>
       <c r="F13" s="4" t="s">
-        <v>409</v>
+        <v>266</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>371</v>
+        <v>308</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>43</v>
       </c>
       <c r="I13" s="5">
-        <v>45563</v>
+        <v>45562</v>
       </c>
       <c r="J13" s="5"/>
       <c r="K13" s="4"/>
     </row>
-    <row r="14" spans="1:11" ht="30" customHeight="1">
+    <row r="14" spans="1:11" ht="20" customHeight="1">
       <c r="A14" s="6">
-        <v>984</v>
+        <v>945</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>447</v>
+        <v>413</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>448</v>
+        <v>414</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="14" t="s">
-        <v>450</v>
-      </c>
-      <c r="F14" s="4"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="4" t="s">
+        <v>415</v>
+      </c>
       <c r="G14" s="4" t="s">
-        <v>451</v>
+        <v>308</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>449</v>
+        <v>43</v>
       </c>
       <c r="I14" s="5">
-        <v>45562</v>
+        <v>45549</v>
       </c>
       <c r="J14" s="5"/>
       <c r="K14" s="4"/>
     </row>
     <row r="15" spans="1:11" ht="20" customHeight="1">
       <c r="A15" s="6">
-        <v>1054</v>
+        <v>954</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>306</v>
+        <v>454</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>307</v>
+        <v>455</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="14" t="s">
-        <v>405</v>
-      </c>
+      <c r="E15" s="14"/>
       <c r="F15" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>308</v>
+        <v>371</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>43</v>
       </c>
       <c r="I15" s="5">
-        <v>45527</v>
-      </c>
-      <c r="J15" s="5">
-        <v>45547</v>
-      </c>
+        <v>45563</v>
+      </c>
+      <c r="J15" s="5"/>
       <c r="K15" s="4"/>
     </row>
-    <row r="16" spans="1:11" ht="20" customHeight="1">
+    <row r="16" spans="1:11" ht="30" customHeight="1">
       <c r="A16" s="6">
-        <v>1144</v>
+        <v>984</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>432</v>
+        <v>447</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>433</v>
+        <v>448</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="14"/>
+      <c r="E16" s="14" t="s">
+        <v>450</v>
+      </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4" t="s">
-        <v>371</v>
+        <v>451</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>43</v>
+        <v>449</v>
       </c>
       <c r="I16" s="5">
-        <v>45554</v>
+        <v>45562</v>
       </c>
       <c r="J16" s="5"/>
       <c r="K16" s="4"/>
     </row>
     <row r="17" spans="1:11" ht="20" customHeight="1">
       <c r="A17" s="6">
-        <v>1330</v>
+        <v>1054</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>480</v>
+        <v>306</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>481</v>
+        <v>307</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="14"/>
-      <c r="F17" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>405</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>410</v>
+      </c>
       <c r="G17" s="4" t="s">
-        <v>371</v>
+        <v>308</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="I17" s="5">
-        <v>45573</v>
-      </c>
-      <c r="J17" s="5"/>
+        <v>45527</v>
+      </c>
+      <c r="J17" s="5">
+        <v>45547</v>
+      </c>
       <c r="K17" s="4"/>
     </row>
     <row r="18" spans="1:11" ht="20" customHeight="1">
       <c r="A18" s="6">
-        <v>1363</v>
+        <v>1144</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>452</v>
+        <v>432</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>453</v>
+        <v>433</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E18" s="14"/>
-      <c r="F18" s="4" t="s">
-        <v>427</v>
-      </c>
+      <c r="F18" s="4"/>
       <c r="G18" s="4" t="s">
         <v>371</v>
       </c>
@@ -7728,63 +7856,57 @@
         <v>43</v>
       </c>
       <c r="I18" s="5">
-        <v>45563</v>
-      </c>
-      <c r="J18" s="5">
-        <v>45567</v>
-      </c>
+        <v>45554</v>
+      </c>
+      <c r="J18" s="5"/>
       <c r="K18" s="4"/>
     </row>
     <row r="19" spans="1:11" ht="20" customHeight="1">
       <c r="A19" s="6">
-        <v>1481</v>
+        <v>1330</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>425</v>
+        <v>480</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>426</v>
+        <v>481</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E19" s="14"/>
-      <c r="F19" s="4" t="s">
-        <v>427</v>
-      </c>
+      <c r="F19" s="4"/>
       <c r="G19" s="4" t="s">
         <v>371</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="I19" s="5">
-        <v>45550</v>
+        <v>45573</v>
       </c>
       <c r="J19" s="5"/>
       <c r="K19" s="4"/>
     </row>
     <row r="20" spans="1:11" ht="20" customHeight="1">
       <c r="A20" s="6">
-        <v>1713</v>
+        <v>1363</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="14" t="s">
-        <v>436</v>
-      </c>
+      <c r="E20" s="14"/>
       <c r="F20" s="4" t="s">
-        <v>266</v>
+        <v>427</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>308</v>
+        <v>371</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>43</v>
@@ -7792,137 +7914,201 @@
       <c r="I20" s="5">
         <v>45563</v>
       </c>
-      <c r="J20" s="5"/>
+      <c r="J20" s="5">
+        <v>45567</v>
+      </c>
       <c r="K20" s="4"/>
     </row>
-    <row r="21" spans="1:11" ht="30" customHeight="1">
+    <row r="21" spans="1:11" ht="20" customHeight="1">
       <c r="A21" s="6">
-        <v>2202</v>
+        <v>1481</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>460</v>
+        <v>425</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>461</v>
+        <v>426</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="14" t="s">
-        <v>462</v>
-      </c>
-      <c r="F21" s="4"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="4" t="s">
+        <v>427</v>
+      </c>
       <c r="G21" s="4" t="s">
-        <v>254</v>
+        <v>371</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="I21" s="5">
-        <v>45568</v>
+        <v>45550</v>
       </c>
       <c r="J21" s="5"/>
       <c r="K21" s="4"/>
     </row>
-    <row r="22" spans="1:11" ht="30" customHeight="1">
+    <row r="22" spans="1:11" ht="20" customHeight="1">
       <c r="A22" s="6">
-        <v>2208</v>
+        <v>1713</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>403</v>
+        <v>457</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>406</v>
+        <v>436</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>412</v>
+        <v>266</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>404</v>
+        <v>308</v>
       </c>
       <c r="H22" s="4" t="s">
         <v>43</v>
       </c>
       <c r="I22" s="5">
-        <v>45548</v>
+        <v>45563</v>
       </c>
       <c r="J22" s="5"/>
       <c r="K22" s="4"/>
     </row>
     <row r="23" spans="1:11" ht="30" customHeight="1">
       <c r="A23" s="6">
-        <v>2412</v>
+        <v>2202</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>496</v>
+        <v>460</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>497</v>
+        <v>461</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>498</v>
+        <v>462</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4" t="s">
-        <v>371</v>
+        <v>254</v>
       </c>
       <c r="H23" s="4" t="s">
         <v>28</v>
       </c>
       <c r="I23" s="5">
-        <v>45579</v>
+        <v>45568</v>
       </c>
       <c r="J23" s="5"/>
       <c r="K23" s="4"/>
     </row>
+    <row r="24" spans="1:11" ht="30" customHeight="1">
+      <c r="A24" s="6">
+        <v>2208</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>406</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I24" s="5">
+        <v>45548</v>
+      </c>
+      <c r="J24" s="5"/>
+      <c r="K24" s="4"/>
+    </row>
+    <row r="25" spans="1:11" ht="30" customHeight="1">
+      <c r="A25" s="6">
+        <v>2412</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>497</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>498</v>
+      </c>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I25" s="5">
+        <v>45579</v>
+      </c>
+      <c r="J25" s="5"/>
+      <c r="K25" s="4"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D2:E23">
-    <cfRule type="expression" dxfId="41" priority="10">
+  <conditionalFormatting sqref="D2:E25">
+    <cfRule type="expression" dxfId="41" priority="1">
       <formula>D2="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="11">
+    <cfRule type="expression" dxfId="40" priority="2">
       <formula>D2="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="12">
+    <cfRule type="expression" dxfId="39" priority="3">
       <formula>D2="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{004AD8D0-6240-7843-A49E-26386D6F4B8B}"/>
-    <hyperlink ref="C5" r:id="rId2" xr:uid="{36C30514-0199-314C-B206-B46F26E6E895}"/>
-    <hyperlink ref="C15" r:id="rId3" xr:uid="{A61EDB76-3F1B-FA4B-A484-FF203AB7B891}"/>
-    <hyperlink ref="C7" r:id="rId4" xr:uid="{14F26B79-16C3-8A42-AA1C-424413893725}"/>
-    <hyperlink ref="C22" r:id="rId5" xr:uid="{532B70B2-4EA8-D54B-9765-F0F8FB4A7228}"/>
-    <hyperlink ref="C12" r:id="rId6" xr:uid="{E0EF768C-A209-C344-A308-201CBA67EFDA}"/>
-    <hyperlink ref="C19" r:id="rId7" xr:uid="{98E20983-FDF7-AC45-A77E-381E42FA3D7E}"/>
-    <hyperlink ref="C4" r:id="rId8" xr:uid="{93109F7A-39AF-394A-8F0E-7C9872B616F2}"/>
-    <hyperlink ref="C16" r:id="rId9" xr:uid="{C5BC2EF5-2492-454F-9C71-DDEE7A2E3E98}"/>
-    <hyperlink ref="C3" r:id="rId10" xr:uid="{74E3D31C-3C7B-114C-841C-89AAD24C4905}"/>
-    <hyperlink ref="C6" r:id="rId11" xr:uid="{D875700A-1982-114A-850F-70F5E48D0F4B}"/>
-    <hyperlink ref="C8" r:id="rId12" xr:uid="{9392A3C9-D54A-AE4D-96F7-7AF2F273D177}"/>
-    <hyperlink ref="C9" r:id="rId13" xr:uid="{D1A42B51-B36E-E640-B035-BA6DA18FBA31}"/>
-    <hyperlink ref="C11" r:id="rId14" xr:uid="{200A1572-C064-7B45-8135-A89DFAE16BF8}"/>
-    <hyperlink ref="C14" r:id="rId15" xr:uid="{1C03B438-9BDB-D34F-BD78-ED5E5562BF65}"/>
-    <hyperlink ref="C18" r:id="rId16" xr:uid="{C01F0CDD-3830-7E4F-BA4D-F73C5F99952F}"/>
-    <hyperlink ref="C13" r:id="rId17" xr:uid="{AD3FCB87-A1B2-2A49-8380-673BAAF1CB03}"/>
-    <hyperlink ref="C20" r:id="rId18" xr:uid="{78660B06-7405-C049-A32B-24A1D90AF311}"/>
-    <hyperlink ref="C21" r:id="rId19" xr:uid="{A4D38E4E-BEF9-7E4B-91E4-A344DBE2326F}"/>
-    <hyperlink ref="C10" r:id="rId20" xr:uid="{3085500C-981B-3640-9778-9E0E68921A9C}"/>
-    <hyperlink ref="C17" r:id="rId21" xr:uid="{DE2E7DCF-21D8-D143-8908-D8983E22C6CE}"/>
-    <hyperlink ref="C23" r:id="rId22" xr:uid="{9AC74D56-847A-8E49-8395-F3EDA6951CF6}"/>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{004AD8D0-6240-7843-A49E-26386D6F4B8B}"/>
+    <hyperlink ref="C7" r:id="rId2" xr:uid="{36C30514-0199-314C-B206-B46F26E6E895}"/>
+    <hyperlink ref="C17" r:id="rId3" xr:uid="{A61EDB76-3F1B-FA4B-A484-FF203AB7B891}"/>
+    <hyperlink ref="C9" r:id="rId4" xr:uid="{14F26B79-16C3-8A42-AA1C-424413893725}"/>
+    <hyperlink ref="C24" r:id="rId5" xr:uid="{532B70B2-4EA8-D54B-9765-F0F8FB4A7228}"/>
+    <hyperlink ref="C14" r:id="rId6" xr:uid="{E0EF768C-A209-C344-A308-201CBA67EFDA}"/>
+    <hyperlink ref="C21" r:id="rId7" xr:uid="{98E20983-FDF7-AC45-A77E-381E42FA3D7E}"/>
+    <hyperlink ref="C6" r:id="rId8" xr:uid="{93109F7A-39AF-394A-8F0E-7C9872B616F2}"/>
+    <hyperlink ref="C18" r:id="rId9" xr:uid="{C5BC2EF5-2492-454F-9C71-DDEE7A2E3E98}"/>
+    <hyperlink ref="C5" r:id="rId10" xr:uid="{74E3D31C-3C7B-114C-841C-89AAD24C4905}"/>
+    <hyperlink ref="C8" r:id="rId11" xr:uid="{D875700A-1982-114A-850F-70F5E48D0F4B}"/>
+    <hyperlink ref="C10" r:id="rId12" xr:uid="{9392A3C9-D54A-AE4D-96F7-7AF2F273D177}"/>
+    <hyperlink ref="C11" r:id="rId13" xr:uid="{D1A42B51-B36E-E640-B035-BA6DA18FBA31}"/>
+    <hyperlink ref="C13" r:id="rId14" xr:uid="{200A1572-C064-7B45-8135-A89DFAE16BF8}"/>
+    <hyperlink ref="C16" r:id="rId15" xr:uid="{1C03B438-9BDB-D34F-BD78-ED5E5562BF65}"/>
+    <hyperlink ref="C20" r:id="rId16" xr:uid="{C01F0CDD-3830-7E4F-BA4D-F73C5F99952F}"/>
+    <hyperlink ref="C15" r:id="rId17" xr:uid="{AD3FCB87-A1B2-2A49-8380-673BAAF1CB03}"/>
+    <hyperlink ref="C22" r:id="rId18" xr:uid="{78660B06-7405-C049-A32B-24A1D90AF311}"/>
+    <hyperlink ref="C23" r:id="rId19" xr:uid="{A4D38E4E-BEF9-7E4B-91E4-A344DBE2326F}"/>
+    <hyperlink ref="C12" r:id="rId20" xr:uid="{3085500C-981B-3640-9778-9E0E68921A9C}"/>
+    <hyperlink ref="C19" r:id="rId21" xr:uid="{DE2E7DCF-21D8-D143-8908-D8983E22C6CE}"/>
+    <hyperlink ref="C25" r:id="rId22" xr:uid="{9AC74D56-847A-8E49-8395-F3EDA6951CF6}"/>
+    <hyperlink ref="C2" r:id="rId23" xr:uid="{512555DE-01FC-764A-874E-C6318126BC23}"/>
+    <hyperlink ref="C3" r:id="rId24" xr:uid="{465E1A74-E304-6048-BCD7-D1C3916B0A9B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId23"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId25"/>
   <headerFooter>
     <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 General</oddFooter>
   </headerFooter>

--- a/LeetCode Techniques.xlsx
+++ b/LeetCode Techniques.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/blackjack625/Desktop/LeetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C77313CE-3B5C-384E-8DB1-E832EB5FB6FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B45C15-1683-4B49-AB29-DA25E4252279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16460" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DP" sheetId="8" r:id="rId1"/>
@@ -30,6 +30,7 @@
     <sheet name="Recursion" sheetId="5" r:id="rId15"/>
     <sheet name="Sliding Window" sheetId="2" r:id="rId16"/>
     <sheet name="Set Maneuver" sheetId="3" r:id="rId17"/>
+    <sheet name="Backtracking" sheetId="18" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="534">
   <si>
     <t>Name</t>
   </si>
@@ -2127,6 +2128,59 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/maximum-subarray-min-product/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Generate Parentheses</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/generate-parentheses/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Permutations</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/permutations/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O(n!)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number of Visible People in a Queue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/number-of-visible-people-in-a-queue/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Backward iteration.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Odd Even Jump</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/odd-even-jump/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Minimum Number of Removals to Make Mountain Array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/minimum-number-of-removals-to-make-mountain-array/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Find forward &amp; backward LISs.
+Compare common indices; if not, track common subseq max num.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2310,7 +2364,67 @@
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="54">
+  <dxfs count="60">
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFFFF00"/>
@@ -3151,7 +3265,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23E6E9DF-BEE0-B544-8910-7DDC3380F4B7}">
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -3783,135 +3897,133 @@
     </row>
     <row r="22" spans="1:11" ht="20" customHeight="1">
       <c r="A22" s="4">
-        <v>1220</v>
+        <v>975</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>209</v>
+        <v>529</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>210</v>
+        <v>530</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="6"/>
-      <c r="F22" s="4"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="4" t="s">
+        <v>266</v>
+      </c>
       <c r="G22" s="4" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="I22" s="5">
-        <v>45504</v>
+        <v>45584</v>
       </c>
       <c r="J22" s="5"/>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="1:11" ht="30" customHeight="1">
+    <row r="23" spans="1:11" ht="20" customHeight="1">
       <c r="A23" s="4">
-        <v>1289</v>
+        <v>1220</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>149</v>
+        <v>209</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E23" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>151</v>
-      </c>
+      <c r="E23" s="6"/>
+      <c r="F23" s="4"/>
       <c r="G23" s="4" t="s">
-        <v>152</v>
+        <v>43</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="I23" s="5">
-        <v>45496</v>
+        <v>45504</v>
       </c>
       <c r="J23" s="5"/>
       <c r="K23" s="4"/>
     </row>
-    <row r="24" spans="1:11" ht="20" customHeight="1">
+    <row r="24" spans="1:11" ht="30" customHeight="1">
       <c r="A24" s="4">
-        <v>1301</v>
+        <v>1289</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>199</v>
+        <v>149</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="6"/>
-      <c r="F24" s="4"/>
+      <c r="E24" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>151</v>
+      </c>
       <c r="G24" s="4" t="s">
         <v>152</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>177</v>
+        <v>11</v>
       </c>
       <c r="I24" s="5">
-        <v>45497</v>
+        <v>45496</v>
       </c>
       <c r="J24" s="5"/>
       <c r="K24" s="4"/>
     </row>
     <row r="25" spans="1:11" ht="20" customHeight="1">
       <c r="A25" s="4">
-        <v>1359</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>213</v>
+        <v>1301</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>199</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4" t="s">
-        <v>43</v>
+        <v>152</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>43</v>
+        <v>177</v>
       </c>
       <c r="I25" s="5">
-        <v>45498</v>
+        <v>45497</v>
       </c>
       <c r="J25" s="5"/>
       <c r="K25" s="4"/>
     </row>
-    <row r="26" spans="1:11" ht="30" customHeight="1">
+    <row r="26" spans="1:11" ht="20" customHeight="1">
       <c r="A26" s="4">
-        <v>1373</v>
+        <v>1359</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>203</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="E26" s="6"/>
+      <c r="F26" s="4"/>
       <c r="G26" s="4" t="s">
         <v>43</v>
       </c>
@@ -3919,81 +4031,112 @@
         <v>43</v>
       </c>
       <c r="I26" s="5">
-        <v>45499</v>
+        <v>45498</v>
       </c>
       <c r="J26" s="5"/>
       <c r="K26" s="4"/>
     </row>
     <row r="27" spans="1:11" ht="30" customHeight="1">
       <c r="A27" s="4">
-        <v>1425</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>255</v>
+        <v>1373</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>201</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>256</v>
+        <v>204</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="14" t="s">
-        <v>258</v>
+      <c r="E27" s="12" t="s">
+        <v>202</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>257</v>
+        <v>203</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="I27" s="5">
-        <v>45517</v>
+        <v>45499</v>
       </c>
       <c r="J27" s="5"/>
       <c r="K27" s="4"/>
     </row>
-    <row r="28" spans="1:11" ht="20" customHeight="1">
+    <row r="28" spans="1:11" ht="30" customHeight="1">
       <c r="A28" s="4">
-        <v>1449</v>
+        <v>1425</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>205</v>
+        <v>255</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>206</v>
+        <v>256</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E28" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="F28" s="4"/>
+      <c r="E28" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>257</v>
+      </c>
       <c r="G28" s="4" t="s">
-        <v>207</v>
+        <v>11</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>181</v>
+        <v>11</v>
       </c>
       <c r="I28" s="5">
-        <v>45502</v>
+        <v>45517</v>
       </c>
       <c r="J28" s="5"/>
       <c r="K28" s="4"/>
     </row>
+    <row r="29" spans="1:11" ht="20" customHeight="1">
+      <c r="A29" s="4">
+        <v>1449</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="I29" s="5">
+        <v>45502</v>
+      </c>
+      <c r="J29" s="5"/>
+      <c r="K29" s="4"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D2:D28">
-    <cfRule type="expression" dxfId="53" priority="1">
+  <conditionalFormatting sqref="D2:D29">
+    <cfRule type="expression" dxfId="59" priority="1">
       <formula>D2="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="2">
+    <cfRule type="expression" dxfId="58" priority="2">
       <formula>D2="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="3">
+    <cfRule type="expression" dxfId="57" priority="3">
       <formula>D2="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4008,7 +4151,7 @@
     <hyperlink ref="C2" r:id="rId8" xr:uid="{11FB62CE-95A4-8149-A0D0-EC80907AD300}"/>
     <hyperlink ref="C8" r:id="rId9" xr:uid="{D0C86F76-90D0-4847-AD9B-8F8B4200A39D}"/>
     <hyperlink ref="C15" r:id="rId10" xr:uid="{9CABBCEF-20B6-4261-A1F0-3D8011645ACB}"/>
-    <hyperlink ref="C23" r:id="rId11" xr:uid="{89251C52-1FFE-4F42-9EB3-8442B0C4B630}"/>
+    <hyperlink ref="C24" r:id="rId11" xr:uid="{89251C52-1FFE-4F42-9EB3-8442B0C4B630}"/>
     <hyperlink ref="C21" r:id="rId12" xr:uid="{32767AED-4FD4-4A42-A276-7043683514E1}"/>
     <hyperlink ref="C14" r:id="rId13" xr:uid="{05186EE2-9933-4BE1-8003-0B7A411907D0}"/>
     <hyperlink ref="C18" r:id="rId14" xr:uid="{BF5BA59B-B251-4DEC-9C8D-5AF88F2281BB}"/>
@@ -4016,17 +4159,18 @@
     <hyperlink ref="C16" r:id="rId16" xr:uid="{0906CA71-0A65-43B6-A42E-14BED96A9744}"/>
     <hyperlink ref="C17" r:id="rId17" xr:uid="{8BAD1FAB-01D5-4562-993F-1DD3EF213075}"/>
     <hyperlink ref="C19" r:id="rId18" xr:uid="{7B8F3DB0-2F77-A645-96D2-D8D7373AA08F}"/>
-    <hyperlink ref="C24" r:id="rId19" xr:uid="{A8721EF3-38EC-45F1-966B-2754E800B084}"/>
-    <hyperlink ref="C26" r:id="rId20" xr:uid="{8538BB7C-5920-4573-ACF3-9E5A3F8356EF}"/>
-    <hyperlink ref="C28" r:id="rId21" xr:uid="{15C88B36-121F-4FD6-99BF-A4A05C219395}"/>
-    <hyperlink ref="C22" r:id="rId22" xr:uid="{C753C826-C084-4CE0-A98B-D6F7D77849C9}"/>
-    <hyperlink ref="C27" r:id="rId23" xr:uid="{D3D42ECA-07B2-554F-9699-3ACBB4D8F39C}"/>
+    <hyperlink ref="C25" r:id="rId19" xr:uid="{A8721EF3-38EC-45F1-966B-2754E800B084}"/>
+    <hyperlink ref="C27" r:id="rId20" xr:uid="{8538BB7C-5920-4573-ACF3-9E5A3F8356EF}"/>
+    <hyperlink ref="C29" r:id="rId21" xr:uid="{15C88B36-121F-4FD6-99BF-A4A05C219395}"/>
+    <hyperlink ref="C23" r:id="rId22" xr:uid="{C753C826-C084-4CE0-A98B-D6F7D77849C9}"/>
+    <hyperlink ref="C28" r:id="rId23" xr:uid="{D3D42ECA-07B2-554F-9699-3ACBB4D8F39C}"/>
     <hyperlink ref="C11" r:id="rId24" xr:uid="{9521D88F-4126-2E4E-AA6D-DF18E5D00371}"/>
     <hyperlink ref="C13" r:id="rId25" xr:uid="{1A6DD940-5CEB-DD44-B437-2B0BAFD42AB3}"/>
     <hyperlink ref="C20" r:id="rId26" xr:uid="{8F9A7D8B-CAEC-994F-B6F1-019059EBFCF5}"/>
+    <hyperlink ref="C22" r:id="rId27" xr:uid="{6A24B4AB-0C11-C744-BF09-255E182E5991}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId27"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId28"/>
   <headerFooter>
     <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 General</oddFooter>
   </headerFooter>
@@ -4035,14 +4179,14 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BC7A267-6069-4E38-AC2F-0C28241496B0}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="36" customWidth="1"/>
+    <col min="2" max="2" width="38.59765625" customWidth="1"/>
     <col min="3" max="3" width="35.796875" style="11" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="41" customWidth="1"/>
@@ -4174,58 +4318,88 @@
       <c r="J4" s="5"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:11" ht="30" customHeight="1">
+    <row r="5" spans="1:11" ht="20" customHeight="1">
       <c r="A5" s="6">
-        <v>2454</v>
+        <v>1944</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>195</v>
+        <v>526</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>196</v>
+        <v>527</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>214</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>151</v>
-      </c>
+        <v>528</v>
+      </c>
+      <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>197</v>
+        <v>11</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>43</v>
       </c>
       <c r="I5" s="5">
-        <v>45505</v>
+        <v>45584</v>
       </c>
       <c r="J5" s="5"/>
       <c r="K5" s="4"/>
     </row>
+    <row r="6" spans="1:11" ht="30" customHeight="1">
+      <c r="A6" s="6">
+        <v>2454</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" s="5">
+        <v>45505</v>
+      </c>
+      <c r="J6" s="5"/>
+      <c r="K6" s="4"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D2:D5">
-    <cfRule type="expression" dxfId="26" priority="1">
+  <conditionalFormatting sqref="D2:D6">
+    <cfRule type="expression" dxfId="32" priority="1">
       <formula>D2="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="2">
+    <cfRule type="expression" dxfId="31" priority="2">
       <formula>D2="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="3">
+    <cfRule type="expression" dxfId="30" priority="3">
       <formula>D2="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1" xr:uid="{2A05BB37-BC02-459B-AC3A-04B564121776}"/>
+    <hyperlink ref="C6" r:id="rId1" xr:uid="{2A05BB37-BC02-459B-AC3A-04B564121776}"/>
     <hyperlink ref="C3" r:id="rId2" xr:uid="{06DB2703-F6E1-40EC-B489-AF23524010D7}"/>
     <hyperlink ref="C2" r:id="rId3" xr:uid="{97AD58DC-D294-479E-8558-0A9E71B6BB4E}"/>
     <hyperlink ref="C4" r:id="rId4" xr:uid="{AFCD87A0-8BF8-A349-B733-92E0A2103375}"/>
+    <hyperlink ref="C5" r:id="rId5" xr:uid="{E1E0C481-0A8C-4844-BD63-0DA69D8C19CB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId6"/>
   <headerFooter>
     <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 General</oddFooter>
   </headerFooter>
@@ -4404,13 +4578,13 @@
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
   <conditionalFormatting sqref="D2:D5">
-    <cfRule type="expression" dxfId="23" priority="1">
+    <cfRule type="expression" dxfId="29" priority="1">
       <formula>D2="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="2">
+    <cfRule type="expression" dxfId="28" priority="2">
       <formula>D2="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="3">
+    <cfRule type="expression" dxfId="27" priority="3">
       <formula>D2="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4628,13 +4802,13 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2:E6">
-    <cfRule type="expression" dxfId="20" priority="4">
+    <cfRule type="expression" dxfId="26" priority="4">
       <formula>D2="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="5">
+    <cfRule type="expression" dxfId="25" priority="5">
       <formula>D2="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="6">
+    <cfRule type="expression" dxfId="24" priority="6">
       <formula>D2="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4825,13 +4999,13 @@
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
   <conditionalFormatting sqref="D2:D5">
-    <cfRule type="expression" dxfId="17" priority="1">
+    <cfRule type="expression" dxfId="23" priority="1">
       <formula>D2="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="2">
+    <cfRule type="expression" dxfId="22" priority="2">
       <formula>D2="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="3">
+    <cfRule type="expression" dxfId="21" priority="3">
       <formula>D2="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5162,13 +5336,13 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2:D10">
-    <cfRule type="expression" dxfId="14" priority="1">
+    <cfRule type="expression" dxfId="20" priority="1">
       <formula>D2="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="2">
+    <cfRule type="expression" dxfId="19" priority="2">
       <formula>D2="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="3">
+    <cfRule type="expression" dxfId="18" priority="3">
       <formula>D2="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5330,13 +5504,13 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2:D4">
-    <cfRule type="expression" dxfId="11" priority="1">
+    <cfRule type="expression" dxfId="17" priority="1">
       <formula>D2="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="2">
+    <cfRule type="expression" dxfId="16" priority="2">
       <formula>D2="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="3">
+    <cfRule type="expression" dxfId="15" priority="3">
       <formula>D2="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5469,13 +5643,13 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2:D3">
-    <cfRule type="expression" dxfId="8" priority="1">
+    <cfRule type="expression" dxfId="14" priority="1">
       <formula>D2="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="2">
+    <cfRule type="expression" dxfId="13" priority="2">
       <formula>D2="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="3">
+    <cfRule type="expression" dxfId="12" priority="3">
       <formula>D2="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5631,24 +5805,24 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="11" priority="1">
       <formula>D2="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="10" priority="2">
       <formula>D2="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="9" priority="3">
       <formula>D2="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:E4">
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="8" priority="4">
       <formula>D3="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="5">
+    <cfRule type="expression" dxfId="7" priority="5">
       <formula>D3="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="6">
+    <cfRule type="expression" dxfId="6" priority="6">
       <formula>D3="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5665,11 +5839,154 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70CD7FA0-D7E9-8D4E-8B54-719FE56E426E}">
+  <dimension ref="A1:K3"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="28.59765625" customWidth="1"/>
+    <col min="3" max="3" width="65.796875" style="11" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="8" width="21" customWidth="1"/>
+    <col min="9" max="9" width="18.59765625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="20" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="20" customHeight="1">
+      <c r="A2" s="4">
+        <v>22</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>522</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="I2" s="5">
+        <v>45419</v>
+      </c>
+      <c r="J2" s="5"/>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="1:11" ht="20" customHeight="1">
+      <c r="A3" s="4">
+        <v>46</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>524</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="I3" s="5">
+        <v>45582</v>
+      </c>
+      <c r="J3" s="5"/>
+      <c r="K3" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="D2">
+    <cfRule type="expression" dxfId="5" priority="1">
+      <formula>D2="Easy"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="2">
+      <formula>D2="Medium"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>D2="Hard"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:E3">
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>D3="Easy"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="5">
+      <formula>D3="Medium"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="6">
+      <formula>D3="Hard"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{B5EE4B8B-6C32-2445-BE61-987F334061E9}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{58EE98E2-711E-EC4A-8E32-ACA71086FA82}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId3"/>
+  <headerFooter>
+    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 General</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
@@ -5679,7 +5996,8 @@
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
     <col min="6" max="8" width="21" customWidth="1"/>
-    <col min="9" max="10" width="16" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.59765625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16" style="1" customWidth="1"/>
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6215,47 +6533,49 @@
       </c>
       <c r="K18" s="4"/>
     </row>
-    <row r="19" spans="1:11" ht="20" customHeight="1">
+    <row r="19" spans="1:11" ht="45" customHeight="1">
       <c r="A19" s="4">
-        <v>1825</v>
+        <v>1671</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>32</v>
+        <v>531</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>33</v>
+        <v>532</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="4"/>
+        <v>57</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>533</v>
+      </c>
       <c r="F19" s="4" t="s">
-        <v>34</v>
+        <v>323</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I19" s="5">
-        <v>45400</v>
+        <v>45585</v>
       </c>
       <c r="J19" s="5"/>
       <c r="K19" s="4"/>
     </row>
     <row r="20" spans="1:11" ht="20" customHeight="1">
       <c r="A20" s="4">
-        <v>2034</v>
+        <v>1825</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4" t="s">
@@ -6275,16 +6595,16 @@
     </row>
     <row r="21" spans="1:11" ht="20" customHeight="1">
       <c r="A21" s="4">
-        <v>2102</v>
+        <v>2034</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4" t="s">
@@ -6297,26 +6617,55 @@
         <v>11</v>
       </c>
       <c r="I21" s="5">
+        <v>45400</v>
+      </c>
+      <c r="J21" s="5"/>
+      <c r="K21" s="4"/>
+    </row>
+    <row r="22" spans="1:11" ht="20" customHeight="1">
+      <c r="A22" s="4">
+        <v>2102</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I22" s="5">
         <v>45420</v>
       </c>
-      <c r="J21" s="5">
+      <c r="J22" s="5">
         <v>45549</v>
       </c>
-      <c r="K21" s="4"/>
+      <c r="K22" s="4"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:K21">
-    <sortCondition ref="A4:A21"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:K22">
+    <sortCondition ref="A4:A22"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D2:E21">
-    <cfRule type="expression" dxfId="50" priority="1">
+  <conditionalFormatting sqref="D2:E22">
+    <cfRule type="expression" dxfId="56" priority="1">
       <formula>D2="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="2">
+    <cfRule type="expression" dxfId="55" priority="2">
       <formula>D2="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="3">
+    <cfRule type="expression" dxfId="54" priority="3">
       <formula>D2="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6324,11 +6673,11 @@
     <hyperlink ref="C11" r:id="rId1" xr:uid="{98DA09B4-ED1E-9841-BFC0-AD6132AF476B}"/>
     <hyperlink ref="C13" r:id="rId2" xr:uid="{355AB06F-F372-E64C-BB34-3D68811E6B00}"/>
     <hyperlink ref="C8" r:id="rId3" xr:uid="{A97C1B49-93D0-D74A-BF3C-F925EFE9FD83}"/>
-    <hyperlink ref="C21" r:id="rId4" xr:uid="{4C375694-D494-514B-B747-D72CA94420E6}"/>
-    <hyperlink ref="C20" r:id="rId5" xr:uid="{5E8F7E04-6349-4D42-B16F-92BF0082A8EC}"/>
+    <hyperlink ref="C22" r:id="rId4" xr:uid="{4C375694-D494-514B-B747-D72CA94420E6}"/>
+    <hyperlink ref="C21" r:id="rId5" xr:uid="{5E8F7E04-6349-4D42-B16F-92BF0082A8EC}"/>
     <hyperlink ref="C7" r:id="rId6" xr:uid="{C06E2E2A-F9EA-2C41-A2A2-0110BB4FE089}"/>
     <hyperlink ref="C12" r:id="rId7" xr:uid="{88F29B63-471E-1745-ABA5-15B0EE490696}"/>
-    <hyperlink ref="C19" r:id="rId8" xr:uid="{77B0B942-637D-9846-B52B-162446D656B7}"/>
+    <hyperlink ref="C20" r:id="rId8" xr:uid="{77B0B942-637D-9846-B52B-162446D656B7}"/>
     <hyperlink ref="C4" r:id="rId9" xr:uid="{FC6DC5BC-3B79-3A47-AD69-9FD63EE06424}"/>
     <hyperlink ref="C9" r:id="rId10" xr:uid="{82F4789C-38A4-1A4D-BA41-951136E51502}"/>
     <hyperlink ref="C16" r:id="rId11" xr:uid="{87D58C84-2A2E-5243-AD6C-F126296F2572}"/>
@@ -6340,9 +6689,10 @@
     <hyperlink ref="C5" r:id="rId17" xr:uid="{3B2F49D0-E28E-A143-839B-1971A2BC7451}"/>
     <hyperlink ref="C10" r:id="rId18" xr:uid="{45F4022B-0E15-094E-B925-98BE2F089865}"/>
     <hyperlink ref="C14" r:id="rId19" xr:uid="{C72F48BD-300B-8848-BF83-A1A70BB482EA}"/>
+    <hyperlink ref="C19" r:id="rId20" xr:uid="{39BCE48B-6C2D-804D-AE31-53422B7B60D5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId20"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId21"/>
   <headerFooter>
     <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 General</oddFooter>
   </headerFooter>
@@ -6912,13 +7262,13 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2:D19">
-    <cfRule type="expression" dxfId="47" priority="10">
+    <cfRule type="expression" dxfId="53" priority="10">
       <formula>D2="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="11">
+    <cfRule type="expression" dxfId="52" priority="11">
       <formula>D2="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="12">
+    <cfRule type="expression" dxfId="51" priority="12">
       <formula>D2="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7269,13 +7619,13 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2:E10">
-    <cfRule type="expression" dxfId="44" priority="7">
+    <cfRule type="expression" dxfId="50" priority="7">
       <formula>D2="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="8">
+    <cfRule type="expression" dxfId="49" priority="8">
       <formula>D2="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="9">
+    <cfRule type="expression" dxfId="48" priority="9">
       <formula>D2="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8071,13 +8421,13 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2:E25">
-    <cfRule type="expression" dxfId="41" priority="1">
+    <cfRule type="expression" dxfId="47" priority="1">
       <formula>D2="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="2">
+    <cfRule type="expression" dxfId="46" priority="2">
       <formula>D2="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="3">
+    <cfRule type="expression" dxfId="45" priority="3">
       <formula>D2="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8522,13 +8872,13 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2:E13">
-    <cfRule type="expression" dxfId="38" priority="1">
+    <cfRule type="expression" dxfId="44" priority="1">
       <formula>D2="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="2">
+    <cfRule type="expression" dxfId="43" priority="2">
       <formula>D2="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="3">
+    <cfRule type="expression" dxfId="42" priority="3">
       <formula>D2="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8935,13 +9285,13 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2:D12">
-    <cfRule type="expression" dxfId="35" priority="1">
+    <cfRule type="expression" dxfId="41" priority="1">
       <formula>D2="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="2">
+    <cfRule type="expression" dxfId="40" priority="2">
       <formula>D2="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="3">
+    <cfRule type="expression" dxfId="39" priority="3">
       <formula>D2="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9387,13 +9737,13 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2:D14">
-    <cfRule type="expression" dxfId="32" priority="1">
+    <cfRule type="expression" dxfId="38" priority="1">
       <formula>D2="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="2">
+    <cfRule type="expression" dxfId="37" priority="2">
       <formula>D2="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="3">
+    <cfRule type="expression" dxfId="36" priority="3">
       <formula>D2="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9938,13 +10288,13 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2:D17">
-    <cfRule type="expression" dxfId="29" priority="1">
+    <cfRule type="expression" dxfId="35" priority="1">
       <formula>D2="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="2">
+    <cfRule type="expression" dxfId="34" priority="2">
       <formula>D2="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="3">
+    <cfRule type="expression" dxfId="33" priority="3">
       <formula>D2="Hard"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/LeetCode Techniques.xlsx
+++ b/LeetCode Techniques.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/blackjack625/Desktop/LeetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B45C15-1683-4B49-AB29-DA25E4252279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DE598B7-5C76-5346-B25E-F2D4004FB1AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DP" sheetId="8" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1326" uniqueCount="549">
   <si>
     <t>Name</t>
   </si>
@@ -2181,6 +2181,67 @@
   <si>
     <t>Find forward &amp; backward LISs.
 Compare common indices; if not, track common subseq max num.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total Appeal of A String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/total-appeal-of-a-string/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Find the Median of the Uniqueness Array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-the-median-of-the-uniqueness-array/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Binary Search, Hash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maximize Consecutive Elements in an Array After Modification</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximize-consecutive-elements-in-an-array-after-modification/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Non-negative Integers without Consecutive Ones</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/non-negative-integers-without-consecutive-ones/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DP, Recursion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Count Subarrays With Median K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/count-subarrays-with-median-k/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maximum Segment Sum After Removals</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximum-segment-sum-after-removals/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heap, Hash,
+Binary Search</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3265,7 +3326,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23E6E9DF-BEE0-B544-8910-7DDC3380F4B7}">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -4127,9 +4188,38 @@
       <c r="J29" s="5"/>
       <c r="K29" s="4"/>
     </row>
+    <row r="30" spans="1:11" ht="20" customHeight="1">
+      <c r="A30" s="4">
+        <v>3041</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>540</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" s="13"/>
+      <c r="F30" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I30" s="5">
+        <v>45588</v>
+      </c>
+      <c r="J30" s="5"/>
+      <c r="K30" s="4"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D2:D29">
+  <conditionalFormatting sqref="D2:D30">
     <cfRule type="expression" dxfId="59" priority="1">
       <formula>D2="Easy"</formula>
     </cfRule>
@@ -4161,16 +4251,17 @@
     <hyperlink ref="C19" r:id="rId18" xr:uid="{7B8F3DB0-2F77-A645-96D2-D8D7373AA08F}"/>
     <hyperlink ref="C25" r:id="rId19" xr:uid="{A8721EF3-38EC-45F1-966B-2754E800B084}"/>
     <hyperlink ref="C27" r:id="rId20" xr:uid="{8538BB7C-5920-4573-ACF3-9E5A3F8356EF}"/>
-    <hyperlink ref="C29" r:id="rId21" xr:uid="{15C88B36-121F-4FD6-99BF-A4A05C219395}"/>
+    <hyperlink ref="C30" r:id="rId21" xr:uid="{15C88B36-121F-4FD6-99BF-A4A05C219395}"/>
     <hyperlink ref="C23" r:id="rId22" xr:uid="{C753C826-C084-4CE0-A98B-D6F7D77849C9}"/>
     <hyperlink ref="C28" r:id="rId23" xr:uid="{D3D42ECA-07B2-554F-9699-3ACBB4D8F39C}"/>
     <hyperlink ref="C11" r:id="rId24" xr:uid="{9521D88F-4126-2E4E-AA6D-DF18E5D00371}"/>
     <hyperlink ref="C13" r:id="rId25" xr:uid="{1A6DD940-5CEB-DD44-B437-2B0BAFD42AB3}"/>
     <hyperlink ref="C20" r:id="rId26" xr:uid="{8F9A7D8B-CAEC-994F-B6F1-019059EBFCF5}"/>
     <hyperlink ref="C22" r:id="rId27" xr:uid="{6A24B4AB-0C11-C744-BF09-255E182E5991}"/>
+    <hyperlink ref="C29" r:id="rId28" xr:uid="{186FB87D-9666-BD48-B8FE-CF1CE954276B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId28"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId29"/>
   <headerFooter>
     <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 General</oddFooter>
   </headerFooter>
@@ -5529,19 +5620,20 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96F16DFC-20ED-4148-9FB8-AA8D12910A09}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="36" customWidth="1"/>
+    <col min="2" max="2" width="41" customWidth="1"/>
     <col min="3" max="3" width="71" style="11" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
     <col min="6" max="8" width="21" customWidth="1"/>
-    <col min="9" max="10" width="16" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.59765625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16" style="1" customWidth="1"/>
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5640,9 +5732,38 @@
       <c r="J3" s="5"/>
       <c r="K3" s="4"/>
     </row>
+    <row r="4" spans="1:11" ht="20" customHeight="1">
+      <c r="A4" s="6">
+        <v>3134</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>536</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>537</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="14"/>
+      <c r="F4" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" s="5">
+        <v>45588</v>
+      </c>
+      <c r="J4" s="5"/>
+      <c r="K4" s="4"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D2:D3">
+  <conditionalFormatting sqref="D2:D4">
     <cfRule type="expression" dxfId="14" priority="1">
       <formula>D2="Easy"</formula>
     </cfRule>
@@ -5654,8 +5775,9 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{9AB7CAC7-D3F7-7C42-9B01-9C8E30C2049C}"/>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{9AB7CAC7-D3F7-7C42-9B01-9C8E30C2049C}"/>
     <hyperlink ref="C2" r:id="rId2" xr:uid="{51B1E98B-6F9A-B742-A2A2-169EB5D5F3D5}"/>
+    <hyperlink ref="C3" r:id="rId3" xr:uid="{A5B03EE0-2F9D-BE4E-AAA5-0A451D7B5A86}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
@@ -5986,7 +6108,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
@@ -6701,7 +6823,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD487089-E40B-1D42-B3C9-4A2FB14888DF}">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -7180,16 +7302,16 @@
     </row>
     <row r="17" spans="1:11" ht="20" customHeight="1">
       <c r="A17" s="4">
-        <v>2342</v>
+        <v>2262</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>407</v>
+        <v>534</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>408</v>
+        <v>535</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E17" s="14"/>
       <c r="F17" s="4"/>
@@ -7200,20 +7322,20 @@
         <v>43</v>
       </c>
       <c r="I17" s="5">
-        <v>45548</v>
+        <v>45587</v>
       </c>
       <c r="J17" s="5"/>
       <c r="K17" s="4"/>
     </row>
     <row r="18" spans="1:11" ht="20" customHeight="1">
       <c r="A18" s="4">
-        <v>2453</v>
+        <v>2342</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>239</v>
+        <v>407</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>240</v>
+        <v>408</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>10</v>
@@ -7227,20 +7349,20 @@
         <v>43</v>
       </c>
       <c r="I18" s="5">
-        <v>45389</v>
+        <v>45548</v>
       </c>
       <c r="J18" s="5"/>
       <c r="K18" s="4"/>
     </row>
     <row r="19" spans="1:11" ht="20" customHeight="1">
       <c r="A19" s="4">
-        <v>3039</v>
+        <v>2453</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>10</v>
@@ -7259,9 +7381,36 @@
       <c r="J19" s="5"/>
       <c r="K19" s="4"/>
     </row>
+    <row r="20" spans="1:11" ht="20" customHeight="1">
+      <c r="A20" s="4">
+        <v>3039</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="14"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I20" s="5">
+        <v>45389</v>
+      </c>
+      <c r="J20" s="5"/>
+      <c r="K20" s="4"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D2:D19">
+  <conditionalFormatting sqref="D2:D20">
     <cfRule type="expression" dxfId="53" priority="10">
       <formula>D2="Easy"</formula>
     </cfRule>
@@ -7280,8 +7429,8 @@
     <hyperlink ref="C3" r:id="rId5" xr:uid="{7FE8783F-F8EF-344A-A755-835CBA16F73C}"/>
     <hyperlink ref="C15" r:id="rId6" xr:uid="{DC085F9D-442E-D045-90AC-3FAED2B8D1E2}"/>
     <hyperlink ref="C4" r:id="rId7" xr:uid="{3E16B408-94FF-CC48-BA57-9E6F992C39F1}"/>
-    <hyperlink ref="C19" r:id="rId8" xr:uid="{A0B949A5-8B58-414A-B5CF-3DBFA646D04D}"/>
-    <hyperlink ref="C18" r:id="rId9" xr:uid="{E0F91AFC-4678-5C41-9B9D-2159274B2DAD}"/>
+    <hyperlink ref="C20" r:id="rId8" xr:uid="{A0B949A5-8B58-414A-B5CF-3DBFA646D04D}"/>
+    <hyperlink ref="C19" r:id="rId9" xr:uid="{E0F91AFC-4678-5C41-9B9D-2159274B2DAD}"/>
     <hyperlink ref="C9" r:id="rId10" xr:uid="{64705B96-1F5D-FB4F-847B-9D3471287B5F}"/>
     <hyperlink ref="C14" r:id="rId11" xr:uid="{E63FAF46-516A-410C-8493-9CC78C8D0570}"/>
     <hyperlink ref="C16" r:id="rId12" xr:uid="{186DAC56-ACE0-47B6-95EE-B3826BFE8C3E}"/>
@@ -7289,11 +7438,12 @@
     <hyperlink ref="C10" r:id="rId14" xr:uid="{F450FB77-315A-2840-94F7-D83EA8BE786B}"/>
     <hyperlink ref="C12" r:id="rId15" xr:uid="{3E6863E7-5E9D-6B42-8A7D-77876491307E}"/>
     <hyperlink ref="C11" r:id="rId16" xr:uid="{23474D8E-219F-EA4A-A06C-29BD85F51835}"/>
-    <hyperlink ref="C17" r:id="rId17" xr:uid="{DBB412D4-FEBA-DD49-8B40-0515DC96E4D6}"/>
+    <hyperlink ref="C18" r:id="rId17" xr:uid="{DBB412D4-FEBA-DD49-8B40-0515DC96E4D6}"/>
     <hyperlink ref="C8" r:id="rId18" xr:uid="{250BF39B-1E0B-EB44-BDC8-A82695FED156}"/>
+    <hyperlink ref="C17" r:id="rId19" xr:uid="{8DFFBFF9-002A-904B-90DF-50812ED31FEC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId19"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId20"/>
   <headerFooter>
     <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 General</oddFooter>
   </headerFooter>
@@ -8467,7 +8617,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED305095-EC1E-B844-B25D-94A4272C0C0B}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -8480,7 +8630,8 @@
     <col min="5" max="5" width="36" customWidth="1"/>
     <col min="6" max="6" width="18.59765625" customWidth="1"/>
     <col min="7" max="8" width="21" customWidth="1"/>
-    <col min="9" max="10" width="16" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.59765625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16" style="1" customWidth="1"/>
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8639,108 +8790,108 @@
     </row>
     <row r="6" spans="1:11" ht="20" customHeight="1">
       <c r="A6" s="4">
-        <v>1310</v>
+        <v>600</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>380</v>
+        <v>541</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>381</v>
+        <v>542</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>383</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E6" s="6"/>
       <c r="F6" s="4" t="s">
-        <v>382</v>
+        <v>543</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I6" s="5">
-        <v>45545</v>
+        <v>45590</v>
       </c>
       <c r="J6" s="5"/>
       <c r="K6" s="4"/>
     </row>
     <row r="7" spans="1:11" ht="20" customHeight="1">
       <c r="A7" s="4">
-        <v>1404</v>
+        <v>1310</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>332</v>
+        <v>380</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>333</v>
+        <v>381</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
+      <c r="E7" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>382</v>
+      </c>
       <c r="G7" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="I7" s="5">
-        <v>45530</v>
+        <v>45545</v>
       </c>
       <c r="J7" s="5"/>
       <c r="K7" s="4"/>
     </row>
     <row r="8" spans="1:11" ht="20" customHeight="1">
       <c r="A8" s="4">
-        <v>1734</v>
+        <v>1404</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>377</v>
+        <v>332</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>378</v>
+        <v>333</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>379</v>
-      </c>
+      <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="I8" s="5">
-        <v>45545</v>
+        <v>45530</v>
       </c>
       <c r="J8" s="5"/>
       <c r="K8" s="4"/>
     </row>
     <row r="9" spans="1:11" ht="20" customHeight="1">
       <c r="A9" s="4">
-        <v>1829</v>
+        <v>1734</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4" t="s">
-        <v>382</v>
-      </c>
+      <c r="E9" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
         <v>11</v>
       </c>
@@ -8748,55 +8899,55 @@
         <v>11</v>
       </c>
       <c r="I9" s="5">
-        <v>45546</v>
+        <v>45545</v>
       </c>
       <c r="J9" s="5"/>
       <c r="K9" s="4"/>
     </row>
     <row r="10" spans="1:11" ht="20" customHeight="1">
       <c r="A10" s="4">
-        <v>2419</v>
+        <v>1829</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>334</v>
+        <v>387</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>335</v>
+        <v>388</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="F10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4" t="s">
+        <v>382</v>
+      </c>
       <c r="G10" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="I10" s="5">
-        <v>45532</v>
+        <v>45546</v>
       </c>
       <c r="J10" s="5"/>
       <c r="K10" s="4"/>
     </row>
     <row r="11" spans="1:11" ht="20" customHeight="1">
       <c r="A11" s="4">
-        <v>2425</v>
+        <v>2419</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
@@ -8806,72 +8957,101 @@
         <v>28</v>
       </c>
       <c r="I11" s="5">
-        <v>45534</v>
+        <v>45532</v>
       </c>
       <c r="J11" s="5"/>
       <c r="K11" s="4"/>
     </row>
     <row r="12" spans="1:11" ht="20" customHeight="1">
       <c r="A12" s="4">
-        <v>2429</v>
+        <v>2425</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>384</v>
+        <v>345</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>385</v>
+        <v>346</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>386</v>
+      <c r="E12" s="4" t="s">
+        <v>347</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="I12" s="5">
-        <v>45545</v>
+        <v>45534</v>
       </c>
       <c r="J12" s="5"/>
       <c r="K12" s="4"/>
     </row>
-    <row r="13" spans="1:11" ht="30" customHeight="1">
+    <row r="13" spans="1:11" ht="20" customHeight="1">
       <c r="A13" s="4">
-        <v>2683</v>
+        <v>2429</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>337</v>
+        <v>384</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>338</v>
+        <v>385</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>339</v>
+      <c r="E13" s="2" t="s">
+        <v>386</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="I13" s="5">
-      